--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-noviembre 2021</t>
+    <t>Enero 1998-diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -371,6 +371,8 @@
     </xf>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,381 +659,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KB38"/>
+  <dimension ref="A1:KG38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KD16" sqref="KD15:KE16"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="285" width="11.42578125" style="2"/>
-    <col min="286" max="287" width="12.7109375" style="2" customWidth="1"/>
-    <col min="288" max="288" width="12.42578125" style="2" customWidth="1"/>
-    <col min="289" max="16384" width="11.42578125" style="2"/>
+    <col min="286" max="288" width="12.7109375" style="2" customWidth="1"/>
+    <col min="289" max="289" width="12.42578125" style="2" customWidth="1"/>
+    <col min="290" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:288" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:288" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="28">
         <v>1998</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28">
         <v>1999</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28">
         <v>2000</v>
       </c>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26">
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28">
         <v>2001</v>
       </c>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="26"/>
-      <c r="AX5" s="26">
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28">
         <v>2002</v>
       </c>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="26"/>
-      <c r="BA5" s="26"/>
-      <c r="BB5" s="26"/>
-      <c r="BC5" s="26"/>
-      <c r="BD5" s="26"/>
-      <c r="BE5" s="26"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="26"/>
-      <c r="BH5" s="26"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="26">
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="28"/>
+      <c r="BE5" s="28"/>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="28"/>
+      <c r="BH5" s="28"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28">
         <v>2003</v>
       </c>
-      <c r="BK5" s="26"/>
-      <c r="BL5" s="26"/>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="26"/>
-      <c r="BO5" s="26"/>
-      <c r="BP5" s="26"/>
-      <c r="BQ5" s="26"/>
-      <c r="BR5" s="26"/>
-      <c r="BS5" s="26"/>
-      <c r="BT5" s="26"/>
-      <c r="BU5" s="26"/>
-      <c r="BV5" s="26">
+      <c r="BK5" s="28"/>
+      <c r="BL5" s="28"/>
+      <c r="BM5" s="28"/>
+      <c r="BN5" s="28"/>
+      <c r="BO5" s="28"/>
+      <c r="BP5" s="28"/>
+      <c r="BQ5" s="28"/>
+      <c r="BR5" s="28"/>
+      <c r="BS5" s="28"/>
+      <c r="BT5" s="28"/>
+      <c r="BU5" s="28"/>
+      <c r="BV5" s="28">
         <v>2004</v>
       </c>
-      <c r="BW5" s="26"/>
-      <c r="BX5" s="26"/>
-      <c r="BY5" s="26"/>
-      <c r="BZ5" s="26"/>
-      <c r="CA5" s="26"/>
-      <c r="CB5" s="26"/>
-      <c r="CC5" s="26"/>
-      <c r="CD5" s="26"/>
-      <c r="CE5" s="26"/>
-      <c r="CF5" s="26"/>
-      <c r="CG5" s="26"/>
-      <c r="CH5" s="26">
+      <c r="BW5" s="28"/>
+      <c r="BX5" s="28"/>
+      <c r="BY5" s="28"/>
+      <c r="BZ5" s="28"/>
+      <c r="CA5" s="28"/>
+      <c r="CB5" s="28"/>
+      <c r="CC5" s="28"/>
+      <c r="CD5" s="28"/>
+      <c r="CE5" s="28"/>
+      <c r="CF5" s="28"/>
+      <c r="CG5" s="28"/>
+      <c r="CH5" s="28">
         <v>2005</v>
       </c>
-      <c r="CI5" s="26"/>
-      <c r="CJ5" s="26"/>
-      <c r="CK5" s="26"/>
-      <c r="CL5" s="26"/>
-      <c r="CM5" s="26"/>
-      <c r="CN5" s="26"/>
-      <c r="CO5" s="26"/>
-      <c r="CP5" s="26"/>
-      <c r="CQ5" s="26"/>
-      <c r="CR5" s="26"/>
-      <c r="CS5" s="26"/>
-      <c r="CT5" s="26">
+      <c r="CI5" s="28"/>
+      <c r="CJ5" s="28"/>
+      <c r="CK5" s="28"/>
+      <c r="CL5" s="28"/>
+      <c r="CM5" s="28"/>
+      <c r="CN5" s="28"/>
+      <c r="CO5" s="28"/>
+      <c r="CP5" s="28"/>
+      <c r="CQ5" s="28"/>
+      <c r="CR5" s="28"/>
+      <c r="CS5" s="28"/>
+      <c r="CT5" s="28">
         <v>2006</v>
       </c>
-      <c r="CU5" s="26"/>
-      <c r="CV5" s="26"/>
-      <c r="CW5" s="26"/>
-      <c r="CX5" s="26"/>
-      <c r="CY5" s="26"/>
-      <c r="CZ5" s="26"/>
-      <c r="DA5" s="26"/>
-      <c r="DB5" s="26"/>
-      <c r="DC5" s="26"/>
-      <c r="DD5" s="26"/>
-      <c r="DE5" s="26"/>
-      <c r="DF5" s="26">
+      <c r="CU5" s="28"/>
+      <c r="CV5" s="28"/>
+      <c r="CW5" s="28"/>
+      <c r="CX5" s="28"/>
+      <c r="CY5" s="28"/>
+      <c r="CZ5" s="28"/>
+      <c r="DA5" s="28"/>
+      <c r="DB5" s="28"/>
+      <c r="DC5" s="28"/>
+      <c r="DD5" s="28"/>
+      <c r="DE5" s="28"/>
+      <c r="DF5" s="28">
         <v>2007</v>
       </c>
-      <c r="DG5" s="26"/>
-      <c r="DH5" s="26"/>
-      <c r="DI5" s="26"/>
-      <c r="DJ5" s="26"/>
-      <c r="DK5" s="26"/>
-      <c r="DL5" s="26"/>
-      <c r="DM5" s="26"/>
-      <c r="DN5" s="26"/>
-      <c r="DO5" s="26"/>
-      <c r="DP5" s="26"/>
-      <c r="DQ5" s="26"/>
-      <c r="DR5" s="26">
+      <c r="DG5" s="28"/>
+      <c r="DH5" s="28"/>
+      <c r="DI5" s="28"/>
+      <c r="DJ5" s="28"/>
+      <c r="DK5" s="28"/>
+      <c r="DL5" s="28"/>
+      <c r="DM5" s="28"/>
+      <c r="DN5" s="28"/>
+      <c r="DO5" s="28"/>
+      <c r="DP5" s="28"/>
+      <c r="DQ5" s="28"/>
+      <c r="DR5" s="28">
         <v>2008</v>
       </c>
-      <c r="DS5" s="26"/>
-      <c r="DT5" s="26"/>
-      <c r="DU5" s="26"/>
-      <c r="DV5" s="26"/>
-      <c r="DW5" s="26"/>
-      <c r="DX5" s="26"/>
-      <c r="DY5" s="26"/>
-      <c r="DZ5" s="26"/>
-      <c r="EA5" s="26"/>
-      <c r="EB5" s="26"/>
-      <c r="EC5" s="26"/>
-      <c r="ED5" s="26">
+      <c r="DS5" s="28"/>
+      <c r="DT5" s="28"/>
+      <c r="DU5" s="28"/>
+      <c r="DV5" s="28"/>
+      <c r="DW5" s="28"/>
+      <c r="DX5" s="28"/>
+      <c r="DY5" s="28"/>
+      <c r="DZ5" s="28"/>
+      <c r="EA5" s="28"/>
+      <c r="EB5" s="28"/>
+      <c r="EC5" s="28"/>
+      <c r="ED5" s="28">
         <v>2009</v>
       </c>
-      <c r="EE5" s="26"/>
-      <c r="EF5" s="26"/>
-      <c r="EG5" s="26"/>
-      <c r="EH5" s="26"/>
-      <c r="EI5" s="26"/>
-      <c r="EJ5" s="26"/>
-      <c r="EK5" s="26"/>
-      <c r="EL5" s="26"/>
-      <c r="EM5" s="26"/>
-      <c r="EN5" s="26"/>
-      <c r="EO5" s="26"/>
-      <c r="EP5" s="26">
+      <c r="EE5" s="28"/>
+      <c r="EF5" s="28"/>
+      <c r="EG5" s="28"/>
+      <c r="EH5" s="28"/>
+      <c r="EI5" s="28"/>
+      <c r="EJ5" s="28"/>
+      <c r="EK5" s="28"/>
+      <c r="EL5" s="28"/>
+      <c r="EM5" s="28"/>
+      <c r="EN5" s="28"/>
+      <c r="EO5" s="28"/>
+      <c r="EP5" s="28">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="26"/>
-      <c r="ER5" s="26"/>
-      <c r="ES5" s="26"/>
-      <c r="ET5" s="26"/>
-      <c r="EU5" s="26"/>
-      <c r="EV5" s="26"/>
-      <c r="EW5" s="26"/>
-      <c r="EX5" s="26"/>
-      <c r="EY5" s="26"/>
-      <c r="EZ5" s="26"/>
-      <c r="FA5" s="26"/>
-      <c r="FB5" s="26">
+      <c r="EQ5" s="28"/>
+      <c r="ER5" s="28"/>
+      <c r="ES5" s="28"/>
+      <c r="ET5" s="28"/>
+      <c r="EU5" s="28"/>
+      <c r="EV5" s="28"/>
+      <c r="EW5" s="28"/>
+      <c r="EX5" s="28"/>
+      <c r="EY5" s="28"/>
+      <c r="EZ5" s="28"/>
+      <c r="FA5" s="28"/>
+      <c r="FB5" s="28">
         <v>2011</v>
       </c>
-      <c r="FC5" s="26"/>
-      <c r="FD5" s="26"/>
-      <c r="FE5" s="26"/>
-      <c r="FF5" s="26"/>
-      <c r="FG5" s="26"/>
-      <c r="FH5" s="26"/>
-      <c r="FI5" s="26"/>
-      <c r="FJ5" s="26"/>
-      <c r="FK5" s="26"/>
-      <c r="FL5" s="26"/>
-      <c r="FM5" s="26"/>
-      <c r="FN5" s="26">
+      <c r="FC5" s="28"/>
+      <c r="FD5" s="28"/>
+      <c r="FE5" s="28"/>
+      <c r="FF5" s="28"/>
+      <c r="FG5" s="28"/>
+      <c r="FH5" s="28"/>
+      <c r="FI5" s="28"/>
+      <c r="FJ5" s="28"/>
+      <c r="FK5" s="28"/>
+      <c r="FL5" s="28"/>
+      <c r="FM5" s="28"/>
+      <c r="FN5" s="28">
         <v>2012</v>
       </c>
-      <c r="FO5" s="26"/>
-      <c r="FP5" s="26"/>
-      <c r="FQ5" s="26"/>
-      <c r="FR5" s="26"/>
-      <c r="FS5" s="26"/>
-      <c r="FT5" s="26"/>
-      <c r="FU5" s="26"/>
-      <c r="FV5" s="26"/>
-      <c r="FW5" s="26"/>
-      <c r="FX5" s="26"/>
-      <c r="FY5" s="26"/>
-      <c r="FZ5" s="26">
+      <c r="FO5" s="28"/>
+      <c r="FP5" s="28"/>
+      <c r="FQ5" s="28"/>
+      <c r="FR5" s="28"/>
+      <c r="FS5" s="28"/>
+      <c r="FT5" s="28"/>
+      <c r="FU5" s="28"/>
+      <c r="FV5" s="28"/>
+      <c r="FW5" s="28"/>
+      <c r="FX5" s="28"/>
+      <c r="FY5" s="28"/>
+      <c r="FZ5" s="28">
         <v>2013</v>
       </c>
-      <c r="GA5" s="26"/>
-      <c r="GB5" s="26"/>
-      <c r="GC5" s="26"/>
-      <c r="GD5" s="26"/>
-      <c r="GE5" s="26"/>
-      <c r="GF5" s="26"/>
-      <c r="GG5" s="26"/>
-      <c r="GH5" s="26"/>
-      <c r="GI5" s="26"/>
-      <c r="GJ5" s="26"/>
-      <c r="GK5" s="26"/>
-      <c r="GL5" s="26">
+      <c r="GA5" s="28"/>
+      <c r="GB5" s="28"/>
+      <c r="GC5" s="28"/>
+      <c r="GD5" s="28"/>
+      <c r="GE5" s="28"/>
+      <c r="GF5" s="28"/>
+      <c r="GG5" s="28"/>
+      <c r="GH5" s="28"/>
+      <c r="GI5" s="28"/>
+      <c r="GJ5" s="28"/>
+      <c r="GK5" s="28"/>
+      <c r="GL5" s="28">
         <v>2014</v>
       </c>
-      <c r="GM5" s="26"/>
-      <c r="GN5" s="26"/>
-      <c r="GO5" s="26"/>
-      <c r="GP5" s="26"/>
-      <c r="GQ5" s="26"/>
-      <c r="GR5" s="26"/>
-      <c r="GS5" s="26"/>
-      <c r="GT5" s="26"/>
-      <c r="GU5" s="26"/>
-      <c r="GV5" s="26"/>
-      <c r="GW5" s="26"/>
-      <c r="GX5" s="26">
+      <c r="GM5" s="28"/>
+      <c r="GN5" s="28"/>
+      <c r="GO5" s="28"/>
+      <c r="GP5" s="28"/>
+      <c r="GQ5" s="28"/>
+      <c r="GR5" s="28"/>
+      <c r="GS5" s="28"/>
+      <c r="GT5" s="28"/>
+      <c r="GU5" s="28"/>
+      <c r="GV5" s="28"/>
+      <c r="GW5" s="28"/>
+      <c r="GX5" s="28">
         <v>2015</v>
       </c>
-      <c r="GY5" s="26"/>
-      <c r="GZ5" s="26"/>
-      <c r="HA5" s="26"/>
-      <c r="HB5" s="26"/>
-      <c r="HC5" s="26"/>
-      <c r="HD5" s="26"/>
-      <c r="HE5" s="26"/>
-      <c r="HF5" s="26"/>
-      <c r="HG5" s="26"/>
-      <c r="HH5" s="26"/>
-      <c r="HI5" s="26"/>
-      <c r="HJ5" s="26">
+      <c r="GY5" s="28"/>
+      <c r="GZ5" s="28"/>
+      <c r="HA5" s="28"/>
+      <c r="HB5" s="28"/>
+      <c r="HC5" s="28"/>
+      <c r="HD5" s="28"/>
+      <c r="HE5" s="28"/>
+      <c r="HF5" s="28"/>
+      <c r="HG5" s="28"/>
+      <c r="HH5" s="28"/>
+      <c r="HI5" s="28"/>
+      <c r="HJ5" s="28">
         <v>2016</v>
       </c>
-      <c r="HK5" s="26"/>
-      <c r="HL5" s="26"/>
-      <c r="HM5" s="26"/>
-      <c r="HN5" s="26"/>
-      <c r="HO5" s="26"/>
-      <c r="HP5" s="26"/>
-      <c r="HQ5" s="26"/>
-      <c r="HR5" s="26"/>
-      <c r="HS5" s="26"/>
-      <c r="HT5" s="26"/>
-      <c r="HU5" s="26"/>
-      <c r="HV5" s="26">
+      <c r="HK5" s="28"/>
+      <c r="HL5" s="28"/>
+      <c r="HM5" s="28"/>
+      <c r="HN5" s="28"/>
+      <c r="HO5" s="28"/>
+      <c r="HP5" s="28"/>
+      <c r="HQ5" s="28"/>
+      <c r="HR5" s="28"/>
+      <c r="HS5" s="28"/>
+      <c r="HT5" s="28"/>
+      <c r="HU5" s="28"/>
+      <c r="HV5" s="28">
         <v>2017</v>
       </c>
-      <c r="HW5" s="26"/>
-      <c r="HX5" s="26"/>
-      <c r="HY5" s="26"/>
-      <c r="HZ5" s="26"/>
-      <c r="IA5" s="26"/>
-      <c r="IB5" s="26"/>
-      <c r="IC5" s="26"/>
-      <c r="ID5" s="26"/>
-      <c r="IE5" s="26"/>
-      <c r="IF5" s="26"/>
-      <c r="IG5" s="26"/>
-      <c r="IH5" s="26">
+      <c r="HW5" s="28"/>
+      <c r="HX5" s="28"/>
+      <c r="HY5" s="28"/>
+      <c r="HZ5" s="28"/>
+      <c r="IA5" s="28"/>
+      <c r="IB5" s="28"/>
+      <c r="IC5" s="28"/>
+      <c r="ID5" s="28"/>
+      <c r="IE5" s="28"/>
+      <c r="IF5" s="28"/>
+      <c r="IG5" s="28"/>
+      <c r="IH5" s="28">
         <v>2018</v>
       </c>
-      <c r="II5" s="26"/>
-      <c r="IJ5" s="26"/>
-      <c r="IK5" s="26"/>
-      <c r="IL5" s="26"/>
-      <c r="IM5" s="26"/>
-      <c r="IN5" s="26"/>
-      <c r="IO5" s="26"/>
-      <c r="IP5" s="26"/>
-      <c r="IQ5" s="26"/>
-      <c r="IR5" s="26"/>
-      <c r="IS5" s="26"/>
-      <c r="IT5" s="26">
+      <c r="II5" s="28"/>
+      <c r="IJ5" s="28"/>
+      <c r="IK5" s="28"/>
+      <c r="IL5" s="28"/>
+      <c r="IM5" s="28"/>
+      <c r="IN5" s="28"/>
+      <c r="IO5" s="28"/>
+      <c r="IP5" s="28"/>
+      <c r="IQ5" s="28"/>
+      <c r="IR5" s="28"/>
+      <c r="IS5" s="28"/>
+      <c r="IT5" s="28">
         <v>2019</v>
       </c>
-      <c r="IU5" s="26"/>
-      <c r="IV5" s="26"/>
-      <c r="IW5" s="26"/>
-      <c r="IX5" s="26"/>
-      <c r="IY5" s="26"/>
-      <c r="IZ5" s="26"/>
-      <c r="JA5" s="26"/>
-      <c r="JB5" s="26"/>
-      <c r="JC5" s="26"/>
-      <c r="JD5" s="26"/>
-      <c r="JE5" s="26"/>
-      <c r="JF5" s="26">
+      <c r="IU5" s="28"/>
+      <c r="IV5" s="28"/>
+      <c r="IW5" s="28"/>
+      <c r="IX5" s="28"/>
+      <c r="IY5" s="28"/>
+      <c r="IZ5" s="28"/>
+      <c r="JA5" s="28"/>
+      <c r="JB5" s="28"/>
+      <c r="JC5" s="28"/>
+      <c r="JD5" s="28"/>
+      <c r="JE5" s="28"/>
+      <c r="JF5" s="28">
         <v>2020</v>
       </c>
-      <c r="JG5" s="26"/>
-      <c r="JH5" s="26"/>
-      <c r="JI5" s="26"/>
-      <c r="JJ5" s="26"/>
-      <c r="JK5" s="26"/>
-      <c r="JL5" s="26"/>
-      <c r="JM5" s="26"/>
-      <c r="JN5" s="26"/>
-      <c r="JO5" s="26"/>
-      <c r="JP5" s="26"/>
-      <c r="JQ5" s="26"/>
-      <c r="JR5" s="26">
+      <c r="JG5" s="28"/>
+      <c r="JH5" s="28"/>
+      <c r="JI5" s="28"/>
+      <c r="JJ5" s="28"/>
+      <c r="JK5" s="28"/>
+      <c r="JL5" s="28"/>
+      <c r="JM5" s="28"/>
+      <c r="JN5" s="28"/>
+      <c r="JO5" s="28"/>
+      <c r="JP5" s="28"/>
+      <c r="JQ5" s="28"/>
+      <c r="JR5" s="28">
         <v>2021</v>
       </c>
-      <c r="JS5" s="26"/>
-      <c r="JT5" s="26"/>
-      <c r="JU5" s="26"/>
-      <c r="JV5" s="26"/>
-      <c r="JW5" s="26"/>
-      <c r="JX5" s="26"/>
-      <c r="JY5" s="26"/>
-      <c r="JZ5" s="26"/>
-      <c r="KA5" s="26"/>
-      <c r="KB5" s="26"/>
+      <c r="JS5" s="28"/>
+      <c r="JT5" s="28"/>
+      <c r="JU5" s="28"/>
+      <c r="JV5" s="28"/>
+      <c r="JW5" s="28"/>
+      <c r="JX5" s="28"/>
+      <c r="JY5" s="28"/>
+      <c r="JZ5" s="28"/>
+      <c r="KA5" s="28"/>
+      <c r="KB5" s="28"/>
+      <c r="KC5" s="28"/>
     </row>
-    <row r="6" spans="1:288" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1890,11 +1893,14 @@
       <c r="KA6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="KB6" s="23" t="s">
+      <c r="KB6" s="22" t="s">
         <v>21</v>
       </c>
+      <c r="KC6" s="23" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:288" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2756,11 +2762,14 @@
       <c r="KA7" s="5">
         <v>1115615</v>
       </c>
-      <c r="KB7" s="6">
+      <c r="KB7" s="5">
         <v>1124336</v>
       </c>
+      <c r="KC7" s="6">
+        <v>1110209</v>
+      </c>
     </row>
-    <row r="8" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3622,11 +3631,14 @@
       <c r="KA8" s="7">
         <v>200903</v>
       </c>
-      <c r="KB8" s="8">
+      <c r="KB8" s="7">
         <v>202713</v>
       </c>
+      <c r="KC8" s="8">
+        <v>202811</v>
+      </c>
     </row>
-    <row r="9" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4488,11 +4500,14 @@
       <c r="KA9" s="7">
         <v>34039</v>
       </c>
-      <c r="KB9" s="8">
+      <c r="KB9" s="7">
         <v>34158</v>
       </c>
+      <c r="KC9" s="8">
+        <v>31826</v>
+      </c>
     </row>
-    <row r="10" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5354,11 +5369,14 @@
       <c r="KA10" s="7">
         <v>136833</v>
       </c>
-      <c r="KB10" s="8">
+      <c r="KB10" s="7">
         <v>138731</v>
       </c>
+      <c r="KC10" s="8">
+        <v>135218</v>
+      </c>
     </row>
-    <row r="11" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6220,11 +6238,14 @@
       <c r="KA11" s="7">
         <v>176989</v>
       </c>
-      <c r="KB11" s="8">
+      <c r="KB11" s="7">
         <v>178176</v>
       </c>
+      <c r="KC11" s="8">
+        <v>175069</v>
+      </c>
     </row>
-    <row r="12" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7086,11 +7107,14 @@
       <c r="KA12" s="7">
         <v>168077</v>
       </c>
-      <c r="KB12" s="8">
+      <c r="KB12" s="7">
         <v>169360</v>
       </c>
+      <c r="KC12" s="8">
+        <v>167054</v>
+      </c>
     </row>
-    <row r="13" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -7952,11 +7976,14 @@
       <c r="KA13" s="7">
         <v>150228</v>
       </c>
-      <c r="KB13" s="8">
+      <c r="KB13" s="7">
         <v>151051</v>
       </c>
+      <c r="KC13" s="8">
+        <v>149603</v>
+      </c>
     </row>
-    <row r="14" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -8818,11 +8845,17 @@
       <c r="KA14" s="7">
         <v>131021</v>
       </c>
-      <c r="KB14" s="8">
+      <c r="KB14" s="7">
         <v>132016</v>
       </c>
+      <c r="KC14" s="8">
+        <v>131230</v>
+      </c>
+      <c r="KE14" s="26"/>
+      <c r="KF14" s="26"/>
+      <c r="KG14" s="26"/>
     </row>
-    <row r="15" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -9684,11 +9717,17 @@
       <c r="KA15" s="7">
         <v>117488</v>
       </c>
-      <c r="KB15" s="8">
+      <c r="KB15" s="7">
         <v>118096</v>
       </c>
+      <c r="KC15" s="8">
+        <v>117361</v>
+      </c>
+      <c r="KE15" s="26"/>
+      <c r="KF15" s="26"/>
+      <c r="KG15" s="26"/>
     </row>
-    <row r="16" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10550,11 +10589,17 @@
       <c r="KA16" s="9">
         <v>37</v>
       </c>
-      <c r="KB16" s="10">
+      <c r="KB16" s="9">
         <v>35</v>
       </c>
+      <c r="KC16" s="10">
+        <v>37</v>
+      </c>
+      <c r="KE16" s="26"/>
+      <c r="KF16" s="26"/>
+      <c r="KG16" s="26"/>
     </row>
-    <row r="17" spans="1:288" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11416,11 +11461,17 @@
       <c r="KA17" s="5">
         <v>742620</v>
       </c>
-      <c r="KB17" s="6">
+      <c r="KB17" s="5">
         <v>749140</v>
       </c>
+      <c r="KC17" s="6">
+        <v>739790</v>
+      </c>
+      <c r="KE17" s="27"/>
+      <c r="KF17" s="27"/>
+      <c r="KG17" s="27"/>
     </row>
-    <row r="18" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12282,11 +12333,17 @@
       <c r="KA18" s="7">
         <v>119574</v>
       </c>
-      <c r="KB18" s="8">
+      <c r="KB18" s="7">
         <v>120709</v>
       </c>
+      <c r="KC18" s="8">
+        <v>120610</v>
+      </c>
+      <c r="KE18" s="26"/>
+      <c r="KF18" s="26"/>
+      <c r="KG18" s="26"/>
     </row>
-    <row r="19" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13148,11 +13205,17 @@
       <c r="KA19" s="7">
         <v>19809</v>
       </c>
-      <c r="KB19" s="8">
+      <c r="KB19" s="7">
         <v>20031</v>
       </c>
+      <c r="KC19" s="8">
+        <v>18728</v>
+      </c>
+      <c r="KE19" s="26"/>
+      <c r="KF19" s="26"/>
+      <c r="KG19" s="26"/>
     </row>
-    <row r="20" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14014,11 +14077,17 @@
       <c r="KA20" s="7">
         <v>93954</v>
       </c>
-      <c r="KB20" s="8">
+      <c r="KB20" s="7">
         <v>95489</v>
       </c>
+      <c r="KC20" s="8">
+        <v>93048</v>
+      </c>
+      <c r="KE20" s="26"/>
+      <c r="KF20" s="26"/>
+      <c r="KG20" s="26"/>
     </row>
-    <row r="21" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -14880,11 +14949,17 @@
       <c r="KA21" s="7">
         <v>123660</v>
       </c>
-      <c r="KB21" s="8">
+      <c r="KB21" s="7">
         <v>124606</v>
       </c>
+      <c r="KC21" s="8">
+        <v>122605</v>
+      </c>
+      <c r="KE21" s="26"/>
+      <c r="KF21" s="26"/>
+      <c r="KG21" s="26"/>
     </row>
-    <row r="22" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -15746,11 +15821,17 @@
       <c r="KA22" s="7">
         <v>114181</v>
       </c>
-      <c r="KB22" s="8">
+      <c r="KB22" s="7">
         <v>115009</v>
       </c>
+      <c r="KC22" s="8">
+        <v>113627</v>
+      </c>
+      <c r="KE22" s="26"/>
+      <c r="KF22" s="26"/>
+      <c r="KG22" s="26"/>
     </row>
-    <row r="23" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -16612,11 +16693,17 @@
       <c r="KA23" s="7">
         <v>103696</v>
       </c>
-      <c r="KB23" s="8">
+      <c r="KB23" s="7">
         <v>104182</v>
       </c>
+      <c r="KC23" s="8">
+        <v>103059</v>
+      </c>
+      <c r="KE23" s="26"/>
+      <c r="KF23" s="26"/>
+      <c r="KG23" s="26"/>
     </row>
-    <row r="24" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -17478,11 +17565,14 @@
       <c r="KA24" s="7">
         <v>90075</v>
       </c>
-      <c r="KB24" s="8">
+      <c r="KB24" s="7">
         <v>90772</v>
       </c>
+      <c r="KC24" s="8">
+        <v>90139</v>
+      </c>
     </row>
-    <row r="25" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -18344,11 +18434,14 @@
       <c r="KA25" s="7">
         <v>77665</v>
       </c>
-      <c r="KB25" s="8">
+      <c r="KB25" s="7">
         <v>78337</v>
       </c>
+      <c r="KC25" s="8">
+        <v>77970</v>
+      </c>
     </row>
-    <row r="26" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19210,11 +19303,14 @@
       <c r="KA26" s="9">
         <v>6</v>
       </c>
-      <c r="KB26" s="10">
+      <c r="KB26" s="9">
         <v>5</v>
       </c>
+      <c r="KC26" s="10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:288" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20076,11 +20172,14 @@
       <c r="KA27" s="11">
         <v>1858235</v>
       </c>
-      <c r="KB27" s="12">
+      <c r="KB27" s="11">
         <v>1873476</v>
       </c>
+      <c r="KC27" s="12">
+        <v>1849999</v>
+      </c>
     </row>
-    <row r="28" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -21226,11 +21325,14 @@
       <c r="KA28" s="7">
         <v>320477</v>
       </c>
-      <c r="KB28" s="8">
+      <c r="KB28" s="7">
         <v>323422</v>
       </c>
+      <c r="KC28" s="8">
+        <v>323421</v>
+      </c>
     </row>
-    <row r="29" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -22376,11 +22478,14 @@
       <c r="KA29" s="7">
         <v>53848</v>
       </c>
-      <c r="KB29" s="8">
+      <c r="KB29" s="7">
         <v>54189</v>
       </c>
+      <c r="KC29" s="8">
+        <v>50554</v>
+      </c>
     </row>
-    <row r="30" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -23526,11 +23631,14 @@
       <c r="KA30" s="7">
         <v>230787</v>
       </c>
-      <c r="KB30" s="8">
+      <c r="KB30" s="7">
         <v>234220</v>
       </c>
+      <c r="KC30" s="8">
+        <v>228266</v>
+      </c>
     </row>
-    <row r="31" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -24676,11 +24784,14 @@
       <c r="KA31" s="7">
         <v>300649</v>
       </c>
-      <c r="KB31" s="8">
+      <c r="KB31" s="7">
         <v>302782</v>
       </c>
+      <c r="KC31" s="8">
+        <v>297674</v>
+      </c>
     </row>
-    <row r="32" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -25826,11 +25937,14 @@
       <c r="KA32" s="7">
         <v>282258</v>
       </c>
-      <c r="KB32" s="8">
+      <c r="KB32" s="7">
         <v>284369</v>
       </c>
+      <c r="KC32" s="8">
+        <v>280681</v>
+      </c>
     </row>
-    <row r="33" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -26976,11 +27090,14 @@
       <c r="KA33" s="7">
         <v>253924</v>
       </c>
-      <c r="KB33" s="8">
+      <c r="KB33" s="7">
         <v>255233</v>
       </c>
+      <c r="KC33" s="8">
+        <v>252662</v>
+      </c>
     </row>
-    <row r="34" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -28126,11 +28243,14 @@
       <c r="KA34" s="7">
         <v>221096</v>
       </c>
-      <c r="KB34" s="8">
+      <c r="KB34" s="7">
         <v>222788</v>
       </c>
+      <c r="KC34" s="8">
+        <v>221369</v>
+      </c>
     </row>
-    <row r="35" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -29276,11 +29396,14 @@
       <c r="KA35" s="7">
         <v>195153</v>
       </c>
-      <c r="KB35" s="8">
+      <c r="KB35" s="7">
         <v>196433</v>
       </c>
+      <c r="KC35" s="8">
+        <v>195331</v>
+      </c>
     </row>
-    <row r="36" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -30426,14 +30549,17 @@
       <c r="KA36" s="9">
         <v>43</v>
       </c>
-      <c r="KB36" s="10">
+      <c r="KB36" s="9">
         <v>40</v>
       </c>
+      <c r="KC36" s="10">
+        <v>41</v>
+      </c>
     </row>
-    <row r="37" spans="1:288" x14ac:dyDescent="0.25">
-      <c r="KB37" s="25"/>
+    <row r="37" spans="1:289" x14ac:dyDescent="0.25">
+      <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:288" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
@@ -30458,7 +30584,7 @@
     <mergeCell ref="AX5:BI5"/>
     <mergeCell ref="BJ5:BU5"/>
     <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KB5"/>
+    <mergeCell ref="JR5:KC5"/>
     <mergeCell ref="EP5:FA5"/>
     <mergeCell ref="FB5:FM5"/>
     <mergeCell ref="FN5:FY5"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-diciembre 2021</t>
+    <t>Enero 1998-enero 2022</t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -379,6 +379,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +674,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,342 +706,345 @@
       <c r="A5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="30">
         <v>1998</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30">
         <v>1999</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30">
         <v>2000</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28">
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30">
         <v>2001</v>
       </c>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28">
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="30"/>
+      <c r="AT5" s="30"/>
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="30"/>
+      <c r="AX5" s="30">
         <v>2002</v>
       </c>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="28"/>
-      <c r="BE5" s="28"/>
-      <c r="BF5" s="28"/>
-      <c r="BG5" s="28"/>
-      <c r="BH5" s="28"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="28">
+      <c r="AY5" s="30"/>
+      <c r="AZ5" s="30"/>
+      <c r="BA5" s="30"/>
+      <c r="BB5" s="30"/>
+      <c r="BC5" s="30"/>
+      <c r="BD5" s="30"/>
+      <c r="BE5" s="30"/>
+      <c r="BF5" s="30"/>
+      <c r="BG5" s="30"/>
+      <c r="BH5" s="30"/>
+      <c r="BI5" s="30"/>
+      <c r="BJ5" s="30">
         <v>2003</v>
       </c>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="28"/>
-      <c r="BM5" s="28"/>
-      <c r="BN5" s="28"/>
-      <c r="BO5" s="28"/>
-      <c r="BP5" s="28"/>
-      <c r="BQ5" s="28"/>
-      <c r="BR5" s="28"/>
-      <c r="BS5" s="28"/>
-      <c r="BT5" s="28"/>
-      <c r="BU5" s="28"/>
-      <c r="BV5" s="28">
+      <c r="BK5" s="30"/>
+      <c r="BL5" s="30"/>
+      <c r="BM5" s="30"/>
+      <c r="BN5" s="30"/>
+      <c r="BO5" s="30"/>
+      <c r="BP5" s="30"/>
+      <c r="BQ5" s="30"/>
+      <c r="BR5" s="30"/>
+      <c r="BS5" s="30"/>
+      <c r="BT5" s="30"/>
+      <c r="BU5" s="30"/>
+      <c r="BV5" s="30">
         <v>2004</v>
       </c>
-      <c r="BW5" s="28"/>
-      <c r="BX5" s="28"/>
-      <c r="BY5" s="28"/>
-      <c r="BZ5" s="28"/>
-      <c r="CA5" s="28"/>
-      <c r="CB5" s="28"/>
-      <c r="CC5" s="28"/>
-      <c r="CD5" s="28"/>
-      <c r="CE5" s="28"/>
-      <c r="CF5" s="28"/>
-      <c r="CG5" s="28"/>
-      <c r="CH5" s="28">
+      <c r="BW5" s="30"/>
+      <c r="BX5" s="30"/>
+      <c r="BY5" s="30"/>
+      <c r="BZ5" s="30"/>
+      <c r="CA5" s="30"/>
+      <c r="CB5" s="30"/>
+      <c r="CC5" s="30"/>
+      <c r="CD5" s="30"/>
+      <c r="CE5" s="30"/>
+      <c r="CF5" s="30"/>
+      <c r="CG5" s="30"/>
+      <c r="CH5" s="30">
         <v>2005</v>
       </c>
-      <c r="CI5" s="28"/>
-      <c r="CJ5" s="28"/>
-      <c r="CK5" s="28"/>
-      <c r="CL5" s="28"/>
-      <c r="CM5" s="28"/>
-      <c r="CN5" s="28"/>
-      <c r="CO5" s="28"/>
-      <c r="CP5" s="28"/>
-      <c r="CQ5" s="28"/>
-      <c r="CR5" s="28"/>
-      <c r="CS5" s="28"/>
-      <c r="CT5" s="28">
+      <c r="CI5" s="30"/>
+      <c r="CJ5" s="30"/>
+      <c r="CK5" s="30"/>
+      <c r="CL5" s="30"/>
+      <c r="CM5" s="30"/>
+      <c r="CN5" s="30"/>
+      <c r="CO5" s="30"/>
+      <c r="CP5" s="30"/>
+      <c r="CQ5" s="30"/>
+      <c r="CR5" s="30"/>
+      <c r="CS5" s="30"/>
+      <c r="CT5" s="30">
         <v>2006</v>
       </c>
-      <c r="CU5" s="28"/>
-      <c r="CV5" s="28"/>
-      <c r="CW5" s="28"/>
-      <c r="CX5" s="28"/>
-      <c r="CY5" s="28"/>
-      <c r="CZ5" s="28"/>
-      <c r="DA5" s="28"/>
-      <c r="DB5" s="28"/>
-      <c r="DC5" s="28"/>
-      <c r="DD5" s="28"/>
-      <c r="DE5" s="28"/>
-      <c r="DF5" s="28">
+      <c r="CU5" s="30"/>
+      <c r="CV5" s="30"/>
+      <c r="CW5" s="30"/>
+      <c r="CX5" s="30"/>
+      <c r="CY5" s="30"/>
+      <c r="CZ5" s="30"/>
+      <c r="DA5" s="30"/>
+      <c r="DB5" s="30"/>
+      <c r="DC5" s="30"/>
+      <c r="DD5" s="30"/>
+      <c r="DE5" s="30"/>
+      <c r="DF5" s="30">
         <v>2007</v>
       </c>
-      <c r="DG5" s="28"/>
-      <c r="DH5" s="28"/>
-      <c r="DI5" s="28"/>
-      <c r="DJ5" s="28"/>
-      <c r="DK5" s="28"/>
-      <c r="DL5" s="28"/>
-      <c r="DM5" s="28"/>
-      <c r="DN5" s="28"/>
-      <c r="DO5" s="28"/>
-      <c r="DP5" s="28"/>
-      <c r="DQ5" s="28"/>
-      <c r="DR5" s="28">
+      <c r="DG5" s="30"/>
+      <c r="DH5" s="30"/>
+      <c r="DI5" s="30"/>
+      <c r="DJ5" s="30"/>
+      <c r="DK5" s="30"/>
+      <c r="DL5" s="30"/>
+      <c r="DM5" s="30"/>
+      <c r="DN5" s="30"/>
+      <c r="DO5" s="30"/>
+      <c r="DP5" s="30"/>
+      <c r="DQ5" s="30"/>
+      <c r="DR5" s="30">
         <v>2008</v>
       </c>
-      <c r="DS5" s="28"/>
-      <c r="DT5" s="28"/>
-      <c r="DU5" s="28"/>
-      <c r="DV5" s="28"/>
-      <c r="DW5" s="28"/>
-      <c r="DX5" s="28"/>
-      <c r="DY5" s="28"/>
-      <c r="DZ5" s="28"/>
-      <c r="EA5" s="28"/>
-      <c r="EB5" s="28"/>
-      <c r="EC5" s="28"/>
-      <c r="ED5" s="28">
+      <c r="DS5" s="30"/>
+      <c r="DT5" s="30"/>
+      <c r="DU5" s="30"/>
+      <c r="DV5" s="30"/>
+      <c r="DW5" s="30"/>
+      <c r="DX5" s="30"/>
+      <c r="DY5" s="30"/>
+      <c r="DZ5" s="30"/>
+      <c r="EA5" s="30"/>
+      <c r="EB5" s="30"/>
+      <c r="EC5" s="30"/>
+      <c r="ED5" s="30">
         <v>2009</v>
       </c>
-      <c r="EE5" s="28"/>
-      <c r="EF5" s="28"/>
-      <c r="EG5" s="28"/>
-      <c r="EH5" s="28"/>
-      <c r="EI5" s="28"/>
-      <c r="EJ5" s="28"/>
-      <c r="EK5" s="28"/>
-      <c r="EL5" s="28"/>
-      <c r="EM5" s="28"/>
-      <c r="EN5" s="28"/>
-      <c r="EO5" s="28"/>
-      <c r="EP5" s="28">
+      <c r="EE5" s="30"/>
+      <c r="EF5" s="30"/>
+      <c r="EG5" s="30"/>
+      <c r="EH5" s="30"/>
+      <c r="EI5" s="30"/>
+      <c r="EJ5" s="30"/>
+      <c r="EK5" s="30"/>
+      <c r="EL5" s="30"/>
+      <c r="EM5" s="30"/>
+      <c r="EN5" s="30"/>
+      <c r="EO5" s="30"/>
+      <c r="EP5" s="30">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="28"/>
-      <c r="ER5" s="28"/>
-      <c r="ES5" s="28"/>
-      <c r="ET5" s="28"/>
-      <c r="EU5" s="28"/>
-      <c r="EV5" s="28"/>
-      <c r="EW5" s="28"/>
-      <c r="EX5" s="28"/>
-      <c r="EY5" s="28"/>
-      <c r="EZ5" s="28"/>
-      <c r="FA5" s="28"/>
-      <c r="FB5" s="28">
+      <c r="EQ5" s="30"/>
+      <c r="ER5" s="30"/>
+      <c r="ES5" s="30"/>
+      <c r="ET5" s="30"/>
+      <c r="EU5" s="30"/>
+      <c r="EV5" s="30"/>
+      <c r="EW5" s="30"/>
+      <c r="EX5" s="30"/>
+      <c r="EY5" s="30"/>
+      <c r="EZ5" s="30"/>
+      <c r="FA5" s="30"/>
+      <c r="FB5" s="30">
         <v>2011</v>
       </c>
-      <c r="FC5" s="28"/>
-      <c r="FD5" s="28"/>
-      <c r="FE5" s="28"/>
-      <c r="FF5" s="28"/>
-      <c r="FG5" s="28"/>
-      <c r="FH5" s="28"/>
-      <c r="FI5" s="28"/>
-      <c r="FJ5" s="28"/>
-      <c r="FK5" s="28"/>
-      <c r="FL5" s="28"/>
-      <c r="FM5" s="28"/>
-      <c r="FN5" s="28">
+      <c r="FC5" s="30"/>
+      <c r="FD5" s="30"/>
+      <c r="FE5" s="30"/>
+      <c r="FF5" s="30"/>
+      <c r="FG5" s="30"/>
+      <c r="FH5" s="30"/>
+      <c r="FI5" s="30"/>
+      <c r="FJ5" s="30"/>
+      <c r="FK5" s="30"/>
+      <c r="FL5" s="30"/>
+      <c r="FM5" s="30"/>
+      <c r="FN5" s="30">
         <v>2012</v>
       </c>
-      <c r="FO5" s="28"/>
-      <c r="FP5" s="28"/>
-      <c r="FQ5" s="28"/>
-      <c r="FR5" s="28"/>
-      <c r="FS5" s="28"/>
-      <c r="FT5" s="28"/>
-      <c r="FU5" s="28"/>
-      <c r="FV5" s="28"/>
-      <c r="FW5" s="28"/>
-      <c r="FX5" s="28"/>
-      <c r="FY5" s="28"/>
-      <c r="FZ5" s="28">
+      <c r="FO5" s="30"/>
+      <c r="FP5" s="30"/>
+      <c r="FQ5" s="30"/>
+      <c r="FR5" s="30"/>
+      <c r="FS5" s="30"/>
+      <c r="FT5" s="30"/>
+      <c r="FU5" s="30"/>
+      <c r="FV5" s="30"/>
+      <c r="FW5" s="30"/>
+      <c r="FX5" s="30"/>
+      <c r="FY5" s="30"/>
+      <c r="FZ5" s="30">
         <v>2013</v>
       </c>
-      <c r="GA5" s="28"/>
-      <c r="GB5" s="28"/>
-      <c r="GC5" s="28"/>
-      <c r="GD5" s="28"/>
-      <c r="GE5" s="28"/>
-      <c r="GF5" s="28"/>
-      <c r="GG5" s="28"/>
-      <c r="GH5" s="28"/>
-      <c r="GI5" s="28"/>
-      <c r="GJ5" s="28"/>
-      <c r="GK5" s="28"/>
-      <c r="GL5" s="28">
+      <c r="GA5" s="30"/>
+      <c r="GB5" s="30"/>
+      <c r="GC5" s="30"/>
+      <c r="GD5" s="30"/>
+      <c r="GE5" s="30"/>
+      <c r="GF5" s="30"/>
+      <c r="GG5" s="30"/>
+      <c r="GH5" s="30"/>
+      <c r="GI5" s="30"/>
+      <c r="GJ5" s="30"/>
+      <c r="GK5" s="30"/>
+      <c r="GL5" s="30">
         <v>2014</v>
       </c>
-      <c r="GM5" s="28"/>
-      <c r="GN5" s="28"/>
-      <c r="GO5" s="28"/>
-      <c r="GP5" s="28"/>
-      <c r="GQ5" s="28"/>
-      <c r="GR5" s="28"/>
-      <c r="GS5" s="28"/>
-      <c r="GT5" s="28"/>
-      <c r="GU5" s="28"/>
-      <c r="GV5" s="28"/>
-      <c r="GW5" s="28"/>
-      <c r="GX5" s="28">
+      <c r="GM5" s="30"/>
+      <c r="GN5" s="30"/>
+      <c r="GO5" s="30"/>
+      <c r="GP5" s="30"/>
+      <c r="GQ5" s="30"/>
+      <c r="GR5" s="30"/>
+      <c r="GS5" s="30"/>
+      <c r="GT5" s="30"/>
+      <c r="GU5" s="30"/>
+      <c r="GV5" s="30"/>
+      <c r="GW5" s="30"/>
+      <c r="GX5" s="30">
         <v>2015</v>
       </c>
-      <c r="GY5" s="28"/>
-      <c r="GZ5" s="28"/>
-      <c r="HA5" s="28"/>
-      <c r="HB5" s="28"/>
-      <c r="HC5" s="28"/>
-      <c r="HD5" s="28"/>
-      <c r="HE5" s="28"/>
-      <c r="HF5" s="28"/>
-      <c r="HG5" s="28"/>
-      <c r="HH5" s="28"/>
-      <c r="HI5" s="28"/>
-      <c r="HJ5" s="28">
+      <c r="GY5" s="30"/>
+      <c r="GZ5" s="30"/>
+      <c r="HA5" s="30"/>
+      <c r="HB5" s="30"/>
+      <c r="HC5" s="30"/>
+      <c r="HD5" s="30"/>
+      <c r="HE5" s="30"/>
+      <c r="HF5" s="30"/>
+      <c r="HG5" s="30"/>
+      <c r="HH5" s="30"/>
+      <c r="HI5" s="30"/>
+      <c r="HJ5" s="30">
         <v>2016</v>
       </c>
-      <c r="HK5" s="28"/>
-      <c r="HL5" s="28"/>
-      <c r="HM5" s="28"/>
-      <c r="HN5" s="28"/>
-      <c r="HO5" s="28"/>
-      <c r="HP5" s="28"/>
-      <c r="HQ5" s="28"/>
-      <c r="HR5" s="28"/>
-      <c r="HS5" s="28"/>
-      <c r="HT5" s="28"/>
-      <c r="HU5" s="28"/>
-      <c r="HV5" s="28">
+      <c r="HK5" s="30"/>
+      <c r="HL5" s="30"/>
+      <c r="HM5" s="30"/>
+      <c r="HN5" s="30"/>
+      <c r="HO5" s="30"/>
+      <c r="HP5" s="30"/>
+      <c r="HQ5" s="30"/>
+      <c r="HR5" s="30"/>
+      <c r="HS5" s="30"/>
+      <c r="HT5" s="30"/>
+      <c r="HU5" s="30"/>
+      <c r="HV5" s="30">
         <v>2017</v>
       </c>
-      <c r="HW5" s="28"/>
-      <c r="HX5" s="28"/>
-      <c r="HY5" s="28"/>
-      <c r="HZ5" s="28"/>
-      <c r="IA5" s="28"/>
-      <c r="IB5" s="28"/>
-      <c r="IC5" s="28"/>
-      <c r="ID5" s="28"/>
-      <c r="IE5" s="28"/>
-      <c r="IF5" s="28"/>
-      <c r="IG5" s="28"/>
-      <c r="IH5" s="28">
+      <c r="HW5" s="30"/>
+      <c r="HX5" s="30"/>
+      <c r="HY5" s="30"/>
+      <c r="HZ5" s="30"/>
+      <c r="IA5" s="30"/>
+      <c r="IB5" s="30"/>
+      <c r="IC5" s="30"/>
+      <c r="ID5" s="30"/>
+      <c r="IE5" s="30"/>
+      <c r="IF5" s="30"/>
+      <c r="IG5" s="30"/>
+      <c r="IH5" s="30">
         <v>2018</v>
       </c>
-      <c r="II5" s="28"/>
-      <c r="IJ5" s="28"/>
-      <c r="IK5" s="28"/>
-      <c r="IL5" s="28"/>
-      <c r="IM5" s="28"/>
-      <c r="IN5" s="28"/>
-      <c r="IO5" s="28"/>
-      <c r="IP5" s="28"/>
-      <c r="IQ5" s="28"/>
-      <c r="IR5" s="28"/>
-      <c r="IS5" s="28"/>
-      <c r="IT5" s="28">
+      <c r="II5" s="30"/>
+      <c r="IJ5" s="30"/>
+      <c r="IK5" s="30"/>
+      <c r="IL5" s="30"/>
+      <c r="IM5" s="30"/>
+      <c r="IN5" s="30"/>
+      <c r="IO5" s="30"/>
+      <c r="IP5" s="30"/>
+      <c r="IQ5" s="30"/>
+      <c r="IR5" s="30"/>
+      <c r="IS5" s="30"/>
+      <c r="IT5" s="30">
         <v>2019</v>
       </c>
-      <c r="IU5" s="28"/>
-      <c r="IV5" s="28"/>
-      <c r="IW5" s="28"/>
-      <c r="IX5" s="28"/>
-      <c r="IY5" s="28"/>
-      <c r="IZ5" s="28"/>
-      <c r="JA5" s="28"/>
-      <c r="JB5" s="28"/>
-      <c r="JC5" s="28"/>
-      <c r="JD5" s="28"/>
-      <c r="JE5" s="28"/>
-      <c r="JF5" s="28">
+      <c r="IU5" s="30"/>
+      <c r="IV5" s="30"/>
+      <c r="IW5" s="30"/>
+      <c r="IX5" s="30"/>
+      <c r="IY5" s="30"/>
+      <c r="IZ5" s="30"/>
+      <c r="JA5" s="30"/>
+      <c r="JB5" s="30"/>
+      <c r="JC5" s="30"/>
+      <c r="JD5" s="30"/>
+      <c r="JE5" s="30"/>
+      <c r="JF5" s="30">
         <v>2020</v>
       </c>
-      <c r="JG5" s="28"/>
-      <c r="JH5" s="28"/>
-      <c r="JI5" s="28"/>
-      <c r="JJ5" s="28"/>
-      <c r="JK5" s="28"/>
-      <c r="JL5" s="28"/>
-      <c r="JM5" s="28"/>
-      <c r="JN5" s="28"/>
-      <c r="JO5" s="28"/>
-      <c r="JP5" s="28"/>
-      <c r="JQ5" s="28"/>
-      <c r="JR5" s="28">
+      <c r="JG5" s="30"/>
+      <c r="JH5" s="30"/>
+      <c r="JI5" s="30"/>
+      <c r="JJ5" s="30"/>
+      <c r="JK5" s="30"/>
+      <c r="JL5" s="30"/>
+      <c r="JM5" s="30"/>
+      <c r="JN5" s="30"/>
+      <c r="JO5" s="30"/>
+      <c r="JP5" s="30"/>
+      <c r="JQ5" s="30"/>
+      <c r="JR5" s="30">
         <v>2021</v>
       </c>
-      <c r="JS5" s="28"/>
-      <c r="JT5" s="28"/>
-      <c r="JU5" s="28"/>
-      <c r="JV5" s="28"/>
-      <c r="JW5" s="28"/>
-      <c r="JX5" s="28"/>
-      <c r="JY5" s="28"/>
-      <c r="JZ5" s="28"/>
-      <c r="KA5" s="28"/>
-      <c r="KB5" s="28"/>
-      <c r="KC5" s="28"/>
+      <c r="JS5" s="30"/>
+      <c r="JT5" s="30"/>
+      <c r="JU5" s="30"/>
+      <c r="JV5" s="30"/>
+      <c r="JW5" s="30"/>
+      <c r="JX5" s="30"/>
+      <c r="JY5" s="30"/>
+      <c r="JZ5" s="30"/>
+      <c r="KA5" s="30"/>
+      <c r="KB5" s="30"/>
+      <c r="KC5" s="30"/>
+      <c r="KD5" s="28">
+        <v>2022</v>
+      </c>
     </row>
     <row r="6" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
@@ -1899,6 +1912,9 @@
       <c r="KC6" s="23" t="s">
         <v>22</v>
       </c>
+      <c r="KD6" s="31" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -2768,6 +2784,9 @@
       <c r="KC7" s="6">
         <v>1110209</v>
       </c>
+      <c r="KD7" s="32">
+        <v>1117867</v>
+      </c>
     </row>
     <row r="8" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -3637,6 +3656,9 @@
       <c r="KC8" s="8">
         <v>202811</v>
       </c>
+      <c r="KD8" s="33">
+        <v>205143</v>
+      </c>
     </row>
     <row r="9" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -4506,6 +4528,9 @@
       <c r="KC9" s="8">
         <v>31826</v>
       </c>
+      <c r="KD9" s="33">
+        <v>31435</v>
+      </c>
     </row>
     <row r="10" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -5375,6 +5400,9 @@
       <c r="KC10" s="8">
         <v>135218</v>
       </c>
+      <c r="KD10" s="33">
+        <v>135437</v>
+      </c>
     </row>
     <row r="11" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -6244,6 +6272,9 @@
       <c r="KC11" s="8">
         <v>175069</v>
       </c>
+      <c r="KD11" s="33">
+        <v>175671</v>
+      </c>
     </row>
     <row r="12" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -7113,6 +7144,9 @@
       <c r="KC12" s="8">
         <v>167054</v>
       </c>
+      <c r="KD12" s="33">
+        <v>169302</v>
+      </c>
     </row>
     <row r="13" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -7982,6 +8016,9 @@
       <c r="KC13" s="8">
         <v>149603</v>
       </c>
+      <c r="KD13" s="33">
+        <v>150774</v>
+      </c>
     </row>
     <row r="14" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -8850,6 +8887,9 @@
       </c>
       <c r="KC14" s="8">
         <v>131230</v>
+      </c>
+      <c r="KD14" s="33">
+        <v>131955</v>
       </c>
       <c r="KE14" s="26"/>
       <c r="KF14" s="26"/>
@@ -9723,6 +9763,9 @@
       <c r="KC15" s="8">
         <v>117361</v>
       </c>
+      <c r="KD15" s="33">
+        <v>118118</v>
+      </c>
       <c r="KE15" s="26"/>
       <c r="KF15" s="26"/>
       <c r="KG15" s="26"/>
@@ -10595,6 +10638,9 @@
       <c r="KC16" s="10">
         <v>37</v>
       </c>
+      <c r="KD16" s="34">
+        <v>32</v>
+      </c>
       <c r="KE16" s="26"/>
       <c r="KF16" s="26"/>
       <c r="KG16" s="26"/>
@@ -11467,6 +11513,9 @@
       <c r="KC17" s="6">
         <v>739790</v>
       </c>
+      <c r="KD17" s="32">
+        <v>743292</v>
+      </c>
       <c r="KE17" s="27"/>
       <c r="KF17" s="27"/>
       <c r="KG17" s="27"/>
@@ -12339,6 +12388,9 @@
       <c r="KC18" s="8">
         <v>120610</v>
       </c>
+      <c r="KD18" s="33">
+        <v>122249</v>
+      </c>
       <c r="KE18" s="26"/>
       <c r="KF18" s="26"/>
       <c r="KG18" s="26"/>
@@ -13211,6 +13263,9 @@
       <c r="KC19" s="8">
         <v>18728</v>
       </c>
+      <c r="KD19" s="33">
+        <v>17838</v>
+      </c>
       <c r="KE19" s="26"/>
       <c r="KF19" s="26"/>
       <c r="KG19" s="26"/>
@@ -14083,6 +14138,9 @@
       <c r="KC20" s="8">
         <v>93048</v>
       </c>
+      <c r="KD20" s="33">
+        <v>92883</v>
+      </c>
       <c r="KE20" s="26"/>
       <c r="KF20" s="26"/>
       <c r="KG20" s="26"/>
@@ -14955,6 +15013,9 @@
       <c r="KC21" s="8">
         <v>122605</v>
       </c>
+      <c r="KD21" s="33">
+        <v>122425</v>
+      </c>
       <c r="KE21" s="26"/>
       <c r="KF21" s="26"/>
       <c r="KG21" s="26"/>
@@ -15827,6 +15888,9 @@
       <c r="KC22" s="8">
         <v>113627</v>
       </c>
+      <c r="KD22" s="33">
+        <v>114743</v>
+      </c>
       <c r="KE22" s="26"/>
       <c r="KF22" s="26"/>
       <c r="KG22" s="26"/>
@@ -16699,6 +16763,9 @@
       <c r="KC23" s="8">
         <v>103059</v>
       </c>
+      <c r="KD23" s="33">
+        <v>103896</v>
+      </c>
       <c r="KE23" s="26"/>
       <c r="KF23" s="26"/>
       <c r="KG23" s="26"/>
@@ -17571,6 +17638,9 @@
       <c r="KC24" s="8">
         <v>90139</v>
       </c>
+      <c r="KD24" s="33">
+        <v>90773</v>
+      </c>
     </row>
     <row r="25" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -18440,6 +18510,9 @@
       <c r="KC25" s="8">
         <v>77970</v>
       </c>
+      <c r="KD25" s="33">
+        <v>78480</v>
+      </c>
     </row>
     <row r="26" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
@@ -19309,6 +19382,9 @@
       <c r="KC26" s="10">
         <v>4</v>
       </c>
+      <c r="KD26" s="34">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
@@ -20178,6 +20254,10 @@
       <c r="KC27" s="12">
         <v>1849999</v>
       </c>
+      <c r="KD27" s="35">
+        <v>1861159</v>
+      </c>
+      <c r="KE27" s="25"/>
     </row>
     <row r="28" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -21331,6 +21411,10 @@
       <c r="KC28" s="8">
         <v>323421</v>
       </c>
+      <c r="KD28" s="33">
+        <v>327392</v>
+      </c>
+      <c r="KE28" s="25"/>
     </row>
     <row r="29" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -22484,6 +22568,10 @@
       <c r="KC29" s="8">
         <v>50554</v>
       </c>
+      <c r="KD29" s="33">
+        <v>49273</v>
+      </c>
+      <c r="KE29" s="25"/>
     </row>
     <row r="30" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -23637,6 +23725,10 @@
       <c r="KC30" s="8">
         <v>228266</v>
       </c>
+      <c r="KD30" s="33">
+        <v>228320</v>
+      </c>
+      <c r="KE30" s="25"/>
     </row>
     <row r="31" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
@@ -24790,6 +24882,10 @@
       <c r="KC31" s="8">
         <v>297674</v>
       </c>
+      <c r="KD31" s="33">
+        <v>298096</v>
+      </c>
+      <c r="KE31" s="25"/>
     </row>
     <row r="32" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -25943,8 +26039,12 @@
       <c r="KC32" s="8">
         <v>280681</v>
       </c>
+      <c r="KD32" s="33">
+        <v>284045</v>
+      </c>
+      <c r="KE32" s="25"/>
     </row>
-    <row r="33" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:291" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27096,8 +27196,12 @@
       <c r="KC33" s="8">
         <v>252662</v>
       </c>
+      <c r="KD33" s="33">
+        <v>254670</v>
+      </c>
+      <c r="KE33" s="25"/>
     </row>
-    <row r="34" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:291" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -28249,8 +28353,12 @@
       <c r="KC34" s="8">
         <v>221369</v>
       </c>
+      <c r="KD34" s="33">
+        <v>222728</v>
+      </c>
+      <c r="KE34" s="25"/>
     </row>
-    <row r="35" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:291" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -29402,8 +29510,12 @@
       <c r="KC35" s="8">
         <v>195331</v>
       </c>
+      <c r="KD35" s="33">
+        <v>196598</v>
+      </c>
+      <c r="KE35" s="25"/>
     </row>
-    <row r="36" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:291" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -30555,17 +30667,30 @@
       <c r="KC36" s="10">
         <v>41</v>
       </c>
+      <c r="KD36" s="34">
+        <v>37</v>
+      </c>
+      <c r="KE36" s="25"/>
     </row>
-    <row r="37" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:291" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:289" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:291" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -30582,15 +30707,6 @@
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
     <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-enero 2022</t>
+    <t>Enero 1998-febrero 2022</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -326,11 +326,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -379,16 +405,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +706,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="KG26" sqref="KG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,345 +738,346 @@
       <c r="A5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="28">
         <v>1998</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28">
         <v>1999</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28">
         <v>2000</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="30">
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28">
         <v>2001</v>
       </c>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="30"/>
-      <c r="AT5" s="30"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="30"/>
-      <c r="AW5" s="30"/>
-      <c r="AX5" s="30">
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28">
         <v>2002</v>
       </c>
-      <c r="AY5" s="30"/>
-      <c r="AZ5" s="30"/>
-      <c r="BA5" s="30"/>
-      <c r="BB5" s="30"/>
-      <c r="BC5" s="30"/>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
-      <c r="BI5" s="30"/>
-      <c r="BJ5" s="30">
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="28"/>
+      <c r="BE5" s="28"/>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="28"/>
+      <c r="BH5" s="28"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28">
         <v>2003</v>
       </c>
-      <c r="BK5" s="30"/>
-      <c r="BL5" s="30"/>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
-      <c r="BR5" s="30"/>
-      <c r="BS5" s="30"/>
-      <c r="BT5" s="30"/>
-      <c r="BU5" s="30"/>
-      <c r="BV5" s="30">
+      <c r="BK5" s="28"/>
+      <c r="BL5" s="28"/>
+      <c r="BM5" s="28"/>
+      <c r="BN5" s="28"/>
+      <c r="BO5" s="28"/>
+      <c r="BP5" s="28"/>
+      <c r="BQ5" s="28"/>
+      <c r="BR5" s="28"/>
+      <c r="BS5" s="28"/>
+      <c r="BT5" s="28"/>
+      <c r="BU5" s="28"/>
+      <c r="BV5" s="28">
         <v>2004</v>
       </c>
-      <c r="BW5" s="30"/>
-      <c r="BX5" s="30"/>
-      <c r="BY5" s="30"/>
-      <c r="BZ5" s="30"/>
-      <c r="CA5" s="30"/>
-      <c r="CB5" s="30"/>
-      <c r="CC5" s="30"/>
-      <c r="CD5" s="30"/>
-      <c r="CE5" s="30"/>
-      <c r="CF5" s="30"/>
-      <c r="CG5" s="30"/>
-      <c r="CH5" s="30">
+      <c r="BW5" s="28"/>
+      <c r="BX5" s="28"/>
+      <c r="BY5" s="28"/>
+      <c r="BZ5" s="28"/>
+      <c r="CA5" s="28"/>
+      <c r="CB5" s="28"/>
+      <c r="CC5" s="28"/>
+      <c r="CD5" s="28"/>
+      <c r="CE5" s="28"/>
+      <c r="CF5" s="28"/>
+      <c r="CG5" s="28"/>
+      <c r="CH5" s="28">
         <v>2005</v>
       </c>
-      <c r="CI5" s="30"/>
-      <c r="CJ5" s="30"/>
-      <c r="CK5" s="30"/>
-      <c r="CL5" s="30"/>
-      <c r="CM5" s="30"/>
-      <c r="CN5" s="30"/>
-      <c r="CO5" s="30"/>
-      <c r="CP5" s="30"/>
-      <c r="CQ5" s="30"/>
-      <c r="CR5" s="30"/>
-      <c r="CS5" s="30"/>
-      <c r="CT5" s="30">
+      <c r="CI5" s="28"/>
+      <c r="CJ5" s="28"/>
+      <c r="CK5" s="28"/>
+      <c r="CL5" s="28"/>
+      <c r="CM5" s="28"/>
+      <c r="CN5" s="28"/>
+      <c r="CO5" s="28"/>
+      <c r="CP5" s="28"/>
+      <c r="CQ5" s="28"/>
+      <c r="CR5" s="28"/>
+      <c r="CS5" s="28"/>
+      <c r="CT5" s="28">
         <v>2006</v>
       </c>
-      <c r="CU5" s="30"/>
-      <c r="CV5" s="30"/>
-      <c r="CW5" s="30"/>
-      <c r="CX5" s="30"/>
-      <c r="CY5" s="30"/>
-      <c r="CZ5" s="30"/>
-      <c r="DA5" s="30"/>
-      <c r="DB5" s="30"/>
-      <c r="DC5" s="30"/>
-      <c r="DD5" s="30"/>
-      <c r="DE5" s="30"/>
-      <c r="DF5" s="30">
+      <c r="CU5" s="28"/>
+      <c r="CV5" s="28"/>
+      <c r="CW5" s="28"/>
+      <c r="CX5" s="28"/>
+      <c r="CY5" s="28"/>
+      <c r="CZ5" s="28"/>
+      <c r="DA5" s="28"/>
+      <c r="DB5" s="28"/>
+      <c r="DC5" s="28"/>
+      <c r="DD5" s="28"/>
+      <c r="DE5" s="28"/>
+      <c r="DF5" s="28">
         <v>2007</v>
       </c>
-      <c r="DG5" s="30"/>
-      <c r="DH5" s="30"/>
-      <c r="DI5" s="30"/>
-      <c r="DJ5" s="30"/>
-      <c r="DK5" s="30"/>
-      <c r="DL5" s="30"/>
-      <c r="DM5" s="30"/>
-      <c r="DN5" s="30"/>
-      <c r="DO5" s="30"/>
-      <c r="DP5" s="30"/>
-      <c r="DQ5" s="30"/>
-      <c r="DR5" s="30">
+      <c r="DG5" s="28"/>
+      <c r="DH5" s="28"/>
+      <c r="DI5" s="28"/>
+      <c r="DJ5" s="28"/>
+      <c r="DK5" s="28"/>
+      <c r="DL5" s="28"/>
+      <c r="DM5" s="28"/>
+      <c r="DN5" s="28"/>
+      <c r="DO5" s="28"/>
+      <c r="DP5" s="28"/>
+      <c r="DQ5" s="28"/>
+      <c r="DR5" s="28">
         <v>2008</v>
       </c>
-      <c r="DS5" s="30"/>
-      <c r="DT5" s="30"/>
-      <c r="DU5" s="30"/>
-      <c r="DV5" s="30"/>
-      <c r="DW5" s="30"/>
-      <c r="DX5" s="30"/>
-      <c r="DY5" s="30"/>
-      <c r="DZ5" s="30"/>
-      <c r="EA5" s="30"/>
-      <c r="EB5" s="30"/>
-      <c r="EC5" s="30"/>
-      <c r="ED5" s="30">
+      <c r="DS5" s="28"/>
+      <c r="DT5" s="28"/>
+      <c r="DU5" s="28"/>
+      <c r="DV5" s="28"/>
+      <c r="DW5" s="28"/>
+      <c r="DX5" s="28"/>
+      <c r="DY5" s="28"/>
+      <c r="DZ5" s="28"/>
+      <c r="EA5" s="28"/>
+      <c r="EB5" s="28"/>
+      <c r="EC5" s="28"/>
+      <c r="ED5" s="28">
         <v>2009</v>
       </c>
-      <c r="EE5" s="30"/>
-      <c r="EF5" s="30"/>
-      <c r="EG5" s="30"/>
-      <c r="EH5" s="30"/>
-      <c r="EI5" s="30"/>
-      <c r="EJ5" s="30"/>
-      <c r="EK5" s="30"/>
-      <c r="EL5" s="30"/>
-      <c r="EM5" s="30"/>
-      <c r="EN5" s="30"/>
-      <c r="EO5" s="30"/>
-      <c r="EP5" s="30">
+      <c r="EE5" s="28"/>
+      <c r="EF5" s="28"/>
+      <c r="EG5" s="28"/>
+      <c r="EH5" s="28"/>
+      <c r="EI5" s="28"/>
+      <c r="EJ5" s="28"/>
+      <c r="EK5" s="28"/>
+      <c r="EL5" s="28"/>
+      <c r="EM5" s="28"/>
+      <c r="EN5" s="28"/>
+      <c r="EO5" s="28"/>
+      <c r="EP5" s="28">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="30"/>
-      <c r="ER5" s="30"/>
-      <c r="ES5" s="30"/>
-      <c r="ET5" s="30"/>
-      <c r="EU5" s="30"/>
-      <c r="EV5" s="30"/>
-      <c r="EW5" s="30"/>
-      <c r="EX5" s="30"/>
-      <c r="EY5" s="30"/>
-      <c r="EZ5" s="30"/>
-      <c r="FA5" s="30"/>
-      <c r="FB5" s="30">
+      <c r="EQ5" s="28"/>
+      <c r="ER5" s="28"/>
+      <c r="ES5" s="28"/>
+      <c r="ET5" s="28"/>
+      <c r="EU5" s="28"/>
+      <c r="EV5" s="28"/>
+      <c r="EW5" s="28"/>
+      <c r="EX5" s="28"/>
+      <c r="EY5" s="28"/>
+      <c r="EZ5" s="28"/>
+      <c r="FA5" s="28"/>
+      <c r="FB5" s="28">
         <v>2011</v>
       </c>
-      <c r="FC5" s="30"/>
-      <c r="FD5" s="30"/>
-      <c r="FE5" s="30"/>
-      <c r="FF5" s="30"/>
-      <c r="FG5" s="30"/>
-      <c r="FH5" s="30"/>
-      <c r="FI5" s="30"/>
-      <c r="FJ5" s="30"/>
-      <c r="FK5" s="30"/>
-      <c r="FL5" s="30"/>
-      <c r="FM5" s="30"/>
-      <c r="FN5" s="30">
+      <c r="FC5" s="28"/>
+      <c r="FD5" s="28"/>
+      <c r="FE5" s="28"/>
+      <c r="FF5" s="28"/>
+      <c r="FG5" s="28"/>
+      <c r="FH5" s="28"/>
+      <c r="FI5" s="28"/>
+      <c r="FJ5" s="28"/>
+      <c r="FK5" s="28"/>
+      <c r="FL5" s="28"/>
+      <c r="FM5" s="28"/>
+      <c r="FN5" s="28">
         <v>2012</v>
       </c>
-      <c r="FO5" s="30"/>
-      <c r="FP5" s="30"/>
-      <c r="FQ5" s="30"/>
-      <c r="FR5" s="30"/>
-      <c r="FS5" s="30"/>
-      <c r="FT5" s="30"/>
-      <c r="FU5" s="30"/>
-      <c r="FV5" s="30"/>
-      <c r="FW5" s="30"/>
-      <c r="FX5" s="30"/>
-      <c r="FY5" s="30"/>
-      <c r="FZ5" s="30">
+      <c r="FO5" s="28"/>
+      <c r="FP5" s="28"/>
+      <c r="FQ5" s="28"/>
+      <c r="FR5" s="28"/>
+      <c r="FS5" s="28"/>
+      <c r="FT5" s="28"/>
+      <c r="FU5" s="28"/>
+      <c r="FV5" s="28"/>
+      <c r="FW5" s="28"/>
+      <c r="FX5" s="28"/>
+      <c r="FY5" s="28"/>
+      <c r="FZ5" s="28">
         <v>2013</v>
       </c>
-      <c r="GA5" s="30"/>
-      <c r="GB5" s="30"/>
-      <c r="GC5" s="30"/>
-      <c r="GD5" s="30"/>
-      <c r="GE5" s="30"/>
-      <c r="GF5" s="30"/>
-      <c r="GG5" s="30"/>
-      <c r="GH5" s="30"/>
-      <c r="GI5" s="30"/>
-      <c r="GJ5" s="30"/>
-      <c r="GK5" s="30"/>
-      <c r="GL5" s="30">
+      <c r="GA5" s="28"/>
+      <c r="GB5" s="28"/>
+      <c r="GC5" s="28"/>
+      <c r="GD5" s="28"/>
+      <c r="GE5" s="28"/>
+      <c r="GF5" s="28"/>
+      <c r="GG5" s="28"/>
+      <c r="GH5" s="28"/>
+      <c r="GI5" s="28"/>
+      <c r="GJ5" s="28"/>
+      <c r="GK5" s="28"/>
+      <c r="GL5" s="28">
         <v>2014</v>
       </c>
-      <c r="GM5" s="30"/>
-      <c r="GN5" s="30"/>
-      <c r="GO5" s="30"/>
-      <c r="GP5" s="30"/>
-      <c r="GQ5" s="30"/>
-      <c r="GR5" s="30"/>
-      <c r="GS5" s="30"/>
-      <c r="GT5" s="30"/>
-      <c r="GU5" s="30"/>
-      <c r="GV5" s="30"/>
-      <c r="GW5" s="30"/>
-      <c r="GX5" s="30">
+      <c r="GM5" s="28"/>
+      <c r="GN5" s="28"/>
+      <c r="GO5" s="28"/>
+      <c r="GP5" s="28"/>
+      <c r="GQ5" s="28"/>
+      <c r="GR5" s="28"/>
+      <c r="GS5" s="28"/>
+      <c r="GT5" s="28"/>
+      <c r="GU5" s="28"/>
+      <c r="GV5" s="28"/>
+      <c r="GW5" s="28"/>
+      <c r="GX5" s="28">
         <v>2015</v>
       </c>
-      <c r="GY5" s="30"/>
-      <c r="GZ5" s="30"/>
-      <c r="HA5" s="30"/>
-      <c r="HB5" s="30"/>
-      <c r="HC5" s="30"/>
-      <c r="HD5" s="30"/>
-      <c r="HE5" s="30"/>
-      <c r="HF5" s="30"/>
-      <c r="HG5" s="30"/>
-      <c r="HH5" s="30"/>
-      <c r="HI5" s="30"/>
-      <c r="HJ5" s="30">
+      <c r="GY5" s="28"/>
+      <c r="GZ5" s="28"/>
+      <c r="HA5" s="28"/>
+      <c r="HB5" s="28"/>
+      <c r="HC5" s="28"/>
+      <c r="HD5" s="28"/>
+      <c r="HE5" s="28"/>
+      <c r="HF5" s="28"/>
+      <c r="HG5" s="28"/>
+      <c r="HH5" s="28"/>
+      <c r="HI5" s="28"/>
+      <c r="HJ5" s="28">
         <v>2016</v>
       </c>
-      <c r="HK5" s="30"/>
-      <c r="HL5" s="30"/>
-      <c r="HM5" s="30"/>
-      <c r="HN5" s="30"/>
-      <c r="HO5" s="30"/>
-      <c r="HP5" s="30"/>
-      <c r="HQ5" s="30"/>
-      <c r="HR5" s="30"/>
-      <c r="HS5" s="30"/>
-      <c r="HT5" s="30"/>
-      <c r="HU5" s="30"/>
-      <c r="HV5" s="30">
+      <c r="HK5" s="28"/>
+      <c r="HL5" s="28"/>
+      <c r="HM5" s="28"/>
+      <c r="HN5" s="28"/>
+      <c r="HO5" s="28"/>
+      <c r="HP5" s="28"/>
+      <c r="HQ5" s="28"/>
+      <c r="HR5" s="28"/>
+      <c r="HS5" s="28"/>
+      <c r="HT5" s="28"/>
+      <c r="HU5" s="28"/>
+      <c r="HV5" s="28">
         <v>2017</v>
       </c>
-      <c r="HW5" s="30"/>
-      <c r="HX5" s="30"/>
-      <c r="HY5" s="30"/>
-      <c r="HZ5" s="30"/>
-      <c r="IA5" s="30"/>
-      <c r="IB5" s="30"/>
-      <c r="IC5" s="30"/>
-      <c r="ID5" s="30"/>
-      <c r="IE5" s="30"/>
-      <c r="IF5" s="30"/>
-      <c r="IG5" s="30"/>
-      <c r="IH5" s="30">
+      <c r="HW5" s="28"/>
+      <c r="HX5" s="28"/>
+      <c r="HY5" s="28"/>
+      <c r="HZ5" s="28"/>
+      <c r="IA5" s="28"/>
+      <c r="IB5" s="28"/>
+      <c r="IC5" s="28"/>
+      <c r="ID5" s="28"/>
+      <c r="IE5" s="28"/>
+      <c r="IF5" s="28"/>
+      <c r="IG5" s="28"/>
+      <c r="IH5" s="28">
         <v>2018</v>
       </c>
-      <c r="II5" s="30"/>
-      <c r="IJ5" s="30"/>
-      <c r="IK5" s="30"/>
-      <c r="IL5" s="30"/>
-      <c r="IM5" s="30"/>
-      <c r="IN5" s="30"/>
-      <c r="IO5" s="30"/>
-      <c r="IP5" s="30"/>
-      <c r="IQ5" s="30"/>
-      <c r="IR5" s="30"/>
-      <c r="IS5" s="30"/>
-      <c r="IT5" s="30">
+      <c r="II5" s="28"/>
+      <c r="IJ5" s="28"/>
+      <c r="IK5" s="28"/>
+      <c r="IL5" s="28"/>
+      <c r="IM5" s="28"/>
+      <c r="IN5" s="28"/>
+      <c r="IO5" s="28"/>
+      <c r="IP5" s="28"/>
+      <c r="IQ5" s="28"/>
+      <c r="IR5" s="28"/>
+      <c r="IS5" s="28"/>
+      <c r="IT5" s="28">
         <v>2019</v>
       </c>
-      <c r="IU5" s="30"/>
-      <c r="IV5" s="30"/>
-      <c r="IW5" s="30"/>
-      <c r="IX5" s="30"/>
-      <c r="IY5" s="30"/>
-      <c r="IZ5" s="30"/>
-      <c r="JA5" s="30"/>
-      <c r="JB5" s="30"/>
-      <c r="JC5" s="30"/>
-      <c r="JD5" s="30"/>
-      <c r="JE5" s="30"/>
-      <c r="JF5" s="30">
+      <c r="IU5" s="28"/>
+      <c r="IV5" s="28"/>
+      <c r="IW5" s="28"/>
+      <c r="IX5" s="28"/>
+      <c r="IY5" s="28"/>
+      <c r="IZ5" s="28"/>
+      <c r="JA5" s="28"/>
+      <c r="JB5" s="28"/>
+      <c r="JC5" s="28"/>
+      <c r="JD5" s="28"/>
+      <c r="JE5" s="28"/>
+      <c r="JF5" s="28">
         <v>2020</v>
       </c>
-      <c r="JG5" s="30"/>
-      <c r="JH5" s="30"/>
-      <c r="JI5" s="30"/>
-      <c r="JJ5" s="30"/>
-      <c r="JK5" s="30"/>
-      <c r="JL5" s="30"/>
-      <c r="JM5" s="30"/>
-      <c r="JN5" s="30"/>
-      <c r="JO5" s="30"/>
-      <c r="JP5" s="30"/>
-      <c r="JQ5" s="30"/>
-      <c r="JR5" s="30">
+      <c r="JG5" s="28"/>
+      <c r="JH5" s="28"/>
+      <c r="JI5" s="28"/>
+      <c r="JJ5" s="28"/>
+      <c r="JK5" s="28"/>
+      <c r="JL5" s="28"/>
+      <c r="JM5" s="28"/>
+      <c r="JN5" s="28"/>
+      <c r="JO5" s="28"/>
+      <c r="JP5" s="28"/>
+      <c r="JQ5" s="28"/>
+      <c r="JR5" s="28">
         <v>2021</v>
       </c>
-      <c r="JS5" s="30"/>
-      <c r="JT5" s="30"/>
-      <c r="JU5" s="30"/>
-      <c r="JV5" s="30"/>
-      <c r="JW5" s="30"/>
-      <c r="JX5" s="30"/>
-      <c r="JY5" s="30"/>
-      <c r="JZ5" s="30"/>
-      <c r="KA5" s="30"/>
-      <c r="KB5" s="30"/>
+      <c r="JS5" s="28"/>
+      <c r="JT5" s="28"/>
+      <c r="JU5" s="28"/>
+      <c r="JV5" s="28"/>
+      <c r="JW5" s="28"/>
+      <c r="JX5" s="28"/>
+      <c r="JY5" s="28"/>
+      <c r="JZ5" s="28"/>
+      <c r="KA5" s="28"/>
+      <c r="KB5" s="28"/>
       <c r="KC5" s="30"/>
-      <c r="KD5" s="28">
+      <c r="KD5" s="30">
         <v>2022</v>
       </c>
+      <c r="KE5" s="31"/>
     </row>
     <row r="6" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
@@ -1909,11 +1942,14 @@
       <c r="KB6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="KC6" s="23" t="s">
+      <c r="KC6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="KD6" s="31" t="s">
+      <c r="KD6" s="32" t="s">
         <v>11</v>
+      </c>
+      <c r="KE6" s="33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2781,11 +2817,14 @@
       <c r="KB7" s="5">
         <v>1124336</v>
       </c>
-      <c r="KC7" s="6">
+      <c r="KC7" s="5">
         <v>1110209</v>
       </c>
-      <c r="KD7" s="32">
+      <c r="KD7" s="34">
         <v>1117867</v>
+      </c>
+      <c r="KE7" s="35">
+        <v>1125481</v>
       </c>
     </row>
     <row r="8" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3653,11 +3692,14 @@
       <c r="KB8" s="7">
         <v>202713</v>
       </c>
-      <c r="KC8" s="8">
+      <c r="KC8" s="7">
         <v>202811</v>
       </c>
-      <c r="KD8" s="33">
+      <c r="KD8" s="18">
         <v>205143</v>
+      </c>
+      <c r="KE8" s="8">
+        <v>206327</v>
       </c>
     </row>
     <row r="9" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4525,11 +4567,14 @@
       <c r="KB9" s="7">
         <v>34158</v>
       </c>
-      <c r="KC9" s="8">
+      <c r="KC9" s="7">
         <v>31826</v>
       </c>
-      <c r="KD9" s="33">
+      <c r="KD9" s="18">
         <v>31435</v>
+      </c>
+      <c r="KE9" s="8">
+        <v>31511</v>
       </c>
     </row>
     <row r="10" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5397,11 +5442,14 @@
       <c r="KB10" s="7">
         <v>138731</v>
       </c>
-      <c r="KC10" s="8">
+      <c r="KC10" s="7">
         <v>135218</v>
       </c>
-      <c r="KD10" s="33">
+      <c r="KD10" s="18">
         <v>135437</v>
+      </c>
+      <c r="KE10" s="8">
+        <v>136818</v>
       </c>
     </row>
     <row r="11" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6269,11 +6317,14 @@
       <c r="KB11" s="7">
         <v>178176</v>
       </c>
-      <c r="KC11" s="8">
+      <c r="KC11" s="7">
         <v>175069</v>
       </c>
-      <c r="KD11" s="33">
+      <c r="KD11" s="18">
         <v>175671</v>
+      </c>
+      <c r="KE11" s="8">
+        <v>177014</v>
       </c>
     </row>
     <row r="12" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7141,11 +7192,14 @@
       <c r="KB12" s="7">
         <v>169360</v>
       </c>
-      <c r="KC12" s="8">
+      <c r="KC12" s="7">
         <v>167054</v>
       </c>
-      <c r="KD12" s="33">
+      <c r="KD12" s="18">
         <v>169302</v>
+      </c>
+      <c r="KE12" s="8">
+        <v>170225</v>
       </c>
     </row>
     <row r="13" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8013,11 +8067,14 @@
       <c r="KB13" s="7">
         <v>151051</v>
       </c>
-      <c r="KC13" s="8">
+      <c r="KC13" s="7">
         <v>149603</v>
       </c>
-      <c r="KD13" s="33">
+      <c r="KD13" s="18">
         <v>150774</v>
+      </c>
+      <c r="KE13" s="8">
+        <v>151851</v>
       </c>
     </row>
     <row r="14" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8885,13 +8942,15 @@
       <c r="KB14" s="7">
         <v>132016</v>
       </c>
-      <c r="KC14" s="8">
+      <c r="KC14" s="7">
         <v>131230</v>
       </c>
-      <c r="KD14" s="33">
+      <c r="KD14" s="18">
         <v>131955</v>
       </c>
-      <c r="KE14" s="26"/>
+      <c r="KE14" s="8">
+        <v>132775</v>
+      </c>
       <c r="KF14" s="26"/>
       <c r="KG14" s="26"/>
     </row>
@@ -9760,13 +9819,15 @@
       <c r="KB15" s="7">
         <v>118096</v>
       </c>
-      <c r="KC15" s="8">
+      <c r="KC15" s="7">
         <v>117361</v>
       </c>
-      <c r="KD15" s="33">
+      <c r="KD15" s="18">
         <v>118118</v>
       </c>
-      <c r="KE15" s="26"/>
+      <c r="KE15" s="8">
+        <v>118924</v>
+      </c>
       <c r="KF15" s="26"/>
       <c r="KG15" s="26"/>
     </row>
@@ -10635,13 +10696,15 @@
       <c r="KB16" s="9">
         <v>35</v>
       </c>
-      <c r="KC16" s="10">
+      <c r="KC16" s="9">
         <v>37</v>
       </c>
-      <c r="KD16" s="34">
+      <c r="KD16" s="19">
         <v>32</v>
       </c>
-      <c r="KE16" s="26"/>
+      <c r="KE16" s="10">
+        <v>36</v>
+      </c>
       <c r="KF16" s="26"/>
       <c r="KG16" s="26"/>
     </row>
@@ -11510,13 +11573,15 @@
       <c r="KB17" s="5">
         <v>749140</v>
       </c>
-      <c r="KC17" s="6">
+      <c r="KC17" s="5">
         <v>739790</v>
       </c>
-      <c r="KD17" s="32">
+      <c r="KD17" s="34">
         <v>743292</v>
       </c>
-      <c r="KE17" s="27"/>
+      <c r="KE17" s="35">
+        <v>749141</v>
+      </c>
       <c r="KF17" s="27"/>
       <c r="KG17" s="27"/>
     </row>
@@ -12385,13 +12450,15 @@
       <c r="KB18" s="7">
         <v>120709</v>
       </c>
-      <c r="KC18" s="8">
+      <c r="KC18" s="7">
         <v>120610</v>
       </c>
-      <c r="KD18" s="33">
+      <c r="KD18" s="18">
         <v>122249</v>
       </c>
-      <c r="KE18" s="26"/>
+      <c r="KE18" s="8">
+        <v>123197</v>
+      </c>
       <c r="KF18" s="26"/>
       <c r="KG18" s="26"/>
     </row>
@@ -13260,13 +13327,15 @@
       <c r="KB19" s="7">
         <v>20031</v>
       </c>
-      <c r="KC19" s="8">
+      <c r="KC19" s="7">
         <v>18728</v>
       </c>
-      <c r="KD19" s="33">
+      <c r="KD19" s="18">
         <v>17838</v>
       </c>
-      <c r="KE19" s="26"/>
+      <c r="KE19" s="8">
+        <v>17905</v>
+      </c>
       <c r="KF19" s="26"/>
       <c r="KG19" s="26"/>
     </row>
@@ -14135,13 +14204,15 @@
       <c r="KB20" s="7">
         <v>95489</v>
       </c>
-      <c r="KC20" s="8">
+      <c r="KC20" s="7">
         <v>93048</v>
       </c>
-      <c r="KD20" s="33">
+      <c r="KD20" s="18">
         <v>92883</v>
       </c>
-      <c r="KE20" s="26"/>
+      <c r="KE20" s="8">
+        <v>93852</v>
+      </c>
       <c r="KF20" s="26"/>
       <c r="KG20" s="26"/>
     </row>
@@ -15010,13 +15081,15 @@
       <c r="KB21" s="7">
         <v>124606</v>
       </c>
-      <c r="KC21" s="8">
+      <c r="KC21" s="7">
         <v>122605</v>
       </c>
-      <c r="KD21" s="33">
+      <c r="KD21" s="18">
         <v>122425</v>
       </c>
-      <c r="KE21" s="26"/>
+      <c r="KE21" s="8">
+        <v>123359</v>
+      </c>
       <c r="KF21" s="26"/>
       <c r="KG21" s="26"/>
     </row>
@@ -15885,13 +15958,15 @@
       <c r="KB22" s="7">
         <v>115009</v>
       </c>
-      <c r="KC22" s="8">
+      <c r="KC22" s="7">
         <v>113627</v>
       </c>
-      <c r="KD22" s="33">
+      <c r="KD22" s="18">
         <v>114743</v>
       </c>
-      <c r="KE22" s="26"/>
+      <c r="KE22" s="8">
+        <v>115706</v>
+      </c>
       <c r="KF22" s="26"/>
       <c r="KG22" s="26"/>
     </row>
@@ -16760,13 +16835,15 @@
       <c r="KB23" s="7">
         <v>104182</v>
       </c>
-      <c r="KC23" s="8">
+      <c r="KC23" s="7">
         <v>103059</v>
       </c>
-      <c r="KD23" s="33">
+      <c r="KD23" s="18">
         <v>103896</v>
       </c>
-      <c r="KE23" s="26"/>
+      <c r="KE23" s="8">
+        <v>104652</v>
+      </c>
       <c r="KF23" s="26"/>
       <c r="KG23" s="26"/>
     </row>
@@ -17635,11 +17712,14 @@
       <c r="KB24" s="7">
         <v>90772</v>
       </c>
-      <c r="KC24" s="8">
+      <c r="KC24" s="7">
         <v>90139</v>
       </c>
-      <c r="KD24" s="33">
+      <c r="KD24" s="18">
         <v>90773</v>
+      </c>
+      <c r="KE24" s="8">
+        <v>91631</v>
       </c>
     </row>
     <row r="25" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18507,11 +18587,14 @@
       <c r="KB25" s="7">
         <v>78337</v>
       </c>
-      <c r="KC25" s="8">
+      <c r="KC25" s="7">
         <v>77970</v>
       </c>
-      <c r="KD25" s="33">
+      <c r="KD25" s="18">
         <v>78480</v>
+      </c>
+      <c r="KE25" s="8">
+        <v>78832</v>
       </c>
     </row>
     <row r="26" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -19379,11 +19462,14 @@
       <c r="KB26" s="9">
         <v>5</v>
       </c>
-      <c r="KC26" s="10">
+      <c r="KC26" s="9">
         <v>4</v>
       </c>
-      <c r="KD26" s="34">
+      <c r="KD26" s="19">
         <v>5</v>
+      </c>
+      <c r="KE26" s="10">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -20251,13 +20337,16 @@
       <c r="KB27" s="11">
         <v>1873476</v>
       </c>
-      <c r="KC27" s="12">
+      <c r="KC27" s="11">
         <v>1849999</v>
       </c>
-      <c r="KD27" s="35">
+      <c r="KD27" s="36">
         <v>1861159</v>
       </c>
-      <c r="KE27" s="25"/>
+      <c r="KE27" s="37">
+        <v>1874622</v>
+      </c>
+      <c r="KF27" s="25"/>
     </row>
     <row r="28" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -21408,13 +21497,16 @@
       <c r="KB28" s="7">
         <v>323422</v>
       </c>
-      <c r="KC28" s="8">
+      <c r="KC28" s="7">
         <v>323421</v>
       </c>
-      <c r="KD28" s="33">
+      <c r="KD28" s="18">
         <v>327392</v>
       </c>
-      <c r="KE28" s="25"/>
+      <c r="KE28" s="8">
+        <v>329524</v>
+      </c>
+      <c r="KF28" s="25"/>
     </row>
     <row r="29" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -22565,13 +22657,16 @@
       <c r="KB29" s="7">
         <v>54189</v>
       </c>
-      <c r="KC29" s="8">
+      <c r="KC29" s="7">
         <v>50554</v>
       </c>
-      <c r="KD29" s="33">
+      <c r="KD29" s="18">
         <v>49273</v>
       </c>
-      <c r="KE29" s="25"/>
+      <c r="KE29" s="8">
+        <v>49416</v>
+      </c>
+      <c r="KF29" s="25"/>
     </row>
     <row r="30" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -23722,13 +23817,16 @@
       <c r="KB30" s="7">
         <v>234220</v>
       </c>
-      <c r="KC30" s="8">
+      <c r="KC30" s="7">
         <v>228266</v>
       </c>
-      <c r="KD30" s="33">
+      <c r="KD30" s="18">
         <v>228320</v>
       </c>
-      <c r="KE30" s="25"/>
+      <c r="KE30" s="8">
+        <v>230670</v>
+      </c>
+      <c r="KF30" s="25"/>
     </row>
     <row r="31" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
@@ -24879,13 +24977,16 @@
       <c r="KB31" s="7">
         <v>302782</v>
       </c>
-      <c r="KC31" s="8">
+      <c r="KC31" s="7">
         <v>297674</v>
       </c>
-      <c r="KD31" s="33">
+      <c r="KD31" s="18">
         <v>298096</v>
       </c>
-      <c r="KE31" s="25"/>
+      <c r="KE31" s="8">
+        <v>300373</v>
+      </c>
+      <c r="KF31" s="25"/>
     </row>
     <row r="32" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -26036,15 +26137,18 @@
       <c r="KB32" s="7">
         <v>284369</v>
       </c>
-      <c r="KC32" s="8">
+      <c r="KC32" s="7">
         <v>280681</v>
       </c>
-      <c r="KD32" s="33">
+      <c r="KD32" s="18">
         <v>284045</v>
       </c>
-      <c r="KE32" s="25"/>
+      <c r="KE32" s="8">
+        <v>285931</v>
+      </c>
+      <c r="KF32" s="25"/>
     </row>
-    <row r="33" spans="1:291" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:292" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27193,15 +27297,18 @@
       <c r="KB33" s="7">
         <v>255233</v>
       </c>
-      <c r="KC33" s="8">
+      <c r="KC33" s="7">
         <v>252662</v>
       </c>
-      <c r="KD33" s="33">
+      <c r="KD33" s="18">
         <v>254670</v>
       </c>
-      <c r="KE33" s="25"/>
+      <c r="KE33" s="8">
+        <v>256503</v>
+      </c>
+      <c r="KF33" s="25"/>
     </row>
-    <row r="34" spans="1:291" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:292" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -28350,15 +28457,18 @@
       <c r="KB34" s="7">
         <v>222788</v>
       </c>
-      <c r="KC34" s="8">
+      <c r="KC34" s="7">
         <v>221369</v>
       </c>
-      <c r="KD34" s="33">
+      <c r="KD34" s="18">
         <v>222728</v>
       </c>
-      <c r="KE34" s="25"/>
+      <c r="KE34" s="8">
+        <v>224406</v>
+      </c>
+      <c r="KF34" s="25"/>
     </row>
-    <row r="35" spans="1:291" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:292" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -29507,15 +29617,18 @@
       <c r="KB35" s="7">
         <v>196433</v>
       </c>
-      <c r="KC35" s="8">
+      <c r="KC35" s="7">
         <v>195331</v>
       </c>
-      <c r="KD35" s="33">
+      <c r="KD35" s="18">
         <v>196598</v>
       </c>
-      <c r="KE35" s="25"/>
+      <c r="KE35" s="8">
+        <v>197756</v>
+      </c>
+      <c r="KF35" s="25"/>
     </row>
-    <row r="36" spans="1:291" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:292" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -30664,33 +30777,28 @@
       <c r="KB36" s="9">
         <v>40</v>
       </c>
-      <c r="KC36" s="10">
+      <c r="KC36" s="9">
         <v>41</v>
       </c>
-      <c r="KD36" s="34">
+      <c r="KD36" s="19">
         <v>37</v>
       </c>
-      <c r="KE36" s="25"/>
+      <c r="KE36" s="10">
+        <v>43</v>
+      </c>
+      <c r="KF36" s="25"/>
     </row>
-    <row r="37" spans="1:291" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:292" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:291" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:292" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
+  <mergeCells count="26">
+    <mergeCell ref="KD5:KE5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -30707,6 +30815,15 @@
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
     <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-febrero 2022</t>
+    <t>Enero 1998-marzo 2022</t>
   </si>
 </sst>
 </file>
@@ -186,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -352,11 +352,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -399,18 +410,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,6 +420,26 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,12 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KG38"/>
+  <dimension ref="A1:KH38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KG26" sqref="KG26"/>
+      <selection pane="topRight" activeCell="KG32" sqref="KG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,369 +737,370 @@
     <col min="290" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:293" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="4" spans="1:294" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:294" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="37">
         <v>1998</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37">
         <v>1999</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37">
         <v>2000</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28">
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37">
         <v>2001</v>
       </c>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28">
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37">
         <v>2002</v>
       </c>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="28"/>
-      <c r="BE5" s="28"/>
-      <c r="BF5" s="28"/>
-      <c r="BG5" s="28"/>
-      <c r="BH5" s="28"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="28">
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37">
         <v>2003</v>
       </c>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="28"/>
-      <c r="BM5" s="28"/>
-      <c r="BN5" s="28"/>
-      <c r="BO5" s="28"/>
-      <c r="BP5" s="28"/>
-      <c r="BQ5" s="28"/>
-      <c r="BR5" s="28"/>
-      <c r="BS5" s="28"/>
-      <c r="BT5" s="28"/>
-      <c r="BU5" s="28"/>
-      <c r="BV5" s="28">
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37">
         <v>2004</v>
       </c>
-      <c r="BW5" s="28"/>
-      <c r="BX5" s="28"/>
-      <c r="BY5" s="28"/>
-      <c r="BZ5" s="28"/>
-      <c r="CA5" s="28"/>
-      <c r="CB5" s="28"/>
-      <c r="CC5" s="28"/>
-      <c r="CD5" s="28"/>
-      <c r="CE5" s="28"/>
-      <c r="CF5" s="28"/>
-      <c r="CG5" s="28"/>
-      <c r="CH5" s="28">
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37">
         <v>2005</v>
       </c>
-      <c r="CI5" s="28"/>
-      <c r="CJ5" s="28"/>
-      <c r="CK5" s="28"/>
-      <c r="CL5" s="28"/>
-      <c r="CM5" s="28"/>
-      <c r="CN5" s="28"/>
-      <c r="CO5" s="28"/>
-      <c r="CP5" s="28"/>
-      <c r="CQ5" s="28"/>
-      <c r="CR5" s="28"/>
-      <c r="CS5" s="28"/>
-      <c r="CT5" s="28">
+      <c r="CI5" s="37"/>
+      <c r="CJ5" s="37"/>
+      <c r="CK5" s="37"/>
+      <c r="CL5" s="37"/>
+      <c r="CM5" s="37"/>
+      <c r="CN5" s="37"/>
+      <c r="CO5" s="37"/>
+      <c r="CP5" s="37"/>
+      <c r="CQ5" s="37"/>
+      <c r="CR5" s="37"/>
+      <c r="CS5" s="37"/>
+      <c r="CT5" s="37">
         <v>2006</v>
       </c>
-      <c r="CU5" s="28"/>
-      <c r="CV5" s="28"/>
-      <c r="CW5" s="28"/>
-      <c r="CX5" s="28"/>
-      <c r="CY5" s="28"/>
-      <c r="CZ5" s="28"/>
-      <c r="DA5" s="28"/>
-      <c r="DB5" s="28"/>
-      <c r="DC5" s="28"/>
-      <c r="DD5" s="28"/>
-      <c r="DE5" s="28"/>
-      <c r="DF5" s="28">
+      <c r="CU5" s="37"/>
+      <c r="CV5" s="37"/>
+      <c r="CW5" s="37"/>
+      <c r="CX5" s="37"/>
+      <c r="CY5" s="37"/>
+      <c r="CZ5" s="37"/>
+      <c r="DA5" s="37"/>
+      <c r="DB5" s="37"/>
+      <c r="DC5" s="37"/>
+      <c r="DD5" s="37"/>
+      <c r="DE5" s="37"/>
+      <c r="DF5" s="37">
         <v>2007</v>
       </c>
-      <c r="DG5" s="28"/>
-      <c r="DH5" s="28"/>
-      <c r="DI5" s="28"/>
-      <c r="DJ5" s="28"/>
-      <c r="DK5" s="28"/>
-      <c r="DL5" s="28"/>
-      <c r="DM5" s="28"/>
-      <c r="DN5" s="28"/>
-      <c r="DO5" s="28"/>
-      <c r="DP5" s="28"/>
-      <c r="DQ5" s="28"/>
-      <c r="DR5" s="28">
+      <c r="DG5" s="37"/>
+      <c r="DH5" s="37"/>
+      <c r="DI5" s="37"/>
+      <c r="DJ5" s="37"/>
+      <c r="DK5" s="37"/>
+      <c r="DL5" s="37"/>
+      <c r="DM5" s="37"/>
+      <c r="DN5" s="37"/>
+      <c r="DO5" s="37"/>
+      <c r="DP5" s="37"/>
+      <c r="DQ5" s="37"/>
+      <c r="DR5" s="37">
         <v>2008</v>
       </c>
-      <c r="DS5" s="28"/>
-      <c r="DT5" s="28"/>
-      <c r="DU5" s="28"/>
-      <c r="DV5" s="28"/>
-      <c r="DW5" s="28"/>
-      <c r="DX5" s="28"/>
-      <c r="DY5" s="28"/>
-      <c r="DZ5" s="28"/>
-      <c r="EA5" s="28"/>
-      <c r="EB5" s="28"/>
-      <c r="EC5" s="28"/>
-      <c r="ED5" s="28">
+      <c r="DS5" s="37"/>
+      <c r="DT5" s="37"/>
+      <c r="DU5" s="37"/>
+      <c r="DV5" s="37"/>
+      <c r="DW5" s="37"/>
+      <c r="DX5" s="37"/>
+      <c r="DY5" s="37"/>
+      <c r="DZ5" s="37"/>
+      <c r="EA5" s="37"/>
+      <c r="EB5" s="37"/>
+      <c r="EC5" s="37"/>
+      <c r="ED5" s="37">
         <v>2009</v>
       </c>
-      <c r="EE5" s="28"/>
-      <c r="EF5" s="28"/>
-      <c r="EG5" s="28"/>
-      <c r="EH5" s="28"/>
-      <c r="EI5" s="28"/>
-      <c r="EJ5" s="28"/>
-      <c r="EK5" s="28"/>
-      <c r="EL5" s="28"/>
-      <c r="EM5" s="28"/>
-      <c r="EN5" s="28"/>
-      <c r="EO5" s="28"/>
-      <c r="EP5" s="28">
+      <c r="EE5" s="37"/>
+      <c r="EF5" s="37"/>
+      <c r="EG5" s="37"/>
+      <c r="EH5" s="37"/>
+      <c r="EI5" s="37"/>
+      <c r="EJ5" s="37"/>
+      <c r="EK5" s="37"/>
+      <c r="EL5" s="37"/>
+      <c r="EM5" s="37"/>
+      <c r="EN5" s="37"/>
+      <c r="EO5" s="37"/>
+      <c r="EP5" s="37">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="28"/>
-      <c r="ER5" s="28"/>
-      <c r="ES5" s="28"/>
-      <c r="ET5" s="28"/>
-      <c r="EU5" s="28"/>
-      <c r="EV5" s="28"/>
-      <c r="EW5" s="28"/>
-      <c r="EX5" s="28"/>
-      <c r="EY5" s="28"/>
-      <c r="EZ5" s="28"/>
-      <c r="FA5" s="28"/>
-      <c r="FB5" s="28">
+      <c r="EQ5" s="37"/>
+      <c r="ER5" s="37"/>
+      <c r="ES5" s="37"/>
+      <c r="ET5" s="37"/>
+      <c r="EU5" s="37"/>
+      <c r="EV5" s="37"/>
+      <c r="EW5" s="37"/>
+      <c r="EX5" s="37"/>
+      <c r="EY5" s="37"/>
+      <c r="EZ5" s="37"/>
+      <c r="FA5" s="37"/>
+      <c r="FB5" s="37">
         <v>2011</v>
       </c>
-      <c r="FC5" s="28"/>
-      <c r="FD5" s="28"/>
-      <c r="FE5" s="28"/>
-      <c r="FF5" s="28"/>
-      <c r="FG5" s="28"/>
-      <c r="FH5" s="28"/>
-      <c r="FI5" s="28"/>
-      <c r="FJ5" s="28"/>
-      <c r="FK5" s="28"/>
-      <c r="FL5" s="28"/>
-      <c r="FM5" s="28"/>
-      <c r="FN5" s="28">
+      <c r="FC5" s="37"/>
+      <c r="FD5" s="37"/>
+      <c r="FE5" s="37"/>
+      <c r="FF5" s="37"/>
+      <c r="FG5" s="37"/>
+      <c r="FH5" s="37"/>
+      <c r="FI5" s="37"/>
+      <c r="FJ5" s="37"/>
+      <c r="FK5" s="37"/>
+      <c r="FL5" s="37"/>
+      <c r="FM5" s="37"/>
+      <c r="FN5" s="37">
         <v>2012</v>
       </c>
-      <c r="FO5" s="28"/>
-      <c r="FP5" s="28"/>
-      <c r="FQ5" s="28"/>
-      <c r="FR5" s="28"/>
-      <c r="FS5" s="28"/>
-      <c r="FT5" s="28"/>
-      <c r="FU5" s="28"/>
-      <c r="FV5" s="28"/>
-      <c r="FW5" s="28"/>
-      <c r="FX5" s="28"/>
-      <c r="FY5" s="28"/>
-      <c r="FZ5" s="28">
+      <c r="FO5" s="37"/>
+      <c r="FP5" s="37"/>
+      <c r="FQ5" s="37"/>
+      <c r="FR5" s="37"/>
+      <c r="FS5" s="37"/>
+      <c r="FT5" s="37"/>
+      <c r="FU5" s="37"/>
+      <c r="FV5" s="37"/>
+      <c r="FW5" s="37"/>
+      <c r="FX5" s="37"/>
+      <c r="FY5" s="37"/>
+      <c r="FZ5" s="37">
         <v>2013</v>
       </c>
-      <c r="GA5" s="28"/>
-      <c r="GB5" s="28"/>
-      <c r="GC5" s="28"/>
-      <c r="GD5" s="28"/>
-      <c r="GE5" s="28"/>
-      <c r="GF5" s="28"/>
-      <c r="GG5" s="28"/>
-      <c r="GH5" s="28"/>
-      <c r="GI5" s="28"/>
-      <c r="GJ5" s="28"/>
-      <c r="GK5" s="28"/>
-      <c r="GL5" s="28">
+      <c r="GA5" s="37"/>
+      <c r="GB5" s="37"/>
+      <c r="GC5" s="37"/>
+      <c r="GD5" s="37"/>
+      <c r="GE5" s="37"/>
+      <c r="GF5" s="37"/>
+      <c r="GG5" s="37"/>
+      <c r="GH5" s="37"/>
+      <c r="GI5" s="37"/>
+      <c r="GJ5" s="37"/>
+      <c r="GK5" s="37"/>
+      <c r="GL5" s="37">
         <v>2014</v>
       </c>
-      <c r="GM5" s="28"/>
-      <c r="GN5" s="28"/>
-      <c r="GO5" s="28"/>
-      <c r="GP5" s="28"/>
-      <c r="GQ5" s="28"/>
-      <c r="GR5" s="28"/>
-      <c r="GS5" s="28"/>
-      <c r="GT5" s="28"/>
-      <c r="GU5" s="28"/>
-      <c r="GV5" s="28"/>
-      <c r="GW5" s="28"/>
-      <c r="GX5" s="28">
+      <c r="GM5" s="37"/>
+      <c r="GN5" s="37"/>
+      <c r="GO5" s="37"/>
+      <c r="GP5" s="37"/>
+      <c r="GQ5" s="37"/>
+      <c r="GR5" s="37"/>
+      <c r="GS5" s="37"/>
+      <c r="GT5" s="37"/>
+      <c r="GU5" s="37"/>
+      <c r="GV5" s="37"/>
+      <c r="GW5" s="37"/>
+      <c r="GX5" s="37">
         <v>2015</v>
       </c>
-      <c r="GY5" s="28"/>
-      <c r="GZ5" s="28"/>
-      <c r="HA5" s="28"/>
-      <c r="HB5" s="28"/>
-      <c r="HC5" s="28"/>
-      <c r="HD5" s="28"/>
-      <c r="HE5" s="28"/>
-      <c r="HF5" s="28"/>
-      <c r="HG5" s="28"/>
-      <c r="HH5" s="28"/>
-      <c r="HI5" s="28"/>
-      <c r="HJ5" s="28">
+      <c r="GY5" s="37"/>
+      <c r="GZ5" s="37"/>
+      <c r="HA5" s="37"/>
+      <c r="HB5" s="37"/>
+      <c r="HC5" s="37"/>
+      <c r="HD5" s="37"/>
+      <c r="HE5" s="37"/>
+      <c r="HF5" s="37"/>
+      <c r="HG5" s="37"/>
+      <c r="HH5" s="37"/>
+      <c r="HI5" s="37"/>
+      <c r="HJ5" s="37">
         <v>2016</v>
       </c>
-      <c r="HK5" s="28"/>
-      <c r="HL5" s="28"/>
-      <c r="HM5" s="28"/>
-      <c r="HN5" s="28"/>
-      <c r="HO5" s="28"/>
-      <c r="HP5" s="28"/>
-      <c r="HQ5" s="28"/>
-      <c r="HR5" s="28"/>
-      <c r="HS5" s="28"/>
-      <c r="HT5" s="28"/>
-      <c r="HU5" s="28"/>
-      <c r="HV5" s="28">
+      <c r="HK5" s="37"/>
+      <c r="HL5" s="37"/>
+      <c r="HM5" s="37"/>
+      <c r="HN5" s="37"/>
+      <c r="HO5" s="37"/>
+      <c r="HP5" s="37"/>
+      <c r="HQ5" s="37"/>
+      <c r="HR5" s="37"/>
+      <c r="HS5" s="37"/>
+      <c r="HT5" s="37"/>
+      <c r="HU5" s="37"/>
+      <c r="HV5" s="37">
         <v>2017</v>
       </c>
-      <c r="HW5" s="28"/>
-      <c r="HX5" s="28"/>
-      <c r="HY5" s="28"/>
-      <c r="HZ5" s="28"/>
-      <c r="IA5" s="28"/>
-      <c r="IB5" s="28"/>
-      <c r="IC5" s="28"/>
-      <c r="ID5" s="28"/>
-      <c r="IE5" s="28"/>
-      <c r="IF5" s="28"/>
-      <c r="IG5" s="28"/>
-      <c r="IH5" s="28">
+      <c r="HW5" s="37"/>
+      <c r="HX5" s="37"/>
+      <c r="HY5" s="37"/>
+      <c r="HZ5" s="37"/>
+      <c r="IA5" s="37"/>
+      <c r="IB5" s="37"/>
+      <c r="IC5" s="37"/>
+      <c r="ID5" s="37"/>
+      <c r="IE5" s="37"/>
+      <c r="IF5" s="37"/>
+      <c r="IG5" s="37"/>
+      <c r="IH5" s="37">
         <v>2018</v>
       </c>
-      <c r="II5" s="28"/>
-      <c r="IJ5" s="28"/>
-      <c r="IK5" s="28"/>
-      <c r="IL5" s="28"/>
-      <c r="IM5" s="28"/>
-      <c r="IN5" s="28"/>
-      <c r="IO5" s="28"/>
-      <c r="IP5" s="28"/>
-      <c r="IQ5" s="28"/>
-      <c r="IR5" s="28"/>
-      <c r="IS5" s="28"/>
-      <c r="IT5" s="28">
+      <c r="II5" s="37"/>
+      <c r="IJ5" s="37"/>
+      <c r="IK5" s="37"/>
+      <c r="IL5" s="37"/>
+      <c r="IM5" s="37"/>
+      <c r="IN5" s="37"/>
+      <c r="IO5" s="37"/>
+      <c r="IP5" s="37"/>
+      <c r="IQ5" s="37"/>
+      <c r="IR5" s="37"/>
+      <c r="IS5" s="37"/>
+      <c r="IT5" s="37">
         <v>2019</v>
       </c>
-      <c r="IU5" s="28"/>
-      <c r="IV5" s="28"/>
-      <c r="IW5" s="28"/>
-      <c r="IX5" s="28"/>
-      <c r="IY5" s="28"/>
-      <c r="IZ5" s="28"/>
-      <c r="JA5" s="28"/>
-      <c r="JB5" s="28"/>
-      <c r="JC5" s="28"/>
-      <c r="JD5" s="28"/>
-      <c r="JE5" s="28"/>
-      <c r="JF5" s="28">
+      <c r="IU5" s="37"/>
+      <c r="IV5" s="37"/>
+      <c r="IW5" s="37"/>
+      <c r="IX5" s="37"/>
+      <c r="IY5" s="37"/>
+      <c r="IZ5" s="37"/>
+      <c r="JA5" s="37"/>
+      <c r="JB5" s="37"/>
+      <c r="JC5" s="37"/>
+      <c r="JD5" s="37"/>
+      <c r="JE5" s="37"/>
+      <c r="JF5" s="37">
         <v>2020</v>
       </c>
-      <c r="JG5" s="28"/>
-      <c r="JH5" s="28"/>
-      <c r="JI5" s="28"/>
-      <c r="JJ5" s="28"/>
-      <c r="JK5" s="28"/>
-      <c r="JL5" s="28"/>
-      <c r="JM5" s="28"/>
-      <c r="JN5" s="28"/>
-      <c r="JO5" s="28"/>
-      <c r="JP5" s="28"/>
-      <c r="JQ5" s="28"/>
-      <c r="JR5" s="28">
+      <c r="JG5" s="37"/>
+      <c r="JH5" s="37"/>
+      <c r="JI5" s="37"/>
+      <c r="JJ5" s="37"/>
+      <c r="JK5" s="37"/>
+      <c r="JL5" s="37"/>
+      <c r="JM5" s="37"/>
+      <c r="JN5" s="37"/>
+      <c r="JO5" s="37"/>
+      <c r="JP5" s="37"/>
+      <c r="JQ5" s="37"/>
+      <c r="JR5" s="37">
         <v>2021</v>
       </c>
-      <c r="JS5" s="28"/>
-      <c r="JT5" s="28"/>
-      <c r="JU5" s="28"/>
-      <c r="JV5" s="28"/>
-      <c r="JW5" s="28"/>
-      <c r="JX5" s="28"/>
-      <c r="JY5" s="28"/>
-      <c r="JZ5" s="28"/>
-      <c r="KA5" s="28"/>
-      <c r="KB5" s="28"/>
-      <c r="KC5" s="30"/>
-      <c r="KD5" s="30">
+      <c r="JS5" s="37"/>
+      <c r="JT5" s="37"/>
+      <c r="JU5" s="37"/>
+      <c r="JV5" s="37"/>
+      <c r="JW5" s="37"/>
+      <c r="JX5" s="37"/>
+      <c r="JY5" s="37"/>
+      <c r="JZ5" s="37"/>
+      <c r="KA5" s="37"/>
+      <c r="KB5" s="37"/>
+      <c r="KC5" s="34"/>
+      <c r="KD5" s="34">
         <v>2022</v>
       </c>
-      <c r="KE5" s="31"/>
+      <c r="KE5" s="38"/>
+      <c r="KF5" s="35"/>
     </row>
-    <row r="6" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:294" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1945,14 +1965,17 @@
       <c r="KC6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="KD6" s="32" t="s">
+      <c r="KD6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="KE6" s="33" t="s">
+      <c r="KE6" s="39" t="s">
         <v>12</v>
       </c>
+      <c r="KF6" s="29" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:294" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2820,14 +2843,17 @@
       <c r="KC7" s="5">
         <v>1110209</v>
       </c>
-      <c r="KD7" s="34">
+      <c r="KD7" s="30">
         <v>1117867</v>
       </c>
-      <c r="KE7" s="35">
+      <c r="KE7" s="40">
         <v>1125481</v>
       </c>
+      <c r="KF7" s="31">
+        <v>1131739</v>
+      </c>
     </row>
-    <row r="8" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3698,11 +3724,14 @@
       <c r="KD8" s="18">
         <v>205143</v>
       </c>
-      <c r="KE8" s="8">
+      <c r="KE8" s="7">
         <v>206327</v>
       </c>
+      <c r="KF8" s="8">
+        <v>207720</v>
+      </c>
     </row>
-    <row r="9" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4573,11 +4602,14 @@
       <c r="KD9" s="18">
         <v>31435</v>
       </c>
-      <c r="KE9" s="8">
+      <c r="KE9" s="7">
         <v>31511</v>
       </c>
+      <c r="KF9" s="8">
+        <v>31267</v>
+      </c>
     </row>
-    <row r="10" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5448,11 +5480,14 @@
       <c r="KD10" s="18">
         <v>135437</v>
       </c>
-      <c r="KE10" s="8">
+      <c r="KE10" s="7">
         <v>136818</v>
       </c>
+      <c r="KF10" s="8">
+        <v>138333</v>
+      </c>
     </row>
-    <row r="11" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6323,11 +6358,14 @@
       <c r="KD11" s="18">
         <v>175671</v>
       </c>
-      <c r="KE11" s="8">
+      <c r="KE11" s="7">
         <v>177014</v>
       </c>
+      <c r="KF11" s="8">
+        <v>177838</v>
+      </c>
     </row>
-    <row r="12" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7198,11 +7236,14 @@
       <c r="KD12" s="18">
         <v>169302</v>
       </c>
-      <c r="KE12" s="8">
+      <c r="KE12" s="7">
         <v>170225</v>
       </c>
+      <c r="KF12" s="8">
+        <v>170754</v>
+      </c>
     </row>
-    <row r="13" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8073,11 +8114,14 @@
       <c r="KD13" s="18">
         <v>150774</v>
       </c>
-      <c r="KE13" s="8">
+      <c r="KE13" s="7">
         <v>151851</v>
       </c>
+      <c r="KF13" s="8">
+        <v>152552</v>
+      </c>
     </row>
-    <row r="14" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -8948,13 +8992,16 @@
       <c r="KD14" s="18">
         <v>131955</v>
       </c>
-      <c r="KE14" s="8">
+      <c r="KE14" s="7">
         <v>132775</v>
       </c>
-      <c r="KF14" s="26"/>
+      <c r="KF14" s="8">
+        <v>133660</v>
+      </c>
       <c r="KG14" s="26"/>
+      <c r="KH14" s="26"/>
     </row>
-    <row r="15" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -9825,13 +9872,16 @@
       <c r="KD15" s="18">
         <v>118118</v>
       </c>
-      <c r="KE15" s="8">
+      <c r="KE15" s="7">
         <v>118924</v>
       </c>
-      <c r="KF15" s="26"/>
+      <c r="KF15" s="8">
+        <v>119577</v>
+      </c>
       <c r="KG15" s="26"/>
+      <c r="KH15" s="26"/>
     </row>
-    <row r="16" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10702,13 +10752,16 @@
       <c r="KD16" s="19">
         <v>32</v>
       </c>
-      <c r="KE16" s="10">
+      <c r="KE16" s="9">
         <v>36</v>
       </c>
-      <c r="KF16" s="26"/>
+      <c r="KF16" s="10">
+        <v>38</v>
+      </c>
       <c r="KG16" s="26"/>
+      <c r="KH16" s="26"/>
     </row>
-    <row r="17" spans="1:293" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:294" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11576,16 +11629,19 @@
       <c r="KC17" s="5">
         <v>739790</v>
       </c>
-      <c r="KD17" s="34">
+      <c r="KD17" s="30">
         <v>743292</v>
       </c>
-      <c r="KE17" s="35">
+      <c r="KE17" s="40">
         <v>749141</v>
       </c>
-      <c r="KF17" s="27"/>
+      <c r="KF17" s="31">
+        <v>755037</v>
+      </c>
       <c r="KG17" s="27"/>
+      <c r="KH17" s="27"/>
     </row>
-    <row r="18" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12456,13 +12512,16 @@
       <c r="KD18" s="18">
         <v>122249</v>
       </c>
-      <c r="KE18" s="8">
+      <c r="KE18" s="7">
         <v>123197</v>
       </c>
-      <c r="KF18" s="26"/>
+      <c r="KF18" s="8">
+        <v>124650</v>
+      </c>
       <c r="KG18" s="26"/>
+      <c r="KH18" s="26"/>
     </row>
-    <row r="19" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13333,13 +13392,16 @@
       <c r="KD19" s="18">
         <v>17838</v>
       </c>
-      <c r="KE19" s="8">
+      <c r="KE19" s="7">
         <v>17905</v>
       </c>
-      <c r="KF19" s="26"/>
+      <c r="KF19" s="8">
+        <v>17868</v>
+      </c>
       <c r="KG19" s="26"/>
+      <c r="KH19" s="26"/>
     </row>
-    <row r="20" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14210,13 +14272,16 @@
       <c r="KD20" s="18">
         <v>92883</v>
       </c>
-      <c r="KE20" s="8">
+      <c r="KE20" s="7">
         <v>93852</v>
       </c>
-      <c r="KF20" s="26"/>
+      <c r="KF20" s="8">
+        <v>94740</v>
+      </c>
       <c r="KG20" s="26"/>
+      <c r="KH20" s="26"/>
     </row>
-    <row r="21" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15087,13 +15152,16 @@
       <c r="KD21" s="18">
         <v>122425</v>
       </c>
-      <c r="KE21" s="8">
+      <c r="KE21" s="7">
         <v>123359</v>
       </c>
-      <c r="KF21" s="26"/>
+      <c r="KF21" s="8">
+        <v>124447</v>
+      </c>
       <c r="KG21" s="26"/>
+      <c r="KH21" s="26"/>
     </row>
-    <row r="22" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -15964,13 +16032,16 @@
       <c r="KD22" s="18">
         <v>114743</v>
       </c>
-      <c r="KE22" s="8">
+      <c r="KE22" s="7">
         <v>115706</v>
       </c>
-      <c r="KF22" s="26"/>
+      <c r="KF22" s="8">
+        <v>116200</v>
+      </c>
       <c r="KG22" s="26"/>
+      <c r="KH22" s="26"/>
     </row>
-    <row r="23" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -16841,13 +16912,16 @@
       <c r="KD23" s="18">
         <v>103896</v>
       </c>
-      <c r="KE23" s="8">
+      <c r="KE23" s="7">
         <v>104652</v>
       </c>
-      <c r="KF23" s="26"/>
+      <c r="KF23" s="8">
+        <v>105188</v>
+      </c>
       <c r="KG23" s="26"/>
+      <c r="KH23" s="26"/>
     </row>
-    <row r="24" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -17718,11 +17792,14 @@
       <c r="KD24" s="18">
         <v>90773</v>
       </c>
-      <c r="KE24" s="8">
+      <c r="KE24" s="7">
         <v>91631</v>
       </c>
+      <c r="KF24" s="8">
+        <v>92492</v>
+      </c>
     </row>
-    <row r="25" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -18593,11 +18670,14 @@
       <c r="KD25" s="18">
         <v>78480</v>
       </c>
-      <c r="KE25" s="8">
+      <c r="KE25" s="7">
         <v>78832</v>
       </c>
+      <c r="KF25" s="8">
+        <v>79446</v>
+      </c>
     </row>
-    <row r="26" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19468,11 +19548,14 @@
       <c r="KD26" s="19">
         <v>5</v>
       </c>
-      <c r="KE26" s="10">
+      <c r="KE26" s="9">
         <v>7</v>
       </c>
+      <c r="KF26" s="10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:293" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20340,15 +20423,18 @@
       <c r="KC27" s="11">
         <v>1849999</v>
       </c>
-      <c r="KD27" s="36">
+      <c r="KD27" s="32">
         <v>1861159</v>
       </c>
-      <c r="KE27" s="37">
+      <c r="KE27" s="41">
         <v>1874622</v>
       </c>
-      <c r="KF27" s="25"/>
+      <c r="KF27" s="33">
+        <v>1886776</v>
+      </c>
+      <c r="KG27" s="25"/>
     </row>
-    <row r="28" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -21503,12 +21589,15 @@
       <c r="KD28" s="18">
         <v>327392</v>
       </c>
-      <c r="KE28" s="8">
+      <c r="KE28" s="7">
         <v>329524</v>
       </c>
-      <c r="KF28" s="25"/>
+      <c r="KF28" s="8">
+        <v>332370</v>
+      </c>
+      <c r="KG28" s="25"/>
     </row>
-    <row r="29" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -22663,12 +22752,15 @@
       <c r="KD29" s="18">
         <v>49273</v>
       </c>
-      <c r="KE29" s="8">
+      <c r="KE29" s="7">
         <v>49416</v>
       </c>
-      <c r="KF29" s="25"/>
+      <c r="KF29" s="8">
+        <v>49135</v>
+      </c>
+      <c r="KG29" s="25"/>
     </row>
-    <row r="30" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -23823,12 +23915,15 @@
       <c r="KD30" s="18">
         <v>228320</v>
       </c>
-      <c r="KE30" s="8">
+      <c r="KE30" s="7">
         <v>230670</v>
       </c>
-      <c r="KF30" s="25"/>
+      <c r="KF30" s="8">
+        <v>233073</v>
+      </c>
+      <c r="KG30" s="25"/>
     </row>
-    <row r="31" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -24983,12 +25078,15 @@
       <c r="KD31" s="18">
         <v>298096</v>
       </c>
-      <c r="KE31" s="8">
+      <c r="KE31" s="7">
         <v>300373</v>
       </c>
-      <c r="KF31" s="25"/>
+      <c r="KF31" s="8">
+        <v>302285</v>
+      </c>
+      <c r="KG31" s="25"/>
     </row>
-    <row r="32" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26143,12 +26241,15 @@
       <c r="KD32" s="18">
         <v>284045</v>
       </c>
-      <c r="KE32" s="8">
+      <c r="KE32" s="7">
         <v>285931</v>
       </c>
-      <c r="KF32" s="25"/>
+      <c r="KF32" s="8">
+        <v>286954</v>
+      </c>
+      <c r="KG32" s="25"/>
     </row>
-    <row r="33" spans="1:292" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27303,12 +27404,15 @@
       <c r="KD33" s="18">
         <v>254670</v>
       </c>
-      <c r="KE33" s="8">
+      <c r="KE33" s="7">
         <v>256503</v>
       </c>
-      <c r="KF33" s="25"/>
+      <c r="KF33" s="8">
+        <v>257740</v>
+      </c>
+      <c r="KG33" s="25"/>
     </row>
-    <row r="34" spans="1:292" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -28463,12 +28567,15 @@
       <c r="KD34" s="18">
         <v>222728</v>
       </c>
-      <c r="KE34" s="8">
+      <c r="KE34" s="7">
         <v>224406</v>
       </c>
-      <c r="KF34" s="25"/>
+      <c r="KF34" s="8">
+        <v>226152</v>
+      </c>
+      <c r="KG34" s="25"/>
     </row>
-    <row r="35" spans="1:292" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -29623,12 +29730,15 @@
       <c r="KD35" s="18">
         <v>196598</v>
       </c>
-      <c r="KE35" s="8">
+      <c r="KE35" s="7">
         <v>197756</v>
       </c>
-      <c r="KF35" s="25"/>
+      <c r="KF35" s="8">
+        <v>199023</v>
+      </c>
+      <c r="KG35" s="25"/>
     </row>
-    <row r="36" spans="1:292" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -30783,22 +30893,35 @@
       <c r="KD36" s="19">
         <v>37</v>
       </c>
-      <c r="KE36" s="10">
+      <c r="KE36" s="9">
         <v>43</v>
       </c>
-      <c r="KF36" s="25"/>
+      <c r="KF36" s="10">
+        <v>44</v>
+      </c>
+      <c r="KG36" s="25"/>
     </row>
-    <row r="37" spans="1:292" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:293" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:292" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="KD5:KE5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
+    <mergeCell ref="KD5:KF5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -30814,16 +30937,6 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11995"/>
   </bookViews>
   <sheets>
     <sheet name="ta_sexo_edad" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-marzo 2022</t>
+    <t>Enero 1998-abril 2022</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,18 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,17 +440,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,41 +720,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KH38"/>
+  <dimension ref="A1:KI38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KG32" sqref="KG32"/>
+      <selection pane="topRight" activeCell="KJ32" sqref="KJ32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="285" width="11.42578125" style="2"/>
-    <col min="286" max="288" width="12.7109375" style="2" customWidth="1"/>
-    <col min="289" max="289" width="12.42578125" style="2" customWidth="1"/>
-    <col min="290" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="285" width="11.375" style="2"/>
+    <col min="286" max="288" width="12.75" style="2" customWidth="1"/>
+    <col min="289" max="289" width="12.375" style="2" customWidth="1"/>
+    <col min="290" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:295" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:295" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:295" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:294" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:294" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="4" spans="1:295" s="3" customFormat="1" ht="14.95" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:295" s="4" customFormat="1" ht="14.95" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="37">
@@ -1092,15 +1092,16 @@
       <c r="JZ5" s="37"/>
       <c r="KA5" s="37"/>
       <c r="KB5" s="37"/>
-      <c r="KC5" s="34"/>
-      <c r="KD5" s="34">
+      <c r="KC5" s="38"/>
+      <c r="KD5" s="38">
         <v>2022</v>
       </c>
-      <c r="KE5" s="38"/>
-      <c r="KF5" s="35"/>
+      <c r="KE5" s="39"/>
+      <c r="KF5" s="39"/>
+      <c r="KG5" s="40"/>
     </row>
-    <row r="6" spans="1:294" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+    <row r="6" spans="1:295" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1968,14 +1969,17 @@
       <c r="KD6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="KE6" s="39" t="s">
+      <c r="KE6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="KF6" s="29" t="s">
+      <c r="KF6" s="34" t="s">
         <v>13</v>
       </c>
+      <c r="KG6" s="29" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:294" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:295" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2846,14 +2850,17 @@
       <c r="KD7" s="30">
         <v>1117867</v>
       </c>
-      <c r="KE7" s="40">
+      <c r="KE7" s="35">
         <v>1125481</v>
       </c>
-      <c r="KF7" s="31">
+      <c r="KF7" s="35">
         <v>1131739</v>
       </c>
+      <c r="KG7" s="31">
+        <v>1129276</v>
+      </c>
     </row>
-    <row r="8" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3727,11 +3734,14 @@
       <c r="KE8" s="7">
         <v>206327</v>
       </c>
-      <c r="KF8" s="8">
+      <c r="KF8" s="7">
         <v>207720</v>
       </c>
+      <c r="KG8" s="8">
+        <v>208500</v>
+      </c>
     </row>
-    <row r="9" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4605,11 +4615,14 @@
       <c r="KE9" s="7">
         <v>31511</v>
       </c>
-      <c r="KF9" s="8">
+      <c r="KF9" s="7">
         <v>31267</v>
       </c>
+      <c r="KG9" s="8">
+        <v>30550</v>
+      </c>
     </row>
-    <row r="10" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5483,11 +5496,14 @@
       <c r="KE10" s="7">
         <v>136818</v>
       </c>
-      <c r="KF10" s="8">
+      <c r="KF10" s="7">
         <v>138333</v>
       </c>
+      <c r="KG10" s="8">
+        <v>137247</v>
+      </c>
     </row>
-    <row r="11" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6361,11 +6377,14 @@
       <c r="KE11" s="7">
         <v>177014</v>
       </c>
-      <c r="KF11" s="8">
+      <c r="KF11" s="7">
         <v>177838</v>
       </c>
+      <c r="KG11" s="8">
+        <v>177150</v>
+      </c>
     </row>
-    <row r="12" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7239,11 +7258,14 @@
       <c r="KE12" s="7">
         <v>170225</v>
       </c>
-      <c r="KF12" s="8">
+      <c r="KF12" s="7">
         <v>170754</v>
       </c>
+      <c r="KG12" s="8">
+        <v>170593</v>
+      </c>
     </row>
-    <row r="13" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8117,11 +8139,14 @@
       <c r="KE13" s="7">
         <v>151851</v>
       </c>
-      <c r="KF13" s="8">
+      <c r="KF13" s="7">
         <v>152552</v>
       </c>
+      <c r="KG13" s="8">
+        <v>152245</v>
+      </c>
     </row>
-    <row r="14" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -8995,13 +9020,16 @@
       <c r="KE14" s="7">
         <v>132775</v>
       </c>
-      <c r="KF14" s="8">
+      <c r="KF14" s="7">
         <v>133660</v>
       </c>
-      <c r="KG14" s="26"/>
+      <c r="KG14" s="8">
+        <v>133440</v>
+      </c>
       <c r="KH14" s="26"/>
+      <c r="KI14" s="26"/>
     </row>
-    <row r="15" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -9875,13 +9903,16 @@
       <c r="KE15" s="7">
         <v>118924</v>
       </c>
-      <c r="KF15" s="8">
+      <c r="KF15" s="7">
         <v>119577</v>
       </c>
-      <c r="KG15" s="26"/>
+      <c r="KG15" s="8">
+        <v>119512</v>
+      </c>
       <c r="KH15" s="26"/>
+      <c r="KI15" s="26"/>
     </row>
-    <row r="16" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10755,13 +10786,16 @@
       <c r="KE16" s="9">
         <v>36</v>
       </c>
-      <c r="KF16" s="10">
+      <c r="KF16" s="9">
         <v>38</v>
       </c>
-      <c r="KG16" s="26"/>
+      <c r="KG16" s="10">
+        <v>39</v>
+      </c>
       <c r="KH16" s="26"/>
+      <c r="KI16" s="26"/>
     </row>
-    <row r="17" spans="1:294" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:295" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11632,16 +11666,19 @@
       <c r="KD17" s="30">
         <v>743292</v>
       </c>
-      <c r="KE17" s="40">
+      <c r="KE17" s="35">
         <v>749141</v>
       </c>
-      <c r="KF17" s="31">
+      <c r="KF17" s="35">
         <v>755037</v>
       </c>
-      <c r="KG17" s="27"/>
+      <c r="KG17" s="31">
+        <v>755439</v>
+      </c>
       <c r="KH17" s="27"/>
+      <c r="KI17" s="27"/>
     </row>
-    <row r="18" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12515,13 +12552,16 @@
       <c r="KE18" s="7">
         <v>123197</v>
       </c>
-      <c r="KF18" s="8">
+      <c r="KF18" s="7">
         <v>124650</v>
       </c>
-      <c r="KG18" s="26"/>
+      <c r="KG18" s="8">
+        <v>125372</v>
+      </c>
       <c r="KH18" s="26"/>
+      <c r="KI18" s="26"/>
     </row>
-    <row r="19" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13395,13 +13435,16 @@
       <c r="KE19" s="7">
         <v>17905</v>
       </c>
-      <c r="KF19" s="8">
+      <c r="KF19" s="7">
         <v>17868</v>
       </c>
-      <c r="KG19" s="26"/>
+      <c r="KG19" s="8">
+        <v>17263</v>
+      </c>
       <c r="KH19" s="26"/>
+      <c r="KI19" s="26"/>
     </row>
-    <row r="20" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14275,13 +14318,16 @@
       <c r="KE20" s="7">
         <v>93852</v>
       </c>
-      <c r="KF20" s="8">
+      <c r="KF20" s="7">
         <v>94740</v>
       </c>
-      <c r="KG20" s="26"/>
+      <c r="KG20" s="8">
+        <v>94315</v>
+      </c>
       <c r="KH20" s="26"/>
+      <c r="KI20" s="26"/>
     </row>
-    <row r="21" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15155,13 +15201,16 @@
       <c r="KE21" s="7">
         <v>123359</v>
       </c>
-      <c r="KF21" s="8">
+      <c r="KF21" s="7">
         <v>124447</v>
       </c>
-      <c r="KG21" s="26"/>
+      <c r="KG21" s="8">
+        <v>124361</v>
+      </c>
       <c r="KH21" s="26"/>
+      <c r="KI21" s="26"/>
     </row>
-    <row r="22" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16035,13 +16084,16 @@
       <c r="KE22" s="7">
         <v>115706</v>
       </c>
-      <c r="KF22" s="8">
+      <c r="KF22" s="7">
         <v>116200</v>
       </c>
-      <c r="KG22" s="26"/>
+      <c r="KG22" s="8">
+        <v>116303</v>
+      </c>
       <c r="KH22" s="26"/>
+      <c r="KI22" s="26"/>
     </row>
-    <row r="23" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -16915,13 +16967,16 @@
       <c r="KE23" s="7">
         <v>104652</v>
       </c>
-      <c r="KF23" s="8">
+      <c r="KF23" s="7">
         <v>105188</v>
       </c>
-      <c r="KG23" s="26"/>
+      <c r="KG23" s="8">
+        <v>105284</v>
+      </c>
       <c r="KH23" s="26"/>
+      <c r="KI23" s="26"/>
     </row>
-    <row r="24" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -17795,11 +17850,14 @@
       <c r="KE24" s="7">
         <v>91631</v>
       </c>
-      <c r="KF24" s="8">
+      <c r="KF24" s="7">
         <v>92492</v>
       </c>
+      <c r="KG24" s="8">
+        <v>92780</v>
+      </c>
     </row>
-    <row r="25" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -18673,11 +18731,14 @@
       <c r="KE25" s="7">
         <v>78832</v>
       </c>
-      <c r="KF25" s="8">
+      <c r="KF25" s="7">
         <v>79446</v>
       </c>
+      <c r="KG25" s="8">
+        <v>79753</v>
+      </c>
     </row>
-    <row r="26" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19551,11 +19612,14 @@
       <c r="KE26" s="9">
         <v>7</v>
       </c>
-      <c r="KF26" s="10">
+      <c r="KF26" s="9">
         <v>6</v>
       </c>
+      <c r="KG26" s="10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:294" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20426,15 +20490,18 @@
       <c r="KD27" s="32">
         <v>1861159</v>
       </c>
-      <c r="KE27" s="41">
+      <c r="KE27" s="36">
         <v>1874622</v>
       </c>
-      <c r="KF27" s="33">
+      <c r="KF27" s="36">
         <v>1886776</v>
       </c>
-      <c r="KG27" s="25"/>
+      <c r="KG27" s="33">
+        <v>1884715</v>
+      </c>
+      <c r="KH27" s="25"/>
     </row>
-    <row r="28" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -21592,12 +21659,15 @@
       <c r="KE28" s="7">
         <v>329524</v>
       </c>
-      <c r="KF28" s="8">
+      <c r="KF28" s="7">
         <v>332370</v>
       </c>
-      <c r="KG28" s="25"/>
+      <c r="KG28" s="8">
+        <v>333872</v>
+      </c>
+      <c r="KH28" s="25"/>
     </row>
-    <row r="29" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -22755,12 +22825,15 @@
       <c r="KE29" s="7">
         <v>49416</v>
       </c>
-      <c r="KF29" s="8">
+      <c r="KF29" s="7">
         <v>49135</v>
       </c>
-      <c r="KG29" s="25"/>
+      <c r="KG29" s="8">
+        <v>47813</v>
+      </c>
+      <c r="KH29" s="25"/>
     </row>
-    <row r="30" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -23918,12 +23991,15 @@
       <c r="KE30" s="7">
         <v>230670</v>
       </c>
-      <c r="KF30" s="8">
+      <c r="KF30" s="7">
         <v>233073</v>
       </c>
-      <c r="KG30" s="25"/>
+      <c r="KG30" s="8">
+        <v>231562</v>
+      </c>
+      <c r="KH30" s="25"/>
     </row>
-    <row r="31" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -25081,12 +25157,15 @@
       <c r="KE31" s="7">
         <v>300373</v>
       </c>
-      <c r="KF31" s="8">
+      <c r="KF31" s="7">
         <v>302285</v>
       </c>
-      <c r="KG31" s="25"/>
+      <c r="KG31" s="8">
+        <v>301511</v>
+      </c>
+      <c r="KH31" s="25"/>
     </row>
-    <row r="32" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26244,12 +26323,15 @@
       <c r="KE32" s="7">
         <v>285931</v>
       </c>
-      <c r="KF32" s="8">
+      <c r="KF32" s="7">
         <v>286954</v>
       </c>
-      <c r="KG32" s="25"/>
+      <c r="KG32" s="8">
+        <v>286896</v>
+      </c>
+      <c r="KH32" s="25"/>
     </row>
-    <row r="33" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27407,12 +27489,15 @@
       <c r="KE33" s="7">
         <v>256503</v>
       </c>
-      <c r="KF33" s="8">
+      <c r="KF33" s="7">
         <v>257740</v>
       </c>
-      <c r="KG33" s="25"/>
+      <c r="KG33" s="8">
+        <v>257529</v>
+      </c>
+      <c r="KH33" s="25"/>
     </row>
-    <row r="34" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -28570,12 +28655,15 @@
       <c r="KE34" s="7">
         <v>224406</v>
       </c>
-      <c r="KF34" s="8">
+      <c r="KF34" s="7">
         <v>226152</v>
       </c>
-      <c r="KG34" s="25"/>
+      <c r="KG34" s="8">
+        <v>226220</v>
+      </c>
+      <c r="KH34" s="25"/>
     </row>
-    <row r="35" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -29733,12 +29821,15 @@
       <c r="KE35" s="7">
         <v>197756</v>
       </c>
-      <c r="KF35" s="8">
+      <c r="KF35" s="7">
         <v>199023</v>
       </c>
-      <c r="KG35" s="25"/>
+      <c r="KG35" s="8">
+        <v>199265</v>
+      </c>
+      <c r="KH35" s="25"/>
     </row>
-    <row r="36" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -30896,32 +30987,25 @@
       <c r="KE36" s="9">
         <v>43</v>
       </c>
-      <c r="KF36" s="10">
+      <c r="KF36" s="9">
         <v>44</v>
       </c>
-      <c r="KG36" s="25"/>
+      <c r="KG36" s="10">
+        <v>47</v>
+      </c>
+      <c r="KH36" s="25"/>
     </row>
-    <row r="37" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:294" ht="14.95" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:294" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
-    <mergeCell ref="KD5:KF5"/>
+    <mergeCell ref="KD5:KG5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -30937,6 +31021,16 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-abril 2022</t>
+    <t>Enero 1998-mayo 2022</t>
   </si>
 </sst>
 </file>
@@ -720,12 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KI38"/>
+  <dimension ref="A1:KJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KJ32" sqref="KJ32"/>
+      <selection pane="topRight" activeCell="JV2" sqref="JV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -737,23 +737,23 @@
     <col min="290" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:295" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:295" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:295" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:295" s="3" customFormat="1" ht="14.95" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:295" s="4" customFormat="1" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:296" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:296" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>26</v>
       </c>
@@ -1098,9 +1098,10 @@
       </c>
       <c r="KE5" s="39"/>
       <c r="KF5" s="39"/>
-      <c r="KG5" s="40"/>
+      <c r="KG5" s="39"/>
+      <c r="KH5" s="40"/>
     </row>
-    <row r="6" spans="1:295" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:296" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
@@ -1975,11 +1976,14 @@
       <c r="KF6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="KG6" s="29" t="s">
+      <c r="KG6" s="34" t="s">
         <v>14</v>
       </c>
+      <c r="KH6" s="29" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:295" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:296" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2856,11 +2860,14 @@
       <c r="KF7" s="35">
         <v>1131739</v>
       </c>
-      <c r="KG7" s="31">
+      <c r="KG7" s="35">
         <v>1129276</v>
       </c>
+      <c r="KH7" s="31">
+        <v>1129263</v>
+      </c>
     </row>
-    <row r="8" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3737,11 +3744,14 @@
       <c r="KF8" s="7">
         <v>207720</v>
       </c>
-      <c r="KG8" s="8">
+      <c r="KG8" s="7">
         <v>208500</v>
       </c>
+      <c r="KH8" s="8">
+        <v>208959</v>
+      </c>
     </row>
-    <row r="9" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4618,11 +4628,14 @@
       <c r="KF9" s="7">
         <v>31267</v>
       </c>
-      <c r="KG9" s="8">
+      <c r="KG9" s="7">
         <v>30550</v>
       </c>
+      <c r="KH9" s="8">
+        <v>29944</v>
+      </c>
     </row>
-    <row r="10" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5499,11 +5512,14 @@
       <c r="KF10" s="7">
         <v>138333</v>
       </c>
-      <c r="KG10" s="8">
+      <c r="KG10" s="7">
         <v>137247</v>
       </c>
+      <c r="KH10" s="8">
+        <v>137071</v>
+      </c>
     </row>
-    <row r="11" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6380,11 +6396,14 @@
       <c r="KF11" s="7">
         <v>177838</v>
       </c>
-      <c r="KG11" s="8">
+      <c r="KG11" s="7">
         <v>177150</v>
       </c>
+      <c r="KH11" s="8">
+        <v>177136</v>
+      </c>
     </row>
-    <row r="12" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7261,11 +7280,14 @@
       <c r="KF12" s="7">
         <v>170754</v>
       </c>
-      <c r="KG12" s="8">
+      <c r="KG12" s="7">
         <v>170593</v>
       </c>
+      <c r="KH12" s="8">
+        <v>170894</v>
+      </c>
     </row>
-    <row r="13" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8142,11 +8164,14 @@
       <c r="KF13" s="7">
         <v>152552</v>
       </c>
-      <c r="KG13" s="8">
+      <c r="KG13" s="7">
         <v>152245</v>
       </c>
+      <c r="KH13" s="8">
+        <v>152365</v>
+      </c>
     </row>
-    <row r="14" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9023,13 +9048,16 @@
       <c r="KF14" s="7">
         <v>133660</v>
       </c>
-      <c r="KG14" s="8">
+      <c r="KG14" s="7">
         <v>133440</v>
       </c>
-      <c r="KH14" s="26"/>
+      <c r="KH14" s="8">
+        <v>133445</v>
+      </c>
       <c r="KI14" s="26"/>
+      <c r="KJ14" s="26"/>
     </row>
-    <row r="15" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -9906,13 +9934,16 @@
       <c r="KF15" s="7">
         <v>119577</v>
       </c>
-      <c r="KG15" s="8">
+      <c r="KG15" s="7">
         <v>119512</v>
       </c>
-      <c r="KH15" s="26"/>
+      <c r="KH15" s="8">
+        <v>119410</v>
+      </c>
       <c r="KI15" s="26"/>
+      <c r="KJ15" s="26"/>
     </row>
-    <row r="16" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10789,13 +10820,16 @@
       <c r="KF16" s="9">
         <v>38</v>
       </c>
-      <c r="KG16" s="10">
+      <c r="KG16" s="9">
         <v>39</v>
       </c>
-      <c r="KH16" s="26"/>
+      <c r="KH16" s="10">
+        <v>39</v>
+      </c>
       <c r="KI16" s="26"/>
+      <c r="KJ16" s="26"/>
     </row>
-    <row r="17" spans="1:295" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:296" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11672,13 +11706,16 @@
       <c r="KF17" s="35">
         <v>755037</v>
       </c>
-      <c r="KG17" s="31">
+      <c r="KG17" s="35">
         <v>755439</v>
       </c>
-      <c r="KH17" s="27"/>
+      <c r="KH17" s="31">
+        <v>758969</v>
+      </c>
       <c r="KI17" s="27"/>
+      <c r="KJ17" s="27"/>
     </row>
-    <row r="18" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12555,13 +12592,16 @@
       <c r="KF18" s="7">
         <v>124650</v>
       </c>
-      <c r="KG18" s="8">
+      <c r="KG18" s="7">
         <v>125372</v>
       </c>
-      <c r="KH18" s="26"/>
+      <c r="KH18" s="8">
+        <v>126188</v>
+      </c>
       <c r="KI18" s="26"/>
+      <c r="KJ18" s="26"/>
     </row>
-    <row r="19" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13438,13 +13478,16 @@
       <c r="KF19" s="7">
         <v>17868</v>
       </c>
-      <c r="KG19" s="8">
+      <c r="KG19" s="7">
         <v>17263</v>
       </c>
-      <c r="KH19" s="26"/>
+      <c r="KH19" s="8">
+        <v>16845</v>
+      </c>
       <c r="KI19" s="26"/>
+      <c r="KJ19" s="26"/>
     </row>
-    <row r="20" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14321,13 +14364,16 @@
       <c r="KF20" s="7">
         <v>94740</v>
       </c>
-      <c r="KG20" s="8">
+      <c r="KG20" s="7">
         <v>94315</v>
       </c>
-      <c r="KH20" s="26"/>
+      <c r="KH20" s="8">
+        <v>94499</v>
+      </c>
       <c r="KI20" s="26"/>
+      <c r="KJ20" s="26"/>
     </row>
-    <row r="21" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15204,13 +15250,16 @@
       <c r="KF21" s="7">
         <v>124447</v>
       </c>
-      <c r="KG21" s="8">
+      <c r="KG21" s="7">
         <v>124361</v>
       </c>
-      <c r="KH21" s="26"/>
+      <c r="KH21" s="8">
+        <v>124966</v>
+      </c>
       <c r="KI21" s="26"/>
+      <c r="KJ21" s="26"/>
     </row>
-    <row r="22" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16087,13 +16136,16 @@
       <c r="KF22" s="7">
         <v>116200</v>
       </c>
-      <c r="KG22" s="8">
+      <c r="KG22" s="7">
         <v>116303</v>
       </c>
-      <c r="KH22" s="26"/>
+      <c r="KH22" s="8">
+        <v>116902</v>
+      </c>
       <c r="KI22" s="26"/>
+      <c r="KJ22" s="26"/>
     </row>
-    <row r="23" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -16970,13 +17022,16 @@
       <c r="KF23" s="7">
         <v>105188</v>
       </c>
-      <c r="KG23" s="8">
+      <c r="KG23" s="7">
         <v>105284</v>
       </c>
-      <c r="KH23" s="26"/>
+      <c r="KH23" s="8">
+        <v>105893</v>
+      </c>
       <c r="KI23" s="26"/>
+      <c r="KJ23" s="26"/>
     </row>
-    <row r="24" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -17853,11 +17908,14 @@
       <c r="KF24" s="7">
         <v>92492</v>
       </c>
-      <c r="KG24" s="8">
+      <c r="KG24" s="7">
         <v>92780</v>
       </c>
+      <c r="KH24" s="8">
+        <v>93345</v>
+      </c>
     </row>
-    <row r="25" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -18734,11 +18792,14 @@
       <c r="KF25" s="7">
         <v>79446</v>
       </c>
-      <c r="KG25" s="8">
+      <c r="KG25" s="7">
         <v>79753</v>
       </c>
+      <c r="KH25" s="8">
+        <v>80323</v>
+      </c>
     </row>
-    <row r="26" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19615,11 +19676,14 @@
       <c r="KF26" s="9">
         <v>6</v>
       </c>
-      <c r="KG26" s="10">
+      <c r="KG26" s="9">
         <v>8</v>
       </c>
+      <c r="KH26" s="10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:295" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20496,12 +20560,15 @@
       <c r="KF27" s="36">
         <v>1886776</v>
       </c>
-      <c r="KG27" s="33">
+      <c r="KG27" s="36">
         <v>1884715</v>
       </c>
-      <c r="KH27" s="25"/>
+      <c r="KH27" s="33">
+        <v>1888232</v>
+      </c>
+      <c r="KI27" s="25"/>
     </row>
-    <row r="28" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -21662,12 +21729,15 @@
       <c r="KF28" s="7">
         <v>332370</v>
       </c>
-      <c r="KG28" s="8">
+      <c r="KG28" s="7">
         <v>333872</v>
       </c>
-      <c r="KH28" s="25"/>
+      <c r="KH28" s="8">
+        <v>335147</v>
+      </c>
+      <c r="KI28" s="25"/>
     </row>
-    <row r="29" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -22828,12 +22898,15 @@
       <c r="KF29" s="7">
         <v>49135</v>
       </c>
-      <c r="KG29" s="8">
+      <c r="KG29" s="7">
         <v>47813</v>
       </c>
-      <c r="KH29" s="25"/>
+      <c r="KH29" s="8">
+        <v>46789</v>
+      </c>
+      <c r="KI29" s="25"/>
     </row>
-    <row r="30" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -23994,12 +24067,15 @@
       <c r="KF30" s="7">
         <v>233073</v>
       </c>
-      <c r="KG30" s="8">
+      <c r="KG30" s="7">
         <v>231562</v>
       </c>
-      <c r="KH30" s="25"/>
+      <c r="KH30" s="8">
+        <v>231570</v>
+      </c>
+      <c r="KI30" s="25"/>
     </row>
-    <row r="31" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -25160,12 +25236,15 @@
       <c r="KF31" s="7">
         <v>302285</v>
       </c>
-      <c r="KG31" s="8">
+      <c r="KG31" s="7">
         <v>301511</v>
       </c>
-      <c r="KH31" s="25"/>
+      <c r="KH31" s="8">
+        <v>302102</v>
+      </c>
+      <c r="KI31" s="25"/>
     </row>
-    <row r="32" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26326,12 +26405,15 @@
       <c r="KF32" s="7">
         <v>286954</v>
       </c>
-      <c r="KG32" s="8">
+      <c r="KG32" s="7">
         <v>286896</v>
       </c>
-      <c r="KH32" s="25"/>
+      <c r="KH32" s="8">
+        <v>287796</v>
+      </c>
+      <c r="KI32" s="25"/>
     </row>
-    <row r="33" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27492,12 +27574,15 @@
       <c r="KF33" s="7">
         <v>257740</v>
       </c>
-      <c r="KG33" s="8">
+      <c r="KG33" s="7">
         <v>257529</v>
       </c>
-      <c r="KH33" s="25"/>
+      <c r="KH33" s="8">
+        <v>258258</v>
+      </c>
+      <c r="KI33" s="25"/>
     </row>
-    <row r="34" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -28658,12 +28743,15 @@
       <c r="KF34" s="7">
         <v>226152</v>
       </c>
-      <c r="KG34" s="8">
+      <c r="KG34" s="7">
         <v>226220</v>
       </c>
-      <c r="KH34" s="25"/>
+      <c r="KH34" s="8">
+        <v>226790</v>
+      </c>
+      <c r="KI34" s="25"/>
     </row>
-    <row r="35" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -29824,12 +29912,15 @@
       <c r="KF35" s="7">
         <v>199023</v>
       </c>
-      <c r="KG35" s="8">
+      <c r="KG35" s="7">
         <v>199265</v>
       </c>
-      <c r="KH35" s="25"/>
+      <c r="KH35" s="8">
+        <v>199733</v>
+      </c>
+      <c r="KI35" s="25"/>
     </row>
-    <row r="36" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -30990,22 +31081,25 @@
       <c r="KF36" s="9">
         <v>44</v>
       </c>
-      <c r="KG36" s="10">
+      <c r="KG36" s="9">
         <v>47</v>
       </c>
-      <c r="KH36" s="25"/>
+      <c r="KH36" s="10">
+        <v>47</v>
+      </c>
+      <c r="KI36" s="25"/>
     </row>
-    <row r="37" spans="1:294" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:295" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:294" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="KD5:KG5"/>
+    <mergeCell ref="KD5:KH5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-mayo 2022</t>
+    <t>Enero 1998-junio 2022</t>
   </si>
 </sst>
 </file>
@@ -425,9 +425,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,12 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KJ38"/>
+  <dimension ref="A1:KK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="JV2" sqref="JV2"/>
+      <selection pane="topRight" activeCell="KK9" sqref="KK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -737,372 +737,373 @@
     <col min="290" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:296" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:296" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="4" spans="1:297" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:297" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="41">
         <v>1998</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41">
         <v>1999</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37">
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41">
         <v>2000</v>
       </c>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37">
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41">
         <v>2001</v>
       </c>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37">
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41">
         <v>2002</v>
       </c>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37">
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41">
         <v>2003</v>
       </c>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37">
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+      <c r="BV5" s="41">
         <v>2004</v>
       </c>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37">
+      <c r="BW5" s="41"/>
+      <c r="BX5" s="41"/>
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="41"/>
+      <c r="CA5" s="41"/>
+      <c r="CB5" s="41"/>
+      <c r="CC5" s="41"/>
+      <c r="CD5" s="41"/>
+      <c r="CE5" s="41"/>
+      <c r="CF5" s="41"/>
+      <c r="CG5" s="41"/>
+      <c r="CH5" s="41">
         <v>2005</v>
       </c>
-      <c r="CI5" s="37"/>
-      <c r="CJ5" s="37"/>
-      <c r="CK5" s="37"/>
-      <c r="CL5" s="37"/>
-      <c r="CM5" s="37"/>
-      <c r="CN5" s="37"/>
-      <c r="CO5" s="37"/>
-      <c r="CP5" s="37"/>
-      <c r="CQ5" s="37"/>
-      <c r="CR5" s="37"/>
-      <c r="CS5" s="37"/>
-      <c r="CT5" s="37">
+      <c r="CI5" s="41"/>
+      <c r="CJ5" s="41"/>
+      <c r="CK5" s="41"/>
+      <c r="CL5" s="41"/>
+      <c r="CM5" s="41"/>
+      <c r="CN5" s="41"/>
+      <c r="CO5" s="41"/>
+      <c r="CP5" s="41"/>
+      <c r="CQ5" s="41"/>
+      <c r="CR5" s="41"/>
+      <c r="CS5" s="41"/>
+      <c r="CT5" s="41">
         <v>2006</v>
       </c>
-      <c r="CU5" s="37"/>
-      <c r="CV5" s="37"/>
-      <c r="CW5" s="37"/>
-      <c r="CX5" s="37"/>
-      <c r="CY5" s="37"/>
-      <c r="CZ5" s="37"/>
-      <c r="DA5" s="37"/>
-      <c r="DB5" s="37"/>
-      <c r="DC5" s="37"/>
-      <c r="DD5" s="37"/>
-      <c r="DE5" s="37"/>
-      <c r="DF5" s="37">
+      <c r="CU5" s="41"/>
+      <c r="CV5" s="41"/>
+      <c r="CW5" s="41"/>
+      <c r="CX5" s="41"/>
+      <c r="CY5" s="41"/>
+      <c r="CZ5" s="41"/>
+      <c r="DA5" s="41"/>
+      <c r="DB5" s="41"/>
+      <c r="DC5" s="41"/>
+      <c r="DD5" s="41"/>
+      <c r="DE5" s="41"/>
+      <c r="DF5" s="41">
         <v>2007</v>
       </c>
-      <c r="DG5" s="37"/>
-      <c r="DH5" s="37"/>
-      <c r="DI5" s="37"/>
-      <c r="DJ5" s="37"/>
-      <c r="DK5" s="37"/>
-      <c r="DL5" s="37"/>
-      <c r="DM5" s="37"/>
-      <c r="DN5" s="37"/>
-      <c r="DO5" s="37"/>
-      <c r="DP5" s="37"/>
-      <c r="DQ5" s="37"/>
-      <c r="DR5" s="37">
+      <c r="DG5" s="41"/>
+      <c r="DH5" s="41"/>
+      <c r="DI5" s="41"/>
+      <c r="DJ5" s="41"/>
+      <c r="DK5" s="41"/>
+      <c r="DL5" s="41"/>
+      <c r="DM5" s="41"/>
+      <c r="DN5" s="41"/>
+      <c r="DO5" s="41"/>
+      <c r="DP5" s="41"/>
+      <c r="DQ5" s="41"/>
+      <c r="DR5" s="41">
         <v>2008</v>
       </c>
-      <c r="DS5" s="37"/>
-      <c r="DT5" s="37"/>
-      <c r="DU5" s="37"/>
-      <c r="DV5" s="37"/>
-      <c r="DW5" s="37"/>
-      <c r="DX5" s="37"/>
-      <c r="DY5" s="37"/>
-      <c r="DZ5" s="37"/>
-      <c r="EA5" s="37"/>
-      <c r="EB5" s="37"/>
-      <c r="EC5" s="37"/>
-      <c r="ED5" s="37">
+      <c r="DS5" s="41"/>
+      <c r="DT5" s="41"/>
+      <c r="DU5" s="41"/>
+      <c r="DV5" s="41"/>
+      <c r="DW5" s="41"/>
+      <c r="DX5" s="41"/>
+      <c r="DY5" s="41"/>
+      <c r="DZ5" s="41"/>
+      <c r="EA5" s="41"/>
+      <c r="EB5" s="41"/>
+      <c r="EC5" s="41"/>
+      <c r="ED5" s="41">
         <v>2009</v>
       </c>
-      <c r="EE5" s="37"/>
-      <c r="EF5" s="37"/>
-      <c r="EG5" s="37"/>
-      <c r="EH5" s="37"/>
-      <c r="EI5" s="37"/>
-      <c r="EJ5" s="37"/>
-      <c r="EK5" s="37"/>
-      <c r="EL5" s="37"/>
-      <c r="EM5" s="37"/>
-      <c r="EN5" s="37"/>
-      <c r="EO5" s="37"/>
-      <c r="EP5" s="37">
+      <c r="EE5" s="41"/>
+      <c r="EF5" s="41"/>
+      <c r="EG5" s="41"/>
+      <c r="EH5" s="41"/>
+      <c r="EI5" s="41"/>
+      <c r="EJ5" s="41"/>
+      <c r="EK5" s="41"/>
+      <c r="EL5" s="41"/>
+      <c r="EM5" s="41"/>
+      <c r="EN5" s="41"/>
+      <c r="EO5" s="41"/>
+      <c r="EP5" s="41">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="37"/>
-      <c r="ER5" s="37"/>
-      <c r="ES5" s="37"/>
-      <c r="ET5" s="37"/>
-      <c r="EU5" s="37"/>
-      <c r="EV5" s="37"/>
-      <c r="EW5" s="37"/>
-      <c r="EX5" s="37"/>
-      <c r="EY5" s="37"/>
-      <c r="EZ5" s="37"/>
-      <c r="FA5" s="37"/>
-      <c r="FB5" s="37">
+      <c r="EQ5" s="41"/>
+      <c r="ER5" s="41"/>
+      <c r="ES5" s="41"/>
+      <c r="ET5" s="41"/>
+      <c r="EU5" s="41"/>
+      <c r="EV5" s="41"/>
+      <c r="EW5" s="41"/>
+      <c r="EX5" s="41"/>
+      <c r="EY5" s="41"/>
+      <c r="EZ5" s="41"/>
+      <c r="FA5" s="41"/>
+      <c r="FB5" s="41">
         <v>2011</v>
       </c>
-      <c r="FC5" s="37"/>
-      <c r="FD5" s="37"/>
-      <c r="FE5" s="37"/>
-      <c r="FF5" s="37"/>
-      <c r="FG5" s="37"/>
-      <c r="FH5" s="37"/>
-      <c r="FI5" s="37"/>
-      <c r="FJ5" s="37"/>
-      <c r="FK5" s="37"/>
-      <c r="FL5" s="37"/>
-      <c r="FM5" s="37"/>
-      <c r="FN5" s="37">
+      <c r="FC5" s="41"/>
+      <c r="FD5" s="41"/>
+      <c r="FE5" s="41"/>
+      <c r="FF5" s="41"/>
+      <c r="FG5" s="41"/>
+      <c r="FH5" s="41"/>
+      <c r="FI5" s="41"/>
+      <c r="FJ5" s="41"/>
+      <c r="FK5" s="41"/>
+      <c r="FL5" s="41"/>
+      <c r="FM5" s="41"/>
+      <c r="FN5" s="41">
         <v>2012</v>
       </c>
-      <c r="FO5" s="37"/>
-      <c r="FP5" s="37"/>
-      <c r="FQ5" s="37"/>
-      <c r="FR5" s="37"/>
-      <c r="FS5" s="37"/>
-      <c r="FT5" s="37"/>
-      <c r="FU5" s="37"/>
-      <c r="FV5" s="37"/>
-      <c r="FW5" s="37"/>
-      <c r="FX5" s="37"/>
-      <c r="FY5" s="37"/>
-      <c r="FZ5" s="37">
+      <c r="FO5" s="41"/>
+      <c r="FP5" s="41"/>
+      <c r="FQ5" s="41"/>
+      <c r="FR5" s="41"/>
+      <c r="FS5" s="41"/>
+      <c r="FT5" s="41"/>
+      <c r="FU5" s="41"/>
+      <c r="FV5" s="41"/>
+      <c r="FW5" s="41"/>
+      <c r="FX5" s="41"/>
+      <c r="FY5" s="41"/>
+      <c r="FZ5" s="41">
         <v>2013</v>
       </c>
-      <c r="GA5" s="37"/>
-      <c r="GB5" s="37"/>
-      <c r="GC5" s="37"/>
-      <c r="GD5" s="37"/>
-      <c r="GE5" s="37"/>
-      <c r="GF5" s="37"/>
-      <c r="GG5" s="37"/>
-      <c r="GH5" s="37"/>
-      <c r="GI5" s="37"/>
-      <c r="GJ5" s="37"/>
-      <c r="GK5" s="37"/>
-      <c r="GL5" s="37">
+      <c r="GA5" s="41"/>
+      <c r="GB5" s="41"/>
+      <c r="GC5" s="41"/>
+      <c r="GD5" s="41"/>
+      <c r="GE5" s="41"/>
+      <c r="GF5" s="41"/>
+      <c r="GG5" s="41"/>
+      <c r="GH5" s="41"/>
+      <c r="GI5" s="41"/>
+      <c r="GJ5" s="41"/>
+      <c r="GK5" s="41"/>
+      <c r="GL5" s="41">
         <v>2014</v>
       </c>
-      <c r="GM5" s="37"/>
-      <c r="GN5" s="37"/>
-      <c r="GO5" s="37"/>
-      <c r="GP5" s="37"/>
-      <c r="GQ5" s="37"/>
-      <c r="GR5" s="37"/>
-      <c r="GS5" s="37"/>
-      <c r="GT5" s="37"/>
-      <c r="GU5" s="37"/>
-      <c r="GV5" s="37"/>
-      <c r="GW5" s="37"/>
-      <c r="GX5" s="37">
+      <c r="GM5" s="41"/>
+      <c r="GN5" s="41"/>
+      <c r="GO5" s="41"/>
+      <c r="GP5" s="41"/>
+      <c r="GQ5" s="41"/>
+      <c r="GR5" s="41"/>
+      <c r="GS5" s="41"/>
+      <c r="GT5" s="41"/>
+      <c r="GU5" s="41"/>
+      <c r="GV5" s="41"/>
+      <c r="GW5" s="41"/>
+      <c r="GX5" s="41">
         <v>2015</v>
       </c>
-      <c r="GY5" s="37"/>
-      <c r="GZ5" s="37"/>
-      <c r="HA5" s="37"/>
-      <c r="HB5" s="37"/>
-      <c r="HC5" s="37"/>
-      <c r="HD5" s="37"/>
-      <c r="HE5" s="37"/>
-      <c r="HF5" s="37"/>
-      <c r="HG5" s="37"/>
-      <c r="HH5" s="37"/>
-      <c r="HI5" s="37"/>
-      <c r="HJ5" s="37">
+      <c r="GY5" s="41"/>
+      <c r="GZ5" s="41"/>
+      <c r="HA5" s="41"/>
+      <c r="HB5" s="41"/>
+      <c r="HC5" s="41"/>
+      <c r="HD5" s="41"/>
+      <c r="HE5" s="41"/>
+      <c r="HF5" s="41"/>
+      <c r="HG5" s="41"/>
+      <c r="HH5" s="41"/>
+      <c r="HI5" s="41"/>
+      <c r="HJ5" s="41">
         <v>2016</v>
       </c>
-      <c r="HK5" s="37"/>
-      <c r="HL5" s="37"/>
-      <c r="HM5" s="37"/>
-      <c r="HN5" s="37"/>
-      <c r="HO5" s="37"/>
-      <c r="HP5" s="37"/>
-      <c r="HQ5" s="37"/>
-      <c r="HR5" s="37"/>
-      <c r="HS5" s="37"/>
-      <c r="HT5" s="37"/>
-      <c r="HU5" s="37"/>
-      <c r="HV5" s="37">
+      <c r="HK5" s="41"/>
+      <c r="HL5" s="41"/>
+      <c r="HM5" s="41"/>
+      <c r="HN5" s="41"/>
+      <c r="HO5" s="41"/>
+      <c r="HP5" s="41"/>
+      <c r="HQ5" s="41"/>
+      <c r="HR5" s="41"/>
+      <c r="HS5" s="41"/>
+      <c r="HT5" s="41"/>
+      <c r="HU5" s="41"/>
+      <c r="HV5" s="41">
         <v>2017</v>
       </c>
-      <c r="HW5" s="37"/>
-      <c r="HX5" s="37"/>
-      <c r="HY5" s="37"/>
-      <c r="HZ5" s="37"/>
-      <c r="IA5" s="37"/>
-      <c r="IB5" s="37"/>
-      <c r="IC5" s="37"/>
-      <c r="ID5" s="37"/>
-      <c r="IE5" s="37"/>
-      <c r="IF5" s="37"/>
-      <c r="IG5" s="37"/>
-      <c r="IH5" s="37">
+      <c r="HW5" s="41"/>
+      <c r="HX5" s="41"/>
+      <c r="HY5" s="41"/>
+      <c r="HZ5" s="41"/>
+      <c r="IA5" s="41"/>
+      <c r="IB5" s="41"/>
+      <c r="IC5" s="41"/>
+      <c r="ID5" s="41"/>
+      <c r="IE5" s="41"/>
+      <c r="IF5" s="41"/>
+      <c r="IG5" s="41"/>
+      <c r="IH5" s="41">
         <v>2018</v>
       </c>
-      <c r="II5" s="37"/>
-      <c r="IJ5" s="37"/>
-      <c r="IK5" s="37"/>
-      <c r="IL5" s="37"/>
-      <c r="IM5" s="37"/>
-      <c r="IN5" s="37"/>
-      <c r="IO5" s="37"/>
-      <c r="IP5" s="37"/>
-      <c r="IQ5" s="37"/>
-      <c r="IR5" s="37"/>
-      <c r="IS5" s="37"/>
-      <c r="IT5" s="37">
+      <c r="II5" s="41"/>
+      <c r="IJ5" s="41"/>
+      <c r="IK5" s="41"/>
+      <c r="IL5" s="41"/>
+      <c r="IM5" s="41"/>
+      <c r="IN5" s="41"/>
+      <c r="IO5" s="41"/>
+      <c r="IP5" s="41"/>
+      <c r="IQ5" s="41"/>
+      <c r="IR5" s="41"/>
+      <c r="IS5" s="41"/>
+      <c r="IT5" s="41">
         <v>2019</v>
       </c>
-      <c r="IU5" s="37"/>
-      <c r="IV5" s="37"/>
-      <c r="IW5" s="37"/>
-      <c r="IX5" s="37"/>
-      <c r="IY5" s="37"/>
-      <c r="IZ5" s="37"/>
-      <c r="JA5" s="37"/>
-      <c r="JB5" s="37"/>
-      <c r="JC5" s="37"/>
-      <c r="JD5" s="37"/>
-      <c r="JE5" s="37"/>
-      <c r="JF5" s="37">
+      <c r="IU5" s="41"/>
+      <c r="IV5" s="41"/>
+      <c r="IW5" s="41"/>
+      <c r="IX5" s="41"/>
+      <c r="IY5" s="41"/>
+      <c r="IZ5" s="41"/>
+      <c r="JA5" s="41"/>
+      <c r="JB5" s="41"/>
+      <c r="JC5" s="41"/>
+      <c r="JD5" s="41"/>
+      <c r="JE5" s="41"/>
+      <c r="JF5" s="41">
         <v>2020</v>
       </c>
-      <c r="JG5" s="37"/>
-      <c r="JH5" s="37"/>
-      <c r="JI5" s="37"/>
-      <c r="JJ5" s="37"/>
-      <c r="JK5" s="37"/>
-      <c r="JL5" s="37"/>
-      <c r="JM5" s="37"/>
-      <c r="JN5" s="37"/>
-      <c r="JO5" s="37"/>
-      <c r="JP5" s="37"/>
-      <c r="JQ5" s="37"/>
-      <c r="JR5" s="37">
+      <c r="JG5" s="41"/>
+      <c r="JH5" s="41"/>
+      <c r="JI5" s="41"/>
+      <c r="JJ5" s="41"/>
+      <c r="JK5" s="41"/>
+      <c r="JL5" s="41"/>
+      <c r="JM5" s="41"/>
+      <c r="JN5" s="41"/>
+      <c r="JO5" s="41"/>
+      <c r="JP5" s="41"/>
+      <c r="JQ5" s="41"/>
+      <c r="JR5" s="41">
         <v>2021</v>
       </c>
-      <c r="JS5" s="37"/>
-      <c r="JT5" s="37"/>
-      <c r="JU5" s="37"/>
-      <c r="JV5" s="37"/>
-      <c r="JW5" s="37"/>
-      <c r="JX5" s="37"/>
-      <c r="JY5" s="37"/>
-      <c r="JZ5" s="37"/>
-      <c r="KA5" s="37"/>
-      <c r="KB5" s="37"/>
-      <c r="KC5" s="38"/>
-      <c r="KD5" s="38">
+      <c r="JS5" s="41"/>
+      <c r="JT5" s="41"/>
+      <c r="JU5" s="41"/>
+      <c r="JV5" s="41"/>
+      <c r="JW5" s="41"/>
+      <c r="JX5" s="41"/>
+      <c r="JY5" s="41"/>
+      <c r="JZ5" s="41"/>
+      <c r="KA5" s="41"/>
+      <c r="KB5" s="41"/>
+      <c r="KC5" s="37"/>
+      <c r="KD5" s="37">
         <v>2022</v>
       </c>
-      <c r="KE5" s="39"/>
-      <c r="KF5" s="39"/>
-      <c r="KG5" s="39"/>
-      <c r="KH5" s="40"/>
+      <c r="KE5" s="38"/>
+      <c r="KF5" s="38"/>
+      <c r="KG5" s="38"/>
+      <c r="KH5" s="38"/>
+      <c r="KI5" s="39"/>
     </row>
-    <row r="6" spans="1:296" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+    <row r="6" spans="1:297" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1979,11 +1980,14 @@
       <c r="KG6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="KH6" s="29" t="s">
+      <c r="KH6" s="34" t="s">
         <v>15</v>
       </c>
+      <c r="KI6" s="29" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:296" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:297" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2863,11 +2867,14 @@
       <c r="KG7" s="35">
         <v>1129276</v>
       </c>
-      <c r="KH7" s="31">
+      <c r="KH7" s="35">
         <v>1129263</v>
       </c>
+      <c r="KI7" s="31">
+        <v>1131782</v>
+      </c>
     </row>
-    <row r="8" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3747,11 +3754,14 @@
       <c r="KG8" s="7">
         <v>208500</v>
       </c>
-      <c r="KH8" s="8">
+      <c r="KH8" s="7">
         <v>208959</v>
       </c>
+      <c r="KI8" s="8">
+        <v>209874</v>
+      </c>
     </row>
-    <row r="9" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4631,11 +4641,14 @@
       <c r="KG9" s="7">
         <v>30550</v>
       </c>
-      <c r="KH9" s="8">
+      <c r="KH9" s="7">
         <v>29944</v>
       </c>
+      <c r="KI9" s="8">
+        <v>29887</v>
+      </c>
     </row>
-    <row r="10" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5515,11 +5528,14 @@
       <c r="KG10" s="7">
         <v>137247</v>
       </c>
-      <c r="KH10" s="8">
+      <c r="KH10" s="7">
         <v>137071</v>
       </c>
+      <c r="KI10" s="8">
+        <v>138123</v>
+      </c>
     </row>
-    <row r="11" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6399,11 +6415,14 @@
       <c r="KG11" s="7">
         <v>177150</v>
       </c>
-      <c r="KH11" s="8">
+      <c r="KH11" s="7">
         <v>177136</v>
       </c>
+      <c r="KI11" s="8">
+        <v>176877</v>
+      </c>
     </row>
-    <row r="12" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7283,11 +7302,14 @@
       <c r="KG12" s="7">
         <v>170593</v>
       </c>
-      <c r="KH12" s="8">
+      <c r="KH12" s="7">
         <v>170894</v>
       </c>
+      <c r="KI12" s="8">
+        <v>171221</v>
+      </c>
     </row>
-    <row r="13" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8167,11 +8189,14 @@
       <c r="KG13" s="7">
         <v>152245</v>
       </c>
-      <c r="KH13" s="8">
+      <c r="KH13" s="7">
         <v>152365</v>
       </c>
+      <c r="KI13" s="8">
+        <v>152529</v>
+      </c>
     </row>
-    <row r="14" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9051,13 +9076,16 @@
       <c r="KG14" s="7">
         <v>133440</v>
       </c>
-      <c r="KH14" s="8">
+      <c r="KH14" s="7">
         <v>133445</v>
       </c>
-      <c r="KI14" s="26"/>
+      <c r="KI14" s="8">
+        <v>133615</v>
+      </c>
       <c r="KJ14" s="26"/>
+      <c r="KK14" s="26"/>
     </row>
-    <row r="15" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -9937,13 +9965,16 @@
       <c r="KG15" s="7">
         <v>119512</v>
       </c>
-      <c r="KH15" s="8">
+      <c r="KH15" s="7">
         <v>119410</v>
       </c>
-      <c r="KI15" s="26"/>
+      <c r="KI15" s="8">
+        <v>119618</v>
+      </c>
       <c r="KJ15" s="26"/>
+      <c r="KK15" s="26"/>
     </row>
-    <row r="16" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10823,13 +10854,16 @@
       <c r="KG16" s="9">
         <v>39</v>
       </c>
-      <c r="KH16" s="10">
+      <c r="KH16" s="9">
         <v>39</v>
       </c>
-      <c r="KI16" s="26"/>
+      <c r="KI16" s="10">
+        <v>38</v>
+      </c>
       <c r="KJ16" s="26"/>
+      <c r="KK16" s="26"/>
     </row>
-    <row r="17" spans="1:296" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:297" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11709,13 +11743,16 @@
       <c r="KG17" s="35">
         <v>755439</v>
       </c>
-      <c r="KH17" s="31">
+      <c r="KH17" s="35">
         <v>758969</v>
       </c>
-      <c r="KI17" s="27"/>
+      <c r="KI17" s="31">
+        <v>764973</v>
+      </c>
       <c r="KJ17" s="27"/>
+      <c r="KK17" s="27"/>
     </row>
-    <row r="18" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12595,13 +12632,16 @@
       <c r="KG18" s="7">
         <v>125372</v>
       </c>
-      <c r="KH18" s="8">
+      <c r="KH18" s="7">
         <v>126188</v>
       </c>
-      <c r="KI18" s="26"/>
+      <c r="KI18" s="8">
+        <v>127165</v>
+      </c>
       <c r="KJ18" s="26"/>
+      <c r="KK18" s="26"/>
     </row>
-    <row r="19" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13481,13 +13521,16 @@
       <c r="KG19" s="7">
         <v>17263</v>
       </c>
-      <c r="KH19" s="8">
+      <c r="KH19" s="7">
         <v>16845</v>
       </c>
-      <c r="KI19" s="26"/>
+      <c r="KI19" s="8">
+        <v>17134</v>
+      </c>
       <c r="KJ19" s="26"/>
+      <c r="KK19" s="26"/>
     </row>
-    <row r="20" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14367,13 +14410,16 @@
       <c r="KG20" s="7">
         <v>94315</v>
       </c>
-      <c r="KH20" s="8">
+      <c r="KH20" s="7">
         <v>94499</v>
       </c>
-      <c r="KI20" s="26"/>
+      <c r="KI20" s="8">
+        <v>96025</v>
+      </c>
       <c r="KJ20" s="26"/>
+      <c r="KK20" s="26"/>
     </row>
-    <row r="21" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15253,13 +15299,16 @@
       <c r="KG21" s="7">
         <v>124361</v>
       </c>
-      <c r="KH21" s="8">
+      <c r="KH21" s="7">
         <v>124966</v>
       </c>
-      <c r="KI21" s="26"/>
+      <c r="KI21" s="8">
+        <v>125642</v>
+      </c>
       <c r="KJ21" s="26"/>
+      <c r="KK21" s="26"/>
     </row>
-    <row r="22" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16139,13 +16188,16 @@
       <c r="KG22" s="7">
         <v>116303</v>
       </c>
-      <c r="KH22" s="8">
+      <c r="KH22" s="7">
         <v>116902</v>
       </c>
-      <c r="KI22" s="26"/>
+      <c r="KI22" s="8">
+        <v>117590</v>
+      </c>
       <c r="KJ22" s="26"/>
+      <c r="KK22" s="26"/>
     </row>
-    <row r="23" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -17025,13 +17077,16 @@
       <c r="KG23" s="7">
         <v>105284</v>
       </c>
-      <c r="KH23" s="8">
+      <c r="KH23" s="7">
         <v>105893</v>
       </c>
-      <c r="KI23" s="26"/>
+      <c r="KI23" s="8">
+        <v>106654</v>
+      </c>
       <c r="KJ23" s="26"/>
+      <c r="KK23" s="26"/>
     </row>
-    <row r="24" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -17911,11 +17966,14 @@
       <c r="KG24" s="7">
         <v>92780</v>
       </c>
-      <c r="KH24" s="8">
+      <c r="KH24" s="7">
         <v>93345</v>
       </c>
+      <c r="KI24" s="8">
+        <v>93892</v>
+      </c>
     </row>
-    <row r="25" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -18795,11 +18853,14 @@
       <c r="KG25" s="7">
         <v>79753</v>
       </c>
-      <c r="KH25" s="8">
+      <c r="KH25" s="7">
         <v>80323</v>
       </c>
+      <c r="KI25" s="8">
+        <v>80864</v>
+      </c>
     </row>
-    <row r="26" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19679,11 +19740,14 @@
       <c r="KG26" s="9">
         <v>8</v>
       </c>
-      <c r="KH26" s="10">
+      <c r="KH26" s="9">
         <v>8</v>
       </c>
+      <c r="KI26" s="10">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:296" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20563,12 +20627,15 @@
       <c r="KG27" s="36">
         <v>1884715</v>
       </c>
-      <c r="KH27" s="33">
+      <c r="KH27" s="36">
         <v>1888232</v>
       </c>
-      <c r="KI27" s="25"/>
+      <c r="KI27" s="33">
+        <v>1896755</v>
+      </c>
+      <c r="KJ27" s="25"/>
     </row>
-    <row r="28" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -21732,12 +21799,15 @@
       <c r="KG28" s="7">
         <v>333872</v>
       </c>
-      <c r="KH28" s="8">
+      <c r="KH28" s="7">
         <v>335147</v>
       </c>
-      <c r="KI28" s="25"/>
+      <c r="KI28" s="8">
+        <v>337039</v>
+      </c>
+      <c r="KJ28" s="25"/>
     </row>
-    <row r="29" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -22901,12 +22971,15 @@
       <c r="KG29" s="7">
         <v>47813</v>
       </c>
-      <c r="KH29" s="8">
+      <c r="KH29" s="7">
         <v>46789</v>
       </c>
-      <c r="KI29" s="25"/>
+      <c r="KI29" s="8">
+        <v>47021</v>
+      </c>
+      <c r="KJ29" s="25"/>
     </row>
-    <row r="30" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -24070,12 +24143,15 @@
       <c r="KG30" s="7">
         <v>231562</v>
       </c>
-      <c r="KH30" s="8">
+      <c r="KH30" s="7">
         <v>231570</v>
       </c>
-      <c r="KI30" s="25"/>
+      <c r="KI30" s="8">
+        <v>234148</v>
+      </c>
+      <c r="KJ30" s="25"/>
     </row>
-    <row r="31" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -25239,12 +25315,15 @@
       <c r="KG31" s="7">
         <v>301511</v>
       </c>
-      <c r="KH31" s="8">
+      <c r="KH31" s="7">
         <v>302102</v>
       </c>
-      <c r="KI31" s="25"/>
+      <c r="KI31" s="8">
+        <v>302519</v>
+      </c>
+      <c r="KJ31" s="25"/>
     </row>
-    <row r="32" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26408,12 +26487,15 @@
       <c r="KG32" s="7">
         <v>286896</v>
       </c>
-      <c r="KH32" s="8">
+      <c r="KH32" s="7">
         <v>287796</v>
       </c>
-      <c r="KI32" s="25"/>
+      <c r="KI32" s="8">
+        <v>288811</v>
+      </c>
+      <c r="KJ32" s="25"/>
     </row>
-    <row r="33" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27577,12 +27659,15 @@
       <c r="KG33" s="7">
         <v>257529</v>
       </c>
-      <c r="KH33" s="8">
+      <c r="KH33" s="7">
         <v>258258</v>
       </c>
-      <c r="KI33" s="25"/>
+      <c r="KI33" s="8">
+        <v>259183</v>
+      </c>
+      <c r="KJ33" s="25"/>
     </row>
-    <row r="34" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -28746,12 +28831,15 @@
       <c r="KG34" s="7">
         <v>226220</v>
       </c>
-      <c r="KH34" s="8">
+      <c r="KH34" s="7">
         <v>226790</v>
       </c>
-      <c r="KI34" s="25"/>
+      <c r="KI34" s="8">
+        <v>227507</v>
+      </c>
+      <c r="KJ34" s="25"/>
     </row>
-    <row r="35" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -29915,12 +30003,15 @@
       <c r="KG35" s="7">
         <v>199265</v>
       </c>
-      <c r="KH35" s="8">
+      <c r="KH35" s="7">
         <v>199733</v>
       </c>
-      <c r="KI35" s="25"/>
+      <c r="KI35" s="8">
+        <v>200482</v>
+      </c>
+      <c r="KJ35" s="25"/>
     </row>
-    <row r="36" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -31084,22 +31175,35 @@
       <c r="KG36" s="9">
         <v>47</v>
       </c>
-      <c r="KH36" s="10">
+      <c r="KH36" s="9">
         <v>47</v>
       </c>
-      <c r="KI36" s="25"/>
+      <c r="KI36" s="10">
+        <v>45</v>
+      </c>
+      <c r="KJ36" s="25"/>
     </row>
-    <row r="37" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:296" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="KD5:KH5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
+    <mergeCell ref="KD5:KI5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -31115,16 +31219,6 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-junio 2022</t>
+    <t>Enero 1998-julio 2022</t>
   </si>
 </sst>
 </file>
@@ -425,6 +425,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,9 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,12 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KK38"/>
+  <dimension ref="A1:KL38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KK9" sqref="KK9"/>
+      <selection pane="topRight" activeCell="KL27" sqref="KL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -737,373 +737,374 @@
     <col min="290" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:297" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:297" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+    <row r="4" spans="1:298" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:298" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1998</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37">
         <v>1999</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37">
         <v>2000</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41">
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37">
         <v>2001</v>
       </c>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41">
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37">
         <v>2002</v>
       </c>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41">
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37">
         <v>2003</v>
       </c>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="41">
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37">
         <v>2004</v>
       </c>
-      <c r="BW5" s="41"/>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="41"/>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41"/>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="41"/>
-      <c r="CF5" s="41"/>
-      <c r="CG5" s="41"/>
-      <c r="CH5" s="41">
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37">
         <v>2005</v>
       </c>
-      <c r="CI5" s="41"/>
-      <c r="CJ5" s="41"/>
-      <c r="CK5" s="41"/>
-      <c r="CL5" s="41"/>
-      <c r="CM5" s="41"/>
-      <c r="CN5" s="41"/>
-      <c r="CO5" s="41"/>
-      <c r="CP5" s="41"/>
-      <c r="CQ5" s="41"/>
-      <c r="CR5" s="41"/>
-      <c r="CS5" s="41"/>
-      <c r="CT5" s="41">
+      <c r="CI5" s="37"/>
+      <c r="CJ5" s="37"/>
+      <c r="CK5" s="37"/>
+      <c r="CL5" s="37"/>
+      <c r="CM5" s="37"/>
+      <c r="CN5" s="37"/>
+      <c r="CO5" s="37"/>
+      <c r="CP5" s="37"/>
+      <c r="CQ5" s="37"/>
+      <c r="CR5" s="37"/>
+      <c r="CS5" s="37"/>
+      <c r="CT5" s="37">
         <v>2006</v>
       </c>
-      <c r="CU5" s="41"/>
-      <c r="CV5" s="41"/>
-      <c r="CW5" s="41"/>
-      <c r="CX5" s="41"/>
-      <c r="CY5" s="41"/>
-      <c r="CZ5" s="41"/>
-      <c r="DA5" s="41"/>
-      <c r="DB5" s="41"/>
-      <c r="DC5" s="41"/>
-      <c r="DD5" s="41"/>
-      <c r="DE5" s="41"/>
-      <c r="DF5" s="41">
+      <c r="CU5" s="37"/>
+      <c r="CV5" s="37"/>
+      <c r="CW5" s="37"/>
+      <c r="CX5" s="37"/>
+      <c r="CY5" s="37"/>
+      <c r="CZ5" s="37"/>
+      <c r="DA5" s="37"/>
+      <c r="DB5" s="37"/>
+      <c r="DC5" s="37"/>
+      <c r="DD5" s="37"/>
+      <c r="DE5" s="37"/>
+      <c r="DF5" s="37">
         <v>2007</v>
       </c>
-      <c r="DG5" s="41"/>
-      <c r="DH5" s="41"/>
-      <c r="DI5" s="41"/>
-      <c r="DJ5" s="41"/>
-      <c r="DK5" s="41"/>
-      <c r="DL5" s="41"/>
-      <c r="DM5" s="41"/>
-      <c r="DN5" s="41"/>
-      <c r="DO5" s="41"/>
-      <c r="DP5" s="41"/>
-      <c r="DQ5" s="41"/>
-      <c r="DR5" s="41">
+      <c r="DG5" s="37"/>
+      <c r="DH5" s="37"/>
+      <c r="DI5" s="37"/>
+      <c r="DJ5" s="37"/>
+      <c r="DK5" s="37"/>
+      <c r="DL5" s="37"/>
+      <c r="DM5" s="37"/>
+      <c r="DN5" s="37"/>
+      <c r="DO5" s="37"/>
+      <c r="DP5" s="37"/>
+      <c r="DQ5" s="37"/>
+      <c r="DR5" s="37">
         <v>2008</v>
       </c>
-      <c r="DS5" s="41"/>
-      <c r="DT5" s="41"/>
-      <c r="DU5" s="41"/>
-      <c r="DV5" s="41"/>
-      <c r="DW5" s="41"/>
-      <c r="DX5" s="41"/>
-      <c r="DY5" s="41"/>
-      <c r="DZ5" s="41"/>
-      <c r="EA5" s="41"/>
-      <c r="EB5" s="41"/>
-      <c r="EC5" s="41"/>
-      <c r="ED5" s="41">
+      <c r="DS5" s="37"/>
+      <c r="DT5" s="37"/>
+      <c r="DU5" s="37"/>
+      <c r="DV5" s="37"/>
+      <c r="DW5" s="37"/>
+      <c r="DX5" s="37"/>
+      <c r="DY5" s="37"/>
+      <c r="DZ5" s="37"/>
+      <c r="EA5" s="37"/>
+      <c r="EB5" s="37"/>
+      <c r="EC5" s="37"/>
+      <c r="ED5" s="37">
         <v>2009</v>
       </c>
-      <c r="EE5" s="41"/>
-      <c r="EF5" s="41"/>
-      <c r="EG5" s="41"/>
-      <c r="EH5" s="41"/>
-      <c r="EI5" s="41"/>
-      <c r="EJ5" s="41"/>
-      <c r="EK5" s="41"/>
-      <c r="EL5" s="41"/>
-      <c r="EM5" s="41"/>
-      <c r="EN5" s="41"/>
-      <c r="EO5" s="41"/>
-      <c r="EP5" s="41">
+      <c r="EE5" s="37"/>
+      <c r="EF5" s="37"/>
+      <c r="EG5" s="37"/>
+      <c r="EH5" s="37"/>
+      <c r="EI5" s="37"/>
+      <c r="EJ5" s="37"/>
+      <c r="EK5" s="37"/>
+      <c r="EL5" s="37"/>
+      <c r="EM5" s="37"/>
+      <c r="EN5" s="37"/>
+      <c r="EO5" s="37"/>
+      <c r="EP5" s="37">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="41"/>
-      <c r="ER5" s="41"/>
-      <c r="ES5" s="41"/>
-      <c r="ET5" s="41"/>
-      <c r="EU5" s="41"/>
-      <c r="EV5" s="41"/>
-      <c r="EW5" s="41"/>
-      <c r="EX5" s="41"/>
-      <c r="EY5" s="41"/>
-      <c r="EZ5" s="41"/>
-      <c r="FA5" s="41"/>
-      <c r="FB5" s="41">
+      <c r="EQ5" s="37"/>
+      <c r="ER5" s="37"/>
+      <c r="ES5" s="37"/>
+      <c r="ET5" s="37"/>
+      <c r="EU5" s="37"/>
+      <c r="EV5" s="37"/>
+      <c r="EW5" s="37"/>
+      <c r="EX5" s="37"/>
+      <c r="EY5" s="37"/>
+      <c r="EZ5" s="37"/>
+      <c r="FA5" s="37"/>
+      <c r="FB5" s="37">
         <v>2011</v>
       </c>
-      <c r="FC5" s="41"/>
-      <c r="FD5" s="41"/>
-      <c r="FE5" s="41"/>
-      <c r="FF5" s="41"/>
-      <c r="FG5" s="41"/>
-      <c r="FH5" s="41"/>
-      <c r="FI5" s="41"/>
-      <c r="FJ5" s="41"/>
-      <c r="FK5" s="41"/>
-      <c r="FL5" s="41"/>
-      <c r="FM5" s="41"/>
-      <c r="FN5" s="41">
+      <c r="FC5" s="37"/>
+      <c r="FD5" s="37"/>
+      <c r="FE5" s="37"/>
+      <c r="FF5" s="37"/>
+      <c r="FG5" s="37"/>
+      <c r="FH5" s="37"/>
+      <c r="FI5" s="37"/>
+      <c r="FJ5" s="37"/>
+      <c r="FK5" s="37"/>
+      <c r="FL5" s="37"/>
+      <c r="FM5" s="37"/>
+      <c r="FN5" s="37">
         <v>2012</v>
       </c>
-      <c r="FO5" s="41"/>
-      <c r="FP5" s="41"/>
-      <c r="FQ5" s="41"/>
-      <c r="FR5" s="41"/>
-      <c r="FS5" s="41"/>
-      <c r="FT5" s="41"/>
-      <c r="FU5" s="41"/>
-      <c r="FV5" s="41"/>
-      <c r="FW5" s="41"/>
-      <c r="FX5" s="41"/>
-      <c r="FY5" s="41"/>
-      <c r="FZ5" s="41">
+      <c r="FO5" s="37"/>
+      <c r="FP5" s="37"/>
+      <c r="FQ5" s="37"/>
+      <c r="FR5" s="37"/>
+      <c r="FS5" s="37"/>
+      <c r="FT5" s="37"/>
+      <c r="FU5" s="37"/>
+      <c r="FV5" s="37"/>
+      <c r="FW5" s="37"/>
+      <c r="FX5" s="37"/>
+      <c r="FY5" s="37"/>
+      <c r="FZ5" s="37">
         <v>2013</v>
       </c>
-      <c r="GA5" s="41"/>
-      <c r="GB5" s="41"/>
-      <c r="GC5" s="41"/>
-      <c r="GD5" s="41"/>
-      <c r="GE5" s="41"/>
-      <c r="GF5" s="41"/>
-      <c r="GG5" s="41"/>
-      <c r="GH5" s="41"/>
-      <c r="GI5" s="41"/>
-      <c r="GJ5" s="41"/>
-      <c r="GK5" s="41"/>
-      <c r="GL5" s="41">
+      <c r="GA5" s="37"/>
+      <c r="GB5" s="37"/>
+      <c r="GC5" s="37"/>
+      <c r="GD5" s="37"/>
+      <c r="GE5" s="37"/>
+      <c r="GF5" s="37"/>
+      <c r="GG5" s="37"/>
+      <c r="GH5" s="37"/>
+      <c r="GI5" s="37"/>
+      <c r="GJ5" s="37"/>
+      <c r="GK5" s="37"/>
+      <c r="GL5" s="37">
         <v>2014</v>
       </c>
-      <c r="GM5" s="41"/>
-      <c r="GN5" s="41"/>
-      <c r="GO5" s="41"/>
-      <c r="GP5" s="41"/>
-      <c r="GQ5" s="41"/>
-      <c r="GR5" s="41"/>
-      <c r="GS5" s="41"/>
-      <c r="GT5" s="41"/>
-      <c r="GU5" s="41"/>
-      <c r="GV5" s="41"/>
-      <c r="GW5" s="41"/>
-      <c r="GX5" s="41">
+      <c r="GM5" s="37"/>
+      <c r="GN5" s="37"/>
+      <c r="GO5" s="37"/>
+      <c r="GP5" s="37"/>
+      <c r="GQ5" s="37"/>
+      <c r="GR5" s="37"/>
+      <c r="GS5" s="37"/>
+      <c r="GT5" s="37"/>
+      <c r="GU5" s="37"/>
+      <c r="GV5" s="37"/>
+      <c r="GW5" s="37"/>
+      <c r="GX5" s="37">
         <v>2015</v>
       </c>
-      <c r="GY5" s="41"/>
-      <c r="GZ5" s="41"/>
-      <c r="HA5" s="41"/>
-      <c r="HB5" s="41"/>
-      <c r="HC5" s="41"/>
-      <c r="HD5" s="41"/>
-      <c r="HE5" s="41"/>
-      <c r="HF5" s="41"/>
-      <c r="HG5" s="41"/>
-      <c r="HH5" s="41"/>
-      <c r="HI5" s="41"/>
-      <c r="HJ5" s="41">
+      <c r="GY5" s="37"/>
+      <c r="GZ5" s="37"/>
+      <c r="HA5" s="37"/>
+      <c r="HB5" s="37"/>
+      <c r="HC5" s="37"/>
+      <c r="HD5" s="37"/>
+      <c r="HE5" s="37"/>
+      <c r="HF5" s="37"/>
+      <c r="HG5" s="37"/>
+      <c r="HH5" s="37"/>
+      <c r="HI5" s="37"/>
+      <c r="HJ5" s="37">
         <v>2016</v>
       </c>
-      <c r="HK5" s="41"/>
-      <c r="HL5" s="41"/>
-      <c r="HM5" s="41"/>
-      <c r="HN5" s="41"/>
-      <c r="HO5" s="41"/>
-      <c r="HP5" s="41"/>
-      <c r="HQ5" s="41"/>
-      <c r="HR5" s="41"/>
-      <c r="HS5" s="41"/>
-      <c r="HT5" s="41"/>
-      <c r="HU5" s="41"/>
-      <c r="HV5" s="41">
+      <c r="HK5" s="37"/>
+      <c r="HL5" s="37"/>
+      <c r="HM5" s="37"/>
+      <c r="HN5" s="37"/>
+      <c r="HO5" s="37"/>
+      <c r="HP5" s="37"/>
+      <c r="HQ5" s="37"/>
+      <c r="HR5" s="37"/>
+      <c r="HS5" s="37"/>
+      <c r="HT5" s="37"/>
+      <c r="HU5" s="37"/>
+      <c r="HV5" s="37">
         <v>2017</v>
       </c>
-      <c r="HW5" s="41"/>
-      <c r="HX5" s="41"/>
-      <c r="HY5" s="41"/>
-      <c r="HZ5" s="41"/>
-      <c r="IA5" s="41"/>
-      <c r="IB5" s="41"/>
-      <c r="IC5" s="41"/>
-      <c r="ID5" s="41"/>
-      <c r="IE5" s="41"/>
-      <c r="IF5" s="41"/>
-      <c r="IG5" s="41"/>
-      <c r="IH5" s="41">
+      <c r="HW5" s="37"/>
+      <c r="HX5" s="37"/>
+      <c r="HY5" s="37"/>
+      <c r="HZ5" s="37"/>
+      <c r="IA5" s="37"/>
+      <c r="IB5" s="37"/>
+      <c r="IC5" s="37"/>
+      <c r="ID5" s="37"/>
+      <c r="IE5" s="37"/>
+      <c r="IF5" s="37"/>
+      <c r="IG5" s="37"/>
+      <c r="IH5" s="37">
         <v>2018</v>
       </c>
-      <c r="II5" s="41"/>
-      <c r="IJ5" s="41"/>
-      <c r="IK5" s="41"/>
-      <c r="IL5" s="41"/>
-      <c r="IM5" s="41"/>
-      <c r="IN5" s="41"/>
-      <c r="IO5" s="41"/>
-      <c r="IP5" s="41"/>
-      <c r="IQ5" s="41"/>
-      <c r="IR5" s="41"/>
-      <c r="IS5" s="41"/>
-      <c r="IT5" s="41">
+      <c r="II5" s="37"/>
+      <c r="IJ5" s="37"/>
+      <c r="IK5" s="37"/>
+      <c r="IL5" s="37"/>
+      <c r="IM5" s="37"/>
+      <c r="IN5" s="37"/>
+      <c r="IO5" s="37"/>
+      <c r="IP5" s="37"/>
+      <c r="IQ5" s="37"/>
+      <c r="IR5" s="37"/>
+      <c r="IS5" s="37"/>
+      <c r="IT5" s="37">
         <v>2019</v>
       </c>
-      <c r="IU5" s="41"/>
-      <c r="IV5" s="41"/>
-      <c r="IW5" s="41"/>
-      <c r="IX5" s="41"/>
-      <c r="IY5" s="41"/>
-      <c r="IZ5" s="41"/>
-      <c r="JA5" s="41"/>
-      <c r="JB5" s="41"/>
-      <c r="JC5" s="41"/>
-      <c r="JD5" s="41"/>
-      <c r="JE5" s="41"/>
-      <c r="JF5" s="41">
+      <c r="IU5" s="37"/>
+      <c r="IV5" s="37"/>
+      <c r="IW5" s="37"/>
+      <c r="IX5" s="37"/>
+      <c r="IY5" s="37"/>
+      <c r="IZ5" s="37"/>
+      <c r="JA5" s="37"/>
+      <c r="JB5" s="37"/>
+      <c r="JC5" s="37"/>
+      <c r="JD5" s="37"/>
+      <c r="JE5" s="37"/>
+      <c r="JF5" s="37">
         <v>2020</v>
       </c>
-      <c r="JG5" s="41"/>
-      <c r="JH5" s="41"/>
-      <c r="JI5" s="41"/>
-      <c r="JJ5" s="41"/>
-      <c r="JK5" s="41"/>
-      <c r="JL5" s="41"/>
-      <c r="JM5" s="41"/>
-      <c r="JN5" s="41"/>
-      <c r="JO5" s="41"/>
-      <c r="JP5" s="41"/>
-      <c r="JQ5" s="41"/>
-      <c r="JR5" s="41">
+      <c r="JG5" s="37"/>
+      <c r="JH5" s="37"/>
+      <c r="JI5" s="37"/>
+      <c r="JJ5" s="37"/>
+      <c r="JK5" s="37"/>
+      <c r="JL5" s="37"/>
+      <c r="JM5" s="37"/>
+      <c r="JN5" s="37"/>
+      <c r="JO5" s="37"/>
+      <c r="JP5" s="37"/>
+      <c r="JQ5" s="37"/>
+      <c r="JR5" s="37">
         <v>2021</v>
       </c>
-      <c r="JS5" s="41"/>
-      <c r="JT5" s="41"/>
-      <c r="JU5" s="41"/>
-      <c r="JV5" s="41"/>
-      <c r="JW5" s="41"/>
-      <c r="JX5" s="41"/>
-      <c r="JY5" s="41"/>
-      <c r="JZ5" s="41"/>
-      <c r="KA5" s="41"/>
-      <c r="KB5" s="41"/>
-      <c r="KC5" s="37"/>
-      <c r="KD5" s="37">
+      <c r="JS5" s="37"/>
+      <c r="JT5" s="37"/>
+      <c r="JU5" s="37"/>
+      <c r="JV5" s="37"/>
+      <c r="JW5" s="37"/>
+      <c r="JX5" s="37"/>
+      <c r="JY5" s="37"/>
+      <c r="JZ5" s="37"/>
+      <c r="KA5" s="37"/>
+      <c r="KB5" s="37"/>
+      <c r="KC5" s="38"/>
+      <c r="KD5" s="38">
         <v>2022</v>
       </c>
-      <c r="KE5" s="38"/>
-      <c r="KF5" s="38"/>
-      <c r="KG5" s="38"/>
-      <c r="KH5" s="38"/>
+      <c r="KE5" s="39"/>
+      <c r="KF5" s="39"/>
+      <c r="KG5" s="39"/>
+      <c r="KH5" s="39"/>
       <c r="KI5" s="39"/>
+      <c r="KJ5" s="40"/>
     </row>
-    <row r="6" spans="1:297" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:298" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1983,11 +1984,14 @@
       <c r="KH6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="KI6" s="29" t="s">
+      <c r="KI6" s="34" t="s">
         <v>16</v>
       </c>
+      <c r="KJ6" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:297" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:298" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2870,11 +2874,14 @@
       <c r="KH7" s="35">
         <v>1129263</v>
       </c>
-      <c r="KI7" s="31">
+      <c r="KI7" s="35">
         <v>1131782</v>
       </c>
+      <c r="KJ7" s="31">
+        <v>1131513</v>
+      </c>
     </row>
-    <row r="8" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3757,11 +3764,14 @@
       <c r="KH8" s="7">
         <v>208959</v>
       </c>
-      <c r="KI8" s="8">
+      <c r="KI8" s="7">
         <v>209874</v>
       </c>
+      <c r="KJ8" s="8">
+        <v>209727</v>
+      </c>
     </row>
-    <row r="9" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4644,11 +4654,14 @@
       <c r="KH9" s="7">
         <v>29944</v>
       </c>
-      <c r="KI9" s="8">
+      <c r="KI9" s="7">
         <v>29887</v>
       </c>
+      <c r="KJ9" s="8">
+        <v>29889</v>
+      </c>
     </row>
-    <row r="10" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5531,11 +5544,14 @@
       <c r="KH10" s="7">
         <v>137071</v>
       </c>
-      <c r="KI10" s="8">
+      <c r="KI10" s="7">
         <v>138123</v>
       </c>
+      <c r="KJ10" s="8">
+        <v>138554</v>
+      </c>
     </row>
-    <row r="11" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6418,11 +6434,14 @@
       <c r="KH11" s="7">
         <v>177136</v>
       </c>
-      <c r="KI11" s="8">
+      <c r="KI11" s="7">
         <v>176877</v>
       </c>
+      <c r="KJ11" s="8">
+        <v>176812</v>
+      </c>
     </row>
-    <row r="12" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7305,11 +7324,14 @@
       <c r="KH12" s="7">
         <v>170894</v>
       </c>
-      <c r="KI12" s="8">
+      <c r="KI12" s="7">
         <v>171221</v>
       </c>
+      <c r="KJ12" s="8">
+        <v>171259</v>
+      </c>
     </row>
-    <row r="13" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8192,11 +8214,14 @@
       <c r="KH13" s="7">
         <v>152365</v>
       </c>
-      <c r="KI13" s="8">
+      <c r="KI13" s="7">
         <v>152529</v>
       </c>
+      <c r="KJ13" s="8">
+        <v>152045</v>
+      </c>
     </row>
-    <row r="14" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9079,13 +9104,16 @@
       <c r="KH14" s="7">
         <v>133445</v>
       </c>
-      <c r="KI14" s="8">
+      <c r="KI14" s="7">
         <v>133615</v>
       </c>
-      <c r="KJ14" s="26"/>
+      <c r="KJ14" s="8">
+        <v>133640</v>
+      </c>
       <c r="KK14" s="26"/>
+      <c r="KL14" s="26"/>
     </row>
-    <row r="15" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -9968,13 +9996,16 @@
       <c r="KH15" s="7">
         <v>119410</v>
       </c>
-      <c r="KI15" s="8">
+      <c r="KI15" s="7">
         <v>119618</v>
       </c>
-      <c r="KJ15" s="26"/>
+      <c r="KJ15" s="8">
+        <v>119548</v>
+      </c>
       <c r="KK15" s="26"/>
+      <c r="KL15" s="26"/>
     </row>
-    <row r="16" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10857,13 +10888,16 @@
       <c r="KH16" s="9">
         <v>39</v>
       </c>
-      <c r="KI16" s="10">
+      <c r="KI16" s="9">
         <v>38</v>
       </c>
-      <c r="KJ16" s="26"/>
+      <c r="KJ16" s="10">
+        <v>39</v>
+      </c>
       <c r="KK16" s="26"/>
+      <c r="KL16" s="26"/>
     </row>
-    <row r="17" spans="1:297" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:298" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11746,13 +11780,16 @@
       <c r="KH17" s="35">
         <v>758969</v>
       </c>
-      <c r="KI17" s="31">
+      <c r="KI17" s="35">
         <v>764973</v>
       </c>
-      <c r="KJ17" s="27"/>
+      <c r="KJ17" s="31">
+        <v>765004</v>
+      </c>
       <c r="KK17" s="27"/>
+      <c r="KL17" s="27"/>
     </row>
-    <row r="18" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12635,13 +12672,16 @@
       <c r="KH18" s="7">
         <v>126188</v>
       </c>
-      <c r="KI18" s="8">
+      <c r="KI18" s="7">
         <v>127165</v>
       </c>
-      <c r="KJ18" s="26"/>
+      <c r="KJ18" s="8">
+        <v>127195</v>
+      </c>
       <c r="KK18" s="26"/>
+      <c r="KL18" s="26"/>
     </row>
-    <row r="19" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13524,13 +13564,16 @@
       <c r="KH19" s="7">
         <v>16845</v>
       </c>
-      <c r="KI19" s="8">
+      <c r="KI19" s="7">
         <v>17134</v>
       </c>
-      <c r="KJ19" s="26"/>
+      <c r="KJ19" s="8">
+        <v>17143</v>
+      </c>
       <c r="KK19" s="26"/>
+      <c r="KL19" s="26"/>
     </row>
-    <row r="20" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14413,13 +14456,16 @@
       <c r="KH20" s="7">
         <v>94499</v>
       </c>
-      <c r="KI20" s="8">
+      <c r="KI20" s="7">
         <v>96025</v>
       </c>
-      <c r="KJ20" s="26"/>
+      <c r="KJ20" s="8">
+        <v>96173</v>
+      </c>
       <c r="KK20" s="26"/>
+      <c r="KL20" s="26"/>
     </row>
-    <row r="21" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15302,13 +15348,16 @@
       <c r="KH21" s="7">
         <v>124966</v>
       </c>
-      <c r="KI21" s="8">
+      <c r="KI21" s="7">
         <v>125642</v>
       </c>
-      <c r="KJ21" s="26"/>
+      <c r="KJ21" s="8">
+        <v>125738</v>
+      </c>
       <c r="KK21" s="26"/>
+      <c r="KL21" s="26"/>
     </row>
-    <row r="22" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16191,13 +16240,16 @@
       <c r="KH22" s="7">
         <v>116902</v>
       </c>
-      <c r="KI22" s="8">
+      <c r="KI22" s="7">
         <v>117590</v>
       </c>
-      <c r="KJ22" s="26"/>
+      <c r="KJ22" s="8">
+        <v>117631</v>
+      </c>
       <c r="KK22" s="26"/>
+      <c r="KL22" s="26"/>
     </row>
-    <row r="23" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -17080,13 +17132,16 @@
       <c r="KH23" s="7">
         <v>105893</v>
       </c>
-      <c r="KI23" s="8">
+      <c r="KI23" s="7">
         <v>106654</v>
       </c>
-      <c r="KJ23" s="26"/>
+      <c r="KJ23" s="8">
+        <v>106444</v>
+      </c>
       <c r="KK23" s="26"/>
+      <c r="KL23" s="26"/>
     </row>
-    <row r="24" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -17969,11 +18024,14 @@
       <c r="KH24" s="7">
         <v>93345</v>
       </c>
-      <c r="KI24" s="8">
+      <c r="KI24" s="7">
         <v>93892</v>
       </c>
+      <c r="KJ24" s="8">
+        <v>93806</v>
+      </c>
     </row>
-    <row r="25" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -18856,11 +18914,14 @@
       <c r="KH25" s="7">
         <v>80323</v>
       </c>
-      <c r="KI25" s="8">
+      <c r="KI25" s="7">
         <v>80864</v>
       </c>
+      <c r="KJ25" s="8">
+        <v>80868</v>
+      </c>
     </row>
-    <row r="26" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19743,11 +19804,14 @@
       <c r="KH26" s="9">
         <v>8</v>
       </c>
-      <c r="KI26" s="10">
+      <c r="KI26" s="9">
         <v>7</v>
       </c>
+      <c r="KJ26" s="10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:297" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20630,12 +20694,15 @@
       <c r="KH27" s="36">
         <v>1888232</v>
       </c>
-      <c r="KI27" s="33">
+      <c r="KI27" s="36">
         <v>1896755</v>
       </c>
-      <c r="KJ27" s="25"/>
+      <c r="KJ27" s="33">
+        <v>1896517</v>
+      </c>
+      <c r="KK27" s="25"/>
     </row>
-    <row r="28" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -21802,12 +21869,15 @@
       <c r="KH28" s="7">
         <v>335147</v>
       </c>
-      <c r="KI28" s="8">
+      <c r="KI28" s="7">
         <v>337039</v>
       </c>
-      <c r="KJ28" s="25"/>
+      <c r="KJ28" s="8">
+        <v>336922</v>
+      </c>
+      <c r="KK28" s="25"/>
     </row>
-    <row r="29" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -22974,12 +23044,15 @@
       <c r="KH29" s="7">
         <v>46789</v>
       </c>
-      <c r="KI29" s="8">
+      <c r="KI29" s="7">
         <v>47021</v>
       </c>
-      <c r="KJ29" s="25"/>
+      <c r="KJ29" s="8">
+        <v>47032</v>
+      </c>
+      <c r="KK29" s="25"/>
     </row>
-    <row r="30" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -24146,12 +24219,15 @@
       <c r="KH30" s="7">
         <v>231570</v>
       </c>
-      <c r="KI30" s="8">
+      <c r="KI30" s="7">
         <v>234148</v>
       </c>
-      <c r="KJ30" s="25"/>
+      <c r="KJ30" s="8">
+        <v>234727</v>
+      </c>
+      <c r="KK30" s="25"/>
     </row>
-    <row r="31" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -25318,12 +25394,15 @@
       <c r="KH31" s="7">
         <v>302102</v>
       </c>
-      <c r="KI31" s="8">
+      <c r="KI31" s="7">
         <v>302519</v>
       </c>
-      <c r="KJ31" s="25"/>
+      <c r="KJ31" s="8">
+        <v>302550</v>
+      </c>
+      <c r="KK31" s="25"/>
     </row>
-    <row r="32" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26490,12 +26569,15 @@
       <c r="KH32" s="7">
         <v>287796</v>
       </c>
-      <c r="KI32" s="8">
+      <c r="KI32" s="7">
         <v>288811</v>
       </c>
-      <c r="KJ32" s="25"/>
+      <c r="KJ32" s="8">
+        <v>288890</v>
+      </c>
+      <c r="KK32" s="25"/>
     </row>
-    <row r="33" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27662,12 +27744,15 @@
       <c r="KH33" s="7">
         <v>258258</v>
       </c>
-      <c r="KI33" s="8">
+      <c r="KI33" s="7">
         <v>259183</v>
       </c>
-      <c r="KJ33" s="25"/>
+      <c r="KJ33" s="8">
+        <v>258489</v>
+      </c>
+      <c r="KK33" s="25"/>
     </row>
-    <row r="34" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -28834,12 +28919,15 @@
       <c r="KH34" s="7">
         <v>226790</v>
       </c>
-      <c r="KI34" s="8">
+      <c r="KI34" s="7">
         <v>227507</v>
       </c>
-      <c r="KJ34" s="25"/>
+      <c r="KJ34" s="8">
+        <v>227446</v>
+      </c>
+      <c r="KK34" s="25"/>
     </row>
-    <row r="35" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -30006,12 +30094,15 @@
       <c r="KH35" s="7">
         <v>199733</v>
       </c>
-      <c r="KI35" s="8">
+      <c r="KI35" s="7">
         <v>200482</v>
       </c>
-      <c r="KJ35" s="25"/>
+      <c r="KJ35" s="8">
+        <v>200416</v>
+      </c>
+      <c r="KK35" s="25"/>
     </row>
-    <row r="36" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -31178,32 +31269,25 @@
       <c r="KH36" s="9">
         <v>47</v>
       </c>
-      <c r="KI36" s="10">
+      <c r="KI36" s="9">
         <v>45</v>
       </c>
-      <c r="KJ36" s="25"/>
+      <c r="KJ36" s="10">
+        <v>45</v>
+      </c>
+      <c r="KK36" s="25"/>
     </row>
-    <row r="37" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:297" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
-    <mergeCell ref="KD5:KI5"/>
+    <mergeCell ref="KD5:KJ5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -31219,6 +31303,16 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-julio 2022</t>
+    <t>Enero 1998-agosto 2022</t>
   </si>
 </sst>
 </file>
@@ -425,9 +425,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,12 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KL38"/>
+  <dimension ref="A1:KM38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KL27" sqref="KL27"/>
+      <selection pane="topRight" activeCell="KM10" sqref="KM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -737,374 +737,375 @@
     <col min="290" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:298" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:298" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="4" spans="1:299" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:299" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="41">
         <v>1998</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41">
         <v>1999</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37">
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41">
         <v>2000</v>
       </c>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37">
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41">
         <v>2001</v>
       </c>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37">
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41">
         <v>2002</v>
       </c>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37">
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41">
         <v>2003</v>
       </c>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37">
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+      <c r="BV5" s="41">
         <v>2004</v>
       </c>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37">
+      <c r="BW5" s="41"/>
+      <c r="BX5" s="41"/>
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="41"/>
+      <c r="CA5" s="41"/>
+      <c r="CB5" s="41"/>
+      <c r="CC5" s="41"/>
+      <c r="CD5" s="41"/>
+      <c r="CE5" s="41"/>
+      <c r="CF5" s="41"/>
+      <c r="CG5" s="41"/>
+      <c r="CH5" s="41">
         <v>2005</v>
       </c>
-      <c r="CI5" s="37"/>
-      <c r="CJ5" s="37"/>
-      <c r="CK5" s="37"/>
-      <c r="CL5" s="37"/>
-      <c r="CM5" s="37"/>
-      <c r="CN5" s="37"/>
-      <c r="CO5" s="37"/>
-      <c r="CP5" s="37"/>
-      <c r="CQ5" s="37"/>
-      <c r="CR5" s="37"/>
-      <c r="CS5" s="37"/>
-      <c r="CT5" s="37">
+      <c r="CI5" s="41"/>
+      <c r="CJ5" s="41"/>
+      <c r="CK5" s="41"/>
+      <c r="CL5" s="41"/>
+      <c r="CM5" s="41"/>
+      <c r="CN5" s="41"/>
+      <c r="CO5" s="41"/>
+      <c r="CP5" s="41"/>
+      <c r="CQ5" s="41"/>
+      <c r="CR5" s="41"/>
+      <c r="CS5" s="41"/>
+      <c r="CT5" s="41">
         <v>2006</v>
       </c>
-      <c r="CU5" s="37"/>
-      <c r="CV5" s="37"/>
-      <c r="CW5" s="37"/>
-      <c r="CX5" s="37"/>
-      <c r="CY5" s="37"/>
-      <c r="CZ5" s="37"/>
-      <c r="DA5" s="37"/>
-      <c r="DB5" s="37"/>
-      <c r="DC5" s="37"/>
-      <c r="DD5" s="37"/>
-      <c r="DE5" s="37"/>
-      <c r="DF5" s="37">
+      <c r="CU5" s="41"/>
+      <c r="CV5" s="41"/>
+      <c r="CW5" s="41"/>
+      <c r="CX5" s="41"/>
+      <c r="CY5" s="41"/>
+      <c r="CZ5" s="41"/>
+      <c r="DA5" s="41"/>
+      <c r="DB5" s="41"/>
+      <c r="DC5" s="41"/>
+      <c r="DD5" s="41"/>
+      <c r="DE5" s="41"/>
+      <c r="DF5" s="41">
         <v>2007</v>
       </c>
-      <c r="DG5" s="37"/>
-      <c r="DH5" s="37"/>
-      <c r="DI5" s="37"/>
-      <c r="DJ5" s="37"/>
-      <c r="DK5" s="37"/>
-      <c r="DL5" s="37"/>
-      <c r="DM5" s="37"/>
-      <c r="DN5" s="37"/>
-      <c r="DO5" s="37"/>
-      <c r="DP5" s="37"/>
-      <c r="DQ5" s="37"/>
-      <c r="DR5" s="37">
+      <c r="DG5" s="41"/>
+      <c r="DH5" s="41"/>
+      <c r="DI5" s="41"/>
+      <c r="DJ5" s="41"/>
+      <c r="DK5" s="41"/>
+      <c r="DL5" s="41"/>
+      <c r="DM5" s="41"/>
+      <c r="DN5" s="41"/>
+      <c r="DO5" s="41"/>
+      <c r="DP5" s="41"/>
+      <c r="DQ5" s="41"/>
+      <c r="DR5" s="41">
         <v>2008</v>
       </c>
-      <c r="DS5" s="37"/>
-      <c r="DT5" s="37"/>
-      <c r="DU5" s="37"/>
-      <c r="DV5" s="37"/>
-      <c r="DW5" s="37"/>
-      <c r="DX5" s="37"/>
-      <c r="DY5" s="37"/>
-      <c r="DZ5" s="37"/>
-      <c r="EA5" s="37"/>
-      <c r="EB5" s="37"/>
-      <c r="EC5" s="37"/>
-      <c r="ED5" s="37">
+      <c r="DS5" s="41"/>
+      <c r="DT5" s="41"/>
+      <c r="DU5" s="41"/>
+      <c r="DV5" s="41"/>
+      <c r="DW5" s="41"/>
+      <c r="DX5" s="41"/>
+      <c r="DY5" s="41"/>
+      <c r="DZ5" s="41"/>
+      <c r="EA5" s="41"/>
+      <c r="EB5" s="41"/>
+      <c r="EC5" s="41"/>
+      <c r="ED5" s="41">
         <v>2009</v>
       </c>
-      <c r="EE5" s="37"/>
-      <c r="EF5" s="37"/>
-      <c r="EG5" s="37"/>
-      <c r="EH5" s="37"/>
-      <c r="EI5" s="37"/>
-      <c r="EJ5" s="37"/>
-      <c r="EK5" s="37"/>
-      <c r="EL5" s="37"/>
-      <c r="EM5" s="37"/>
-      <c r="EN5" s="37"/>
-      <c r="EO5" s="37"/>
-      <c r="EP5" s="37">
+      <c r="EE5" s="41"/>
+      <c r="EF5" s="41"/>
+      <c r="EG5" s="41"/>
+      <c r="EH5" s="41"/>
+      <c r="EI5" s="41"/>
+      <c r="EJ5" s="41"/>
+      <c r="EK5" s="41"/>
+      <c r="EL5" s="41"/>
+      <c r="EM5" s="41"/>
+      <c r="EN5" s="41"/>
+      <c r="EO5" s="41"/>
+      <c r="EP5" s="41">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="37"/>
-      <c r="ER5" s="37"/>
-      <c r="ES5" s="37"/>
-      <c r="ET5" s="37"/>
-      <c r="EU5" s="37"/>
-      <c r="EV5" s="37"/>
-      <c r="EW5" s="37"/>
-      <c r="EX5" s="37"/>
-      <c r="EY5" s="37"/>
-      <c r="EZ5" s="37"/>
-      <c r="FA5" s="37"/>
-      <c r="FB5" s="37">
+      <c r="EQ5" s="41"/>
+      <c r="ER5" s="41"/>
+      <c r="ES5" s="41"/>
+      <c r="ET5" s="41"/>
+      <c r="EU5" s="41"/>
+      <c r="EV5" s="41"/>
+      <c r="EW5" s="41"/>
+      <c r="EX5" s="41"/>
+      <c r="EY5" s="41"/>
+      <c r="EZ5" s="41"/>
+      <c r="FA5" s="41"/>
+      <c r="FB5" s="41">
         <v>2011</v>
       </c>
-      <c r="FC5" s="37"/>
-      <c r="FD5" s="37"/>
-      <c r="FE5" s="37"/>
-      <c r="FF5" s="37"/>
-      <c r="FG5" s="37"/>
-      <c r="FH5" s="37"/>
-      <c r="FI5" s="37"/>
-      <c r="FJ5" s="37"/>
-      <c r="FK5" s="37"/>
-      <c r="FL5" s="37"/>
-      <c r="FM5" s="37"/>
-      <c r="FN5" s="37">
+      <c r="FC5" s="41"/>
+      <c r="FD5" s="41"/>
+      <c r="FE5" s="41"/>
+      <c r="FF5" s="41"/>
+      <c r="FG5" s="41"/>
+      <c r="FH5" s="41"/>
+      <c r="FI5" s="41"/>
+      <c r="FJ5" s="41"/>
+      <c r="FK5" s="41"/>
+      <c r="FL5" s="41"/>
+      <c r="FM5" s="41"/>
+      <c r="FN5" s="41">
         <v>2012</v>
       </c>
-      <c r="FO5" s="37"/>
-      <c r="FP5" s="37"/>
-      <c r="FQ5" s="37"/>
-      <c r="FR5" s="37"/>
-      <c r="FS5" s="37"/>
-      <c r="FT5" s="37"/>
-      <c r="FU5" s="37"/>
-      <c r="FV5" s="37"/>
-      <c r="FW5" s="37"/>
-      <c r="FX5" s="37"/>
-      <c r="FY5" s="37"/>
-      <c r="FZ5" s="37">
+      <c r="FO5" s="41"/>
+      <c r="FP5" s="41"/>
+      <c r="FQ5" s="41"/>
+      <c r="FR5" s="41"/>
+      <c r="FS5" s="41"/>
+      <c r="FT5" s="41"/>
+      <c r="FU5" s="41"/>
+      <c r="FV5" s="41"/>
+      <c r="FW5" s="41"/>
+      <c r="FX5" s="41"/>
+      <c r="FY5" s="41"/>
+      <c r="FZ5" s="41">
         <v>2013</v>
       </c>
-      <c r="GA5" s="37"/>
-      <c r="GB5" s="37"/>
-      <c r="GC5" s="37"/>
-      <c r="GD5" s="37"/>
-      <c r="GE5" s="37"/>
-      <c r="GF5" s="37"/>
-      <c r="GG5" s="37"/>
-      <c r="GH5" s="37"/>
-      <c r="GI5" s="37"/>
-      <c r="GJ5" s="37"/>
-      <c r="GK5" s="37"/>
-      <c r="GL5" s="37">
+      <c r="GA5" s="41"/>
+      <c r="GB5" s="41"/>
+      <c r="GC5" s="41"/>
+      <c r="GD5" s="41"/>
+      <c r="GE5" s="41"/>
+      <c r="GF5" s="41"/>
+      <c r="GG5" s="41"/>
+      <c r="GH5" s="41"/>
+      <c r="GI5" s="41"/>
+      <c r="GJ5" s="41"/>
+      <c r="GK5" s="41"/>
+      <c r="GL5" s="41">
         <v>2014</v>
       </c>
-      <c r="GM5" s="37"/>
-      <c r="GN5" s="37"/>
-      <c r="GO5" s="37"/>
-      <c r="GP5" s="37"/>
-      <c r="GQ5" s="37"/>
-      <c r="GR5" s="37"/>
-      <c r="GS5" s="37"/>
-      <c r="GT5" s="37"/>
-      <c r="GU5" s="37"/>
-      <c r="GV5" s="37"/>
-      <c r="GW5" s="37"/>
-      <c r="GX5" s="37">
+      <c r="GM5" s="41"/>
+      <c r="GN5" s="41"/>
+      <c r="GO5" s="41"/>
+      <c r="GP5" s="41"/>
+      <c r="GQ5" s="41"/>
+      <c r="GR5" s="41"/>
+      <c r="GS5" s="41"/>
+      <c r="GT5" s="41"/>
+      <c r="GU5" s="41"/>
+      <c r="GV5" s="41"/>
+      <c r="GW5" s="41"/>
+      <c r="GX5" s="41">
         <v>2015</v>
       </c>
-      <c r="GY5" s="37"/>
-      <c r="GZ5" s="37"/>
-      <c r="HA5" s="37"/>
-      <c r="HB5" s="37"/>
-      <c r="HC5" s="37"/>
-      <c r="HD5" s="37"/>
-      <c r="HE5" s="37"/>
-      <c r="HF5" s="37"/>
-      <c r="HG5" s="37"/>
-      <c r="HH5" s="37"/>
-      <c r="HI5" s="37"/>
-      <c r="HJ5" s="37">
+      <c r="GY5" s="41"/>
+      <c r="GZ5" s="41"/>
+      <c r="HA5" s="41"/>
+      <c r="HB5" s="41"/>
+      <c r="HC5" s="41"/>
+      <c r="HD5" s="41"/>
+      <c r="HE5" s="41"/>
+      <c r="HF5" s="41"/>
+      <c r="HG5" s="41"/>
+      <c r="HH5" s="41"/>
+      <c r="HI5" s="41"/>
+      <c r="HJ5" s="41">
         <v>2016</v>
       </c>
-      <c r="HK5" s="37"/>
-      <c r="HL5" s="37"/>
-      <c r="HM5" s="37"/>
-      <c r="HN5" s="37"/>
-      <c r="HO5" s="37"/>
-      <c r="HP5" s="37"/>
-      <c r="HQ5" s="37"/>
-      <c r="HR5" s="37"/>
-      <c r="HS5" s="37"/>
-      <c r="HT5" s="37"/>
-      <c r="HU5" s="37"/>
-      <c r="HV5" s="37">
+      <c r="HK5" s="41"/>
+      <c r="HL5" s="41"/>
+      <c r="HM5" s="41"/>
+      <c r="HN5" s="41"/>
+      <c r="HO5" s="41"/>
+      <c r="HP5" s="41"/>
+      <c r="HQ5" s="41"/>
+      <c r="HR5" s="41"/>
+      <c r="HS5" s="41"/>
+      <c r="HT5" s="41"/>
+      <c r="HU5" s="41"/>
+      <c r="HV5" s="41">
         <v>2017</v>
       </c>
-      <c r="HW5" s="37"/>
-      <c r="HX5" s="37"/>
-      <c r="HY5" s="37"/>
-      <c r="HZ5" s="37"/>
-      <c r="IA5" s="37"/>
-      <c r="IB5" s="37"/>
-      <c r="IC5" s="37"/>
-      <c r="ID5" s="37"/>
-      <c r="IE5" s="37"/>
-      <c r="IF5" s="37"/>
-      <c r="IG5" s="37"/>
-      <c r="IH5" s="37">
+      <c r="HW5" s="41"/>
+      <c r="HX5" s="41"/>
+      <c r="HY5" s="41"/>
+      <c r="HZ5" s="41"/>
+      <c r="IA5" s="41"/>
+      <c r="IB5" s="41"/>
+      <c r="IC5" s="41"/>
+      <c r="ID5" s="41"/>
+      <c r="IE5" s="41"/>
+      <c r="IF5" s="41"/>
+      <c r="IG5" s="41"/>
+      <c r="IH5" s="41">
         <v>2018</v>
       </c>
-      <c r="II5" s="37"/>
-      <c r="IJ5" s="37"/>
-      <c r="IK5" s="37"/>
-      <c r="IL5" s="37"/>
-      <c r="IM5" s="37"/>
-      <c r="IN5" s="37"/>
-      <c r="IO5" s="37"/>
-      <c r="IP5" s="37"/>
-      <c r="IQ5" s="37"/>
-      <c r="IR5" s="37"/>
-      <c r="IS5" s="37"/>
-      <c r="IT5" s="37">
+      <c r="II5" s="41"/>
+      <c r="IJ5" s="41"/>
+      <c r="IK5" s="41"/>
+      <c r="IL5" s="41"/>
+      <c r="IM5" s="41"/>
+      <c r="IN5" s="41"/>
+      <c r="IO5" s="41"/>
+      <c r="IP5" s="41"/>
+      <c r="IQ5" s="41"/>
+      <c r="IR5" s="41"/>
+      <c r="IS5" s="41"/>
+      <c r="IT5" s="41">
         <v>2019</v>
       </c>
-      <c r="IU5" s="37"/>
-      <c r="IV5" s="37"/>
-      <c r="IW5" s="37"/>
-      <c r="IX5" s="37"/>
-      <c r="IY5" s="37"/>
-      <c r="IZ5" s="37"/>
-      <c r="JA5" s="37"/>
-      <c r="JB5" s="37"/>
-      <c r="JC5" s="37"/>
-      <c r="JD5" s="37"/>
-      <c r="JE5" s="37"/>
-      <c r="JF5" s="37">
+      <c r="IU5" s="41"/>
+      <c r="IV5" s="41"/>
+      <c r="IW5" s="41"/>
+      <c r="IX5" s="41"/>
+      <c r="IY5" s="41"/>
+      <c r="IZ5" s="41"/>
+      <c r="JA5" s="41"/>
+      <c r="JB5" s="41"/>
+      <c r="JC5" s="41"/>
+      <c r="JD5" s="41"/>
+      <c r="JE5" s="41"/>
+      <c r="JF5" s="41">
         <v>2020</v>
       </c>
-      <c r="JG5" s="37"/>
-      <c r="JH5" s="37"/>
-      <c r="JI5" s="37"/>
-      <c r="JJ5" s="37"/>
-      <c r="JK5" s="37"/>
-      <c r="JL5" s="37"/>
-      <c r="JM5" s="37"/>
-      <c r="JN5" s="37"/>
-      <c r="JO5" s="37"/>
-      <c r="JP5" s="37"/>
-      <c r="JQ5" s="37"/>
-      <c r="JR5" s="37">
+      <c r="JG5" s="41"/>
+      <c r="JH5" s="41"/>
+      <c r="JI5" s="41"/>
+      <c r="JJ5" s="41"/>
+      <c r="JK5" s="41"/>
+      <c r="JL5" s="41"/>
+      <c r="JM5" s="41"/>
+      <c r="JN5" s="41"/>
+      <c r="JO5" s="41"/>
+      <c r="JP5" s="41"/>
+      <c r="JQ5" s="41"/>
+      <c r="JR5" s="41">
         <v>2021</v>
       </c>
-      <c r="JS5" s="37"/>
-      <c r="JT5" s="37"/>
-      <c r="JU5" s="37"/>
-      <c r="JV5" s="37"/>
-      <c r="JW5" s="37"/>
-      <c r="JX5" s="37"/>
-      <c r="JY5" s="37"/>
-      <c r="JZ5" s="37"/>
-      <c r="KA5" s="37"/>
-      <c r="KB5" s="37"/>
-      <c r="KC5" s="38"/>
-      <c r="KD5" s="38">
+      <c r="JS5" s="41"/>
+      <c r="JT5" s="41"/>
+      <c r="JU5" s="41"/>
+      <c r="JV5" s="41"/>
+      <c r="JW5" s="41"/>
+      <c r="JX5" s="41"/>
+      <c r="JY5" s="41"/>
+      <c r="JZ5" s="41"/>
+      <c r="KA5" s="41"/>
+      <c r="KB5" s="41"/>
+      <c r="KC5" s="37"/>
+      <c r="KD5" s="37">
         <v>2022</v>
       </c>
-      <c r="KE5" s="39"/>
-      <c r="KF5" s="39"/>
-      <c r="KG5" s="39"/>
-      <c r="KH5" s="39"/>
-      <c r="KI5" s="39"/>
-      <c r="KJ5" s="40"/>
+      <c r="KE5" s="38"/>
+      <c r="KF5" s="38"/>
+      <c r="KG5" s="38"/>
+      <c r="KH5" s="38"/>
+      <c r="KI5" s="38"/>
+      <c r="KJ5" s="38"/>
+      <c r="KK5" s="39"/>
     </row>
-    <row r="6" spans="1:298" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+    <row r="6" spans="1:299" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1987,11 +1988,14 @@
       <c r="KI6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="KJ6" s="29" t="s">
+      <c r="KJ6" s="34" t="s">
         <v>17</v>
       </c>
+      <c r="KK6" s="29" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:298" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:299" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2877,11 +2881,14 @@
       <c r="KI7" s="35">
         <v>1131782</v>
       </c>
-      <c r="KJ7" s="31">
+      <c r="KJ7" s="35">
         <v>1131513</v>
       </c>
+      <c r="KK7" s="31">
+        <v>1138325</v>
+      </c>
     </row>
-    <row r="8" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3767,11 +3774,14 @@
       <c r="KI8" s="7">
         <v>209874</v>
       </c>
-      <c r="KJ8" s="8">
+      <c r="KJ8" s="7">
         <v>209727</v>
       </c>
+      <c r="KK8" s="8">
+        <v>211631</v>
+      </c>
     </row>
-    <row r="9" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4657,11 +4667,14 @@
       <c r="KI9" s="7">
         <v>29887</v>
       </c>
-      <c r="KJ9" s="8">
+      <c r="KJ9" s="7">
         <v>29889</v>
       </c>
+      <c r="KK9" s="8">
+        <v>29602</v>
+      </c>
     </row>
-    <row r="10" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5547,11 +5560,14 @@
       <c r="KI10" s="7">
         <v>138123</v>
       </c>
-      <c r="KJ10" s="8">
+      <c r="KJ10" s="7">
         <v>138554</v>
       </c>
+      <c r="KK10" s="8">
+        <v>138716</v>
+      </c>
     </row>
-    <row r="11" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6437,11 +6453,14 @@
       <c r="KI11" s="7">
         <v>176877</v>
       </c>
-      <c r="KJ11" s="8">
+      <c r="KJ11" s="7">
         <v>176812</v>
       </c>
+      <c r="KK11" s="8">
+        <v>177869</v>
+      </c>
     </row>
-    <row r="12" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7327,11 +7346,14 @@
       <c r="KI12" s="7">
         <v>171221</v>
       </c>
-      <c r="KJ12" s="8">
+      <c r="KJ12" s="7">
         <v>171259</v>
       </c>
+      <c r="KK12" s="8">
+        <v>172248</v>
+      </c>
     </row>
-    <row r="13" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8217,11 +8239,14 @@
       <c r="KI13" s="7">
         <v>152529</v>
       </c>
-      <c r="KJ13" s="8">
+      <c r="KJ13" s="7">
         <v>152045</v>
       </c>
+      <c r="KK13" s="8">
+        <v>152996</v>
+      </c>
     </row>
-    <row r="14" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9107,13 +9132,16 @@
       <c r="KI14" s="7">
         <v>133615</v>
       </c>
-      <c r="KJ14" s="8">
+      <c r="KJ14" s="7">
         <v>133640</v>
       </c>
-      <c r="KK14" s="26"/>
+      <c r="KK14" s="8">
+        <v>134794</v>
+      </c>
       <c r="KL14" s="26"/>
+      <c r="KM14" s="26"/>
     </row>
-    <row r="15" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -9999,13 +10027,16 @@
       <c r="KI15" s="7">
         <v>119618</v>
       </c>
-      <c r="KJ15" s="8">
+      <c r="KJ15" s="7">
         <v>119548</v>
       </c>
-      <c r="KK15" s="26"/>
+      <c r="KK15" s="8">
+        <v>120434</v>
+      </c>
       <c r="KL15" s="26"/>
+      <c r="KM15" s="26"/>
     </row>
-    <row r="16" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10891,13 +10922,16 @@
       <c r="KI16" s="9">
         <v>38</v>
       </c>
-      <c r="KJ16" s="10">
+      <c r="KJ16" s="9">
         <v>39</v>
       </c>
-      <c r="KK16" s="26"/>
+      <c r="KK16" s="10">
+        <v>35</v>
+      </c>
       <c r="KL16" s="26"/>
+      <c r="KM16" s="26"/>
     </row>
-    <row r="17" spans="1:298" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:299" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11783,13 +11817,16 @@
       <c r="KI17" s="35">
         <v>764973</v>
       </c>
-      <c r="KJ17" s="31">
+      <c r="KJ17" s="35">
         <v>765004</v>
       </c>
-      <c r="KK17" s="27"/>
+      <c r="KK17" s="31">
+        <v>772302</v>
+      </c>
       <c r="KL17" s="27"/>
+      <c r="KM17" s="27"/>
     </row>
-    <row r="18" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12675,13 +12712,16 @@
       <c r="KI18" s="7">
         <v>127165</v>
       </c>
-      <c r="KJ18" s="8">
+      <c r="KJ18" s="7">
         <v>127195</v>
       </c>
-      <c r="KK18" s="26"/>
+      <c r="KK18" s="8">
+        <v>128905</v>
+      </c>
       <c r="KL18" s="26"/>
+      <c r="KM18" s="26"/>
     </row>
-    <row r="19" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13567,13 +13607,16 @@
       <c r="KI19" s="7">
         <v>17134</v>
       </c>
-      <c r="KJ19" s="8">
+      <c r="KJ19" s="7">
         <v>17143</v>
       </c>
-      <c r="KK19" s="26"/>
+      <c r="KK19" s="8">
+        <v>17017</v>
+      </c>
       <c r="KL19" s="26"/>
+      <c r="KM19" s="26"/>
     </row>
-    <row r="20" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14459,13 +14502,16 @@
       <c r="KI20" s="7">
         <v>96025</v>
       </c>
-      <c r="KJ20" s="8">
+      <c r="KJ20" s="7">
         <v>96173</v>
       </c>
-      <c r="KK20" s="26"/>
+      <c r="KK20" s="8">
+        <v>96401</v>
+      </c>
       <c r="KL20" s="26"/>
+      <c r="KM20" s="26"/>
     </row>
-    <row r="21" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15351,13 +15397,16 @@
       <c r="KI21" s="7">
         <v>125642</v>
       </c>
-      <c r="KJ21" s="8">
+      <c r="KJ21" s="7">
         <v>125738</v>
       </c>
-      <c r="KK21" s="26"/>
+      <c r="KK21" s="8">
+        <v>127233</v>
+      </c>
       <c r="KL21" s="26"/>
+      <c r="KM21" s="26"/>
     </row>
-    <row r="22" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16243,13 +16292,16 @@
       <c r="KI22" s="7">
         <v>117590</v>
       </c>
-      <c r="KJ22" s="8">
+      <c r="KJ22" s="7">
         <v>117631</v>
       </c>
-      <c r="KK22" s="26"/>
+      <c r="KK22" s="8">
+        <v>118988</v>
+      </c>
       <c r="KL22" s="26"/>
+      <c r="KM22" s="26"/>
     </row>
-    <row r="23" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -17135,13 +17187,16 @@
       <c r="KI23" s="7">
         <v>106654</v>
       </c>
-      <c r="KJ23" s="8">
+      <c r="KJ23" s="7">
         <v>106444</v>
       </c>
-      <c r="KK23" s="26"/>
+      <c r="KK23" s="8">
+        <v>107469</v>
+      </c>
       <c r="KL23" s="26"/>
+      <c r="KM23" s="26"/>
     </row>
-    <row r="24" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -18027,11 +18082,14 @@
       <c r="KI24" s="7">
         <v>93892</v>
       </c>
-      <c r="KJ24" s="8">
+      <c r="KJ24" s="7">
         <v>93806</v>
       </c>
+      <c r="KK24" s="8">
+        <v>94484</v>
+      </c>
     </row>
-    <row r="25" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -18917,11 +18975,14 @@
       <c r="KI25" s="7">
         <v>80864</v>
       </c>
-      <c r="KJ25" s="8">
+      <c r="KJ25" s="7">
         <v>80868</v>
       </c>
+      <c r="KK25" s="8">
+        <v>81797</v>
+      </c>
     </row>
-    <row r="26" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19807,11 +19868,14 @@
       <c r="KI26" s="9">
         <v>7</v>
       </c>
-      <c r="KJ26" s="10">
+      <c r="KJ26" s="9">
         <v>6</v>
       </c>
+      <c r="KK26" s="10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20697,12 +20761,15 @@
       <c r="KI27" s="36">
         <v>1896755</v>
       </c>
-      <c r="KJ27" s="33">
+      <c r="KJ27" s="36">
         <v>1896517</v>
       </c>
-      <c r="KK27" s="25"/>
+      <c r="KK27" s="33">
+        <v>1910627</v>
+      </c>
+      <c r="KL27" s="25"/>
     </row>
-    <row r="28" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -21872,12 +21939,15 @@
       <c r="KI28" s="7">
         <v>337039</v>
       </c>
-      <c r="KJ28" s="8">
+      <c r="KJ28" s="7">
         <v>336922</v>
       </c>
-      <c r="KK28" s="25"/>
+      <c r="KK28" s="8">
+        <v>340536</v>
+      </c>
+      <c r="KL28" s="25"/>
     </row>
-    <row r="29" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -23047,12 +23117,15 @@
       <c r="KI29" s="7">
         <v>47021</v>
       </c>
-      <c r="KJ29" s="8">
+      <c r="KJ29" s="7">
         <v>47032</v>
       </c>
-      <c r="KK29" s="25"/>
+      <c r="KK29" s="8">
+        <v>46619</v>
+      </c>
+      <c r="KL29" s="25"/>
     </row>
-    <row r="30" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -24222,12 +24295,15 @@
       <c r="KI30" s="7">
         <v>234148</v>
       </c>
-      <c r="KJ30" s="8">
+      <c r="KJ30" s="7">
         <v>234727</v>
       </c>
-      <c r="KK30" s="25"/>
+      <c r="KK30" s="8">
+        <v>235117</v>
+      </c>
+      <c r="KL30" s="25"/>
     </row>
-    <row r="31" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -25397,12 +25473,15 @@
       <c r="KI31" s="7">
         <v>302519</v>
       </c>
-      <c r="KJ31" s="8">
+      <c r="KJ31" s="7">
         <v>302550</v>
       </c>
-      <c r="KK31" s="25"/>
+      <c r="KK31" s="8">
+        <v>305102</v>
+      </c>
+      <c r="KL31" s="25"/>
     </row>
-    <row r="32" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26572,12 +26651,15 @@
       <c r="KI32" s="7">
         <v>288811</v>
       </c>
-      <c r="KJ32" s="8">
+      <c r="KJ32" s="7">
         <v>288890</v>
       </c>
-      <c r="KK32" s="25"/>
+      <c r="KK32" s="8">
+        <v>291236</v>
+      </c>
+      <c r="KL32" s="25"/>
     </row>
-    <row r="33" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27747,12 +27829,15 @@
       <c r="KI33" s="7">
         <v>259183</v>
       </c>
-      <c r="KJ33" s="8">
+      <c r="KJ33" s="7">
         <v>258489</v>
       </c>
-      <c r="KK33" s="25"/>
+      <c r="KK33" s="8">
+        <v>260465</v>
+      </c>
+      <c r="KL33" s="25"/>
     </row>
-    <row r="34" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -28922,12 +29007,15 @@
       <c r="KI34" s="7">
         <v>227507</v>
       </c>
-      <c r="KJ34" s="8">
+      <c r="KJ34" s="7">
         <v>227446</v>
       </c>
-      <c r="KK34" s="25"/>
+      <c r="KK34" s="8">
+        <v>229278</v>
+      </c>
+      <c r="KL34" s="25"/>
     </row>
-    <row r="35" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -30097,12 +30185,15 @@
       <c r="KI35" s="7">
         <v>200482</v>
       </c>
-      <c r="KJ35" s="8">
+      <c r="KJ35" s="7">
         <v>200416</v>
       </c>
-      <c r="KK35" s="25"/>
+      <c r="KK35" s="8">
+        <v>202231</v>
+      </c>
+      <c r="KL35" s="25"/>
     </row>
-    <row r="36" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -31272,22 +31363,35 @@
       <c r="KI36" s="9">
         <v>45</v>
       </c>
-      <c r="KJ36" s="10">
+      <c r="KJ36" s="9">
         <v>45</v>
       </c>
-      <c r="KK36" s="25"/>
+      <c r="KK36" s="10">
+        <v>43</v>
+      </c>
+      <c r="KL36" s="25"/>
     </row>
-    <row r="37" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:298" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="KD5:KJ5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
+    <mergeCell ref="KD5:KK5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -31303,16 +31407,6 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-agosto 2022</t>
+    <t>Enero 1998-septiembre 2022</t>
   </si>
 </sst>
 </file>
@@ -720,12 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KM38"/>
+  <dimension ref="A1:KN38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KA1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KM10" sqref="KM10"/>
+      <selection pane="topRight" activeCell="KM27" sqref="KM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -737,23 +737,23 @@
     <col min="290" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:299" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:299" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:300" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:300" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>26</v>
       </c>
@@ -1102,9 +1102,10 @@
       <c r="KH5" s="38"/>
       <c r="KI5" s="38"/>
       <c r="KJ5" s="38"/>
-      <c r="KK5" s="39"/>
+      <c r="KK5" s="38"/>
+      <c r="KL5" s="39"/>
     </row>
-    <row r="6" spans="1:299" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:300" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
@@ -1991,11 +1992,14 @@
       <c r="KJ6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="KK6" s="29" t="s">
+      <c r="KK6" s="34" t="s">
         <v>18</v>
       </c>
+      <c r="KL6" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:299" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:300" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2884,11 +2888,14 @@
       <c r="KJ7" s="35">
         <v>1131513</v>
       </c>
-      <c r="KK7" s="31">
+      <c r="KK7" s="35">
         <v>1138325</v>
       </c>
+      <c r="KL7" s="31">
+        <v>1147074</v>
+      </c>
     </row>
-    <row r="8" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3777,11 +3784,14 @@
       <c r="KJ8" s="7">
         <v>209727</v>
       </c>
-      <c r="KK8" s="8">
+      <c r="KK8" s="7">
         <v>211631</v>
       </c>
+      <c r="KL8" s="8">
+        <v>214012</v>
+      </c>
     </row>
-    <row r="9" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4670,11 +4680,14 @@
       <c r="KJ9" s="7">
         <v>29889</v>
       </c>
-      <c r="KK9" s="8">
+      <c r="KK9" s="7">
         <v>29602</v>
       </c>
+      <c r="KL9" s="8">
+        <v>30151</v>
+      </c>
     </row>
-    <row r="10" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5563,11 +5576,14 @@
       <c r="KJ10" s="7">
         <v>138554</v>
       </c>
-      <c r="KK10" s="8">
+      <c r="KK10" s="7">
         <v>138716</v>
       </c>
+      <c r="KL10" s="8">
+        <v>140076</v>
+      </c>
     </row>
-    <row r="11" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6456,11 +6472,14 @@
       <c r="KJ11" s="7">
         <v>176812</v>
       </c>
-      <c r="KK11" s="8">
+      <c r="KK11" s="7">
         <v>177869</v>
       </c>
+      <c r="KL11" s="8">
+        <v>178980</v>
+      </c>
     </row>
-    <row r="12" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7349,11 +7368,14 @@
       <c r="KJ12" s="7">
         <v>171259</v>
       </c>
-      <c r="KK12" s="8">
+      <c r="KK12" s="7">
         <v>172248</v>
       </c>
+      <c r="KL12" s="8">
+        <v>173337</v>
+      </c>
     </row>
-    <row r="13" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8242,11 +8264,14 @@
       <c r="KJ13" s="7">
         <v>152045</v>
       </c>
-      <c r="KK13" s="8">
+      <c r="KK13" s="7">
         <v>152996</v>
       </c>
+      <c r="KL13" s="8">
+        <v>153631</v>
+      </c>
     </row>
-    <row r="14" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9135,13 +9160,16 @@
       <c r="KJ14" s="7">
         <v>133640</v>
       </c>
-      <c r="KK14" s="8">
+      <c r="KK14" s="7">
         <v>134794</v>
       </c>
-      <c r="KL14" s="26"/>
+      <c r="KL14" s="8">
+        <v>135688</v>
+      </c>
       <c r="KM14" s="26"/>
+      <c r="KN14" s="26"/>
     </row>
-    <row r="15" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -10030,13 +10058,16 @@
       <c r="KJ15" s="7">
         <v>119548</v>
       </c>
-      <c r="KK15" s="8">
+      <c r="KK15" s="7">
         <v>120434</v>
       </c>
-      <c r="KL15" s="26"/>
+      <c r="KL15" s="8">
+        <v>121159</v>
+      </c>
       <c r="KM15" s="26"/>
+      <c r="KN15" s="26"/>
     </row>
-    <row r="16" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10925,13 +10956,16 @@
       <c r="KJ16" s="9">
         <v>39</v>
       </c>
-      <c r="KK16" s="10">
+      <c r="KK16" s="9">
         <v>35</v>
       </c>
-      <c r="KL16" s="26"/>
+      <c r="KL16" s="10">
+        <v>40</v>
+      </c>
       <c r="KM16" s="26"/>
+      <c r="KN16" s="26"/>
     </row>
-    <row r="17" spans="1:299" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:300" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11820,13 +11854,16 @@
       <c r="KJ17" s="35">
         <v>765004</v>
       </c>
-      <c r="KK17" s="31">
+      <c r="KK17" s="35">
         <v>772302</v>
       </c>
-      <c r="KL17" s="27"/>
+      <c r="KL17" s="31">
+        <v>780573</v>
+      </c>
       <c r="KM17" s="27"/>
+      <c r="KN17" s="27"/>
     </row>
-    <row r="18" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12715,13 +12752,16 @@
       <c r="KJ18" s="7">
         <v>127195</v>
       </c>
-      <c r="KK18" s="8">
+      <c r="KK18" s="7">
         <v>128905</v>
       </c>
-      <c r="KL18" s="26"/>
+      <c r="KL18" s="8">
+        <v>130781</v>
+      </c>
       <c r="KM18" s="26"/>
+      <c r="KN18" s="26"/>
     </row>
-    <row r="19" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13610,13 +13650,16 @@
       <c r="KJ19" s="7">
         <v>17143</v>
       </c>
-      <c r="KK19" s="8">
+      <c r="KK19" s="7">
         <v>17017</v>
       </c>
-      <c r="KL19" s="26"/>
+      <c r="KL19" s="8">
+        <v>17495</v>
+      </c>
       <c r="KM19" s="26"/>
+      <c r="KN19" s="26"/>
     </row>
-    <row r="20" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14505,13 +14548,16 @@
       <c r="KJ20" s="7">
         <v>96173</v>
       </c>
-      <c r="KK20" s="8">
+      <c r="KK20" s="7">
         <v>96401</v>
       </c>
-      <c r="KL20" s="26"/>
+      <c r="KL20" s="8">
+        <v>97530</v>
+      </c>
       <c r="KM20" s="26"/>
+      <c r="KN20" s="26"/>
     </row>
-    <row r="21" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15400,13 +15446,16 @@
       <c r="KJ21" s="7">
         <v>125738</v>
       </c>
-      <c r="KK21" s="8">
+      <c r="KK21" s="7">
         <v>127233</v>
       </c>
-      <c r="KL21" s="26"/>
+      <c r="KL21" s="8">
+        <v>128397</v>
+      </c>
       <c r="KM21" s="26"/>
+      <c r="KN21" s="26"/>
     </row>
-    <row r="22" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16295,13 +16344,16 @@
       <c r="KJ22" s="7">
         <v>117631</v>
       </c>
-      <c r="KK22" s="8">
+      <c r="KK22" s="7">
         <v>118988</v>
       </c>
-      <c r="KL22" s="26"/>
+      <c r="KL22" s="8">
+        <v>119964</v>
+      </c>
       <c r="KM22" s="26"/>
+      <c r="KN22" s="26"/>
     </row>
-    <row r="23" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -17190,13 +17242,16 @@
       <c r="KJ23" s="7">
         <v>106444</v>
       </c>
-      <c r="KK23" s="8">
+      <c r="KK23" s="7">
         <v>107469</v>
       </c>
-      <c r="KL23" s="26"/>
+      <c r="KL23" s="8">
+        <v>108254</v>
+      </c>
       <c r="KM23" s="26"/>
+      <c r="KN23" s="26"/>
     </row>
-    <row r="24" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -18085,11 +18140,14 @@
       <c r="KJ24" s="7">
         <v>93806</v>
       </c>
-      <c r="KK24" s="8">
+      <c r="KK24" s="7">
         <v>94484</v>
       </c>
+      <c r="KL24" s="8">
+        <v>95639</v>
+      </c>
     </row>
-    <row r="25" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -18978,11 +19036,14 @@
       <c r="KJ25" s="7">
         <v>80868</v>
       </c>
-      <c r="KK25" s="8">
+      <c r="KK25" s="7">
         <v>81797</v>
       </c>
+      <c r="KL25" s="8">
+        <v>82508</v>
+      </c>
     </row>
-    <row r="26" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19871,11 +19932,14 @@
       <c r="KJ26" s="9">
         <v>6</v>
       </c>
-      <c r="KK26" s="10">
+      <c r="KK26" s="9">
         <v>8</v>
       </c>
+      <c r="KL26" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20764,12 +20828,15 @@
       <c r="KJ27" s="36">
         <v>1896517</v>
       </c>
-      <c r="KK27" s="33">
+      <c r="KK27" s="36">
         <v>1910627</v>
       </c>
-      <c r="KL27" s="25"/>
+      <c r="KL27" s="33">
+        <v>1927647</v>
+      </c>
+      <c r="KM27" s="25"/>
     </row>
-    <row r="28" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -21942,12 +22009,15 @@
       <c r="KJ28" s="7">
         <v>336922</v>
       </c>
-      <c r="KK28" s="8">
+      <c r="KK28" s="7">
         <v>340536</v>
       </c>
-      <c r="KL28" s="25"/>
+      <c r="KL28" s="8">
+        <v>344793</v>
+      </c>
+      <c r="KM28" s="25"/>
     </row>
-    <row r="29" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -23120,12 +23190,15 @@
       <c r="KJ29" s="7">
         <v>47032</v>
       </c>
-      <c r="KK29" s="8">
+      <c r="KK29" s="7">
         <v>46619</v>
       </c>
-      <c r="KL29" s="25"/>
+      <c r="KL29" s="8">
+        <v>47646</v>
+      </c>
+      <c r="KM29" s="25"/>
     </row>
-    <row r="30" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -24298,12 +24371,15 @@
       <c r="KJ30" s="7">
         <v>234727</v>
       </c>
-      <c r="KK30" s="8">
+      <c r="KK30" s="7">
         <v>235117</v>
       </c>
-      <c r="KL30" s="25"/>
+      <c r="KL30" s="8">
+        <v>237606</v>
+      </c>
+      <c r="KM30" s="25"/>
     </row>
-    <row r="31" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -25476,12 +25552,15 @@
       <c r="KJ31" s="7">
         <v>302550</v>
       </c>
-      <c r="KK31" s="8">
+      <c r="KK31" s="7">
         <v>305102</v>
       </c>
-      <c r="KL31" s="25"/>
+      <c r="KL31" s="8">
+        <v>307377</v>
+      </c>
+      <c r="KM31" s="25"/>
     </row>
-    <row r="32" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26654,12 +26733,15 @@
       <c r="KJ32" s="7">
         <v>288890</v>
       </c>
-      <c r="KK32" s="8">
+      <c r="KK32" s="7">
         <v>291236</v>
       </c>
-      <c r="KL32" s="25"/>
+      <c r="KL32" s="8">
+        <v>293301</v>
+      </c>
+      <c r="KM32" s="25"/>
     </row>
-    <row r="33" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27832,12 +27914,15 @@
       <c r="KJ33" s="7">
         <v>258489</v>
       </c>
-      <c r="KK33" s="8">
+      <c r="KK33" s="7">
         <v>260465</v>
       </c>
-      <c r="KL33" s="25"/>
+      <c r="KL33" s="8">
+        <v>261885</v>
+      </c>
+      <c r="KM33" s="25"/>
     </row>
-    <row r="34" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -29010,12 +29095,15 @@
       <c r="KJ34" s="7">
         <v>227446</v>
       </c>
-      <c r="KK34" s="8">
+      <c r="KK34" s="7">
         <v>229278</v>
       </c>
-      <c r="KL34" s="25"/>
+      <c r="KL34" s="8">
+        <v>231327</v>
+      </c>
+      <c r="KM34" s="25"/>
     </row>
-    <row r="35" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -30188,12 +30276,15 @@
       <c r="KJ35" s="7">
         <v>200416</v>
       </c>
-      <c r="KK35" s="8">
+      <c r="KK35" s="7">
         <v>202231</v>
       </c>
-      <c r="KL35" s="25"/>
+      <c r="KL35" s="8">
+        <v>203667</v>
+      </c>
+      <c r="KM35" s="25"/>
     </row>
-    <row r="36" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -31366,15 +31457,18 @@
       <c r="KJ36" s="9">
         <v>45</v>
       </c>
-      <c r="KK36" s="10">
+      <c r="KK36" s="9">
         <v>43</v>
       </c>
-      <c r="KL36" s="25"/>
+      <c r="KL36" s="10">
+        <v>45</v>
+      </c>
+      <c r="KM36" s="25"/>
     </row>
-    <row r="37" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:299" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
@@ -31391,7 +31485,7 @@
     <mergeCell ref="FZ5:GK5"/>
     <mergeCell ref="GL5:GW5"/>
     <mergeCell ref="GX5:HI5"/>
-    <mergeCell ref="KD5:KK5"/>
+    <mergeCell ref="KD5:KL5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-septiembre 2022</t>
+    <t>Enero 1998 - octubre 2022</t>
   </si>
 </sst>
 </file>
@@ -425,6 +425,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,9 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,12 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KN38"/>
+  <dimension ref="A1:KO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KA1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KM27" sqref="KM27"/>
+      <selection pane="topRight" activeCell="KO24" sqref="KO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -737,376 +737,377 @@
     <col min="290" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:300" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:300" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+    <row r="4" spans="1:301" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:301" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1998</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37">
         <v>1999</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37">
         <v>2000</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41">
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37">
         <v>2001</v>
       </c>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41">
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37">
         <v>2002</v>
       </c>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41">
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37">
         <v>2003</v>
       </c>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="41">
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37">
         <v>2004</v>
       </c>
-      <c r="BW5" s="41"/>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="41"/>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41"/>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="41"/>
-      <c r="CF5" s="41"/>
-      <c r="CG5" s="41"/>
-      <c r="CH5" s="41">
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37">
         <v>2005</v>
       </c>
-      <c r="CI5" s="41"/>
-      <c r="CJ5" s="41"/>
-      <c r="CK5" s="41"/>
-      <c r="CL5" s="41"/>
-      <c r="CM5" s="41"/>
-      <c r="CN5" s="41"/>
-      <c r="CO5" s="41"/>
-      <c r="CP5" s="41"/>
-      <c r="CQ5" s="41"/>
-      <c r="CR5" s="41"/>
-      <c r="CS5" s="41"/>
-      <c r="CT5" s="41">
+      <c r="CI5" s="37"/>
+      <c r="CJ5" s="37"/>
+      <c r="CK5" s="37"/>
+      <c r="CL5" s="37"/>
+      <c r="CM5" s="37"/>
+      <c r="CN5" s="37"/>
+      <c r="CO5" s="37"/>
+      <c r="CP5" s="37"/>
+      <c r="CQ5" s="37"/>
+      <c r="CR5" s="37"/>
+      <c r="CS5" s="37"/>
+      <c r="CT5" s="37">
         <v>2006</v>
       </c>
-      <c r="CU5" s="41"/>
-      <c r="CV5" s="41"/>
-      <c r="CW5" s="41"/>
-      <c r="CX5" s="41"/>
-      <c r="CY5" s="41"/>
-      <c r="CZ5" s="41"/>
-      <c r="DA5" s="41"/>
-      <c r="DB5" s="41"/>
-      <c r="DC5" s="41"/>
-      <c r="DD5" s="41"/>
-      <c r="DE5" s="41"/>
-      <c r="DF5" s="41">
+      <c r="CU5" s="37"/>
+      <c r="CV5" s="37"/>
+      <c r="CW5" s="37"/>
+      <c r="CX5" s="37"/>
+      <c r="CY5" s="37"/>
+      <c r="CZ5" s="37"/>
+      <c r="DA5" s="37"/>
+      <c r="DB5" s="37"/>
+      <c r="DC5" s="37"/>
+      <c r="DD5" s="37"/>
+      <c r="DE5" s="37"/>
+      <c r="DF5" s="37">
         <v>2007</v>
       </c>
-      <c r="DG5" s="41"/>
-      <c r="DH5" s="41"/>
-      <c r="DI5" s="41"/>
-      <c r="DJ5" s="41"/>
-      <c r="DK5" s="41"/>
-      <c r="DL5" s="41"/>
-      <c r="DM5" s="41"/>
-      <c r="DN5" s="41"/>
-      <c r="DO5" s="41"/>
-      <c r="DP5" s="41"/>
-      <c r="DQ5" s="41"/>
-      <c r="DR5" s="41">
+      <c r="DG5" s="37"/>
+      <c r="DH5" s="37"/>
+      <c r="DI5" s="37"/>
+      <c r="DJ5" s="37"/>
+      <c r="DK5" s="37"/>
+      <c r="DL5" s="37"/>
+      <c r="DM5" s="37"/>
+      <c r="DN5" s="37"/>
+      <c r="DO5" s="37"/>
+      <c r="DP5" s="37"/>
+      <c r="DQ5" s="37"/>
+      <c r="DR5" s="37">
         <v>2008</v>
       </c>
-      <c r="DS5" s="41"/>
-      <c r="DT5" s="41"/>
-      <c r="DU5" s="41"/>
-      <c r="DV5" s="41"/>
-      <c r="DW5" s="41"/>
-      <c r="DX5" s="41"/>
-      <c r="DY5" s="41"/>
-      <c r="DZ5" s="41"/>
-      <c r="EA5" s="41"/>
-      <c r="EB5" s="41"/>
-      <c r="EC5" s="41"/>
-      <c r="ED5" s="41">
+      <c r="DS5" s="37"/>
+      <c r="DT5" s="37"/>
+      <c r="DU5" s="37"/>
+      <c r="DV5" s="37"/>
+      <c r="DW5" s="37"/>
+      <c r="DX5" s="37"/>
+      <c r="DY5" s="37"/>
+      <c r="DZ5" s="37"/>
+      <c r="EA5" s="37"/>
+      <c r="EB5" s="37"/>
+      <c r="EC5" s="37"/>
+      <c r="ED5" s="37">
         <v>2009</v>
       </c>
-      <c r="EE5" s="41"/>
-      <c r="EF5" s="41"/>
-      <c r="EG5" s="41"/>
-      <c r="EH5" s="41"/>
-      <c r="EI5" s="41"/>
-      <c r="EJ5" s="41"/>
-      <c r="EK5" s="41"/>
-      <c r="EL5" s="41"/>
-      <c r="EM5" s="41"/>
-      <c r="EN5" s="41"/>
-      <c r="EO5" s="41"/>
-      <c r="EP5" s="41">
+      <c r="EE5" s="37"/>
+      <c r="EF5" s="37"/>
+      <c r="EG5" s="37"/>
+      <c r="EH5" s="37"/>
+      <c r="EI5" s="37"/>
+      <c r="EJ5" s="37"/>
+      <c r="EK5" s="37"/>
+      <c r="EL5" s="37"/>
+      <c r="EM5" s="37"/>
+      <c r="EN5" s="37"/>
+      <c r="EO5" s="37"/>
+      <c r="EP5" s="37">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="41"/>
-      <c r="ER5" s="41"/>
-      <c r="ES5" s="41"/>
-      <c r="ET5" s="41"/>
-      <c r="EU5" s="41"/>
-      <c r="EV5" s="41"/>
-      <c r="EW5" s="41"/>
-      <c r="EX5" s="41"/>
-      <c r="EY5" s="41"/>
-      <c r="EZ5" s="41"/>
-      <c r="FA5" s="41"/>
-      <c r="FB5" s="41">
+      <c r="EQ5" s="37"/>
+      <c r="ER5" s="37"/>
+      <c r="ES5" s="37"/>
+      <c r="ET5" s="37"/>
+      <c r="EU5" s="37"/>
+      <c r="EV5" s="37"/>
+      <c r="EW5" s="37"/>
+      <c r="EX5" s="37"/>
+      <c r="EY5" s="37"/>
+      <c r="EZ5" s="37"/>
+      <c r="FA5" s="37"/>
+      <c r="FB5" s="37">
         <v>2011</v>
       </c>
-      <c r="FC5" s="41"/>
-      <c r="FD5" s="41"/>
-      <c r="FE5" s="41"/>
-      <c r="FF5" s="41"/>
-      <c r="FG5" s="41"/>
-      <c r="FH5" s="41"/>
-      <c r="FI5" s="41"/>
-      <c r="FJ5" s="41"/>
-      <c r="FK5" s="41"/>
-      <c r="FL5" s="41"/>
-      <c r="FM5" s="41"/>
-      <c r="FN5" s="41">
+      <c r="FC5" s="37"/>
+      <c r="FD5" s="37"/>
+      <c r="FE5" s="37"/>
+      <c r="FF5" s="37"/>
+      <c r="FG5" s="37"/>
+      <c r="FH5" s="37"/>
+      <c r="FI5" s="37"/>
+      <c r="FJ5" s="37"/>
+      <c r="FK5" s="37"/>
+      <c r="FL5" s="37"/>
+      <c r="FM5" s="37"/>
+      <c r="FN5" s="37">
         <v>2012</v>
       </c>
-      <c r="FO5" s="41"/>
-      <c r="FP5" s="41"/>
-      <c r="FQ5" s="41"/>
-      <c r="FR5" s="41"/>
-      <c r="FS5" s="41"/>
-      <c r="FT5" s="41"/>
-      <c r="FU5" s="41"/>
-      <c r="FV5" s="41"/>
-      <c r="FW5" s="41"/>
-      <c r="FX5" s="41"/>
-      <c r="FY5" s="41"/>
-      <c r="FZ5" s="41">
+      <c r="FO5" s="37"/>
+      <c r="FP5" s="37"/>
+      <c r="FQ5" s="37"/>
+      <c r="FR5" s="37"/>
+      <c r="FS5" s="37"/>
+      <c r="FT5" s="37"/>
+      <c r="FU5" s="37"/>
+      <c r="FV5" s="37"/>
+      <c r="FW5" s="37"/>
+      <c r="FX5" s="37"/>
+      <c r="FY5" s="37"/>
+      <c r="FZ5" s="37">
         <v>2013</v>
       </c>
-      <c r="GA5" s="41"/>
-      <c r="GB5" s="41"/>
-      <c r="GC5" s="41"/>
-      <c r="GD5" s="41"/>
-      <c r="GE5" s="41"/>
-      <c r="GF5" s="41"/>
-      <c r="GG5" s="41"/>
-      <c r="GH5" s="41"/>
-      <c r="GI5" s="41"/>
-      <c r="GJ5" s="41"/>
-      <c r="GK5" s="41"/>
-      <c r="GL5" s="41">
+      <c r="GA5" s="37"/>
+      <c r="GB5" s="37"/>
+      <c r="GC5" s="37"/>
+      <c r="GD5" s="37"/>
+      <c r="GE5" s="37"/>
+      <c r="GF5" s="37"/>
+      <c r="GG5" s="37"/>
+      <c r="GH5" s="37"/>
+      <c r="GI5" s="37"/>
+      <c r="GJ5" s="37"/>
+      <c r="GK5" s="37"/>
+      <c r="GL5" s="37">
         <v>2014</v>
       </c>
-      <c r="GM5" s="41"/>
-      <c r="GN5" s="41"/>
-      <c r="GO5" s="41"/>
-      <c r="GP5" s="41"/>
-      <c r="GQ5" s="41"/>
-      <c r="GR5" s="41"/>
-      <c r="GS5" s="41"/>
-      <c r="GT5" s="41"/>
-      <c r="GU5" s="41"/>
-      <c r="GV5" s="41"/>
-      <c r="GW5" s="41"/>
-      <c r="GX5" s="41">
+      <c r="GM5" s="37"/>
+      <c r="GN5" s="37"/>
+      <c r="GO5" s="37"/>
+      <c r="GP5" s="37"/>
+      <c r="GQ5" s="37"/>
+      <c r="GR5" s="37"/>
+      <c r="GS5" s="37"/>
+      <c r="GT5" s="37"/>
+      <c r="GU5" s="37"/>
+      <c r="GV5" s="37"/>
+      <c r="GW5" s="37"/>
+      <c r="GX5" s="37">
         <v>2015</v>
       </c>
-      <c r="GY5" s="41"/>
-      <c r="GZ5" s="41"/>
-      <c r="HA5" s="41"/>
-      <c r="HB5" s="41"/>
-      <c r="HC5" s="41"/>
-      <c r="HD5" s="41"/>
-      <c r="HE5" s="41"/>
-      <c r="HF5" s="41"/>
-      <c r="HG5" s="41"/>
-      <c r="HH5" s="41"/>
-      <c r="HI5" s="41"/>
-      <c r="HJ5" s="41">
+      <c r="GY5" s="37"/>
+      <c r="GZ5" s="37"/>
+      <c r="HA5" s="37"/>
+      <c r="HB5" s="37"/>
+      <c r="HC5" s="37"/>
+      <c r="HD5" s="37"/>
+      <c r="HE5" s="37"/>
+      <c r="HF5" s="37"/>
+      <c r="HG5" s="37"/>
+      <c r="HH5" s="37"/>
+      <c r="HI5" s="37"/>
+      <c r="HJ5" s="37">
         <v>2016</v>
       </c>
-      <c r="HK5" s="41"/>
-      <c r="HL5" s="41"/>
-      <c r="HM5" s="41"/>
-      <c r="HN5" s="41"/>
-      <c r="HO5" s="41"/>
-      <c r="HP5" s="41"/>
-      <c r="HQ5" s="41"/>
-      <c r="HR5" s="41"/>
-      <c r="HS5" s="41"/>
-      <c r="HT5" s="41"/>
-      <c r="HU5" s="41"/>
-      <c r="HV5" s="41">
+      <c r="HK5" s="37"/>
+      <c r="HL5" s="37"/>
+      <c r="HM5" s="37"/>
+      <c r="HN5" s="37"/>
+      <c r="HO5" s="37"/>
+      <c r="HP5" s="37"/>
+      <c r="HQ5" s="37"/>
+      <c r="HR5" s="37"/>
+      <c r="HS5" s="37"/>
+      <c r="HT5" s="37"/>
+      <c r="HU5" s="37"/>
+      <c r="HV5" s="37">
         <v>2017</v>
       </c>
-      <c r="HW5" s="41"/>
-      <c r="HX5" s="41"/>
-      <c r="HY5" s="41"/>
-      <c r="HZ5" s="41"/>
-      <c r="IA5" s="41"/>
-      <c r="IB5" s="41"/>
-      <c r="IC5" s="41"/>
-      <c r="ID5" s="41"/>
-      <c r="IE5" s="41"/>
-      <c r="IF5" s="41"/>
-      <c r="IG5" s="41"/>
-      <c r="IH5" s="41">
+      <c r="HW5" s="37"/>
+      <c r="HX5" s="37"/>
+      <c r="HY5" s="37"/>
+      <c r="HZ5" s="37"/>
+      <c r="IA5" s="37"/>
+      <c r="IB5" s="37"/>
+      <c r="IC5" s="37"/>
+      <c r="ID5" s="37"/>
+      <c r="IE5" s="37"/>
+      <c r="IF5" s="37"/>
+      <c r="IG5" s="37"/>
+      <c r="IH5" s="37">
         <v>2018</v>
       </c>
-      <c r="II5" s="41"/>
-      <c r="IJ5" s="41"/>
-      <c r="IK5" s="41"/>
-      <c r="IL5" s="41"/>
-      <c r="IM5" s="41"/>
-      <c r="IN5" s="41"/>
-      <c r="IO5" s="41"/>
-      <c r="IP5" s="41"/>
-      <c r="IQ5" s="41"/>
-      <c r="IR5" s="41"/>
-      <c r="IS5" s="41"/>
-      <c r="IT5" s="41">
+      <c r="II5" s="37"/>
+      <c r="IJ5" s="37"/>
+      <c r="IK5" s="37"/>
+      <c r="IL5" s="37"/>
+      <c r="IM5" s="37"/>
+      <c r="IN5" s="37"/>
+      <c r="IO5" s="37"/>
+      <c r="IP5" s="37"/>
+      <c r="IQ5" s="37"/>
+      <c r="IR5" s="37"/>
+      <c r="IS5" s="37"/>
+      <c r="IT5" s="37">
         <v>2019</v>
       </c>
-      <c r="IU5" s="41"/>
-      <c r="IV5" s="41"/>
-      <c r="IW5" s="41"/>
-      <c r="IX5" s="41"/>
-      <c r="IY5" s="41"/>
-      <c r="IZ5" s="41"/>
-      <c r="JA5" s="41"/>
-      <c r="JB5" s="41"/>
-      <c r="JC5" s="41"/>
-      <c r="JD5" s="41"/>
-      <c r="JE5" s="41"/>
-      <c r="JF5" s="41">
+      <c r="IU5" s="37"/>
+      <c r="IV5" s="37"/>
+      <c r="IW5" s="37"/>
+      <c r="IX5" s="37"/>
+      <c r="IY5" s="37"/>
+      <c r="IZ5" s="37"/>
+      <c r="JA5" s="37"/>
+      <c r="JB5" s="37"/>
+      <c r="JC5" s="37"/>
+      <c r="JD5" s="37"/>
+      <c r="JE5" s="37"/>
+      <c r="JF5" s="37">
         <v>2020</v>
       </c>
-      <c r="JG5" s="41"/>
-      <c r="JH5" s="41"/>
-      <c r="JI5" s="41"/>
-      <c r="JJ5" s="41"/>
-      <c r="JK5" s="41"/>
-      <c r="JL5" s="41"/>
-      <c r="JM5" s="41"/>
-      <c r="JN5" s="41"/>
-      <c r="JO5" s="41"/>
-      <c r="JP5" s="41"/>
-      <c r="JQ5" s="41"/>
-      <c r="JR5" s="41">
+      <c r="JG5" s="37"/>
+      <c r="JH5" s="37"/>
+      <c r="JI5" s="37"/>
+      <c r="JJ5" s="37"/>
+      <c r="JK5" s="37"/>
+      <c r="JL5" s="37"/>
+      <c r="JM5" s="37"/>
+      <c r="JN5" s="37"/>
+      <c r="JO5" s="37"/>
+      <c r="JP5" s="37"/>
+      <c r="JQ5" s="37"/>
+      <c r="JR5" s="37">
         <v>2021</v>
       </c>
-      <c r="JS5" s="41"/>
-      <c r="JT5" s="41"/>
-      <c r="JU5" s="41"/>
-      <c r="JV5" s="41"/>
-      <c r="JW5" s="41"/>
-      <c r="JX5" s="41"/>
-      <c r="JY5" s="41"/>
-      <c r="JZ5" s="41"/>
-      <c r="KA5" s="41"/>
-      <c r="KB5" s="41"/>
-      <c r="KC5" s="37"/>
-      <c r="KD5" s="37">
+      <c r="JS5" s="37"/>
+      <c r="JT5" s="37"/>
+      <c r="JU5" s="37"/>
+      <c r="JV5" s="37"/>
+      <c r="JW5" s="37"/>
+      <c r="JX5" s="37"/>
+      <c r="JY5" s="37"/>
+      <c r="JZ5" s="37"/>
+      <c r="KA5" s="37"/>
+      <c r="KB5" s="37"/>
+      <c r="KC5" s="38"/>
+      <c r="KD5" s="38">
         <v>2022</v>
       </c>
-      <c r="KE5" s="38"/>
-      <c r="KF5" s="38"/>
-      <c r="KG5" s="38"/>
-      <c r="KH5" s="38"/>
-      <c r="KI5" s="38"/>
-      <c r="KJ5" s="38"/>
-      <c r="KK5" s="38"/>
+      <c r="KE5" s="39"/>
+      <c r="KF5" s="39"/>
+      <c r="KG5" s="39"/>
+      <c r="KH5" s="39"/>
+      <c r="KI5" s="39"/>
+      <c r="KJ5" s="39"/>
+      <c r="KK5" s="39"/>
       <c r="KL5" s="39"/>
+      <c r="KM5" s="40"/>
     </row>
-    <row r="6" spans="1:300" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:301" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1995,11 +1996,14 @@
       <c r="KK6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="KL6" s="29" t="s">
+      <c r="KL6" s="34" t="s">
         <v>19</v>
       </c>
+      <c r="KM6" s="29" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:300" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:301" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2891,11 +2895,14 @@
       <c r="KK7" s="35">
         <v>1138325</v>
       </c>
-      <c r="KL7" s="31">
+      <c r="KL7" s="35">
         <v>1147074</v>
       </c>
+      <c r="KM7" s="31">
+        <v>1160441</v>
+      </c>
     </row>
-    <row r="8" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3787,11 +3794,14 @@
       <c r="KK8" s="7">
         <v>211631</v>
       </c>
-      <c r="KL8" s="8">
+      <c r="KL8" s="7">
         <v>214012</v>
       </c>
+      <c r="KM8" s="8">
+        <v>216573</v>
+      </c>
     </row>
-    <row r="9" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4683,11 +4693,14 @@
       <c r="KK9" s="7">
         <v>29602</v>
       </c>
-      <c r="KL9" s="8">
+      <c r="KL9" s="7">
         <v>30151</v>
       </c>
+      <c r="KM9" s="8">
+        <v>30825</v>
+      </c>
     </row>
-    <row r="10" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5579,11 +5592,14 @@
       <c r="KK10" s="7">
         <v>138716</v>
       </c>
-      <c r="KL10" s="8">
+      <c r="KL10" s="7">
         <v>140076</v>
       </c>
+      <c r="KM10" s="8">
+        <v>142278</v>
+      </c>
     </row>
-    <row r="11" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6475,11 +6491,14 @@
       <c r="KK11" s="7">
         <v>177869</v>
       </c>
-      <c r="KL11" s="8">
+      <c r="KL11" s="7">
         <v>178980</v>
       </c>
+      <c r="KM11" s="8">
+        <v>181019</v>
+      </c>
     </row>
-    <row r="12" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7371,11 +7390,14 @@
       <c r="KK12" s="7">
         <v>172248</v>
       </c>
-      <c r="KL12" s="8">
+      <c r="KL12" s="7">
         <v>173337</v>
       </c>
+      <c r="KM12" s="8">
+        <v>175298</v>
+      </c>
     </row>
-    <row r="13" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8267,11 +8289,14 @@
       <c r="KK13" s="7">
         <v>152996</v>
       </c>
-      <c r="KL13" s="8">
+      <c r="KL13" s="7">
         <v>153631</v>
       </c>
+      <c r="KM13" s="8">
+        <v>155156</v>
+      </c>
     </row>
-    <row r="14" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9163,13 +9188,16 @@
       <c r="KK14" s="7">
         <v>134794</v>
       </c>
-      <c r="KL14" s="8">
+      <c r="KL14" s="7">
         <v>135688</v>
       </c>
-      <c r="KM14" s="26"/>
+      <c r="KM14" s="8">
+        <v>137102</v>
+      </c>
       <c r="KN14" s="26"/>
+      <c r="KO14" s="26"/>
     </row>
-    <row r="15" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -10061,13 +10089,16 @@
       <c r="KK15" s="7">
         <v>120434</v>
       </c>
-      <c r="KL15" s="8">
+      <c r="KL15" s="7">
         <v>121159</v>
       </c>
-      <c r="KM15" s="26"/>
+      <c r="KM15" s="8">
+        <v>122151</v>
+      </c>
       <c r="KN15" s="26"/>
+      <c r="KO15" s="26"/>
     </row>
-    <row r="16" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10959,13 +10990,16 @@
       <c r="KK16" s="9">
         <v>35</v>
       </c>
-      <c r="KL16" s="10">
+      <c r="KL16" s="9">
         <v>40</v>
       </c>
-      <c r="KM16" s="26"/>
+      <c r="KM16" s="10">
+        <v>39</v>
+      </c>
       <c r="KN16" s="26"/>
+      <c r="KO16" s="26"/>
     </row>
-    <row r="17" spans="1:300" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:301" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11857,13 +11891,16 @@
       <c r="KK17" s="35">
         <v>772302</v>
       </c>
-      <c r="KL17" s="31">
+      <c r="KL17" s="35">
         <v>780573</v>
       </c>
-      <c r="KM17" s="27"/>
+      <c r="KM17" s="31">
+        <v>790500</v>
+      </c>
       <c r="KN17" s="27"/>
+      <c r="KO17" s="27"/>
     </row>
-    <row r="18" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12755,13 +12792,16 @@
       <c r="KK18" s="7">
         <v>128905</v>
       </c>
-      <c r="KL18" s="8">
+      <c r="KL18" s="7">
         <v>130781</v>
       </c>
-      <c r="KM18" s="26"/>
+      <c r="KM18" s="8">
+        <v>132205</v>
+      </c>
       <c r="KN18" s="26"/>
+      <c r="KO18" s="26"/>
     </row>
-    <row r="19" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13653,13 +13693,16 @@
       <c r="KK19" s="7">
         <v>17017</v>
       </c>
-      <c r="KL19" s="8">
+      <c r="KL19" s="7">
         <v>17495</v>
       </c>
-      <c r="KM19" s="26"/>
+      <c r="KM19" s="8">
+        <v>18110</v>
+      </c>
       <c r="KN19" s="26"/>
+      <c r="KO19" s="26"/>
     </row>
-    <row r="20" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14551,13 +14594,16 @@
       <c r="KK20" s="7">
         <v>96401</v>
       </c>
-      <c r="KL20" s="8">
+      <c r="KL20" s="7">
         <v>97530</v>
       </c>
-      <c r="KM20" s="26"/>
+      <c r="KM20" s="8">
+        <v>99190</v>
+      </c>
       <c r="KN20" s="26"/>
+      <c r="KO20" s="26"/>
     </row>
-    <row r="21" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15449,13 +15495,16 @@
       <c r="KK21" s="7">
         <v>127233</v>
       </c>
-      <c r="KL21" s="8">
+      <c r="KL21" s="7">
         <v>128397</v>
       </c>
-      <c r="KM21" s="26"/>
+      <c r="KM21" s="8">
+        <v>129819</v>
+      </c>
       <c r="KN21" s="26"/>
+      <c r="KO21" s="26"/>
     </row>
-    <row r="22" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16347,13 +16396,16 @@
       <c r="KK22" s="7">
         <v>118988</v>
       </c>
-      <c r="KL22" s="8">
+      <c r="KL22" s="7">
         <v>119964</v>
       </c>
-      <c r="KM22" s="26"/>
+      <c r="KM22" s="8">
+        <v>121520</v>
+      </c>
       <c r="KN22" s="26"/>
+      <c r="KO22" s="26"/>
     </row>
-    <row r="23" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -17245,13 +17297,16 @@
       <c r="KK23" s="7">
         <v>107469</v>
       </c>
-      <c r="KL23" s="8">
+      <c r="KL23" s="7">
         <v>108254</v>
       </c>
-      <c r="KM23" s="26"/>
+      <c r="KM23" s="8">
+        <v>109364</v>
+      </c>
       <c r="KN23" s="26"/>
+      <c r="KO23" s="26"/>
     </row>
-    <row r="24" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -18143,11 +18198,14 @@
       <c r="KK24" s="7">
         <v>94484</v>
       </c>
-      <c r="KL24" s="8">
+      <c r="KL24" s="7">
         <v>95639</v>
       </c>
+      <c r="KM24" s="8">
+        <v>96789</v>
+      </c>
     </row>
-    <row r="25" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -19039,11 +19097,14 @@
       <c r="KK25" s="7">
         <v>81797</v>
       </c>
-      <c r="KL25" s="8">
+      <c r="KL25" s="7">
         <v>82508</v>
       </c>
+      <c r="KM25" s="8">
+        <v>83495</v>
+      </c>
     </row>
-    <row r="26" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19935,11 +19996,14 @@
       <c r="KK26" s="9">
         <v>8</v>
       </c>
-      <c r="KL26" s="10">
+      <c r="KL26" s="9">
         <v>5</v>
       </c>
+      <c r="KM26" s="10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:300" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20831,12 +20895,15 @@
       <c r="KK27" s="36">
         <v>1910627</v>
       </c>
-      <c r="KL27" s="33">
+      <c r="KL27" s="36">
         <v>1927647</v>
       </c>
-      <c r="KM27" s="25"/>
+      <c r="KM27" s="33">
+        <v>1950941</v>
+      </c>
+      <c r="KN27" s="25"/>
     </row>
-    <row r="28" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -22012,12 +22079,15 @@
       <c r="KK28" s="7">
         <v>340536</v>
       </c>
-      <c r="KL28" s="8">
+      <c r="KL28" s="7">
         <v>344793</v>
       </c>
-      <c r="KM28" s="25"/>
+      <c r="KM28" s="8">
+        <v>348778</v>
+      </c>
+      <c r="KN28" s="25"/>
     </row>
-    <row r="29" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -23193,12 +23263,15 @@
       <c r="KK29" s="7">
         <v>46619</v>
       </c>
-      <c r="KL29" s="8">
+      <c r="KL29" s="7">
         <v>47646</v>
       </c>
-      <c r="KM29" s="25"/>
+      <c r="KM29" s="8">
+        <v>48935</v>
+      </c>
+      <c r="KN29" s="25"/>
     </row>
-    <row r="30" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -24374,12 +24447,15 @@
       <c r="KK30" s="7">
         <v>235117</v>
       </c>
-      <c r="KL30" s="8">
+      <c r="KL30" s="7">
         <v>237606</v>
       </c>
-      <c r="KM30" s="25"/>
+      <c r="KM30" s="8">
+        <v>241468</v>
+      </c>
+      <c r="KN30" s="25"/>
     </row>
-    <row r="31" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -25555,12 +25631,15 @@
       <c r="KK31" s="7">
         <v>305102</v>
       </c>
-      <c r="KL31" s="8">
+      <c r="KL31" s="7">
         <v>307377</v>
       </c>
-      <c r="KM31" s="25"/>
+      <c r="KM31" s="8">
+        <v>310838</v>
+      </c>
+      <c r="KN31" s="25"/>
     </row>
-    <row r="32" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26736,12 +26815,15 @@
       <c r="KK32" s="7">
         <v>291236</v>
       </c>
-      <c r="KL32" s="8">
+      <c r="KL32" s="7">
         <v>293301</v>
       </c>
-      <c r="KM32" s="25"/>
+      <c r="KM32" s="8">
+        <v>296818</v>
+      </c>
+      <c r="KN32" s="25"/>
     </row>
-    <row r="33" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -27917,12 +27999,15 @@
       <c r="KK33" s="7">
         <v>260465</v>
       </c>
-      <c r="KL33" s="8">
+      <c r="KL33" s="7">
         <v>261885</v>
       </c>
-      <c r="KM33" s="25"/>
+      <c r="KM33" s="8">
+        <v>264520</v>
+      </c>
+      <c r="KN33" s="25"/>
     </row>
-    <row r="34" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -29098,12 +29183,15 @@
       <c r="KK34" s="7">
         <v>229278</v>
       </c>
-      <c r="KL34" s="8">
+      <c r="KL34" s="7">
         <v>231327</v>
       </c>
-      <c r="KM34" s="25"/>
+      <c r="KM34" s="8">
+        <v>233891</v>
+      </c>
+      <c r="KN34" s="25"/>
     </row>
-    <row r="35" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -30279,12 +30367,15 @@
       <c r="KK35" s="7">
         <v>202231</v>
       </c>
-      <c r="KL35" s="8">
+      <c r="KL35" s="7">
         <v>203667</v>
       </c>
-      <c r="KM35" s="25"/>
+      <c r="KM35" s="8">
+        <v>205646</v>
+      </c>
+      <c r="KN35" s="25"/>
     </row>
-    <row r="36" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -31460,32 +31551,25 @@
       <c r="KK36" s="9">
         <v>43</v>
       </c>
-      <c r="KL36" s="10">
+      <c r="KL36" s="9">
         <v>45</v>
       </c>
-      <c r="KM36" s="25"/>
+      <c r="KM36" s="10">
+        <v>47</v>
+      </c>
+      <c r="KN36" s="25"/>
     </row>
-    <row r="37" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:300" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
-    <mergeCell ref="KD5:KL5"/>
+    <mergeCell ref="KD5:KM5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -31501,6 +31585,16 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - octubre 2022</t>
+    <t>Enero 1998 - noviembre 2022</t>
   </si>
 </sst>
 </file>
@@ -425,9 +425,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,12 +720,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KO38"/>
+  <dimension ref="A1:KP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KA1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KO24" sqref="KO24"/>
+      <selection pane="topRight" activeCell="KP13" sqref="KP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -737,377 +737,378 @@
     <col min="290" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:301" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:301" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="4" spans="1:302" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:302" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="41">
         <v>1998</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41">
         <v>1999</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37">
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41">
         <v>2000</v>
       </c>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37">
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41">
         <v>2001</v>
       </c>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37">
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41">
         <v>2002</v>
       </c>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37">
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41">
         <v>2003</v>
       </c>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37">
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+      <c r="BV5" s="41">
         <v>2004</v>
       </c>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37">
+      <c r="BW5" s="41"/>
+      <c r="BX5" s="41"/>
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="41"/>
+      <c r="CA5" s="41"/>
+      <c r="CB5" s="41"/>
+      <c r="CC5" s="41"/>
+      <c r="CD5" s="41"/>
+      <c r="CE5" s="41"/>
+      <c r="CF5" s="41"/>
+      <c r="CG5" s="41"/>
+      <c r="CH5" s="41">
         <v>2005</v>
       </c>
-      <c r="CI5" s="37"/>
-      <c r="CJ5" s="37"/>
-      <c r="CK5" s="37"/>
-      <c r="CL5" s="37"/>
-      <c r="CM5" s="37"/>
-      <c r="CN5" s="37"/>
-      <c r="CO5" s="37"/>
-      <c r="CP5" s="37"/>
-      <c r="CQ5" s="37"/>
-      <c r="CR5" s="37"/>
-      <c r="CS5" s="37"/>
-      <c r="CT5" s="37">
+      <c r="CI5" s="41"/>
+      <c r="CJ5" s="41"/>
+      <c r="CK5" s="41"/>
+      <c r="CL5" s="41"/>
+      <c r="CM5" s="41"/>
+      <c r="CN5" s="41"/>
+      <c r="CO5" s="41"/>
+      <c r="CP5" s="41"/>
+      <c r="CQ5" s="41"/>
+      <c r="CR5" s="41"/>
+      <c r="CS5" s="41"/>
+      <c r="CT5" s="41">
         <v>2006</v>
       </c>
-      <c r="CU5" s="37"/>
-      <c r="CV5" s="37"/>
-      <c r="CW5" s="37"/>
-      <c r="CX5" s="37"/>
-      <c r="CY5" s="37"/>
-      <c r="CZ5" s="37"/>
-      <c r="DA5" s="37"/>
-      <c r="DB5" s="37"/>
-      <c r="DC5" s="37"/>
-      <c r="DD5" s="37"/>
-      <c r="DE5" s="37"/>
-      <c r="DF5" s="37">
+      <c r="CU5" s="41"/>
+      <c r="CV5" s="41"/>
+      <c r="CW5" s="41"/>
+      <c r="CX5" s="41"/>
+      <c r="CY5" s="41"/>
+      <c r="CZ5" s="41"/>
+      <c r="DA5" s="41"/>
+      <c r="DB5" s="41"/>
+      <c r="DC5" s="41"/>
+      <c r="DD5" s="41"/>
+      <c r="DE5" s="41"/>
+      <c r="DF5" s="41">
         <v>2007</v>
       </c>
-      <c r="DG5" s="37"/>
-      <c r="DH5" s="37"/>
-      <c r="DI5" s="37"/>
-      <c r="DJ5" s="37"/>
-      <c r="DK5" s="37"/>
-      <c r="DL5" s="37"/>
-      <c r="DM5" s="37"/>
-      <c r="DN5" s="37"/>
-      <c r="DO5" s="37"/>
-      <c r="DP5" s="37"/>
-      <c r="DQ5" s="37"/>
-      <c r="DR5" s="37">
+      <c r="DG5" s="41"/>
+      <c r="DH5" s="41"/>
+      <c r="DI5" s="41"/>
+      <c r="DJ5" s="41"/>
+      <c r="DK5" s="41"/>
+      <c r="DL5" s="41"/>
+      <c r="DM5" s="41"/>
+      <c r="DN5" s="41"/>
+      <c r="DO5" s="41"/>
+      <c r="DP5" s="41"/>
+      <c r="DQ5" s="41"/>
+      <c r="DR5" s="41">
         <v>2008</v>
       </c>
-      <c r="DS5" s="37"/>
-      <c r="DT5" s="37"/>
-      <c r="DU5" s="37"/>
-      <c r="DV5" s="37"/>
-      <c r="DW5" s="37"/>
-      <c r="DX5" s="37"/>
-      <c r="DY5" s="37"/>
-      <c r="DZ5" s="37"/>
-      <c r="EA5" s="37"/>
-      <c r="EB5" s="37"/>
-      <c r="EC5" s="37"/>
-      <c r="ED5" s="37">
+      <c r="DS5" s="41"/>
+      <c r="DT5" s="41"/>
+      <c r="DU5" s="41"/>
+      <c r="DV5" s="41"/>
+      <c r="DW5" s="41"/>
+      <c r="DX5" s="41"/>
+      <c r="DY5" s="41"/>
+      <c r="DZ5" s="41"/>
+      <c r="EA5" s="41"/>
+      <c r="EB5" s="41"/>
+      <c r="EC5" s="41"/>
+      <c r="ED5" s="41">
         <v>2009</v>
       </c>
-      <c r="EE5" s="37"/>
-      <c r="EF5" s="37"/>
-      <c r="EG5" s="37"/>
-      <c r="EH5" s="37"/>
-      <c r="EI5" s="37"/>
-      <c r="EJ5" s="37"/>
-      <c r="EK5" s="37"/>
-      <c r="EL5" s="37"/>
-      <c r="EM5" s="37"/>
-      <c r="EN5" s="37"/>
-      <c r="EO5" s="37"/>
-      <c r="EP5" s="37">
+      <c r="EE5" s="41"/>
+      <c r="EF5" s="41"/>
+      <c r="EG5" s="41"/>
+      <c r="EH5" s="41"/>
+      <c r="EI5" s="41"/>
+      <c r="EJ5" s="41"/>
+      <c r="EK5" s="41"/>
+      <c r="EL5" s="41"/>
+      <c r="EM5" s="41"/>
+      <c r="EN5" s="41"/>
+      <c r="EO5" s="41"/>
+      <c r="EP5" s="41">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="37"/>
-      <c r="ER5" s="37"/>
-      <c r="ES5" s="37"/>
-      <c r="ET5" s="37"/>
-      <c r="EU5" s="37"/>
-      <c r="EV5" s="37"/>
-      <c r="EW5" s="37"/>
-      <c r="EX5" s="37"/>
-      <c r="EY5" s="37"/>
-      <c r="EZ5" s="37"/>
-      <c r="FA5" s="37"/>
-      <c r="FB5" s="37">
+      <c r="EQ5" s="41"/>
+      <c r="ER5" s="41"/>
+      <c r="ES5" s="41"/>
+      <c r="ET5" s="41"/>
+      <c r="EU5" s="41"/>
+      <c r="EV5" s="41"/>
+      <c r="EW5" s="41"/>
+      <c r="EX5" s="41"/>
+      <c r="EY5" s="41"/>
+      <c r="EZ5" s="41"/>
+      <c r="FA5" s="41"/>
+      <c r="FB5" s="41">
         <v>2011</v>
       </c>
-      <c r="FC5" s="37"/>
-      <c r="FD5" s="37"/>
-      <c r="FE5" s="37"/>
-      <c r="FF5" s="37"/>
-      <c r="FG5" s="37"/>
-      <c r="FH5" s="37"/>
-      <c r="FI5" s="37"/>
-      <c r="FJ5" s="37"/>
-      <c r="FK5" s="37"/>
-      <c r="FL5" s="37"/>
-      <c r="FM5" s="37"/>
-      <c r="FN5" s="37">
+      <c r="FC5" s="41"/>
+      <c r="FD5" s="41"/>
+      <c r="FE5" s="41"/>
+      <c r="FF5" s="41"/>
+      <c r="FG5" s="41"/>
+      <c r="FH5" s="41"/>
+      <c r="FI5" s="41"/>
+      <c r="FJ5" s="41"/>
+      <c r="FK5" s="41"/>
+      <c r="FL5" s="41"/>
+      <c r="FM5" s="41"/>
+      <c r="FN5" s="41">
         <v>2012</v>
       </c>
-      <c r="FO5" s="37"/>
-      <c r="FP5" s="37"/>
-      <c r="FQ5" s="37"/>
-      <c r="FR5" s="37"/>
-      <c r="FS5" s="37"/>
-      <c r="FT5" s="37"/>
-      <c r="FU5" s="37"/>
-      <c r="FV5" s="37"/>
-      <c r="FW5" s="37"/>
-      <c r="FX5" s="37"/>
-      <c r="FY5" s="37"/>
-      <c r="FZ5" s="37">
+      <c r="FO5" s="41"/>
+      <c r="FP5" s="41"/>
+      <c r="FQ5" s="41"/>
+      <c r="FR5" s="41"/>
+      <c r="FS5" s="41"/>
+      <c r="FT5" s="41"/>
+      <c r="FU5" s="41"/>
+      <c r="FV5" s="41"/>
+      <c r="FW5" s="41"/>
+      <c r="FX5" s="41"/>
+      <c r="FY5" s="41"/>
+      <c r="FZ5" s="41">
         <v>2013</v>
       </c>
-      <c r="GA5" s="37"/>
-      <c r="GB5" s="37"/>
-      <c r="GC5" s="37"/>
-      <c r="GD5" s="37"/>
-      <c r="GE5" s="37"/>
-      <c r="GF5" s="37"/>
-      <c r="GG5" s="37"/>
-      <c r="GH5" s="37"/>
-      <c r="GI5" s="37"/>
-      <c r="GJ5" s="37"/>
-      <c r="GK5" s="37"/>
-      <c r="GL5" s="37">
+      <c r="GA5" s="41"/>
+      <c r="GB5" s="41"/>
+      <c r="GC5" s="41"/>
+      <c r="GD5" s="41"/>
+      <c r="GE5" s="41"/>
+      <c r="GF5" s="41"/>
+      <c r="GG5" s="41"/>
+      <c r="GH5" s="41"/>
+      <c r="GI5" s="41"/>
+      <c r="GJ5" s="41"/>
+      <c r="GK5" s="41"/>
+      <c r="GL5" s="41">
         <v>2014</v>
       </c>
-      <c r="GM5" s="37"/>
-      <c r="GN5" s="37"/>
-      <c r="GO5" s="37"/>
-      <c r="GP5" s="37"/>
-      <c r="GQ5" s="37"/>
-      <c r="GR5" s="37"/>
-      <c r="GS5" s="37"/>
-      <c r="GT5" s="37"/>
-      <c r="GU5" s="37"/>
-      <c r="GV5" s="37"/>
-      <c r="GW5" s="37"/>
-      <c r="GX5" s="37">
+      <c r="GM5" s="41"/>
+      <c r="GN5" s="41"/>
+      <c r="GO5" s="41"/>
+      <c r="GP5" s="41"/>
+      <c r="GQ5" s="41"/>
+      <c r="GR5" s="41"/>
+      <c r="GS5" s="41"/>
+      <c r="GT5" s="41"/>
+      <c r="GU5" s="41"/>
+      <c r="GV5" s="41"/>
+      <c r="GW5" s="41"/>
+      <c r="GX5" s="41">
         <v>2015</v>
       </c>
-      <c r="GY5" s="37"/>
-      <c r="GZ5" s="37"/>
-      <c r="HA5" s="37"/>
-      <c r="HB5" s="37"/>
-      <c r="HC5" s="37"/>
-      <c r="HD5" s="37"/>
-      <c r="HE5" s="37"/>
-      <c r="HF5" s="37"/>
-      <c r="HG5" s="37"/>
-      <c r="HH5" s="37"/>
-      <c r="HI5" s="37"/>
-      <c r="HJ5" s="37">
+      <c r="GY5" s="41"/>
+      <c r="GZ5" s="41"/>
+      <c r="HA5" s="41"/>
+      <c r="HB5" s="41"/>
+      <c r="HC5" s="41"/>
+      <c r="HD5" s="41"/>
+      <c r="HE5" s="41"/>
+      <c r="HF5" s="41"/>
+      <c r="HG5" s="41"/>
+      <c r="HH5" s="41"/>
+      <c r="HI5" s="41"/>
+      <c r="HJ5" s="41">
         <v>2016</v>
       </c>
-      <c r="HK5" s="37"/>
-      <c r="HL5" s="37"/>
-      <c r="HM5" s="37"/>
-      <c r="HN5" s="37"/>
-      <c r="HO5" s="37"/>
-      <c r="HP5" s="37"/>
-      <c r="HQ5" s="37"/>
-      <c r="HR5" s="37"/>
-      <c r="HS5" s="37"/>
-      <c r="HT5" s="37"/>
-      <c r="HU5" s="37"/>
-      <c r="HV5" s="37">
+      <c r="HK5" s="41"/>
+      <c r="HL5" s="41"/>
+      <c r="HM5" s="41"/>
+      <c r="HN5" s="41"/>
+      <c r="HO5" s="41"/>
+      <c r="HP5" s="41"/>
+      <c r="HQ5" s="41"/>
+      <c r="HR5" s="41"/>
+      <c r="HS5" s="41"/>
+      <c r="HT5" s="41"/>
+      <c r="HU5" s="41"/>
+      <c r="HV5" s="41">
         <v>2017</v>
       </c>
-      <c r="HW5" s="37"/>
-      <c r="HX5" s="37"/>
-      <c r="HY5" s="37"/>
-      <c r="HZ5" s="37"/>
-      <c r="IA5" s="37"/>
-      <c r="IB5" s="37"/>
-      <c r="IC5" s="37"/>
-      <c r="ID5" s="37"/>
-      <c r="IE5" s="37"/>
-      <c r="IF5" s="37"/>
-      <c r="IG5" s="37"/>
-      <c r="IH5" s="37">
+      <c r="HW5" s="41"/>
+      <c r="HX5" s="41"/>
+      <c r="HY5" s="41"/>
+      <c r="HZ5" s="41"/>
+      <c r="IA5" s="41"/>
+      <c r="IB5" s="41"/>
+      <c r="IC5" s="41"/>
+      <c r="ID5" s="41"/>
+      <c r="IE5" s="41"/>
+      <c r="IF5" s="41"/>
+      <c r="IG5" s="41"/>
+      <c r="IH5" s="41">
         <v>2018</v>
       </c>
-      <c r="II5" s="37"/>
-      <c r="IJ5" s="37"/>
-      <c r="IK5" s="37"/>
-      <c r="IL5" s="37"/>
-      <c r="IM5" s="37"/>
-      <c r="IN5" s="37"/>
-      <c r="IO5" s="37"/>
-      <c r="IP5" s="37"/>
-      <c r="IQ5" s="37"/>
-      <c r="IR5" s="37"/>
-      <c r="IS5" s="37"/>
-      <c r="IT5" s="37">
+      <c r="II5" s="41"/>
+      <c r="IJ5" s="41"/>
+      <c r="IK5" s="41"/>
+      <c r="IL5" s="41"/>
+      <c r="IM5" s="41"/>
+      <c r="IN5" s="41"/>
+      <c r="IO5" s="41"/>
+      <c r="IP5" s="41"/>
+      <c r="IQ5" s="41"/>
+      <c r="IR5" s="41"/>
+      <c r="IS5" s="41"/>
+      <c r="IT5" s="41">
         <v>2019</v>
       </c>
-      <c r="IU5" s="37"/>
-      <c r="IV5" s="37"/>
-      <c r="IW5" s="37"/>
-      <c r="IX5" s="37"/>
-      <c r="IY5" s="37"/>
-      <c r="IZ5" s="37"/>
-      <c r="JA5" s="37"/>
-      <c r="JB5" s="37"/>
-      <c r="JC5" s="37"/>
-      <c r="JD5" s="37"/>
-      <c r="JE5" s="37"/>
-      <c r="JF5" s="37">
+      <c r="IU5" s="41"/>
+      <c r="IV5" s="41"/>
+      <c r="IW5" s="41"/>
+      <c r="IX5" s="41"/>
+      <c r="IY5" s="41"/>
+      <c r="IZ5" s="41"/>
+      <c r="JA5" s="41"/>
+      <c r="JB5" s="41"/>
+      <c r="JC5" s="41"/>
+      <c r="JD5" s="41"/>
+      <c r="JE5" s="41"/>
+      <c r="JF5" s="41">
         <v>2020</v>
       </c>
-      <c r="JG5" s="37"/>
-      <c r="JH5" s="37"/>
-      <c r="JI5" s="37"/>
-      <c r="JJ5" s="37"/>
-      <c r="JK5" s="37"/>
-      <c r="JL5" s="37"/>
-      <c r="JM5" s="37"/>
-      <c r="JN5" s="37"/>
-      <c r="JO5" s="37"/>
-      <c r="JP5" s="37"/>
-      <c r="JQ5" s="37"/>
-      <c r="JR5" s="37">
+      <c r="JG5" s="41"/>
+      <c r="JH5" s="41"/>
+      <c r="JI5" s="41"/>
+      <c r="JJ5" s="41"/>
+      <c r="JK5" s="41"/>
+      <c r="JL5" s="41"/>
+      <c r="JM5" s="41"/>
+      <c r="JN5" s="41"/>
+      <c r="JO5" s="41"/>
+      <c r="JP5" s="41"/>
+      <c r="JQ5" s="41"/>
+      <c r="JR5" s="41">
         <v>2021</v>
       </c>
-      <c r="JS5" s="37"/>
-      <c r="JT5" s="37"/>
-      <c r="JU5" s="37"/>
-      <c r="JV5" s="37"/>
-      <c r="JW5" s="37"/>
-      <c r="JX5" s="37"/>
-      <c r="JY5" s="37"/>
-      <c r="JZ5" s="37"/>
-      <c r="KA5" s="37"/>
-      <c r="KB5" s="37"/>
-      <c r="KC5" s="38"/>
-      <c r="KD5" s="38">
+      <c r="JS5" s="41"/>
+      <c r="JT5" s="41"/>
+      <c r="JU5" s="41"/>
+      <c r="JV5" s="41"/>
+      <c r="JW5" s="41"/>
+      <c r="JX5" s="41"/>
+      <c r="JY5" s="41"/>
+      <c r="JZ5" s="41"/>
+      <c r="KA5" s="41"/>
+      <c r="KB5" s="41"/>
+      <c r="KC5" s="37"/>
+      <c r="KD5" s="37">
         <v>2022</v>
       </c>
-      <c r="KE5" s="39"/>
-      <c r="KF5" s="39"/>
-      <c r="KG5" s="39"/>
-      <c r="KH5" s="39"/>
-      <c r="KI5" s="39"/>
-      <c r="KJ5" s="39"/>
-      <c r="KK5" s="39"/>
-      <c r="KL5" s="39"/>
-      <c r="KM5" s="40"/>
+      <c r="KE5" s="38"/>
+      <c r="KF5" s="38"/>
+      <c r="KG5" s="38"/>
+      <c r="KH5" s="38"/>
+      <c r="KI5" s="38"/>
+      <c r="KJ5" s="38"/>
+      <c r="KK5" s="38"/>
+      <c r="KL5" s="38"/>
+      <c r="KM5" s="38"/>
+      <c r="KN5" s="39"/>
     </row>
-    <row r="6" spans="1:301" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+    <row r="6" spans="1:302" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -1999,11 +2000,14 @@
       <c r="KL6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="KM6" s="29" t="s">
+      <c r="KM6" s="34" t="s">
         <v>20</v>
       </c>
+      <c r="KN6" s="29" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:301" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:302" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2898,11 +2902,14 @@
       <c r="KL7" s="35">
         <v>1147074</v>
       </c>
-      <c r="KM7" s="31">
+      <c r="KM7" s="35">
         <v>1160441</v>
       </c>
+      <c r="KN7" s="31">
+        <v>1164860</v>
+      </c>
     </row>
-    <row r="8" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3797,11 +3804,14 @@
       <c r="KL8" s="7">
         <v>214012</v>
       </c>
-      <c r="KM8" s="8">
+      <c r="KM8" s="7">
         <v>216573</v>
       </c>
+      <c r="KN8" s="8">
+        <v>217996</v>
+      </c>
     </row>
-    <row r="9" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4696,11 +4706,14 @@
       <c r="KL9" s="7">
         <v>30151</v>
       </c>
-      <c r="KM9" s="8">
+      <c r="KM9" s="7">
         <v>30825</v>
       </c>
+      <c r="KN9" s="8">
+        <v>31047</v>
+      </c>
     </row>
-    <row r="10" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5595,11 +5608,14 @@
       <c r="KL10" s="7">
         <v>140076</v>
       </c>
-      <c r="KM10" s="8">
+      <c r="KM10" s="7">
         <v>142278</v>
       </c>
+      <c r="KN10" s="8">
+        <v>142678</v>
+      </c>
     </row>
-    <row r="11" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6494,11 +6510,14 @@
       <c r="KL11" s="7">
         <v>178980</v>
       </c>
-      <c r="KM11" s="8">
+      <c r="KM11" s="7">
         <v>181019</v>
       </c>
+      <c r="KN11" s="8">
+        <v>181695</v>
+      </c>
     </row>
-    <row r="12" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7393,11 +7412,14 @@
       <c r="KL12" s="7">
         <v>173337</v>
       </c>
-      <c r="KM12" s="8">
+      <c r="KM12" s="7">
         <v>175298</v>
       </c>
+      <c r="KN12" s="8">
+        <v>175565</v>
+      </c>
     </row>
-    <row r="13" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8292,11 +8314,14 @@
       <c r="KL13" s="7">
         <v>153631</v>
       </c>
-      <c r="KM13" s="8">
+      <c r="KM13" s="7">
         <v>155156</v>
       </c>
+      <c r="KN13" s="8">
+        <v>155673</v>
+      </c>
     </row>
-    <row r="14" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9191,13 +9216,16 @@
       <c r="KL14" s="7">
         <v>135688</v>
       </c>
-      <c r="KM14" s="8">
+      <c r="KM14" s="7">
         <v>137102</v>
       </c>
-      <c r="KN14" s="26"/>
+      <c r="KN14" s="8">
+        <v>137514</v>
+      </c>
       <c r="KO14" s="26"/>
+      <c r="KP14" s="26"/>
     </row>
-    <row r="15" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -10092,13 +10120,16 @@
       <c r="KL15" s="7">
         <v>121159</v>
       </c>
-      <c r="KM15" s="8">
+      <c r="KM15" s="7">
         <v>122151</v>
       </c>
-      <c r="KN15" s="26"/>
+      <c r="KN15" s="8">
+        <v>122662</v>
+      </c>
       <c r="KO15" s="26"/>
+      <c r="KP15" s="26"/>
     </row>
-    <row r="16" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -10993,13 +11024,16 @@
       <c r="KL16" s="9">
         <v>40</v>
       </c>
-      <c r="KM16" s="10">
+      <c r="KM16" s="9">
         <v>39</v>
       </c>
-      <c r="KN16" s="26"/>
+      <c r="KN16" s="10">
+        <v>30</v>
+      </c>
       <c r="KO16" s="26"/>
+      <c r="KP16" s="26"/>
     </row>
-    <row r="17" spans="1:301" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:302" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11894,13 +11928,16 @@
       <c r="KL17" s="35">
         <v>780573</v>
       </c>
-      <c r="KM17" s="31">
+      <c r="KM17" s="35">
         <v>790500</v>
       </c>
-      <c r="KN17" s="27"/>
+      <c r="KN17" s="31">
+        <v>795650</v>
+      </c>
       <c r="KO17" s="27"/>
+      <c r="KP17" s="27"/>
     </row>
-    <row r="18" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12795,13 +12832,16 @@
       <c r="KL18" s="7">
         <v>130781</v>
       </c>
-      <c r="KM18" s="8">
+      <c r="KM18" s="7">
         <v>132205</v>
       </c>
-      <c r="KN18" s="26"/>
+      <c r="KN18" s="8">
+        <v>133271</v>
+      </c>
       <c r="KO18" s="26"/>
+      <c r="KP18" s="26"/>
     </row>
-    <row r="19" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13696,13 +13736,16 @@
       <c r="KL19" s="7">
         <v>17495</v>
       </c>
-      <c r="KM19" s="8">
+      <c r="KM19" s="7">
         <v>18110</v>
       </c>
-      <c r="KN19" s="26"/>
+      <c r="KN19" s="8">
+        <v>18386</v>
+      </c>
       <c r="KO19" s="26"/>
+      <c r="KP19" s="26"/>
     </row>
-    <row r="20" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14597,13 +14640,16 @@
       <c r="KL20" s="7">
         <v>97530</v>
       </c>
-      <c r="KM20" s="8">
+      <c r="KM20" s="7">
         <v>99190</v>
       </c>
-      <c r="KN20" s="26"/>
+      <c r="KN20" s="8">
+        <v>99752</v>
+      </c>
       <c r="KO20" s="26"/>
+      <c r="KP20" s="26"/>
     </row>
-    <row r="21" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15498,13 +15544,16 @@
       <c r="KL21" s="7">
         <v>128397</v>
       </c>
-      <c r="KM21" s="8">
+      <c r="KM21" s="7">
         <v>129819</v>
       </c>
-      <c r="KN21" s="26"/>
+      <c r="KN21" s="8">
+        <v>130510</v>
+      </c>
       <c r="KO21" s="26"/>
+      <c r="KP21" s="26"/>
     </row>
-    <row r="22" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16399,13 +16448,16 @@
       <c r="KL22" s="7">
         <v>119964</v>
       </c>
-      <c r="KM22" s="8">
+      <c r="KM22" s="7">
         <v>121520</v>
       </c>
-      <c r="KN22" s="26"/>
+      <c r="KN22" s="8">
+        <v>122351</v>
+      </c>
       <c r="KO22" s="26"/>
+      <c r="KP22" s="26"/>
     </row>
-    <row r="23" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -17300,13 +17352,16 @@
       <c r="KL23" s="7">
         <v>108254</v>
       </c>
-      <c r="KM23" s="8">
+      <c r="KM23" s="7">
         <v>109364</v>
       </c>
-      <c r="KN23" s="26"/>
+      <c r="KN23" s="8">
+        <v>110006</v>
+      </c>
       <c r="KO23" s="26"/>
+      <c r="KP23" s="26"/>
     </row>
-    <row r="24" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -18201,11 +18256,14 @@
       <c r="KL24" s="7">
         <v>95639</v>
       </c>
-      <c r="KM24" s="8">
+      <c r="KM24" s="7">
         <v>96789</v>
       </c>
+      <c r="KN24" s="8">
+        <v>97400</v>
+      </c>
     </row>
-    <row r="25" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -19100,11 +19158,14 @@
       <c r="KL25" s="7">
         <v>82508</v>
       </c>
-      <c r="KM25" s="8">
+      <c r="KM25" s="7">
         <v>83495</v>
       </c>
+      <c r="KN25" s="8">
+        <v>83968</v>
+      </c>
     </row>
-    <row r="26" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -19999,11 +20060,14 @@
       <c r="KL26" s="9">
         <v>5</v>
       </c>
-      <c r="KM26" s="10">
+      <c r="KM26" s="9">
         <v>8</v>
       </c>
+      <c r="KN26" s="10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20898,12 +20962,15 @@
       <c r="KL27" s="36">
         <v>1927647</v>
       </c>
-      <c r="KM27" s="33">
+      <c r="KM27" s="36">
         <v>1950941</v>
       </c>
-      <c r="KN27" s="25"/>
+      <c r="KN27" s="33">
+        <v>1960510</v>
+      </c>
+      <c r="KO27" s="25"/>
     </row>
-    <row r="28" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -22082,12 +22149,15 @@
       <c r="KL28" s="7">
         <v>344793</v>
       </c>
-      <c r="KM28" s="8">
+      <c r="KM28" s="7">
         <v>348778</v>
       </c>
-      <c r="KN28" s="25"/>
+      <c r="KN28" s="8">
+        <v>351267</v>
+      </c>
+      <c r="KO28" s="25"/>
     </row>
-    <row r="29" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -23266,12 +23336,15 @@
       <c r="KL29" s="7">
         <v>47646</v>
       </c>
-      <c r="KM29" s="8">
+      <c r="KM29" s="7">
         <v>48935</v>
       </c>
-      <c r="KN29" s="25"/>
+      <c r="KN29" s="8">
+        <v>49433</v>
+      </c>
+      <c r="KO29" s="25"/>
     </row>
-    <row r="30" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -24450,12 +24523,15 @@
       <c r="KL30" s="7">
         <v>237606</v>
       </c>
-      <c r="KM30" s="8">
+      <c r="KM30" s="7">
         <v>241468</v>
       </c>
-      <c r="KN30" s="25"/>
+      <c r="KN30" s="8">
+        <v>242430</v>
+      </c>
+      <c r="KO30" s="25"/>
     </row>
-    <row r="31" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -25634,12 +25710,15 @@
       <c r="KL31" s="7">
         <v>307377</v>
       </c>
-      <c r="KM31" s="8">
+      <c r="KM31" s="7">
         <v>310838</v>
       </c>
-      <c r="KN31" s="25"/>
+      <c r="KN31" s="8">
+        <v>312205</v>
+      </c>
+      <c r="KO31" s="25"/>
     </row>
-    <row r="32" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26818,12 +26897,15 @@
       <c r="KL32" s="7">
         <v>293301</v>
       </c>
-      <c r="KM32" s="8">
+      <c r="KM32" s="7">
         <v>296818</v>
       </c>
-      <c r="KN32" s="25"/>
+      <c r="KN32" s="8">
+        <v>297916</v>
+      </c>
+      <c r="KO32" s="25"/>
     </row>
-    <row r="33" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -28002,12 +28084,15 @@
       <c r="KL33" s="7">
         <v>261885</v>
       </c>
-      <c r="KM33" s="8">
+      <c r="KM33" s="7">
         <v>264520</v>
       </c>
-      <c r="KN33" s="25"/>
+      <c r="KN33" s="8">
+        <v>265679</v>
+      </c>
+      <c r="KO33" s="25"/>
     </row>
-    <row r="34" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -29186,12 +29271,15 @@
       <c r="KL34" s="7">
         <v>231327</v>
       </c>
-      <c r="KM34" s="8">
+      <c r="KM34" s="7">
         <v>233891</v>
       </c>
-      <c r="KN34" s="25"/>
+      <c r="KN34" s="8">
+        <v>234914</v>
+      </c>
+      <c r="KO34" s="25"/>
     </row>
-    <row r="35" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -30370,12 +30458,15 @@
       <c r="KL35" s="7">
         <v>203667</v>
       </c>
-      <c r="KM35" s="8">
+      <c r="KM35" s="7">
         <v>205646</v>
       </c>
-      <c r="KN35" s="25"/>
+      <c r="KN35" s="8">
+        <v>206630</v>
+      </c>
+      <c r="KO35" s="25"/>
     </row>
-    <row r="36" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -31554,22 +31645,35 @@
       <c r="KL36" s="9">
         <v>45</v>
       </c>
-      <c r="KM36" s="10">
+      <c r="KM36" s="9">
         <v>47</v>
       </c>
-      <c r="KN36" s="25"/>
+      <c r="KN36" s="10">
+        <v>36</v>
+      </c>
+      <c r="KO36" s="25"/>
     </row>
-    <row r="37" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:301" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:300" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="KD5:KM5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
+    <mergeCell ref="KD5:KN5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -31585,16 +31689,6 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - noviembre 2022</t>
+    <t>Enero 1998 - diciembre 2022</t>
   </si>
 </sst>
 </file>
@@ -425,6 +425,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,9 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,395 +720,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KP38"/>
+  <dimension ref="A1:KQ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KA1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="JX1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KP13" sqref="KP13"/>
+      <selection pane="topRight" activeCell="KP23" sqref="KP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="285" width="11.375" style="2"/>
-    <col min="286" max="288" width="12.75" style="2" customWidth="1"/>
-    <col min="289" max="289" width="12.375" style="2" customWidth="1"/>
-    <col min="290" max="16384" width="11.375" style="2"/>
+    <col min="2" max="9" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="57" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="69" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="93" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="105" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="117" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="122" max="129" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="134" max="141" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="146" max="153" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="158" max="165" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="170" max="177" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="182" max="189" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="194" max="201" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="206" max="213" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="218" max="225" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="230" max="237" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="242" max="249" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="254" max="261" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="266" max="273" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="278" max="285" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="290" max="297" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="302" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:302" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:302" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+    <row r="4" spans="1:303" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>1998</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37">
         <v>1999</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37">
         <v>2000</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41">
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37">
         <v>2001</v>
       </c>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41">
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37">
         <v>2002</v>
       </c>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41">
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37">
         <v>2003</v>
       </c>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="41">
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37">
         <v>2004</v>
       </c>
-      <c r="BW5" s="41"/>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="41"/>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41"/>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="41"/>
-      <c r="CF5" s="41"/>
-      <c r="CG5" s="41"/>
-      <c r="CH5" s="41">
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37">
         <v>2005</v>
       </c>
-      <c r="CI5" s="41"/>
-      <c r="CJ5" s="41"/>
-      <c r="CK5" s="41"/>
-      <c r="CL5" s="41"/>
-      <c r="CM5" s="41"/>
-      <c r="CN5" s="41"/>
-      <c r="CO5" s="41"/>
-      <c r="CP5" s="41"/>
-      <c r="CQ5" s="41"/>
-      <c r="CR5" s="41"/>
-      <c r="CS5" s="41"/>
-      <c r="CT5" s="41">
+      <c r="CI5" s="37"/>
+      <c r="CJ5" s="37"/>
+      <c r="CK5" s="37"/>
+      <c r="CL5" s="37"/>
+      <c r="CM5" s="37"/>
+      <c r="CN5" s="37"/>
+      <c r="CO5" s="37"/>
+      <c r="CP5" s="37"/>
+      <c r="CQ5" s="37"/>
+      <c r="CR5" s="37"/>
+      <c r="CS5" s="37"/>
+      <c r="CT5" s="37">
         <v>2006</v>
       </c>
-      <c r="CU5" s="41"/>
-      <c r="CV5" s="41"/>
-      <c r="CW5" s="41"/>
-      <c r="CX5" s="41"/>
-      <c r="CY5" s="41"/>
-      <c r="CZ5" s="41"/>
-      <c r="DA5" s="41"/>
-      <c r="DB5" s="41"/>
-      <c r="DC5" s="41"/>
-      <c r="DD5" s="41"/>
-      <c r="DE5" s="41"/>
-      <c r="DF5" s="41">
+      <c r="CU5" s="37"/>
+      <c r="CV5" s="37"/>
+      <c r="CW5" s="37"/>
+      <c r="CX5" s="37"/>
+      <c r="CY5" s="37"/>
+      <c r="CZ5" s="37"/>
+      <c r="DA5" s="37"/>
+      <c r="DB5" s="37"/>
+      <c r="DC5" s="37"/>
+      <c r="DD5" s="37"/>
+      <c r="DE5" s="37"/>
+      <c r="DF5" s="37">
         <v>2007</v>
       </c>
-      <c r="DG5" s="41"/>
-      <c r="DH5" s="41"/>
-      <c r="DI5" s="41"/>
-      <c r="DJ5" s="41"/>
-      <c r="DK5" s="41"/>
-      <c r="DL5" s="41"/>
-      <c r="DM5" s="41"/>
-      <c r="DN5" s="41"/>
-      <c r="DO5" s="41"/>
-      <c r="DP5" s="41"/>
-      <c r="DQ5" s="41"/>
-      <c r="DR5" s="41">
+      <c r="DG5" s="37"/>
+      <c r="DH5" s="37"/>
+      <c r="DI5" s="37"/>
+      <c r="DJ5" s="37"/>
+      <c r="DK5" s="37"/>
+      <c r="DL5" s="37"/>
+      <c r="DM5" s="37"/>
+      <c r="DN5" s="37"/>
+      <c r="DO5" s="37"/>
+      <c r="DP5" s="37"/>
+      <c r="DQ5" s="37"/>
+      <c r="DR5" s="37">
         <v>2008</v>
       </c>
-      <c r="DS5" s="41"/>
-      <c r="DT5" s="41"/>
-      <c r="DU5" s="41"/>
-      <c r="DV5" s="41"/>
-      <c r="DW5" s="41"/>
-      <c r="DX5" s="41"/>
-      <c r="DY5" s="41"/>
-      <c r="DZ5" s="41"/>
-      <c r="EA5" s="41"/>
-      <c r="EB5" s="41"/>
-      <c r="EC5" s="41"/>
-      <c r="ED5" s="41">
+      <c r="DS5" s="37"/>
+      <c r="DT5" s="37"/>
+      <c r="DU5" s="37"/>
+      <c r="DV5" s="37"/>
+      <c r="DW5" s="37"/>
+      <c r="DX5" s="37"/>
+      <c r="DY5" s="37"/>
+      <c r="DZ5" s="37"/>
+      <c r="EA5" s="37"/>
+      <c r="EB5" s="37"/>
+      <c r="EC5" s="37"/>
+      <c r="ED5" s="37">
         <v>2009</v>
       </c>
-      <c r="EE5" s="41"/>
-      <c r="EF5" s="41"/>
-      <c r="EG5" s="41"/>
-      <c r="EH5" s="41"/>
-      <c r="EI5" s="41"/>
-      <c r="EJ5" s="41"/>
-      <c r="EK5" s="41"/>
-      <c r="EL5" s="41"/>
-      <c r="EM5" s="41"/>
-      <c r="EN5" s="41"/>
-      <c r="EO5" s="41"/>
-      <c r="EP5" s="41">
+      <c r="EE5" s="37"/>
+      <c r="EF5" s="37"/>
+      <c r="EG5" s="37"/>
+      <c r="EH5" s="37"/>
+      <c r="EI5" s="37"/>
+      <c r="EJ5" s="37"/>
+      <c r="EK5" s="37"/>
+      <c r="EL5" s="37"/>
+      <c r="EM5" s="37"/>
+      <c r="EN5" s="37"/>
+      <c r="EO5" s="37"/>
+      <c r="EP5" s="37">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="41"/>
-      <c r="ER5" s="41"/>
-      <c r="ES5" s="41"/>
-      <c r="ET5" s="41"/>
-      <c r="EU5" s="41"/>
-      <c r="EV5" s="41"/>
-      <c r="EW5" s="41"/>
-      <c r="EX5" s="41"/>
-      <c r="EY5" s="41"/>
-      <c r="EZ5" s="41"/>
-      <c r="FA5" s="41"/>
-      <c r="FB5" s="41">
+      <c r="EQ5" s="37"/>
+      <c r="ER5" s="37"/>
+      <c r="ES5" s="37"/>
+      <c r="ET5" s="37"/>
+      <c r="EU5" s="37"/>
+      <c r="EV5" s="37"/>
+      <c r="EW5" s="37"/>
+      <c r="EX5" s="37"/>
+      <c r="EY5" s="37"/>
+      <c r="EZ5" s="37"/>
+      <c r="FA5" s="37"/>
+      <c r="FB5" s="37">
         <v>2011</v>
       </c>
-      <c r="FC5" s="41"/>
-      <c r="FD5" s="41"/>
-      <c r="FE5" s="41"/>
-      <c r="FF5" s="41"/>
-      <c r="FG5" s="41"/>
-      <c r="FH5" s="41"/>
-      <c r="FI5" s="41"/>
-      <c r="FJ5" s="41"/>
-      <c r="FK5" s="41"/>
-      <c r="FL5" s="41"/>
-      <c r="FM5" s="41"/>
-      <c r="FN5" s="41">
+      <c r="FC5" s="37"/>
+      <c r="FD5" s="37"/>
+      <c r="FE5" s="37"/>
+      <c r="FF5" s="37"/>
+      <c r="FG5" s="37"/>
+      <c r="FH5" s="37"/>
+      <c r="FI5" s="37"/>
+      <c r="FJ5" s="37"/>
+      <c r="FK5" s="37"/>
+      <c r="FL5" s="37"/>
+      <c r="FM5" s="37"/>
+      <c r="FN5" s="37">
         <v>2012</v>
       </c>
-      <c r="FO5" s="41"/>
-      <c r="FP5" s="41"/>
-      <c r="FQ5" s="41"/>
-      <c r="FR5" s="41"/>
-      <c r="FS5" s="41"/>
-      <c r="FT5" s="41"/>
-      <c r="FU5" s="41"/>
-      <c r="FV5" s="41"/>
-      <c r="FW5" s="41"/>
-      <c r="FX5" s="41"/>
-      <c r="FY5" s="41"/>
-      <c r="FZ5" s="41">
+      <c r="FO5" s="37"/>
+      <c r="FP5" s="37"/>
+      <c r="FQ5" s="37"/>
+      <c r="FR5" s="37"/>
+      <c r="FS5" s="37"/>
+      <c r="FT5" s="37"/>
+      <c r="FU5" s="37"/>
+      <c r="FV5" s="37"/>
+      <c r="FW5" s="37"/>
+      <c r="FX5" s="37"/>
+      <c r="FY5" s="37"/>
+      <c r="FZ5" s="37">
         <v>2013</v>
       </c>
-      <c r="GA5" s="41"/>
-      <c r="GB5" s="41"/>
-      <c r="GC5" s="41"/>
-      <c r="GD5" s="41"/>
-      <c r="GE5" s="41"/>
-      <c r="GF5" s="41"/>
-      <c r="GG5" s="41"/>
-      <c r="GH5" s="41"/>
-      <c r="GI5" s="41"/>
-      <c r="GJ5" s="41"/>
-      <c r="GK5" s="41"/>
-      <c r="GL5" s="41">
+      <c r="GA5" s="37"/>
+      <c r="GB5" s="37"/>
+      <c r="GC5" s="37"/>
+      <c r="GD5" s="37"/>
+      <c r="GE5" s="37"/>
+      <c r="GF5" s="37"/>
+      <c r="GG5" s="37"/>
+      <c r="GH5" s="37"/>
+      <c r="GI5" s="37"/>
+      <c r="GJ5" s="37"/>
+      <c r="GK5" s="37"/>
+      <c r="GL5" s="37">
         <v>2014</v>
       </c>
-      <c r="GM5" s="41"/>
-      <c r="GN5" s="41"/>
-      <c r="GO5" s="41"/>
-      <c r="GP5" s="41"/>
-      <c r="GQ5" s="41"/>
-      <c r="GR5" s="41"/>
-      <c r="GS5" s="41"/>
-      <c r="GT5" s="41"/>
-      <c r="GU5" s="41"/>
-      <c r="GV5" s="41"/>
-      <c r="GW5" s="41"/>
-      <c r="GX5" s="41">
+      <c r="GM5" s="37"/>
+      <c r="GN5" s="37"/>
+      <c r="GO5" s="37"/>
+      <c r="GP5" s="37"/>
+      <c r="GQ5" s="37"/>
+      <c r="GR5" s="37"/>
+      <c r="GS5" s="37"/>
+      <c r="GT5" s="37"/>
+      <c r="GU5" s="37"/>
+      <c r="GV5" s="37"/>
+      <c r="GW5" s="37"/>
+      <c r="GX5" s="37">
         <v>2015</v>
       </c>
-      <c r="GY5" s="41"/>
-      <c r="GZ5" s="41"/>
-      <c r="HA5" s="41"/>
-      <c r="HB5" s="41"/>
-      <c r="HC5" s="41"/>
-      <c r="HD5" s="41"/>
-      <c r="HE5" s="41"/>
-      <c r="HF5" s="41"/>
-      <c r="HG5" s="41"/>
-      <c r="HH5" s="41"/>
-      <c r="HI5" s="41"/>
-      <c r="HJ5" s="41">
+      <c r="GY5" s="37"/>
+      <c r="GZ5" s="37"/>
+      <c r="HA5" s="37"/>
+      <c r="HB5" s="37"/>
+      <c r="HC5" s="37"/>
+      <c r="HD5" s="37"/>
+      <c r="HE5" s="37"/>
+      <c r="HF5" s="37"/>
+      <c r="HG5" s="37"/>
+      <c r="HH5" s="37"/>
+      <c r="HI5" s="37"/>
+      <c r="HJ5" s="37">
         <v>2016</v>
       </c>
-      <c r="HK5" s="41"/>
-      <c r="HL5" s="41"/>
-      <c r="HM5" s="41"/>
-      <c r="HN5" s="41"/>
-      <c r="HO5" s="41"/>
-      <c r="HP5" s="41"/>
-      <c r="HQ5" s="41"/>
-      <c r="HR5" s="41"/>
-      <c r="HS5" s="41"/>
-      <c r="HT5" s="41"/>
-      <c r="HU5" s="41"/>
-      <c r="HV5" s="41">
+      <c r="HK5" s="37"/>
+      <c r="HL5" s="37"/>
+      <c r="HM5" s="37"/>
+      <c r="HN5" s="37"/>
+      <c r="HO5" s="37"/>
+      <c r="HP5" s="37"/>
+      <c r="HQ5" s="37"/>
+      <c r="HR5" s="37"/>
+      <c r="HS5" s="37"/>
+      <c r="HT5" s="37"/>
+      <c r="HU5" s="37"/>
+      <c r="HV5" s="37">
         <v>2017</v>
       </c>
-      <c r="HW5" s="41"/>
-      <c r="HX5" s="41"/>
-      <c r="HY5" s="41"/>
-      <c r="HZ5" s="41"/>
-      <c r="IA5" s="41"/>
-      <c r="IB5" s="41"/>
-      <c r="IC5" s="41"/>
-      <c r="ID5" s="41"/>
-      <c r="IE5" s="41"/>
-      <c r="IF5" s="41"/>
-      <c r="IG5" s="41"/>
-      <c r="IH5" s="41">
+      <c r="HW5" s="37"/>
+      <c r="HX5" s="37"/>
+      <c r="HY5" s="37"/>
+      <c r="HZ5" s="37"/>
+      <c r="IA5" s="37"/>
+      <c r="IB5" s="37"/>
+      <c r="IC5" s="37"/>
+      <c r="ID5" s="37"/>
+      <c r="IE5" s="37"/>
+      <c r="IF5" s="37"/>
+      <c r="IG5" s="37"/>
+      <c r="IH5" s="37">
         <v>2018</v>
       </c>
-      <c r="II5" s="41"/>
-      <c r="IJ5" s="41"/>
-      <c r="IK5" s="41"/>
-      <c r="IL5" s="41"/>
-      <c r="IM5" s="41"/>
-      <c r="IN5" s="41"/>
-      <c r="IO5" s="41"/>
-      <c r="IP5" s="41"/>
-      <c r="IQ5" s="41"/>
-      <c r="IR5" s="41"/>
-      <c r="IS5" s="41"/>
-      <c r="IT5" s="41">
+      <c r="II5" s="37"/>
+      <c r="IJ5" s="37"/>
+      <c r="IK5" s="37"/>
+      <c r="IL5" s="37"/>
+      <c r="IM5" s="37"/>
+      <c r="IN5" s="37"/>
+      <c r="IO5" s="37"/>
+      <c r="IP5" s="37"/>
+      <c r="IQ5" s="37"/>
+      <c r="IR5" s="37"/>
+      <c r="IS5" s="37"/>
+      <c r="IT5" s="37">
         <v>2019</v>
       </c>
-      <c r="IU5" s="41"/>
-      <c r="IV5" s="41"/>
-      <c r="IW5" s="41"/>
-      <c r="IX5" s="41"/>
-      <c r="IY5" s="41"/>
-      <c r="IZ5" s="41"/>
-      <c r="JA5" s="41"/>
-      <c r="JB5" s="41"/>
-      <c r="JC5" s="41"/>
-      <c r="JD5" s="41"/>
-      <c r="JE5" s="41"/>
-      <c r="JF5" s="41">
+      <c r="IU5" s="37"/>
+      <c r="IV5" s="37"/>
+      <c r="IW5" s="37"/>
+      <c r="IX5" s="37"/>
+      <c r="IY5" s="37"/>
+      <c r="IZ5" s="37"/>
+      <c r="JA5" s="37"/>
+      <c r="JB5" s="37"/>
+      <c r="JC5" s="37"/>
+      <c r="JD5" s="37"/>
+      <c r="JE5" s="37"/>
+      <c r="JF5" s="37">
         <v>2020</v>
       </c>
-      <c r="JG5" s="41"/>
-      <c r="JH5" s="41"/>
-      <c r="JI5" s="41"/>
-      <c r="JJ5" s="41"/>
-      <c r="JK5" s="41"/>
-      <c r="JL5" s="41"/>
-      <c r="JM5" s="41"/>
-      <c r="JN5" s="41"/>
-      <c r="JO5" s="41"/>
-      <c r="JP5" s="41"/>
-      <c r="JQ5" s="41"/>
-      <c r="JR5" s="41">
+      <c r="JG5" s="37"/>
+      <c r="JH5" s="37"/>
+      <c r="JI5" s="37"/>
+      <c r="JJ5" s="37"/>
+      <c r="JK5" s="37"/>
+      <c r="JL5" s="37"/>
+      <c r="JM5" s="37"/>
+      <c r="JN5" s="37"/>
+      <c r="JO5" s="37"/>
+      <c r="JP5" s="37"/>
+      <c r="JQ5" s="37"/>
+      <c r="JR5" s="37">
         <v>2021</v>
       </c>
-      <c r="JS5" s="41"/>
-      <c r="JT5" s="41"/>
-      <c r="JU5" s="41"/>
-      <c r="JV5" s="41"/>
-      <c r="JW5" s="41"/>
-      <c r="JX5" s="41"/>
-      <c r="JY5" s="41"/>
-      <c r="JZ5" s="41"/>
-      <c r="KA5" s="41"/>
-      <c r="KB5" s="41"/>
-      <c r="KC5" s="37"/>
-      <c r="KD5" s="37">
+      <c r="JS5" s="37"/>
+      <c r="JT5" s="37"/>
+      <c r="JU5" s="37"/>
+      <c r="JV5" s="37"/>
+      <c r="JW5" s="37"/>
+      <c r="JX5" s="37"/>
+      <c r="JY5" s="37"/>
+      <c r="JZ5" s="37"/>
+      <c r="KA5" s="37"/>
+      <c r="KB5" s="37"/>
+      <c r="KC5" s="38"/>
+      <c r="KD5" s="38">
         <v>2022</v>
       </c>
-      <c r="KE5" s="38"/>
-      <c r="KF5" s="38"/>
-      <c r="KG5" s="38"/>
-      <c r="KH5" s="38"/>
-      <c r="KI5" s="38"/>
-      <c r="KJ5" s="38"/>
-      <c r="KK5" s="38"/>
-      <c r="KL5" s="38"/>
-      <c r="KM5" s="38"/>
+      <c r="KE5" s="39"/>
+      <c r="KF5" s="39"/>
+      <c r="KG5" s="39"/>
+      <c r="KH5" s="39"/>
+      <c r="KI5" s="39"/>
+      <c r="KJ5" s="39"/>
+      <c r="KK5" s="39"/>
+      <c r="KL5" s="39"/>
+      <c r="KM5" s="39"/>
       <c r="KN5" s="39"/>
+      <c r="KO5" s="40"/>
     </row>
-    <row r="6" spans="1:302" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2003,11 +2129,14 @@
       <c r="KM6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="KN6" s="29" t="s">
+      <c r="KN6" s="34" t="s">
         <v>21</v>
       </c>
+      <c r="KO6" s="29" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:302" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -2905,11 +3034,14 @@
       <c r="KM7" s="35">
         <v>1160441</v>
       </c>
-      <c r="KN7" s="31">
+      <c r="KN7" s="35">
         <v>1164860</v>
       </c>
+      <c r="KO7" s="31">
+        <v>1148621</v>
+      </c>
     </row>
-    <row r="8" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3807,11 +3939,14 @@
       <c r="KM8" s="7">
         <v>216573</v>
       </c>
-      <c r="KN8" s="8">
+      <c r="KN8" s="7">
         <v>217996</v>
       </c>
+      <c r="KO8" s="8">
+        <v>217661</v>
+      </c>
     </row>
-    <row r="9" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4709,11 +4844,14 @@
       <c r="KM9" s="7">
         <v>30825</v>
       </c>
-      <c r="KN9" s="8">
+      <c r="KN9" s="7">
         <v>31047</v>
       </c>
+      <c r="KO9" s="8">
+        <v>29794</v>
+      </c>
     </row>
-    <row r="10" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5611,11 +5749,14 @@
       <c r="KM10" s="7">
         <v>142278</v>
       </c>
-      <c r="KN10" s="8">
+      <c r="KN10" s="7">
         <v>142678</v>
       </c>
+      <c r="KO10" s="8">
+        <v>138548</v>
+      </c>
     </row>
-    <row r="11" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6513,11 +6654,14 @@
       <c r="KM11" s="7">
         <v>181019</v>
       </c>
-      <c r="KN11" s="8">
+      <c r="KN11" s="7">
         <v>181695</v>
       </c>
+      <c r="KO11" s="8">
+        <v>178274</v>
+      </c>
     </row>
-    <row r="12" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7415,11 +7559,14 @@
       <c r="KM12" s="7">
         <v>175298</v>
       </c>
-      <c r="KN12" s="8">
+      <c r="KN12" s="7">
         <v>175565</v>
       </c>
+      <c r="KO12" s="8">
+        <v>172953</v>
+      </c>
     </row>
-    <row r="13" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8317,11 +8464,14 @@
       <c r="KM13" s="7">
         <v>155156</v>
       </c>
-      <c r="KN13" s="8">
+      <c r="KN13" s="7">
         <v>155673</v>
       </c>
+      <c r="KO13" s="8">
+        <v>153647</v>
+      </c>
     </row>
-    <row r="14" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9219,13 +9369,16 @@
       <c r="KM14" s="7">
         <v>137102</v>
       </c>
-      <c r="KN14" s="8">
+      <c r="KN14" s="7">
         <v>137514</v>
       </c>
-      <c r="KO14" s="26"/>
+      <c r="KO14" s="8">
+        <v>136042</v>
+      </c>
       <c r="KP14" s="26"/>
+      <c r="KQ14" s="26"/>
     </row>
-    <row r="15" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -10123,13 +10276,16 @@
       <c r="KM15" s="7">
         <v>122151</v>
       </c>
-      <c r="KN15" s="8">
+      <c r="KN15" s="7">
         <v>122662</v>
       </c>
-      <c r="KO15" s="26"/>
+      <c r="KO15" s="8">
+        <v>121675</v>
+      </c>
       <c r="KP15" s="26"/>
+      <c r="KQ15" s="26"/>
     </row>
-    <row r="16" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -11027,13 +11183,16 @@
       <c r="KM16" s="9">
         <v>39</v>
       </c>
-      <c r="KN16" s="10">
+      <c r="KN16" s="9">
         <v>30</v>
       </c>
-      <c r="KO16" s="26"/>
+      <c r="KO16" s="10">
+        <v>27</v>
+      </c>
       <c r="KP16" s="26"/>
+      <c r="KQ16" s="26"/>
     </row>
-    <row r="17" spans="1:302" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11931,13 +12090,16 @@
       <c r="KM17" s="35">
         <v>790500</v>
       </c>
-      <c r="KN17" s="31">
+      <c r="KN17" s="35">
         <v>795650</v>
       </c>
-      <c r="KO17" s="27"/>
+      <c r="KO17" s="31">
+        <v>784341</v>
+      </c>
       <c r="KP17" s="27"/>
+      <c r="KQ17" s="27"/>
     </row>
-    <row r="18" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -12835,13 +12997,16 @@
       <c r="KM18" s="7">
         <v>132205</v>
       </c>
-      <c r="KN18" s="8">
+      <c r="KN18" s="7">
         <v>133271</v>
       </c>
-      <c r="KO18" s="26"/>
+      <c r="KO18" s="8">
+        <v>132857</v>
+      </c>
       <c r="KP18" s="26"/>
+      <c r="KQ18" s="26"/>
     </row>
-    <row r="19" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13739,13 +13904,16 @@
       <c r="KM19" s="7">
         <v>18110</v>
       </c>
-      <c r="KN19" s="8">
+      <c r="KN19" s="7">
         <v>18386</v>
       </c>
-      <c r="KO19" s="26"/>
+      <c r="KO19" s="8">
+        <v>17570</v>
+      </c>
       <c r="KP19" s="26"/>
+      <c r="KQ19" s="26"/>
     </row>
-    <row r="20" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14643,13 +14811,16 @@
       <c r="KM20" s="7">
         <v>99190</v>
       </c>
-      <c r="KN20" s="8">
+      <c r="KN20" s="7">
         <v>99752</v>
       </c>
-      <c r="KO20" s="26"/>
+      <c r="KO20" s="8">
+        <v>97134</v>
+      </c>
       <c r="KP20" s="26"/>
+      <c r="KQ20" s="26"/>
     </row>
-    <row r="21" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15547,13 +15718,16 @@
       <c r="KM21" s="7">
         <v>129819</v>
       </c>
-      <c r="KN21" s="8">
+      <c r="KN21" s="7">
         <v>130510</v>
       </c>
-      <c r="KO21" s="26"/>
+      <c r="KO21" s="8">
+        <v>128281</v>
+      </c>
       <c r="KP21" s="26"/>
+      <c r="KQ21" s="26"/>
     </row>
-    <row r="22" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16451,13 +16625,16 @@
       <c r="KM22" s="7">
         <v>121520</v>
       </c>
-      <c r="KN22" s="8">
+      <c r="KN22" s="7">
         <v>122351</v>
       </c>
-      <c r="KO22" s="26"/>
+      <c r="KO22" s="8">
+        <v>120640</v>
+      </c>
       <c r="KP22" s="26"/>
+      <c r="KQ22" s="26"/>
     </row>
-    <row r="23" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -17355,13 +17532,16 @@
       <c r="KM23" s="7">
         <v>109364</v>
       </c>
-      <c r="KN23" s="8">
+      <c r="KN23" s="7">
         <v>110006</v>
       </c>
-      <c r="KO23" s="26"/>
+      <c r="KO23" s="8">
+        <v>108560</v>
+      </c>
       <c r="KP23" s="26"/>
+      <c r="KQ23" s="26"/>
     </row>
-    <row r="24" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -18259,11 +18439,14 @@
       <c r="KM24" s="7">
         <v>96789</v>
       </c>
-      <c r="KN24" s="8">
+      <c r="KN24" s="7">
         <v>97400</v>
       </c>
+      <c r="KO24" s="8">
+        <v>96269</v>
+      </c>
     </row>
-    <row r="25" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -19161,11 +19344,14 @@
       <c r="KM25" s="7">
         <v>83495</v>
       </c>
-      <c r="KN25" s="8">
+      <c r="KN25" s="7">
         <v>83968</v>
       </c>
+      <c r="KO25" s="8">
+        <v>83025</v>
+      </c>
     </row>
-    <row r="26" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -20063,11 +20249,14 @@
       <c r="KM26" s="9">
         <v>8</v>
       </c>
-      <c r="KN26" s="10">
+      <c r="KN26" s="9">
         <v>6</v>
       </c>
+      <c r="KO26" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -20965,12 +21154,15 @@
       <c r="KM27" s="36">
         <v>1950941</v>
       </c>
-      <c r="KN27" s="33">
+      <c r="KN27" s="36">
         <v>1960510</v>
       </c>
-      <c r="KO27" s="25"/>
+      <c r="KO27" s="33">
+        <v>1932962</v>
+      </c>
+      <c r="KP27" s="25"/>
     </row>
-    <row r="28" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -22152,12 +22344,15 @@
       <c r="KM28" s="7">
         <v>348778</v>
       </c>
-      <c r="KN28" s="8">
+      <c r="KN28" s="7">
         <v>351267</v>
       </c>
-      <c r="KO28" s="25"/>
+      <c r="KO28" s="8">
+        <v>350518</v>
+      </c>
+      <c r="KP28" s="25"/>
     </row>
-    <row r="29" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -23339,12 +23534,15 @@
       <c r="KM29" s="7">
         <v>48935</v>
       </c>
-      <c r="KN29" s="8">
+      <c r="KN29" s="7">
         <v>49433</v>
       </c>
-      <c r="KO29" s="25"/>
+      <c r="KO29" s="8">
+        <v>47364</v>
+      </c>
+      <c r="KP29" s="25"/>
     </row>
-    <row r="30" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -24526,12 +24724,15 @@
       <c r="KM30" s="7">
         <v>241468</v>
       </c>
-      <c r="KN30" s="8">
+      <c r="KN30" s="7">
         <v>242430</v>
       </c>
-      <c r="KO30" s="25"/>
+      <c r="KO30" s="8">
+        <v>235682</v>
+      </c>
+      <c r="KP30" s="25"/>
     </row>
-    <row r="31" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -25713,12 +25914,15 @@
       <c r="KM31" s="7">
         <v>310838</v>
       </c>
-      <c r="KN31" s="8">
+      <c r="KN31" s="7">
         <v>312205</v>
       </c>
-      <c r="KO31" s="25"/>
+      <c r="KO31" s="8">
+        <v>306555</v>
+      </c>
+      <c r="KP31" s="25"/>
     </row>
-    <row r="32" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -26900,12 +27104,15 @@
       <c r="KM32" s="7">
         <v>296818</v>
       </c>
-      <c r="KN32" s="8">
+      <c r="KN32" s="7">
         <v>297916</v>
       </c>
-      <c r="KO32" s="25"/>
+      <c r="KO32" s="8">
+        <v>293593</v>
+      </c>
+      <c r="KP32" s="25"/>
     </row>
-    <row r="33" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -28087,12 +28294,15 @@
       <c r="KM33" s="7">
         <v>264520</v>
       </c>
-      <c r="KN33" s="8">
+      <c r="KN33" s="7">
         <v>265679</v>
       </c>
-      <c r="KO33" s="25"/>
+      <c r="KO33" s="8">
+        <v>262207</v>
+      </c>
+      <c r="KP33" s="25"/>
     </row>
-    <row r="34" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -29274,12 +29484,15 @@
       <c r="KM34" s="7">
         <v>233891</v>
       </c>
-      <c r="KN34" s="8">
+      <c r="KN34" s="7">
         <v>234914</v>
       </c>
-      <c r="KO34" s="25"/>
+      <c r="KO34" s="8">
+        <v>232311</v>
+      </c>
+      <c r="KP34" s="25"/>
     </row>
-    <row r="35" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -30461,12 +30674,15 @@
       <c r="KM35" s="7">
         <v>205646</v>
       </c>
-      <c r="KN35" s="8">
+      <c r="KN35" s="7">
         <v>206630</v>
       </c>
-      <c r="KO35" s="25"/>
+      <c r="KO35" s="8">
+        <v>204700</v>
+      </c>
+      <c r="KP35" s="25"/>
     </row>
-    <row r="36" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -31648,32 +31864,25 @@
       <c r="KM36" s="9">
         <v>47</v>
       </c>
-      <c r="KN36" s="10">
+      <c r="KN36" s="9">
         <v>36</v>
       </c>
-      <c r="KO36" s="25"/>
+      <c r="KO36" s="10">
+        <v>32</v>
+      </c>
+      <c r="KP36" s="25"/>
     </row>
-    <row r="37" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:302" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:301" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:302" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
-    <mergeCell ref="KD5:KN5"/>
+    <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -31689,6 +31898,16 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - diciembre 2022</t>
+    <t>Enero 1998 - enero 2023</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -440,6 +440,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,7 +735,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JX1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KP23" sqref="KP23"/>
+      <selection pane="topRight" activeCell="KQ13" sqref="KQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -859,7 +869,8 @@
     <col min="299" max="299" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="300" max="300" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="301" max="301" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="302" max="16384" width="11.375" style="2"/>
+    <col min="302" max="302" width="10" style="2" customWidth="1"/>
+    <col min="303" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:303" x14ac:dyDescent="0.25">
@@ -882,341 +893,341 @@
       <c r="A5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="42">
         <v>1998</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42">
         <v>1999</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42">
         <v>2000</v>
       </c>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37">
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42">
         <v>2001</v>
       </c>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37">
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42">
         <v>2002</v>
       </c>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37">
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42">
         <v>2003</v>
       </c>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="37"/>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="37"/>
-      <c r="BU5" s="37"/>
-      <c r="BV5" s="37">
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="42"/>
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="42"/>
+      <c r="BV5" s="42">
         <v>2004</v>
       </c>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="37"/>
-      <c r="BY5" s="37"/>
-      <c r="BZ5" s="37"/>
-      <c r="CA5" s="37"/>
-      <c r="CB5" s="37"/>
-      <c r="CC5" s="37"/>
-      <c r="CD5" s="37"/>
-      <c r="CE5" s="37"/>
-      <c r="CF5" s="37"/>
-      <c r="CG5" s="37"/>
-      <c r="CH5" s="37">
+      <c r="BW5" s="42"/>
+      <c r="BX5" s="42"/>
+      <c r="BY5" s="42"/>
+      <c r="BZ5" s="42"/>
+      <c r="CA5" s="42"/>
+      <c r="CB5" s="42"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42">
         <v>2005</v>
       </c>
-      <c r="CI5" s="37"/>
-      <c r="CJ5" s="37"/>
-      <c r="CK5" s="37"/>
-      <c r="CL5" s="37"/>
-      <c r="CM5" s="37"/>
-      <c r="CN5" s="37"/>
-      <c r="CO5" s="37"/>
-      <c r="CP5" s="37"/>
-      <c r="CQ5" s="37"/>
-      <c r="CR5" s="37"/>
-      <c r="CS5" s="37"/>
-      <c r="CT5" s="37">
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="42"/>
+      <c r="CM5" s="42"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="42"/>
+      <c r="CT5" s="42">
         <v>2006</v>
       </c>
-      <c r="CU5" s="37"/>
-      <c r="CV5" s="37"/>
-      <c r="CW5" s="37"/>
-      <c r="CX5" s="37"/>
-      <c r="CY5" s="37"/>
-      <c r="CZ5" s="37"/>
-      <c r="DA5" s="37"/>
-      <c r="DB5" s="37"/>
-      <c r="DC5" s="37"/>
-      <c r="DD5" s="37"/>
-      <c r="DE5" s="37"/>
-      <c r="DF5" s="37">
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
+      <c r="CW5" s="42"/>
+      <c r="CX5" s="42"/>
+      <c r="CY5" s="42"/>
+      <c r="CZ5" s="42"/>
+      <c r="DA5" s="42"/>
+      <c r="DB5" s="42"/>
+      <c r="DC5" s="42"/>
+      <c r="DD5" s="42"/>
+      <c r="DE5" s="42"/>
+      <c r="DF5" s="42">
         <v>2007</v>
       </c>
-      <c r="DG5" s="37"/>
-      <c r="DH5" s="37"/>
-      <c r="DI5" s="37"/>
-      <c r="DJ5" s="37"/>
-      <c r="DK5" s="37"/>
-      <c r="DL5" s="37"/>
-      <c r="DM5" s="37"/>
-      <c r="DN5" s="37"/>
-      <c r="DO5" s="37"/>
-      <c r="DP5" s="37"/>
-      <c r="DQ5" s="37"/>
-      <c r="DR5" s="37">
+      <c r="DG5" s="42"/>
+      <c r="DH5" s="42"/>
+      <c r="DI5" s="42"/>
+      <c r="DJ5" s="42"/>
+      <c r="DK5" s="42"/>
+      <c r="DL5" s="42"/>
+      <c r="DM5" s="42"/>
+      <c r="DN5" s="42"/>
+      <c r="DO5" s="42"/>
+      <c r="DP5" s="42"/>
+      <c r="DQ5" s="42"/>
+      <c r="DR5" s="42">
         <v>2008</v>
       </c>
-      <c r="DS5" s="37"/>
-      <c r="DT5" s="37"/>
-      <c r="DU5" s="37"/>
-      <c r="DV5" s="37"/>
-      <c r="DW5" s="37"/>
-      <c r="DX5" s="37"/>
-      <c r="DY5" s="37"/>
-      <c r="DZ5" s="37"/>
-      <c r="EA5" s="37"/>
-      <c r="EB5" s="37"/>
-      <c r="EC5" s="37"/>
-      <c r="ED5" s="37">
+      <c r="DS5" s="42"/>
+      <c r="DT5" s="42"/>
+      <c r="DU5" s="42"/>
+      <c r="DV5" s="42"/>
+      <c r="DW5" s="42"/>
+      <c r="DX5" s="42"/>
+      <c r="DY5" s="42"/>
+      <c r="DZ5" s="42"/>
+      <c r="EA5" s="42"/>
+      <c r="EB5" s="42"/>
+      <c r="EC5" s="42"/>
+      <c r="ED5" s="42">
         <v>2009</v>
       </c>
-      <c r="EE5" s="37"/>
-      <c r="EF5" s="37"/>
-      <c r="EG5" s="37"/>
-      <c r="EH5" s="37"/>
-      <c r="EI5" s="37"/>
-      <c r="EJ5" s="37"/>
-      <c r="EK5" s="37"/>
-      <c r="EL5" s="37"/>
-      <c r="EM5" s="37"/>
-      <c r="EN5" s="37"/>
-      <c r="EO5" s="37"/>
-      <c r="EP5" s="37">
+      <c r="EE5" s="42"/>
+      <c r="EF5" s="42"/>
+      <c r="EG5" s="42"/>
+      <c r="EH5" s="42"/>
+      <c r="EI5" s="42"/>
+      <c r="EJ5" s="42"/>
+      <c r="EK5" s="42"/>
+      <c r="EL5" s="42"/>
+      <c r="EM5" s="42"/>
+      <c r="EN5" s="42"/>
+      <c r="EO5" s="42"/>
+      <c r="EP5" s="42">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="37"/>
-      <c r="ER5" s="37"/>
-      <c r="ES5" s="37"/>
-      <c r="ET5" s="37"/>
-      <c r="EU5" s="37"/>
-      <c r="EV5" s="37"/>
-      <c r="EW5" s="37"/>
-      <c r="EX5" s="37"/>
-      <c r="EY5" s="37"/>
-      <c r="EZ5" s="37"/>
-      <c r="FA5" s="37"/>
-      <c r="FB5" s="37">
+      <c r="EQ5" s="42"/>
+      <c r="ER5" s="42"/>
+      <c r="ES5" s="42"/>
+      <c r="ET5" s="42"/>
+      <c r="EU5" s="42"/>
+      <c r="EV5" s="42"/>
+      <c r="EW5" s="42"/>
+      <c r="EX5" s="42"/>
+      <c r="EY5" s="42"/>
+      <c r="EZ5" s="42"/>
+      <c r="FA5" s="42"/>
+      <c r="FB5" s="42">
         <v>2011</v>
       </c>
-      <c r="FC5" s="37"/>
-      <c r="FD5" s="37"/>
-      <c r="FE5" s="37"/>
-      <c r="FF5" s="37"/>
-      <c r="FG5" s="37"/>
-      <c r="FH5" s="37"/>
-      <c r="FI5" s="37"/>
-      <c r="FJ5" s="37"/>
-      <c r="FK5" s="37"/>
-      <c r="FL5" s="37"/>
-      <c r="FM5" s="37"/>
-      <c r="FN5" s="37">
+      <c r="FC5" s="42"/>
+      <c r="FD5" s="42"/>
+      <c r="FE5" s="42"/>
+      <c r="FF5" s="42"/>
+      <c r="FG5" s="42"/>
+      <c r="FH5" s="42"/>
+      <c r="FI5" s="42"/>
+      <c r="FJ5" s="42"/>
+      <c r="FK5" s="42"/>
+      <c r="FL5" s="42"/>
+      <c r="FM5" s="42"/>
+      <c r="FN5" s="42">
         <v>2012</v>
       </c>
-      <c r="FO5" s="37"/>
-      <c r="FP5" s="37"/>
-      <c r="FQ5" s="37"/>
-      <c r="FR5" s="37"/>
-      <c r="FS5" s="37"/>
-      <c r="FT5" s="37"/>
-      <c r="FU5" s="37"/>
-      <c r="FV5" s="37"/>
-      <c r="FW5" s="37"/>
-      <c r="FX5" s="37"/>
-      <c r="FY5" s="37"/>
-      <c r="FZ5" s="37">
+      <c r="FO5" s="42"/>
+      <c r="FP5" s="42"/>
+      <c r="FQ5" s="42"/>
+      <c r="FR5" s="42"/>
+      <c r="FS5" s="42"/>
+      <c r="FT5" s="42"/>
+      <c r="FU5" s="42"/>
+      <c r="FV5" s="42"/>
+      <c r="FW5" s="42"/>
+      <c r="FX5" s="42"/>
+      <c r="FY5" s="42"/>
+      <c r="FZ5" s="42">
         <v>2013</v>
       </c>
-      <c r="GA5" s="37"/>
-      <c r="GB5" s="37"/>
-      <c r="GC5" s="37"/>
-      <c r="GD5" s="37"/>
-      <c r="GE5" s="37"/>
-      <c r="GF5" s="37"/>
-      <c r="GG5" s="37"/>
-      <c r="GH5" s="37"/>
-      <c r="GI5" s="37"/>
-      <c r="GJ5" s="37"/>
-      <c r="GK5" s="37"/>
-      <c r="GL5" s="37">
+      <c r="GA5" s="42"/>
+      <c r="GB5" s="42"/>
+      <c r="GC5" s="42"/>
+      <c r="GD5" s="42"/>
+      <c r="GE5" s="42"/>
+      <c r="GF5" s="42"/>
+      <c r="GG5" s="42"/>
+      <c r="GH5" s="42"/>
+      <c r="GI5" s="42"/>
+      <c r="GJ5" s="42"/>
+      <c r="GK5" s="42"/>
+      <c r="GL5" s="42">
         <v>2014</v>
       </c>
-      <c r="GM5" s="37"/>
-      <c r="GN5" s="37"/>
-      <c r="GO5" s="37"/>
-      <c r="GP5" s="37"/>
-      <c r="GQ5" s="37"/>
-      <c r="GR5" s="37"/>
-      <c r="GS5" s="37"/>
-      <c r="GT5" s="37"/>
-      <c r="GU5" s="37"/>
-      <c r="GV5" s="37"/>
-      <c r="GW5" s="37"/>
-      <c r="GX5" s="37">
+      <c r="GM5" s="42"/>
+      <c r="GN5" s="42"/>
+      <c r="GO5" s="42"/>
+      <c r="GP5" s="42"/>
+      <c r="GQ5" s="42"/>
+      <c r="GR5" s="42"/>
+      <c r="GS5" s="42"/>
+      <c r="GT5" s="42"/>
+      <c r="GU5" s="42"/>
+      <c r="GV5" s="42"/>
+      <c r="GW5" s="42"/>
+      <c r="GX5" s="42">
         <v>2015</v>
       </c>
-      <c r="GY5" s="37"/>
-      <c r="GZ5" s="37"/>
-      <c r="HA5" s="37"/>
-      <c r="HB5" s="37"/>
-      <c r="HC5" s="37"/>
-      <c r="HD5" s="37"/>
-      <c r="HE5" s="37"/>
-      <c r="HF5" s="37"/>
-      <c r="HG5" s="37"/>
-      <c r="HH5" s="37"/>
-      <c r="HI5" s="37"/>
-      <c r="HJ5" s="37">
+      <c r="GY5" s="42"/>
+      <c r="GZ5" s="42"/>
+      <c r="HA5" s="42"/>
+      <c r="HB5" s="42"/>
+      <c r="HC5" s="42"/>
+      <c r="HD5" s="42"/>
+      <c r="HE5" s="42"/>
+      <c r="HF5" s="42"/>
+      <c r="HG5" s="42"/>
+      <c r="HH5" s="42"/>
+      <c r="HI5" s="42"/>
+      <c r="HJ5" s="42">
         <v>2016</v>
       </c>
-      <c r="HK5" s="37"/>
-      <c r="HL5" s="37"/>
-      <c r="HM5" s="37"/>
-      <c r="HN5" s="37"/>
-      <c r="HO5" s="37"/>
-      <c r="HP5" s="37"/>
-      <c r="HQ5" s="37"/>
-      <c r="HR5" s="37"/>
-      <c r="HS5" s="37"/>
-      <c r="HT5" s="37"/>
-      <c r="HU5" s="37"/>
-      <c r="HV5" s="37">
+      <c r="HK5" s="42"/>
+      <c r="HL5" s="42"/>
+      <c r="HM5" s="42"/>
+      <c r="HN5" s="42"/>
+      <c r="HO5" s="42"/>
+      <c r="HP5" s="42"/>
+      <c r="HQ5" s="42"/>
+      <c r="HR5" s="42"/>
+      <c r="HS5" s="42"/>
+      <c r="HT5" s="42"/>
+      <c r="HU5" s="42"/>
+      <c r="HV5" s="42">
         <v>2017</v>
       </c>
-      <c r="HW5" s="37"/>
-      <c r="HX5" s="37"/>
-      <c r="HY5" s="37"/>
-      <c r="HZ5" s="37"/>
-      <c r="IA5" s="37"/>
-      <c r="IB5" s="37"/>
-      <c r="IC5" s="37"/>
-      <c r="ID5" s="37"/>
-      <c r="IE5" s="37"/>
-      <c r="IF5" s="37"/>
-      <c r="IG5" s="37"/>
-      <c r="IH5" s="37">
+      <c r="HW5" s="42"/>
+      <c r="HX5" s="42"/>
+      <c r="HY5" s="42"/>
+      <c r="HZ5" s="42"/>
+      <c r="IA5" s="42"/>
+      <c r="IB5" s="42"/>
+      <c r="IC5" s="42"/>
+      <c r="ID5" s="42"/>
+      <c r="IE5" s="42"/>
+      <c r="IF5" s="42"/>
+      <c r="IG5" s="42"/>
+      <c r="IH5" s="42">
         <v>2018</v>
       </c>
-      <c r="II5" s="37"/>
-      <c r="IJ5" s="37"/>
-      <c r="IK5" s="37"/>
-      <c r="IL5" s="37"/>
-      <c r="IM5" s="37"/>
-      <c r="IN5" s="37"/>
-      <c r="IO5" s="37"/>
-      <c r="IP5" s="37"/>
-      <c r="IQ5" s="37"/>
-      <c r="IR5" s="37"/>
-      <c r="IS5" s="37"/>
-      <c r="IT5" s="37">
+      <c r="II5" s="42"/>
+      <c r="IJ5" s="42"/>
+      <c r="IK5" s="42"/>
+      <c r="IL5" s="42"/>
+      <c r="IM5" s="42"/>
+      <c r="IN5" s="42"/>
+      <c r="IO5" s="42"/>
+      <c r="IP5" s="42"/>
+      <c r="IQ5" s="42"/>
+      <c r="IR5" s="42"/>
+      <c r="IS5" s="42"/>
+      <c r="IT5" s="42">
         <v>2019</v>
       </c>
-      <c r="IU5" s="37"/>
-      <c r="IV5" s="37"/>
-      <c r="IW5" s="37"/>
-      <c r="IX5" s="37"/>
-      <c r="IY5" s="37"/>
-      <c r="IZ5" s="37"/>
-      <c r="JA5" s="37"/>
-      <c r="JB5" s="37"/>
-      <c r="JC5" s="37"/>
-      <c r="JD5" s="37"/>
-      <c r="JE5" s="37"/>
-      <c r="JF5" s="37">
+      <c r="IU5" s="42"/>
+      <c r="IV5" s="42"/>
+      <c r="IW5" s="42"/>
+      <c r="IX5" s="42"/>
+      <c r="IY5" s="42"/>
+      <c r="IZ5" s="42"/>
+      <c r="JA5" s="42"/>
+      <c r="JB5" s="42"/>
+      <c r="JC5" s="42"/>
+      <c r="JD5" s="42"/>
+      <c r="JE5" s="42"/>
+      <c r="JF5" s="42">
         <v>2020</v>
       </c>
-      <c r="JG5" s="37"/>
-      <c r="JH5" s="37"/>
-      <c r="JI5" s="37"/>
-      <c r="JJ5" s="37"/>
-      <c r="JK5" s="37"/>
-      <c r="JL5" s="37"/>
-      <c r="JM5" s="37"/>
-      <c r="JN5" s="37"/>
-      <c r="JO5" s="37"/>
-      <c r="JP5" s="37"/>
-      <c r="JQ5" s="37"/>
-      <c r="JR5" s="37">
+      <c r="JG5" s="42"/>
+      <c r="JH5" s="42"/>
+      <c r="JI5" s="42"/>
+      <c r="JJ5" s="42"/>
+      <c r="JK5" s="42"/>
+      <c r="JL5" s="42"/>
+      <c r="JM5" s="42"/>
+      <c r="JN5" s="42"/>
+      <c r="JO5" s="42"/>
+      <c r="JP5" s="42"/>
+      <c r="JQ5" s="42"/>
+      <c r="JR5" s="42">
         <v>2021</v>
       </c>
-      <c r="JS5" s="37"/>
-      <c r="JT5" s="37"/>
-      <c r="JU5" s="37"/>
-      <c r="JV5" s="37"/>
-      <c r="JW5" s="37"/>
-      <c r="JX5" s="37"/>
-      <c r="JY5" s="37"/>
-      <c r="JZ5" s="37"/>
-      <c r="KA5" s="37"/>
-      <c r="KB5" s="37"/>
+      <c r="JS5" s="42"/>
+      <c r="JT5" s="42"/>
+      <c r="JU5" s="42"/>
+      <c r="JV5" s="42"/>
+      <c r="JW5" s="42"/>
+      <c r="JX5" s="42"/>
+      <c r="JY5" s="42"/>
+      <c r="JZ5" s="42"/>
+      <c r="KA5" s="42"/>
+      <c r="KB5" s="42"/>
       <c r="KC5" s="38"/>
       <c r="KD5" s="38">
         <v>2022</v>
@@ -1232,6 +1243,9 @@
       <c r="KM5" s="39"/>
       <c r="KN5" s="39"/>
       <c r="KO5" s="40"/>
+      <c r="KP5" s="37">
+        <v>2023</v>
+      </c>
     </row>
     <row r="6" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
@@ -2135,6 +2149,9 @@
       <c r="KO6" s="29" t="s">
         <v>22</v>
       </c>
+      <c r="KP6" s="43" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -3040,6 +3057,9 @@
       <c r="KO7" s="31">
         <v>1148621</v>
       </c>
+      <c r="KP7" s="44">
+        <v>1161946</v>
+      </c>
     </row>
     <row r="8" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -3945,6 +3965,9 @@
       <c r="KO8" s="8">
         <v>217661</v>
       </c>
+      <c r="KP8" s="45">
+        <v>220304</v>
+      </c>
     </row>
     <row r="9" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -4850,6 +4873,9 @@
       <c r="KO9" s="8">
         <v>29794</v>
       </c>
+      <c r="KP9" s="45">
+        <v>30069</v>
+      </c>
     </row>
     <row r="10" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -5755,6 +5781,9 @@
       <c r="KO10" s="8">
         <v>138548</v>
       </c>
+      <c r="KP10" s="45">
+        <v>140428</v>
+      </c>
     </row>
     <row r="11" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -6660,6 +6689,9 @@
       <c r="KO11" s="8">
         <v>178274</v>
       </c>
+      <c r="KP11" s="45">
+        <v>179430</v>
+      </c>
     </row>
     <row r="12" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -7565,6 +7597,9 @@
       <c r="KO12" s="8">
         <v>172953</v>
       </c>
+      <c r="KP12" s="45">
+        <v>176211</v>
+      </c>
     </row>
     <row r="13" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -8470,6 +8505,9 @@
       <c r="KO13" s="8">
         <v>153647</v>
       </c>
+      <c r="KP13" s="45">
+        <v>155450</v>
+      </c>
     </row>
     <row r="14" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -9375,7 +9413,9 @@
       <c r="KO14" s="8">
         <v>136042</v>
       </c>
-      <c r="KP14" s="26"/>
+      <c r="KP14" s="45">
+        <v>137574</v>
+      </c>
       <c r="KQ14" s="26"/>
     </row>
     <row r="15" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10282,7 +10322,9 @@
       <c r="KO15" s="8">
         <v>121675</v>
       </c>
-      <c r="KP15" s="26"/>
+      <c r="KP15" s="45">
+        <v>122453</v>
+      </c>
       <c r="KQ15" s="26"/>
     </row>
     <row r="16" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11189,7 +11231,9 @@
       <c r="KO16" s="10">
         <v>27</v>
       </c>
-      <c r="KP16" s="26"/>
+      <c r="KP16" s="46">
+        <v>27</v>
+      </c>
       <c r="KQ16" s="26"/>
     </row>
     <row r="17" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12096,7 +12140,9 @@
       <c r="KO17" s="31">
         <v>784341</v>
       </c>
-      <c r="KP17" s="27"/>
+      <c r="KP17" s="44">
+        <v>789310</v>
+      </c>
       <c r="KQ17" s="27"/>
     </row>
     <row r="18" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13003,7 +13049,9 @@
       <c r="KO18" s="8">
         <v>132857</v>
       </c>
-      <c r="KP18" s="26"/>
+      <c r="KP18" s="45">
+        <v>134701</v>
+      </c>
       <c r="KQ18" s="26"/>
     </row>
     <row r="19" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13910,7 +13958,9 @@
       <c r="KO19" s="8">
         <v>17570</v>
       </c>
-      <c r="KP19" s="26"/>
+      <c r="KP19" s="45">
+        <v>17375</v>
+      </c>
       <c r="KQ19" s="26"/>
     </row>
     <row r="20" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14817,7 +14867,9 @@
       <c r="KO20" s="8">
         <v>97134</v>
       </c>
-      <c r="KP20" s="26"/>
+      <c r="KP20" s="45">
+        <v>96989</v>
+      </c>
       <c r="KQ20" s="26"/>
     </row>
     <row r="21" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15724,7 +15776,9 @@
       <c r="KO21" s="8">
         <v>128281</v>
       </c>
-      <c r="KP21" s="26"/>
+      <c r="KP21" s="45">
+        <v>128282</v>
+      </c>
       <c r="KQ21" s="26"/>
     </row>
     <row r="22" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16631,7 +16685,9 @@
       <c r="KO22" s="8">
         <v>120640</v>
       </c>
-      <c r="KP22" s="26"/>
+      <c r="KP22" s="45">
+        <v>121771</v>
+      </c>
       <c r="KQ22" s="26"/>
     </row>
     <row r="23" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17538,7 +17594,9 @@
       <c r="KO23" s="8">
         <v>108560</v>
       </c>
-      <c r="KP23" s="26"/>
+      <c r="KP23" s="45">
+        <v>109520</v>
+      </c>
       <c r="KQ23" s="26"/>
     </row>
     <row r="24" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18445,6 +18503,9 @@
       <c r="KO24" s="8">
         <v>96269</v>
       </c>
+      <c r="KP24" s="45">
+        <v>97208</v>
+      </c>
     </row>
     <row r="25" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -19350,6 +19411,9 @@
       <c r="KO25" s="8">
         <v>83025</v>
       </c>
+      <c r="KP25" s="45">
+        <v>83457</v>
+      </c>
     </row>
     <row r="26" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
@@ -20255,6 +20319,9 @@
       <c r="KO26" s="10">
         <v>5</v>
       </c>
+      <c r="KP26" s="46">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
@@ -21160,7 +21227,10 @@
       <c r="KO27" s="33">
         <v>1932962</v>
       </c>
-      <c r="KP27" s="25"/>
+      <c r="KP27" s="47">
+        <v>1951256</v>
+      </c>
+      <c r="KQ27" s="25"/>
     </row>
     <row r="28" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -22350,7 +22420,10 @@
       <c r="KO28" s="8">
         <v>350518</v>
       </c>
-      <c r="KP28" s="25"/>
+      <c r="KP28" s="45">
+        <v>355005</v>
+      </c>
+      <c r="KQ28" s="25"/>
     </row>
     <row r="29" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -23540,7 +23613,10 @@
       <c r="KO29" s="8">
         <v>47364</v>
       </c>
-      <c r="KP29" s="25"/>
+      <c r="KP29" s="45">
+        <v>47444</v>
+      </c>
+      <c r="KQ29" s="25"/>
     </row>
     <row r="30" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -24730,7 +24806,10 @@
       <c r="KO30" s="8">
         <v>235682</v>
       </c>
-      <c r="KP30" s="25"/>
+      <c r="KP30" s="45">
+        <v>237417</v>
+      </c>
+      <c r="KQ30" s="25"/>
     </row>
     <row r="31" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
@@ -25920,7 +25999,10 @@
       <c r="KO31" s="8">
         <v>306555</v>
       </c>
-      <c r="KP31" s="25"/>
+      <c r="KP31" s="45">
+        <v>307712</v>
+      </c>
+      <c r="KQ31" s="25"/>
     </row>
     <row r="32" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -27110,9 +27192,12 @@
       <c r="KO32" s="8">
         <v>293593</v>
       </c>
-      <c r="KP32" s="25"/>
+      <c r="KP32" s="45">
+        <v>297982</v>
+      </c>
+      <c r="KQ32" s="25"/>
     </row>
-    <row r="33" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -28300,9 +28385,12 @@
       <c r="KO33" s="8">
         <v>262207</v>
       </c>
-      <c r="KP33" s="25"/>
+      <c r="KP33" s="45">
+        <v>264970</v>
+      </c>
+      <c r="KQ33" s="25"/>
     </row>
-    <row r="34" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -29490,9 +29578,12 @@
       <c r="KO34" s="8">
         <v>232311</v>
       </c>
-      <c r="KP34" s="25"/>
+      <c r="KP34" s="45">
+        <v>234782</v>
+      </c>
+      <c r="KQ34" s="25"/>
     </row>
-    <row r="35" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -30680,9 +30771,12 @@
       <c r="KO35" s="8">
         <v>204700</v>
       </c>
-      <c r="KP35" s="25"/>
+      <c r="KP35" s="45">
+        <v>205910</v>
+      </c>
+      <c r="KQ35" s="25"/>
     </row>
-    <row r="36" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -31870,18 +31964,31 @@
       <c r="KO36" s="10">
         <v>32</v>
       </c>
-      <c r="KP36" s="25"/>
+      <c r="KP36" s="46">
+        <v>34</v>
+      </c>
+      <c r="KQ36" s="25"/>
     </row>
-    <row r="37" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:303" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:302" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
@@ -31898,16 +32005,6 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabluados_imss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="ta_sexo_edad" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -408,8 +408,6 @@
     </xf>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,6 +426,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,16 +448,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,144 +731,144 @@
   <dimension ref="A1:KQ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JX1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="JZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KQ13" sqref="KQ13"/>
+      <selection pane="topRight" activeCell="KO38" sqref="KO38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="57" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="69" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="86" max="93" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="98" max="105" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="110" max="117" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="122" max="129" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="134" max="141" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="146" max="153" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="158" max="165" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="170" max="177" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="182" max="189" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="194" max="201" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="206" max="213" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="218" max="225" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="230" max="237" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="242" max="249" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="254" max="261" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="266" max="273" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="278" max="285" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="290" max="297" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="57" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="69" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="93" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="105" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="117" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="122" max="129" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="134" max="141" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="146" max="153" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="158" max="165" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="170" max="177" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="182" max="189" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="194" max="201" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="206" max="213" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="218" max="225" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="230" max="237" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="242" max="249" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="254" max="261" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="266" max="273" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="278" max="285" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="290" max="297" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="302" max="302" width="10" style="2" customWidth="1"/>
-    <col min="303" max="16384" width="11.375" style="2"/>
+    <col min="303" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:303" x14ac:dyDescent="0.25">
@@ -890,365 +888,365 @@
     </row>
     <row r="4" spans="1:303" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <v>1998</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41">
         <v>1999</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42">
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41">
         <v>2000</v>
       </c>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42">
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41">
         <v>2001</v>
       </c>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="42">
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41">
         <v>2002</v>
       </c>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="42"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42">
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41">
         <v>2003</v>
       </c>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="42"/>
-      <c r="BN5" s="42"/>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="42"/>
-      <c r="BQ5" s="42"/>
-      <c r="BR5" s="42"/>
-      <c r="BS5" s="42"/>
-      <c r="BT5" s="42"/>
-      <c r="BU5" s="42"/>
-      <c r="BV5" s="42">
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+      <c r="BV5" s="41">
         <v>2004</v>
       </c>
-      <c r="BW5" s="42"/>
-      <c r="BX5" s="42"/>
-      <c r="BY5" s="42"/>
-      <c r="BZ5" s="42"/>
-      <c r="CA5" s="42"/>
-      <c r="CB5" s="42"/>
-      <c r="CC5" s="42"/>
-      <c r="CD5" s="42"/>
-      <c r="CE5" s="42"/>
-      <c r="CF5" s="42"/>
-      <c r="CG5" s="42"/>
-      <c r="CH5" s="42">
+      <c r="BW5" s="41"/>
+      <c r="BX5" s="41"/>
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="41"/>
+      <c r="CA5" s="41"/>
+      <c r="CB5" s="41"/>
+      <c r="CC5" s="41"/>
+      <c r="CD5" s="41"/>
+      <c r="CE5" s="41"/>
+      <c r="CF5" s="41"/>
+      <c r="CG5" s="41"/>
+      <c r="CH5" s="41">
         <v>2005</v>
       </c>
-      <c r="CI5" s="42"/>
-      <c r="CJ5" s="42"/>
-      <c r="CK5" s="42"/>
-      <c r="CL5" s="42"/>
-      <c r="CM5" s="42"/>
-      <c r="CN5" s="42"/>
-      <c r="CO5" s="42"/>
-      <c r="CP5" s="42"/>
-      <c r="CQ5" s="42"/>
-      <c r="CR5" s="42"/>
-      <c r="CS5" s="42"/>
-      <c r="CT5" s="42">
+      <c r="CI5" s="41"/>
+      <c r="CJ5" s="41"/>
+      <c r="CK5" s="41"/>
+      <c r="CL5" s="41"/>
+      <c r="CM5" s="41"/>
+      <c r="CN5" s="41"/>
+      <c r="CO5" s="41"/>
+      <c r="CP5" s="41"/>
+      <c r="CQ5" s="41"/>
+      <c r="CR5" s="41"/>
+      <c r="CS5" s="41"/>
+      <c r="CT5" s="41">
         <v>2006</v>
       </c>
-      <c r="CU5" s="42"/>
-      <c r="CV5" s="42"/>
-      <c r="CW5" s="42"/>
-      <c r="CX5" s="42"/>
-      <c r="CY5" s="42"/>
-      <c r="CZ5" s="42"/>
-      <c r="DA5" s="42"/>
-      <c r="DB5" s="42"/>
-      <c r="DC5" s="42"/>
-      <c r="DD5" s="42"/>
-      <c r="DE5" s="42"/>
-      <c r="DF5" s="42">
+      <c r="CU5" s="41"/>
+      <c r="CV5" s="41"/>
+      <c r="CW5" s="41"/>
+      <c r="CX5" s="41"/>
+      <c r="CY5" s="41"/>
+      <c r="CZ5" s="41"/>
+      <c r="DA5" s="41"/>
+      <c r="DB5" s="41"/>
+      <c r="DC5" s="41"/>
+      <c r="DD5" s="41"/>
+      <c r="DE5" s="41"/>
+      <c r="DF5" s="41">
         <v>2007</v>
       </c>
-      <c r="DG5" s="42"/>
-      <c r="DH5" s="42"/>
-      <c r="DI5" s="42"/>
-      <c r="DJ5" s="42"/>
-      <c r="DK5" s="42"/>
-      <c r="DL5" s="42"/>
-      <c r="DM5" s="42"/>
-      <c r="DN5" s="42"/>
-      <c r="DO5" s="42"/>
-      <c r="DP5" s="42"/>
-      <c r="DQ5" s="42"/>
-      <c r="DR5" s="42">
+      <c r="DG5" s="41"/>
+      <c r="DH5" s="41"/>
+      <c r="DI5" s="41"/>
+      <c r="DJ5" s="41"/>
+      <c r="DK5" s="41"/>
+      <c r="DL5" s="41"/>
+      <c r="DM5" s="41"/>
+      <c r="DN5" s="41"/>
+      <c r="DO5" s="41"/>
+      <c r="DP5" s="41"/>
+      <c r="DQ5" s="41"/>
+      <c r="DR5" s="41">
         <v>2008</v>
       </c>
-      <c r="DS5" s="42"/>
-      <c r="DT5" s="42"/>
-      <c r="DU5" s="42"/>
-      <c r="DV5" s="42"/>
-      <c r="DW5" s="42"/>
-      <c r="DX5" s="42"/>
-      <c r="DY5" s="42"/>
-      <c r="DZ5" s="42"/>
-      <c r="EA5" s="42"/>
-      <c r="EB5" s="42"/>
-      <c r="EC5" s="42"/>
-      <c r="ED5" s="42">
+      <c r="DS5" s="41"/>
+      <c r="DT5" s="41"/>
+      <c r="DU5" s="41"/>
+      <c r="DV5" s="41"/>
+      <c r="DW5" s="41"/>
+      <c r="DX5" s="41"/>
+      <c r="DY5" s="41"/>
+      <c r="DZ5" s="41"/>
+      <c r="EA5" s="41"/>
+      <c r="EB5" s="41"/>
+      <c r="EC5" s="41"/>
+      <c r="ED5" s="41">
         <v>2009</v>
       </c>
-      <c r="EE5" s="42"/>
-      <c r="EF5" s="42"/>
-      <c r="EG5" s="42"/>
-      <c r="EH5" s="42"/>
-      <c r="EI5" s="42"/>
-      <c r="EJ5" s="42"/>
-      <c r="EK5" s="42"/>
-      <c r="EL5" s="42"/>
-      <c r="EM5" s="42"/>
-      <c r="EN5" s="42"/>
-      <c r="EO5" s="42"/>
-      <c r="EP5" s="42">
+      <c r="EE5" s="41"/>
+      <c r="EF5" s="41"/>
+      <c r="EG5" s="41"/>
+      <c r="EH5" s="41"/>
+      <c r="EI5" s="41"/>
+      <c r="EJ5" s="41"/>
+      <c r="EK5" s="41"/>
+      <c r="EL5" s="41"/>
+      <c r="EM5" s="41"/>
+      <c r="EN5" s="41"/>
+      <c r="EO5" s="41"/>
+      <c r="EP5" s="41">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="42"/>
-      <c r="ER5" s="42"/>
-      <c r="ES5" s="42"/>
-      <c r="ET5" s="42"/>
-      <c r="EU5" s="42"/>
-      <c r="EV5" s="42"/>
-      <c r="EW5" s="42"/>
-      <c r="EX5" s="42"/>
-      <c r="EY5" s="42"/>
-      <c r="EZ5" s="42"/>
-      <c r="FA5" s="42"/>
-      <c r="FB5" s="42">
+      <c r="EQ5" s="41"/>
+      <c r="ER5" s="41"/>
+      <c r="ES5" s="41"/>
+      <c r="ET5" s="41"/>
+      <c r="EU5" s="41"/>
+      <c r="EV5" s="41"/>
+      <c r="EW5" s="41"/>
+      <c r="EX5" s="41"/>
+      <c r="EY5" s="41"/>
+      <c r="EZ5" s="41"/>
+      <c r="FA5" s="41"/>
+      <c r="FB5" s="41">
         <v>2011</v>
       </c>
-      <c r="FC5" s="42"/>
-      <c r="FD5" s="42"/>
-      <c r="FE5" s="42"/>
-      <c r="FF5" s="42"/>
-      <c r="FG5" s="42"/>
-      <c r="FH5" s="42"/>
-      <c r="FI5" s="42"/>
-      <c r="FJ5" s="42"/>
-      <c r="FK5" s="42"/>
-      <c r="FL5" s="42"/>
-      <c r="FM5" s="42"/>
-      <c r="FN5" s="42">
+      <c r="FC5" s="41"/>
+      <c r="FD5" s="41"/>
+      <c r="FE5" s="41"/>
+      <c r="FF5" s="41"/>
+      <c r="FG5" s="41"/>
+      <c r="FH5" s="41"/>
+      <c r="FI5" s="41"/>
+      <c r="FJ5" s="41"/>
+      <c r="FK5" s="41"/>
+      <c r="FL5" s="41"/>
+      <c r="FM5" s="41"/>
+      <c r="FN5" s="41">
         <v>2012</v>
       </c>
-      <c r="FO5" s="42"/>
-      <c r="FP5" s="42"/>
-      <c r="FQ5" s="42"/>
-      <c r="FR5" s="42"/>
-      <c r="FS5" s="42"/>
-      <c r="FT5" s="42"/>
-      <c r="FU5" s="42"/>
-      <c r="FV5" s="42"/>
-      <c r="FW5" s="42"/>
-      <c r="FX5" s="42"/>
-      <c r="FY5" s="42"/>
-      <c r="FZ5" s="42">
+      <c r="FO5" s="41"/>
+      <c r="FP5" s="41"/>
+      <c r="FQ5" s="41"/>
+      <c r="FR5" s="41"/>
+      <c r="FS5" s="41"/>
+      <c r="FT5" s="41"/>
+      <c r="FU5" s="41"/>
+      <c r="FV5" s="41"/>
+      <c r="FW5" s="41"/>
+      <c r="FX5" s="41"/>
+      <c r="FY5" s="41"/>
+      <c r="FZ5" s="41">
         <v>2013</v>
       </c>
-      <c r="GA5" s="42"/>
-      <c r="GB5" s="42"/>
-      <c r="GC5" s="42"/>
-      <c r="GD5" s="42"/>
-      <c r="GE5" s="42"/>
-      <c r="GF5" s="42"/>
-      <c r="GG5" s="42"/>
-      <c r="GH5" s="42"/>
-      <c r="GI5" s="42"/>
-      <c r="GJ5" s="42"/>
-      <c r="GK5" s="42"/>
-      <c r="GL5" s="42">
+      <c r="GA5" s="41"/>
+      <c r="GB5" s="41"/>
+      <c r="GC5" s="41"/>
+      <c r="GD5" s="41"/>
+      <c r="GE5" s="41"/>
+      <c r="GF5" s="41"/>
+      <c r="GG5" s="41"/>
+      <c r="GH5" s="41"/>
+      <c r="GI5" s="41"/>
+      <c r="GJ5" s="41"/>
+      <c r="GK5" s="41"/>
+      <c r="GL5" s="41">
         <v>2014</v>
       </c>
-      <c r="GM5" s="42"/>
-      <c r="GN5" s="42"/>
-      <c r="GO5" s="42"/>
-      <c r="GP5" s="42"/>
-      <c r="GQ5" s="42"/>
-      <c r="GR5" s="42"/>
-      <c r="GS5" s="42"/>
-      <c r="GT5" s="42"/>
-      <c r="GU5" s="42"/>
-      <c r="GV5" s="42"/>
-      <c r="GW5" s="42"/>
-      <c r="GX5" s="42">
+      <c r="GM5" s="41"/>
+      <c r="GN5" s="41"/>
+      <c r="GO5" s="41"/>
+      <c r="GP5" s="41"/>
+      <c r="GQ5" s="41"/>
+      <c r="GR5" s="41"/>
+      <c r="GS5" s="41"/>
+      <c r="GT5" s="41"/>
+      <c r="GU5" s="41"/>
+      <c r="GV5" s="41"/>
+      <c r="GW5" s="41"/>
+      <c r="GX5" s="41">
         <v>2015</v>
       </c>
-      <c r="GY5" s="42"/>
-      <c r="GZ5" s="42"/>
-      <c r="HA5" s="42"/>
-      <c r="HB5" s="42"/>
-      <c r="HC5" s="42"/>
-      <c r="HD5" s="42"/>
-      <c r="HE5" s="42"/>
-      <c r="HF5" s="42"/>
-      <c r="HG5" s="42"/>
-      <c r="HH5" s="42"/>
-      <c r="HI5" s="42"/>
-      <c r="HJ5" s="42">
+      <c r="GY5" s="41"/>
+      <c r="GZ5" s="41"/>
+      <c r="HA5" s="41"/>
+      <c r="HB5" s="41"/>
+      <c r="HC5" s="41"/>
+      <c r="HD5" s="41"/>
+      <c r="HE5" s="41"/>
+      <c r="HF5" s="41"/>
+      <c r="HG5" s="41"/>
+      <c r="HH5" s="41"/>
+      <c r="HI5" s="41"/>
+      <c r="HJ5" s="41">
         <v>2016</v>
       </c>
-      <c r="HK5" s="42"/>
-      <c r="HL5" s="42"/>
-      <c r="HM5" s="42"/>
-      <c r="HN5" s="42"/>
-      <c r="HO5" s="42"/>
-      <c r="HP5" s="42"/>
-      <c r="HQ5" s="42"/>
-      <c r="HR5" s="42"/>
-      <c r="HS5" s="42"/>
-      <c r="HT5" s="42"/>
-      <c r="HU5" s="42"/>
-      <c r="HV5" s="42">
+      <c r="HK5" s="41"/>
+      <c r="HL5" s="41"/>
+      <c r="HM5" s="41"/>
+      <c r="HN5" s="41"/>
+      <c r="HO5" s="41"/>
+      <c r="HP5" s="41"/>
+      <c r="HQ5" s="41"/>
+      <c r="HR5" s="41"/>
+      <c r="HS5" s="41"/>
+      <c r="HT5" s="41"/>
+      <c r="HU5" s="41"/>
+      <c r="HV5" s="41">
         <v>2017</v>
       </c>
-      <c r="HW5" s="42"/>
-      <c r="HX5" s="42"/>
-      <c r="HY5" s="42"/>
-      <c r="HZ5" s="42"/>
-      <c r="IA5" s="42"/>
-      <c r="IB5" s="42"/>
-      <c r="IC5" s="42"/>
-      <c r="ID5" s="42"/>
-      <c r="IE5" s="42"/>
-      <c r="IF5" s="42"/>
-      <c r="IG5" s="42"/>
-      <c r="IH5" s="42">
+      <c r="HW5" s="41"/>
+      <c r="HX5" s="41"/>
+      <c r="HY5" s="41"/>
+      <c r="HZ5" s="41"/>
+      <c r="IA5" s="41"/>
+      <c r="IB5" s="41"/>
+      <c r="IC5" s="41"/>
+      <c r="ID5" s="41"/>
+      <c r="IE5" s="41"/>
+      <c r="IF5" s="41"/>
+      <c r="IG5" s="41"/>
+      <c r="IH5" s="41">
         <v>2018</v>
       </c>
-      <c r="II5" s="42"/>
-      <c r="IJ5" s="42"/>
-      <c r="IK5" s="42"/>
-      <c r="IL5" s="42"/>
-      <c r="IM5" s="42"/>
-      <c r="IN5" s="42"/>
-      <c r="IO5" s="42"/>
-      <c r="IP5" s="42"/>
-      <c r="IQ5" s="42"/>
-      <c r="IR5" s="42"/>
-      <c r="IS5" s="42"/>
-      <c r="IT5" s="42">
+      <c r="II5" s="41"/>
+      <c r="IJ5" s="41"/>
+      <c r="IK5" s="41"/>
+      <c r="IL5" s="41"/>
+      <c r="IM5" s="41"/>
+      <c r="IN5" s="41"/>
+      <c r="IO5" s="41"/>
+      <c r="IP5" s="41"/>
+      <c r="IQ5" s="41"/>
+      <c r="IR5" s="41"/>
+      <c r="IS5" s="41"/>
+      <c r="IT5" s="41">
         <v>2019</v>
       </c>
-      <c r="IU5" s="42"/>
-      <c r="IV5" s="42"/>
-      <c r="IW5" s="42"/>
-      <c r="IX5" s="42"/>
-      <c r="IY5" s="42"/>
-      <c r="IZ5" s="42"/>
-      <c r="JA5" s="42"/>
-      <c r="JB5" s="42"/>
-      <c r="JC5" s="42"/>
-      <c r="JD5" s="42"/>
-      <c r="JE5" s="42"/>
-      <c r="JF5" s="42">
+      <c r="IU5" s="41"/>
+      <c r="IV5" s="41"/>
+      <c r="IW5" s="41"/>
+      <c r="IX5" s="41"/>
+      <c r="IY5" s="41"/>
+      <c r="IZ5" s="41"/>
+      <c r="JA5" s="41"/>
+      <c r="JB5" s="41"/>
+      <c r="JC5" s="41"/>
+      <c r="JD5" s="41"/>
+      <c r="JE5" s="41"/>
+      <c r="JF5" s="41">
         <v>2020</v>
       </c>
-      <c r="JG5" s="42"/>
-      <c r="JH5" s="42"/>
-      <c r="JI5" s="42"/>
-      <c r="JJ5" s="42"/>
-      <c r="JK5" s="42"/>
-      <c r="JL5" s="42"/>
-      <c r="JM5" s="42"/>
-      <c r="JN5" s="42"/>
-      <c r="JO5" s="42"/>
-      <c r="JP5" s="42"/>
-      <c r="JQ5" s="42"/>
-      <c r="JR5" s="42">
+      <c r="JG5" s="41"/>
+      <c r="JH5" s="41"/>
+      <c r="JI5" s="41"/>
+      <c r="JJ5" s="41"/>
+      <c r="JK5" s="41"/>
+      <c r="JL5" s="41"/>
+      <c r="JM5" s="41"/>
+      <c r="JN5" s="41"/>
+      <c r="JO5" s="41"/>
+      <c r="JP5" s="41"/>
+      <c r="JQ5" s="41"/>
+      <c r="JR5" s="41">
         <v>2021</v>
       </c>
-      <c r="JS5" s="42"/>
-      <c r="JT5" s="42"/>
-      <c r="JU5" s="42"/>
-      <c r="JV5" s="42"/>
-      <c r="JW5" s="42"/>
-      <c r="JX5" s="42"/>
-      <c r="JY5" s="42"/>
-      <c r="JZ5" s="42"/>
-      <c r="KA5" s="42"/>
-      <c r="KB5" s="42"/>
-      <c r="KC5" s="38"/>
-      <c r="KD5" s="38">
+      <c r="JS5" s="41"/>
+      <c r="JT5" s="41"/>
+      <c r="JU5" s="41"/>
+      <c r="JV5" s="41"/>
+      <c r="JW5" s="41"/>
+      <c r="JX5" s="41"/>
+      <c r="JY5" s="41"/>
+      <c r="JZ5" s="41"/>
+      <c r="KA5" s="41"/>
+      <c r="KB5" s="41"/>
+      <c r="KC5" s="42"/>
+      <c r="KD5" s="42">
         <v>2022</v>
       </c>
-      <c r="KE5" s="39"/>
-      <c r="KF5" s="39"/>
-      <c r="KG5" s="39"/>
-      <c r="KH5" s="39"/>
-      <c r="KI5" s="39"/>
-      <c r="KJ5" s="39"/>
-      <c r="KK5" s="39"/>
-      <c r="KL5" s="39"/>
-      <c r="KM5" s="39"/>
-      <c r="KN5" s="39"/>
-      <c r="KO5" s="40"/>
-      <c r="KP5" s="37">
+      <c r="KE5" s="43"/>
+      <c r="KF5" s="43"/>
+      <c r="KG5" s="43"/>
+      <c r="KH5" s="43"/>
+      <c r="KI5" s="43"/>
+      <c r="KJ5" s="43"/>
+      <c r="KK5" s="43"/>
+      <c r="KL5" s="43"/>
+      <c r="KM5" s="43"/>
+      <c r="KN5" s="43"/>
+      <c r="KO5" s="44"/>
+      <c r="KP5" s="35">
         <v>2023</v>
       </c>
     </row>
     <row r="6" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2113,44 +2111,47 @@
       <c r="KC6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="KD6" s="28" t="s">
+      <c r="KD6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="KE6" s="34" t="s">
+      <c r="KE6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="KF6" s="34" t="s">
+      <c r="KF6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="KG6" s="34" t="s">
+      <c r="KG6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="KH6" s="34" t="s">
+      <c r="KH6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="KI6" s="34" t="s">
+      <c r="KI6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="KJ6" s="34" t="s">
+      <c r="KJ6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="KK6" s="34" t="s">
+      <c r="KK6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="KL6" s="34" t="s">
+      <c r="KL6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="KM6" s="34" t="s">
+      <c r="KM6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="KN6" s="34" t="s">
+      <c r="KN6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="KO6" s="29" t="s">
+      <c r="KO6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="KP6" s="43" t="s">
+      <c r="KP6" s="36" t="s">
         <v>11</v>
+      </c>
+      <c r="KQ6" s="36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3021,44 +3022,48 @@
       <c r="KC7" s="5">
         <v>1110209</v>
       </c>
-      <c r="KD7" s="30">
+      <c r="KD7" s="28">
         <v>1117867</v>
       </c>
-      <c r="KE7" s="35">
+      <c r="KE7" s="33">
         <v>1125481</v>
       </c>
-      <c r="KF7" s="35">
+      <c r="KF7" s="33">
         <v>1131739</v>
       </c>
-      <c r="KG7" s="35">
+      <c r="KG7" s="33">
         <v>1129276</v>
       </c>
-      <c r="KH7" s="35">
+      <c r="KH7" s="33">
         <v>1129263</v>
       </c>
-      <c r="KI7" s="35">
+      <c r="KI7" s="33">
         <v>1131782</v>
       </c>
-      <c r="KJ7" s="35">
+      <c r="KJ7" s="33">
         <v>1131513</v>
       </c>
-      <c r="KK7" s="35">
+      <c r="KK7" s="33">
         <v>1138325</v>
       </c>
-      <c r="KL7" s="35">
+      <c r="KL7" s="33">
         <v>1147074</v>
       </c>
-      <c r="KM7" s="35">
+      <c r="KM7" s="33">
         <v>1160441</v>
       </c>
-      <c r="KN7" s="35">
+      <c r="KN7" s="33">
         <v>1164860</v>
       </c>
-      <c r="KO7" s="31">
+      <c r="KO7" s="29">
         <v>1148621</v>
       </c>
-      <c r="KP7" s="44">
+      <c r="KP7" s="37">
         <v>1161946</v>
+      </c>
+      <c r="KQ7" s="37">
+        <f>SUM(KQ8:KQ16)</f>
+        <v>1169020</v>
       </c>
     </row>
     <row r="8" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3965,8 +3970,11 @@
       <c r="KO8" s="8">
         <v>217661</v>
       </c>
-      <c r="KP8" s="45">
+      <c r="KP8" s="38">
         <v>220304</v>
+      </c>
+      <c r="KQ8" s="38">
+        <v>221959</v>
       </c>
     </row>
     <row r="9" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4873,8 +4881,11 @@
       <c r="KO9" s="8">
         <v>29794</v>
       </c>
-      <c r="KP9" s="45">
+      <c r="KP9" s="38">
         <v>30069</v>
+      </c>
+      <c r="KQ9" s="38">
+        <v>30619</v>
       </c>
     </row>
     <row r="10" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5781,8 +5792,11 @@
       <c r="KO10" s="8">
         <v>138548</v>
       </c>
-      <c r="KP10" s="45">
+      <c r="KP10" s="38">
         <v>140428</v>
+      </c>
+      <c r="KQ10" s="38">
+        <v>141591</v>
       </c>
     </row>
     <row r="11" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6689,8 +6703,11 @@
       <c r="KO11" s="8">
         <v>178274</v>
       </c>
-      <c r="KP11" s="45">
+      <c r="KP11" s="38">
         <v>179430</v>
+      </c>
+      <c r="KQ11" s="38">
+        <v>180216</v>
       </c>
     </row>
     <row r="12" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7597,8 +7614,11 @@
       <c r="KO12" s="8">
         <v>172953</v>
       </c>
-      <c r="KP12" s="45">
+      <c r="KP12" s="38">
         <v>176211</v>
+      </c>
+      <c r="KQ12" s="38">
+        <v>177175</v>
       </c>
     </row>
     <row r="13" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8505,8 +8525,11 @@
       <c r="KO13" s="8">
         <v>153647</v>
       </c>
-      <c r="KP13" s="45">
+      <c r="KP13" s="38">
         <v>155450</v>
+      </c>
+      <c r="KQ13" s="38">
+        <v>156140</v>
       </c>
     </row>
     <row r="14" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9413,10 +9436,12 @@
       <c r="KO14" s="8">
         <v>136042</v>
       </c>
-      <c r="KP14" s="45">
+      <c r="KP14" s="38">
         <v>137574</v>
       </c>
-      <c r="KQ14" s="26"/>
+      <c r="KQ14" s="38">
+        <v>138320</v>
+      </c>
     </row>
     <row r="15" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -10322,10 +10347,12 @@
       <c r="KO15" s="8">
         <v>121675</v>
       </c>
-      <c r="KP15" s="45">
+      <c r="KP15" s="38">
         <v>122453</v>
       </c>
-      <c r="KQ15" s="26"/>
+      <c r="KQ15" s="38">
+        <v>122973</v>
+      </c>
     </row>
     <row r="16" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -11231,10 +11258,12 @@
       <c r="KO16" s="10">
         <v>27</v>
       </c>
-      <c r="KP16" s="46">
+      <c r="KP16" s="39">
         <v>27</v>
       </c>
-      <c r="KQ16" s="26"/>
+      <c r="KQ16" s="39">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -12104,46 +12133,49 @@
       <c r="KC17" s="5">
         <v>739790</v>
       </c>
-      <c r="KD17" s="30">
+      <c r="KD17" s="28">
         <v>743292</v>
       </c>
-      <c r="KE17" s="35">
+      <c r="KE17" s="33">
         <v>749141</v>
       </c>
-      <c r="KF17" s="35">
+      <c r="KF17" s="33">
         <v>755037</v>
       </c>
-      <c r="KG17" s="35">
+      <c r="KG17" s="33">
         <v>755439</v>
       </c>
-      <c r="KH17" s="35">
+      <c r="KH17" s="33">
         <v>758969</v>
       </c>
-      <c r="KI17" s="35">
+      <c r="KI17" s="33">
         <v>764973</v>
       </c>
-      <c r="KJ17" s="35">
+      <c r="KJ17" s="33">
         <v>765004</v>
       </c>
-      <c r="KK17" s="35">
+      <c r="KK17" s="33">
         <v>772302</v>
       </c>
-      <c r="KL17" s="35">
+      <c r="KL17" s="33">
         <v>780573</v>
       </c>
-      <c r="KM17" s="35">
+      <c r="KM17" s="33">
         <v>790500</v>
       </c>
-      <c r="KN17" s="35">
+      <c r="KN17" s="33">
         <v>795650</v>
       </c>
-      <c r="KO17" s="31">
+      <c r="KO17" s="29">
         <v>784341</v>
       </c>
-      <c r="KP17" s="44">
+      <c r="KP17" s="37">
         <v>789310</v>
       </c>
-      <c r="KQ17" s="27"/>
+      <c r="KQ17" s="37">
+        <f>SUM(KQ18:KQ26)</f>
+        <v>795499</v>
+      </c>
     </row>
     <row r="18" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -13049,10 +13081,12 @@
       <c r="KO18" s="8">
         <v>132857</v>
       </c>
-      <c r="KP18" s="45">
+      <c r="KP18" s="38">
         <v>134701</v>
       </c>
-      <c r="KQ18" s="26"/>
+      <c r="KQ18" s="38">
+        <v>136039</v>
+      </c>
     </row>
     <row r="19" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -13958,10 +13992,12 @@
       <c r="KO19" s="8">
         <v>17570</v>
       </c>
-      <c r="KP19" s="45">
+      <c r="KP19" s="38">
         <v>17375</v>
       </c>
-      <c r="KQ19" s="26"/>
+      <c r="KQ19" s="38">
+        <v>17774</v>
+      </c>
     </row>
     <row r="20" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -14867,10 +14903,12 @@
       <c r="KO20" s="8">
         <v>97134</v>
       </c>
-      <c r="KP20" s="45">
+      <c r="KP20" s="38">
         <v>96989</v>
       </c>
-      <c r="KQ20" s="26"/>
+      <c r="KQ20" s="38">
+        <v>98011</v>
+      </c>
     </row>
     <row r="21" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -15776,10 +15814,12 @@
       <c r="KO21" s="8">
         <v>128281</v>
       </c>
-      <c r="KP21" s="45">
+      <c r="KP21" s="38">
         <v>128282</v>
       </c>
-      <c r="KQ21" s="26"/>
+      <c r="KQ21" s="38">
+        <v>129211</v>
+      </c>
     </row>
     <row r="22" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -16685,10 +16725,12 @@
       <c r="KO22" s="8">
         <v>120640</v>
       </c>
-      <c r="KP22" s="45">
+      <c r="KP22" s="38">
         <v>121771</v>
       </c>
-      <c r="KQ22" s="26"/>
+      <c r="KQ22" s="38">
+        <v>122466</v>
+      </c>
     </row>
     <row r="23" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -17594,10 +17636,12 @@
       <c r="KO23" s="8">
         <v>108560</v>
       </c>
-      <c r="KP23" s="45">
+      <c r="KP23" s="38">
         <v>109520</v>
       </c>
-      <c r="KQ23" s="26"/>
+      <c r="KQ23" s="38">
+        <v>110163</v>
+      </c>
     </row>
     <row r="24" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
@@ -18503,8 +18547,11 @@
       <c r="KO24" s="8">
         <v>96269</v>
       </c>
-      <c r="KP24" s="45">
+      <c r="KP24" s="38">
         <v>97208</v>
+      </c>
+      <c r="KQ24" s="38">
+        <v>97788</v>
       </c>
     </row>
     <row r="25" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -19411,8 +19458,11 @@
       <c r="KO25" s="8">
         <v>83025</v>
       </c>
-      <c r="KP25" s="45">
+      <c r="KP25" s="38">
         <v>83457</v>
+      </c>
+      <c r="KQ25" s="38">
+        <v>84040</v>
       </c>
     </row>
     <row r="26" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -20319,7 +20369,10 @@
       <c r="KO26" s="10">
         <v>5</v>
       </c>
-      <c r="KP26" s="46">
+      <c r="KP26" s="39">
+        <v>7</v>
+      </c>
+      <c r="KQ26" s="39">
         <v>7</v>
       </c>
     </row>
@@ -21191,46 +21244,48 @@
       <c r="KC27" s="11">
         <v>1849999</v>
       </c>
-      <c r="KD27" s="32">
+      <c r="KD27" s="30">
         <v>1861159</v>
       </c>
-      <c r="KE27" s="36">
+      <c r="KE27" s="34">
         <v>1874622</v>
       </c>
-      <c r="KF27" s="36">
+      <c r="KF27" s="34">
         <v>1886776</v>
       </c>
-      <c r="KG27" s="36">
+      <c r="KG27" s="34">
         <v>1884715</v>
       </c>
-      <c r="KH27" s="36">
+      <c r="KH27" s="34">
         <v>1888232</v>
       </c>
-      <c r="KI27" s="36">
+      <c r="KI27" s="34">
         <v>1896755</v>
       </c>
-      <c r="KJ27" s="36">
+      <c r="KJ27" s="34">
         <v>1896517</v>
       </c>
-      <c r="KK27" s="36">
+      <c r="KK27" s="34">
         <v>1910627</v>
       </c>
-      <c r="KL27" s="36">
+      <c r="KL27" s="34">
         <v>1927647</v>
       </c>
-      <c r="KM27" s="36">
+      <c r="KM27" s="34">
         <v>1950941</v>
       </c>
-      <c r="KN27" s="36">
+      <c r="KN27" s="34">
         <v>1960510</v>
       </c>
-      <c r="KO27" s="33">
+      <c r="KO27" s="31">
         <v>1932962</v>
       </c>
-      <c r="KP27" s="47">
+      <c r="KP27" s="40">
         <v>1951256</v>
       </c>
-      <c r="KQ27" s="25"/>
+      <c r="KQ27" s="40">
+        <v>1964519</v>
+      </c>
     </row>
     <row r="28" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -22420,10 +22475,12 @@
       <c r="KO28" s="8">
         <v>350518</v>
       </c>
-      <c r="KP28" s="45">
+      <c r="KP28" s="38">
         <v>355005</v>
       </c>
-      <c r="KQ28" s="25"/>
+      <c r="KQ28" s="38">
+        <v>357998</v>
+      </c>
     </row>
     <row r="29" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -23613,10 +23670,12 @@
       <c r="KO29" s="8">
         <v>47364</v>
       </c>
-      <c r="KP29" s="45">
+      <c r="KP29" s="38">
         <v>47444</v>
       </c>
-      <c r="KQ29" s="25"/>
+      <c r="KQ29" s="38">
+        <v>48393</v>
+      </c>
     </row>
     <row r="30" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -24806,10 +24865,12 @@
       <c r="KO30" s="8">
         <v>235682</v>
       </c>
-      <c r="KP30" s="45">
+      <c r="KP30" s="38">
         <v>237417</v>
       </c>
-      <c r="KQ30" s="25"/>
+      <c r="KQ30" s="38">
+        <v>239602</v>
+      </c>
     </row>
     <row r="31" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
@@ -25999,10 +26060,12 @@
       <c r="KO31" s="8">
         <v>306555</v>
       </c>
-      <c r="KP31" s="45">
+      <c r="KP31" s="38">
         <v>307712</v>
       </c>
-      <c r="KQ31" s="25"/>
+      <c r="KQ31" s="38">
+        <v>309427</v>
+      </c>
     </row>
     <row r="32" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -27192,10 +27255,12 @@
       <c r="KO32" s="8">
         <v>293593</v>
       </c>
-      <c r="KP32" s="45">
+      <c r="KP32" s="38">
         <v>297982</v>
       </c>
-      <c r="KQ32" s="25"/>
+      <c r="KQ32" s="38">
+        <v>299641</v>
+      </c>
     </row>
     <row r="33" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -28385,10 +28450,12 @@
       <c r="KO33" s="8">
         <v>262207</v>
       </c>
-      <c r="KP33" s="45">
+      <c r="KP33" s="38">
         <v>264970</v>
       </c>
-      <c r="KQ33" s="25"/>
+      <c r="KQ33" s="38">
+        <v>266303</v>
+      </c>
     </row>
     <row r="34" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
@@ -29578,10 +29645,12 @@
       <c r="KO34" s="8">
         <v>232311</v>
       </c>
-      <c r="KP34" s="45">
+      <c r="KP34" s="38">
         <v>234782</v>
       </c>
-      <c r="KQ34" s="25"/>
+      <c r="KQ34" s="38">
+        <v>236108</v>
+      </c>
     </row>
     <row r="35" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -30771,10 +30840,12 @@
       <c r="KO35" s="8">
         <v>204700</v>
       </c>
-      <c r="KP35" s="45">
+      <c r="KP35" s="38">
         <v>205910</v>
       </c>
-      <c r="KQ35" s="25"/>
+      <c r="KQ35" s="38">
+        <v>207013</v>
+      </c>
     </row>
     <row r="36" spans="1:303" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
@@ -31964,10 +32035,12 @@
       <c r="KO36" s="10">
         <v>32</v>
       </c>
-      <c r="KP36" s="46">
+      <c r="KP36" s="39">
         <v>34</v>
       </c>
-      <c r="KQ36" s="25"/>
+      <c r="KQ36" s="39">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="1:303" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
@@ -31979,16 +32052,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
@@ -32005,6 +32068,16 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - enero 2023</t>
+    <t>Enero 1998 - marzo 2023</t>
   </si>
 </sst>
 </file>
@@ -423,9 +423,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,12 +728,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KQ38"/>
+  <dimension ref="A1:KR38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JZ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KA1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KO38" sqref="KO38"/>
+      <selection pane="topRight" activeCell="KS10" sqref="KS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,382 +871,388 @@
     <col min="303" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:303" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+    <row r="4" spans="1:304" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:304" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="45">
         <v>1998</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45">
         <v>1999</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41">
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45">
         <v>2000</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41">
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45">
         <v>2001</v>
       </c>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41">
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45">
         <v>2002</v>
       </c>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41">
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45">
         <v>2003</v>
       </c>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="41">
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="45"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="45"/>
+      <c r="BV5" s="45">
         <v>2004</v>
       </c>
-      <c r="BW5" s="41"/>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="41"/>
-      <c r="CB5" s="41"/>
-      <c r="CC5" s="41"/>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="41"/>
-      <c r="CF5" s="41"/>
-      <c r="CG5" s="41"/>
-      <c r="CH5" s="41">
+      <c r="BW5" s="45"/>
+      <c r="BX5" s="45"/>
+      <c r="BY5" s="45"/>
+      <c r="BZ5" s="45"/>
+      <c r="CA5" s="45"/>
+      <c r="CB5" s="45"/>
+      <c r="CC5" s="45"/>
+      <c r="CD5" s="45"/>
+      <c r="CE5" s="45"/>
+      <c r="CF5" s="45"/>
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="45">
         <v>2005</v>
       </c>
-      <c r="CI5" s="41"/>
-      <c r="CJ5" s="41"/>
-      <c r="CK5" s="41"/>
-      <c r="CL5" s="41"/>
-      <c r="CM5" s="41"/>
-      <c r="CN5" s="41"/>
-      <c r="CO5" s="41"/>
-      <c r="CP5" s="41"/>
-      <c r="CQ5" s="41"/>
-      <c r="CR5" s="41"/>
-      <c r="CS5" s="41"/>
-      <c r="CT5" s="41">
+      <c r="CI5" s="45"/>
+      <c r="CJ5" s="45"/>
+      <c r="CK5" s="45"/>
+      <c r="CL5" s="45"/>
+      <c r="CM5" s="45"/>
+      <c r="CN5" s="45"/>
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="45"/>
+      <c r="CQ5" s="45"/>
+      <c r="CR5" s="45"/>
+      <c r="CS5" s="45"/>
+      <c r="CT5" s="45">
         <v>2006</v>
       </c>
-      <c r="CU5" s="41"/>
-      <c r="CV5" s="41"/>
-      <c r="CW5" s="41"/>
-      <c r="CX5" s="41"/>
-      <c r="CY5" s="41"/>
-      <c r="CZ5" s="41"/>
-      <c r="DA5" s="41"/>
-      <c r="DB5" s="41"/>
-      <c r="DC5" s="41"/>
-      <c r="DD5" s="41"/>
-      <c r="DE5" s="41"/>
-      <c r="DF5" s="41">
+      <c r="CU5" s="45"/>
+      <c r="CV5" s="45"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="45"/>
+      <c r="CY5" s="45"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="45"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="45">
         <v>2007</v>
       </c>
-      <c r="DG5" s="41"/>
-      <c r="DH5" s="41"/>
-      <c r="DI5" s="41"/>
-      <c r="DJ5" s="41"/>
-      <c r="DK5" s="41"/>
-      <c r="DL5" s="41"/>
-      <c r="DM5" s="41"/>
-      <c r="DN5" s="41"/>
-      <c r="DO5" s="41"/>
-      <c r="DP5" s="41"/>
-      <c r="DQ5" s="41"/>
-      <c r="DR5" s="41">
+      <c r="DG5" s="45"/>
+      <c r="DH5" s="45"/>
+      <c r="DI5" s="45"/>
+      <c r="DJ5" s="45"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="45"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="45"/>
+      <c r="DQ5" s="45"/>
+      <c r="DR5" s="45">
         <v>2008</v>
       </c>
-      <c r="DS5" s="41"/>
-      <c r="DT5" s="41"/>
-      <c r="DU5" s="41"/>
-      <c r="DV5" s="41"/>
-      <c r="DW5" s="41"/>
-      <c r="DX5" s="41"/>
-      <c r="DY5" s="41"/>
-      <c r="DZ5" s="41"/>
-      <c r="EA5" s="41"/>
-      <c r="EB5" s="41"/>
-      <c r="EC5" s="41"/>
-      <c r="ED5" s="41">
+      <c r="DS5" s="45"/>
+      <c r="DT5" s="45"/>
+      <c r="DU5" s="45"/>
+      <c r="DV5" s="45"/>
+      <c r="DW5" s="45"/>
+      <c r="DX5" s="45"/>
+      <c r="DY5" s="45"/>
+      <c r="DZ5" s="45"/>
+      <c r="EA5" s="45"/>
+      <c r="EB5" s="45"/>
+      <c r="EC5" s="45"/>
+      <c r="ED5" s="45">
         <v>2009</v>
       </c>
-      <c r="EE5" s="41"/>
-      <c r="EF5" s="41"/>
-      <c r="EG5" s="41"/>
-      <c r="EH5" s="41"/>
-      <c r="EI5" s="41"/>
-      <c r="EJ5" s="41"/>
-      <c r="EK5" s="41"/>
-      <c r="EL5" s="41"/>
-      <c r="EM5" s="41"/>
-      <c r="EN5" s="41"/>
-      <c r="EO5" s="41"/>
-      <c r="EP5" s="41">
+      <c r="EE5" s="45"/>
+      <c r="EF5" s="45"/>
+      <c r="EG5" s="45"/>
+      <c r="EH5" s="45"/>
+      <c r="EI5" s="45"/>
+      <c r="EJ5" s="45"/>
+      <c r="EK5" s="45"/>
+      <c r="EL5" s="45"/>
+      <c r="EM5" s="45"/>
+      <c r="EN5" s="45"/>
+      <c r="EO5" s="45"/>
+      <c r="EP5" s="45">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="41"/>
-      <c r="ER5" s="41"/>
-      <c r="ES5" s="41"/>
-      <c r="ET5" s="41"/>
-      <c r="EU5" s="41"/>
-      <c r="EV5" s="41"/>
-      <c r="EW5" s="41"/>
-      <c r="EX5" s="41"/>
-      <c r="EY5" s="41"/>
-      <c r="EZ5" s="41"/>
-      <c r="FA5" s="41"/>
-      <c r="FB5" s="41">
+      <c r="EQ5" s="45"/>
+      <c r="ER5" s="45"/>
+      <c r="ES5" s="45"/>
+      <c r="ET5" s="45"/>
+      <c r="EU5" s="45"/>
+      <c r="EV5" s="45"/>
+      <c r="EW5" s="45"/>
+      <c r="EX5" s="45"/>
+      <c r="EY5" s="45"/>
+      <c r="EZ5" s="45"/>
+      <c r="FA5" s="45"/>
+      <c r="FB5" s="45">
         <v>2011</v>
       </c>
-      <c r="FC5" s="41"/>
-      <c r="FD5" s="41"/>
-      <c r="FE5" s="41"/>
-      <c r="FF5" s="41"/>
-      <c r="FG5" s="41"/>
-      <c r="FH5" s="41"/>
-      <c r="FI5" s="41"/>
-      <c r="FJ5" s="41"/>
-      <c r="FK5" s="41"/>
-      <c r="FL5" s="41"/>
-      <c r="FM5" s="41"/>
-      <c r="FN5" s="41">
+      <c r="FC5" s="45"/>
+      <c r="FD5" s="45"/>
+      <c r="FE5" s="45"/>
+      <c r="FF5" s="45"/>
+      <c r="FG5" s="45"/>
+      <c r="FH5" s="45"/>
+      <c r="FI5" s="45"/>
+      <c r="FJ5" s="45"/>
+      <c r="FK5" s="45"/>
+      <c r="FL5" s="45"/>
+      <c r="FM5" s="45"/>
+      <c r="FN5" s="45">
         <v>2012</v>
       </c>
-      <c r="FO5" s="41"/>
-      <c r="FP5" s="41"/>
-      <c r="FQ5" s="41"/>
-      <c r="FR5" s="41"/>
-      <c r="FS5" s="41"/>
-      <c r="FT5" s="41"/>
-      <c r="FU5" s="41"/>
-      <c r="FV5" s="41"/>
-      <c r="FW5" s="41"/>
-      <c r="FX5" s="41"/>
-      <c r="FY5" s="41"/>
-      <c r="FZ5" s="41">
+      <c r="FO5" s="45"/>
+      <c r="FP5" s="45"/>
+      <c r="FQ5" s="45"/>
+      <c r="FR5" s="45"/>
+      <c r="FS5" s="45"/>
+      <c r="FT5" s="45"/>
+      <c r="FU5" s="45"/>
+      <c r="FV5" s="45"/>
+      <c r="FW5" s="45"/>
+      <c r="FX5" s="45"/>
+      <c r="FY5" s="45"/>
+      <c r="FZ5" s="45">
         <v>2013</v>
       </c>
-      <c r="GA5" s="41"/>
-      <c r="GB5" s="41"/>
-      <c r="GC5" s="41"/>
-      <c r="GD5" s="41"/>
-      <c r="GE5" s="41"/>
-      <c r="GF5" s="41"/>
-      <c r="GG5" s="41"/>
-      <c r="GH5" s="41"/>
-      <c r="GI5" s="41"/>
-      <c r="GJ5" s="41"/>
-      <c r="GK5" s="41"/>
-      <c r="GL5" s="41">
+      <c r="GA5" s="45"/>
+      <c r="GB5" s="45"/>
+      <c r="GC5" s="45"/>
+      <c r="GD5" s="45"/>
+      <c r="GE5" s="45"/>
+      <c r="GF5" s="45"/>
+      <c r="GG5" s="45"/>
+      <c r="GH5" s="45"/>
+      <c r="GI5" s="45"/>
+      <c r="GJ5" s="45"/>
+      <c r="GK5" s="45"/>
+      <c r="GL5" s="45">
         <v>2014</v>
       </c>
-      <c r="GM5" s="41"/>
-      <c r="GN5" s="41"/>
-      <c r="GO5" s="41"/>
-      <c r="GP5" s="41"/>
-      <c r="GQ5" s="41"/>
-      <c r="GR5" s="41"/>
-      <c r="GS5" s="41"/>
-      <c r="GT5" s="41"/>
-      <c r="GU5" s="41"/>
-      <c r="GV5" s="41"/>
-      <c r="GW5" s="41"/>
-      <c r="GX5" s="41">
+      <c r="GM5" s="45"/>
+      <c r="GN5" s="45"/>
+      <c r="GO5" s="45"/>
+      <c r="GP5" s="45"/>
+      <c r="GQ5" s="45"/>
+      <c r="GR5" s="45"/>
+      <c r="GS5" s="45"/>
+      <c r="GT5" s="45"/>
+      <c r="GU5" s="45"/>
+      <c r="GV5" s="45"/>
+      <c r="GW5" s="45"/>
+      <c r="GX5" s="45">
         <v>2015</v>
       </c>
-      <c r="GY5" s="41"/>
-      <c r="GZ5" s="41"/>
-      <c r="HA5" s="41"/>
-      <c r="HB5" s="41"/>
-      <c r="HC5" s="41"/>
-      <c r="HD5" s="41"/>
-      <c r="HE5" s="41"/>
-      <c r="HF5" s="41"/>
-      <c r="HG5" s="41"/>
-      <c r="HH5" s="41"/>
-      <c r="HI5" s="41"/>
-      <c r="HJ5" s="41">
+      <c r="GY5" s="45"/>
+      <c r="GZ5" s="45"/>
+      <c r="HA5" s="45"/>
+      <c r="HB5" s="45"/>
+      <c r="HC5" s="45"/>
+      <c r="HD5" s="45"/>
+      <c r="HE5" s="45"/>
+      <c r="HF5" s="45"/>
+      <c r="HG5" s="45"/>
+      <c r="HH5" s="45"/>
+      <c r="HI5" s="45"/>
+      <c r="HJ5" s="45">
         <v>2016</v>
       </c>
-      <c r="HK5" s="41"/>
-      <c r="HL5" s="41"/>
-      <c r="HM5" s="41"/>
-      <c r="HN5" s="41"/>
-      <c r="HO5" s="41"/>
-      <c r="HP5" s="41"/>
-      <c r="HQ5" s="41"/>
-      <c r="HR5" s="41"/>
-      <c r="HS5" s="41"/>
-      <c r="HT5" s="41"/>
-      <c r="HU5" s="41"/>
-      <c r="HV5" s="41">
+      <c r="HK5" s="45"/>
+      <c r="HL5" s="45"/>
+      <c r="HM5" s="45"/>
+      <c r="HN5" s="45"/>
+      <c r="HO5" s="45"/>
+      <c r="HP5" s="45"/>
+      <c r="HQ5" s="45"/>
+      <c r="HR5" s="45"/>
+      <c r="HS5" s="45"/>
+      <c r="HT5" s="45"/>
+      <c r="HU5" s="45"/>
+      <c r="HV5" s="45">
         <v>2017</v>
       </c>
-      <c r="HW5" s="41"/>
-      <c r="HX5" s="41"/>
-      <c r="HY5" s="41"/>
-      <c r="HZ5" s="41"/>
-      <c r="IA5" s="41"/>
-      <c r="IB5" s="41"/>
-      <c r="IC5" s="41"/>
-      <c r="ID5" s="41"/>
-      <c r="IE5" s="41"/>
-      <c r="IF5" s="41"/>
-      <c r="IG5" s="41"/>
-      <c r="IH5" s="41">
+      <c r="HW5" s="45"/>
+      <c r="HX5" s="45"/>
+      <c r="HY5" s="45"/>
+      <c r="HZ5" s="45"/>
+      <c r="IA5" s="45"/>
+      <c r="IB5" s="45"/>
+      <c r="IC5" s="45"/>
+      <c r="ID5" s="45"/>
+      <c r="IE5" s="45"/>
+      <c r="IF5" s="45"/>
+      <c r="IG5" s="45"/>
+      <c r="IH5" s="45">
         <v>2018</v>
       </c>
-      <c r="II5" s="41"/>
-      <c r="IJ5" s="41"/>
-      <c r="IK5" s="41"/>
-      <c r="IL5" s="41"/>
-      <c r="IM5" s="41"/>
-      <c r="IN5" s="41"/>
-      <c r="IO5" s="41"/>
-      <c r="IP5" s="41"/>
-      <c r="IQ5" s="41"/>
-      <c r="IR5" s="41"/>
-      <c r="IS5" s="41"/>
-      <c r="IT5" s="41">
+      <c r="II5" s="45"/>
+      <c r="IJ5" s="45"/>
+      <c r="IK5" s="45"/>
+      <c r="IL5" s="45"/>
+      <c r="IM5" s="45"/>
+      <c r="IN5" s="45"/>
+      <c r="IO5" s="45"/>
+      <c r="IP5" s="45"/>
+      <c r="IQ5" s="45"/>
+      <c r="IR5" s="45"/>
+      <c r="IS5" s="45"/>
+      <c r="IT5" s="45">
         <v>2019</v>
       </c>
-      <c r="IU5" s="41"/>
-      <c r="IV5" s="41"/>
-      <c r="IW5" s="41"/>
-      <c r="IX5" s="41"/>
-      <c r="IY5" s="41"/>
-      <c r="IZ5" s="41"/>
-      <c r="JA5" s="41"/>
-      <c r="JB5" s="41"/>
-      <c r="JC5" s="41"/>
-      <c r="JD5" s="41"/>
-      <c r="JE5" s="41"/>
-      <c r="JF5" s="41">
+      <c r="IU5" s="45"/>
+      <c r="IV5" s="45"/>
+      <c r="IW5" s="45"/>
+      <c r="IX5" s="45"/>
+      <c r="IY5" s="45"/>
+      <c r="IZ5" s="45"/>
+      <c r="JA5" s="45"/>
+      <c r="JB5" s="45"/>
+      <c r="JC5" s="45"/>
+      <c r="JD5" s="45"/>
+      <c r="JE5" s="45"/>
+      <c r="JF5" s="45">
         <v>2020</v>
       </c>
-      <c r="JG5" s="41"/>
-      <c r="JH5" s="41"/>
-      <c r="JI5" s="41"/>
-      <c r="JJ5" s="41"/>
-      <c r="JK5" s="41"/>
-      <c r="JL5" s="41"/>
-      <c r="JM5" s="41"/>
-      <c r="JN5" s="41"/>
-      <c r="JO5" s="41"/>
-      <c r="JP5" s="41"/>
-      <c r="JQ5" s="41"/>
-      <c r="JR5" s="41">
+      <c r="JG5" s="45"/>
+      <c r="JH5" s="45"/>
+      <c r="JI5" s="45"/>
+      <c r="JJ5" s="45"/>
+      <c r="JK5" s="45"/>
+      <c r="JL5" s="45"/>
+      <c r="JM5" s="45"/>
+      <c r="JN5" s="45"/>
+      <c r="JO5" s="45"/>
+      <c r="JP5" s="45"/>
+      <c r="JQ5" s="45"/>
+      <c r="JR5" s="45">
         <v>2021</v>
       </c>
-      <c r="JS5" s="41"/>
-      <c r="JT5" s="41"/>
-      <c r="JU5" s="41"/>
-      <c r="JV5" s="41"/>
-      <c r="JW5" s="41"/>
-      <c r="JX5" s="41"/>
-      <c r="JY5" s="41"/>
-      <c r="JZ5" s="41"/>
-      <c r="KA5" s="41"/>
-      <c r="KB5" s="41"/>
-      <c r="KC5" s="42"/>
-      <c r="KD5" s="42">
+      <c r="JS5" s="45"/>
+      <c r="JT5" s="45"/>
+      <c r="JU5" s="45"/>
+      <c r="JV5" s="45"/>
+      <c r="JW5" s="45"/>
+      <c r="JX5" s="45"/>
+      <c r="JY5" s="45"/>
+      <c r="JZ5" s="45"/>
+      <c r="KA5" s="45"/>
+      <c r="KB5" s="45"/>
+      <c r="KC5" s="41"/>
+      <c r="KD5" s="41">
         <v>2022</v>
       </c>
-      <c r="KE5" s="43"/>
-      <c r="KF5" s="43"/>
-      <c r="KG5" s="43"/>
-      <c r="KH5" s="43"/>
-      <c r="KI5" s="43"/>
-      <c r="KJ5" s="43"/>
-      <c r="KK5" s="43"/>
-      <c r="KL5" s="43"/>
-      <c r="KM5" s="43"/>
-      <c r="KN5" s="43"/>
-      <c r="KO5" s="44"/>
-      <c r="KP5" s="35">
+      <c r="KE5" s="42"/>
+      <c r="KF5" s="42"/>
+      <c r="KG5" s="42"/>
+      <c r="KH5" s="42"/>
+      <c r="KI5" s="42"/>
+      <c r="KJ5" s="42"/>
+      <c r="KK5" s="42"/>
+      <c r="KL5" s="42"/>
+      <c r="KM5" s="42"/>
+      <c r="KN5" s="42"/>
+      <c r="KO5" s="43"/>
+      <c r="KP5" s="40">
         <v>2023</v>
       </c>
+      <c r="KQ5" s="40">
+        <v>2023</v>
+      </c>
+      <c r="KR5" s="40">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="6" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:304" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2147,14 +2153,17 @@
       <c r="KO6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="KP6" s="36" t="s">
+      <c r="KP6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="KQ6" s="36" t="s">
+      <c r="KQ6" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="KR6" s="35" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:304" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -3058,15 +3067,18 @@
       <c r="KO7" s="29">
         <v>1148621</v>
       </c>
-      <c r="KP7" s="37">
+      <c r="KP7" s="36">
         <v>1161946</v>
       </c>
-      <c r="KQ7" s="37">
+      <c r="KQ7" s="36">
         <f>SUM(KQ8:KQ16)</f>
         <v>1169020</v>
       </c>
+      <c r="KR7" s="36">
+        <v>1171476</v>
+      </c>
     </row>
-    <row r="8" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3970,14 +3982,17 @@
       <c r="KO8" s="8">
         <v>217661</v>
       </c>
-      <c r="KP8" s="38">
+      <c r="KP8" s="37">
         <v>220304</v>
       </c>
-      <c r="KQ8" s="38">
+      <c r="KQ8" s="37">
         <v>221959</v>
       </c>
+      <c r="KR8" s="37">
+        <v>223007</v>
+      </c>
     </row>
-    <row r="9" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4881,14 +4896,17 @@
       <c r="KO9" s="8">
         <v>29794</v>
       </c>
-      <c r="KP9" s="38">
+      <c r="KP9" s="37">
         <v>30069</v>
       </c>
-      <c r="KQ9" s="38">
+      <c r="KQ9" s="37">
         <v>30619</v>
       </c>
+      <c r="KR9" s="37">
+        <v>30880</v>
+      </c>
     </row>
-    <row r="10" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5792,14 +5810,17 @@
       <c r="KO10" s="8">
         <v>138548</v>
       </c>
-      <c r="KP10" s="38">
+      <c r="KP10" s="37">
         <v>140428</v>
       </c>
-      <c r="KQ10" s="38">
+      <c r="KQ10" s="37">
         <v>141591</v>
       </c>
+      <c r="KR10" s="37">
+        <v>142079</v>
+      </c>
     </row>
-    <row r="11" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6703,14 +6724,17 @@
       <c r="KO11" s="8">
         <v>178274</v>
       </c>
-      <c r="KP11" s="38">
+      <c r="KP11" s="37">
         <v>179430</v>
       </c>
-      <c r="KQ11" s="38">
+      <c r="KQ11" s="37">
         <v>180216</v>
       </c>
+      <c r="KR11" s="37">
+        <v>180506</v>
+      </c>
     </row>
-    <row r="12" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7614,14 +7638,17 @@
       <c r="KO12" s="8">
         <v>172953</v>
       </c>
-      <c r="KP12" s="38">
+      <c r="KP12" s="37">
         <v>176211</v>
       </c>
-      <c r="KQ12" s="38">
+      <c r="KQ12" s="37">
         <v>177175</v>
       </c>
+      <c r="KR12" s="37">
+        <v>177097</v>
+      </c>
     </row>
-    <row r="13" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8525,14 +8552,17 @@
       <c r="KO13" s="8">
         <v>153647</v>
       </c>
-      <c r="KP13" s="38">
+      <c r="KP13" s="37">
         <v>155450</v>
       </c>
-      <c r="KQ13" s="38">
+      <c r="KQ13" s="37">
         <v>156140</v>
       </c>
+      <c r="KR13" s="37">
+        <v>156174</v>
+      </c>
     </row>
-    <row r="14" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9436,14 +9466,17 @@
       <c r="KO14" s="8">
         <v>136042</v>
       </c>
-      <c r="KP14" s="38">
+      <c r="KP14" s="37">
         <v>137574</v>
       </c>
-      <c r="KQ14" s="38">
+      <c r="KQ14" s="37">
         <v>138320</v>
       </c>
+      <c r="KR14" s="37">
+        <v>138718</v>
+      </c>
     </row>
-    <row r="15" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -10347,14 +10380,17 @@
       <c r="KO15" s="8">
         <v>121675</v>
       </c>
-      <c r="KP15" s="38">
+      <c r="KP15" s="37">
         <v>122453</v>
       </c>
-      <c r="KQ15" s="38">
+      <c r="KQ15" s="37">
         <v>122973</v>
       </c>
+      <c r="KR15" s="37">
+        <v>122991</v>
+      </c>
     </row>
-    <row r="16" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -11258,14 +11294,17 @@
       <c r="KO16" s="10">
         <v>27</v>
       </c>
-      <c r="KP16" s="39">
+      <c r="KP16" s="38">
         <v>27</v>
       </c>
-      <c r="KQ16" s="39">
+      <c r="KQ16" s="38">
         <v>27</v>
       </c>
+      <c r="KR16" s="38">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:303" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:304" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -12169,15 +12208,18 @@
       <c r="KO17" s="29">
         <v>784341</v>
       </c>
-      <c r="KP17" s="37">
+      <c r="KP17" s="36">
         <v>789310</v>
       </c>
-      <c r="KQ17" s="37">
+      <c r="KQ17" s="36">
         <f>SUM(KQ18:KQ26)</f>
         <v>795499</v>
       </c>
+      <c r="KR17" s="36">
+        <v>801239</v>
+      </c>
     </row>
-    <row r="18" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -13081,14 +13123,17 @@
       <c r="KO18" s="8">
         <v>132857</v>
       </c>
-      <c r="KP18" s="38">
+      <c r="KP18" s="37">
         <v>134701</v>
       </c>
-      <c r="KQ18" s="38">
+      <c r="KQ18" s="37">
         <v>136039</v>
       </c>
+      <c r="KR18" s="37">
+        <v>137196</v>
+      </c>
     </row>
-    <row r="19" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -13992,14 +14037,17 @@
       <c r="KO19" s="8">
         <v>17570</v>
       </c>
-      <c r="KP19" s="38">
+      <c r="KP19" s="37">
         <v>17375</v>
       </c>
-      <c r="KQ19" s="38">
+      <c r="KQ19" s="37">
         <v>17774</v>
       </c>
+      <c r="KR19" s="37">
+        <v>18268</v>
+      </c>
     </row>
-    <row r="20" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14903,14 +14951,17 @@
       <c r="KO20" s="8">
         <v>97134</v>
       </c>
-      <c r="KP20" s="38">
+      <c r="KP20" s="37">
         <v>96989</v>
       </c>
-      <c r="KQ20" s="38">
+      <c r="KQ20" s="37">
         <v>98011</v>
       </c>
+      <c r="KR20" s="37">
+        <v>98637</v>
+      </c>
     </row>
-    <row r="21" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15814,14 +15865,17 @@
       <c r="KO21" s="8">
         <v>128281</v>
       </c>
-      <c r="KP21" s="38">
+      <c r="KP21" s="37">
         <v>128282</v>
       </c>
-      <c r="KQ21" s="38">
+      <c r="KQ21" s="37">
         <v>129211</v>
       </c>
+      <c r="KR21" s="37">
+        <v>130383</v>
+      </c>
     </row>
-    <row r="22" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16725,14 +16779,17 @@
       <c r="KO22" s="8">
         <v>120640</v>
       </c>
-      <c r="KP22" s="38">
+      <c r="KP22" s="37">
         <v>121771</v>
       </c>
-      <c r="KQ22" s="38">
+      <c r="KQ22" s="37">
         <v>122466</v>
       </c>
+      <c r="KR22" s="37">
+        <v>122974</v>
+      </c>
     </row>
-    <row r="23" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -17636,14 +17693,17 @@
       <c r="KO23" s="8">
         <v>108560</v>
       </c>
-      <c r="KP23" s="38">
+      <c r="KP23" s="37">
         <v>109520</v>
       </c>
-      <c r="KQ23" s="38">
+      <c r="KQ23" s="37">
         <v>110163</v>
       </c>
+      <c r="KR23" s="37">
+        <v>110868</v>
+      </c>
     </row>
-    <row r="24" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -18547,14 +18607,17 @@
       <c r="KO24" s="8">
         <v>96269</v>
       </c>
-      <c r="KP24" s="38">
+      <c r="KP24" s="37">
         <v>97208</v>
       </c>
-      <c r="KQ24" s="38">
+      <c r="KQ24" s="37">
         <v>97788</v>
       </c>
+      <c r="KR24" s="37">
+        <v>98384</v>
+      </c>
     </row>
-    <row r="25" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -19458,14 +19521,17 @@
       <c r="KO25" s="8">
         <v>83025</v>
       </c>
-      <c r="KP25" s="38">
+      <c r="KP25" s="37">
         <v>83457</v>
       </c>
-      <c r="KQ25" s="38">
+      <c r="KQ25" s="37">
         <v>84040</v>
       </c>
+      <c r="KR25" s="37">
+        <v>84521</v>
+      </c>
     </row>
-    <row r="26" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -20369,14 +20435,17 @@
       <c r="KO26" s="10">
         <v>5</v>
       </c>
-      <c r="KP26" s="39">
+      <c r="KP26" s="38">
         <v>7</v>
       </c>
-      <c r="KQ26" s="39">
+      <c r="KQ26" s="38">
         <v>7</v>
       </c>
+      <c r="KR26" s="38">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -21280,14 +21349,17 @@
       <c r="KO27" s="31">
         <v>1932962</v>
       </c>
-      <c r="KP27" s="40">
+      <c r="KP27" s="39">
         <v>1951256</v>
       </c>
-      <c r="KQ27" s="40">
+      <c r="KQ27" s="39">
         <v>1964519</v>
       </c>
+      <c r="KR27" s="39">
+        <v>1972715</v>
+      </c>
     </row>
-    <row r="28" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -22475,14 +22547,17 @@
       <c r="KO28" s="8">
         <v>350518</v>
       </c>
-      <c r="KP28" s="38">
+      <c r="KP28" s="37">
         <v>355005</v>
       </c>
-      <c r="KQ28" s="38">
+      <c r="KQ28" s="37">
         <v>357998</v>
       </c>
+      <c r="KR28" s="37">
+        <v>360203</v>
+      </c>
     </row>
-    <row r="29" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -23670,14 +23745,17 @@
       <c r="KO29" s="8">
         <v>47364</v>
       </c>
-      <c r="KP29" s="38">
+      <c r="KP29" s="37">
         <v>47444</v>
       </c>
-      <c r="KQ29" s="38">
+      <c r="KQ29" s="37">
         <v>48393</v>
       </c>
+      <c r="KR29" s="37">
+        <v>49148</v>
+      </c>
     </row>
-    <row r="30" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -24865,14 +24943,17 @@
       <c r="KO30" s="8">
         <v>235682</v>
       </c>
-      <c r="KP30" s="38">
+      <c r="KP30" s="37">
         <v>237417</v>
       </c>
-      <c r="KQ30" s="38">
+      <c r="KQ30" s="37">
         <v>239602</v>
       </c>
+      <c r="KR30" s="37">
+        <v>240716</v>
+      </c>
     </row>
-    <row r="31" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -26060,14 +26141,17 @@
       <c r="KO31" s="8">
         <v>306555</v>
       </c>
-      <c r="KP31" s="38">
+      <c r="KP31" s="37">
         <v>307712</v>
       </c>
-      <c r="KQ31" s="38">
+      <c r="KQ31" s="37">
         <v>309427</v>
       </c>
+      <c r="KR31" s="37">
+        <v>310889</v>
+      </c>
     </row>
-    <row r="32" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -27255,14 +27339,17 @@
       <c r="KO32" s="8">
         <v>293593</v>
       </c>
-      <c r="KP32" s="38">
+      <c r="KP32" s="37">
         <v>297982</v>
       </c>
-      <c r="KQ32" s="38">
+      <c r="KQ32" s="37">
         <v>299641</v>
       </c>
+      <c r="KR32" s="37">
+        <v>300071</v>
+      </c>
     </row>
-    <row r="33" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -28450,14 +28537,17 @@
       <c r="KO33" s="8">
         <v>262207</v>
       </c>
-      <c r="KP33" s="38">
+      <c r="KP33" s="37">
         <v>264970</v>
       </c>
-      <c r="KQ33" s="38">
+      <c r="KQ33" s="37">
         <v>266303</v>
       </c>
+      <c r="KR33" s="37">
+        <v>267042</v>
+      </c>
     </row>
-    <row r="34" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -29645,14 +29735,17 @@
       <c r="KO34" s="8">
         <v>232311</v>
       </c>
-      <c r="KP34" s="38">
+      <c r="KP34" s="37">
         <v>234782</v>
       </c>
-      <c r="KQ34" s="38">
+      <c r="KQ34" s="37">
         <v>236108</v>
       </c>
+      <c r="KR34" s="37">
+        <v>237102</v>
+      </c>
     </row>
-    <row r="35" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -30840,14 +30933,17 @@
       <c r="KO35" s="8">
         <v>204700</v>
       </c>
-      <c r="KP35" s="38">
+      <c r="KP35" s="37">
         <v>205910</v>
       </c>
-      <c r="KQ35" s="38">
+      <c r="KQ35" s="37">
         <v>207013</v>
       </c>
+      <c r="KR35" s="37">
+        <v>207512</v>
+      </c>
     </row>
-    <row r="36" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -32035,23 +32131,36 @@
       <c r="KO36" s="10">
         <v>32</v>
       </c>
-      <c r="KP36" s="39">
+      <c r="KP36" s="38">
         <v>34</v>
       </c>
-      <c r="KQ36" s="39">
+      <c r="KQ36" s="38">
         <v>34</v>
       </c>
+      <c r="KR36" s="38">
+        <v>32</v>
+      </c>
     </row>
-    <row r="37" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:304" x14ac:dyDescent="0.25">
       <c r="KC37" s="25"/>
     </row>
-    <row r="38" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:304" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
@@ -32068,16 +32177,6 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabluados_imss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -130,7 +130,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - marzo 2023</t>
+    <t>Enero 1998 - abril 2023</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -408,6 +408,8 @@
     </xf>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,13 +425,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,7 +440,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,531 +729,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KR38"/>
+  <dimension ref="A1:KT38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KA1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KE1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KS10" sqref="KS10"/>
+      <selection pane="topRight" activeCell="KT28" sqref="KT28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="57" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="69" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="86" max="93" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="98" max="105" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="110" max="117" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="122" max="129" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="134" max="141" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="146" max="153" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="158" max="165" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="170" max="177" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="182" max="189" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="194" max="201" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="206" max="213" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="218" max="225" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="230" max="237" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="242" max="249" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="254" max="261" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="266" max="273" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="278" max="285" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="290" max="297" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="10" style="2" customWidth="1"/>
-    <col min="303" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="43.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="57" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="69" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="93" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="105" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="117" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="122" max="129" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="134" max="141" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="146" max="153" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="158" max="165" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="170" max="177" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="182" max="189" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="194" max="201" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="206" max="213" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="218" max="225" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="230" max="237" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="242" max="249" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="254" max="261" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="266" max="273" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="278" max="285" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="290" max="297" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="302" max="305" width="10" style="2" customWidth="1"/>
+    <col min="306" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:304" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:304" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+    <row r="4" spans="1:306" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:306" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="37">
         <v>1998</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37">
         <v>1999</v>
       </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37">
         <v>2000</v>
       </c>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45">
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37">
         <v>2001</v>
       </c>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45">
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37">
         <v>2002</v>
       </c>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45">
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37">
         <v>2003</v>
       </c>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
-      <c r="BV5" s="45">
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37">
         <v>2004</v>
       </c>
-      <c r="BW5" s="45"/>
-      <c r="BX5" s="45"/>
-      <c r="BY5" s="45"/>
-      <c r="BZ5" s="45"/>
-      <c r="CA5" s="45"/>
-      <c r="CB5" s="45"/>
-      <c r="CC5" s="45"/>
-      <c r="CD5" s="45"/>
-      <c r="CE5" s="45"/>
-      <c r="CF5" s="45"/>
-      <c r="CG5" s="45"/>
-      <c r="CH5" s="45">
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37">
         <v>2005</v>
       </c>
-      <c r="CI5" s="45"/>
-      <c r="CJ5" s="45"/>
-      <c r="CK5" s="45"/>
-      <c r="CL5" s="45"/>
-      <c r="CM5" s="45"/>
-      <c r="CN5" s="45"/>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="45"/>
-      <c r="CQ5" s="45"/>
-      <c r="CR5" s="45"/>
-      <c r="CS5" s="45"/>
-      <c r="CT5" s="45">
+      <c r="CI5" s="37"/>
+      <c r="CJ5" s="37"/>
+      <c r="CK5" s="37"/>
+      <c r="CL5" s="37"/>
+      <c r="CM5" s="37"/>
+      <c r="CN5" s="37"/>
+      <c r="CO5" s="37"/>
+      <c r="CP5" s="37"/>
+      <c r="CQ5" s="37"/>
+      <c r="CR5" s="37"/>
+      <c r="CS5" s="37"/>
+      <c r="CT5" s="37">
         <v>2006</v>
       </c>
-      <c r="CU5" s="45"/>
-      <c r="CV5" s="45"/>
-      <c r="CW5" s="45"/>
-      <c r="CX5" s="45"/>
-      <c r="CY5" s="45"/>
-      <c r="CZ5" s="45"/>
-      <c r="DA5" s="45"/>
-      <c r="DB5" s="45"/>
-      <c r="DC5" s="45"/>
-      <c r="DD5" s="45"/>
-      <c r="DE5" s="45"/>
-      <c r="DF5" s="45">
+      <c r="CU5" s="37"/>
+      <c r="CV5" s="37"/>
+      <c r="CW5" s="37"/>
+      <c r="CX5" s="37"/>
+      <c r="CY5" s="37"/>
+      <c r="CZ5" s="37"/>
+      <c r="DA5" s="37"/>
+      <c r="DB5" s="37"/>
+      <c r="DC5" s="37"/>
+      <c r="DD5" s="37"/>
+      <c r="DE5" s="37"/>
+      <c r="DF5" s="37">
         <v>2007</v>
       </c>
-      <c r="DG5" s="45"/>
-      <c r="DH5" s="45"/>
-      <c r="DI5" s="45"/>
-      <c r="DJ5" s="45"/>
-      <c r="DK5" s="45"/>
-      <c r="DL5" s="45"/>
-      <c r="DM5" s="45"/>
-      <c r="DN5" s="45"/>
-      <c r="DO5" s="45"/>
-      <c r="DP5" s="45"/>
-      <c r="DQ5" s="45"/>
-      <c r="DR5" s="45">
+      <c r="DG5" s="37"/>
+      <c r="DH5" s="37"/>
+      <c r="DI5" s="37"/>
+      <c r="DJ5" s="37"/>
+      <c r="DK5" s="37"/>
+      <c r="DL5" s="37"/>
+      <c r="DM5" s="37"/>
+      <c r="DN5" s="37"/>
+      <c r="DO5" s="37"/>
+      <c r="DP5" s="37"/>
+      <c r="DQ5" s="37"/>
+      <c r="DR5" s="37">
         <v>2008</v>
       </c>
-      <c r="DS5" s="45"/>
-      <c r="DT5" s="45"/>
-      <c r="DU5" s="45"/>
-      <c r="DV5" s="45"/>
-      <c r="DW5" s="45"/>
-      <c r="DX5" s="45"/>
-      <c r="DY5" s="45"/>
-      <c r="DZ5" s="45"/>
-      <c r="EA5" s="45"/>
-      <c r="EB5" s="45"/>
-      <c r="EC5" s="45"/>
-      <c r="ED5" s="45">
+      <c r="DS5" s="37"/>
+      <c r="DT5" s="37"/>
+      <c r="DU5" s="37"/>
+      <c r="DV5" s="37"/>
+      <c r="DW5" s="37"/>
+      <c r="DX5" s="37"/>
+      <c r="DY5" s="37"/>
+      <c r="DZ5" s="37"/>
+      <c r="EA5" s="37"/>
+      <c r="EB5" s="37"/>
+      <c r="EC5" s="37"/>
+      <c r="ED5" s="37">
         <v>2009</v>
       </c>
-      <c r="EE5" s="45"/>
-      <c r="EF5" s="45"/>
-      <c r="EG5" s="45"/>
-      <c r="EH5" s="45"/>
-      <c r="EI5" s="45"/>
-      <c r="EJ5" s="45"/>
-      <c r="EK5" s="45"/>
-      <c r="EL5" s="45"/>
-      <c r="EM5" s="45"/>
-      <c r="EN5" s="45"/>
-      <c r="EO5" s="45"/>
-      <c r="EP5" s="45">
+      <c r="EE5" s="37"/>
+      <c r="EF5" s="37"/>
+      <c r="EG5" s="37"/>
+      <c r="EH5" s="37"/>
+      <c r="EI5" s="37"/>
+      <c r="EJ5" s="37"/>
+      <c r="EK5" s="37"/>
+      <c r="EL5" s="37"/>
+      <c r="EM5" s="37"/>
+      <c r="EN5" s="37"/>
+      <c r="EO5" s="37"/>
+      <c r="EP5" s="37">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="45"/>
-      <c r="ER5" s="45"/>
-      <c r="ES5" s="45"/>
-      <c r="ET5" s="45"/>
-      <c r="EU5" s="45"/>
-      <c r="EV5" s="45"/>
-      <c r="EW5" s="45"/>
-      <c r="EX5" s="45"/>
-      <c r="EY5" s="45"/>
-      <c r="EZ5" s="45"/>
-      <c r="FA5" s="45"/>
-      <c r="FB5" s="45">
+      <c r="EQ5" s="37"/>
+      <c r="ER5" s="37"/>
+      <c r="ES5" s="37"/>
+      <c r="ET5" s="37"/>
+      <c r="EU5" s="37"/>
+      <c r="EV5" s="37"/>
+      <c r="EW5" s="37"/>
+      <c r="EX5" s="37"/>
+      <c r="EY5" s="37"/>
+      <c r="EZ5" s="37"/>
+      <c r="FA5" s="37"/>
+      <c r="FB5" s="37">
         <v>2011</v>
       </c>
-      <c r="FC5" s="45"/>
-      <c r="FD5" s="45"/>
-      <c r="FE5" s="45"/>
-      <c r="FF5" s="45"/>
-      <c r="FG5" s="45"/>
-      <c r="FH5" s="45"/>
-      <c r="FI5" s="45"/>
-      <c r="FJ5" s="45"/>
-      <c r="FK5" s="45"/>
-      <c r="FL5" s="45"/>
-      <c r="FM5" s="45"/>
-      <c r="FN5" s="45">
+      <c r="FC5" s="37"/>
+      <c r="FD5" s="37"/>
+      <c r="FE5" s="37"/>
+      <c r="FF5" s="37"/>
+      <c r="FG5" s="37"/>
+      <c r="FH5" s="37"/>
+      <c r="FI5" s="37"/>
+      <c r="FJ5" s="37"/>
+      <c r="FK5" s="37"/>
+      <c r="FL5" s="37"/>
+      <c r="FM5" s="37"/>
+      <c r="FN5" s="37">
         <v>2012</v>
       </c>
-      <c r="FO5" s="45"/>
-      <c r="FP5" s="45"/>
-      <c r="FQ5" s="45"/>
-      <c r="FR5" s="45"/>
-      <c r="FS5" s="45"/>
-      <c r="FT5" s="45"/>
-      <c r="FU5" s="45"/>
-      <c r="FV5" s="45"/>
-      <c r="FW5" s="45"/>
-      <c r="FX5" s="45"/>
-      <c r="FY5" s="45"/>
-      <c r="FZ5" s="45">
+      <c r="FO5" s="37"/>
+      <c r="FP5" s="37"/>
+      <c r="FQ5" s="37"/>
+      <c r="FR5" s="37"/>
+      <c r="FS5" s="37"/>
+      <c r="FT5" s="37"/>
+      <c r="FU5" s="37"/>
+      <c r="FV5" s="37"/>
+      <c r="FW5" s="37"/>
+      <c r="FX5" s="37"/>
+      <c r="FY5" s="37"/>
+      <c r="FZ5" s="37">
         <v>2013</v>
       </c>
-      <c r="GA5" s="45"/>
-      <c r="GB5" s="45"/>
-      <c r="GC5" s="45"/>
-      <c r="GD5" s="45"/>
-      <c r="GE5" s="45"/>
-      <c r="GF5" s="45"/>
-      <c r="GG5" s="45"/>
-      <c r="GH5" s="45"/>
-      <c r="GI5" s="45"/>
-      <c r="GJ5" s="45"/>
-      <c r="GK5" s="45"/>
-      <c r="GL5" s="45">
+      <c r="GA5" s="37"/>
+      <c r="GB5" s="37"/>
+      <c r="GC5" s="37"/>
+      <c r="GD5" s="37"/>
+      <c r="GE5" s="37"/>
+      <c r="GF5" s="37"/>
+      <c r="GG5" s="37"/>
+      <c r="GH5" s="37"/>
+      <c r="GI5" s="37"/>
+      <c r="GJ5" s="37"/>
+      <c r="GK5" s="37"/>
+      <c r="GL5" s="37">
         <v>2014</v>
       </c>
-      <c r="GM5" s="45"/>
-      <c r="GN5" s="45"/>
-      <c r="GO5" s="45"/>
-      <c r="GP5" s="45"/>
-      <c r="GQ5" s="45"/>
-      <c r="GR5" s="45"/>
-      <c r="GS5" s="45"/>
-      <c r="GT5" s="45"/>
-      <c r="GU5" s="45"/>
-      <c r="GV5" s="45"/>
-      <c r="GW5" s="45"/>
-      <c r="GX5" s="45">
+      <c r="GM5" s="37"/>
+      <c r="GN5" s="37"/>
+      <c r="GO5" s="37"/>
+      <c r="GP5" s="37"/>
+      <c r="GQ5" s="37"/>
+      <c r="GR5" s="37"/>
+      <c r="GS5" s="37"/>
+      <c r="GT5" s="37"/>
+      <c r="GU5" s="37"/>
+      <c r="GV5" s="37"/>
+      <c r="GW5" s="37"/>
+      <c r="GX5" s="37">
         <v>2015</v>
       </c>
-      <c r="GY5" s="45"/>
-      <c r="GZ5" s="45"/>
-      <c r="HA5" s="45"/>
-      <c r="HB5" s="45"/>
-      <c r="HC5" s="45"/>
-      <c r="HD5" s="45"/>
-      <c r="HE5" s="45"/>
-      <c r="HF5" s="45"/>
-      <c r="HG5" s="45"/>
-      <c r="HH5" s="45"/>
-      <c r="HI5" s="45"/>
-      <c r="HJ5" s="45">
+      <c r="GY5" s="37"/>
+      <c r="GZ5" s="37"/>
+      <c r="HA5" s="37"/>
+      <c r="HB5" s="37"/>
+      <c r="HC5" s="37"/>
+      <c r="HD5" s="37"/>
+      <c r="HE5" s="37"/>
+      <c r="HF5" s="37"/>
+      <c r="HG5" s="37"/>
+      <c r="HH5" s="37"/>
+      <c r="HI5" s="37"/>
+      <c r="HJ5" s="37">
         <v>2016</v>
       </c>
-      <c r="HK5" s="45"/>
-      <c r="HL5" s="45"/>
-      <c r="HM5" s="45"/>
-      <c r="HN5" s="45"/>
-      <c r="HO5" s="45"/>
-      <c r="HP5" s="45"/>
-      <c r="HQ5" s="45"/>
-      <c r="HR5" s="45"/>
-      <c r="HS5" s="45"/>
-      <c r="HT5" s="45"/>
-      <c r="HU5" s="45"/>
-      <c r="HV5" s="45">
+      <c r="HK5" s="37"/>
+      <c r="HL5" s="37"/>
+      <c r="HM5" s="37"/>
+      <c r="HN5" s="37"/>
+      <c r="HO5" s="37"/>
+      <c r="HP5" s="37"/>
+      <c r="HQ5" s="37"/>
+      <c r="HR5" s="37"/>
+      <c r="HS5" s="37"/>
+      <c r="HT5" s="37"/>
+      <c r="HU5" s="37"/>
+      <c r="HV5" s="37">
         <v>2017</v>
       </c>
-      <c r="HW5" s="45"/>
-      <c r="HX5" s="45"/>
-      <c r="HY5" s="45"/>
-      <c r="HZ5" s="45"/>
-      <c r="IA5" s="45"/>
-      <c r="IB5" s="45"/>
-      <c r="IC5" s="45"/>
-      <c r="ID5" s="45"/>
-      <c r="IE5" s="45"/>
-      <c r="IF5" s="45"/>
-      <c r="IG5" s="45"/>
-      <c r="IH5" s="45">
+      <c r="HW5" s="37"/>
+      <c r="HX5" s="37"/>
+      <c r="HY5" s="37"/>
+      <c r="HZ5" s="37"/>
+      <c r="IA5" s="37"/>
+      <c r="IB5" s="37"/>
+      <c r="IC5" s="37"/>
+      <c r="ID5" s="37"/>
+      <c r="IE5" s="37"/>
+      <c r="IF5" s="37"/>
+      <c r="IG5" s="37"/>
+      <c r="IH5" s="37">
         <v>2018</v>
       </c>
-      <c r="II5" s="45"/>
-      <c r="IJ5" s="45"/>
-      <c r="IK5" s="45"/>
-      <c r="IL5" s="45"/>
-      <c r="IM5" s="45"/>
-      <c r="IN5" s="45"/>
-      <c r="IO5" s="45"/>
-      <c r="IP5" s="45"/>
-      <c r="IQ5" s="45"/>
-      <c r="IR5" s="45"/>
-      <c r="IS5" s="45"/>
-      <c r="IT5" s="45">
+      <c r="II5" s="37"/>
+      <c r="IJ5" s="37"/>
+      <c r="IK5" s="37"/>
+      <c r="IL5" s="37"/>
+      <c r="IM5" s="37"/>
+      <c r="IN5" s="37"/>
+      <c r="IO5" s="37"/>
+      <c r="IP5" s="37"/>
+      <c r="IQ5" s="37"/>
+      <c r="IR5" s="37"/>
+      <c r="IS5" s="37"/>
+      <c r="IT5" s="37">
         <v>2019</v>
       </c>
-      <c r="IU5" s="45"/>
-      <c r="IV5" s="45"/>
-      <c r="IW5" s="45"/>
-      <c r="IX5" s="45"/>
-      <c r="IY5" s="45"/>
-      <c r="IZ5" s="45"/>
-      <c r="JA5" s="45"/>
-      <c r="JB5" s="45"/>
-      <c r="JC5" s="45"/>
-      <c r="JD5" s="45"/>
-      <c r="JE5" s="45"/>
-      <c r="JF5" s="45">
+      <c r="IU5" s="37"/>
+      <c r="IV5" s="37"/>
+      <c r="IW5" s="37"/>
+      <c r="IX5" s="37"/>
+      <c r="IY5" s="37"/>
+      <c r="IZ5" s="37"/>
+      <c r="JA5" s="37"/>
+      <c r="JB5" s="37"/>
+      <c r="JC5" s="37"/>
+      <c r="JD5" s="37"/>
+      <c r="JE5" s="37"/>
+      <c r="JF5" s="37">
         <v>2020</v>
       </c>
-      <c r="JG5" s="45"/>
-      <c r="JH5" s="45"/>
-      <c r="JI5" s="45"/>
-      <c r="JJ5" s="45"/>
-      <c r="JK5" s="45"/>
-      <c r="JL5" s="45"/>
-      <c r="JM5" s="45"/>
-      <c r="JN5" s="45"/>
-      <c r="JO5" s="45"/>
-      <c r="JP5" s="45"/>
-      <c r="JQ5" s="45"/>
-      <c r="JR5" s="45">
+      <c r="JG5" s="37"/>
+      <c r="JH5" s="37"/>
+      <c r="JI5" s="37"/>
+      <c r="JJ5" s="37"/>
+      <c r="JK5" s="37"/>
+      <c r="JL5" s="37"/>
+      <c r="JM5" s="37"/>
+      <c r="JN5" s="37"/>
+      <c r="JO5" s="37"/>
+      <c r="JP5" s="37"/>
+      <c r="JQ5" s="37"/>
+      <c r="JR5" s="37">
         <v>2021</v>
       </c>
-      <c r="JS5" s="45"/>
-      <c r="JT5" s="45"/>
-      <c r="JU5" s="45"/>
-      <c r="JV5" s="45"/>
-      <c r="JW5" s="45"/>
-      <c r="JX5" s="45"/>
-      <c r="JY5" s="45"/>
-      <c r="JZ5" s="45"/>
-      <c r="KA5" s="45"/>
-      <c r="KB5" s="45"/>
-      <c r="KC5" s="41"/>
-      <c r="KD5" s="41">
+      <c r="JS5" s="37"/>
+      <c r="JT5" s="37"/>
+      <c r="JU5" s="37"/>
+      <c r="JV5" s="37"/>
+      <c r="JW5" s="37"/>
+      <c r="JX5" s="37"/>
+      <c r="JY5" s="37"/>
+      <c r="JZ5" s="37"/>
+      <c r="KA5" s="37"/>
+      <c r="KB5" s="37"/>
+      <c r="KC5" s="38"/>
+      <c r="KD5" s="38">
         <v>2022</v>
       </c>
-      <c r="KE5" s="42"/>
-      <c r="KF5" s="42"/>
-      <c r="KG5" s="42"/>
-      <c r="KH5" s="42"/>
-      <c r="KI5" s="42"/>
-      <c r="KJ5" s="42"/>
-      <c r="KK5" s="42"/>
-      <c r="KL5" s="42"/>
-      <c r="KM5" s="42"/>
-      <c r="KN5" s="42"/>
-      <c r="KO5" s="43"/>
-      <c r="KP5" s="40">
+      <c r="KE5" s="39"/>
+      <c r="KF5" s="39"/>
+      <c r="KG5" s="39"/>
+      <c r="KH5" s="39"/>
+      <c r="KI5" s="39"/>
+      <c r="KJ5" s="39"/>
+      <c r="KK5" s="39"/>
+      <c r="KL5" s="39"/>
+      <c r="KM5" s="39"/>
+      <c r="KN5" s="39"/>
+      <c r="KO5" s="40"/>
+      <c r="KP5" s="42">
         <v>2023</v>
       </c>
-      <c r="KQ5" s="40">
-        <v>2023</v>
-      </c>
-      <c r="KR5" s="40">
-        <v>2023</v>
-      </c>
+      <c r="KQ5" s="43"/>
+      <c r="KR5" s="43"/>
+      <c r="KS5" s="44"/>
     </row>
-    <row r="6" spans="1:304" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:306" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2117,53 +2115,56 @@
       <c r="KC6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="KD6" s="26" t="s">
+      <c r="KD6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="KE6" s="32" t="s">
+      <c r="KE6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="KF6" s="32" t="s">
+      <c r="KF6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="KG6" s="32" t="s">
+      <c r="KG6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="KH6" s="32" t="s">
+      <c r="KH6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="KI6" s="32" t="s">
+      <c r="KI6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="KJ6" s="32" t="s">
+      <c r="KJ6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="KK6" s="32" t="s">
+      <c r="KK6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="KL6" s="32" t="s">
+      <c r="KL6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="KM6" s="32" t="s">
+      <c r="KM6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="KN6" s="32" t="s">
+      <c r="KN6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="KO6" s="27" t="s">
+      <c r="KO6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="KP6" s="35" t="s">
+      <c r="KP6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="KQ6" s="35" t="s">
+      <c r="KQ6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="KR6" s="35" t="s">
+      <c r="KR6" s="34" t="s">
         <v>13</v>
       </c>
+      <c r="KS6" s="29" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:304" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:306" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -3031,54 +3032,56 @@
       <c r="KC7" s="5">
         <v>1110209</v>
       </c>
-      <c r="KD7" s="28">
+      <c r="KD7" s="30">
         <v>1117867</v>
       </c>
-      <c r="KE7" s="33">
+      <c r="KE7" s="35">
         <v>1125481</v>
       </c>
-      <c r="KF7" s="33">
+      <c r="KF7" s="35">
         <v>1131739</v>
       </c>
-      <c r="KG7" s="33">
+      <c r="KG7" s="35">
         <v>1129276</v>
       </c>
-      <c r="KH7" s="33">
+      <c r="KH7" s="35">
         <v>1129263</v>
       </c>
-      <c r="KI7" s="33">
+      <c r="KI7" s="35">
         <v>1131782</v>
       </c>
-      <c r="KJ7" s="33">
+      <c r="KJ7" s="35">
         <v>1131513</v>
       </c>
-      <c r="KK7" s="33">
+      <c r="KK7" s="35">
         <v>1138325</v>
       </c>
-      <c r="KL7" s="33">
+      <c r="KL7" s="35">
         <v>1147074</v>
       </c>
-      <c r="KM7" s="33">
+      <c r="KM7" s="35">
         <v>1160441</v>
       </c>
-      <c r="KN7" s="33">
+      <c r="KN7" s="35">
         <v>1164860</v>
       </c>
-      <c r="KO7" s="29">
+      <c r="KO7" s="35">
         <v>1148621</v>
       </c>
-      <c r="KP7" s="36">
+      <c r="KP7" s="30">
         <v>1161946</v>
       </c>
-      <c r="KQ7" s="36">
-        <f>SUM(KQ8:KQ16)</f>
+      <c r="KQ7" s="35">
         <v>1169020</v>
       </c>
-      <c r="KR7" s="36">
+      <c r="KR7" s="35">
         <v>1171476</v>
       </c>
+      <c r="KS7" s="31">
+        <v>1169950</v>
+      </c>
     </row>
-    <row r="8" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -3979,20 +3982,23 @@
       <c r="KN8" s="7">
         <v>217996</v>
       </c>
-      <c r="KO8" s="8">
+      <c r="KO8" s="7">
         <v>217661</v>
       </c>
-      <c r="KP8" s="37">
+      <c r="KP8" s="18">
         <v>220304</v>
       </c>
-      <c r="KQ8" s="37">
+      <c r="KQ8" s="7">
         <v>221959</v>
       </c>
-      <c r="KR8" s="37">
+      <c r="KR8" s="7">
         <v>223007</v>
       </c>
+      <c r="KS8" s="8">
+        <v>223444</v>
+      </c>
     </row>
-    <row r="9" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
@@ -4893,20 +4899,23 @@
       <c r="KN9" s="7">
         <v>31047</v>
       </c>
-      <c r="KO9" s="8">
+      <c r="KO9" s="7">
         <v>29794</v>
       </c>
-      <c r="KP9" s="37">
+      <c r="KP9" s="18">
         <v>30069</v>
       </c>
-      <c r="KQ9" s="37">
+      <c r="KQ9" s="7">
         <v>30619</v>
       </c>
-      <c r="KR9" s="37">
+      <c r="KR9" s="7">
         <v>30880</v>
       </c>
+      <c r="KS9" s="8">
+        <v>30420</v>
+      </c>
     </row>
-    <row r="10" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5807,20 +5816,23 @@
       <c r="KN10" s="7">
         <v>142678</v>
       </c>
-      <c r="KO10" s="8">
+      <c r="KO10" s="7">
         <v>138548</v>
       </c>
-      <c r="KP10" s="37">
+      <c r="KP10" s="18">
         <v>140428</v>
       </c>
-      <c r="KQ10" s="37">
+      <c r="KQ10" s="7">
         <v>141591</v>
       </c>
-      <c r="KR10" s="37">
+      <c r="KR10" s="7">
         <v>142079</v>
       </c>
+      <c r="KS10" s="8">
+        <v>141713</v>
+      </c>
     </row>
-    <row r="11" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -6721,20 +6733,23 @@
       <c r="KN11" s="7">
         <v>181695</v>
       </c>
-      <c r="KO11" s="8">
+      <c r="KO11" s="7">
         <v>178274</v>
       </c>
-      <c r="KP11" s="37">
+      <c r="KP11" s="18">
         <v>179430</v>
       </c>
-      <c r="KQ11" s="37">
+      <c r="KQ11" s="7">
         <v>180216</v>
       </c>
-      <c r="KR11" s="37">
+      <c r="KR11" s="7">
         <v>180506</v>
       </c>
+      <c r="KS11" s="8">
+        <v>180323</v>
+      </c>
     </row>
-    <row r="12" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
@@ -7635,20 +7650,23 @@
       <c r="KN12" s="7">
         <v>175565</v>
       </c>
-      <c r="KO12" s="8">
+      <c r="KO12" s="7">
         <v>172953</v>
       </c>
-      <c r="KP12" s="37">
+      <c r="KP12" s="18">
         <v>176211</v>
       </c>
-      <c r="KQ12" s="37">
+      <c r="KQ12" s="7">
         <v>177175</v>
       </c>
-      <c r="KR12" s="37">
+      <c r="KR12" s="7">
         <v>177097</v>
       </c>
+      <c r="KS12" s="8">
+        <v>176369</v>
+      </c>
     </row>
-    <row r="13" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -8549,20 +8567,23 @@
       <c r="KN13" s="7">
         <v>155673</v>
       </c>
-      <c r="KO13" s="8">
+      <c r="KO13" s="7">
         <v>153647</v>
       </c>
-      <c r="KP13" s="37">
+      <c r="KP13" s="18">
         <v>155450</v>
       </c>
-      <c r="KQ13" s="37">
+      <c r="KQ13" s="7">
         <v>156140</v>
       </c>
-      <c r="KR13" s="37">
+      <c r="KR13" s="7">
         <v>156174</v>
       </c>
+      <c r="KS13" s="8">
+        <v>156001</v>
+      </c>
     </row>
-    <row r="14" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
@@ -9463,20 +9484,24 @@
       <c r="KN14" s="7">
         <v>137514</v>
       </c>
-      <c r="KO14" s="8">
+      <c r="KO14" s="7">
         <v>136042</v>
       </c>
-      <c r="KP14" s="37">
+      <c r="KP14" s="18">
         <v>137574</v>
       </c>
-      <c r="KQ14" s="37">
+      <c r="KQ14" s="7">
         <v>138320</v>
       </c>
-      <c r="KR14" s="37">
+      <c r="KR14" s="7">
         <v>138718</v>
       </c>
+      <c r="KS14" s="8">
+        <v>138829</v>
+      </c>
+      <c r="KT14" s="26"/>
     </row>
-    <row r="15" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
@@ -10377,20 +10402,24 @@
       <c r="KN15" s="7">
         <v>122662</v>
       </c>
-      <c r="KO15" s="8">
+      <c r="KO15" s="7">
         <v>121675</v>
       </c>
-      <c r="KP15" s="37">
+      <c r="KP15" s="18">
         <v>122453</v>
       </c>
-      <c r="KQ15" s="37">
+      <c r="KQ15" s="7">
         <v>122973</v>
       </c>
-      <c r="KR15" s="37">
+      <c r="KR15" s="7">
         <v>122991</v>
       </c>
+      <c r="KS15" s="8">
+        <v>122828</v>
+      </c>
+      <c r="KT15" s="26"/>
     </row>
-    <row r="16" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
@@ -11291,20 +11320,24 @@
       <c r="KN16" s="9">
         <v>30</v>
       </c>
-      <c r="KO16" s="10">
+      <c r="KO16" s="9">
         <v>27</v>
       </c>
-      <c r="KP16" s="38">
+      <c r="KP16" s="19">
         <v>27</v>
       </c>
-      <c r="KQ16" s="38">
+      <c r="KQ16" s="9">
         <v>27</v>
       </c>
-      <c r="KR16" s="38">
+      <c r="KR16" s="9">
         <v>24</v>
       </c>
+      <c r="KS16" s="10">
+        <v>23</v>
+      </c>
+      <c r="KT16" s="26"/>
     </row>
-    <row r="17" spans="1:304" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:306" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -12172,54 +12205,57 @@
       <c r="KC17" s="5">
         <v>739790</v>
       </c>
-      <c r="KD17" s="28">
+      <c r="KD17" s="30">
         <v>743292</v>
       </c>
-      <c r="KE17" s="33">
+      <c r="KE17" s="35">
         <v>749141</v>
       </c>
-      <c r="KF17" s="33">
+      <c r="KF17" s="35">
         <v>755037</v>
       </c>
-      <c r="KG17" s="33">
+      <c r="KG17" s="35">
         <v>755439</v>
       </c>
-      <c r="KH17" s="33">
+      <c r="KH17" s="35">
         <v>758969</v>
       </c>
-      <c r="KI17" s="33">
+      <c r="KI17" s="35">
         <v>764973</v>
       </c>
-      <c r="KJ17" s="33">
+      <c r="KJ17" s="35">
         <v>765004</v>
       </c>
-      <c r="KK17" s="33">
+      <c r="KK17" s="35">
         <v>772302</v>
       </c>
-      <c r="KL17" s="33">
+      <c r="KL17" s="35">
         <v>780573</v>
       </c>
-      <c r="KM17" s="33">
+      <c r="KM17" s="35">
         <v>790500</v>
       </c>
-      <c r="KN17" s="33">
+      <c r="KN17" s="35">
         <v>795650</v>
       </c>
-      <c r="KO17" s="29">
+      <c r="KO17" s="35">
         <v>784341</v>
       </c>
-      <c r="KP17" s="36">
+      <c r="KP17" s="30">
         <v>789310</v>
       </c>
-      <c r="KQ17" s="36">
-        <f>SUM(KQ18:KQ26)</f>
+      <c r="KQ17" s="35">
         <v>795499</v>
       </c>
-      <c r="KR17" s="36">
+      <c r="KR17" s="35">
         <v>801239</v>
       </c>
+      <c r="KS17" s="31">
+        <v>803252</v>
+      </c>
+      <c r="KT17" s="27"/>
     </row>
-    <row r="18" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>1</v>
       </c>
@@ -13120,20 +13156,24 @@
       <c r="KN18" s="7">
         <v>133271</v>
       </c>
-      <c r="KO18" s="8">
+      <c r="KO18" s="7">
         <v>132857</v>
       </c>
-      <c r="KP18" s="37">
+      <c r="KP18" s="18">
         <v>134701</v>
       </c>
-      <c r="KQ18" s="37">
+      <c r="KQ18" s="7">
         <v>136039</v>
       </c>
-      <c r="KR18" s="37">
+      <c r="KR18" s="7">
         <v>137196</v>
       </c>
+      <c r="KS18" s="8">
+        <v>138155</v>
+      </c>
+      <c r="KT18" s="26"/>
     </row>
-    <row r="19" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -14034,20 +14074,24 @@
       <c r="KN19" s="7">
         <v>18386</v>
       </c>
-      <c r="KO19" s="8">
+      <c r="KO19" s="7">
         <v>17570</v>
       </c>
-      <c r="KP19" s="37">
+      <c r="KP19" s="18">
         <v>17375</v>
       </c>
-      <c r="KQ19" s="37">
+      <c r="KQ19" s="7">
         <v>17774</v>
       </c>
-      <c r="KR19" s="37">
+      <c r="KR19" s="7">
         <v>18268</v>
       </c>
+      <c r="KS19" s="8">
+        <v>18134</v>
+      </c>
+      <c r="KT19" s="26"/>
     </row>
-    <row r="20" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -14948,20 +14992,24 @@
       <c r="KN20" s="7">
         <v>99752</v>
       </c>
-      <c r="KO20" s="8">
+      <c r="KO20" s="7">
         <v>97134</v>
       </c>
-      <c r="KP20" s="37">
+      <c r="KP20" s="18">
         <v>96989</v>
       </c>
-      <c r="KQ20" s="37">
+      <c r="KQ20" s="7">
         <v>98011</v>
       </c>
-      <c r="KR20" s="37">
+      <c r="KR20" s="7">
         <v>98637</v>
       </c>
+      <c r="KS20" s="8">
+        <v>98428</v>
+      </c>
+      <c r="KT20" s="26"/>
     </row>
-    <row r="21" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>4</v>
       </c>
@@ -15862,20 +15910,24 @@
       <c r="KN21" s="7">
         <v>130510</v>
       </c>
-      <c r="KO21" s="8">
+      <c r="KO21" s="7">
         <v>128281</v>
       </c>
-      <c r="KP21" s="37">
+      <c r="KP21" s="18">
         <v>128282</v>
       </c>
-      <c r="KQ21" s="37">
+      <c r="KQ21" s="7">
         <v>129211</v>
       </c>
-      <c r="KR21" s="37">
+      <c r="KR21" s="7">
         <v>130383</v>
       </c>
+      <c r="KS21" s="8">
+        <v>130425</v>
+      </c>
+      <c r="KT21" s="26"/>
     </row>
-    <row r="22" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>5</v>
       </c>
@@ -16776,20 +16828,24 @@
       <c r="KN22" s="7">
         <v>122351</v>
       </c>
-      <c r="KO22" s="8">
+      <c r="KO22" s="7">
         <v>120640</v>
       </c>
-      <c r="KP22" s="37">
+      <c r="KP22" s="18">
         <v>121771</v>
       </c>
-      <c r="KQ22" s="37">
+      <c r="KQ22" s="7">
         <v>122466</v>
       </c>
-      <c r="KR22" s="37">
+      <c r="KR22" s="7">
         <v>122974</v>
       </c>
+      <c r="KS22" s="8">
+        <v>123271</v>
+      </c>
+      <c r="KT22" s="26"/>
     </row>
-    <row r="23" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -17690,20 +17746,24 @@
       <c r="KN23" s="7">
         <v>110006</v>
       </c>
-      <c r="KO23" s="8">
+      <c r="KO23" s="7">
         <v>108560</v>
       </c>
-      <c r="KP23" s="37">
+      <c r="KP23" s="18">
         <v>109520</v>
       </c>
-      <c r="KQ23" s="37">
+      <c r="KQ23" s="7">
         <v>110163</v>
       </c>
-      <c r="KR23" s="37">
+      <c r="KR23" s="7">
         <v>110868</v>
       </c>
+      <c r="KS23" s="8">
+        <v>111254</v>
+      </c>
+      <c r="KT23" s="26"/>
     </row>
-    <row r="24" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
@@ -18604,20 +18664,23 @@
       <c r="KN24" s="7">
         <v>97400</v>
       </c>
-      <c r="KO24" s="8">
+      <c r="KO24" s="7">
         <v>96269</v>
       </c>
-      <c r="KP24" s="37">
+      <c r="KP24" s="18">
         <v>97208</v>
       </c>
-      <c r="KQ24" s="37">
+      <c r="KQ24" s="7">
         <v>97788</v>
       </c>
-      <c r="KR24" s="37">
+      <c r="KR24" s="7">
         <v>98384</v>
       </c>
+      <c r="KS24" s="8">
+        <v>98757</v>
+      </c>
     </row>
-    <row r="25" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
@@ -19518,20 +19581,23 @@
       <c r="KN25" s="7">
         <v>83968</v>
       </c>
-      <c r="KO25" s="8">
+      <c r="KO25" s="7">
         <v>83025</v>
       </c>
-      <c r="KP25" s="37">
+      <c r="KP25" s="18">
         <v>83457</v>
       </c>
-      <c r="KQ25" s="37">
+      <c r="KQ25" s="7">
         <v>84040</v>
       </c>
-      <c r="KR25" s="37">
+      <c r="KR25" s="7">
         <v>84521</v>
       </c>
+      <c r="KS25" s="8">
+        <v>84819</v>
+      </c>
     </row>
-    <row r="26" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -20432,20 +20498,23 @@
       <c r="KN26" s="9">
         <v>6</v>
       </c>
-      <c r="KO26" s="10">
+      <c r="KO26" s="9">
         <v>5</v>
       </c>
-      <c r="KP26" s="38">
+      <c r="KP26" s="19">
         <v>7</v>
       </c>
-      <c r="KQ26" s="38">
+      <c r="KQ26" s="9">
         <v>7</v>
       </c>
-      <c r="KR26" s="38">
+      <c r="KR26" s="9">
         <v>8</v>
       </c>
+      <c r="KS26" s="10">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="1:304" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -21313,53 +21382,57 @@
       <c r="KC27" s="11">
         <v>1849999</v>
       </c>
-      <c r="KD27" s="30">
+      <c r="KD27" s="32">
         <v>1861159</v>
       </c>
-      <c r="KE27" s="34">
+      <c r="KE27" s="36">
         <v>1874622</v>
       </c>
-      <c r="KF27" s="34">
+      <c r="KF27" s="36">
         <v>1886776</v>
       </c>
-      <c r="KG27" s="34">
+      <c r="KG27" s="36">
         <v>1884715</v>
       </c>
-      <c r="KH27" s="34">
+      <c r="KH27" s="36">
         <v>1888232</v>
       </c>
-      <c r="KI27" s="34">
+      <c r="KI27" s="36">
         <v>1896755</v>
       </c>
-      <c r="KJ27" s="34">
+      <c r="KJ27" s="36">
         <v>1896517</v>
       </c>
-      <c r="KK27" s="34">
+      <c r="KK27" s="36">
         <v>1910627</v>
       </c>
-      <c r="KL27" s="34">
+      <c r="KL27" s="36">
         <v>1927647</v>
       </c>
-      <c r="KM27" s="34">
+      <c r="KM27" s="36">
         <v>1950941</v>
       </c>
-      <c r="KN27" s="34">
+      <c r="KN27" s="36">
         <v>1960510</v>
       </c>
-      <c r="KO27" s="31">
+      <c r="KO27" s="36">
         <v>1932962</v>
       </c>
-      <c r="KP27" s="39">
+      <c r="KP27" s="32">
         <v>1951256</v>
       </c>
-      <c r="KQ27" s="39">
+      <c r="KQ27" s="36">
         <v>1964519</v>
       </c>
-      <c r="KR27" s="39">
+      <c r="KR27" s="36">
         <v>1972715</v>
       </c>
+      <c r="KS27" s="33">
+        <v>1973202</v>
+      </c>
+      <c r="KT27" s="25"/>
     </row>
-    <row r="28" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -22544,20 +22617,24 @@
       <c r="KN28" s="7">
         <v>351267</v>
       </c>
-      <c r="KO28" s="8">
+      <c r="KO28" s="7">
         <v>350518</v>
       </c>
-      <c r="KP28" s="37">
+      <c r="KP28" s="18">
         <v>355005</v>
       </c>
-      <c r="KQ28" s="37">
+      <c r="KQ28" s="7">
         <v>357998</v>
       </c>
-      <c r="KR28" s="37">
+      <c r="KR28" s="7">
         <v>360203</v>
       </c>
+      <c r="KS28" s="8">
+        <v>361599</v>
+      </c>
+      <c r="KT28" s="25"/>
     </row>
-    <row r="29" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>2</v>
       </c>
@@ -23742,20 +23819,24 @@
       <c r="KN29" s="7">
         <v>49433</v>
       </c>
-      <c r="KO29" s="8">
+      <c r="KO29" s="7">
         <v>47364</v>
       </c>
-      <c r="KP29" s="37">
+      <c r="KP29" s="18">
         <v>47444</v>
       </c>
-      <c r="KQ29" s="37">
+      <c r="KQ29" s="7">
         <v>48393</v>
       </c>
-      <c r="KR29" s="37">
+      <c r="KR29" s="7">
         <v>49148</v>
       </c>
+      <c r="KS29" s="8">
+        <v>48554</v>
+      </c>
+      <c r="KT29" s="25"/>
     </row>
-    <row r="30" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -24940,20 +25021,24 @@
       <c r="KN30" s="7">
         <v>242430</v>
       </c>
-      <c r="KO30" s="8">
+      <c r="KO30" s="7">
         <v>235682</v>
       </c>
-      <c r="KP30" s="37">
+      <c r="KP30" s="18">
         <v>237417</v>
       </c>
-      <c r="KQ30" s="37">
+      <c r="KQ30" s="7">
         <v>239602</v>
       </c>
-      <c r="KR30" s="37">
+      <c r="KR30" s="7">
         <v>240716</v>
       </c>
+      <c r="KS30" s="8">
+        <v>240141</v>
+      </c>
+      <c r="KT30" s="25"/>
     </row>
-    <row r="31" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>4</v>
       </c>
@@ -26138,20 +26223,24 @@
       <c r="KN31" s="7">
         <v>312205</v>
       </c>
-      <c r="KO31" s="8">
+      <c r="KO31" s="7">
         <v>306555</v>
       </c>
-      <c r="KP31" s="37">
+      <c r="KP31" s="18">
         <v>307712</v>
       </c>
-      <c r="KQ31" s="37">
+      <c r="KQ31" s="7">
         <v>309427</v>
       </c>
-      <c r="KR31" s="37">
+      <c r="KR31" s="7">
         <v>310889</v>
       </c>
+      <c r="KS31" s="8">
+        <v>310748</v>
+      </c>
+      <c r="KT31" s="25"/>
     </row>
-    <row r="32" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
@@ -27336,20 +27425,24 @@
       <c r="KN32" s="7">
         <v>297916</v>
       </c>
-      <c r="KO32" s="8">
+      <c r="KO32" s="7">
         <v>293593</v>
       </c>
-      <c r="KP32" s="37">
+      <c r="KP32" s="18">
         <v>297982</v>
       </c>
-      <c r="KQ32" s="37">
+      <c r="KQ32" s="7">
         <v>299641</v>
       </c>
-      <c r="KR32" s="37">
+      <c r="KR32" s="7">
         <v>300071</v>
       </c>
+      <c r="KS32" s="8">
+        <v>299640</v>
+      </c>
+      <c r="KT32" s="25"/>
     </row>
-    <row r="33" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -28534,20 +28627,24 @@
       <c r="KN33" s="7">
         <v>265679</v>
       </c>
-      <c r="KO33" s="8">
+      <c r="KO33" s="7">
         <v>262207</v>
       </c>
-      <c r="KP33" s="37">
+      <c r="KP33" s="18">
         <v>264970</v>
       </c>
-      <c r="KQ33" s="37">
+      <c r="KQ33" s="7">
         <v>266303</v>
       </c>
-      <c r="KR33" s="37">
+      <c r="KR33" s="7">
         <v>267042</v>
       </c>
+      <c r="KS33" s="8">
+        <v>267255</v>
+      </c>
+      <c r="KT33" s="25"/>
     </row>
-    <row r="34" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -29732,20 +29829,24 @@
       <c r="KN34" s="7">
         <v>234914</v>
       </c>
-      <c r="KO34" s="8">
+      <c r="KO34" s="7">
         <v>232311</v>
       </c>
-      <c r="KP34" s="37">
+      <c r="KP34" s="18">
         <v>234782</v>
       </c>
-      <c r="KQ34" s="37">
+      <c r="KQ34" s="7">
         <v>236108</v>
       </c>
-      <c r="KR34" s="37">
+      <c r="KR34" s="7">
         <v>237102</v>
       </c>
+      <c r="KS34" s="8">
+        <v>237586</v>
+      </c>
+      <c r="KT34" s="25"/>
     </row>
-    <row r="35" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
@@ -30930,20 +31031,24 @@
       <c r="KN35" s="7">
         <v>206630</v>
       </c>
-      <c r="KO35" s="8">
+      <c r="KO35" s="7">
         <v>204700</v>
       </c>
-      <c r="KP35" s="37">
+      <c r="KP35" s="18">
         <v>205910</v>
       </c>
-      <c r="KQ35" s="37">
+      <c r="KQ35" s="7">
         <v>207013</v>
       </c>
-      <c r="KR35" s="37">
+      <c r="KR35" s="7">
         <v>207512</v>
       </c>
+      <c r="KS35" s="8">
+        <v>207647</v>
+      </c>
+      <c r="KT35" s="25"/>
     </row>
-    <row r="36" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>9</v>
       </c>
@@ -32128,39 +32233,37 @@
       <c r="KN36" s="9">
         <v>36</v>
       </c>
-      <c r="KO36" s="10">
+      <c r="KO36" s="9">
         <v>32</v>
       </c>
-      <c r="KP36" s="38">
+      <c r="KP36" s="19">
         <v>34</v>
       </c>
-      <c r="KQ36" s="38">
+      <c r="KQ36" s="9">
         <v>34</v>
       </c>
-      <c r="KR36" s="38">
+      <c r="KR36" s="9">
         <v>32</v>
       </c>
+      <c r="KS36" s="10">
+        <v>32</v>
+      </c>
+      <c r="KT36" s="25"/>
     </row>
-    <row r="37" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:306" x14ac:dyDescent="0.3">
       <c r="KC37" s="25"/>
+      <c r="KQ37" s="25"/>
+      <c r="KR37" s="25"/>
+      <c r="KS37" s="25"/>
     </row>
-    <row r="38" spans="1:304" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:306" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
+  <mergeCells count="27">
+    <mergeCell ref="KP5:KS5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
@@ -32177,6 +32280,16 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C17BDE-724A-4D04-A7C1-D481F7971F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE543F7D-9D26-43C5-9045-B2515B1965E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - junio 2023</t>
+    <t>Enero 1998 - julio 2023</t>
   </si>
 </sst>
 </file>
@@ -734,12 +734,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KV38"/>
+  <dimension ref="A1:KW38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KG1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KV34" sqref="KV34"/>
+      <selection pane="topRight" activeCell="KQ3" sqref="KQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,27 +873,27 @@
     <col min="299" max="299" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="300" max="300" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="301" max="301" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="307" width="10" style="1" customWidth="1"/>
-    <col min="308" max="16384" width="11.33203125" style="1"/>
+    <col min="302" max="308" width="10" style="1" customWidth="1"/>
+    <col min="309" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:307" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:307" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>26</v>
       </c>
@@ -1254,9 +1254,10 @@
       <c r="KR5" s="35"/>
       <c r="KS5" s="35"/>
       <c r="KT5" s="35"/>
-      <c r="KU5" s="36"/>
+      <c r="KU5" s="35"/>
+      <c r="KV5" s="36"/>
     </row>
-    <row r="6" spans="1:307" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -2173,11 +2174,14 @@
       <c r="KT6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="KU6" s="24" t="s">
+      <c r="KU6" s="29" t="s">
         <v>16</v>
       </c>
+      <c r="KV6" s="24" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:307" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3096,11 +3100,14 @@
       <c r="KT7" s="30">
         <v>1169158</v>
       </c>
-      <c r="KU7" s="26">
+      <c r="KU7" s="30">
         <v>1171681</v>
       </c>
+      <c r="KV7" s="26">
+        <v>1171148</v>
+      </c>
     </row>
-    <row r="8" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4019,11 +4026,14 @@
       <c r="KT8" s="5">
         <v>223989</v>
       </c>
-      <c r="KU8" s="6">
+      <c r="KU8" s="5">
         <v>225090</v>
       </c>
+      <c r="KV8" s="6">
+        <v>225467</v>
+      </c>
     </row>
-    <row r="9" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -4942,11 +4952,14 @@
       <c r="KT9" s="5">
         <v>30239</v>
       </c>
-      <c r="KU9" s="6">
+      <c r="KU9" s="5">
         <v>30899</v>
       </c>
+      <c r="KV9" s="6">
+        <v>31126</v>
+      </c>
     </row>
-    <row r="10" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -5865,11 +5878,14 @@
       <c r="KT10" s="5">
         <v>141493</v>
       </c>
-      <c r="KU10" s="6">
+      <c r="KU10" s="5">
         <v>142356</v>
       </c>
+      <c r="KV10" s="6">
+        <v>142001</v>
+      </c>
     </row>
-    <row r="11" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6788,11 +6804,14 @@
       <c r="KT11" s="5">
         <v>180031</v>
       </c>
-      <c r="KU11" s="6">
+      <c r="KU11" s="5">
         <v>179962</v>
       </c>
+      <c r="KV11" s="6">
+        <v>179888</v>
+      </c>
     </row>
-    <row r="12" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7711,11 +7730,14 @@
       <c r="KT12" s="5">
         <v>176123</v>
       </c>
-      <c r="KU12" s="6">
+      <c r="KU12" s="5">
         <v>175897</v>
       </c>
+      <c r="KV12" s="6">
+        <v>175889</v>
+      </c>
     </row>
-    <row r="13" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8634,11 +8656,14 @@
       <c r="KT13" s="5">
         <v>155680</v>
       </c>
-      <c r="KU13" s="6">
+      <c r="KU13" s="5">
         <v>155582</v>
       </c>
+      <c r="KV13" s="6">
+        <v>155258</v>
+      </c>
     </row>
-    <row r="14" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9557,11 +9582,14 @@
       <c r="KT14" s="5">
         <v>138889</v>
       </c>
-      <c r="KU14" s="6">
+      <c r="KU14" s="5">
         <v>139114</v>
       </c>
+      <c r="KV14" s="6">
+        <v>139107</v>
+      </c>
     </row>
-    <row r="15" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10480,11 +10508,14 @@
       <c r="KT15" s="5">
         <v>122692</v>
       </c>
-      <c r="KU15" s="6">
+      <c r="KU15" s="5">
         <v>122752</v>
       </c>
+      <c r="KV15" s="6">
+        <v>122385</v>
+      </c>
     </row>
-    <row r="16" spans="1:307" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:308" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11403,11 +11434,14 @@
       <c r="KT16" s="7">
         <v>22</v>
       </c>
-      <c r="KU16" s="8">
+      <c r="KU16" s="7">
         <v>29</v>
       </c>
+      <c r="KV16" s="8">
+        <v>27</v>
+      </c>
     </row>
-    <row r="17" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12326,11 +12360,14 @@
       <c r="KT17" s="30">
         <v>805407</v>
       </c>
-      <c r="KU17" s="26">
+      <c r="KU17" s="30">
         <v>809109</v>
       </c>
+      <c r="KV17" s="26">
+        <v>809998</v>
+      </c>
     </row>
-    <row r="18" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13249,11 +13286,14 @@
       <c r="KT18" s="5">
         <v>139265</v>
       </c>
-      <c r="KU18" s="6">
+      <c r="KU18" s="5">
         <v>140396</v>
       </c>
+      <c r="KV18" s="6">
+        <v>141088</v>
+      </c>
     </row>
-    <row r="19" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14172,11 +14212,14 @@
       <c r="KT19" s="5">
         <v>18005</v>
       </c>
-      <c r="KU19" s="6">
+      <c r="KU19" s="5">
         <v>18738</v>
       </c>
+      <c r="KV19" s="6">
+        <v>18744</v>
+      </c>
     </row>
-    <row r="20" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15095,11 +15138,14 @@
       <c r="KT20" s="5">
         <v>98459</v>
       </c>
-      <c r="KU20" s="6">
+      <c r="KU20" s="5">
         <v>99744</v>
       </c>
+      <c r="KV20" s="6">
+        <v>99664</v>
+      </c>
     </row>
-    <row r="21" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16018,11 +16064,14 @@
       <c r="KT21" s="5">
         <v>130769</v>
       </c>
-      <c r="KU21" s="6">
+      <c r="KU21" s="5">
         <v>130891</v>
       </c>
+      <c r="KV21" s="6">
+        <v>131023</v>
+      </c>
     </row>
-    <row r="22" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -16941,11 +16990,14 @@
       <c r="KT22" s="5">
         <v>123421</v>
       </c>
-      <c r="KU22" s="6">
+      <c r="KU22" s="5">
         <v>123500</v>
       </c>
+      <c r="KV22" s="6">
+        <v>123396</v>
+      </c>
     </row>
-    <row r="23" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -17864,11 +17916,14 @@
       <c r="KT23" s="5">
         <v>111231</v>
       </c>
-      <c r="KU23" s="6">
+      <c r="KU23" s="5">
         <v>111176</v>
       </c>
+      <c r="KV23" s="6">
+        <v>111090</v>
+      </c>
     </row>
-    <row r="24" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -18787,11 +18842,14 @@
       <c r="KT24" s="5">
         <v>99133</v>
       </c>
-      <c r="KU24" s="6">
+      <c r="KU24" s="5">
         <v>99355</v>
       </c>
+      <c r="KV24" s="6">
+        <v>99521</v>
+      </c>
     </row>
-    <row r="25" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -19710,11 +19768,14 @@
       <c r="KT25" s="5">
         <v>85116</v>
       </c>
-      <c r="KU25" s="6">
+      <c r="KU25" s="5">
         <v>85300</v>
       </c>
+      <c r="KV25" s="6">
+        <v>85463</v>
+      </c>
     </row>
-    <row r="26" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -20633,11 +20694,14 @@
       <c r="KT26" s="7">
         <v>8</v>
       </c>
-      <c r="KU26" s="8">
+      <c r="KU26" s="7">
         <v>9</v>
       </c>
+      <c r="KV26" s="8">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -21556,12 +21620,15 @@
       <c r="KT27" s="31">
         <v>1974565</v>
       </c>
-      <c r="KU27" s="28">
+      <c r="KU27" s="31">
         <v>1980790</v>
       </c>
-      <c r="KV27" s="5"/>
+      <c r="KV27" s="28">
+        <v>1981146</v>
+      </c>
+      <c r="KW27" s="5"/>
     </row>
-    <row r="28" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -22764,12 +22831,15 @@
       <c r="KT28" s="5">
         <v>363254</v>
       </c>
-      <c r="KU28" s="6">
+      <c r="KU28" s="5">
         <v>365486</v>
       </c>
-      <c r="KV28" s="5"/>
+      <c r="KV28" s="6">
+        <v>366555</v>
+      </c>
+      <c r="KW28" s="5"/>
     </row>
-    <row r="29" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -23972,12 +24042,15 @@
       <c r="KT29" s="5">
         <v>48244</v>
       </c>
-      <c r="KU29" s="6">
+      <c r="KU29" s="5">
         <v>49637</v>
       </c>
-      <c r="KV29" s="5"/>
+      <c r="KV29" s="6">
+        <v>49870</v>
+      </c>
+      <c r="KW29" s="5"/>
     </row>
-    <row r="30" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25180,12 +25253,15 @@
       <c r="KT30" s="5">
         <v>239952</v>
       </c>
-      <c r="KU30" s="6">
+      <c r="KU30" s="5">
         <v>242100</v>
       </c>
-      <c r="KV30" s="5"/>
+      <c r="KV30" s="6">
+        <v>241665</v>
+      </c>
+      <c r="KW30" s="5"/>
     </row>
-    <row r="31" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -26388,12 +26464,15 @@
       <c r="KT31" s="5">
         <v>310800</v>
       </c>
-      <c r="KU31" s="6">
+      <c r="KU31" s="5">
         <v>310853</v>
       </c>
-      <c r="KV31" s="5"/>
+      <c r="KV31" s="6">
+        <v>310911</v>
+      </c>
+      <c r="KW31" s="5"/>
     </row>
-    <row r="32" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -27596,12 +27675,15 @@
       <c r="KT32" s="5">
         <v>299544</v>
       </c>
-      <c r="KU32" s="6">
+      <c r="KU32" s="5">
         <v>299397</v>
       </c>
-      <c r="KV32" s="5"/>
+      <c r="KV32" s="6">
+        <v>299285</v>
+      </c>
+      <c r="KW32" s="5"/>
     </row>
-    <row r="33" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -28804,12 +28886,15 @@
       <c r="KT33" s="5">
         <v>266911</v>
       </c>
-      <c r="KU33" s="6">
+      <c r="KU33" s="5">
         <v>266758</v>
       </c>
-      <c r="KV33" s="5"/>
+      <c r="KV33" s="6">
+        <v>266348</v>
+      </c>
+      <c r="KW33" s="5"/>
     </row>
-    <row r="34" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30012,12 +30097,15 @@
       <c r="KT34" s="5">
         <v>238022</v>
       </c>
-      <c r="KU34" s="6">
+      <c r="KU34" s="5">
         <v>238469</v>
       </c>
-      <c r="KV34" s="5"/>
+      <c r="KV34" s="6">
+        <v>238628</v>
+      </c>
+      <c r="KW34" s="5"/>
     </row>
-    <row r="35" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -31220,12 +31308,15 @@
       <c r="KT35" s="5">
         <v>207808</v>
       </c>
-      <c r="KU35" s="6">
+      <c r="KU35" s="5">
         <v>208052</v>
       </c>
-      <c r="KV35" s="5"/>
+      <c r="KV35" s="6">
+        <v>207848</v>
+      </c>
+      <c r="KW35" s="5"/>
     </row>
-    <row r="36" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -32428,27 +32519,31 @@
       <c r="KT36" s="7">
         <v>30</v>
       </c>
-      <c r="KU36" s="8">
+      <c r="KU36" s="7">
         <v>38</v>
       </c>
-      <c r="KV36" s="5"/>
+      <c r="KV36" s="8">
+        <v>36</v>
+      </c>
+      <c r="KW36" s="5"/>
     </row>
-    <row r="37" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:309" x14ac:dyDescent="0.3">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
       <c r="KS37" s="5"/>
       <c r="KT37" s="5"/>
       <c r="KU37" s="5"/>
+      <c r="KV37" s="5"/>
     </row>
-    <row r="38" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="KP5:KU5"/>
+    <mergeCell ref="KP5:KV5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE543F7D-9D26-43C5-9045-B2515B1965E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF6701-FAFF-4B63-8A44-4548703FCAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - julio 2023</t>
+    <t>Enero 1998 - agosto 2023</t>
   </si>
 </sst>
 </file>
@@ -734,17 +734,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KW38"/>
+  <dimension ref="A1:KX38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KG1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KQ3" sqref="KQ3"/>
+      <selection pane="topRight" activeCell="KH2" sqref="KH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
     <col min="2" max="9" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -873,27 +873,27 @@
     <col min="299" max="299" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="300" max="300" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="301" max="301" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="308" width="10" style="1" customWidth="1"/>
-    <col min="309" max="16384" width="11.33203125" style="1"/>
+    <col min="302" max="309" width="10" style="1" customWidth="1"/>
+    <col min="310" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>26</v>
       </c>
@@ -1255,9 +1255,10 @@
       <c r="KS5" s="35"/>
       <c r="KT5" s="35"/>
       <c r="KU5" s="35"/>
-      <c r="KV5" s="36"/>
+      <c r="KV5" s="35"/>
+      <c r="KW5" s="36"/>
     </row>
-    <row r="6" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -2177,11 +2178,14 @@
       <c r="KU6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="KV6" s="24" t="s">
+      <c r="KV6" s="29" t="s">
         <v>17</v>
       </c>
+      <c r="KW6" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:308" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3103,11 +3107,14 @@
       <c r="KU7" s="30">
         <v>1171681</v>
       </c>
-      <c r="KV7" s="26">
+      <c r="KV7" s="30">
         <v>1171148</v>
       </c>
+      <c r="KW7" s="26">
+        <v>1174608</v>
+      </c>
     </row>
-    <row r="8" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4029,11 +4036,14 @@
       <c r="KU8" s="5">
         <v>225090</v>
       </c>
-      <c r="KV8" s="6">
+      <c r="KV8" s="5">
         <v>225467</v>
       </c>
+      <c r="KW8" s="6">
+        <v>227560</v>
+      </c>
     </row>
-    <row r="9" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -4955,11 +4965,14 @@
       <c r="KU9" s="5">
         <v>30899</v>
       </c>
-      <c r="KV9" s="6">
+      <c r="KV9" s="5">
         <v>31126</v>
       </c>
+      <c r="KW9" s="6">
+        <v>30413</v>
+      </c>
     </row>
-    <row r="10" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -5881,11 +5894,14 @@
       <c r="KU10" s="5">
         <v>142356</v>
       </c>
-      <c r="KV10" s="6">
+      <c r="KV10" s="5">
         <v>142001</v>
       </c>
+      <c r="KW10" s="6">
+        <v>140845</v>
+      </c>
     </row>
-    <row r="11" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6807,11 +6823,14 @@
       <c r="KU11" s="5">
         <v>179962</v>
       </c>
-      <c r="KV11" s="6">
+      <c r="KV11" s="5">
         <v>179888</v>
       </c>
+      <c r="KW11" s="6">
+        <v>180705</v>
+      </c>
     </row>
-    <row r="12" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7733,11 +7752,14 @@
       <c r="KU12" s="5">
         <v>175897</v>
       </c>
-      <c r="KV12" s="6">
+      <c r="KV12" s="5">
         <v>175889</v>
       </c>
+      <c r="KW12" s="6">
+        <v>176368</v>
+      </c>
     </row>
-    <row r="13" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8659,11 +8681,14 @@
       <c r="KU13" s="5">
         <v>155582</v>
       </c>
-      <c r="KV13" s="6">
+      <c r="KV13" s="5">
         <v>155258</v>
       </c>
+      <c r="KW13" s="6">
+        <v>155856</v>
+      </c>
     </row>
-    <row r="14" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9585,11 +9610,14 @@
       <c r="KU14" s="5">
         <v>139114</v>
       </c>
-      <c r="KV14" s="6">
+      <c r="KV14" s="5">
         <v>139107</v>
       </c>
+      <c r="KW14" s="6">
+        <v>139842</v>
+      </c>
     </row>
-    <row r="15" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10511,11 +10539,14 @@
       <c r="KU15" s="5">
         <v>122752</v>
       </c>
-      <c r="KV15" s="6">
+      <c r="KV15" s="5">
         <v>122385</v>
       </c>
+      <c r="KW15" s="6">
+        <v>122986</v>
+      </c>
     </row>
-    <row r="16" spans="1:308" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:309" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11437,11 +11468,14 @@
       <c r="KU16" s="7">
         <v>29</v>
       </c>
-      <c r="KV16" s="8">
+      <c r="KV16" s="7">
         <v>27</v>
       </c>
+      <c r="KW16" s="8">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12363,11 +12397,14 @@
       <c r="KU17" s="30">
         <v>809109</v>
       </c>
-      <c r="KV17" s="26">
+      <c r="KV17" s="30">
         <v>809998</v>
       </c>
+      <c r="KW17" s="26">
+        <v>814138</v>
+      </c>
     </row>
-    <row r="18" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13289,11 +13326,14 @@
       <c r="KU18" s="5">
         <v>140396</v>
       </c>
-      <c r="KV18" s="6">
+      <c r="KV18" s="5">
         <v>141088</v>
       </c>
+      <c r="KW18" s="6">
+        <v>142801</v>
+      </c>
     </row>
-    <row r="19" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14215,11 +14255,14 @@
       <c r="KU19" s="5">
         <v>18738</v>
       </c>
-      <c r="KV19" s="6">
+      <c r="KV19" s="5">
         <v>18744</v>
       </c>
+      <c r="KW19" s="6">
+        <v>18211</v>
+      </c>
     </row>
-    <row r="20" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15141,11 +15184,14 @@
       <c r="KU20" s="5">
         <v>99744</v>
       </c>
-      <c r="KV20" s="6">
+      <c r="KV20" s="5">
         <v>99664</v>
       </c>
+      <c r="KW20" s="6">
+        <v>98750</v>
+      </c>
     </row>
-    <row r="21" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16067,11 +16113,14 @@
       <c r="KU21" s="5">
         <v>130891</v>
       </c>
-      <c r="KV21" s="6">
+      <c r="KV21" s="5">
         <v>131023</v>
       </c>
+      <c r="KW21" s="6">
+        <v>131887</v>
+      </c>
     </row>
-    <row r="22" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -16993,11 +17042,14 @@
       <c r="KU22" s="5">
         <v>123500</v>
       </c>
-      <c r="KV22" s="6">
+      <c r="KV22" s="5">
         <v>123396</v>
       </c>
+      <c r="KW22" s="6">
+        <v>124327</v>
+      </c>
     </row>
-    <row r="23" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -17919,11 +17971,14 @@
       <c r="KU23" s="5">
         <v>111176</v>
       </c>
-      <c r="KV23" s="6">
+      <c r="KV23" s="5">
         <v>111090</v>
       </c>
+      <c r="KW23" s="6">
+        <v>112003</v>
+      </c>
     </row>
-    <row r="24" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -18845,11 +18900,14 @@
       <c r="KU24" s="5">
         <v>99355</v>
       </c>
-      <c r="KV24" s="6">
+      <c r="KV24" s="5">
         <v>99521</v>
       </c>
+      <c r="KW24" s="6">
+        <v>100170</v>
+      </c>
     </row>
-    <row r="25" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -19771,11 +19829,14 @@
       <c r="KU25" s="5">
         <v>85300</v>
       </c>
-      <c r="KV25" s="6">
+      <c r="KV25" s="5">
         <v>85463</v>
       </c>
+      <c r="KW25" s="6">
+        <v>85979</v>
+      </c>
     </row>
-    <row r="26" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -20697,11 +20758,14 @@
       <c r="KU26" s="7">
         <v>9</v>
       </c>
-      <c r="KV26" s="8">
+      <c r="KV26" s="7">
         <v>9</v>
       </c>
+      <c r="KW26" s="8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -21623,12 +21687,15 @@
       <c r="KU27" s="31">
         <v>1980790</v>
       </c>
-      <c r="KV27" s="28">
+      <c r="KV27" s="31">
         <v>1981146</v>
       </c>
-      <c r="KW27" s="5"/>
+      <c r="KW27" s="28">
+        <v>1988746</v>
+      </c>
+      <c r="KX27" s="5"/>
     </row>
-    <row r="28" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -22834,12 +22901,15 @@
       <c r="KU28" s="5">
         <v>365486</v>
       </c>
-      <c r="KV28" s="6">
+      <c r="KV28" s="5">
         <v>366555</v>
       </c>
-      <c r="KW28" s="5"/>
+      <c r="KW28" s="6">
+        <v>370361</v>
+      </c>
+      <c r="KX28" s="5"/>
     </row>
-    <row r="29" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24045,12 +24115,15 @@
       <c r="KU29" s="5">
         <v>49637</v>
       </c>
-      <c r="KV29" s="6">
+      <c r="KV29" s="5">
         <v>49870</v>
       </c>
-      <c r="KW29" s="5"/>
+      <c r="KW29" s="6">
+        <v>48624</v>
+      </c>
+      <c r="KX29" s="5"/>
     </row>
-    <row r="30" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25256,12 +25329,15 @@
       <c r="KU30" s="5">
         <v>242100</v>
       </c>
-      <c r="KV30" s="6">
+      <c r="KV30" s="5">
         <v>241665</v>
       </c>
-      <c r="KW30" s="5"/>
+      <c r="KW30" s="6">
+        <v>239595</v>
+      </c>
+      <c r="KX30" s="5"/>
     </row>
-    <row r="31" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -26467,12 +26543,15 @@
       <c r="KU31" s="5">
         <v>310853</v>
       </c>
-      <c r="KV31" s="6">
+      <c r="KV31" s="5">
         <v>310911</v>
       </c>
-      <c r="KW31" s="5"/>
+      <c r="KW31" s="6">
+        <v>312592</v>
+      </c>
+      <c r="KX31" s="5"/>
     </row>
-    <row r="32" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -27678,12 +27757,15 @@
       <c r="KU32" s="5">
         <v>299397</v>
       </c>
-      <c r="KV32" s="6">
+      <c r="KV32" s="5">
         <v>299285</v>
       </c>
-      <c r="KW32" s="5"/>
+      <c r="KW32" s="6">
+        <v>300695</v>
+      </c>
+      <c r="KX32" s="5"/>
     </row>
-    <row r="33" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -28889,12 +28971,15 @@
       <c r="KU33" s="5">
         <v>266758</v>
       </c>
-      <c r="KV33" s="6">
+      <c r="KV33" s="5">
         <v>266348</v>
       </c>
-      <c r="KW33" s="5"/>
+      <c r="KW33" s="6">
+        <v>267859</v>
+      </c>
+      <c r="KX33" s="5"/>
     </row>
-    <row r="34" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30100,12 +30185,15 @@
       <c r="KU34" s="5">
         <v>238469</v>
       </c>
-      <c r="KV34" s="6">
+      <c r="KV34" s="5">
         <v>238628</v>
       </c>
-      <c r="KW34" s="5"/>
+      <c r="KW34" s="6">
+        <v>240012</v>
+      </c>
+      <c r="KX34" s="5"/>
     </row>
-    <row r="35" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -31311,12 +31399,15 @@
       <c r="KU35" s="5">
         <v>208052</v>
       </c>
-      <c r="KV35" s="6">
+      <c r="KV35" s="5">
         <v>207848</v>
       </c>
-      <c r="KW35" s="5"/>
+      <c r="KW35" s="6">
+        <v>208965</v>
+      </c>
+      <c r="KX35" s="5"/>
     </row>
-    <row r="36" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -32522,12 +32613,15 @@
       <c r="KU36" s="7">
         <v>38</v>
       </c>
-      <c r="KV36" s="8">
+      <c r="KV36" s="7">
         <v>36</v>
       </c>
-      <c r="KW36" s="5"/>
+      <c r="KW36" s="8">
+        <v>43</v>
+      </c>
+      <c r="KX36" s="5"/>
     </row>
-    <row r="37" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:310" x14ac:dyDescent="0.3">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -32535,15 +32629,16 @@
       <c r="KT37" s="5"/>
       <c r="KU37" s="5"/>
       <c r="KV37" s="5"/>
+      <c r="KW37" s="5"/>
     </row>
-    <row r="38" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="KP5:KV5"/>
+    <mergeCell ref="KP5:KW5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF6701-FAFF-4B63-8A44-4548703FCAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A99AF-E3BB-43B1-9AEE-090311C2B7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - agosto 2023</t>
+    <t>Enero 1998 - septiembre 2023</t>
   </si>
 </sst>
 </file>
@@ -734,12 +734,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KX38"/>
+  <dimension ref="A1:KY38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KG1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KH1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KH2" sqref="KH2"/>
+      <selection pane="topRight" activeCell="KZ17" sqref="KZ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,27 +873,28 @@
     <col min="299" max="299" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="300" max="300" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="301" max="301" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="309" width="10" style="1" customWidth="1"/>
-    <col min="310" max="16384" width="11.33203125" style="1"/>
+    <col min="302" max="309" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>26</v>
       </c>
@@ -1256,9 +1257,10 @@
       <c r="KT5" s="35"/>
       <c r="KU5" s="35"/>
       <c r="KV5" s="35"/>
-      <c r="KW5" s="36"/>
+      <c r="KW5" s="35"/>
+      <c r="KX5" s="36"/>
     </row>
-    <row r="6" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -2181,11 +2183,14 @@
       <c r="KV6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="KW6" s="24" t="s">
+      <c r="KW6" s="29" t="s">
         <v>18</v>
       </c>
+      <c r="KX6" s="24" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3110,11 +3115,14 @@
       <c r="KV7" s="30">
         <v>1171148</v>
       </c>
-      <c r="KW7" s="26">
+      <c r="KW7" s="30">
         <v>1174608</v>
       </c>
+      <c r="KX7" s="26">
+        <v>1178718</v>
+      </c>
     </row>
-    <row r="8" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4039,11 +4047,14 @@
       <c r="KV8" s="5">
         <v>225467</v>
       </c>
-      <c r="KW8" s="6">
+      <c r="KW8" s="5">
         <v>227560</v>
       </c>
+      <c r="KX8" s="6">
+        <v>228602</v>
+      </c>
     </row>
-    <row r="9" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -4968,11 +4979,14 @@
       <c r="KV9" s="5">
         <v>31126</v>
       </c>
-      <c r="KW9" s="6">
+      <c r="KW9" s="5">
         <v>30413</v>
       </c>
+      <c r="KX9" s="6">
+        <v>30537</v>
+      </c>
     </row>
-    <row r="10" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -5897,11 +5911,14 @@
       <c r="KV10" s="5">
         <v>142001</v>
       </c>
-      <c r="KW10" s="6">
+      <c r="KW10" s="5">
         <v>140845</v>
       </c>
+      <c r="KX10" s="6">
+        <v>141472</v>
+      </c>
     </row>
-    <row r="11" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6826,11 +6843,14 @@
       <c r="KV11" s="5">
         <v>179888</v>
       </c>
-      <c r="KW11" s="6">
+      <c r="KW11" s="5">
         <v>180705</v>
       </c>
+      <c r="KX11" s="6">
+        <v>181328</v>
+      </c>
     </row>
-    <row r="12" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7755,11 +7775,14 @@
       <c r="KV12" s="5">
         <v>175889</v>
       </c>
-      <c r="KW12" s="6">
+      <c r="KW12" s="5">
         <v>176368</v>
       </c>
+      <c r="KX12" s="6">
+        <v>177121</v>
+      </c>
     </row>
-    <row r="13" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8684,11 +8707,14 @@
       <c r="KV13" s="5">
         <v>155258</v>
       </c>
-      <c r="KW13" s="6">
+      <c r="KW13" s="5">
         <v>155856</v>
       </c>
+      <c r="KX13" s="6">
+        <v>156242</v>
+      </c>
     </row>
-    <row r="14" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9613,11 +9639,14 @@
       <c r="KV14" s="5">
         <v>139107</v>
       </c>
-      <c r="KW14" s="6">
+      <c r="KW14" s="5">
         <v>139842</v>
       </c>
+      <c r="KX14" s="6">
+        <v>140224</v>
+      </c>
     </row>
-    <row r="15" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10542,11 +10571,14 @@
       <c r="KV15" s="5">
         <v>122385</v>
       </c>
-      <c r="KW15" s="6">
+      <c r="KW15" s="5">
         <v>122986</v>
       </c>
+      <c r="KX15" s="6">
+        <v>123153</v>
+      </c>
     </row>
-    <row r="16" spans="1:309" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:310" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11471,11 +11503,14 @@
       <c r="KV16" s="7">
         <v>27</v>
       </c>
-      <c r="KW16" s="8">
+      <c r="KW16" s="7">
         <v>33</v>
       </c>
+      <c r="KX16" s="8">
+        <v>39</v>
+      </c>
     </row>
-    <row r="17" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12400,11 +12435,14 @@
       <c r="KV17" s="30">
         <v>809998</v>
       </c>
-      <c r="KW17" s="26">
+      <c r="KW17" s="30">
         <v>814138</v>
       </c>
+      <c r="KX17" s="26">
+        <v>820642</v>
+      </c>
     </row>
-    <row r="18" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13329,11 +13367,14 @@
       <c r="KV18" s="5">
         <v>141088</v>
       </c>
-      <c r="KW18" s="6">
+      <c r="KW18" s="5">
         <v>142801</v>
       </c>
+      <c r="KX18" s="6">
+        <v>144142</v>
+      </c>
     </row>
-    <row r="19" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14258,11 +14299,14 @@
       <c r="KV19" s="5">
         <v>18744</v>
       </c>
-      <c r="KW19" s="6">
+      <c r="KW19" s="5">
         <v>18211</v>
       </c>
+      <c r="KX19" s="6">
+        <v>18339</v>
+      </c>
     </row>
-    <row r="20" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15187,11 +15231,14 @@
       <c r="KV20" s="5">
         <v>99664</v>
       </c>
-      <c r="KW20" s="6">
+      <c r="KW20" s="5">
         <v>98750</v>
       </c>
+      <c r="KX20" s="6">
+        <v>99651</v>
+      </c>
     </row>
-    <row r="21" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16116,11 +16163,14 @@
       <c r="KV21" s="5">
         <v>131023</v>
       </c>
-      <c r="KW21" s="6">
+      <c r="KW21" s="5">
         <v>131887</v>
       </c>
+      <c r="KX21" s="6">
+        <v>132942</v>
+      </c>
     </row>
-    <row r="22" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17045,11 +17095,14 @@
       <c r="KV22" s="5">
         <v>123396</v>
       </c>
-      <c r="KW22" s="6">
+      <c r="KW22" s="5">
         <v>124327</v>
       </c>
+      <c r="KX22" s="6">
+        <v>125028</v>
+      </c>
     </row>
-    <row r="23" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -17974,11 +18027,14 @@
       <c r="KV23" s="5">
         <v>111090</v>
       </c>
-      <c r="KW23" s="6">
+      <c r="KW23" s="5">
         <v>112003</v>
       </c>
+      <c r="KX23" s="6">
+        <v>112803</v>
+      </c>
     </row>
-    <row r="24" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -18903,11 +18959,14 @@
       <c r="KV24" s="5">
         <v>99521</v>
       </c>
-      <c r="KW24" s="6">
+      <c r="KW24" s="5">
         <v>100170</v>
       </c>
+      <c r="KX24" s="6">
+        <v>101134</v>
+      </c>
     </row>
-    <row r="25" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -19832,11 +19891,14 @@
       <c r="KV25" s="5">
         <v>85463</v>
       </c>
-      <c r="KW25" s="6">
+      <c r="KW25" s="5">
         <v>85979</v>
       </c>
+      <c r="KX25" s="6">
+        <v>86593</v>
+      </c>
     </row>
-    <row r="26" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -20761,11 +20823,14 @@
       <c r="KV26" s="7">
         <v>9</v>
       </c>
-      <c r="KW26" s="8">
+      <c r="KW26" s="7">
         <v>10</v>
       </c>
+      <c r="KX26" s="8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -21690,12 +21755,15 @@
       <c r="KV27" s="31">
         <v>1981146</v>
       </c>
-      <c r="KW27" s="28">
+      <c r="KW27" s="31">
         <v>1988746</v>
       </c>
-      <c r="KX27" s="5"/>
+      <c r="KX27" s="28">
+        <v>1999360</v>
+      </c>
+      <c r="KY27" s="5"/>
     </row>
-    <row r="28" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -22904,12 +22972,15 @@
       <c r="KV28" s="5">
         <v>366555</v>
       </c>
-      <c r="KW28" s="6">
+      <c r="KW28" s="5">
         <v>370361</v>
       </c>
-      <c r="KX28" s="5"/>
+      <c r="KX28" s="6">
+        <v>372744</v>
+      </c>
+      <c r="KY28" s="5"/>
     </row>
-    <row r="29" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24118,12 +24189,15 @@
       <c r="KV29" s="5">
         <v>49870</v>
       </c>
-      <c r="KW29" s="6">
+      <c r="KW29" s="5">
         <v>48624</v>
       </c>
-      <c r="KX29" s="5"/>
+      <c r="KX29" s="6">
+        <v>48876</v>
+      </c>
+      <c r="KY29" s="5"/>
     </row>
-    <row r="30" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25332,12 +25406,15 @@
       <c r="KV30" s="5">
         <v>241665</v>
       </c>
-      <c r="KW30" s="6">
+      <c r="KW30" s="5">
         <v>239595</v>
       </c>
-      <c r="KX30" s="5"/>
+      <c r="KX30" s="6">
+        <v>241123</v>
+      </c>
+      <c r="KY30" s="5"/>
     </row>
-    <row r="31" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -26546,12 +26623,15 @@
       <c r="KV31" s="5">
         <v>310911</v>
       </c>
-      <c r="KW31" s="6">
+      <c r="KW31" s="5">
         <v>312592</v>
       </c>
-      <c r="KX31" s="5"/>
+      <c r="KX31" s="6">
+        <v>314270</v>
+      </c>
+      <c r="KY31" s="5"/>
     </row>
-    <row r="32" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -27760,12 +27840,15 @@
       <c r="KV32" s="5">
         <v>299285</v>
       </c>
-      <c r="KW32" s="6">
+      <c r="KW32" s="5">
         <v>300695</v>
       </c>
-      <c r="KX32" s="5"/>
+      <c r="KX32" s="6">
+        <v>302149</v>
+      </c>
+      <c r="KY32" s="5"/>
     </row>
-    <row r="33" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -28974,12 +29057,15 @@
       <c r="KV33" s="5">
         <v>266348</v>
       </c>
-      <c r="KW33" s="6">
+      <c r="KW33" s="5">
         <v>267859</v>
       </c>
-      <c r="KX33" s="5"/>
+      <c r="KX33" s="6">
+        <v>269045</v>
+      </c>
+      <c r="KY33" s="5"/>
     </row>
-    <row r="34" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30188,12 +30274,15 @@
       <c r="KV34" s="5">
         <v>238628</v>
       </c>
-      <c r="KW34" s="6">
+      <c r="KW34" s="5">
         <v>240012</v>
       </c>
-      <c r="KX34" s="5"/>
+      <c r="KX34" s="6">
+        <v>241358</v>
+      </c>
+      <c r="KY34" s="5"/>
     </row>
-    <row r="35" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -31402,12 +31491,15 @@
       <c r="KV35" s="5">
         <v>207848</v>
       </c>
-      <c r="KW35" s="6">
+      <c r="KW35" s="5">
         <v>208965</v>
       </c>
-      <c r="KX35" s="5"/>
+      <c r="KX35" s="6">
+        <v>209746</v>
+      </c>
+      <c r="KY35" s="5"/>
     </row>
-    <row r="36" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -32616,12 +32708,15 @@
       <c r="KV36" s="7">
         <v>36</v>
       </c>
-      <c r="KW36" s="8">
+      <c r="KW36" s="7">
         <v>43</v>
       </c>
-      <c r="KX36" s="5"/>
+      <c r="KX36" s="8">
+        <v>49</v>
+      </c>
+      <c r="KY36" s="5"/>
     </row>
-    <row r="37" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:311" x14ac:dyDescent="0.3">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -32630,15 +32725,16 @@
       <c r="KU37" s="5"/>
       <c r="KV37" s="5"/>
       <c r="KW37" s="5"/>
+      <c r="KX37" s="5"/>
     </row>
-    <row r="38" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="KP5:KW5"/>
+    <mergeCell ref="KP5:KX5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A99AF-E3BB-43B1-9AEE-090311C2B7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA7648-6748-4E99-89E8-42E6EF4A4678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - septiembre 2023</t>
+    <t>Enero 1998 - octubre 2023</t>
   </si>
 </sst>
 </file>
@@ -734,12 +734,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KY38"/>
+  <dimension ref="A1:KZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KH1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KI1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KZ17" sqref="KZ17"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,27 +874,27 @@
     <col min="300" max="300" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="301" max="301" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="302" max="309" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="16384" width="11.33203125" style="1"/>
+    <col min="310" max="311" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="312" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>26</v>
       </c>
@@ -1258,9 +1258,10 @@
       <c r="KU5" s="35"/>
       <c r="KV5" s="35"/>
       <c r="KW5" s="35"/>
-      <c r="KX5" s="36"/>
+      <c r="KX5" s="35"/>
+      <c r="KY5" s="36"/>
     </row>
-    <row r="6" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -2186,11 +2187,14 @@
       <c r="KW6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="KX6" s="24" t="s">
+      <c r="KX6" s="29" t="s">
         <v>19</v>
       </c>
+      <c r="KY6" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:310" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3118,11 +3122,14 @@
       <c r="KW7" s="30">
         <v>1174608</v>
       </c>
-      <c r="KX7" s="26">
+      <c r="KX7" s="30">
         <v>1178718</v>
       </c>
+      <c r="KY7" s="26">
+        <v>1185923</v>
+      </c>
     </row>
-    <row r="8" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4050,11 +4057,14 @@
       <c r="KW8" s="5">
         <v>227560</v>
       </c>
-      <c r="KX8" s="6">
+      <c r="KX8" s="5">
         <v>228602</v>
       </c>
+      <c r="KY8" s="6">
+        <v>230419</v>
+      </c>
     </row>
-    <row r="9" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -4982,11 +4992,14 @@
       <c r="KW9" s="5">
         <v>30413</v>
       </c>
-      <c r="KX9" s="6">
+      <c r="KX9" s="5">
         <v>30537</v>
       </c>
+      <c r="KY9" s="6">
+        <v>30930</v>
+      </c>
     </row>
-    <row r="10" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -5914,11 +5927,14 @@
       <c r="KW10" s="5">
         <v>140845</v>
       </c>
-      <c r="KX10" s="6">
+      <c r="KX10" s="5">
         <v>141472</v>
       </c>
+      <c r="KY10" s="6">
+        <v>142429</v>
+      </c>
     </row>
-    <row r="11" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6846,11 +6862,14 @@
       <c r="KW11" s="5">
         <v>180705</v>
       </c>
-      <c r="KX11" s="6">
+      <c r="KX11" s="5">
         <v>181328</v>
       </c>
+      <c r="KY11" s="6">
+        <v>182348</v>
+      </c>
     </row>
-    <row r="12" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7778,11 +7797,14 @@
       <c r="KW12" s="5">
         <v>176368</v>
       </c>
-      <c r="KX12" s="6">
+      <c r="KX12" s="5">
         <v>177121</v>
       </c>
+      <c r="KY12" s="6">
+        <v>178121</v>
+      </c>
     </row>
-    <row r="13" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8710,11 +8732,14 @@
       <c r="KW13" s="5">
         <v>155856</v>
       </c>
-      <c r="KX13" s="6">
+      <c r="KX13" s="5">
         <v>156242</v>
       </c>
+      <c r="KY13" s="6">
+        <v>157177</v>
+      </c>
     </row>
-    <row r="14" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9642,11 +9667,14 @@
       <c r="KW14" s="5">
         <v>139842</v>
       </c>
-      <c r="KX14" s="6">
+      <c r="KX14" s="5">
         <v>140224</v>
       </c>
+      <c r="KY14" s="6">
+        <v>140903</v>
+      </c>
     </row>
-    <row r="15" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10574,11 +10602,14 @@
       <c r="KW15" s="5">
         <v>122986</v>
       </c>
-      <c r="KX15" s="6">
+      <c r="KX15" s="5">
         <v>123153</v>
       </c>
+      <c r="KY15" s="6">
+        <v>123561</v>
+      </c>
     </row>
-    <row r="16" spans="1:310" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11506,11 +11537,14 @@
       <c r="KW16" s="7">
         <v>33</v>
       </c>
-      <c r="KX16" s="8">
+      <c r="KX16" s="7">
         <v>39</v>
       </c>
+      <c r="KY16" s="8">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12438,11 +12472,14 @@
       <c r="KW17" s="30">
         <v>814138</v>
       </c>
-      <c r="KX17" s="26">
+      <c r="KX17" s="30">
         <v>820642</v>
       </c>
+      <c r="KY17" s="26">
+        <v>827508</v>
+      </c>
     </row>
-    <row r="18" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13370,11 +13407,14 @@
       <c r="KW18" s="5">
         <v>142801</v>
       </c>
-      <c r="KX18" s="6">
+      <c r="KX18" s="5">
         <v>144142</v>
       </c>
+      <c r="KY18" s="6">
+        <v>145890</v>
+      </c>
     </row>
-    <row r="19" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14302,11 +14342,14 @@
       <c r="KW19" s="5">
         <v>18211</v>
       </c>
-      <c r="KX19" s="6">
+      <c r="KX19" s="5">
         <v>18339</v>
       </c>
+      <c r="KY19" s="6">
+        <v>18570</v>
+      </c>
     </row>
-    <row r="20" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15234,11 +15277,14 @@
       <c r="KW20" s="5">
         <v>98750</v>
       </c>
-      <c r="KX20" s="6">
+      <c r="KX20" s="5">
         <v>99651</v>
       </c>
+      <c r="KY20" s="6">
+        <v>100546</v>
+      </c>
     </row>
-    <row r="21" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16166,11 +16212,14 @@
       <c r="KW21" s="5">
         <v>131887</v>
       </c>
-      <c r="KX21" s="6">
+      <c r="KX21" s="5">
         <v>132942</v>
       </c>
+      <c r="KY21" s="6">
+        <v>134044</v>
+      </c>
     </row>
-    <row r="22" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17098,11 +17147,14 @@
       <c r="KW22" s="5">
         <v>124327</v>
       </c>
-      <c r="KX22" s="6">
+      <c r="KX22" s="5">
         <v>125028</v>
       </c>
+      <c r="KY22" s="6">
+        <v>126024</v>
+      </c>
     </row>
-    <row r="23" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18030,11 +18082,14 @@
       <c r="KW23" s="5">
         <v>112003</v>
       </c>
-      <c r="KX23" s="6">
+      <c r="KX23" s="5">
         <v>112803</v>
       </c>
+      <c r="KY23" s="6">
+        <v>113393</v>
+      </c>
     </row>
-    <row r="24" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -18962,11 +19017,14 @@
       <c r="KW24" s="5">
         <v>100170</v>
       </c>
-      <c r="KX24" s="6">
+      <c r="KX24" s="5">
         <v>101134</v>
       </c>
+      <c r="KY24" s="6">
+        <v>101815</v>
+      </c>
     </row>
-    <row r="25" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -19894,11 +19952,14 @@
       <c r="KW25" s="5">
         <v>85979</v>
       </c>
-      <c r="KX25" s="6">
+      <c r="KX25" s="5">
         <v>86593</v>
       </c>
+      <c r="KY25" s="6">
+        <v>87217</v>
+      </c>
     </row>
-    <row r="26" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -20826,11 +20887,14 @@
       <c r="KW26" s="7">
         <v>10</v>
       </c>
-      <c r="KX26" s="8">
+      <c r="KX26" s="7">
         <v>10</v>
       </c>
+      <c r="KY26" s="8">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -21758,12 +21822,15 @@
       <c r="KW27" s="31">
         <v>1988746</v>
       </c>
-      <c r="KX27" s="28">
+      <c r="KX27" s="31">
         <v>1999360</v>
       </c>
-      <c r="KY27" s="5"/>
+      <c r="KY27" s="28">
+        <v>2013431</v>
+      </c>
+      <c r="KZ27" s="5"/>
     </row>
-    <row r="28" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -22975,12 +23042,15 @@
       <c r="KW28" s="5">
         <v>370361</v>
       </c>
-      <c r="KX28" s="6">
+      <c r="KX28" s="5">
         <v>372744</v>
       </c>
-      <c r="KY28" s="5"/>
+      <c r="KY28" s="6">
+        <v>376309</v>
+      </c>
+      <c r="KZ28" s="5"/>
     </row>
-    <row r="29" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24192,12 +24262,15 @@
       <c r="KW29" s="5">
         <v>48624</v>
       </c>
-      <c r="KX29" s="6">
+      <c r="KX29" s="5">
         <v>48876</v>
       </c>
-      <c r="KY29" s="5"/>
+      <c r="KY29" s="6">
+        <v>49500</v>
+      </c>
+      <c r="KZ29" s="5"/>
     </row>
-    <row r="30" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25409,12 +25482,15 @@
       <c r="KW30" s="5">
         <v>239595</v>
       </c>
-      <c r="KX30" s="6">
+      <c r="KX30" s="5">
         <v>241123</v>
       </c>
-      <c r="KY30" s="5"/>
+      <c r="KY30" s="6">
+        <v>242975</v>
+      </c>
+      <c r="KZ30" s="5"/>
     </row>
-    <row r="31" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -26626,12 +26702,15 @@
       <c r="KW31" s="5">
         <v>312592</v>
       </c>
-      <c r="KX31" s="6">
+      <c r="KX31" s="5">
         <v>314270</v>
       </c>
-      <c r="KY31" s="5"/>
+      <c r="KY31" s="6">
+        <v>316392</v>
+      </c>
+      <c r="KZ31" s="5"/>
     </row>
-    <row r="32" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -27843,12 +27922,15 @@
       <c r="KW32" s="5">
         <v>300695</v>
       </c>
-      <c r="KX32" s="6">
+      <c r="KX32" s="5">
         <v>302149</v>
       </c>
-      <c r="KY32" s="5"/>
+      <c r="KY32" s="6">
+        <v>304145</v>
+      </c>
+      <c r="KZ32" s="5"/>
     </row>
-    <row r="33" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29060,12 +29142,15 @@
       <c r="KW33" s="5">
         <v>267859</v>
       </c>
-      <c r="KX33" s="6">
+      <c r="KX33" s="5">
         <v>269045</v>
       </c>
-      <c r="KY33" s="5"/>
+      <c r="KY33" s="6">
+        <v>270570</v>
+      </c>
+      <c r="KZ33" s="5"/>
     </row>
-    <row r="34" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30277,12 +30362,15 @@
       <c r="KW34" s="5">
         <v>240012</v>
       </c>
-      <c r="KX34" s="6">
+      <c r="KX34" s="5">
         <v>241358</v>
       </c>
-      <c r="KY34" s="5"/>
+      <c r="KY34" s="6">
+        <v>242718</v>
+      </c>
+      <c r="KZ34" s="5"/>
     </row>
-    <row r="35" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -31494,12 +31582,15 @@
       <c r="KW35" s="5">
         <v>208965</v>
       </c>
-      <c r="KX35" s="6">
+      <c r="KX35" s="5">
         <v>209746</v>
       </c>
-      <c r="KY35" s="5"/>
+      <c r="KY35" s="6">
+        <v>210778</v>
+      </c>
+      <c r="KZ35" s="5"/>
     </row>
-    <row r="36" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -32711,12 +32802,15 @@
       <c r="KW36" s="7">
         <v>43</v>
       </c>
-      <c r="KX36" s="8">
+      <c r="KX36" s="7">
         <v>49</v>
       </c>
-      <c r="KY36" s="5"/>
+      <c r="KY36" s="8">
+        <v>44</v>
+      </c>
+      <c r="KZ36" s="5"/>
     </row>
-    <row r="37" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:312" x14ac:dyDescent="0.3">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -32726,15 +32820,16 @@
       <c r="KV37" s="5"/>
       <c r="KW37" s="5"/>
       <c r="KX37" s="5"/>
+      <c r="KY37" s="5"/>
     </row>
-    <row r="38" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="KP5:KX5"/>
+    <mergeCell ref="KP5:KY5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA7648-6748-4E99-89E8-42E6EF4A4678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE15A6-EE98-4CD1-B679-6D50C2EE5336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - octubre 2023</t>
+    <t>Enero 1998 - noviembre 2023</t>
   </si>
 </sst>
 </file>
@@ -734,12 +734,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KZ38"/>
+  <dimension ref="A1:LA38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KI1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="LB32" sqref="LB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,27 +874,29 @@
     <col min="300" max="300" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="301" max="301" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="302" max="309" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="310" max="311" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="312" max="16384" width="11.33203125" style="1"/>
+    <col min="310" max="310" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="10.44140625" style="1" customWidth="1"/>
+    <col min="312" max="312" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="313" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>26</v>
       </c>
@@ -1259,9 +1261,10 @@
       <c r="KV5" s="35"/>
       <c r="KW5" s="35"/>
       <c r="KX5" s="35"/>
-      <c r="KY5" s="36"/>
+      <c r="KY5" s="35"/>
+      <c r="KZ5" s="36"/>
     </row>
-    <row r="6" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
@@ -2190,11 +2193,14 @@
       <c r="KX6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="KY6" s="24" t="s">
+      <c r="KY6" s="29" t="s">
         <v>20</v>
       </c>
+      <c r="KZ6" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:311" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3125,11 +3131,14 @@
       <c r="KX7" s="30">
         <v>1178718</v>
       </c>
-      <c r="KY7" s="26">
+      <c r="KY7" s="30">
         <v>1185923</v>
       </c>
+      <c r="KZ7" s="26">
+        <v>1192184</v>
+      </c>
     </row>
-    <row r="8" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4060,11 +4069,14 @@
       <c r="KX8" s="5">
         <v>228602</v>
       </c>
-      <c r="KY8" s="6">
+      <c r="KY8" s="5">
         <v>230419</v>
       </c>
+      <c r="KZ8" s="6">
+        <v>232359</v>
+      </c>
     </row>
-    <row r="9" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -4995,11 +5007,14 @@
       <c r="KX9" s="5">
         <v>30537</v>
       </c>
-      <c r="KY9" s="6">
+      <c r="KY9" s="5">
         <v>30930</v>
       </c>
+      <c r="KZ9" s="6">
+        <v>31039</v>
+      </c>
     </row>
-    <row r="10" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -5930,11 +5945,14 @@
       <c r="KX10" s="5">
         <v>141472</v>
       </c>
-      <c r="KY10" s="6">
+      <c r="KY10" s="5">
         <v>142429</v>
       </c>
+      <c r="KZ10" s="6">
+        <v>143301</v>
+      </c>
     </row>
-    <row r="11" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6865,11 +6883,14 @@
       <c r="KX11" s="5">
         <v>181328</v>
       </c>
-      <c r="KY11" s="6">
+      <c r="KY11" s="5">
         <v>182348</v>
       </c>
+      <c r="KZ11" s="6">
+        <v>183222</v>
+      </c>
     </row>
-    <row r="12" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7800,11 +7821,14 @@
       <c r="KX12" s="5">
         <v>177121</v>
       </c>
-      <c r="KY12" s="6">
+      <c r="KY12" s="5">
         <v>178121</v>
       </c>
+      <c r="KZ12" s="6">
+        <v>178651</v>
+      </c>
     </row>
-    <row r="13" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8735,11 +8759,14 @@
       <c r="KX13" s="5">
         <v>156242</v>
       </c>
-      <c r="KY13" s="6">
+      <c r="KY13" s="5">
         <v>157177</v>
       </c>
+      <c r="KZ13" s="6">
+        <v>157909</v>
+      </c>
     </row>
-    <row r="14" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9670,11 +9697,14 @@
       <c r="KX14" s="5">
         <v>140224</v>
       </c>
-      <c r="KY14" s="6">
+      <c r="KY14" s="5">
         <v>140903</v>
       </c>
+      <c r="KZ14" s="6">
+        <v>141661</v>
+      </c>
     </row>
-    <row r="15" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10605,11 +10635,14 @@
       <c r="KX15" s="5">
         <v>123153</v>
       </c>
-      <c r="KY15" s="6">
+      <c r="KY15" s="5">
         <v>123561</v>
       </c>
+      <c r="KZ15" s="6">
+        <v>124009</v>
+      </c>
     </row>
-    <row r="16" spans="1:311" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:312" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11540,11 +11573,14 @@
       <c r="KX16" s="7">
         <v>39</v>
       </c>
-      <c r="KY16" s="8">
+      <c r="KY16" s="7">
         <v>35</v>
       </c>
+      <c r="KZ16" s="8">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12475,11 +12511,14 @@
       <c r="KX17" s="30">
         <v>820642</v>
       </c>
-      <c r="KY17" s="26">
+      <c r="KY17" s="30">
         <v>827508</v>
       </c>
+      <c r="KZ17" s="26">
+        <v>834751</v>
+      </c>
     </row>
-    <row r="18" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13410,11 +13449,14 @@
       <c r="KX18" s="5">
         <v>144142</v>
       </c>
-      <c r="KY18" s="6">
+      <c r="KY18" s="5">
         <v>145890</v>
       </c>
+      <c r="KZ18" s="6">
+        <v>147316</v>
+      </c>
     </row>
-    <row r="19" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14345,11 +14387,14 @@
       <c r="KX19" s="5">
         <v>18339</v>
       </c>
-      <c r="KY19" s="6">
+      <c r="KY19" s="5">
         <v>18570</v>
       </c>
+      <c r="KZ19" s="6">
+        <v>18930</v>
+      </c>
     </row>
-    <row r="20" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15280,11 +15325,14 @@
       <c r="KX20" s="5">
         <v>99651</v>
       </c>
-      <c r="KY20" s="6">
+      <c r="KY20" s="5">
         <v>100546</v>
       </c>
+      <c r="KZ20" s="6">
+        <v>101550</v>
+      </c>
     </row>
-    <row r="21" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16215,11 +16263,14 @@
       <c r="KX21" s="5">
         <v>132942</v>
       </c>
-      <c r="KY21" s="6">
+      <c r="KY21" s="5">
         <v>134044</v>
       </c>
+      <c r="KZ21" s="6">
+        <v>135357</v>
+      </c>
     </row>
-    <row r="22" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17150,11 +17201,14 @@
       <c r="KX22" s="5">
         <v>125028</v>
       </c>
-      <c r="KY22" s="6">
+      <c r="KY22" s="5">
         <v>126024</v>
       </c>
+      <c r="KZ22" s="6">
+        <v>126828</v>
+      </c>
     </row>
-    <row r="23" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18085,11 +18139,14 @@
       <c r="KX23" s="5">
         <v>112803</v>
       </c>
-      <c r="KY23" s="6">
+      <c r="KY23" s="5">
         <v>113393</v>
       </c>
+      <c r="KZ23" s="6">
+        <v>114123</v>
+      </c>
     </row>
-    <row r="24" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19020,11 +19077,14 @@
       <c r="KX24" s="5">
         <v>101134</v>
       </c>
-      <c r="KY24" s="6">
+      <c r="KY24" s="5">
         <v>101815</v>
       </c>
+      <c r="KZ24" s="6">
+        <v>102743</v>
+      </c>
     </row>
-    <row r="25" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -19955,11 +20015,14 @@
       <c r="KX25" s="5">
         <v>86593</v>
       </c>
-      <c r="KY25" s="6">
+      <c r="KY25" s="5">
         <v>87217</v>
       </c>
+      <c r="KZ25" s="6">
+        <v>87899</v>
+      </c>
     </row>
-    <row r="26" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -20890,11 +20953,14 @@
       <c r="KX26" s="7">
         <v>10</v>
       </c>
-      <c r="KY26" s="8">
+      <c r="KY26" s="7">
         <v>9</v>
       </c>
+      <c r="KZ26" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -21825,12 +21891,15 @@
       <c r="KX27" s="31">
         <v>1999360</v>
       </c>
-      <c r="KY27" s="28">
+      <c r="KY27" s="31">
         <v>2013431</v>
       </c>
-      <c r="KZ27" s="5"/>
+      <c r="KZ27" s="28">
+        <v>2026935</v>
+      </c>
+      <c r="LA27" s="5"/>
     </row>
-    <row r="28" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23045,12 +23114,15 @@
       <c r="KX28" s="5">
         <v>372744</v>
       </c>
-      <c r="KY28" s="6">
+      <c r="KY28" s="5">
         <v>376309</v>
       </c>
-      <c r="KZ28" s="5"/>
+      <c r="KZ28" s="6">
+        <v>379675</v>
+      </c>
+      <c r="LA28" s="5"/>
     </row>
-    <row r="29" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24265,12 +24337,15 @@
       <c r="KX29" s="5">
         <v>48876</v>
       </c>
-      <c r="KY29" s="6">
+      <c r="KY29" s="5">
         <v>49500</v>
       </c>
-      <c r="KZ29" s="5"/>
+      <c r="KZ29" s="6">
+        <v>49969</v>
+      </c>
+      <c r="LA29" s="5"/>
     </row>
-    <row r="30" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25485,12 +25560,15 @@
       <c r="KX30" s="5">
         <v>241123</v>
       </c>
-      <c r="KY30" s="6">
+      <c r="KY30" s="5">
         <v>242975</v>
       </c>
-      <c r="KZ30" s="5"/>
+      <c r="KZ30" s="6">
+        <v>244851</v>
+      </c>
+      <c r="LA30" s="5"/>
     </row>
-    <row r="31" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -26705,12 +26783,15 @@
       <c r="KX31" s="5">
         <v>314270</v>
       </c>
-      <c r="KY31" s="6">
+      <c r="KY31" s="5">
         <v>316392</v>
       </c>
-      <c r="KZ31" s="5"/>
+      <c r="KZ31" s="6">
+        <v>318579</v>
+      </c>
+      <c r="LA31" s="5"/>
     </row>
-    <row r="32" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -27925,12 +28006,15 @@
       <c r="KX32" s="5">
         <v>302149</v>
       </c>
-      <c r="KY32" s="6">
+      <c r="KY32" s="5">
         <v>304145</v>
       </c>
-      <c r="KZ32" s="5"/>
+      <c r="KZ32" s="6">
+        <v>305479</v>
+      </c>
+      <c r="LA32" s="5"/>
     </row>
-    <row r="33" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29145,12 +29229,15 @@
       <c r="KX33" s="5">
         <v>269045</v>
       </c>
-      <c r="KY33" s="6">
+      <c r="KY33" s="5">
         <v>270570</v>
       </c>
-      <c r="KZ33" s="5"/>
+      <c r="KZ33" s="6">
+        <v>272032</v>
+      </c>
+      <c r="LA33" s="5"/>
     </row>
-    <row r="34" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30365,12 +30452,15 @@
       <c r="KX34" s="5">
         <v>241358</v>
       </c>
-      <c r="KY34" s="6">
+      <c r="KY34" s="5">
         <v>242718</v>
       </c>
-      <c r="KZ34" s="5"/>
+      <c r="KZ34" s="6">
+        <v>244404</v>
+      </c>
+      <c r="LA34" s="5"/>
     </row>
-    <row r="35" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -31585,12 +31675,15 @@
       <c r="KX35" s="5">
         <v>209746</v>
       </c>
-      <c r="KY35" s="6">
+      <c r="KY35" s="5">
         <v>210778</v>
       </c>
-      <c r="KZ35" s="5"/>
+      <c r="KZ35" s="6">
+        <v>211908</v>
+      </c>
+      <c r="LA35" s="5"/>
     </row>
-    <row r="36" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -32805,12 +32898,15 @@
       <c r="KX36" s="7">
         <v>49</v>
       </c>
-      <c r="KY36" s="8">
+      <c r="KY36" s="7">
         <v>44</v>
       </c>
-      <c r="KZ36" s="5"/>
+      <c r="KZ36" s="8">
+        <v>38</v>
+      </c>
+      <c r="LA36" s="5"/>
     </row>
-    <row r="37" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:313" x14ac:dyDescent="0.3">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -32821,15 +32917,16 @@
       <c r="KW37" s="5"/>
       <c r="KX37" s="5"/>
       <c r="KY37" s="5"/>
+      <c r="KZ37" s="5"/>
     </row>
-    <row r="38" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="KP5:KY5"/>
+    <mergeCell ref="KP5:KZ5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE15A6-EE98-4CD1-B679-6D50C2EE5336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263FCBF7-E88E-45B3-A60A-546A73F54064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - noviembre 2023</t>
+    <t>Enero 1998 - diciembre 2023</t>
   </si>
 </sst>
 </file>
@@ -430,12 +430,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,6 +437,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,12 +734,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LA38"/>
+  <dimension ref="A1:LB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KJ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KL1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="LB32" sqref="LB32"/>
+      <selection pane="topRight" activeCell="KT3" sqref="KT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,397 +875,398 @@
     <col min="301" max="301" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="302" max="309" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="310" max="310" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="10.44140625" style="1" customWidth="1"/>
-    <col min="312" max="312" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="313" max="16384" width="11.33203125" style="1"/>
+    <col min="311" max="312" width="10.44140625" style="1" customWidth="1"/>
+    <col min="313" max="313" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="314" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="4" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="39">
         <v>1998</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39">
         <v>1999</v>
       </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32">
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39">
         <v>2000</v>
       </c>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32">
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39">
         <v>2001</v>
       </c>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="32">
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39">
         <v>2002</v>
       </c>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="32"/>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32">
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39">
         <v>2003</v>
       </c>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32">
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="39"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39">
         <v>2004</v>
       </c>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="32"/>
-      <c r="CG5" s="32"/>
-      <c r="CH5" s="32">
+      <c r="BW5" s="39"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="39"/>
+      <c r="BZ5" s="39"/>
+      <c r="CA5" s="39"/>
+      <c r="CB5" s="39"/>
+      <c r="CC5" s="39"/>
+      <c r="CD5" s="39"/>
+      <c r="CE5" s="39"/>
+      <c r="CF5" s="39"/>
+      <c r="CG5" s="39"/>
+      <c r="CH5" s="39">
         <v>2005</v>
       </c>
-      <c r="CI5" s="32"/>
-      <c r="CJ5" s="32"/>
-      <c r="CK5" s="32"/>
-      <c r="CL5" s="32"/>
-      <c r="CM5" s="32"/>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="32"/>
-      <c r="CP5" s="32"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="32"/>
-      <c r="CS5" s="32"/>
-      <c r="CT5" s="32">
+      <c r="CI5" s="39"/>
+      <c r="CJ5" s="39"/>
+      <c r="CK5" s="39"/>
+      <c r="CL5" s="39"/>
+      <c r="CM5" s="39"/>
+      <c r="CN5" s="39"/>
+      <c r="CO5" s="39"/>
+      <c r="CP5" s="39"/>
+      <c r="CQ5" s="39"/>
+      <c r="CR5" s="39"/>
+      <c r="CS5" s="39"/>
+      <c r="CT5" s="39">
         <v>2006</v>
       </c>
-      <c r="CU5" s="32"/>
-      <c r="CV5" s="32"/>
-      <c r="CW5" s="32"/>
-      <c r="CX5" s="32"/>
-      <c r="CY5" s="32"/>
-      <c r="CZ5" s="32"/>
-      <c r="DA5" s="32"/>
-      <c r="DB5" s="32"/>
-      <c r="DC5" s="32"/>
-      <c r="DD5" s="32"/>
-      <c r="DE5" s="32"/>
-      <c r="DF5" s="32">
+      <c r="CU5" s="39"/>
+      <c r="CV5" s="39"/>
+      <c r="CW5" s="39"/>
+      <c r="CX5" s="39"/>
+      <c r="CY5" s="39"/>
+      <c r="CZ5" s="39"/>
+      <c r="DA5" s="39"/>
+      <c r="DB5" s="39"/>
+      <c r="DC5" s="39"/>
+      <c r="DD5" s="39"/>
+      <c r="DE5" s="39"/>
+      <c r="DF5" s="39">
         <v>2007</v>
       </c>
-      <c r="DG5" s="32"/>
-      <c r="DH5" s="32"/>
-      <c r="DI5" s="32"/>
-      <c r="DJ5" s="32"/>
-      <c r="DK5" s="32"/>
-      <c r="DL5" s="32"/>
-      <c r="DM5" s="32"/>
-      <c r="DN5" s="32"/>
-      <c r="DO5" s="32"/>
-      <c r="DP5" s="32"/>
-      <c r="DQ5" s="32"/>
-      <c r="DR5" s="32">
+      <c r="DG5" s="39"/>
+      <c r="DH5" s="39"/>
+      <c r="DI5" s="39"/>
+      <c r="DJ5" s="39"/>
+      <c r="DK5" s="39"/>
+      <c r="DL5" s="39"/>
+      <c r="DM5" s="39"/>
+      <c r="DN5" s="39"/>
+      <c r="DO5" s="39"/>
+      <c r="DP5" s="39"/>
+      <c r="DQ5" s="39"/>
+      <c r="DR5" s="39">
         <v>2008</v>
       </c>
-      <c r="DS5" s="32"/>
-      <c r="DT5" s="32"/>
-      <c r="DU5" s="32"/>
-      <c r="DV5" s="32"/>
-      <c r="DW5" s="32"/>
-      <c r="DX5" s="32"/>
-      <c r="DY5" s="32"/>
-      <c r="DZ5" s="32"/>
-      <c r="EA5" s="32"/>
-      <c r="EB5" s="32"/>
-      <c r="EC5" s="32"/>
-      <c r="ED5" s="32">
+      <c r="DS5" s="39"/>
+      <c r="DT5" s="39"/>
+      <c r="DU5" s="39"/>
+      <c r="DV5" s="39"/>
+      <c r="DW5" s="39"/>
+      <c r="DX5" s="39"/>
+      <c r="DY5" s="39"/>
+      <c r="DZ5" s="39"/>
+      <c r="EA5" s="39"/>
+      <c r="EB5" s="39"/>
+      <c r="EC5" s="39"/>
+      <c r="ED5" s="39">
         <v>2009</v>
       </c>
-      <c r="EE5" s="32"/>
-      <c r="EF5" s="32"/>
-      <c r="EG5" s="32"/>
-      <c r="EH5" s="32"/>
-      <c r="EI5" s="32"/>
-      <c r="EJ5" s="32"/>
-      <c r="EK5" s="32"/>
-      <c r="EL5" s="32"/>
-      <c r="EM5" s="32"/>
-      <c r="EN5" s="32"/>
-      <c r="EO5" s="32"/>
-      <c r="EP5" s="32">
+      <c r="EE5" s="39"/>
+      <c r="EF5" s="39"/>
+      <c r="EG5" s="39"/>
+      <c r="EH5" s="39"/>
+      <c r="EI5" s="39"/>
+      <c r="EJ5" s="39"/>
+      <c r="EK5" s="39"/>
+      <c r="EL5" s="39"/>
+      <c r="EM5" s="39"/>
+      <c r="EN5" s="39"/>
+      <c r="EO5" s="39"/>
+      <c r="EP5" s="39">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="32"/>
-      <c r="ER5" s="32"/>
-      <c r="ES5" s="32"/>
-      <c r="ET5" s="32"/>
-      <c r="EU5" s="32"/>
-      <c r="EV5" s="32"/>
-      <c r="EW5" s="32"/>
-      <c r="EX5" s="32"/>
-      <c r="EY5" s="32"/>
-      <c r="EZ5" s="32"/>
-      <c r="FA5" s="32"/>
-      <c r="FB5" s="32">
+      <c r="EQ5" s="39"/>
+      <c r="ER5" s="39"/>
+      <c r="ES5" s="39"/>
+      <c r="ET5" s="39"/>
+      <c r="EU5" s="39"/>
+      <c r="EV5" s="39"/>
+      <c r="EW5" s="39"/>
+      <c r="EX5" s="39"/>
+      <c r="EY5" s="39"/>
+      <c r="EZ5" s="39"/>
+      <c r="FA5" s="39"/>
+      <c r="FB5" s="39">
         <v>2011</v>
       </c>
-      <c r="FC5" s="32"/>
-      <c r="FD5" s="32"/>
-      <c r="FE5" s="32"/>
-      <c r="FF5" s="32"/>
-      <c r="FG5" s="32"/>
-      <c r="FH5" s="32"/>
-      <c r="FI5" s="32"/>
-      <c r="FJ5" s="32"/>
-      <c r="FK5" s="32"/>
-      <c r="FL5" s="32"/>
-      <c r="FM5" s="32"/>
-      <c r="FN5" s="32">
+      <c r="FC5" s="39"/>
+      <c r="FD5" s="39"/>
+      <c r="FE5" s="39"/>
+      <c r="FF5" s="39"/>
+      <c r="FG5" s="39"/>
+      <c r="FH5" s="39"/>
+      <c r="FI5" s="39"/>
+      <c r="FJ5" s="39"/>
+      <c r="FK5" s="39"/>
+      <c r="FL5" s="39"/>
+      <c r="FM5" s="39"/>
+      <c r="FN5" s="39">
         <v>2012</v>
       </c>
-      <c r="FO5" s="32"/>
-      <c r="FP5" s="32"/>
-      <c r="FQ5" s="32"/>
-      <c r="FR5" s="32"/>
-      <c r="FS5" s="32"/>
-      <c r="FT5" s="32"/>
-      <c r="FU5" s="32"/>
-      <c r="FV5" s="32"/>
-      <c r="FW5" s="32"/>
-      <c r="FX5" s="32"/>
-      <c r="FY5" s="32"/>
-      <c r="FZ5" s="32">
+      <c r="FO5" s="39"/>
+      <c r="FP5" s="39"/>
+      <c r="FQ5" s="39"/>
+      <c r="FR5" s="39"/>
+      <c r="FS5" s="39"/>
+      <c r="FT5" s="39"/>
+      <c r="FU5" s="39"/>
+      <c r="FV5" s="39"/>
+      <c r="FW5" s="39"/>
+      <c r="FX5" s="39"/>
+      <c r="FY5" s="39"/>
+      <c r="FZ5" s="39">
         <v>2013</v>
       </c>
-      <c r="GA5" s="32"/>
-      <c r="GB5" s="32"/>
-      <c r="GC5" s="32"/>
-      <c r="GD5" s="32"/>
-      <c r="GE5" s="32"/>
-      <c r="GF5" s="32"/>
-      <c r="GG5" s="32"/>
-      <c r="GH5" s="32"/>
-      <c r="GI5" s="32"/>
-      <c r="GJ5" s="32"/>
-      <c r="GK5" s="32"/>
-      <c r="GL5" s="32">
+      <c r="GA5" s="39"/>
+      <c r="GB5" s="39"/>
+      <c r="GC5" s="39"/>
+      <c r="GD5" s="39"/>
+      <c r="GE5" s="39"/>
+      <c r="GF5" s="39"/>
+      <c r="GG5" s="39"/>
+      <c r="GH5" s="39"/>
+      <c r="GI5" s="39"/>
+      <c r="GJ5" s="39"/>
+      <c r="GK5" s="39"/>
+      <c r="GL5" s="39">
         <v>2014</v>
       </c>
-      <c r="GM5" s="32"/>
-      <c r="GN5" s="32"/>
-      <c r="GO5" s="32"/>
-      <c r="GP5" s="32"/>
-      <c r="GQ5" s="32"/>
-      <c r="GR5" s="32"/>
-      <c r="GS5" s="32"/>
-      <c r="GT5" s="32"/>
-      <c r="GU5" s="32"/>
-      <c r="GV5" s="32"/>
-      <c r="GW5" s="32"/>
-      <c r="GX5" s="32">
+      <c r="GM5" s="39"/>
+      <c r="GN5" s="39"/>
+      <c r="GO5" s="39"/>
+      <c r="GP5" s="39"/>
+      <c r="GQ5" s="39"/>
+      <c r="GR5" s="39"/>
+      <c r="GS5" s="39"/>
+      <c r="GT5" s="39"/>
+      <c r="GU5" s="39"/>
+      <c r="GV5" s="39"/>
+      <c r="GW5" s="39"/>
+      <c r="GX5" s="39">
         <v>2015</v>
       </c>
-      <c r="GY5" s="32"/>
-      <c r="GZ5" s="32"/>
-      <c r="HA5" s="32"/>
-      <c r="HB5" s="32"/>
-      <c r="HC5" s="32"/>
-      <c r="HD5" s="32"/>
-      <c r="HE5" s="32"/>
-      <c r="HF5" s="32"/>
-      <c r="HG5" s="32"/>
-      <c r="HH5" s="32"/>
-      <c r="HI5" s="32"/>
-      <c r="HJ5" s="32">
+      <c r="GY5" s="39"/>
+      <c r="GZ5" s="39"/>
+      <c r="HA5" s="39"/>
+      <c r="HB5" s="39"/>
+      <c r="HC5" s="39"/>
+      <c r="HD5" s="39"/>
+      <c r="HE5" s="39"/>
+      <c r="HF5" s="39"/>
+      <c r="HG5" s="39"/>
+      <c r="HH5" s="39"/>
+      <c r="HI5" s="39"/>
+      <c r="HJ5" s="39">
         <v>2016</v>
       </c>
-      <c r="HK5" s="32"/>
-      <c r="HL5" s="32"/>
-      <c r="HM5" s="32"/>
-      <c r="HN5" s="32"/>
-      <c r="HO5" s="32"/>
-      <c r="HP5" s="32"/>
-      <c r="HQ5" s="32"/>
-      <c r="HR5" s="32"/>
-      <c r="HS5" s="32"/>
-      <c r="HT5" s="32"/>
-      <c r="HU5" s="32"/>
-      <c r="HV5" s="32">
+      <c r="HK5" s="39"/>
+      <c r="HL5" s="39"/>
+      <c r="HM5" s="39"/>
+      <c r="HN5" s="39"/>
+      <c r="HO5" s="39"/>
+      <c r="HP5" s="39"/>
+      <c r="HQ5" s="39"/>
+      <c r="HR5" s="39"/>
+      <c r="HS5" s="39"/>
+      <c r="HT5" s="39"/>
+      <c r="HU5" s="39"/>
+      <c r="HV5" s="39">
         <v>2017</v>
       </c>
-      <c r="HW5" s="32"/>
-      <c r="HX5" s="32"/>
-      <c r="HY5" s="32"/>
-      <c r="HZ5" s="32"/>
-      <c r="IA5" s="32"/>
-      <c r="IB5" s="32"/>
-      <c r="IC5" s="32"/>
-      <c r="ID5" s="32"/>
-      <c r="IE5" s="32"/>
-      <c r="IF5" s="32"/>
-      <c r="IG5" s="32"/>
-      <c r="IH5" s="32">
+      <c r="HW5" s="39"/>
+      <c r="HX5" s="39"/>
+      <c r="HY5" s="39"/>
+      <c r="HZ5" s="39"/>
+      <c r="IA5" s="39"/>
+      <c r="IB5" s="39"/>
+      <c r="IC5" s="39"/>
+      <c r="ID5" s="39"/>
+      <c r="IE5" s="39"/>
+      <c r="IF5" s="39"/>
+      <c r="IG5" s="39"/>
+      <c r="IH5" s="39">
         <v>2018</v>
       </c>
-      <c r="II5" s="32"/>
-      <c r="IJ5" s="32"/>
-      <c r="IK5" s="32"/>
-      <c r="IL5" s="32"/>
-      <c r="IM5" s="32"/>
-      <c r="IN5" s="32"/>
-      <c r="IO5" s="32"/>
-      <c r="IP5" s="32"/>
-      <c r="IQ5" s="32"/>
-      <c r="IR5" s="32"/>
-      <c r="IS5" s="32"/>
-      <c r="IT5" s="32">
+      <c r="II5" s="39"/>
+      <c r="IJ5" s="39"/>
+      <c r="IK5" s="39"/>
+      <c r="IL5" s="39"/>
+      <c r="IM5" s="39"/>
+      <c r="IN5" s="39"/>
+      <c r="IO5" s="39"/>
+      <c r="IP5" s="39"/>
+      <c r="IQ5" s="39"/>
+      <c r="IR5" s="39"/>
+      <c r="IS5" s="39"/>
+      <c r="IT5" s="39">
         <v>2019</v>
       </c>
-      <c r="IU5" s="32"/>
-      <c r="IV5" s="32"/>
-      <c r="IW5" s="32"/>
-      <c r="IX5" s="32"/>
-      <c r="IY5" s="32"/>
-      <c r="IZ5" s="32"/>
-      <c r="JA5" s="32"/>
-      <c r="JB5" s="32"/>
-      <c r="JC5" s="32"/>
-      <c r="JD5" s="32"/>
-      <c r="JE5" s="32"/>
-      <c r="JF5" s="32">
+      <c r="IU5" s="39"/>
+      <c r="IV5" s="39"/>
+      <c r="IW5" s="39"/>
+      <c r="IX5" s="39"/>
+      <c r="IY5" s="39"/>
+      <c r="IZ5" s="39"/>
+      <c r="JA5" s="39"/>
+      <c r="JB5" s="39"/>
+      <c r="JC5" s="39"/>
+      <c r="JD5" s="39"/>
+      <c r="JE5" s="39"/>
+      <c r="JF5" s="39">
         <v>2020</v>
       </c>
-      <c r="JG5" s="32"/>
-      <c r="JH5" s="32"/>
-      <c r="JI5" s="32"/>
-      <c r="JJ5" s="32"/>
-      <c r="JK5" s="32"/>
-      <c r="JL5" s="32"/>
-      <c r="JM5" s="32"/>
-      <c r="JN5" s="32"/>
-      <c r="JO5" s="32"/>
-      <c r="JP5" s="32"/>
-      <c r="JQ5" s="32"/>
-      <c r="JR5" s="32">
+      <c r="JG5" s="39"/>
+      <c r="JH5" s="39"/>
+      <c r="JI5" s="39"/>
+      <c r="JJ5" s="39"/>
+      <c r="JK5" s="39"/>
+      <c r="JL5" s="39"/>
+      <c r="JM5" s="39"/>
+      <c r="JN5" s="39"/>
+      <c r="JO5" s="39"/>
+      <c r="JP5" s="39"/>
+      <c r="JQ5" s="39"/>
+      <c r="JR5" s="39">
         <v>2021</v>
       </c>
-      <c r="JS5" s="32"/>
-      <c r="JT5" s="32"/>
-      <c r="JU5" s="32"/>
-      <c r="JV5" s="32"/>
-      <c r="JW5" s="32"/>
-      <c r="JX5" s="32"/>
-      <c r="JY5" s="32"/>
-      <c r="JZ5" s="32"/>
-      <c r="KA5" s="32"/>
-      <c r="KB5" s="32"/>
-      <c r="KC5" s="33"/>
-      <c r="KD5" s="33">
+      <c r="JS5" s="39"/>
+      <c r="JT5" s="39"/>
+      <c r="JU5" s="39"/>
+      <c r="JV5" s="39"/>
+      <c r="JW5" s="39"/>
+      <c r="JX5" s="39"/>
+      <c r="JY5" s="39"/>
+      <c r="JZ5" s="39"/>
+      <c r="KA5" s="39"/>
+      <c r="KB5" s="39"/>
+      <c r="KC5" s="35"/>
+      <c r="KD5" s="35">
         <v>2022</v>
       </c>
-      <c r="KE5" s="37"/>
-      <c r="KF5" s="37"/>
-      <c r="KG5" s="37"/>
-      <c r="KH5" s="37"/>
-      <c r="KI5" s="37"/>
-      <c r="KJ5" s="37"/>
-      <c r="KK5" s="37"/>
-      <c r="KL5" s="37"/>
-      <c r="KM5" s="37"/>
-      <c r="KN5" s="37"/>
-      <c r="KO5" s="38"/>
-      <c r="KP5" s="34">
+      <c r="KE5" s="36"/>
+      <c r="KF5" s="36"/>
+      <c r="KG5" s="36"/>
+      <c r="KH5" s="36"/>
+      <c r="KI5" s="36"/>
+      <c r="KJ5" s="36"/>
+      <c r="KK5" s="36"/>
+      <c r="KL5" s="36"/>
+      <c r="KM5" s="36"/>
+      <c r="KN5" s="36"/>
+      <c r="KO5" s="37"/>
+      <c r="KP5" s="32">
         <v>2023</v>
       </c>
-      <c r="KQ5" s="35"/>
-      <c r="KR5" s="35"/>
-      <c r="KS5" s="35"/>
-      <c r="KT5" s="35"/>
-      <c r="KU5" s="35"/>
-      <c r="KV5" s="35"/>
-      <c r="KW5" s="35"/>
-      <c r="KX5" s="35"/>
-      <c r="KY5" s="35"/>
-      <c r="KZ5" s="36"/>
+      <c r="KQ5" s="33"/>
+      <c r="KR5" s="33"/>
+      <c r="KS5" s="33"/>
+      <c r="KT5" s="33"/>
+      <c r="KU5" s="33"/>
+      <c r="KV5" s="33"/>
+      <c r="KW5" s="33"/>
+      <c r="KX5" s="33"/>
+      <c r="KY5" s="33"/>
+      <c r="KZ5" s="33"/>
+      <c r="LA5" s="34"/>
     </row>
-    <row r="6" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2196,11 +2197,14 @@
       <c r="KY6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="KZ6" s="24" t="s">
+      <c r="KZ6" s="29" t="s">
         <v>21</v>
       </c>
+      <c r="LA6" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:312" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3134,11 +3138,14 @@
       <c r="KY7" s="30">
         <v>1185923</v>
       </c>
-      <c r="KZ7" s="26">
+      <c r="KZ7" s="30">
         <v>1192184</v>
       </c>
+      <c r="LA7" s="26">
+        <v>1174153</v>
+      </c>
     </row>
-    <row r="8" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4072,11 +4079,14 @@
       <c r="KY8" s="5">
         <v>230419</v>
       </c>
-      <c r="KZ8" s="6">
+      <c r="KZ8" s="5">
         <v>232359</v>
       </c>
+      <c r="LA8" s="6">
+        <v>231667</v>
+      </c>
     </row>
-    <row r="9" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -5010,11 +5020,14 @@
       <c r="KY9" s="5">
         <v>30930</v>
       </c>
-      <c r="KZ9" s="6">
+      <c r="KZ9" s="5">
         <v>31039</v>
       </c>
+      <c r="LA9" s="6">
+        <v>29802</v>
+      </c>
     </row>
-    <row r="10" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -5948,11 +5961,14 @@
       <c r="KY10" s="5">
         <v>142429</v>
       </c>
-      <c r="KZ10" s="6">
+      <c r="KZ10" s="5">
         <v>143301</v>
       </c>
+      <c r="LA10" s="6">
+        <v>139166</v>
+      </c>
     </row>
-    <row r="11" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6886,11 +6902,14 @@
       <c r="KY11" s="5">
         <v>182348</v>
       </c>
-      <c r="KZ11" s="6">
+      <c r="KZ11" s="5">
         <v>183222</v>
       </c>
+      <c r="LA11" s="6">
+        <v>179608</v>
+      </c>
     </row>
-    <row r="12" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7824,11 +7843,14 @@
       <c r="KY12" s="5">
         <v>178121</v>
       </c>
-      <c r="KZ12" s="6">
+      <c r="KZ12" s="5">
         <v>178651</v>
       </c>
+      <c r="LA12" s="6">
+        <v>175602</v>
+      </c>
     </row>
-    <row r="13" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8762,11 +8784,14 @@
       <c r="KY13" s="5">
         <v>157177</v>
       </c>
-      <c r="KZ13" s="6">
+      <c r="KZ13" s="5">
         <v>157909</v>
       </c>
+      <c r="LA13" s="6">
+        <v>155781</v>
+      </c>
     </row>
-    <row r="14" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9700,11 +9725,14 @@
       <c r="KY14" s="5">
         <v>140903</v>
       </c>
-      <c r="KZ14" s="6">
+      <c r="KZ14" s="5">
         <v>141661</v>
       </c>
+      <c r="LA14" s="6">
+        <v>139847</v>
+      </c>
     </row>
-    <row r="15" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10638,11 +10666,14 @@
       <c r="KY15" s="5">
         <v>123561</v>
       </c>
-      <c r="KZ15" s="6">
+      <c r="KZ15" s="5">
         <v>124009</v>
       </c>
+      <c r="LA15" s="6">
+        <v>122654</v>
+      </c>
     </row>
-    <row r="16" spans="1:312" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:313" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11576,11 +11607,14 @@
       <c r="KY16" s="7">
         <v>35</v>
       </c>
-      <c r="KZ16" s="8">
+      <c r="KZ16" s="7">
         <v>33</v>
       </c>
+      <c r="LA16" s="8">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:314" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12514,11 +12548,14 @@
       <c r="KY17" s="30">
         <v>827508</v>
       </c>
-      <c r="KZ17" s="26">
+      <c r="KZ17" s="30">
         <v>834751</v>
       </c>
+      <c r="LA17" s="26">
+        <v>821204</v>
+      </c>
     </row>
-    <row r="18" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13452,11 +13489,14 @@
       <c r="KY18" s="5">
         <v>145890</v>
       </c>
-      <c r="KZ18" s="6">
+      <c r="KZ18" s="5">
         <v>147316</v>
       </c>
+      <c r="LA18" s="6">
+        <v>146536</v>
+      </c>
     </row>
-    <row r="19" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14390,11 +14430,14 @@
       <c r="KY19" s="5">
         <v>18570</v>
       </c>
-      <c r="KZ19" s="6">
+      <c r="KZ19" s="5">
         <v>18930</v>
       </c>
+      <c r="LA19" s="6">
+        <v>18059</v>
+      </c>
     </row>
-    <row r="20" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15328,11 +15371,14 @@
       <c r="KY20" s="5">
         <v>100546</v>
       </c>
-      <c r="KZ20" s="6">
+      <c r="KZ20" s="5">
         <v>101550</v>
       </c>
+      <c r="LA20" s="6">
+        <v>98427</v>
+      </c>
     </row>
-    <row r="21" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16266,11 +16312,14 @@
       <c r="KY21" s="5">
         <v>134044</v>
       </c>
-      <c r="KZ21" s="6">
+      <c r="KZ21" s="5">
         <v>135357</v>
       </c>
+      <c r="LA21" s="6">
+        <v>132751</v>
+      </c>
     </row>
-    <row r="22" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17204,11 +17253,14 @@
       <c r="KY22" s="5">
         <v>126024</v>
       </c>
-      <c r="KZ22" s="6">
+      <c r="KZ22" s="5">
         <v>126828</v>
       </c>
+      <c r="LA22" s="6">
+        <v>124740</v>
+      </c>
     </row>
-    <row r="23" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18142,11 +18194,14 @@
       <c r="KY23" s="5">
         <v>113393</v>
       </c>
-      <c r="KZ23" s="6">
+      <c r="KZ23" s="5">
         <v>114123</v>
       </c>
+      <c r="LA23" s="6">
+        <v>112366</v>
+      </c>
     </row>
-    <row r="24" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19080,11 +19135,14 @@
       <c r="KY24" s="5">
         <v>101815</v>
       </c>
-      <c r="KZ24" s="6">
+      <c r="KZ24" s="5">
         <v>102743</v>
       </c>
+      <c r="LA24" s="6">
+        <v>101585</v>
+      </c>
     </row>
-    <row r="25" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20018,11 +20076,14 @@
       <c r="KY25" s="5">
         <v>87217</v>
       </c>
-      <c r="KZ25" s="6">
+      <c r="KZ25" s="5">
         <v>87899</v>
       </c>
+      <c r="LA25" s="6">
+        <v>86735</v>
+      </c>
     </row>
-    <row r="26" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -20956,11 +21017,14 @@
       <c r="KY26" s="7">
         <v>9</v>
       </c>
-      <c r="KZ26" s="8">
+      <c r="KZ26" s="7">
         <v>5</v>
       </c>
+      <c r="LA26" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -21894,12 +21958,15 @@
       <c r="KY27" s="31">
         <v>2013431</v>
       </c>
-      <c r="KZ27" s="28">
+      <c r="KZ27" s="31">
         <v>2026935</v>
       </c>
-      <c r="LA27" s="5"/>
+      <c r="LA27" s="28">
+        <v>1995357</v>
+      </c>
+      <c r="LB27" s="5"/>
     </row>
-    <row r="28" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23117,12 +23184,15 @@
       <c r="KY28" s="5">
         <v>376309</v>
       </c>
-      <c r="KZ28" s="6">
+      <c r="KZ28" s="5">
         <v>379675</v>
       </c>
-      <c r="LA28" s="5"/>
+      <c r="LA28" s="6">
+        <v>378203</v>
+      </c>
+      <c r="LB28" s="5"/>
     </row>
-    <row r="29" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24340,12 +24410,15 @@
       <c r="KY29" s="5">
         <v>49500</v>
       </c>
-      <c r="KZ29" s="6">
+      <c r="KZ29" s="5">
         <v>49969</v>
       </c>
-      <c r="LA29" s="5"/>
+      <c r="LA29" s="6">
+        <v>47861</v>
+      </c>
+      <c r="LB29" s="5"/>
     </row>
-    <row r="30" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25563,12 +25636,15 @@
       <c r="KY30" s="5">
         <v>242975</v>
       </c>
-      <c r="KZ30" s="6">
+      <c r="KZ30" s="5">
         <v>244851</v>
       </c>
-      <c r="LA30" s="5"/>
+      <c r="LA30" s="6">
+        <v>237593</v>
+      </c>
+      <c r="LB30" s="5"/>
     </row>
-    <row r="31" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -26786,12 +26862,15 @@
       <c r="KY31" s="5">
         <v>316392</v>
       </c>
-      <c r="KZ31" s="6">
+      <c r="KZ31" s="5">
         <v>318579</v>
       </c>
-      <c r="LA31" s="5"/>
+      <c r="LA31" s="6">
+        <v>312359</v>
+      </c>
+      <c r="LB31" s="5"/>
     </row>
-    <row r="32" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28009,12 +28088,15 @@
       <c r="KY32" s="5">
         <v>304145</v>
       </c>
-      <c r="KZ32" s="6">
+      <c r="KZ32" s="5">
         <v>305479</v>
       </c>
-      <c r="LA32" s="5"/>
+      <c r="LA32" s="6">
+        <v>300342</v>
+      </c>
+      <c r="LB32" s="5"/>
     </row>
-    <row r="33" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29232,12 +29314,15 @@
       <c r="KY33" s="5">
         <v>270570</v>
       </c>
-      <c r="KZ33" s="6">
+      <c r="KZ33" s="5">
         <v>272032</v>
       </c>
-      <c r="LA33" s="5"/>
+      <c r="LA33" s="6">
+        <v>268147</v>
+      </c>
+      <c r="LB33" s="5"/>
     </row>
-    <row r="34" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30455,12 +30540,15 @@
       <c r="KY34" s="5">
         <v>242718</v>
       </c>
-      <c r="KZ34" s="6">
+      <c r="KZ34" s="5">
         <v>244404</v>
       </c>
-      <c r="LA34" s="5"/>
+      <c r="LA34" s="6">
+        <v>241432</v>
+      </c>
+      <c r="LB34" s="5"/>
     </row>
-    <row r="35" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -31678,12 +31766,15 @@
       <c r="KY35" s="5">
         <v>210778</v>
       </c>
-      <c r="KZ35" s="6">
+      <c r="KZ35" s="5">
         <v>211908</v>
       </c>
-      <c r="LA35" s="5"/>
+      <c r="LA35" s="6">
+        <v>209389</v>
+      </c>
+      <c r="LB35" s="5"/>
     </row>
-    <row r="36" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -32901,12 +32992,15 @@
       <c r="KY36" s="7">
         <v>44</v>
       </c>
-      <c r="KZ36" s="8">
+      <c r="KZ36" s="7">
         <v>38</v>
       </c>
-      <c r="LA36" s="5"/>
+      <c r="LA36" s="8">
+        <v>31</v>
+      </c>
+      <c r="LB36" s="5"/>
     </row>
-    <row r="37" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:314" x14ac:dyDescent="0.3">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -32918,15 +33012,27 @@
       <c r="KX37" s="5"/>
       <c r="KY37" s="5"/>
       <c r="KZ37" s="5"/>
+      <c r="LA37" s="5"/>
     </row>
-    <row r="38" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:314" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="KP5:KZ5"/>
+    <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
+    <mergeCell ref="KP5:LA5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
@@ -32942,17 +33048,6 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
-    <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263FCBF7-E88E-45B3-A60A-546A73F54064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2677FF24-CBA2-49BF-B81B-97910A3EB89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - diciembre 2023</t>
+    <t>Enero 1998 - enero 2024</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -430,13 +430,10 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,9 +448,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,12 +734,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LB38"/>
+  <dimension ref="A1:LC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KL1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KM1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KT3" sqref="KT3"/>
+      <selection pane="topRight" activeCell="LA19" sqref="LA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,398 +875,402 @@
     <col min="301" max="301" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="302" max="309" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="310" max="310" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="312" width="10.44140625" style="1" customWidth="1"/>
-    <col min="313" max="313" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="314" max="16384" width="11.33203125" style="1"/>
+    <col min="311" max="313" width="10.44140625" style="1" customWidth="1"/>
+    <col min="314" max="314" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="315" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="LC3" s="2"/>
     </row>
-    <row r="4" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="4" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="33">
         <v>1998</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33">
         <v>1999</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39">
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33">
         <v>2000</v>
       </c>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33">
         <v>2001</v>
       </c>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39">
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33">
         <v>2002</v>
       </c>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="39"/>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33">
         <v>2003</v>
       </c>
-      <c r="BK5" s="39"/>
-      <c r="BL5" s="39"/>
-      <c r="BM5" s="39"/>
-      <c r="BN5" s="39"/>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="39"/>
-      <c r="BR5" s="39"/>
-      <c r="BS5" s="39"/>
-      <c r="BT5" s="39"/>
-      <c r="BU5" s="39"/>
-      <c r="BV5" s="39">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33">
         <v>2004</v>
       </c>
-      <c r="BW5" s="39"/>
-      <c r="BX5" s="39"/>
-      <c r="BY5" s="39"/>
-      <c r="BZ5" s="39"/>
-      <c r="CA5" s="39"/>
-      <c r="CB5" s="39"/>
-      <c r="CC5" s="39"/>
-      <c r="CD5" s="39"/>
-      <c r="CE5" s="39"/>
-      <c r="CF5" s="39"/>
-      <c r="CG5" s="39"/>
-      <c r="CH5" s="39">
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="33"/>
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33"/>
+      <c r="CH5" s="33">
         <v>2005</v>
       </c>
-      <c r="CI5" s="39"/>
-      <c r="CJ5" s="39"/>
-      <c r="CK5" s="39"/>
-      <c r="CL5" s="39"/>
-      <c r="CM5" s="39"/>
-      <c r="CN5" s="39"/>
-      <c r="CO5" s="39"/>
-      <c r="CP5" s="39"/>
-      <c r="CQ5" s="39"/>
-      <c r="CR5" s="39"/>
-      <c r="CS5" s="39"/>
-      <c r="CT5" s="39">
+      <c r="CI5" s="33"/>
+      <c r="CJ5" s="33"/>
+      <c r="CK5" s="33"/>
+      <c r="CL5" s="33"/>
+      <c r="CM5" s="33"/>
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33"/>
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="33"/>
+      <c r="CR5" s="33"/>
+      <c r="CS5" s="33"/>
+      <c r="CT5" s="33">
         <v>2006</v>
       </c>
-      <c r="CU5" s="39"/>
-      <c r="CV5" s="39"/>
-      <c r="CW5" s="39"/>
-      <c r="CX5" s="39"/>
-      <c r="CY5" s="39"/>
-      <c r="CZ5" s="39"/>
-      <c r="DA5" s="39"/>
-      <c r="DB5" s="39"/>
-      <c r="DC5" s="39"/>
-      <c r="DD5" s="39"/>
-      <c r="DE5" s="39"/>
-      <c r="DF5" s="39">
+      <c r="CU5" s="33"/>
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="33"/>
+      <c r="CX5" s="33"/>
+      <c r="CY5" s="33"/>
+      <c r="CZ5" s="33"/>
+      <c r="DA5" s="33"/>
+      <c r="DB5" s="33"/>
+      <c r="DC5" s="33"/>
+      <c r="DD5" s="33"/>
+      <c r="DE5" s="33"/>
+      <c r="DF5" s="33">
         <v>2007</v>
       </c>
-      <c r="DG5" s="39"/>
-      <c r="DH5" s="39"/>
-      <c r="DI5" s="39"/>
-      <c r="DJ5" s="39"/>
-      <c r="DK5" s="39"/>
-      <c r="DL5" s="39"/>
-      <c r="DM5" s="39"/>
-      <c r="DN5" s="39"/>
-      <c r="DO5" s="39"/>
-      <c r="DP5" s="39"/>
-      <c r="DQ5" s="39"/>
-      <c r="DR5" s="39">
+      <c r="DG5" s="33"/>
+      <c r="DH5" s="33"/>
+      <c r="DI5" s="33"/>
+      <c r="DJ5" s="33"/>
+      <c r="DK5" s="33"/>
+      <c r="DL5" s="33"/>
+      <c r="DM5" s="33"/>
+      <c r="DN5" s="33"/>
+      <c r="DO5" s="33"/>
+      <c r="DP5" s="33"/>
+      <c r="DQ5" s="33"/>
+      <c r="DR5" s="33">
         <v>2008</v>
       </c>
-      <c r="DS5" s="39"/>
-      <c r="DT5" s="39"/>
-      <c r="DU5" s="39"/>
-      <c r="DV5" s="39"/>
-      <c r="DW5" s="39"/>
-      <c r="DX5" s="39"/>
-      <c r="DY5" s="39"/>
-      <c r="DZ5" s="39"/>
-      <c r="EA5" s="39"/>
-      <c r="EB5" s="39"/>
-      <c r="EC5" s="39"/>
-      <c r="ED5" s="39">
+      <c r="DS5" s="33"/>
+      <c r="DT5" s="33"/>
+      <c r="DU5" s="33"/>
+      <c r="DV5" s="33"/>
+      <c r="DW5" s="33"/>
+      <c r="DX5" s="33"/>
+      <c r="DY5" s="33"/>
+      <c r="DZ5" s="33"/>
+      <c r="EA5" s="33"/>
+      <c r="EB5" s="33"/>
+      <c r="EC5" s="33"/>
+      <c r="ED5" s="33">
         <v>2009</v>
       </c>
-      <c r="EE5" s="39"/>
-      <c r="EF5" s="39"/>
-      <c r="EG5" s="39"/>
-      <c r="EH5" s="39"/>
-      <c r="EI5" s="39"/>
-      <c r="EJ5" s="39"/>
-      <c r="EK5" s="39"/>
-      <c r="EL5" s="39"/>
-      <c r="EM5" s="39"/>
-      <c r="EN5" s="39"/>
-      <c r="EO5" s="39"/>
-      <c r="EP5" s="39">
+      <c r="EE5" s="33"/>
+      <c r="EF5" s="33"/>
+      <c r="EG5" s="33"/>
+      <c r="EH5" s="33"/>
+      <c r="EI5" s="33"/>
+      <c r="EJ5" s="33"/>
+      <c r="EK5" s="33"/>
+      <c r="EL5" s="33"/>
+      <c r="EM5" s="33"/>
+      <c r="EN5" s="33"/>
+      <c r="EO5" s="33"/>
+      <c r="EP5" s="33">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="39"/>
-      <c r="ER5" s="39"/>
-      <c r="ES5" s="39"/>
-      <c r="ET5" s="39"/>
-      <c r="EU5" s="39"/>
-      <c r="EV5" s="39"/>
-      <c r="EW5" s="39"/>
-      <c r="EX5" s="39"/>
-      <c r="EY5" s="39"/>
-      <c r="EZ5" s="39"/>
-      <c r="FA5" s="39"/>
-      <c r="FB5" s="39">
+      <c r="EQ5" s="33"/>
+      <c r="ER5" s="33"/>
+      <c r="ES5" s="33"/>
+      <c r="ET5" s="33"/>
+      <c r="EU5" s="33"/>
+      <c r="EV5" s="33"/>
+      <c r="EW5" s="33"/>
+      <c r="EX5" s="33"/>
+      <c r="EY5" s="33"/>
+      <c r="EZ5" s="33"/>
+      <c r="FA5" s="33"/>
+      <c r="FB5" s="33">
         <v>2011</v>
       </c>
-      <c r="FC5" s="39"/>
-      <c r="FD5" s="39"/>
-      <c r="FE5" s="39"/>
-      <c r="FF5" s="39"/>
-      <c r="FG5" s="39"/>
-      <c r="FH5" s="39"/>
-      <c r="FI5" s="39"/>
-      <c r="FJ5" s="39"/>
-      <c r="FK5" s="39"/>
-      <c r="FL5" s="39"/>
-      <c r="FM5" s="39"/>
-      <c r="FN5" s="39">
+      <c r="FC5" s="33"/>
+      <c r="FD5" s="33"/>
+      <c r="FE5" s="33"/>
+      <c r="FF5" s="33"/>
+      <c r="FG5" s="33"/>
+      <c r="FH5" s="33"/>
+      <c r="FI5" s="33"/>
+      <c r="FJ5" s="33"/>
+      <c r="FK5" s="33"/>
+      <c r="FL5" s="33"/>
+      <c r="FM5" s="33"/>
+      <c r="FN5" s="33">
         <v>2012</v>
       </c>
-      <c r="FO5" s="39"/>
-      <c r="FP5" s="39"/>
-      <c r="FQ5" s="39"/>
-      <c r="FR5" s="39"/>
-      <c r="FS5" s="39"/>
-      <c r="FT5" s="39"/>
-      <c r="FU5" s="39"/>
-      <c r="FV5" s="39"/>
-      <c r="FW5" s="39"/>
-      <c r="FX5" s="39"/>
-      <c r="FY5" s="39"/>
-      <c r="FZ5" s="39">
+      <c r="FO5" s="33"/>
+      <c r="FP5" s="33"/>
+      <c r="FQ5" s="33"/>
+      <c r="FR5" s="33"/>
+      <c r="FS5" s="33"/>
+      <c r="FT5" s="33"/>
+      <c r="FU5" s="33"/>
+      <c r="FV5" s="33"/>
+      <c r="FW5" s="33"/>
+      <c r="FX5" s="33"/>
+      <c r="FY5" s="33"/>
+      <c r="FZ5" s="33">
         <v>2013</v>
       </c>
-      <c r="GA5" s="39"/>
-      <c r="GB5" s="39"/>
-      <c r="GC5" s="39"/>
-      <c r="GD5" s="39"/>
-      <c r="GE5" s="39"/>
-      <c r="GF5" s="39"/>
-      <c r="GG5" s="39"/>
-      <c r="GH5" s="39"/>
-      <c r="GI5" s="39"/>
-      <c r="GJ5" s="39"/>
-      <c r="GK5" s="39"/>
-      <c r="GL5" s="39">
+      <c r="GA5" s="33"/>
+      <c r="GB5" s="33"/>
+      <c r="GC5" s="33"/>
+      <c r="GD5" s="33"/>
+      <c r="GE5" s="33"/>
+      <c r="GF5" s="33"/>
+      <c r="GG5" s="33"/>
+      <c r="GH5" s="33"/>
+      <c r="GI5" s="33"/>
+      <c r="GJ5" s="33"/>
+      <c r="GK5" s="33"/>
+      <c r="GL5" s="33">
         <v>2014</v>
       </c>
-      <c r="GM5" s="39"/>
-      <c r="GN5" s="39"/>
-      <c r="GO5" s="39"/>
-      <c r="GP5" s="39"/>
-      <c r="GQ5" s="39"/>
-      <c r="GR5" s="39"/>
-      <c r="GS5" s="39"/>
-      <c r="GT5" s="39"/>
-      <c r="GU5" s="39"/>
-      <c r="GV5" s="39"/>
-      <c r="GW5" s="39"/>
-      <c r="GX5" s="39">
+      <c r="GM5" s="33"/>
+      <c r="GN5" s="33"/>
+      <c r="GO5" s="33"/>
+      <c r="GP5" s="33"/>
+      <c r="GQ5" s="33"/>
+      <c r="GR5" s="33"/>
+      <c r="GS5" s="33"/>
+      <c r="GT5" s="33"/>
+      <c r="GU5" s="33"/>
+      <c r="GV5" s="33"/>
+      <c r="GW5" s="33"/>
+      <c r="GX5" s="33">
         <v>2015</v>
       </c>
-      <c r="GY5" s="39"/>
-      <c r="GZ5" s="39"/>
-      <c r="HA5" s="39"/>
-      <c r="HB5" s="39"/>
-      <c r="HC5" s="39"/>
-      <c r="HD5" s="39"/>
-      <c r="HE5" s="39"/>
-      <c r="HF5" s="39"/>
-      <c r="HG5" s="39"/>
-      <c r="HH5" s="39"/>
-      <c r="HI5" s="39"/>
-      <c r="HJ5" s="39">
+      <c r="GY5" s="33"/>
+      <c r="GZ5" s="33"/>
+      <c r="HA5" s="33"/>
+      <c r="HB5" s="33"/>
+      <c r="HC5" s="33"/>
+      <c r="HD5" s="33"/>
+      <c r="HE5" s="33"/>
+      <c r="HF5" s="33"/>
+      <c r="HG5" s="33"/>
+      <c r="HH5" s="33"/>
+      <c r="HI5" s="33"/>
+      <c r="HJ5" s="33">
         <v>2016</v>
       </c>
-      <c r="HK5" s="39"/>
-      <c r="HL5" s="39"/>
-      <c r="HM5" s="39"/>
-      <c r="HN5" s="39"/>
-      <c r="HO5" s="39"/>
-      <c r="HP5" s="39"/>
-      <c r="HQ5" s="39"/>
-      <c r="HR5" s="39"/>
-      <c r="HS5" s="39"/>
-      <c r="HT5" s="39"/>
-      <c r="HU5" s="39"/>
-      <c r="HV5" s="39">
+      <c r="HK5" s="33"/>
+      <c r="HL5" s="33"/>
+      <c r="HM5" s="33"/>
+      <c r="HN5" s="33"/>
+      <c r="HO5" s="33"/>
+      <c r="HP5" s="33"/>
+      <c r="HQ5" s="33"/>
+      <c r="HR5" s="33"/>
+      <c r="HS5" s="33"/>
+      <c r="HT5" s="33"/>
+      <c r="HU5" s="33"/>
+      <c r="HV5" s="33">
         <v>2017</v>
       </c>
-      <c r="HW5" s="39"/>
-      <c r="HX5" s="39"/>
-      <c r="HY5" s="39"/>
-      <c r="HZ5" s="39"/>
-      <c r="IA5" s="39"/>
-      <c r="IB5" s="39"/>
-      <c r="IC5" s="39"/>
-      <c r="ID5" s="39"/>
-      <c r="IE5" s="39"/>
-      <c r="IF5" s="39"/>
-      <c r="IG5" s="39"/>
-      <c r="IH5" s="39">
+      <c r="HW5" s="33"/>
+      <c r="HX5" s="33"/>
+      <c r="HY5" s="33"/>
+      <c r="HZ5" s="33"/>
+      <c r="IA5" s="33"/>
+      <c r="IB5" s="33"/>
+      <c r="IC5" s="33"/>
+      <c r="ID5" s="33"/>
+      <c r="IE5" s="33"/>
+      <c r="IF5" s="33"/>
+      <c r="IG5" s="33"/>
+      <c r="IH5" s="33">
         <v>2018</v>
       </c>
-      <c r="II5" s="39"/>
-      <c r="IJ5" s="39"/>
-      <c r="IK5" s="39"/>
-      <c r="IL5" s="39"/>
-      <c r="IM5" s="39"/>
-      <c r="IN5" s="39"/>
-      <c r="IO5" s="39"/>
-      <c r="IP5" s="39"/>
-      <c r="IQ5" s="39"/>
-      <c r="IR5" s="39"/>
-      <c r="IS5" s="39"/>
-      <c r="IT5" s="39">
+      <c r="II5" s="33"/>
+      <c r="IJ5" s="33"/>
+      <c r="IK5" s="33"/>
+      <c r="IL5" s="33"/>
+      <c r="IM5" s="33"/>
+      <c r="IN5" s="33"/>
+      <c r="IO5" s="33"/>
+      <c r="IP5" s="33"/>
+      <c r="IQ5" s="33"/>
+      <c r="IR5" s="33"/>
+      <c r="IS5" s="33"/>
+      <c r="IT5" s="33">
         <v>2019</v>
       </c>
-      <c r="IU5" s="39"/>
-      <c r="IV5" s="39"/>
-      <c r="IW5" s="39"/>
-      <c r="IX5" s="39"/>
-      <c r="IY5" s="39"/>
-      <c r="IZ5" s="39"/>
-      <c r="JA5" s="39"/>
-      <c r="JB5" s="39"/>
-      <c r="JC5" s="39"/>
-      <c r="JD5" s="39"/>
-      <c r="JE5" s="39"/>
-      <c r="JF5" s="39">
+      <c r="IU5" s="33"/>
+      <c r="IV5" s="33"/>
+      <c r="IW5" s="33"/>
+      <c r="IX5" s="33"/>
+      <c r="IY5" s="33"/>
+      <c r="IZ5" s="33"/>
+      <c r="JA5" s="33"/>
+      <c r="JB5" s="33"/>
+      <c r="JC5" s="33"/>
+      <c r="JD5" s="33"/>
+      <c r="JE5" s="33"/>
+      <c r="JF5" s="33">
         <v>2020</v>
       </c>
-      <c r="JG5" s="39"/>
-      <c r="JH5" s="39"/>
-      <c r="JI5" s="39"/>
-      <c r="JJ5" s="39"/>
-      <c r="JK5" s="39"/>
-      <c r="JL5" s="39"/>
-      <c r="JM5" s="39"/>
-      <c r="JN5" s="39"/>
-      <c r="JO5" s="39"/>
-      <c r="JP5" s="39"/>
-      <c r="JQ5" s="39"/>
-      <c r="JR5" s="39">
+      <c r="JG5" s="33"/>
+      <c r="JH5" s="33"/>
+      <c r="JI5" s="33"/>
+      <c r="JJ5" s="33"/>
+      <c r="JK5" s="33"/>
+      <c r="JL5" s="33"/>
+      <c r="JM5" s="33"/>
+      <c r="JN5" s="33"/>
+      <c r="JO5" s="33"/>
+      <c r="JP5" s="33"/>
+      <c r="JQ5" s="33"/>
+      <c r="JR5" s="33">
         <v>2021</v>
       </c>
-      <c r="JS5" s="39"/>
-      <c r="JT5" s="39"/>
-      <c r="JU5" s="39"/>
-      <c r="JV5" s="39"/>
-      <c r="JW5" s="39"/>
-      <c r="JX5" s="39"/>
-      <c r="JY5" s="39"/>
-      <c r="JZ5" s="39"/>
-      <c r="KA5" s="39"/>
-      <c r="KB5" s="39"/>
-      <c r="KC5" s="35"/>
-      <c r="KD5" s="35">
+      <c r="JS5" s="33"/>
+      <c r="JT5" s="33"/>
+      <c r="JU5" s="33"/>
+      <c r="JV5" s="33"/>
+      <c r="JW5" s="33"/>
+      <c r="JX5" s="33"/>
+      <c r="JY5" s="33"/>
+      <c r="JZ5" s="33"/>
+      <c r="KA5" s="33"/>
+      <c r="KB5" s="33"/>
+      <c r="KC5" s="34"/>
+      <c r="KD5" s="34">
         <v>2022</v>
       </c>
-      <c r="KE5" s="36"/>
-      <c r="KF5" s="36"/>
-      <c r="KG5" s="36"/>
-      <c r="KH5" s="36"/>
-      <c r="KI5" s="36"/>
-      <c r="KJ5" s="36"/>
-      <c r="KK5" s="36"/>
-      <c r="KL5" s="36"/>
-      <c r="KM5" s="36"/>
-      <c r="KN5" s="36"/>
-      <c r="KO5" s="37"/>
-      <c r="KP5" s="32">
+      <c r="KE5" s="35"/>
+      <c r="KF5" s="35"/>
+      <c r="KG5" s="35"/>
+      <c r="KH5" s="35"/>
+      <c r="KI5" s="35"/>
+      <c r="KJ5" s="35"/>
+      <c r="KK5" s="35"/>
+      <c r="KL5" s="35"/>
+      <c r="KM5" s="35"/>
+      <c r="KN5" s="35"/>
+      <c r="KO5" s="36"/>
+      <c r="KP5" s="34">
         <v>2023</v>
       </c>
-      <c r="KQ5" s="33"/>
-      <c r="KR5" s="33"/>
-      <c r="KS5" s="33"/>
-      <c r="KT5" s="33"/>
-      <c r="KU5" s="33"/>
-      <c r="KV5" s="33"/>
-      <c r="KW5" s="33"/>
-      <c r="KX5" s="33"/>
-      <c r="KY5" s="33"/>
-      <c r="KZ5" s="33"/>
-      <c r="LA5" s="34"/>
+      <c r="KQ5" s="35"/>
+      <c r="KR5" s="35"/>
+      <c r="KS5" s="35"/>
+      <c r="KT5" s="35"/>
+      <c r="KU5" s="35"/>
+      <c r="KV5" s="35"/>
+      <c r="KW5" s="35"/>
+      <c r="KX5" s="35"/>
+      <c r="KY5" s="35"/>
+      <c r="KZ5" s="35"/>
+      <c r="LA5" s="36"/>
+      <c r="LB5" s="32">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="6" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2203,8 +2207,11 @@
       <c r="LA6" s="24" t="s">
         <v>22</v>
       </c>
+      <c r="LB6" s="24" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:313" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3111,41 +3118,44 @@
       <c r="KP7" s="25">
         <v>1161946</v>
       </c>
-      <c r="KQ7" s="30">
+      <c r="KQ7" s="38">
         <v>1169020</v>
       </c>
-      <c r="KR7" s="30">
+      <c r="KR7" s="38">
         <v>1171476</v>
       </c>
-      <c r="KS7" s="30">
+      <c r="KS7" s="38">
         <v>1169950</v>
       </c>
-      <c r="KT7" s="30">
+      <c r="KT7" s="38">
         <v>1169158</v>
       </c>
-      <c r="KU7" s="30">
+      <c r="KU7" s="38">
         <v>1171681</v>
       </c>
-      <c r="KV7" s="30">
+      <c r="KV7" s="38">
         <v>1171148</v>
       </c>
-      <c r="KW7" s="30">
+      <c r="KW7" s="38">
         <v>1174608</v>
       </c>
-      <c r="KX7" s="30">
+      <c r="KX7" s="38">
         <v>1178718</v>
       </c>
-      <c r="KY7" s="30">
+      <c r="KY7" s="38">
         <v>1185923</v>
       </c>
-      <c r="KZ7" s="30">
+      <c r="KZ7" s="38">
         <v>1192184</v>
       </c>
       <c r="LA7" s="26">
         <v>1174153</v>
       </c>
+      <c r="LB7" s="26">
+        <v>1184975</v>
+      </c>
     </row>
-    <row r="8" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4052,41 +4062,44 @@
       <c r="KP8" s="16">
         <v>220304</v>
       </c>
-      <c r="KQ8" s="5">
+      <c r="KQ8" s="39">
         <v>221959</v>
       </c>
-      <c r="KR8" s="5">
+      <c r="KR8" s="39">
         <v>223007</v>
       </c>
-      <c r="KS8" s="5">
+      <c r="KS8" s="39">
         <v>223444</v>
       </c>
-      <c r="KT8" s="5">
+      <c r="KT8" s="39">
         <v>223989</v>
       </c>
-      <c r="KU8" s="5">
+      <c r="KU8" s="39">
         <v>225090</v>
       </c>
-      <c r="KV8" s="5">
+      <c r="KV8" s="39">
         <v>225467</v>
       </c>
-      <c r="KW8" s="5">
+      <c r="KW8" s="39">
         <v>227560</v>
       </c>
-      <c r="KX8" s="5">
+      <c r="KX8" s="39">
         <v>228602</v>
       </c>
-      <c r="KY8" s="5">
+      <c r="KY8" s="39">
         <v>230419</v>
       </c>
-      <c r="KZ8" s="5">
+      <c r="KZ8" s="39">
         <v>232359</v>
       </c>
       <c r="LA8" s="6">
         <v>231667</v>
       </c>
+      <c r="LB8" s="6">
+        <v>234497</v>
+      </c>
     </row>
-    <row r="9" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -4993,41 +5006,44 @@
       <c r="KP9" s="16">
         <v>30069</v>
       </c>
-      <c r="KQ9" s="5">
+      <c r="KQ9" s="39">
         <v>30619</v>
       </c>
-      <c r="KR9" s="5">
+      <c r="KR9" s="39">
         <v>30880</v>
       </c>
-      <c r="KS9" s="5">
+      <c r="KS9" s="39">
         <v>30420</v>
       </c>
-      <c r="KT9" s="5">
+      <c r="KT9" s="39">
         <v>30239</v>
       </c>
-      <c r="KU9" s="5">
+      <c r="KU9" s="39">
         <v>30899</v>
       </c>
-      <c r="KV9" s="5">
+      <c r="KV9" s="39">
         <v>31126</v>
       </c>
-      <c r="KW9" s="5">
+      <c r="KW9" s="39">
         <v>30413</v>
       </c>
-      <c r="KX9" s="5">
+      <c r="KX9" s="39">
         <v>30537</v>
       </c>
-      <c r="KY9" s="5">
+      <c r="KY9" s="39">
         <v>30930</v>
       </c>
-      <c r="KZ9" s="5">
+      <c r="KZ9" s="39">
         <v>31039</v>
       </c>
       <c r="LA9" s="6">
         <v>29802</v>
       </c>
+      <c r="LB9" s="6">
+        <v>29931</v>
+      </c>
     </row>
-    <row r="10" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -5934,41 +5950,44 @@
       <c r="KP10" s="16">
         <v>140428</v>
       </c>
-      <c r="KQ10" s="5">
+      <c r="KQ10" s="39">
         <v>141591</v>
       </c>
-      <c r="KR10" s="5">
+      <c r="KR10" s="39">
         <v>142079</v>
       </c>
-      <c r="KS10" s="5">
+      <c r="KS10" s="39">
         <v>141713</v>
       </c>
-      <c r="KT10" s="5">
+      <c r="KT10" s="39">
         <v>141493</v>
       </c>
-      <c r="KU10" s="5">
+      <c r="KU10" s="39">
         <v>142356</v>
       </c>
-      <c r="KV10" s="5">
+      <c r="KV10" s="39">
         <v>142001</v>
       </c>
-      <c r="KW10" s="5">
+      <c r="KW10" s="39">
         <v>140845</v>
       </c>
-      <c r="KX10" s="5">
+      <c r="KX10" s="39">
         <v>141472</v>
       </c>
-      <c r="KY10" s="5">
+      <c r="KY10" s="39">
         <v>142429</v>
       </c>
-      <c r="KZ10" s="5">
+      <c r="KZ10" s="39">
         <v>143301</v>
       </c>
       <c r="LA10" s="6">
         <v>139166</v>
       </c>
+      <c r="LB10" s="6">
+        <v>139767</v>
+      </c>
     </row>
-    <row r="11" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6875,41 +6894,44 @@
       <c r="KP11" s="16">
         <v>179430</v>
       </c>
-      <c r="KQ11" s="5">
+      <c r="KQ11" s="39">
         <v>180216</v>
       </c>
-      <c r="KR11" s="5">
+      <c r="KR11" s="39">
         <v>180506</v>
       </c>
-      <c r="KS11" s="5">
+      <c r="KS11" s="39">
         <v>180323</v>
       </c>
-      <c r="KT11" s="5">
+      <c r="KT11" s="39">
         <v>180031</v>
       </c>
-      <c r="KU11" s="5">
+      <c r="KU11" s="39">
         <v>179962</v>
       </c>
-      <c r="KV11" s="5">
+      <c r="KV11" s="39">
         <v>179888</v>
       </c>
-      <c r="KW11" s="5">
+      <c r="KW11" s="39">
         <v>180705</v>
       </c>
-      <c r="KX11" s="5">
+      <c r="KX11" s="39">
         <v>181328</v>
       </c>
-      <c r="KY11" s="5">
+      <c r="KY11" s="39">
         <v>182348</v>
       </c>
-      <c r="KZ11" s="5">
+      <c r="KZ11" s="39">
         <v>183222</v>
       </c>
       <c r="LA11" s="6">
         <v>179608</v>
       </c>
+      <c r="LB11" s="6">
+        <v>179835</v>
+      </c>
     </row>
-    <row r="12" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7816,41 +7838,44 @@
       <c r="KP12" s="16">
         <v>176211</v>
       </c>
-      <c r="KQ12" s="5">
+      <c r="KQ12" s="39">
         <v>177175</v>
       </c>
-      <c r="KR12" s="5">
+      <c r="KR12" s="39">
         <v>177097</v>
       </c>
-      <c r="KS12" s="5">
+      <c r="KS12" s="39">
         <v>176369</v>
       </c>
-      <c r="KT12" s="5">
+      <c r="KT12" s="39">
         <v>176123</v>
       </c>
-      <c r="KU12" s="5">
+      <c r="KU12" s="39">
         <v>175897</v>
       </c>
-      <c r="KV12" s="5">
+      <c r="KV12" s="39">
         <v>175889</v>
       </c>
-      <c r="KW12" s="5">
+      <c r="KW12" s="39">
         <v>176368</v>
       </c>
-      <c r="KX12" s="5">
+      <c r="KX12" s="39">
         <v>177121</v>
       </c>
-      <c r="KY12" s="5">
+      <c r="KY12" s="39">
         <v>178121</v>
       </c>
-      <c r="KZ12" s="5">
+      <c r="KZ12" s="39">
         <v>178651</v>
       </c>
       <c r="LA12" s="6">
         <v>175602</v>
       </c>
+      <c r="LB12" s="6">
+        <v>178699</v>
+      </c>
     </row>
-    <row r="13" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8757,41 +8782,44 @@
       <c r="KP13" s="16">
         <v>155450</v>
       </c>
-      <c r="KQ13" s="5">
+      <c r="KQ13" s="39">
         <v>156140</v>
       </c>
-      <c r="KR13" s="5">
+      <c r="KR13" s="39">
         <v>156174</v>
       </c>
-      <c r="KS13" s="5">
+      <c r="KS13" s="39">
         <v>156001</v>
       </c>
-      <c r="KT13" s="5">
+      <c r="KT13" s="39">
         <v>155680</v>
       </c>
-      <c r="KU13" s="5">
+      <c r="KU13" s="39">
         <v>155582</v>
       </c>
-      <c r="KV13" s="5">
+      <c r="KV13" s="39">
         <v>155258</v>
       </c>
-      <c r="KW13" s="5">
+      <c r="KW13" s="39">
         <v>155856</v>
       </c>
-      <c r="KX13" s="5">
+      <c r="KX13" s="39">
         <v>156242</v>
       </c>
-      <c r="KY13" s="5">
+      <c r="KY13" s="39">
         <v>157177</v>
       </c>
-      <c r="KZ13" s="5">
+      <c r="KZ13" s="39">
         <v>157909</v>
       </c>
       <c r="LA13" s="6">
         <v>155781</v>
       </c>
+      <c r="LB13" s="6">
+        <v>157563</v>
+      </c>
     </row>
-    <row r="14" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9698,41 +9726,44 @@
       <c r="KP14" s="16">
         <v>137574</v>
       </c>
-      <c r="KQ14" s="5">
+      <c r="KQ14" s="39">
         <v>138320</v>
       </c>
-      <c r="KR14" s="5">
+      <c r="KR14" s="39">
         <v>138718</v>
       </c>
-      <c r="KS14" s="5">
+      <c r="KS14" s="39">
         <v>138829</v>
       </c>
-      <c r="KT14" s="5">
+      <c r="KT14" s="39">
         <v>138889</v>
       </c>
-      <c r="KU14" s="5">
+      <c r="KU14" s="39">
         <v>139114</v>
       </c>
-      <c r="KV14" s="5">
+      <c r="KV14" s="39">
         <v>139107</v>
       </c>
-      <c r="KW14" s="5">
+      <c r="KW14" s="39">
         <v>139842</v>
       </c>
-      <c r="KX14" s="5">
+      <c r="KX14" s="39">
         <v>140224</v>
       </c>
-      <c r="KY14" s="5">
+      <c r="KY14" s="39">
         <v>140903</v>
       </c>
-      <c r="KZ14" s="5">
+      <c r="KZ14" s="39">
         <v>141661</v>
       </c>
       <c r="LA14" s="6">
         <v>139847</v>
       </c>
+      <c r="LB14" s="6">
+        <v>141223</v>
+      </c>
     </row>
-    <row r="15" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10639,41 +10670,44 @@
       <c r="KP15" s="16">
         <v>122453</v>
       </c>
-      <c r="KQ15" s="5">
+      <c r="KQ15" s="39">
         <v>122973</v>
       </c>
-      <c r="KR15" s="5">
+      <c r="KR15" s="39">
         <v>122991</v>
       </c>
-      <c r="KS15" s="5">
+      <c r="KS15" s="39">
         <v>122828</v>
       </c>
-      <c r="KT15" s="5">
+      <c r="KT15" s="39">
         <v>122692</v>
       </c>
-      <c r="KU15" s="5">
+      <c r="KU15" s="39">
         <v>122752</v>
       </c>
-      <c r="KV15" s="5">
+      <c r="KV15" s="39">
         <v>122385</v>
       </c>
-      <c r="KW15" s="5">
+      <c r="KW15" s="39">
         <v>122986</v>
       </c>
-      <c r="KX15" s="5">
+      <c r="KX15" s="39">
         <v>123153</v>
       </c>
-      <c r="KY15" s="5">
+      <c r="KY15" s="39">
         <v>123561</v>
       </c>
-      <c r="KZ15" s="5">
+      <c r="KZ15" s="39">
         <v>124009</v>
       </c>
       <c r="LA15" s="6">
         <v>122654</v>
       </c>
+      <c r="LB15" s="6">
+        <v>123437</v>
+      </c>
     </row>
-    <row r="16" spans="1:313" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11613,8 +11647,11 @@
       <c r="LA16" s="8">
         <v>26</v>
       </c>
+      <c r="LB16" s="8">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="1:314" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12521,41 +12558,44 @@
       <c r="KP17" s="25">
         <v>789310</v>
       </c>
-      <c r="KQ17" s="30">
+      <c r="KQ17" s="38">
         <v>795499</v>
       </c>
-      <c r="KR17" s="30">
+      <c r="KR17" s="38">
         <v>801239</v>
       </c>
-      <c r="KS17" s="30">
+      <c r="KS17" s="38">
         <v>803252</v>
       </c>
-      <c r="KT17" s="30">
+      <c r="KT17" s="38">
         <v>805407</v>
       </c>
-      <c r="KU17" s="30">
+      <c r="KU17" s="38">
         <v>809109</v>
       </c>
-      <c r="KV17" s="30">
+      <c r="KV17" s="38">
         <v>809998</v>
       </c>
-      <c r="KW17" s="30">
+      <c r="KW17" s="38">
         <v>814138</v>
       </c>
-      <c r="KX17" s="30">
+      <c r="KX17" s="38">
         <v>820642</v>
       </c>
-      <c r="KY17" s="30">
+      <c r="KY17" s="38">
         <v>827508</v>
       </c>
-      <c r="KZ17" s="30">
+      <c r="KZ17" s="38">
         <v>834751</v>
       </c>
       <c r="LA17" s="26">
         <v>821204</v>
       </c>
+      <c r="LB17" s="26">
+        <v>824878</v>
+      </c>
     </row>
-    <row r="18" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13462,41 +13502,44 @@
       <c r="KP18" s="16">
         <v>134701</v>
       </c>
-      <c r="KQ18" s="5">
+      <c r="KQ18" s="39">
         <v>136039</v>
       </c>
-      <c r="KR18" s="5">
+      <c r="KR18" s="39">
         <v>137196</v>
       </c>
-      <c r="KS18" s="5">
+      <c r="KS18" s="39">
         <v>138155</v>
       </c>
-      <c r="KT18" s="5">
+      <c r="KT18" s="39">
         <v>139265</v>
       </c>
-      <c r="KU18" s="5">
+      <c r="KU18" s="39">
         <v>140396</v>
       </c>
-      <c r="KV18" s="5">
+      <c r="KV18" s="39">
         <v>141088</v>
       </c>
-      <c r="KW18" s="5">
+      <c r="KW18" s="39">
         <v>142801</v>
       </c>
-      <c r="KX18" s="5">
+      <c r="KX18" s="39">
         <v>144142</v>
       </c>
-      <c r="KY18" s="5">
+      <c r="KY18" s="39">
         <v>145890</v>
       </c>
-      <c r="KZ18" s="5">
+      <c r="KZ18" s="39">
         <v>147316</v>
       </c>
       <c r="LA18" s="6">
         <v>146536</v>
       </c>
+      <c r="LB18" s="6">
+        <v>148445</v>
+      </c>
     </row>
-    <row r="19" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14403,41 +14446,44 @@
       <c r="KP19" s="16">
         <v>17375</v>
       </c>
-      <c r="KQ19" s="5">
+      <c r="KQ19" s="39">
         <v>17774</v>
       </c>
-      <c r="KR19" s="5">
+      <c r="KR19" s="39">
         <v>18268</v>
       </c>
-      <c r="KS19" s="5">
+      <c r="KS19" s="39">
         <v>18134</v>
       </c>
-      <c r="KT19" s="5">
+      <c r="KT19" s="39">
         <v>18005</v>
       </c>
-      <c r="KU19" s="5">
+      <c r="KU19" s="39">
         <v>18738</v>
       </c>
-      <c r="KV19" s="5">
+      <c r="KV19" s="39">
         <v>18744</v>
       </c>
-      <c r="KW19" s="5">
+      <c r="KW19" s="39">
         <v>18211</v>
       </c>
-      <c r="KX19" s="5">
+      <c r="KX19" s="39">
         <v>18339</v>
       </c>
-      <c r="KY19" s="5">
+      <c r="KY19" s="39">
         <v>18570</v>
       </c>
-      <c r="KZ19" s="5">
+      <c r="KZ19" s="39">
         <v>18930</v>
       </c>
       <c r="LA19" s="6">
         <v>18059</v>
       </c>
+      <c r="LB19" s="6">
+        <v>17671</v>
+      </c>
     </row>
-    <row r="20" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15344,41 +15390,44 @@
       <c r="KP20" s="16">
         <v>96989</v>
       </c>
-      <c r="KQ20" s="5">
+      <c r="KQ20" s="39">
         <v>98011</v>
       </c>
-      <c r="KR20" s="5">
+      <c r="KR20" s="39">
         <v>98637</v>
       </c>
-      <c r="KS20" s="5">
+      <c r="KS20" s="39">
         <v>98428</v>
       </c>
-      <c r="KT20" s="5">
+      <c r="KT20" s="39">
         <v>98459</v>
       </c>
-      <c r="KU20" s="5">
+      <c r="KU20" s="39">
         <v>99744</v>
       </c>
-      <c r="KV20" s="5">
+      <c r="KV20" s="39">
         <v>99664</v>
       </c>
-      <c r="KW20" s="5">
+      <c r="KW20" s="39">
         <v>98750</v>
       </c>
-      <c r="KX20" s="5">
+      <c r="KX20" s="39">
         <v>99651</v>
       </c>
-      <c r="KY20" s="5">
+      <c r="KY20" s="39">
         <v>100546</v>
       </c>
-      <c r="KZ20" s="5">
+      <c r="KZ20" s="39">
         <v>101550</v>
       </c>
       <c r="LA20" s="6">
         <v>98427</v>
       </c>
+      <c r="LB20" s="6">
+        <v>97650</v>
+      </c>
     </row>
-    <row r="21" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16285,41 +16334,44 @@
       <c r="KP21" s="16">
         <v>128282</v>
       </c>
-      <c r="KQ21" s="5">
+      <c r="KQ21" s="39">
         <v>129211</v>
       </c>
-      <c r="KR21" s="5">
+      <c r="KR21" s="39">
         <v>130383</v>
       </c>
-      <c r="KS21" s="5">
+      <c r="KS21" s="39">
         <v>130425</v>
       </c>
-      <c r="KT21" s="5">
+      <c r="KT21" s="39">
         <v>130769</v>
       </c>
-      <c r="KU21" s="5">
+      <c r="KU21" s="39">
         <v>130891</v>
       </c>
-      <c r="KV21" s="5">
+      <c r="KV21" s="39">
         <v>131023</v>
       </c>
-      <c r="KW21" s="5">
+      <c r="KW21" s="39">
         <v>131887</v>
       </c>
-      <c r="KX21" s="5">
+      <c r="KX21" s="39">
         <v>132942</v>
       </c>
-      <c r="KY21" s="5">
+      <c r="KY21" s="39">
         <v>134044</v>
       </c>
-      <c r="KZ21" s="5">
+      <c r="KZ21" s="39">
         <v>135357</v>
       </c>
       <c r="LA21" s="6">
         <v>132751</v>
       </c>
+      <c r="LB21" s="6">
+        <v>132435</v>
+      </c>
     </row>
-    <row r="22" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17226,41 +17278,44 @@
       <c r="KP22" s="16">
         <v>121771</v>
       </c>
-      <c r="KQ22" s="5">
+      <c r="KQ22" s="39">
         <v>122466</v>
       </c>
-      <c r="KR22" s="5">
+      <c r="KR22" s="39">
         <v>122974</v>
       </c>
-      <c r="KS22" s="5">
+      <c r="KS22" s="39">
         <v>123271</v>
       </c>
-      <c r="KT22" s="5">
+      <c r="KT22" s="39">
         <v>123421</v>
       </c>
-      <c r="KU22" s="5">
+      <c r="KU22" s="39">
         <v>123500</v>
       </c>
-      <c r="KV22" s="5">
+      <c r="KV22" s="39">
         <v>123396</v>
       </c>
-      <c r="KW22" s="5">
+      <c r="KW22" s="39">
         <v>124327</v>
       </c>
-      <c r="KX22" s="5">
+      <c r="KX22" s="39">
         <v>125028</v>
       </c>
-      <c r="KY22" s="5">
+      <c r="KY22" s="39">
         <v>126024</v>
       </c>
-      <c r="KZ22" s="5">
+      <c r="KZ22" s="39">
         <v>126828</v>
       </c>
       <c r="LA22" s="6">
         <v>124740</v>
       </c>
+      <c r="LB22" s="6">
+        <v>125760</v>
+      </c>
     </row>
-    <row r="23" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18167,41 +18222,44 @@
       <c r="KP23" s="16">
         <v>109520</v>
       </c>
-      <c r="KQ23" s="5">
+      <c r="KQ23" s="39">
         <v>110163</v>
       </c>
-      <c r="KR23" s="5">
+      <c r="KR23" s="39">
         <v>110868</v>
       </c>
-      <c r="KS23" s="5">
+      <c r="KS23" s="39">
         <v>111254</v>
       </c>
-      <c r="KT23" s="5">
+      <c r="KT23" s="39">
         <v>111231</v>
       </c>
-      <c r="KU23" s="5">
+      <c r="KU23" s="39">
         <v>111176</v>
       </c>
-      <c r="KV23" s="5">
+      <c r="KV23" s="39">
         <v>111090</v>
       </c>
-      <c r="KW23" s="5">
+      <c r="KW23" s="39">
         <v>112003</v>
       </c>
-      <c r="KX23" s="5">
+      <c r="KX23" s="39">
         <v>112803</v>
       </c>
-      <c r="KY23" s="5">
+      <c r="KY23" s="39">
         <v>113393</v>
       </c>
-      <c r="KZ23" s="5">
+      <c r="KZ23" s="39">
         <v>114123</v>
       </c>
       <c r="LA23" s="6">
         <v>112366</v>
       </c>
+      <c r="LB23" s="6">
+        <v>113324</v>
+      </c>
     </row>
-    <row r="24" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19108,41 +19166,44 @@
       <c r="KP24" s="16">
         <v>97208</v>
       </c>
-      <c r="KQ24" s="5">
+      <c r="KQ24" s="39">
         <v>97788</v>
       </c>
-      <c r="KR24" s="5">
+      <c r="KR24" s="39">
         <v>98384</v>
       </c>
-      <c r="KS24" s="5">
+      <c r="KS24" s="39">
         <v>98757</v>
       </c>
-      <c r="KT24" s="5">
+      <c r="KT24" s="39">
         <v>99133</v>
       </c>
-      <c r="KU24" s="5">
+      <c r="KU24" s="39">
         <v>99355</v>
       </c>
-      <c r="KV24" s="5">
+      <c r="KV24" s="39">
         <v>99521</v>
       </c>
-      <c r="KW24" s="5">
+      <c r="KW24" s="39">
         <v>100170</v>
       </c>
-      <c r="KX24" s="5">
+      <c r="KX24" s="39">
         <v>101134</v>
       </c>
-      <c r="KY24" s="5">
+      <c r="KY24" s="39">
         <v>101815</v>
       </c>
-      <c r="KZ24" s="5">
+      <c r="KZ24" s="39">
         <v>102743</v>
       </c>
       <c r="LA24" s="6">
         <v>101585</v>
       </c>
+      <c r="LB24" s="6">
+        <v>102386</v>
+      </c>
     </row>
-    <row r="25" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20049,41 +20110,44 @@
       <c r="KP25" s="16">
         <v>83457</v>
       </c>
-      <c r="KQ25" s="5">
+      <c r="KQ25" s="39">
         <v>84040</v>
       </c>
-      <c r="KR25" s="5">
+      <c r="KR25" s="39">
         <v>84521</v>
       </c>
-      <c r="KS25" s="5">
+      <c r="KS25" s="39">
         <v>84819</v>
       </c>
-      <c r="KT25" s="5">
+      <c r="KT25" s="39">
         <v>85116</v>
       </c>
-      <c r="KU25" s="5">
+      <c r="KU25" s="39">
         <v>85300</v>
       </c>
-      <c r="KV25" s="5">
+      <c r="KV25" s="39">
         <v>85463</v>
       </c>
-      <c r="KW25" s="5">
+      <c r="KW25" s="39">
         <v>85979</v>
       </c>
-      <c r="KX25" s="5">
+      <c r="KX25" s="39">
         <v>86593</v>
       </c>
-      <c r="KY25" s="5">
+      <c r="KY25" s="39">
         <v>87217</v>
       </c>
-      <c r="KZ25" s="5">
+      <c r="KZ25" s="39">
         <v>87899</v>
       </c>
       <c r="LA25" s="6">
         <v>86735</v>
       </c>
+      <c r="LB25" s="6">
+        <v>87202</v>
+      </c>
     </row>
-    <row r="26" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -21023,8 +21087,11 @@
       <c r="LA26" s="8">
         <v>5</v>
       </c>
+      <c r="LB26" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -21931,42 +21998,45 @@
       <c r="KP27" s="27">
         <v>1951256</v>
       </c>
-      <c r="KQ27" s="31">
+      <c r="KQ27" s="40">
         <v>1964519</v>
       </c>
-      <c r="KR27" s="31">
+      <c r="KR27" s="40">
         <v>1972715</v>
       </c>
-      <c r="KS27" s="31">
+      <c r="KS27" s="40">
         <v>1973202</v>
       </c>
-      <c r="KT27" s="31">
+      <c r="KT27" s="40">
         <v>1974565</v>
       </c>
-      <c r="KU27" s="31">
+      <c r="KU27" s="40">
         <v>1980790</v>
       </c>
-      <c r="KV27" s="31">
+      <c r="KV27" s="40">
         <v>1981146</v>
       </c>
-      <c r="KW27" s="31">
+      <c r="KW27" s="40">
         <v>1988746</v>
       </c>
-      <c r="KX27" s="31">
+      <c r="KX27" s="40">
         <v>1999360</v>
       </c>
-      <c r="KY27" s="31">
+      <c r="KY27" s="40">
         <v>2013431</v>
       </c>
-      <c r="KZ27" s="31">
+      <c r="KZ27" s="40">
         <v>2026935</v>
       </c>
       <c r="LA27" s="28">
         <v>1995357</v>
       </c>
-      <c r="LB27" s="5"/>
+      <c r="LB27" s="28">
+        <v>2009853</v>
+      </c>
+      <c r="LC27" s="5"/>
     </row>
-    <row r="28" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23157,42 +23227,45 @@
       <c r="KP28" s="16">
         <v>355005</v>
       </c>
-      <c r="KQ28" s="5">
+      <c r="KQ28" s="39">
         <v>357998</v>
       </c>
-      <c r="KR28" s="5">
+      <c r="KR28" s="39">
         <v>360203</v>
       </c>
-      <c r="KS28" s="5">
+      <c r="KS28" s="39">
         <v>361599</v>
       </c>
-      <c r="KT28" s="5">
+      <c r="KT28" s="39">
         <v>363254</v>
       </c>
-      <c r="KU28" s="5">
+      <c r="KU28" s="39">
         <v>365486</v>
       </c>
-      <c r="KV28" s="5">
+      <c r="KV28" s="39">
         <v>366555</v>
       </c>
-      <c r="KW28" s="5">
+      <c r="KW28" s="39">
         <v>370361</v>
       </c>
-      <c r="KX28" s="5">
+      <c r="KX28" s="39">
         <v>372744</v>
       </c>
-      <c r="KY28" s="5">
+      <c r="KY28" s="39">
         <v>376309</v>
       </c>
-      <c r="KZ28" s="5">
+      <c r="KZ28" s="39">
         <v>379675</v>
       </c>
       <c r="LA28" s="6">
         <v>378203</v>
       </c>
-      <c r="LB28" s="5"/>
+      <c r="LB28" s="41">
+        <v>382942</v>
+      </c>
+      <c r="LC28" s="5"/>
     </row>
-    <row r="29" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24383,42 +24456,45 @@
       <c r="KP29" s="16">
         <v>47444</v>
       </c>
-      <c r="KQ29" s="5">
+      <c r="KQ29" s="39">
         <v>48393</v>
       </c>
-      <c r="KR29" s="5">
+      <c r="KR29" s="39">
         <v>49148</v>
       </c>
-      <c r="KS29" s="5">
+      <c r="KS29" s="39">
         <v>48554</v>
       </c>
-      <c r="KT29" s="5">
+      <c r="KT29" s="39">
         <v>48244</v>
       </c>
-      <c r="KU29" s="5">
+      <c r="KU29" s="39">
         <v>49637</v>
       </c>
-      <c r="KV29" s="5">
+      <c r="KV29" s="39">
         <v>49870</v>
       </c>
-      <c r="KW29" s="5">
+      <c r="KW29" s="39">
         <v>48624</v>
       </c>
-      <c r="KX29" s="5">
+      <c r="KX29" s="39">
         <v>48876</v>
       </c>
-      <c r="KY29" s="5">
+      <c r="KY29" s="39">
         <v>49500</v>
       </c>
-      <c r="KZ29" s="5">
+      <c r="KZ29" s="39">
         <v>49969</v>
       </c>
       <c r="LA29" s="6">
         <v>47861</v>
       </c>
-      <c r="LB29" s="5"/>
+      <c r="LB29" s="42">
+        <v>47602</v>
+      </c>
+      <c r="LC29" s="5"/>
     </row>
-    <row r="30" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25609,42 +25685,45 @@
       <c r="KP30" s="16">
         <v>237417</v>
       </c>
-      <c r="KQ30" s="5">
+      <c r="KQ30" s="39">
         <v>239602</v>
       </c>
-      <c r="KR30" s="5">
+      <c r="KR30" s="39">
         <v>240716</v>
       </c>
-      <c r="KS30" s="5">
+      <c r="KS30" s="39">
         <v>240141</v>
       </c>
-      <c r="KT30" s="5">
+      <c r="KT30" s="39">
         <v>239952</v>
       </c>
-      <c r="KU30" s="5">
+      <c r="KU30" s="39">
         <v>242100</v>
       </c>
-      <c r="KV30" s="5">
+      <c r="KV30" s="39">
         <v>241665</v>
       </c>
-      <c r="KW30" s="5">
+      <c r="KW30" s="39">
         <v>239595</v>
       </c>
-      <c r="KX30" s="5">
+      <c r="KX30" s="39">
         <v>241123</v>
       </c>
-      <c r="KY30" s="5">
+      <c r="KY30" s="39">
         <v>242975</v>
       </c>
-      <c r="KZ30" s="5">
+      <c r="KZ30" s="39">
         <v>244851</v>
       </c>
       <c r="LA30" s="6">
         <v>237593</v>
       </c>
-      <c r="LB30" s="5"/>
+      <c r="LB30" s="42">
+        <v>237417</v>
+      </c>
+      <c r="LC30" s="5"/>
     </row>
-    <row r="31" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -26835,42 +26914,45 @@
       <c r="KP31" s="16">
         <v>307712</v>
       </c>
-      <c r="KQ31" s="5">
+      <c r="KQ31" s="39">
         <v>309427</v>
       </c>
-      <c r="KR31" s="5">
+      <c r="KR31" s="39">
         <v>310889</v>
       </c>
-      <c r="KS31" s="5">
+      <c r="KS31" s="39">
         <v>310748</v>
       </c>
-      <c r="KT31" s="5">
+      <c r="KT31" s="39">
         <v>310800</v>
       </c>
-      <c r="KU31" s="5">
+      <c r="KU31" s="39">
         <v>310853</v>
       </c>
-      <c r="KV31" s="5">
+      <c r="KV31" s="39">
         <v>310911</v>
       </c>
-      <c r="KW31" s="5">
+      <c r="KW31" s="39">
         <v>312592</v>
       </c>
-      <c r="KX31" s="5">
+      <c r="KX31" s="39">
         <v>314270</v>
       </c>
-      <c r="KY31" s="5">
+      <c r="KY31" s="39">
         <v>316392</v>
       </c>
-      <c r="KZ31" s="5">
+      <c r="KZ31" s="39">
         <v>318579</v>
       </c>
       <c r="LA31" s="6">
         <v>312359</v>
       </c>
-      <c r="LB31" s="5"/>
+      <c r="LB31" s="42">
+        <v>312270</v>
+      </c>
+      <c r="LC31" s="5"/>
     </row>
-    <row r="32" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28061,42 +28143,45 @@
       <c r="KP32" s="16">
         <v>297982</v>
       </c>
-      <c r="KQ32" s="5">
+      <c r="KQ32" s="39">
         <v>299641</v>
       </c>
-      <c r="KR32" s="5">
+      <c r="KR32" s="39">
         <v>300071</v>
       </c>
-      <c r="KS32" s="5">
+      <c r="KS32" s="39">
         <v>299640</v>
       </c>
-      <c r="KT32" s="5">
+      <c r="KT32" s="39">
         <v>299544</v>
       </c>
-      <c r="KU32" s="5">
+      <c r="KU32" s="39">
         <v>299397</v>
       </c>
-      <c r="KV32" s="5">
+      <c r="KV32" s="39">
         <v>299285</v>
       </c>
-      <c r="KW32" s="5">
+      <c r="KW32" s="39">
         <v>300695</v>
       </c>
-      <c r="KX32" s="5">
+      <c r="KX32" s="39">
         <v>302149</v>
       </c>
-      <c r="KY32" s="5">
+      <c r="KY32" s="39">
         <v>304145</v>
       </c>
-      <c r="KZ32" s="5">
+      <c r="KZ32" s="39">
         <v>305479</v>
       </c>
       <c r="LA32" s="6">
         <v>300342</v>
       </c>
-      <c r="LB32" s="5"/>
+      <c r="LB32" s="42">
+        <v>304459</v>
+      </c>
+      <c r="LC32" s="5"/>
     </row>
-    <row r="33" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29287,42 +29372,45 @@
       <c r="KP33" s="16">
         <v>264970</v>
       </c>
-      <c r="KQ33" s="5">
+      <c r="KQ33" s="39">
         <v>266303</v>
       </c>
-      <c r="KR33" s="5">
+      <c r="KR33" s="39">
         <v>267042</v>
       </c>
-      <c r="KS33" s="5">
+      <c r="KS33" s="39">
         <v>267255</v>
       </c>
-      <c r="KT33" s="5">
+      <c r="KT33" s="39">
         <v>266911</v>
       </c>
-      <c r="KU33" s="5">
+      <c r="KU33" s="39">
         <v>266758</v>
       </c>
-      <c r="KV33" s="5">
+      <c r="KV33" s="39">
         <v>266348</v>
       </c>
-      <c r="KW33" s="5">
+      <c r="KW33" s="39">
         <v>267859</v>
       </c>
-      <c r="KX33" s="5">
+      <c r="KX33" s="39">
         <v>269045</v>
       </c>
-      <c r="KY33" s="5">
+      <c r="KY33" s="39">
         <v>270570</v>
       </c>
-      <c r="KZ33" s="5">
+      <c r="KZ33" s="39">
         <v>272032</v>
       </c>
       <c r="LA33" s="6">
         <v>268147</v>
       </c>
-      <c r="LB33" s="5"/>
+      <c r="LB33" s="42">
+        <v>270887</v>
+      </c>
+      <c r="LC33" s="5"/>
     </row>
-    <row r="34" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30513,42 +30601,45 @@
       <c r="KP34" s="16">
         <v>234782</v>
       </c>
-      <c r="KQ34" s="5">
+      <c r="KQ34" s="39">
         <v>236108</v>
       </c>
-      <c r="KR34" s="5">
+      <c r="KR34" s="39">
         <v>237102</v>
       </c>
-      <c r="KS34" s="5">
+      <c r="KS34" s="39">
         <v>237586</v>
       </c>
-      <c r="KT34" s="5">
+      <c r="KT34" s="39">
         <v>238022</v>
       </c>
-      <c r="KU34" s="5">
+      <c r="KU34" s="39">
         <v>238469</v>
       </c>
-      <c r="KV34" s="5">
+      <c r="KV34" s="39">
         <v>238628</v>
       </c>
-      <c r="KW34" s="5">
+      <c r="KW34" s="39">
         <v>240012</v>
       </c>
-      <c r="KX34" s="5">
+      <c r="KX34" s="39">
         <v>241358</v>
       </c>
-      <c r="KY34" s="5">
+      <c r="KY34" s="39">
         <v>242718</v>
       </c>
-      <c r="KZ34" s="5">
+      <c r="KZ34" s="39">
         <v>244404</v>
       </c>
       <c r="LA34" s="6">
         <v>241432</v>
       </c>
-      <c r="LB34" s="5"/>
+      <c r="LB34" s="42">
+        <v>243609</v>
+      </c>
+      <c r="LC34" s="5"/>
     </row>
-    <row r="35" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -31739,42 +31830,45 @@
       <c r="KP35" s="16">
         <v>205910</v>
       </c>
-      <c r="KQ35" s="5">
+      <c r="KQ35" s="39">
         <v>207013</v>
       </c>
-      <c r="KR35" s="5">
+      <c r="KR35" s="39">
         <v>207512</v>
       </c>
-      <c r="KS35" s="5">
+      <c r="KS35" s="39">
         <v>207647</v>
       </c>
-      <c r="KT35" s="5">
+      <c r="KT35" s="39">
         <v>207808</v>
       </c>
-      <c r="KU35" s="5">
+      <c r="KU35" s="39">
         <v>208052</v>
       </c>
-      <c r="KV35" s="5">
+      <c r="KV35" s="39">
         <v>207848</v>
       </c>
-      <c r="KW35" s="5">
+      <c r="KW35" s="39">
         <v>208965</v>
       </c>
-      <c r="KX35" s="5">
+      <c r="KX35" s="39">
         <v>209746</v>
       </c>
-      <c r="KY35" s="5">
+      <c r="KY35" s="39">
         <v>210778</v>
       </c>
-      <c r="KZ35" s="5">
+      <c r="KZ35" s="39">
         <v>211908</v>
       </c>
       <c r="LA35" s="6">
         <v>209389</v>
       </c>
-      <c r="LB35" s="5"/>
+      <c r="LB35" s="42">
+        <v>210639</v>
+      </c>
+      <c r="LC35" s="5"/>
     </row>
-    <row r="36" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -32998,9 +33092,12 @@
       <c r="LA36" s="8">
         <v>31</v>
       </c>
-      <c r="LB36" s="5"/>
+      <c r="LB36" s="43">
+        <v>28</v>
+      </c>
+      <c r="LC36" s="5"/>
     </row>
-    <row r="37" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:315" x14ac:dyDescent="0.3">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -33013,25 +33110,15 @@
       <c r="KY37" s="5"/>
       <c r="KZ37" s="5"/>
       <c r="LA37" s="5"/>
+      <c r="LB37" s="5"/>
     </row>
-    <row r="38" spans="1:314" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:315" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="KP5:LA5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
@@ -33048,6 +33135,17 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
+    <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2677FF24-CBA2-49BF-B81B-97910A3EB89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C1EAEB-8766-4DC1-8A5B-FBDBF332026A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - enero 2024</t>
+    <t>Enero 1998 - febrero 2024</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -422,20 +422,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,12 +440,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,12 +741,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LC38"/>
+  <dimension ref="A1:LD38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KM1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KN1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="LA19" sqref="LA19"/>
+      <selection pane="topRight" activeCell="KX38" sqref="KX38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,402 +882,403 @@
     <col min="301" max="301" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="302" max="309" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="310" max="310" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="313" width="10.44140625" style="1" customWidth="1"/>
-    <col min="314" max="314" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="315" max="16384" width="11.33203125" style="1"/>
+    <col min="311" max="314" width="10.44140625" style="1" customWidth="1"/>
+    <col min="315" max="315" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="316" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="LC3" s="2"/>
+      <c r="LD3" s="2"/>
     </row>
-    <row r="4" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    <row r="4" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="34">
         <v>1998</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34">
         <v>1999</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33">
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34">
         <v>2000</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34">
         <v>2001</v>
       </c>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33">
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34">
         <v>2002</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33">
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34">
         <v>2003</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33">
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34">
         <v>2004</v>
       </c>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="33"/>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33"/>
-      <c r="CH5" s="33">
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="34"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34">
         <v>2005</v>
       </c>
-      <c r="CI5" s="33"/>
-      <c r="CJ5" s="33"/>
-      <c r="CK5" s="33"/>
-      <c r="CL5" s="33"/>
-      <c r="CM5" s="33"/>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33"/>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="33"/>
-      <c r="CR5" s="33"/>
-      <c r="CS5" s="33"/>
-      <c r="CT5" s="33">
+      <c r="CI5" s="34"/>
+      <c r="CJ5" s="34"/>
+      <c r="CK5" s="34"/>
+      <c r="CL5" s="34"/>
+      <c r="CM5" s="34"/>
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34"/>
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="34"/>
+      <c r="CR5" s="34"/>
+      <c r="CS5" s="34"/>
+      <c r="CT5" s="34">
         <v>2006</v>
       </c>
-      <c r="CU5" s="33"/>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="33"/>
-      <c r="CX5" s="33"/>
-      <c r="CY5" s="33"/>
-      <c r="CZ5" s="33"/>
-      <c r="DA5" s="33"/>
-      <c r="DB5" s="33"/>
-      <c r="DC5" s="33"/>
-      <c r="DD5" s="33"/>
-      <c r="DE5" s="33"/>
-      <c r="DF5" s="33">
+      <c r="CU5" s="34"/>
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="34"/>
+      <c r="CX5" s="34"/>
+      <c r="CY5" s="34"/>
+      <c r="CZ5" s="34"/>
+      <c r="DA5" s="34"/>
+      <c r="DB5" s="34"/>
+      <c r="DC5" s="34"/>
+      <c r="DD5" s="34"/>
+      <c r="DE5" s="34"/>
+      <c r="DF5" s="34">
         <v>2007</v>
       </c>
-      <c r="DG5" s="33"/>
-      <c r="DH5" s="33"/>
-      <c r="DI5" s="33"/>
-      <c r="DJ5" s="33"/>
-      <c r="DK5" s="33"/>
-      <c r="DL5" s="33"/>
-      <c r="DM5" s="33"/>
-      <c r="DN5" s="33"/>
-      <c r="DO5" s="33"/>
-      <c r="DP5" s="33"/>
-      <c r="DQ5" s="33"/>
-      <c r="DR5" s="33">
+      <c r="DG5" s="34"/>
+      <c r="DH5" s="34"/>
+      <c r="DI5" s="34"/>
+      <c r="DJ5" s="34"/>
+      <c r="DK5" s="34"/>
+      <c r="DL5" s="34"/>
+      <c r="DM5" s="34"/>
+      <c r="DN5" s="34"/>
+      <c r="DO5" s="34"/>
+      <c r="DP5" s="34"/>
+      <c r="DQ5" s="34"/>
+      <c r="DR5" s="34">
         <v>2008</v>
       </c>
-      <c r="DS5" s="33"/>
-      <c r="DT5" s="33"/>
-      <c r="DU5" s="33"/>
-      <c r="DV5" s="33"/>
-      <c r="DW5" s="33"/>
-      <c r="DX5" s="33"/>
-      <c r="DY5" s="33"/>
-      <c r="DZ5" s="33"/>
-      <c r="EA5" s="33"/>
-      <c r="EB5" s="33"/>
-      <c r="EC5" s="33"/>
-      <c r="ED5" s="33">
+      <c r="DS5" s="34"/>
+      <c r="DT5" s="34"/>
+      <c r="DU5" s="34"/>
+      <c r="DV5" s="34"/>
+      <c r="DW5" s="34"/>
+      <c r="DX5" s="34"/>
+      <c r="DY5" s="34"/>
+      <c r="DZ5" s="34"/>
+      <c r="EA5" s="34"/>
+      <c r="EB5" s="34"/>
+      <c r="EC5" s="34"/>
+      <c r="ED5" s="34">
         <v>2009</v>
       </c>
-      <c r="EE5" s="33"/>
-      <c r="EF5" s="33"/>
-      <c r="EG5" s="33"/>
-      <c r="EH5" s="33"/>
-      <c r="EI5" s="33"/>
-      <c r="EJ5" s="33"/>
-      <c r="EK5" s="33"/>
-      <c r="EL5" s="33"/>
-      <c r="EM5" s="33"/>
-      <c r="EN5" s="33"/>
-      <c r="EO5" s="33"/>
-      <c r="EP5" s="33">
+      <c r="EE5" s="34"/>
+      <c r="EF5" s="34"/>
+      <c r="EG5" s="34"/>
+      <c r="EH5" s="34"/>
+      <c r="EI5" s="34"/>
+      <c r="EJ5" s="34"/>
+      <c r="EK5" s="34"/>
+      <c r="EL5" s="34"/>
+      <c r="EM5" s="34"/>
+      <c r="EN5" s="34"/>
+      <c r="EO5" s="34"/>
+      <c r="EP5" s="34">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="33"/>
-      <c r="ER5" s="33"/>
-      <c r="ES5" s="33"/>
-      <c r="ET5" s="33"/>
-      <c r="EU5" s="33"/>
-      <c r="EV5" s="33"/>
-      <c r="EW5" s="33"/>
-      <c r="EX5" s="33"/>
-      <c r="EY5" s="33"/>
-      <c r="EZ5" s="33"/>
-      <c r="FA5" s="33"/>
-      <c r="FB5" s="33">
+      <c r="EQ5" s="34"/>
+      <c r="ER5" s="34"/>
+      <c r="ES5" s="34"/>
+      <c r="ET5" s="34"/>
+      <c r="EU5" s="34"/>
+      <c r="EV5" s="34"/>
+      <c r="EW5" s="34"/>
+      <c r="EX5" s="34"/>
+      <c r="EY5" s="34"/>
+      <c r="EZ5" s="34"/>
+      <c r="FA5" s="34"/>
+      <c r="FB5" s="34">
         <v>2011</v>
       </c>
-      <c r="FC5" s="33"/>
-      <c r="FD5" s="33"/>
-      <c r="FE5" s="33"/>
-      <c r="FF5" s="33"/>
-      <c r="FG5" s="33"/>
-      <c r="FH5" s="33"/>
-      <c r="FI5" s="33"/>
-      <c r="FJ5" s="33"/>
-      <c r="FK5" s="33"/>
-      <c r="FL5" s="33"/>
-      <c r="FM5" s="33"/>
-      <c r="FN5" s="33">
+      <c r="FC5" s="34"/>
+      <c r="FD5" s="34"/>
+      <c r="FE5" s="34"/>
+      <c r="FF5" s="34"/>
+      <c r="FG5" s="34"/>
+      <c r="FH5" s="34"/>
+      <c r="FI5" s="34"/>
+      <c r="FJ5" s="34"/>
+      <c r="FK5" s="34"/>
+      <c r="FL5" s="34"/>
+      <c r="FM5" s="34"/>
+      <c r="FN5" s="34">
         <v>2012</v>
       </c>
-      <c r="FO5" s="33"/>
-      <c r="FP5" s="33"/>
-      <c r="FQ5" s="33"/>
-      <c r="FR5" s="33"/>
-      <c r="FS5" s="33"/>
-      <c r="FT5" s="33"/>
-      <c r="FU5" s="33"/>
-      <c r="FV5" s="33"/>
-      <c r="FW5" s="33"/>
-      <c r="FX5" s="33"/>
-      <c r="FY5" s="33"/>
-      <c r="FZ5" s="33">
+      <c r="FO5" s="34"/>
+      <c r="FP5" s="34"/>
+      <c r="FQ5" s="34"/>
+      <c r="FR5" s="34"/>
+      <c r="FS5" s="34"/>
+      <c r="FT5" s="34"/>
+      <c r="FU5" s="34"/>
+      <c r="FV5" s="34"/>
+      <c r="FW5" s="34"/>
+      <c r="FX5" s="34"/>
+      <c r="FY5" s="34"/>
+      <c r="FZ5" s="34">
         <v>2013</v>
       </c>
-      <c r="GA5" s="33"/>
-      <c r="GB5" s="33"/>
-      <c r="GC5" s="33"/>
-      <c r="GD5" s="33"/>
-      <c r="GE5" s="33"/>
-      <c r="GF5" s="33"/>
-      <c r="GG5" s="33"/>
-      <c r="GH5" s="33"/>
-      <c r="GI5" s="33"/>
-      <c r="GJ5" s="33"/>
-      <c r="GK5" s="33"/>
-      <c r="GL5" s="33">
+      <c r="GA5" s="34"/>
+      <c r="GB5" s="34"/>
+      <c r="GC5" s="34"/>
+      <c r="GD5" s="34"/>
+      <c r="GE5" s="34"/>
+      <c r="GF5" s="34"/>
+      <c r="GG5" s="34"/>
+      <c r="GH5" s="34"/>
+      <c r="GI5" s="34"/>
+      <c r="GJ5" s="34"/>
+      <c r="GK5" s="34"/>
+      <c r="GL5" s="34">
         <v>2014</v>
       </c>
-      <c r="GM5" s="33"/>
-      <c r="GN5" s="33"/>
-      <c r="GO5" s="33"/>
-      <c r="GP5" s="33"/>
-      <c r="GQ5" s="33"/>
-      <c r="GR5" s="33"/>
-      <c r="GS5" s="33"/>
-      <c r="GT5" s="33"/>
-      <c r="GU5" s="33"/>
-      <c r="GV5" s="33"/>
-      <c r="GW5" s="33"/>
-      <c r="GX5" s="33">
+      <c r="GM5" s="34"/>
+      <c r="GN5" s="34"/>
+      <c r="GO5" s="34"/>
+      <c r="GP5" s="34"/>
+      <c r="GQ5" s="34"/>
+      <c r="GR5" s="34"/>
+      <c r="GS5" s="34"/>
+      <c r="GT5" s="34"/>
+      <c r="GU5" s="34"/>
+      <c r="GV5" s="34"/>
+      <c r="GW5" s="34"/>
+      <c r="GX5" s="34">
         <v>2015</v>
       </c>
-      <c r="GY5" s="33"/>
-      <c r="GZ5" s="33"/>
-      <c r="HA5" s="33"/>
-      <c r="HB5" s="33"/>
-      <c r="HC5" s="33"/>
-      <c r="HD5" s="33"/>
-      <c r="HE5" s="33"/>
-      <c r="HF5" s="33"/>
-      <c r="HG5" s="33"/>
-      <c r="HH5" s="33"/>
-      <c r="HI5" s="33"/>
-      <c r="HJ5" s="33">
+      <c r="GY5" s="34"/>
+      <c r="GZ5" s="34"/>
+      <c r="HA5" s="34"/>
+      <c r="HB5" s="34"/>
+      <c r="HC5" s="34"/>
+      <c r="HD5" s="34"/>
+      <c r="HE5" s="34"/>
+      <c r="HF5" s="34"/>
+      <c r="HG5" s="34"/>
+      <c r="HH5" s="34"/>
+      <c r="HI5" s="34"/>
+      <c r="HJ5" s="34">
         <v>2016</v>
       </c>
-      <c r="HK5" s="33"/>
-      <c r="HL5" s="33"/>
-      <c r="HM5" s="33"/>
-      <c r="HN5" s="33"/>
-      <c r="HO5" s="33"/>
-      <c r="HP5" s="33"/>
-      <c r="HQ5" s="33"/>
-      <c r="HR5" s="33"/>
-      <c r="HS5" s="33"/>
-      <c r="HT5" s="33"/>
-      <c r="HU5" s="33"/>
-      <c r="HV5" s="33">
+      <c r="HK5" s="34"/>
+      <c r="HL5" s="34"/>
+      <c r="HM5" s="34"/>
+      <c r="HN5" s="34"/>
+      <c r="HO5" s="34"/>
+      <c r="HP5" s="34"/>
+      <c r="HQ5" s="34"/>
+      <c r="HR5" s="34"/>
+      <c r="HS5" s="34"/>
+      <c r="HT5" s="34"/>
+      <c r="HU5" s="34"/>
+      <c r="HV5" s="34">
         <v>2017</v>
       </c>
-      <c r="HW5" s="33"/>
-      <c r="HX5" s="33"/>
-      <c r="HY5" s="33"/>
-      <c r="HZ5" s="33"/>
-      <c r="IA5" s="33"/>
-      <c r="IB5" s="33"/>
-      <c r="IC5" s="33"/>
-      <c r="ID5" s="33"/>
-      <c r="IE5" s="33"/>
-      <c r="IF5" s="33"/>
-      <c r="IG5" s="33"/>
-      <c r="IH5" s="33">
+      <c r="HW5" s="34"/>
+      <c r="HX5" s="34"/>
+      <c r="HY5" s="34"/>
+      <c r="HZ5" s="34"/>
+      <c r="IA5" s="34"/>
+      <c r="IB5" s="34"/>
+      <c r="IC5" s="34"/>
+      <c r="ID5" s="34"/>
+      <c r="IE5" s="34"/>
+      <c r="IF5" s="34"/>
+      <c r="IG5" s="34"/>
+      <c r="IH5" s="34">
         <v>2018</v>
       </c>
-      <c r="II5" s="33"/>
-      <c r="IJ5" s="33"/>
-      <c r="IK5" s="33"/>
-      <c r="IL5" s="33"/>
-      <c r="IM5" s="33"/>
-      <c r="IN5" s="33"/>
-      <c r="IO5" s="33"/>
-      <c r="IP5" s="33"/>
-      <c r="IQ5" s="33"/>
-      <c r="IR5" s="33"/>
-      <c r="IS5" s="33"/>
-      <c r="IT5" s="33">
+      <c r="II5" s="34"/>
+      <c r="IJ5" s="34"/>
+      <c r="IK5" s="34"/>
+      <c r="IL5" s="34"/>
+      <c r="IM5" s="34"/>
+      <c r="IN5" s="34"/>
+      <c r="IO5" s="34"/>
+      <c r="IP5" s="34"/>
+      <c r="IQ5" s="34"/>
+      <c r="IR5" s="34"/>
+      <c r="IS5" s="34"/>
+      <c r="IT5" s="34">
         <v>2019</v>
       </c>
-      <c r="IU5" s="33"/>
-      <c r="IV5" s="33"/>
-      <c r="IW5" s="33"/>
-      <c r="IX5" s="33"/>
-      <c r="IY5" s="33"/>
-      <c r="IZ5" s="33"/>
-      <c r="JA5" s="33"/>
-      <c r="JB5" s="33"/>
-      <c r="JC5" s="33"/>
-      <c r="JD5" s="33"/>
-      <c r="JE5" s="33"/>
-      <c r="JF5" s="33">
+      <c r="IU5" s="34"/>
+      <c r="IV5" s="34"/>
+      <c r="IW5" s="34"/>
+      <c r="IX5" s="34"/>
+      <c r="IY5" s="34"/>
+      <c r="IZ5" s="34"/>
+      <c r="JA5" s="34"/>
+      <c r="JB5" s="34"/>
+      <c r="JC5" s="34"/>
+      <c r="JD5" s="34"/>
+      <c r="JE5" s="34"/>
+      <c r="JF5" s="34">
         <v>2020</v>
       </c>
-      <c r="JG5" s="33"/>
-      <c r="JH5" s="33"/>
-      <c r="JI5" s="33"/>
-      <c r="JJ5" s="33"/>
-      <c r="JK5" s="33"/>
-      <c r="JL5" s="33"/>
-      <c r="JM5" s="33"/>
-      <c r="JN5" s="33"/>
-      <c r="JO5" s="33"/>
-      <c r="JP5" s="33"/>
-      <c r="JQ5" s="33"/>
-      <c r="JR5" s="33">
+      <c r="JG5" s="34"/>
+      <c r="JH5" s="34"/>
+      <c r="JI5" s="34"/>
+      <c r="JJ5" s="34"/>
+      <c r="JK5" s="34"/>
+      <c r="JL5" s="34"/>
+      <c r="JM5" s="34"/>
+      <c r="JN5" s="34"/>
+      <c r="JO5" s="34"/>
+      <c r="JP5" s="34"/>
+      <c r="JQ5" s="34"/>
+      <c r="JR5" s="34">
         <v>2021</v>
       </c>
-      <c r="JS5" s="33"/>
-      <c r="JT5" s="33"/>
-      <c r="JU5" s="33"/>
-      <c r="JV5" s="33"/>
-      <c r="JW5" s="33"/>
-      <c r="JX5" s="33"/>
-      <c r="JY5" s="33"/>
-      <c r="JZ5" s="33"/>
-      <c r="KA5" s="33"/>
-      <c r="KB5" s="33"/>
-      <c r="KC5" s="34"/>
-      <c r="KD5" s="34">
+      <c r="JS5" s="34"/>
+      <c r="JT5" s="34"/>
+      <c r="JU5" s="34"/>
+      <c r="JV5" s="34"/>
+      <c r="JW5" s="34"/>
+      <c r="JX5" s="34"/>
+      <c r="JY5" s="34"/>
+      <c r="JZ5" s="34"/>
+      <c r="KA5" s="34"/>
+      <c r="KB5" s="34"/>
+      <c r="KC5" s="30"/>
+      <c r="KD5" s="30">
         <v>2022</v>
       </c>
-      <c r="KE5" s="35"/>
-      <c r="KF5" s="35"/>
-      <c r="KG5" s="35"/>
-      <c r="KH5" s="35"/>
-      <c r="KI5" s="35"/>
-      <c r="KJ5" s="35"/>
-      <c r="KK5" s="35"/>
-      <c r="KL5" s="35"/>
-      <c r="KM5" s="35"/>
-      <c r="KN5" s="35"/>
-      <c r="KO5" s="36"/>
-      <c r="KP5" s="34">
+      <c r="KE5" s="31"/>
+      <c r="KF5" s="31"/>
+      <c r="KG5" s="31"/>
+      <c r="KH5" s="31"/>
+      <c r="KI5" s="31"/>
+      <c r="KJ5" s="31"/>
+      <c r="KK5" s="31"/>
+      <c r="KL5" s="31"/>
+      <c r="KM5" s="31"/>
+      <c r="KN5" s="31"/>
+      <c r="KO5" s="32"/>
+      <c r="KP5" s="30">
         <v>2023</v>
       </c>
-      <c r="KQ5" s="35"/>
-      <c r="KR5" s="35"/>
-      <c r="KS5" s="35"/>
-      <c r="KT5" s="35"/>
-      <c r="KU5" s="35"/>
-      <c r="KV5" s="35"/>
-      <c r="KW5" s="35"/>
-      <c r="KX5" s="35"/>
-      <c r="KY5" s="35"/>
-      <c r="KZ5" s="35"/>
-      <c r="LA5" s="36"/>
-      <c r="LB5" s="32">
+      <c r="KQ5" s="31"/>
+      <c r="KR5" s="31"/>
+      <c r="KS5" s="31"/>
+      <c r="KT5" s="31"/>
+      <c r="KU5" s="31"/>
+      <c r="KV5" s="31"/>
+      <c r="KW5" s="31"/>
+      <c r="KX5" s="31"/>
+      <c r="KY5" s="31"/>
+      <c r="KZ5" s="31"/>
+      <c r="LA5" s="32"/>
+      <c r="LB5" s="39">
         <v>2024</v>
       </c>
+      <c r="LC5" s="35"/>
     </row>
-    <row r="6" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2138,80 +2146,83 @@
       <c r="KD6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="KE6" s="29" t="s">
+      <c r="KE6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="KF6" s="29" t="s">
+      <c r="KF6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="KG6" s="29" t="s">
+      <c r="KG6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="KH6" s="29" t="s">
+      <c r="KH6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="KI6" s="29" t="s">
+      <c r="KI6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="KJ6" s="29" t="s">
+      <c r="KJ6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="KK6" s="29" t="s">
+      <c r="KK6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="KL6" s="29" t="s">
+      <c r="KL6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="KM6" s="29" t="s">
+      <c r="KM6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="KN6" s="29" t="s">
+      <c r="KN6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="KO6" s="29" t="s">
+      <c r="KO6" s="27" t="s">
         <v>22</v>
       </c>
       <c r="KP6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="KQ6" s="29" t="s">
+      <c r="KQ6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="KR6" s="29" t="s">
+      <c r="KR6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="KS6" s="29" t="s">
+      <c r="KS6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="KT6" s="29" t="s">
+      <c r="KT6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="KU6" s="29" t="s">
+      <c r="KU6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="KV6" s="29" t="s">
+      <c r="KV6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="KW6" s="29" t="s">
+      <c r="KW6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="KX6" s="29" t="s">
+      <c r="KX6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="KY6" s="29" t="s">
+      <c r="KY6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="KZ6" s="29" t="s">
+      <c r="KZ6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="LA6" s="24" t="s">
+      <c r="LA6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="LB6" s="24" t="s">
+      <c r="LB6" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="LC6" s="24" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3082,80 +3093,83 @@
       <c r="KD7" s="25">
         <v>1117867</v>
       </c>
-      <c r="KE7" s="30">
+      <c r="KE7" s="28">
         <v>1125481</v>
       </c>
-      <c r="KF7" s="30">
+      <c r="KF7" s="28">
         <v>1131739</v>
       </c>
-      <c r="KG7" s="30">
+      <c r="KG7" s="28">
         <v>1129276</v>
       </c>
-      <c r="KH7" s="30">
+      <c r="KH7" s="28">
         <v>1129263</v>
       </c>
-      <c r="KI7" s="30">
+      <c r="KI7" s="28">
         <v>1131782</v>
       </c>
-      <c r="KJ7" s="30">
+      <c r="KJ7" s="28">
         <v>1131513</v>
       </c>
-      <c r="KK7" s="30">
+      <c r="KK7" s="28">
         <v>1138325</v>
       </c>
-      <c r="KL7" s="30">
+      <c r="KL7" s="28">
         <v>1147074</v>
       </c>
-      <c r="KM7" s="30">
+      <c r="KM7" s="28">
         <v>1160441</v>
       </c>
-      <c r="KN7" s="30">
+      <c r="KN7" s="28">
         <v>1164860</v>
       </c>
-      <c r="KO7" s="30">
+      <c r="KO7" s="28">
         <v>1148621</v>
       </c>
       <c r="KP7" s="25">
         <v>1161946</v>
       </c>
-      <c r="KQ7" s="38">
+      <c r="KQ7" s="28">
         <v>1169020</v>
       </c>
-      <c r="KR7" s="38">
+      <c r="KR7" s="28">
         <v>1171476</v>
       </c>
-      <c r="KS7" s="38">
+      <c r="KS7" s="28">
         <v>1169950</v>
       </c>
-      <c r="KT7" s="38">
+      <c r="KT7" s="28">
         <v>1169158</v>
       </c>
-      <c r="KU7" s="38">
+      <c r="KU7" s="28">
         <v>1171681</v>
       </c>
-      <c r="KV7" s="38">
+      <c r="KV7" s="28">
         <v>1171148</v>
       </c>
-      <c r="KW7" s="38">
+      <c r="KW7" s="28">
         <v>1174608</v>
       </c>
-      <c r="KX7" s="38">
+      <c r="KX7" s="28">
         <v>1178718</v>
       </c>
-      <c r="KY7" s="38">
+      <c r="KY7" s="28">
         <v>1185923</v>
       </c>
-      <c r="KZ7" s="38">
+      <c r="KZ7" s="28">
         <v>1192184</v>
       </c>
-      <c r="LA7" s="26">
+      <c r="LA7" s="36">
         <v>1174153</v>
       </c>
-      <c r="LB7" s="26">
+      <c r="LB7" s="15">
         <v>1184975</v>
       </c>
+      <c r="LC7" s="42">
+        <v>1189247</v>
+      </c>
     </row>
-    <row r="8" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4062,44 +4076,47 @@
       <c r="KP8" s="16">
         <v>220304</v>
       </c>
-      <c r="KQ8" s="39">
+      <c r="KQ8" s="5">
         <v>221959</v>
       </c>
-      <c r="KR8" s="39">
+      <c r="KR8" s="5">
         <v>223007</v>
       </c>
-      <c r="KS8" s="39">
+      <c r="KS8" s="5">
         <v>223444</v>
       </c>
-      <c r="KT8" s="39">
+      <c r="KT8" s="5">
         <v>223989</v>
       </c>
-      <c r="KU8" s="39">
+      <c r="KU8" s="5">
         <v>225090</v>
       </c>
-      <c r="KV8" s="39">
+      <c r="KV8" s="5">
         <v>225467</v>
       </c>
-      <c r="KW8" s="39">
+      <c r="KW8" s="5">
         <v>227560</v>
       </c>
-      <c r="KX8" s="39">
+      <c r="KX8" s="5">
         <v>228602</v>
       </c>
-      <c r="KY8" s="39">
+      <c r="KY8" s="5">
         <v>230419</v>
       </c>
-      <c r="KZ8" s="39">
+      <c r="KZ8" s="5">
         <v>232359</v>
       </c>
-      <c r="LA8" s="6">
+      <c r="LA8" s="37">
         <v>231667</v>
       </c>
-      <c r="LB8" s="6">
+      <c r="LB8" s="16">
         <v>234497</v>
       </c>
+      <c r="LC8" s="40">
+        <v>236086</v>
+      </c>
     </row>
-    <row r="9" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -5006,44 +5023,47 @@
       <c r="KP9" s="16">
         <v>30069</v>
       </c>
-      <c r="KQ9" s="39">
+      <c r="KQ9" s="5">
         <v>30619</v>
       </c>
-      <c r="KR9" s="39">
+      <c r="KR9" s="5">
         <v>30880</v>
       </c>
-      <c r="KS9" s="39">
+      <c r="KS9" s="5">
         <v>30420</v>
       </c>
-      <c r="KT9" s="39">
+      <c r="KT9" s="5">
         <v>30239</v>
       </c>
-      <c r="KU9" s="39">
+      <c r="KU9" s="5">
         <v>30899</v>
       </c>
-      <c r="KV9" s="39">
+      <c r="KV9" s="5">
         <v>31126</v>
       </c>
-      <c r="KW9" s="39">
+      <c r="KW9" s="5">
         <v>30413</v>
       </c>
-      <c r="KX9" s="39">
+      <c r="KX9" s="5">
         <v>30537</v>
       </c>
-      <c r="KY9" s="39">
+      <c r="KY9" s="5">
         <v>30930</v>
       </c>
-      <c r="KZ9" s="39">
+      <c r="KZ9" s="5">
         <v>31039</v>
       </c>
-      <c r="LA9" s="6">
+      <c r="LA9" s="37">
         <v>29802</v>
       </c>
-      <c r="LB9" s="6">
+      <c r="LB9" s="16">
         <v>29931</v>
       </c>
+      <c r="LC9" s="40">
+        <v>30612</v>
+      </c>
     </row>
-    <row r="10" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -5950,44 +5970,47 @@
       <c r="KP10" s="16">
         <v>140428</v>
       </c>
-      <c r="KQ10" s="39">
+      <c r="KQ10" s="5">
         <v>141591</v>
       </c>
-      <c r="KR10" s="39">
+      <c r="KR10" s="5">
         <v>142079</v>
       </c>
-      <c r="KS10" s="39">
+      <c r="KS10" s="5">
         <v>141713</v>
       </c>
-      <c r="KT10" s="39">
+      <c r="KT10" s="5">
         <v>141493</v>
       </c>
-      <c r="KU10" s="39">
+      <c r="KU10" s="5">
         <v>142356</v>
       </c>
-      <c r="KV10" s="39">
+      <c r="KV10" s="5">
         <v>142001</v>
       </c>
-      <c r="KW10" s="39">
+      <c r="KW10" s="5">
         <v>140845</v>
       </c>
-      <c r="KX10" s="39">
+      <c r="KX10" s="5">
         <v>141472</v>
       </c>
-      <c r="KY10" s="39">
+      <c r="KY10" s="5">
         <v>142429</v>
       </c>
-      <c r="KZ10" s="39">
+      <c r="KZ10" s="5">
         <v>143301</v>
       </c>
-      <c r="LA10" s="6">
+      <c r="LA10" s="37">
         <v>139166</v>
       </c>
-      <c r="LB10" s="6">
+      <c r="LB10" s="16">
         <v>139767</v>
       </c>
+      <c r="LC10" s="40">
+        <v>140249</v>
+      </c>
     </row>
-    <row r="11" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6894,44 +6917,47 @@
       <c r="KP11" s="16">
         <v>179430</v>
       </c>
-      <c r="KQ11" s="39">
+      <c r="KQ11" s="5">
         <v>180216</v>
       </c>
-      <c r="KR11" s="39">
+      <c r="KR11" s="5">
         <v>180506</v>
       </c>
-      <c r="KS11" s="39">
+      <c r="KS11" s="5">
         <v>180323</v>
       </c>
-      <c r="KT11" s="39">
+      <c r="KT11" s="5">
         <v>180031</v>
       </c>
-      <c r="KU11" s="39">
+      <c r="KU11" s="5">
         <v>179962</v>
       </c>
-      <c r="KV11" s="39">
+      <c r="KV11" s="5">
         <v>179888</v>
       </c>
-      <c r="KW11" s="39">
+      <c r="KW11" s="5">
         <v>180705</v>
       </c>
-      <c r="KX11" s="39">
+      <c r="KX11" s="5">
         <v>181328</v>
       </c>
-      <c r="KY11" s="39">
+      <c r="KY11" s="5">
         <v>182348</v>
       </c>
-      <c r="KZ11" s="39">
+      <c r="KZ11" s="5">
         <v>183222</v>
       </c>
-      <c r="LA11" s="6">
+      <c r="LA11" s="37">
         <v>179608</v>
       </c>
-      <c r="LB11" s="6">
+      <c r="LB11" s="16">
         <v>179835</v>
       </c>
+      <c r="LC11" s="40">
+        <v>180050</v>
+      </c>
     </row>
-    <row r="12" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7838,44 +7864,47 @@
       <c r="KP12" s="16">
         <v>176211</v>
       </c>
-      <c r="KQ12" s="39">
+      <c r="KQ12" s="5">
         <v>177175</v>
       </c>
-      <c r="KR12" s="39">
+      <c r="KR12" s="5">
         <v>177097</v>
       </c>
-      <c r="KS12" s="39">
+      <c r="KS12" s="5">
         <v>176369</v>
       </c>
-      <c r="KT12" s="39">
+      <c r="KT12" s="5">
         <v>176123</v>
       </c>
-      <c r="KU12" s="39">
+      <c r="KU12" s="5">
         <v>175897</v>
       </c>
-      <c r="KV12" s="39">
+      <c r="KV12" s="5">
         <v>175889</v>
       </c>
-      <c r="KW12" s="39">
+      <c r="KW12" s="5">
         <v>176368</v>
       </c>
-      <c r="KX12" s="39">
+      <c r="KX12" s="5">
         <v>177121</v>
       </c>
-      <c r="KY12" s="39">
+      <c r="KY12" s="5">
         <v>178121</v>
       </c>
-      <c r="KZ12" s="39">
+      <c r="KZ12" s="5">
         <v>178651</v>
       </c>
-      <c r="LA12" s="6">
+      <c r="LA12" s="37">
         <v>175602</v>
       </c>
-      <c r="LB12" s="6">
+      <c r="LB12" s="16">
         <v>178699</v>
       </c>
+      <c r="LC12" s="40">
+        <v>178990</v>
+      </c>
     </row>
-    <row r="13" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8782,44 +8811,47 @@
       <c r="KP13" s="16">
         <v>155450</v>
       </c>
-      <c r="KQ13" s="39">
+      <c r="KQ13" s="5">
         <v>156140</v>
       </c>
-      <c r="KR13" s="39">
+      <c r="KR13" s="5">
         <v>156174</v>
       </c>
-      <c r="KS13" s="39">
+      <c r="KS13" s="5">
         <v>156001</v>
       </c>
-      <c r="KT13" s="39">
+      <c r="KT13" s="5">
         <v>155680</v>
       </c>
-      <c r="KU13" s="39">
+      <c r="KU13" s="5">
         <v>155582</v>
       </c>
-      <c r="KV13" s="39">
+      <c r="KV13" s="5">
         <v>155258</v>
       </c>
-      <c r="KW13" s="39">
+      <c r="KW13" s="5">
         <v>155856</v>
       </c>
-      <c r="KX13" s="39">
+      <c r="KX13" s="5">
         <v>156242</v>
       </c>
-      <c r="KY13" s="39">
+      <c r="KY13" s="5">
         <v>157177</v>
       </c>
-      <c r="KZ13" s="39">
+      <c r="KZ13" s="5">
         <v>157909</v>
       </c>
-      <c r="LA13" s="6">
+      <c r="LA13" s="37">
         <v>155781</v>
       </c>
-      <c r="LB13" s="6">
+      <c r="LB13" s="16">
         <v>157563</v>
       </c>
+      <c r="LC13" s="40">
+        <v>157602</v>
+      </c>
     </row>
-    <row r="14" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9726,44 +9758,47 @@
       <c r="KP14" s="16">
         <v>137574</v>
       </c>
-      <c r="KQ14" s="39">
+      <c r="KQ14" s="5">
         <v>138320</v>
       </c>
-      <c r="KR14" s="39">
+      <c r="KR14" s="5">
         <v>138718</v>
       </c>
-      <c r="KS14" s="39">
+      <c r="KS14" s="5">
         <v>138829</v>
       </c>
-      <c r="KT14" s="39">
+      <c r="KT14" s="5">
         <v>138889</v>
       </c>
-      <c r="KU14" s="39">
+      <c r="KU14" s="5">
         <v>139114</v>
       </c>
-      <c r="KV14" s="39">
+      <c r="KV14" s="5">
         <v>139107</v>
       </c>
-      <c r="KW14" s="39">
+      <c r="KW14" s="5">
         <v>139842</v>
       </c>
-      <c r="KX14" s="39">
+      <c r="KX14" s="5">
         <v>140224</v>
       </c>
-      <c r="KY14" s="39">
+      <c r="KY14" s="5">
         <v>140903</v>
       </c>
-      <c r="KZ14" s="39">
+      <c r="KZ14" s="5">
         <v>141661</v>
       </c>
-      <c r="LA14" s="6">
+      <c r="LA14" s="37">
         <v>139847</v>
       </c>
-      <c r="LB14" s="6">
+      <c r="LB14" s="16">
         <v>141223</v>
       </c>
+      <c r="LC14" s="40">
+        <v>141869</v>
+      </c>
     </row>
-    <row r="15" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10670,44 +10705,47 @@
       <c r="KP15" s="16">
         <v>122453</v>
       </c>
-      <c r="KQ15" s="39">
+      <c r="KQ15" s="5">
         <v>122973</v>
       </c>
-      <c r="KR15" s="39">
+      <c r="KR15" s="5">
         <v>122991</v>
       </c>
-      <c r="KS15" s="39">
+      <c r="KS15" s="5">
         <v>122828</v>
       </c>
-      <c r="KT15" s="39">
+      <c r="KT15" s="5">
         <v>122692</v>
       </c>
-      <c r="KU15" s="39">
+      <c r="KU15" s="5">
         <v>122752</v>
       </c>
-      <c r="KV15" s="39">
+      <c r="KV15" s="5">
         <v>122385</v>
       </c>
-      <c r="KW15" s="39">
+      <c r="KW15" s="5">
         <v>122986</v>
       </c>
-      <c r="KX15" s="39">
+      <c r="KX15" s="5">
         <v>123153</v>
       </c>
-      <c r="KY15" s="39">
+      <c r="KY15" s="5">
         <v>123561</v>
       </c>
-      <c r="KZ15" s="39">
+      <c r="KZ15" s="5">
         <v>124009</v>
       </c>
-      <c r="LA15" s="6">
+      <c r="LA15" s="37">
         <v>122654</v>
       </c>
-      <c r="LB15" s="6">
+      <c r="LB15" s="16">
         <v>123437</v>
       </c>
+      <c r="LC15" s="40">
+        <v>123766</v>
+      </c>
     </row>
-    <row r="16" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11644,14 +11682,17 @@
       <c r="KZ16" s="7">
         <v>33</v>
       </c>
-      <c r="LA16" s="8">
+      <c r="LA16" s="7">
         <v>26</v>
       </c>
-      <c r="LB16" s="8">
+      <c r="LB16" s="17">
         <v>23</v>
       </c>
+      <c r="LC16" s="41">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="1:315" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12522,80 +12563,83 @@
       <c r="KD17" s="25">
         <v>743292</v>
       </c>
-      <c r="KE17" s="30">
+      <c r="KE17" s="28">
         <v>749141</v>
       </c>
-      <c r="KF17" s="30">
+      <c r="KF17" s="28">
         <v>755037</v>
       </c>
-      <c r="KG17" s="30">
+      <c r="KG17" s="28">
         <v>755439</v>
       </c>
-      <c r="KH17" s="30">
+      <c r="KH17" s="28">
         <v>758969</v>
       </c>
-      <c r="KI17" s="30">
+      <c r="KI17" s="28">
         <v>764973</v>
       </c>
-      <c r="KJ17" s="30">
+      <c r="KJ17" s="28">
         <v>765004</v>
       </c>
-      <c r="KK17" s="30">
+      <c r="KK17" s="28">
         <v>772302</v>
       </c>
-      <c r="KL17" s="30">
+      <c r="KL17" s="28">
         <v>780573</v>
       </c>
-      <c r="KM17" s="30">
+      <c r="KM17" s="28">
         <v>790500</v>
       </c>
-      <c r="KN17" s="30">
+      <c r="KN17" s="28">
         <v>795650</v>
       </c>
-      <c r="KO17" s="30">
+      <c r="KO17" s="28">
         <v>784341</v>
       </c>
       <c r="KP17" s="25">
         <v>789310</v>
       </c>
-      <c r="KQ17" s="38">
+      <c r="KQ17" s="28">
         <v>795499</v>
       </c>
-      <c r="KR17" s="38">
+      <c r="KR17" s="28">
         <v>801239</v>
       </c>
-      <c r="KS17" s="38">
+      <c r="KS17" s="28">
         <v>803252</v>
       </c>
-      <c r="KT17" s="38">
+      <c r="KT17" s="28">
         <v>805407</v>
       </c>
-      <c r="KU17" s="38">
+      <c r="KU17" s="28">
         <v>809109</v>
       </c>
-      <c r="KV17" s="38">
+      <c r="KV17" s="28">
         <v>809998</v>
       </c>
-      <c r="KW17" s="38">
+      <c r="KW17" s="28">
         <v>814138</v>
       </c>
-      <c r="KX17" s="38">
+      <c r="KX17" s="28">
         <v>820642</v>
       </c>
-      <c r="KY17" s="38">
+      <c r="KY17" s="28">
         <v>827508</v>
       </c>
-      <c r="KZ17" s="38">
+      <c r="KZ17" s="28">
         <v>834751</v>
       </c>
-      <c r="LA17" s="26">
+      <c r="LA17" s="36">
         <v>821204</v>
       </c>
-      <c r="LB17" s="26">
+      <c r="LB17" s="15">
         <v>824878</v>
       </c>
+      <c r="LC17" s="42">
+        <v>828632</v>
+      </c>
     </row>
-    <row r="18" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13502,44 +13546,47 @@
       <c r="KP18" s="16">
         <v>134701</v>
       </c>
-      <c r="KQ18" s="39">
+      <c r="KQ18" s="5">
         <v>136039</v>
       </c>
-      <c r="KR18" s="39">
+      <c r="KR18" s="5">
         <v>137196</v>
       </c>
-      <c r="KS18" s="39">
+      <c r="KS18" s="5">
         <v>138155</v>
       </c>
-      <c r="KT18" s="39">
+      <c r="KT18" s="5">
         <v>139265</v>
       </c>
-      <c r="KU18" s="39">
+      <c r="KU18" s="5">
         <v>140396</v>
       </c>
-      <c r="KV18" s="39">
+      <c r="KV18" s="5">
         <v>141088</v>
       </c>
-      <c r="KW18" s="39">
+      <c r="KW18" s="5">
         <v>142801</v>
       </c>
-      <c r="KX18" s="39">
+      <c r="KX18" s="5">
         <v>144142</v>
       </c>
-      <c r="KY18" s="39">
+      <c r="KY18" s="5">
         <v>145890</v>
       </c>
-      <c r="KZ18" s="39">
+      <c r="KZ18" s="5">
         <v>147316</v>
       </c>
-      <c r="LA18" s="6">
+      <c r="LA18" s="37">
         <v>146536</v>
       </c>
-      <c r="LB18" s="6">
+      <c r="LB18" s="16">
         <v>148445</v>
       </c>
+      <c r="LC18" s="40">
+        <v>149478</v>
+      </c>
     </row>
-    <row r="19" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14446,44 +14493,47 @@
       <c r="KP19" s="16">
         <v>17375</v>
       </c>
-      <c r="KQ19" s="39">
+      <c r="KQ19" s="5">
         <v>17774</v>
       </c>
-      <c r="KR19" s="39">
+      <c r="KR19" s="5">
         <v>18268</v>
       </c>
-      <c r="KS19" s="39">
+      <c r="KS19" s="5">
         <v>18134</v>
       </c>
-      <c r="KT19" s="39">
+      <c r="KT19" s="5">
         <v>18005</v>
       </c>
-      <c r="KU19" s="39">
+      <c r="KU19" s="5">
         <v>18738</v>
       </c>
-      <c r="KV19" s="39">
+      <c r="KV19" s="5">
         <v>18744</v>
       </c>
-      <c r="KW19" s="39">
+      <c r="KW19" s="5">
         <v>18211</v>
       </c>
-      <c r="KX19" s="39">
+      <c r="KX19" s="5">
         <v>18339</v>
       </c>
-      <c r="KY19" s="39">
+      <c r="KY19" s="5">
         <v>18570</v>
       </c>
-      <c r="KZ19" s="39">
+      <c r="KZ19" s="5">
         <v>18930</v>
       </c>
-      <c r="LA19" s="6">
+      <c r="LA19" s="37">
         <v>18059</v>
       </c>
-      <c r="LB19" s="6">
+      <c r="LB19" s="16">
         <v>17671</v>
       </c>
+      <c r="LC19" s="40">
+        <v>18139</v>
+      </c>
     </row>
-    <row r="20" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15390,44 +15440,47 @@
       <c r="KP20" s="16">
         <v>96989</v>
       </c>
-      <c r="KQ20" s="39">
+      <c r="KQ20" s="5">
         <v>98011</v>
       </c>
-      <c r="KR20" s="39">
+      <c r="KR20" s="5">
         <v>98637</v>
       </c>
-      <c r="KS20" s="39">
+      <c r="KS20" s="5">
         <v>98428</v>
       </c>
-      <c r="KT20" s="39">
+      <c r="KT20" s="5">
         <v>98459</v>
       </c>
-      <c r="KU20" s="39">
+      <c r="KU20" s="5">
         <v>99744</v>
       </c>
-      <c r="KV20" s="39">
+      <c r="KV20" s="5">
         <v>99664</v>
       </c>
-      <c r="KW20" s="39">
+      <c r="KW20" s="5">
         <v>98750</v>
       </c>
-      <c r="KX20" s="39">
+      <c r="KX20" s="5">
         <v>99651</v>
       </c>
-      <c r="KY20" s="39">
+      <c r="KY20" s="5">
         <v>100546</v>
       </c>
-      <c r="KZ20" s="39">
+      <c r="KZ20" s="5">
         <v>101550</v>
       </c>
-      <c r="LA20" s="6">
+      <c r="LA20" s="37">
         <v>98427</v>
       </c>
-      <c r="LB20" s="6">
+      <c r="LB20" s="16">
         <v>97650</v>
       </c>
+      <c r="LC20" s="40">
+        <v>98059</v>
+      </c>
     </row>
-    <row r="21" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16334,44 +16387,47 @@
       <c r="KP21" s="16">
         <v>128282</v>
       </c>
-      <c r="KQ21" s="39">
+      <c r="KQ21" s="5">
         <v>129211</v>
       </c>
-      <c r="KR21" s="39">
+      <c r="KR21" s="5">
         <v>130383</v>
       </c>
-      <c r="KS21" s="39">
+      <c r="KS21" s="5">
         <v>130425</v>
       </c>
-      <c r="KT21" s="39">
+      <c r="KT21" s="5">
         <v>130769</v>
       </c>
-      <c r="KU21" s="39">
+      <c r="KU21" s="5">
         <v>130891</v>
       </c>
-      <c r="KV21" s="39">
+      <c r="KV21" s="5">
         <v>131023</v>
       </c>
-      <c r="KW21" s="39">
+      <c r="KW21" s="5">
         <v>131887</v>
       </c>
-      <c r="KX21" s="39">
+      <c r="KX21" s="5">
         <v>132942</v>
       </c>
-      <c r="KY21" s="39">
+      <c r="KY21" s="5">
         <v>134044</v>
       </c>
-      <c r="KZ21" s="39">
+      <c r="KZ21" s="5">
         <v>135357</v>
       </c>
-      <c r="LA21" s="6">
+      <c r="LA21" s="37">
         <v>132751</v>
       </c>
-      <c r="LB21" s="6">
+      <c r="LB21" s="16">
         <v>132435</v>
       </c>
+      <c r="LC21" s="40">
+        <v>132706</v>
+      </c>
     </row>
-    <row r="22" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17278,44 +17334,47 @@
       <c r="KP22" s="16">
         <v>121771</v>
       </c>
-      <c r="KQ22" s="39">
+      <c r="KQ22" s="5">
         <v>122466</v>
       </c>
-      <c r="KR22" s="39">
+      <c r="KR22" s="5">
         <v>122974</v>
       </c>
-      <c r="KS22" s="39">
+      <c r="KS22" s="5">
         <v>123271</v>
       </c>
-      <c r="KT22" s="39">
+      <c r="KT22" s="5">
         <v>123421</v>
       </c>
-      <c r="KU22" s="39">
+      <c r="KU22" s="5">
         <v>123500</v>
       </c>
-      <c r="KV22" s="39">
+      <c r="KV22" s="5">
         <v>123396</v>
       </c>
-      <c r="KW22" s="39">
+      <c r="KW22" s="5">
         <v>124327</v>
       </c>
-      <c r="KX22" s="39">
+      <c r="KX22" s="5">
         <v>125028</v>
       </c>
-      <c r="KY22" s="39">
+      <c r="KY22" s="5">
         <v>126024</v>
       </c>
-      <c r="KZ22" s="39">
+      <c r="KZ22" s="5">
         <v>126828</v>
       </c>
-      <c r="LA22" s="6">
+      <c r="LA22" s="37">
         <v>124740</v>
       </c>
-      <c r="LB22" s="6">
+      <c r="LB22" s="16">
         <v>125760</v>
       </c>
+      <c r="LC22" s="40">
+        <v>126102</v>
+      </c>
     </row>
-    <row r="23" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18222,44 +18281,47 @@
       <c r="KP23" s="16">
         <v>109520</v>
       </c>
-      <c r="KQ23" s="39">
+      <c r="KQ23" s="5">
         <v>110163</v>
       </c>
-      <c r="KR23" s="39">
+      <c r="KR23" s="5">
         <v>110868</v>
       </c>
-      <c r="KS23" s="39">
+      <c r="KS23" s="5">
         <v>111254</v>
       </c>
-      <c r="KT23" s="39">
+      <c r="KT23" s="5">
         <v>111231</v>
       </c>
-      <c r="KU23" s="39">
+      <c r="KU23" s="5">
         <v>111176</v>
       </c>
-      <c r="KV23" s="39">
+      <c r="KV23" s="5">
         <v>111090</v>
       </c>
-      <c r="KW23" s="39">
+      <c r="KW23" s="5">
         <v>112003</v>
       </c>
-      <c r="KX23" s="39">
+      <c r="KX23" s="5">
         <v>112803</v>
       </c>
-      <c r="KY23" s="39">
+      <c r="KY23" s="5">
         <v>113393</v>
       </c>
-      <c r="KZ23" s="39">
+      <c r="KZ23" s="5">
         <v>114123</v>
       </c>
-      <c r="LA23" s="6">
+      <c r="LA23" s="37">
         <v>112366</v>
       </c>
-      <c r="LB23" s="6">
+      <c r="LB23" s="16">
         <v>113324</v>
       </c>
+      <c r="LC23" s="40">
+        <v>113663</v>
+      </c>
     </row>
-    <row r="24" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19166,44 +19228,47 @@
       <c r="KP24" s="16">
         <v>97208</v>
       </c>
-      <c r="KQ24" s="39">
+      <c r="KQ24" s="5">
         <v>97788</v>
       </c>
-      <c r="KR24" s="39">
+      <c r="KR24" s="5">
         <v>98384</v>
       </c>
-      <c r="KS24" s="39">
+      <c r="KS24" s="5">
         <v>98757</v>
       </c>
-      <c r="KT24" s="39">
+      <c r="KT24" s="5">
         <v>99133</v>
       </c>
-      <c r="KU24" s="39">
+      <c r="KU24" s="5">
         <v>99355</v>
       </c>
-      <c r="KV24" s="39">
+      <c r="KV24" s="5">
         <v>99521</v>
       </c>
-      <c r="KW24" s="39">
+      <c r="KW24" s="5">
         <v>100170</v>
       </c>
-      <c r="KX24" s="39">
+      <c r="KX24" s="5">
         <v>101134</v>
       </c>
-      <c r="KY24" s="39">
+      <c r="KY24" s="5">
         <v>101815</v>
       </c>
-      <c r="KZ24" s="39">
+      <c r="KZ24" s="5">
         <v>102743</v>
       </c>
-      <c r="LA24" s="6">
+      <c r="LA24" s="37">
         <v>101585</v>
       </c>
-      <c r="LB24" s="6">
+      <c r="LB24" s="16">
         <v>102386</v>
       </c>
+      <c r="LC24" s="40">
+        <v>102776</v>
+      </c>
     </row>
-    <row r="25" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20110,44 +20175,47 @@
       <c r="KP25" s="16">
         <v>83457</v>
       </c>
-      <c r="KQ25" s="39">
+      <c r="KQ25" s="5">
         <v>84040</v>
       </c>
-      <c r="KR25" s="39">
+      <c r="KR25" s="5">
         <v>84521</v>
       </c>
-      <c r="KS25" s="39">
+      <c r="KS25" s="5">
         <v>84819</v>
       </c>
-      <c r="KT25" s="39">
+      <c r="KT25" s="5">
         <v>85116</v>
       </c>
-      <c r="KU25" s="39">
+      <c r="KU25" s="5">
         <v>85300</v>
       </c>
-      <c r="KV25" s="39">
+      <c r="KV25" s="5">
         <v>85463</v>
       </c>
-      <c r="KW25" s="39">
+      <c r="KW25" s="5">
         <v>85979</v>
       </c>
-      <c r="KX25" s="39">
+      <c r="KX25" s="5">
         <v>86593</v>
       </c>
-      <c r="KY25" s="39">
+      <c r="KY25" s="5">
         <v>87217</v>
       </c>
-      <c r="KZ25" s="39">
+      <c r="KZ25" s="5">
         <v>87899</v>
       </c>
-      <c r="LA25" s="6">
+      <c r="LA25" s="37">
         <v>86735</v>
       </c>
-      <c r="LB25" s="6">
+      <c r="LB25" s="16">
         <v>87202</v>
       </c>
+      <c r="LC25" s="40">
+        <v>87703</v>
+      </c>
     </row>
-    <row r="26" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -21084,14 +21152,17 @@
       <c r="KZ26" s="7">
         <v>5</v>
       </c>
-      <c r="LA26" s="8">
+      <c r="LA26" s="7">
         <v>5</v>
       </c>
-      <c r="LB26" s="8">
+      <c r="LB26" s="17">
         <v>5</v>
       </c>
+      <c r="LC26" s="41">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -21959,84 +22030,87 @@
       <c r="KC27" s="9">
         <v>1849999</v>
       </c>
-      <c r="KD27" s="27">
+      <c r="KD27" s="26">
         <v>1861159</v>
       </c>
-      <c r="KE27" s="31">
+      <c r="KE27" s="29">
         <v>1874622</v>
       </c>
-      <c r="KF27" s="31">
+      <c r="KF27" s="29">
         <v>1886776</v>
       </c>
-      <c r="KG27" s="31">
+      <c r="KG27" s="29">
         <v>1884715</v>
       </c>
-      <c r="KH27" s="31">
+      <c r="KH27" s="29">
         <v>1888232</v>
       </c>
-      <c r="KI27" s="31">
+      <c r="KI27" s="29">
         <v>1896755</v>
       </c>
-      <c r="KJ27" s="31">
+      <c r="KJ27" s="29">
         <v>1896517</v>
       </c>
-      <c r="KK27" s="31">
+      <c r="KK27" s="29">
         <v>1910627</v>
       </c>
-      <c r="KL27" s="31">
+      <c r="KL27" s="29">
         <v>1927647</v>
       </c>
-      <c r="KM27" s="31">
+      <c r="KM27" s="29">
         <v>1950941</v>
       </c>
-      <c r="KN27" s="31">
+      <c r="KN27" s="29">
         <v>1960510</v>
       </c>
-      <c r="KO27" s="31">
+      <c r="KO27" s="29">
         <v>1932962</v>
       </c>
-      <c r="KP27" s="27">
+      <c r="KP27" s="26">
         <v>1951256</v>
       </c>
-      <c r="KQ27" s="40">
+      <c r="KQ27" s="29">
         <v>1964519</v>
       </c>
-      <c r="KR27" s="40">
+      <c r="KR27" s="29">
         <v>1972715</v>
       </c>
-      <c r="KS27" s="40">
+      <c r="KS27" s="29">
         <v>1973202</v>
       </c>
-      <c r="KT27" s="40">
+      <c r="KT27" s="29">
         <v>1974565</v>
       </c>
-      <c r="KU27" s="40">
+      <c r="KU27" s="29">
         <v>1980790</v>
       </c>
-      <c r="KV27" s="40">
+      <c r="KV27" s="29">
         <v>1981146</v>
       </c>
-      <c r="KW27" s="40">
+      <c r="KW27" s="29">
         <v>1988746</v>
       </c>
-      <c r="KX27" s="40">
+      <c r="KX27" s="29">
         <v>1999360</v>
       </c>
-      <c r="KY27" s="40">
+      <c r="KY27" s="29">
         <v>2013431</v>
       </c>
-      <c r="KZ27" s="40">
+      <c r="KZ27" s="29">
         <v>2026935</v>
       </c>
-      <c r="LA27" s="28">
+      <c r="LA27" s="38">
         <v>1995357</v>
       </c>
-      <c r="LB27" s="28">
+      <c r="LB27" s="18">
         <v>2009853</v>
       </c>
-      <c r="LC27" s="5"/>
+      <c r="LC27" s="10">
+        <v>2017879</v>
+      </c>
+      <c r="LD27" s="5"/>
     </row>
-    <row r="28" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23227,45 +23301,48 @@
       <c r="KP28" s="16">
         <v>355005</v>
       </c>
-      <c r="KQ28" s="39">
+      <c r="KQ28" s="5">
         <v>357998</v>
       </c>
-      <c r="KR28" s="39">
+      <c r="KR28" s="5">
         <v>360203</v>
       </c>
-      <c r="KS28" s="39">
+      <c r="KS28" s="5">
         <v>361599</v>
       </c>
-      <c r="KT28" s="39">
+      <c r="KT28" s="5">
         <v>363254</v>
       </c>
-      <c r="KU28" s="39">
+      <c r="KU28" s="5">
         <v>365486</v>
       </c>
-      <c r="KV28" s="39">
+      <c r="KV28" s="5">
         <v>366555</v>
       </c>
-      <c r="KW28" s="39">
+      <c r="KW28" s="5">
         <v>370361</v>
       </c>
-      <c r="KX28" s="39">
+      <c r="KX28" s="5">
         <v>372744</v>
       </c>
-      <c r="KY28" s="39">
+      <c r="KY28" s="5">
         <v>376309</v>
       </c>
-      <c r="KZ28" s="39">
+      <c r="KZ28" s="5">
         <v>379675</v>
       </c>
-      <c r="LA28" s="6">
+      <c r="LA28" s="37">
         <v>378203</v>
       </c>
-      <c r="LB28" s="41">
+      <c r="LB28" s="16">
         <v>382942</v>
       </c>
-      <c r="LC28" s="5"/>
+      <c r="LC28" s="40">
+        <v>385564</v>
+      </c>
+      <c r="LD28" s="5"/>
     </row>
-    <row r="29" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24456,45 +24533,48 @@
       <c r="KP29" s="16">
         <v>47444</v>
       </c>
-      <c r="KQ29" s="39">
+      <c r="KQ29" s="5">
         <v>48393</v>
       </c>
-      <c r="KR29" s="39">
+      <c r="KR29" s="5">
         <v>49148</v>
       </c>
-      <c r="KS29" s="39">
+      <c r="KS29" s="5">
         <v>48554</v>
       </c>
-      <c r="KT29" s="39">
+      <c r="KT29" s="5">
         <v>48244</v>
       </c>
-      <c r="KU29" s="39">
+      <c r="KU29" s="5">
         <v>49637</v>
       </c>
-      <c r="KV29" s="39">
+      <c r="KV29" s="5">
         <v>49870</v>
       </c>
-      <c r="KW29" s="39">
+      <c r="KW29" s="5">
         <v>48624</v>
       </c>
-      <c r="KX29" s="39">
+      <c r="KX29" s="5">
         <v>48876</v>
       </c>
-      <c r="KY29" s="39">
+      <c r="KY29" s="5">
         <v>49500</v>
       </c>
-      <c r="KZ29" s="39">
+      <c r="KZ29" s="5">
         <v>49969</v>
       </c>
-      <c r="LA29" s="6">
+      <c r="LA29" s="37">
         <v>47861</v>
       </c>
-      <c r="LB29" s="42">
+      <c r="LB29" s="16">
         <v>47602</v>
       </c>
-      <c r="LC29" s="5"/>
+      <c r="LC29" s="40">
+        <v>48751</v>
+      </c>
+      <c r="LD29" s="5"/>
     </row>
-    <row r="30" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25685,45 +25765,48 @@
       <c r="KP30" s="16">
         <v>237417</v>
       </c>
-      <c r="KQ30" s="39">
+      <c r="KQ30" s="5">
         <v>239602</v>
       </c>
-      <c r="KR30" s="39">
+      <c r="KR30" s="5">
         <v>240716</v>
       </c>
-      <c r="KS30" s="39">
+      <c r="KS30" s="5">
         <v>240141</v>
       </c>
-      <c r="KT30" s="39">
+      <c r="KT30" s="5">
         <v>239952</v>
       </c>
-      <c r="KU30" s="39">
+      <c r="KU30" s="5">
         <v>242100</v>
       </c>
-      <c r="KV30" s="39">
+      <c r="KV30" s="5">
         <v>241665</v>
       </c>
-      <c r="KW30" s="39">
+      <c r="KW30" s="5">
         <v>239595</v>
       </c>
-      <c r="KX30" s="39">
+      <c r="KX30" s="5">
         <v>241123</v>
       </c>
-      <c r="KY30" s="39">
+      <c r="KY30" s="5">
         <v>242975</v>
       </c>
-      <c r="KZ30" s="39">
+      <c r="KZ30" s="5">
         <v>244851</v>
       </c>
-      <c r="LA30" s="6">
+      <c r="LA30" s="37">
         <v>237593</v>
       </c>
-      <c r="LB30" s="42">
+      <c r="LB30" s="16">
         <v>237417</v>
       </c>
-      <c r="LC30" s="5"/>
+      <c r="LC30" s="40">
+        <v>238308</v>
+      </c>
+      <c r="LD30" s="5"/>
     </row>
-    <row r="31" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -26914,45 +26997,48 @@
       <c r="KP31" s="16">
         <v>307712</v>
       </c>
-      <c r="KQ31" s="39">
+      <c r="KQ31" s="5">
         <v>309427</v>
       </c>
-      <c r="KR31" s="39">
+      <c r="KR31" s="5">
         <v>310889</v>
       </c>
-      <c r="KS31" s="39">
+      <c r="KS31" s="5">
         <v>310748</v>
       </c>
-      <c r="KT31" s="39">
+      <c r="KT31" s="5">
         <v>310800</v>
       </c>
-      <c r="KU31" s="39">
+      <c r="KU31" s="5">
         <v>310853</v>
       </c>
-      <c r="KV31" s="39">
+      <c r="KV31" s="5">
         <v>310911</v>
       </c>
-      <c r="KW31" s="39">
+      <c r="KW31" s="5">
         <v>312592</v>
       </c>
-      <c r="KX31" s="39">
+      <c r="KX31" s="5">
         <v>314270</v>
       </c>
-      <c r="KY31" s="39">
+      <c r="KY31" s="5">
         <v>316392</v>
       </c>
-      <c r="KZ31" s="39">
+      <c r="KZ31" s="5">
         <v>318579</v>
       </c>
-      <c r="LA31" s="6">
+      <c r="LA31" s="37">
         <v>312359</v>
       </c>
-      <c r="LB31" s="42">
+      <c r="LB31" s="16">
         <v>312270</v>
       </c>
-      <c r="LC31" s="5"/>
+      <c r="LC31" s="40">
+        <v>312756</v>
+      </c>
+      <c r="LD31" s="5"/>
     </row>
-    <row r="32" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28143,45 +28229,48 @@
       <c r="KP32" s="16">
         <v>297982</v>
       </c>
-      <c r="KQ32" s="39">
+      <c r="KQ32" s="5">
         <v>299641</v>
       </c>
-      <c r="KR32" s="39">
+      <c r="KR32" s="5">
         <v>300071</v>
       </c>
-      <c r="KS32" s="39">
+      <c r="KS32" s="5">
         <v>299640</v>
       </c>
-      <c r="KT32" s="39">
+      <c r="KT32" s="5">
         <v>299544</v>
       </c>
-      <c r="KU32" s="39">
+      <c r="KU32" s="5">
         <v>299397</v>
       </c>
-      <c r="KV32" s="39">
+      <c r="KV32" s="5">
         <v>299285</v>
       </c>
-      <c r="KW32" s="39">
+      <c r="KW32" s="5">
         <v>300695</v>
       </c>
-      <c r="KX32" s="39">
+      <c r="KX32" s="5">
         <v>302149</v>
       </c>
-      <c r="KY32" s="39">
+      <c r="KY32" s="5">
         <v>304145</v>
       </c>
-      <c r="KZ32" s="39">
+      <c r="KZ32" s="5">
         <v>305479</v>
       </c>
-      <c r="LA32" s="6">
+      <c r="LA32" s="37">
         <v>300342</v>
       </c>
-      <c r="LB32" s="42">
+      <c r="LB32" s="16">
         <v>304459</v>
       </c>
-      <c r="LC32" s="5"/>
+      <c r="LC32" s="40">
+        <v>305092</v>
+      </c>
+      <c r="LD32" s="5"/>
     </row>
-    <row r="33" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29372,45 +29461,48 @@
       <c r="KP33" s="16">
         <v>264970</v>
       </c>
-      <c r="KQ33" s="39">
+      <c r="KQ33" s="5">
         <v>266303</v>
       </c>
-      <c r="KR33" s="39">
+      <c r="KR33" s="5">
         <v>267042</v>
       </c>
-      <c r="KS33" s="39">
+      <c r="KS33" s="5">
         <v>267255</v>
       </c>
-      <c r="KT33" s="39">
+      <c r="KT33" s="5">
         <v>266911</v>
       </c>
-      <c r="KU33" s="39">
+      <c r="KU33" s="5">
         <v>266758</v>
       </c>
-      <c r="KV33" s="39">
+      <c r="KV33" s="5">
         <v>266348</v>
       </c>
-      <c r="KW33" s="39">
+      <c r="KW33" s="5">
         <v>267859</v>
       </c>
-      <c r="KX33" s="39">
+      <c r="KX33" s="5">
         <v>269045</v>
       </c>
-      <c r="KY33" s="39">
+      <c r="KY33" s="5">
         <v>270570</v>
       </c>
-      <c r="KZ33" s="39">
+      <c r="KZ33" s="5">
         <v>272032</v>
       </c>
-      <c r="LA33" s="6">
+      <c r="LA33" s="37">
         <v>268147</v>
       </c>
-      <c r="LB33" s="42">
+      <c r="LB33" s="16">
         <v>270887</v>
       </c>
-      <c r="LC33" s="5"/>
+      <c r="LC33" s="40">
+        <v>271265</v>
+      </c>
+      <c r="LD33" s="5"/>
     </row>
-    <row r="34" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30601,45 +30693,48 @@
       <c r="KP34" s="16">
         <v>234782</v>
       </c>
-      <c r="KQ34" s="39">
+      <c r="KQ34" s="5">
         <v>236108</v>
       </c>
-      <c r="KR34" s="39">
+      <c r="KR34" s="5">
         <v>237102</v>
       </c>
-      <c r="KS34" s="39">
+      <c r="KS34" s="5">
         <v>237586</v>
       </c>
-      <c r="KT34" s="39">
+      <c r="KT34" s="5">
         <v>238022</v>
       </c>
-      <c r="KU34" s="39">
+      <c r="KU34" s="5">
         <v>238469</v>
       </c>
-      <c r="KV34" s="39">
+      <c r="KV34" s="5">
         <v>238628</v>
       </c>
-      <c r="KW34" s="39">
+      <c r="KW34" s="5">
         <v>240012</v>
       </c>
-      <c r="KX34" s="39">
+      <c r="KX34" s="5">
         <v>241358</v>
       </c>
-      <c r="KY34" s="39">
+      <c r="KY34" s="5">
         <v>242718</v>
       </c>
-      <c r="KZ34" s="39">
+      <c r="KZ34" s="5">
         <v>244404</v>
       </c>
-      <c r="LA34" s="6">
+      <c r="LA34" s="37">
         <v>241432</v>
       </c>
-      <c r="LB34" s="42">
+      <c r="LB34" s="16">
         <v>243609</v>
       </c>
-      <c r="LC34" s="5"/>
+      <c r="LC34" s="40">
+        <v>244645</v>
+      </c>
+      <c r="LD34" s="5"/>
     </row>
-    <row r="35" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -31830,45 +31925,48 @@
       <c r="KP35" s="16">
         <v>205910</v>
       </c>
-      <c r="KQ35" s="39">
+      <c r="KQ35" s="5">
         <v>207013</v>
       </c>
-      <c r="KR35" s="39">
+      <c r="KR35" s="5">
         <v>207512</v>
       </c>
-      <c r="KS35" s="39">
+      <c r="KS35" s="5">
         <v>207647</v>
       </c>
-      <c r="KT35" s="39">
+      <c r="KT35" s="5">
         <v>207808</v>
       </c>
-      <c r="KU35" s="39">
+      <c r="KU35" s="5">
         <v>208052</v>
       </c>
-      <c r="KV35" s="39">
+      <c r="KV35" s="5">
         <v>207848</v>
       </c>
-      <c r="KW35" s="39">
+      <c r="KW35" s="5">
         <v>208965</v>
       </c>
-      <c r="KX35" s="39">
+      <c r="KX35" s="5">
         <v>209746</v>
       </c>
-      <c r="KY35" s="39">
+      <c r="KY35" s="5">
         <v>210778</v>
       </c>
-      <c r="KZ35" s="39">
+      <c r="KZ35" s="5">
         <v>211908</v>
       </c>
-      <c r="LA35" s="6">
+      <c r="LA35" s="37">
         <v>209389</v>
       </c>
-      <c r="LB35" s="42">
+      <c r="LB35" s="16">
         <v>210639</v>
       </c>
-      <c r="LC35" s="5"/>
+      <c r="LC35" s="40">
+        <v>211469</v>
+      </c>
+      <c r="LD35" s="5"/>
     </row>
-    <row r="36" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -33089,15 +33187,18 @@
       <c r="KZ36" s="7">
         <v>38</v>
       </c>
-      <c r="LA36" s="8">
+      <c r="LA36" s="7">
         <v>31</v>
       </c>
-      <c r="LB36" s="43">
+      <c r="LB36" s="17">
         <v>28</v>
       </c>
-      <c r="LC36" s="5"/>
+      <c r="LC36" s="41">
+        <v>29</v>
+      </c>
+      <c r="LD36" s="5"/>
     </row>
-    <row r="37" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:316" x14ac:dyDescent="0.3">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -33111,14 +33212,27 @@
       <c r="KZ37" s="5"/>
       <c r="LA37" s="5"/>
       <c r="LB37" s="5"/>
+      <c r="LC37" s="5"/>
     </row>
-    <row r="38" spans="1:315" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:316" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="LB5:LC5"/>
+    <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="KP5:LA5"/>
     <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
@@ -33135,17 +33249,6 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
-    <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C1EAEB-8766-4DC1-8A5B-FBDBF332026A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF47F330-8331-41CB-9CED-BEB5AD87E632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta_sexo_edad" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +131,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - febrero 2024</t>
+    <t>Enero 1998 - abril 2024</t>
   </si>
 </sst>
 </file>
@@ -377,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -428,6 +419,21 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,26 +446,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,544 +735,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LD38"/>
+  <dimension ref="A1:LE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KN1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KV1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="KX38" sqref="KX38"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="1" customWidth="1"/>
-    <col min="2" max="9" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="57" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="69" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="93" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="105" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="117" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="129" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="141" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="153" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="158" max="165" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="177" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="182" max="189" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="201" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="206" max="213" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="218" max="225" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="237" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="242" max="249" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="254" max="261" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="273" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="278" max="285" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="290" max="297" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="309" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="314" width="10.44140625" style="1" customWidth="1"/>
-    <col min="315" max="315" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="316" max="16384" width="11.33203125" style="1"/>
+    <col min="1" max="1" width="41.7109375" style="1" customWidth="1"/>
+    <col min="2" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="57" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="69" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="93" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="105" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="117" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="129" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="141" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="153" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="165" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="177" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="182" max="189" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="201" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="206" max="213" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="218" max="225" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="237" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="242" max="249" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="254" max="261" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="273" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="278" max="285" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="290" max="297" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="302" max="309" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="314" width="10.42578125" style="1" customWidth="1"/>
+    <col min="315" max="315" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="316" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="LD3" s="2"/>
     </row>
-    <row r="4" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+    <row r="4" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="36">
         <v>1998</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36">
         <v>1999</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34">
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36">
         <v>2000</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34">
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36">
         <v>2001</v>
       </c>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="34"/>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34">
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36">
         <v>2002</v>
       </c>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="34">
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
+      <c r="BJ5" s="36">
         <v>2003</v>
       </c>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="34"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="34"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="34"/>
-      <c r="BV5" s="34">
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
+      <c r="BM5" s="36"/>
+      <c r="BN5" s="36"/>
+      <c r="BO5" s="36"/>
+      <c r="BP5" s="36"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="36"/>
+      <c r="BS5" s="36"/>
+      <c r="BT5" s="36"/>
+      <c r="BU5" s="36"/>
+      <c r="BV5" s="36">
         <v>2004</v>
       </c>
-      <c r="BW5" s="34"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="34"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="34"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="34"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="34"/>
-      <c r="CH5" s="34">
+      <c r="BW5" s="36"/>
+      <c r="BX5" s="36"/>
+      <c r="BY5" s="36"/>
+      <c r="BZ5" s="36"/>
+      <c r="CA5" s="36"/>
+      <c r="CB5" s="36"/>
+      <c r="CC5" s="36"/>
+      <c r="CD5" s="36"/>
+      <c r="CE5" s="36"/>
+      <c r="CF5" s="36"/>
+      <c r="CG5" s="36"/>
+      <c r="CH5" s="36">
         <v>2005</v>
       </c>
-      <c r="CI5" s="34"/>
-      <c r="CJ5" s="34"/>
-      <c r="CK5" s="34"/>
-      <c r="CL5" s="34"/>
-      <c r="CM5" s="34"/>
-      <c r="CN5" s="34"/>
-      <c r="CO5" s="34"/>
-      <c r="CP5" s="34"/>
-      <c r="CQ5" s="34"/>
-      <c r="CR5" s="34"/>
-      <c r="CS5" s="34"/>
-      <c r="CT5" s="34">
+      <c r="CI5" s="36"/>
+      <c r="CJ5" s="36"/>
+      <c r="CK5" s="36"/>
+      <c r="CL5" s="36"/>
+      <c r="CM5" s="36"/>
+      <c r="CN5" s="36"/>
+      <c r="CO5" s="36"/>
+      <c r="CP5" s="36"/>
+      <c r="CQ5" s="36"/>
+      <c r="CR5" s="36"/>
+      <c r="CS5" s="36"/>
+      <c r="CT5" s="36">
         <v>2006</v>
       </c>
-      <c r="CU5" s="34"/>
-      <c r="CV5" s="34"/>
-      <c r="CW5" s="34"/>
-      <c r="CX5" s="34"/>
-      <c r="CY5" s="34"/>
-      <c r="CZ5" s="34"/>
-      <c r="DA5" s="34"/>
-      <c r="DB5" s="34"/>
-      <c r="DC5" s="34"/>
-      <c r="DD5" s="34"/>
-      <c r="DE5" s="34"/>
-      <c r="DF5" s="34">
+      <c r="CU5" s="36"/>
+      <c r="CV5" s="36"/>
+      <c r="CW5" s="36"/>
+      <c r="CX5" s="36"/>
+      <c r="CY5" s="36"/>
+      <c r="CZ5" s="36"/>
+      <c r="DA5" s="36"/>
+      <c r="DB5" s="36"/>
+      <c r="DC5" s="36"/>
+      <c r="DD5" s="36"/>
+      <c r="DE5" s="36"/>
+      <c r="DF5" s="36">
         <v>2007</v>
       </c>
-      <c r="DG5" s="34"/>
-      <c r="DH5" s="34"/>
-      <c r="DI5" s="34"/>
-      <c r="DJ5" s="34"/>
-      <c r="DK5" s="34"/>
-      <c r="DL5" s="34"/>
-      <c r="DM5" s="34"/>
-      <c r="DN5" s="34"/>
-      <c r="DO5" s="34"/>
-      <c r="DP5" s="34"/>
-      <c r="DQ5" s="34"/>
-      <c r="DR5" s="34">
+      <c r="DG5" s="36"/>
+      <c r="DH5" s="36"/>
+      <c r="DI5" s="36"/>
+      <c r="DJ5" s="36"/>
+      <c r="DK5" s="36"/>
+      <c r="DL5" s="36"/>
+      <c r="DM5" s="36"/>
+      <c r="DN5" s="36"/>
+      <c r="DO5" s="36"/>
+      <c r="DP5" s="36"/>
+      <c r="DQ5" s="36"/>
+      <c r="DR5" s="36">
         <v>2008</v>
       </c>
-      <c r="DS5" s="34"/>
-      <c r="DT5" s="34"/>
-      <c r="DU5" s="34"/>
-      <c r="DV5" s="34"/>
-      <c r="DW5" s="34"/>
-      <c r="DX5" s="34"/>
-      <c r="DY5" s="34"/>
-      <c r="DZ5" s="34"/>
-      <c r="EA5" s="34"/>
-      <c r="EB5" s="34"/>
-      <c r="EC5" s="34"/>
-      <c r="ED5" s="34">
+      <c r="DS5" s="36"/>
+      <c r="DT5" s="36"/>
+      <c r="DU5" s="36"/>
+      <c r="DV5" s="36"/>
+      <c r="DW5" s="36"/>
+      <c r="DX5" s="36"/>
+      <c r="DY5" s="36"/>
+      <c r="DZ5" s="36"/>
+      <c r="EA5" s="36"/>
+      <c r="EB5" s="36"/>
+      <c r="EC5" s="36"/>
+      <c r="ED5" s="36">
         <v>2009</v>
       </c>
-      <c r="EE5" s="34"/>
-      <c r="EF5" s="34"/>
-      <c r="EG5" s="34"/>
-      <c r="EH5" s="34"/>
-      <c r="EI5" s="34"/>
-      <c r="EJ5" s="34"/>
-      <c r="EK5" s="34"/>
-      <c r="EL5" s="34"/>
-      <c r="EM5" s="34"/>
-      <c r="EN5" s="34"/>
-      <c r="EO5" s="34"/>
-      <c r="EP5" s="34">
+      <c r="EE5" s="36"/>
+      <c r="EF5" s="36"/>
+      <c r="EG5" s="36"/>
+      <c r="EH5" s="36"/>
+      <c r="EI5" s="36"/>
+      <c r="EJ5" s="36"/>
+      <c r="EK5" s="36"/>
+      <c r="EL5" s="36"/>
+      <c r="EM5" s="36"/>
+      <c r="EN5" s="36"/>
+      <c r="EO5" s="36"/>
+      <c r="EP5" s="36">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="34"/>
-      <c r="ER5" s="34"/>
-      <c r="ES5" s="34"/>
-      <c r="ET5" s="34"/>
-      <c r="EU5" s="34"/>
-      <c r="EV5" s="34"/>
-      <c r="EW5" s="34"/>
-      <c r="EX5" s="34"/>
-      <c r="EY5" s="34"/>
-      <c r="EZ5" s="34"/>
-      <c r="FA5" s="34"/>
-      <c r="FB5" s="34">
+      <c r="EQ5" s="36"/>
+      <c r="ER5" s="36"/>
+      <c r="ES5" s="36"/>
+      <c r="ET5" s="36"/>
+      <c r="EU5" s="36"/>
+      <c r="EV5" s="36"/>
+      <c r="EW5" s="36"/>
+      <c r="EX5" s="36"/>
+      <c r="EY5" s="36"/>
+      <c r="EZ5" s="36"/>
+      <c r="FA5" s="36"/>
+      <c r="FB5" s="36">
         <v>2011</v>
       </c>
-      <c r="FC5" s="34"/>
-      <c r="FD5" s="34"/>
-      <c r="FE5" s="34"/>
-      <c r="FF5" s="34"/>
-      <c r="FG5" s="34"/>
-      <c r="FH5" s="34"/>
-      <c r="FI5" s="34"/>
-      <c r="FJ5" s="34"/>
-      <c r="FK5" s="34"/>
-      <c r="FL5" s="34"/>
-      <c r="FM5" s="34"/>
-      <c r="FN5" s="34">
+      <c r="FC5" s="36"/>
+      <c r="FD5" s="36"/>
+      <c r="FE5" s="36"/>
+      <c r="FF5" s="36"/>
+      <c r="FG5" s="36"/>
+      <c r="FH5" s="36"/>
+      <c r="FI5" s="36"/>
+      <c r="FJ5" s="36"/>
+      <c r="FK5" s="36"/>
+      <c r="FL5" s="36"/>
+      <c r="FM5" s="36"/>
+      <c r="FN5" s="36">
         <v>2012</v>
       </c>
-      <c r="FO5" s="34"/>
-      <c r="FP5" s="34"/>
-      <c r="FQ5" s="34"/>
-      <c r="FR5" s="34"/>
-      <c r="FS5" s="34"/>
-      <c r="FT5" s="34"/>
-      <c r="FU5" s="34"/>
-      <c r="FV5" s="34"/>
-      <c r="FW5" s="34"/>
-      <c r="FX5" s="34"/>
-      <c r="FY5" s="34"/>
-      <c r="FZ5" s="34">
+      <c r="FO5" s="36"/>
+      <c r="FP5" s="36"/>
+      <c r="FQ5" s="36"/>
+      <c r="FR5" s="36"/>
+      <c r="FS5" s="36"/>
+      <c r="FT5" s="36"/>
+      <c r="FU5" s="36"/>
+      <c r="FV5" s="36"/>
+      <c r="FW5" s="36"/>
+      <c r="FX5" s="36"/>
+      <c r="FY5" s="36"/>
+      <c r="FZ5" s="36">
         <v>2013</v>
       </c>
-      <c r="GA5" s="34"/>
-      <c r="GB5" s="34"/>
-      <c r="GC5" s="34"/>
-      <c r="GD5" s="34"/>
-      <c r="GE5" s="34"/>
-      <c r="GF5" s="34"/>
-      <c r="GG5" s="34"/>
-      <c r="GH5" s="34"/>
-      <c r="GI5" s="34"/>
-      <c r="GJ5" s="34"/>
-      <c r="GK5" s="34"/>
-      <c r="GL5" s="34">
+      <c r="GA5" s="36"/>
+      <c r="GB5" s="36"/>
+      <c r="GC5" s="36"/>
+      <c r="GD5" s="36"/>
+      <c r="GE5" s="36"/>
+      <c r="GF5" s="36"/>
+      <c r="GG5" s="36"/>
+      <c r="GH5" s="36"/>
+      <c r="GI5" s="36"/>
+      <c r="GJ5" s="36"/>
+      <c r="GK5" s="36"/>
+      <c r="GL5" s="36">
         <v>2014</v>
       </c>
-      <c r="GM5" s="34"/>
-      <c r="GN5" s="34"/>
-      <c r="GO5" s="34"/>
-      <c r="GP5" s="34"/>
-      <c r="GQ5" s="34"/>
-      <c r="GR5" s="34"/>
-      <c r="GS5" s="34"/>
-      <c r="GT5" s="34"/>
-      <c r="GU5" s="34"/>
-      <c r="GV5" s="34"/>
-      <c r="GW5" s="34"/>
-      <c r="GX5" s="34">
+      <c r="GM5" s="36"/>
+      <c r="GN5" s="36"/>
+      <c r="GO5" s="36"/>
+      <c r="GP5" s="36"/>
+      <c r="GQ5" s="36"/>
+      <c r="GR5" s="36"/>
+      <c r="GS5" s="36"/>
+      <c r="GT5" s="36"/>
+      <c r="GU5" s="36"/>
+      <c r="GV5" s="36"/>
+      <c r="GW5" s="36"/>
+      <c r="GX5" s="36">
         <v>2015</v>
       </c>
-      <c r="GY5" s="34"/>
-      <c r="GZ5" s="34"/>
-      <c r="HA5" s="34"/>
-      <c r="HB5" s="34"/>
-      <c r="HC5" s="34"/>
-      <c r="HD5" s="34"/>
-      <c r="HE5" s="34"/>
-      <c r="HF5" s="34"/>
-      <c r="HG5" s="34"/>
-      <c r="HH5" s="34"/>
-      <c r="HI5" s="34"/>
-      <c r="HJ5" s="34">
+      <c r="GY5" s="36"/>
+      <c r="GZ5" s="36"/>
+      <c r="HA5" s="36"/>
+      <c r="HB5" s="36"/>
+      <c r="HC5" s="36"/>
+      <c r="HD5" s="36"/>
+      <c r="HE5" s="36"/>
+      <c r="HF5" s="36"/>
+      <c r="HG5" s="36"/>
+      <c r="HH5" s="36"/>
+      <c r="HI5" s="36"/>
+      <c r="HJ5" s="36">
         <v>2016</v>
       </c>
-      <c r="HK5" s="34"/>
-      <c r="HL5" s="34"/>
-      <c r="HM5" s="34"/>
-      <c r="HN5" s="34"/>
-      <c r="HO5" s="34"/>
-      <c r="HP5" s="34"/>
-      <c r="HQ5" s="34"/>
-      <c r="HR5" s="34"/>
-      <c r="HS5" s="34"/>
-      <c r="HT5" s="34"/>
-      <c r="HU5" s="34"/>
-      <c r="HV5" s="34">
+      <c r="HK5" s="36"/>
+      <c r="HL5" s="36"/>
+      <c r="HM5" s="36"/>
+      <c r="HN5" s="36"/>
+      <c r="HO5" s="36"/>
+      <c r="HP5" s="36"/>
+      <c r="HQ5" s="36"/>
+      <c r="HR5" s="36"/>
+      <c r="HS5" s="36"/>
+      <c r="HT5" s="36"/>
+      <c r="HU5" s="36"/>
+      <c r="HV5" s="36">
         <v>2017</v>
       </c>
-      <c r="HW5" s="34"/>
-      <c r="HX5" s="34"/>
-      <c r="HY5" s="34"/>
-      <c r="HZ5" s="34"/>
-      <c r="IA5" s="34"/>
-      <c r="IB5" s="34"/>
-      <c r="IC5" s="34"/>
-      <c r="ID5" s="34"/>
-      <c r="IE5" s="34"/>
-      <c r="IF5" s="34"/>
-      <c r="IG5" s="34"/>
-      <c r="IH5" s="34">
+      <c r="HW5" s="36"/>
+      <c r="HX5" s="36"/>
+      <c r="HY5" s="36"/>
+      <c r="HZ5" s="36"/>
+      <c r="IA5" s="36"/>
+      <c r="IB5" s="36"/>
+      <c r="IC5" s="36"/>
+      <c r="ID5" s="36"/>
+      <c r="IE5" s="36"/>
+      <c r="IF5" s="36"/>
+      <c r="IG5" s="36"/>
+      <c r="IH5" s="36">
         <v>2018</v>
       </c>
-      <c r="II5" s="34"/>
-      <c r="IJ5" s="34"/>
-      <c r="IK5" s="34"/>
-      <c r="IL5" s="34"/>
-      <c r="IM5" s="34"/>
-      <c r="IN5" s="34"/>
-      <c r="IO5" s="34"/>
-      <c r="IP5" s="34"/>
-      <c r="IQ5" s="34"/>
-      <c r="IR5" s="34"/>
-      <c r="IS5" s="34"/>
-      <c r="IT5" s="34">
+      <c r="II5" s="36"/>
+      <c r="IJ5" s="36"/>
+      <c r="IK5" s="36"/>
+      <c r="IL5" s="36"/>
+      <c r="IM5" s="36"/>
+      <c r="IN5" s="36"/>
+      <c r="IO5" s="36"/>
+      <c r="IP5" s="36"/>
+      <c r="IQ5" s="36"/>
+      <c r="IR5" s="36"/>
+      <c r="IS5" s="36"/>
+      <c r="IT5" s="36">
         <v>2019</v>
       </c>
-      <c r="IU5" s="34"/>
-      <c r="IV5" s="34"/>
-      <c r="IW5" s="34"/>
-      <c r="IX5" s="34"/>
-      <c r="IY5" s="34"/>
-      <c r="IZ5" s="34"/>
-      <c r="JA5" s="34"/>
-      <c r="JB5" s="34"/>
-      <c r="JC5" s="34"/>
-      <c r="JD5" s="34"/>
-      <c r="JE5" s="34"/>
-      <c r="JF5" s="34">
+      <c r="IU5" s="36"/>
+      <c r="IV5" s="36"/>
+      <c r="IW5" s="36"/>
+      <c r="IX5" s="36"/>
+      <c r="IY5" s="36"/>
+      <c r="IZ5" s="36"/>
+      <c r="JA5" s="36"/>
+      <c r="JB5" s="36"/>
+      <c r="JC5" s="36"/>
+      <c r="JD5" s="36"/>
+      <c r="JE5" s="36"/>
+      <c r="JF5" s="36">
         <v>2020</v>
       </c>
-      <c r="JG5" s="34"/>
-      <c r="JH5" s="34"/>
-      <c r="JI5" s="34"/>
-      <c r="JJ5" s="34"/>
-      <c r="JK5" s="34"/>
-      <c r="JL5" s="34"/>
-      <c r="JM5" s="34"/>
-      <c r="JN5" s="34"/>
-      <c r="JO5" s="34"/>
-      <c r="JP5" s="34"/>
-      <c r="JQ5" s="34"/>
-      <c r="JR5" s="34">
+      <c r="JG5" s="36"/>
+      <c r="JH5" s="36"/>
+      <c r="JI5" s="36"/>
+      <c r="JJ5" s="36"/>
+      <c r="JK5" s="36"/>
+      <c r="JL5" s="36"/>
+      <c r="JM5" s="36"/>
+      <c r="JN5" s="36"/>
+      <c r="JO5" s="36"/>
+      <c r="JP5" s="36"/>
+      <c r="JQ5" s="36"/>
+      <c r="JR5" s="36">
         <v>2021</v>
       </c>
-      <c r="JS5" s="34"/>
-      <c r="JT5" s="34"/>
-      <c r="JU5" s="34"/>
-      <c r="JV5" s="34"/>
-      <c r="JW5" s="34"/>
-      <c r="JX5" s="34"/>
-      <c r="JY5" s="34"/>
-      <c r="JZ5" s="34"/>
-      <c r="KA5" s="34"/>
-      <c r="KB5" s="34"/>
-      <c r="KC5" s="30"/>
-      <c r="KD5" s="30">
+      <c r="JS5" s="36"/>
+      <c r="JT5" s="36"/>
+      <c r="JU5" s="36"/>
+      <c r="JV5" s="36"/>
+      <c r="JW5" s="36"/>
+      <c r="JX5" s="36"/>
+      <c r="JY5" s="36"/>
+      <c r="JZ5" s="36"/>
+      <c r="KA5" s="36"/>
+      <c r="KB5" s="36"/>
+      <c r="KC5" s="37"/>
+      <c r="KD5" s="37">
         <v>2022</v>
       </c>
-      <c r="KE5" s="31"/>
-      <c r="KF5" s="31"/>
-      <c r="KG5" s="31"/>
-      <c r="KH5" s="31"/>
-      <c r="KI5" s="31"/>
-      <c r="KJ5" s="31"/>
-      <c r="KK5" s="31"/>
-      <c r="KL5" s="31"/>
-      <c r="KM5" s="31"/>
-      <c r="KN5" s="31"/>
-      <c r="KO5" s="32"/>
-      <c r="KP5" s="30">
+      <c r="KE5" s="38"/>
+      <c r="KF5" s="38"/>
+      <c r="KG5" s="38"/>
+      <c r="KH5" s="38"/>
+      <c r="KI5" s="38"/>
+      <c r="KJ5" s="38"/>
+      <c r="KK5" s="38"/>
+      <c r="KL5" s="38"/>
+      <c r="KM5" s="38"/>
+      <c r="KN5" s="38"/>
+      <c r="KO5" s="39"/>
+      <c r="KP5" s="37">
         <v>2023</v>
       </c>
-      <c r="KQ5" s="31"/>
-      <c r="KR5" s="31"/>
-      <c r="KS5" s="31"/>
-      <c r="KT5" s="31"/>
-      <c r="KU5" s="31"/>
-      <c r="KV5" s="31"/>
-      <c r="KW5" s="31"/>
-      <c r="KX5" s="31"/>
-      <c r="KY5" s="31"/>
-      <c r="KZ5" s="31"/>
-      <c r="LA5" s="32"/>
-      <c r="LB5" s="39">
+      <c r="KQ5" s="38"/>
+      <c r="KR5" s="38"/>
+      <c r="KS5" s="38"/>
+      <c r="KT5" s="38"/>
+      <c r="KU5" s="38"/>
+      <c r="KV5" s="38"/>
+      <c r="KW5" s="38"/>
+      <c r="KX5" s="38"/>
+      <c r="KY5" s="38"/>
+      <c r="KZ5" s="38"/>
+      <c r="LA5" s="39"/>
+      <c r="LB5" s="42">
         <v>2024</v>
       </c>
-      <c r="LC5" s="35"/>
+      <c r="LC5" s="43"/>
+      <c r="LD5" s="43"/>
+      <c r="LE5" s="43"/>
     </row>
-    <row r="6" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+    <row r="6" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2221,8 +2217,14 @@
       <c r="LC6" s="24" t="s">
         <v>12</v>
       </c>
+      <c r="LD6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="LE6" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3159,17 +3161,23 @@
       <c r="KZ7" s="28">
         <v>1192184</v>
       </c>
-      <c r="LA7" s="36">
+      <c r="LA7" s="30">
         <v>1174153</v>
       </c>
       <c r="LB7" s="15">
         <v>1184975</v>
       </c>
-      <c r="LC7" s="42">
+      <c r="LC7" s="35">
         <v>1189247</v>
       </c>
+      <c r="LD7" s="15">
+        <v>1187324</v>
+      </c>
+      <c r="LE7" s="15">
+        <v>1190807</v>
+      </c>
     </row>
-    <row r="8" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4106,17 +4114,23 @@
       <c r="KZ8" s="5">
         <v>232359</v>
       </c>
-      <c r="LA8" s="37">
+      <c r="LA8" s="31">
         <v>231667</v>
       </c>
       <c r="LB8" s="16">
         <v>234497</v>
       </c>
-      <c r="LC8" s="40">
+      <c r="LC8" s="33">
         <v>236086</v>
       </c>
+      <c r="LD8" s="16">
+        <v>236468</v>
+      </c>
+      <c r="LE8" s="16">
+        <v>237401</v>
+      </c>
     </row>
-    <row r="9" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -5053,17 +5067,23 @@
       <c r="KZ9" s="5">
         <v>31039</v>
       </c>
-      <c r="LA9" s="37">
+      <c r="LA9" s="31">
         <v>29802</v>
       </c>
       <c r="LB9" s="16">
         <v>29931</v>
       </c>
-      <c r="LC9" s="40">
+      <c r="LC9" s="33">
         <v>30612</v>
       </c>
+      <c r="LD9" s="16">
+        <v>30319</v>
+      </c>
+      <c r="LE9" s="16">
+        <v>30131</v>
+      </c>
     </row>
-    <row r="10" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -6000,17 +6020,23 @@
       <c r="KZ10" s="5">
         <v>143301</v>
       </c>
-      <c r="LA10" s="37">
+      <c r="LA10" s="31">
         <v>139166</v>
       </c>
       <c r="LB10" s="16">
         <v>139767</v>
       </c>
-      <c r="LC10" s="40">
+      <c r="LC10" s="33">
         <v>140249</v>
       </c>
+      <c r="LD10" s="16">
+        <v>140091</v>
+      </c>
+      <c r="LE10" s="16">
+        <v>140339</v>
+      </c>
     </row>
-    <row r="11" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6947,17 +6973,23 @@
       <c r="KZ11" s="5">
         <v>183222</v>
       </c>
-      <c r="LA11" s="37">
+      <c r="LA11" s="31">
         <v>179608</v>
       </c>
       <c r="LB11" s="16">
         <v>179835</v>
       </c>
-      <c r="LC11" s="40">
+      <c r="LC11" s="33">
         <v>180050</v>
       </c>
+      <c r="LD11" s="16">
+        <v>179674</v>
+      </c>
+      <c r="LE11" s="16">
+        <v>180228</v>
+      </c>
     </row>
-    <row r="12" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7894,17 +7926,23 @@
       <c r="KZ12" s="5">
         <v>178651</v>
       </c>
-      <c r="LA12" s="37">
+      <c r="LA12" s="31">
         <v>175602</v>
       </c>
       <c r="LB12" s="16">
         <v>178699</v>
       </c>
-      <c r="LC12" s="40">
+      <c r="LC12" s="33">
         <v>178990</v>
       </c>
+      <c r="LD12" s="16">
+        <v>178372</v>
+      </c>
+      <c r="LE12" s="16">
+        <v>179173</v>
+      </c>
     </row>
-    <row r="13" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8841,17 +8879,23 @@
       <c r="KZ13" s="5">
         <v>157909</v>
       </c>
-      <c r="LA13" s="37">
+      <c r="LA13" s="31">
         <v>155781</v>
       </c>
       <c r="LB13" s="16">
         <v>157563</v>
       </c>
-      <c r="LC13" s="40">
+      <c r="LC13" s="33">
         <v>157602</v>
       </c>
+      <c r="LD13" s="16">
+        <v>157298</v>
+      </c>
+      <c r="LE13" s="16">
+        <v>157778</v>
+      </c>
     </row>
-    <row r="14" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9788,17 +9832,23 @@
       <c r="KZ14" s="5">
         <v>141661</v>
       </c>
-      <c r="LA14" s="37">
+      <c r="LA14" s="31">
         <v>139847</v>
       </c>
       <c r="LB14" s="16">
         <v>141223</v>
       </c>
-      <c r="LC14" s="40">
+      <c r="LC14" s="33">
         <v>141869</v>
       </c>
+      <c r="LD14" s="16">
+        <v>141513</v>
+      </c>
+      <c r="LE14" s="16">
+        <v>142003</v>
+      </c>
     </row>
-    <row r="15" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10735,17 +10785,23 @@
       <c r="KZ15" s="5">
         <v>124009</v>
       </c>
-      <c r="LA15" s="37">
+      <c r="LA15" s="31">
         <v>122654</v>
       </c>
       <c r="LB15" s="16">
         <v>123437</v>
       </c>
-      <c r="LC15" s="40">
+      <c r="LC15" s="33">
         <v>123766</v>
       </c>
+      <c r="LD15" s="16">
+        <v>123566</v>
+      </c>
+      <c r="LE15" s="16">
+        <v>123728</v>
+      </c>
     </row>
-    <row r="16" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11688,11 +11744,17 @@
       <c r="LB16" s="17">
         <v>23</v>
       </c>
-      <c r="LC16" s="41">
+      <c r="LC16" s="34">
         <v>23</v>
       </c>
+      <c r="LD16" s="17">
+        <v>23</v>
+      </c>
+      <c r="LE16" s="17">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" spans="1:316" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12629,17 +12691,23 @@
       <c r="KZ17" s="28">
         <v>834751</v>
       </c>
-      <c r="LA17" s="36">
+      <c r="LA17" s="30">
         <v>821204</v>
       </c>
       <c r="LB17" s="15">
         <v>824878</v>
       </c>
-      <c r="LC17" s="42">
+      <c r="LC17" s="35">
         <v>828632</v>
       </c>
+      <c r="LD17" s="15">
+        <v>830302</v>
+      </c>
+      <c r="LE17" s="15">
+        <v>832587</v>
+      </c>
     </row>
-    <row r="18" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13576,17 +13644,23 @@
       <c r="KZ18" s="5">
         <v>147316</v>
       </c>
-      <c r="LA18" s="37">
+      <c r="LA18" s="31">
         <v>146536</v>
       </c>
       <c r="LB18" s="16">
         <v>148445</v>
       </c>
-      <c r="LC18" s="40">
+      <c r="LC18" s="33">
         <v>149478</v>
       </c>
+      <c r="LD18" s="16">
+        <v>150033</v>
+      </c>
+      <c r="LE18" s="16">
+        <v>151078</v>
+      </c>
     </row>
-    <row r="19" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14523,17 +14597,23 @@
       <c r="KZ19" s="5">
         <v>18930</v>
       </c>
-      <c r="LA19" s="37">
+      <c r="LA19" s="31">
         <v>18059</v>
       </c>
       <c r="LB19" s="16">
         <v>17671</v>
       </c>
-      <c r="LC19" s="40">
+      <c r="LC19" s="33">
         <v>18139</v>
       </c>
+      <c r="LD19" s="16">
+        <v>17950</v>
+      </c>
+      <c r="LE19" s="16">
+        <v>17593</v>
+      </c>
     </row>
-    <row r="20" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15470,17 +15550,23 @@
       <c r="KZ20" s="5">
         <v>101550</v>
       </c>
-      <c r="LA20" s="37">
+      <c r="LA20" s="31">
         <v>98427</v>
       </c>
       <c r="LB20" s="16">
         <v>97650</v>
       </c>
-      <c r="LC20" s="40">
+      <c r="LC20" s="33">
         <v>98059</v>
       </c>
+      <c r="LD20" s="16">
+        <v>98659</v>
+      </c>
+      <c r="LE20" s="16">
+        <v>98761</v>
+      </c>
     </row>
-    <row r="21" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16417,17 +16503,23 @@
       <c r="KZ21" s="5">
         <v>135357</v>
       </c>
-      <c r="LA21" s="37">
+      <c r="LA21" s="31">
         <v>132751</v>
       </c>
       <c r="LB21" s="16">
         <v>132435</v>
       </c>
-      <c r="LC21" s="40">
+      <c r="LC21" s="33">
         <v>132706</v>
       </c>
+      <c r="LD21" s="16">
+        <v>132914</v>
+      </c>
+      <c r="LE21" s="16">
+        <v>133325</v>
+      </c>
     </row>
-    <row r="22" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17364,17 +17456,23 @@
       <c r="KZ22" s="5">
         <v>126828</v>
       </c>
-      <c r="LA22" s="37">
+      <c r="LA22" s="31">
         <v>124740</v>
       </c>
       <c r="LB22" s="16">
         <v>125760</v>
       </c>
-      <c r="LC22" s="40">
+      <c r="LC22" s="33">
         <v>126102</v>
       </c>
+      <c r="LD22" s="16">
+        <v>126265</v>
+      </c>
+      <c r="LE22" s="16">
+        <v>126714</v>
+      </c>
     </row>
-    <row r="23" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18311,17 +18409,23 @@
       <c r="KZ23" s="5">
         <v>114123</v>
       </c>
-      <c r="LA23" s="37">
+      <c r="LA23" s="31">
         <v>112366</v>
       </c>
       <c r="LB23" s="16">
         <v>113324</v>
       </c>
-      <c r="LC23" s="40">
+      <c r="LC23" s="33">
         <v>113663</v>
       </c>
+      <c r="LD23" s="16">
+        <v>113849</v>
+      </c>
+      <c r="LE23" s="16">
+        <v>114105</v>
+      </c>
     </row>
-    <row r="24" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19258,17 +19362,23 @@
       <c r="KZ24" s="5">
         <v>102743</v>
       </c>
-      <c r="LA24" s="37">
+      <c r="LA24" s="31">
         <v>101585</v>
       </c>
       <c r="LB24" s="16">
         <v>102386</v>
       </c>
-      <c r="LC24" s="40">
+      <c r="LC24" s="33">
         <v>102776</v>
       </c>
+      <c r="LD24" s="16">
+        <v>102988</v>
+      </c>
+      <c r="LE24" s="16">
+        <v>103281</v>
+      </c>
     </row>
-    <row r="25" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20205,17 +20315,23 @@
       <c r="KZ25" s="5">
         <v>87899</v>
       </c>
-      <c r="LA25" s="37">
+      <c r="LA25" s="31">
         <v>86735</v>
       </c>
       <c r="LB25" s="16">
         <v>87202</v>
       </c>
-      <c r="LC25" s="40">
+      <c r="LC25" s="33">
         <v>87703</v>
       </c>
+      <c r="LD25" s="16">
+        <v>87638</v>
+      </c>
+      <c r="LE25" s="16">
+        <v>87725</v>
+      </c>
     </row>
-    <row r="26" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -21158,11 +21274,17 @@
       <c r="LB26" s="17">
         <v>5</v>
       </c>
-      <c r="LC26" s="41">
+      <c r="LC26" s="34">
         <v>6</v>
       </c>
+      <c r="LD26" s="17">
+        <v>6</v>
+      </c>
+      <c r="LE26" s="17">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -22099,7 +22221,7 @@
       <c r="KZ27" s="29">
         <v>2026935</v>
       </c>
-      <c r="LA27" s="38">
+      <c r="LA27" s="32">
         <v>1995357</v>
       </c>
       <c r="LB27" s="18">
@@ -22108,9 +22230,14 @@
       <c r="LC27" s="10">
         <v>2017879</v>
       </c>
-      <c r="LD27" s="5"/>
+      <c r="LD27" s="18">
+        <v>2017626</v>
+      </c>
+      <c r="LE27" s="18">
+        <v>2023394</v>
+      </c>
     </row>
-    <row r="28" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23331,18 +23458,23 @@
       <c r="KZ28" s="5">
         <v>379675</v>
       </c>
-      <c r="LA28" s="37">
+      <c r="LA28" s="31">
         <v>378203</v>
       </c>
       <c r="LB28" s="16">
         <v>382942</v>
       </c>
-      <c r="LC28" s="40">
+      <c r="LC28" s="33">
         <v>385564</v>
       </c>
-      <c r="LD28" s="5"/>
+      <c r="LD28" s="16">
+        <v>386501</v>
+      </c>
+      <c r="LE28" s="16">
+        <v>388479</v>
+      </c>
     </row>
-    <row r="29" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24563,18 +24695,23 @@
       <c r="KZ29" s="5">
         <v>49969</v>
       </c>
-      <c r="LA29" s="37">
+      <c r="LA29" s="31">
         <v>47861</v>
       </c>
       <c r="LB29" s="16">
         <v>47602</v>
       </c>
-      <c r="LC29" s="40">
+      <c r="LC29" s="33">
         <v>48751</v>
       </c>
-      <c r="LD29" s="5"/>
+      <c r="LD29" s="16">
+        <v>48269</v>
+      </c>
+      <c r="LE29" s="16">
+        <v>47724</v>
+      </c>
     </row>
-    <row r="30" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25795,18 +25932,23 @@
       <c r="KZ30" s="5">
         <v>244851</v>
       </c>
-      <c r="LA30" s="37">
+      <c r="LA30" s="31">
         <v>237593</v>
       </c>
       <c r="LB30" s="16">
         <v>237417</v>
       </c>
-      <c r="LC30" s="40">
+      <c r="LC30" s="33">
         <v>238308</v>
       </c>
-      <c r="LD30" s="5"/>
+      <c r="LD30" s="16">
+        <v>238750</v>
+      </c>
+      <c r="LE30" s="16">
+        <v>239100</v>
+      </c>
     </row>
-    <row r="31" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -27027,18 +27169,23 @@
       <c r="KZ31" s="5">
         <v>318579</v>
       </c>
-      <c r="LA31" s="37">
+      <c r="LA31" s="31">
         <v>312359</v>
       </c>
       <c r="LB31" s="16">
         <v>312270</v>
       </c>
-      <c r="LC31" s="40">
+      <c r="LC31" s="33">
         <v>312756</v>
       </c>
-      <c r="LD31" s="5"/>
+      <c r="LD31" s="16">
+        <v>312588</v>
+      </c>
+      <c r="LE31" s="16">
+        <v>313553</v>
+      </c>
     </row>
-    <row r="32" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28259,18 +28406,23 @@
       <c r="KZ32" s="5">
         <v>305479</v>
       </c>
-      <c r="LA32" s="37">
+      <c r="LA32" s="31">
         <v>300342</v>
       </c>
       <c r="LB32" s="16">
         <v>304459</v>
       </c>
-      <c r="LC32" s="40">
+      <c r="LC32" s="33">
         <v>305092</v>
       </c>
-      <c r="LD32" s="5"/>
+      <c r="LD32" s="16">
+        <v>304637</v>
+      </c>
+      <c r="LE32" s="16">
+        <v>305887</v>
+      </c>
     </row>
-    <row r="33" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29491,18 +29643,23 @@
       <c r="KZ33" s="5">
         <v>272032</v>
       </c>
-      <c r="LA33" s="37">
+      <c r="LA33" s="31">
         <v>268147</v>
       </c>
       <c r="LB33" s="16">
         <v>270887</v>
       </c>
-      <c r="LC33" s="40">
+      <c r="LC33" s="33">
         <v>271265</v>
       </c>
-      <c r="LD33" s="5"/>
+      <c r="LD33" s="16">
+        <v>271147</v>
+      </c>
+      <c r="LE33" s="16">
+        <v>271883</v>
+      </c>
     </row>
-    <row r="34" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30723,18 +30880,23 @@
       <c r="KZ34" s="5">
         <v>244404</v>
       </c>
-      <c r="LA34" s="37">
+      <c r="LA34" s="31">
         <v>241432</v>
       </c>
       <c r="LB34" s="16">
         <v>243609</v>
       </c>
-      <c r="LC34" s="40">
+      <c r="LC34" s="33">
         <v>244645</v>
       </c>
-      <c r="LD34" s="5"/>
+      <c r="LD34" s="16">
+        <v>244501</v>
+      </c>
+      <c r="LE34" s="16">
+        <v>245284</v>
+      </c>
     </row>
-    <row r="35" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -31955,18 +32117,23 @@
       <c r="KZ35" s="5">
         <v>211908</v>
       </c>
-      <c r="LA35" s="37">
+      <c r="LA35" s="31">
         <v>209389</v>
       </c>
       <c r="LB35" s="16">
         <v>210639</v>
       </c>
-      <c r="LC35" s="40">
+      <c r="LC35" s="33">
         <v>211469</v>
       </c>
-      <c r="LD35" s="5"/>
+      <c r="LD35" s="16">
+        <v>211204</v>
+      </c>
+      <c r="LE35" s="16">
+        <v>211453</v>
+      </c>
     </row>
-    <row r="36" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -33193,12 +33360,17 @@
       <c r="LB36" s="17">
         <v>28</v>
       </c>
-      <c r="LC36" s="41">
+      <c r="LC36" s="34">
         <v>29</v>
       </c>
-      <c r="LD36" s="5"/>
+      <c r="LD36" s="17">
+        <v>29</v>
+      </c>
+      <c r="LE36" s="17">
+        <v>31</v>
+      </c>
     </row>
-    <row r="37" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:317" x14ac:dyDescent="0.25">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -33214,27 +33386,13 @@
       <c r="LB37" s="5"/>
       <c r="LC37" s="5"/>
     </row>
-    <row r="38" spans="1:316" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:317" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="LB5:LC5"/>
-    <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
-    <mergeCell ref="KP5:LA5"/>
-    <mergeCell ref="KD5:KO5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -33249,6 +33407,20 @@
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="Z5:AK5"/>
+    <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
+    <mergeCell ref="KP5:LA5"/>
+    <mergeCell ref="KD5:KO5"/>
+    <mergeCell ref="LB5:LE5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF47F330-8331-41CB-9CED-BEB5AD87E632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A460C82-0F74-4103-B97E-D0F5C66BB9F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -131,7 +131,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - abril 2024</t>
+    <t>Enero 1998 - mayo 2024</t>
   </si>
 </sst>
 </file>
@@ -409,9 +409,6 @@
     <xf numFmtId="3" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,14 +419,8 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,16 +434,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LE38"/>
+  <dimension ref="A1:LF38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KV1" activePane="topRight" state="frozen"/>
@@ -881,400 +881,401 @@
     <col min="316" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="LD3" s="2"/>
     </row>
-    <row r="4" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+    <row r="4" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="33">
         <v>1998</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33">
         <v>1999</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36">
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33">
         <v>2000</v>
       </c>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33">
         <v>2001</v>
       </c>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36">
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33">
         <v>2002</v>
       </c>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36">
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="33"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33">
         <v>2003</v>
       </c>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="36"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="36"/>
-      <c r="BS5" s="36"/>
-      <c r="BT5" s="36"/>
-      <c r="BU5" s="36"/>
-      <c r="BV5" s="36">
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33">
         <v>2004</v>
       </c>
-      <c r="BW5" s="36"/>
-      <c r="BX5" s="36"/>
-      <c r="BY5" s="36"/>
-      <c r="BZ5" s="36"/>
-      <c r="CA5" s="36"/>
-      <c r="CB5" s="36"/>
-      <c r="CC5" s="36"/>
-      <c r="CD5" s="36"/>
-      <c r="CE5" s="36"/>
-      <c r="CF5" s="36"/>
-      <c r="CG5" s="36"/>
-      <c r="CH5" s="36">
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="33"/>
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="33"/>
+      <c r="CH5" s="33">
         <v>2005</v>
       </c>
-      <c r="CI5" s="36"/>
-      <c r="CJ5" s="36"/>
-      <c r="CK5" s="36"/>
-      <c r="CL5" s="36"/>
-      <c r="CM5" s="36"/>
-      <c r="CN5" s="36"/>
-      <c r="CO5" s="36"/>
-      <c r="CP5" s="36"/>
-      <c r="CQ5" s="36"/>
-      <c r="CR5" s="36"/>
-      <c r="CS5" s="36"/>
-      <c r="CT5" s="36">
+      <c r="CI5" s="33"/>
+      <c r="CJ5" s="33"/>
+      <c r="CK5" s="33"/>
+      <c r="CL5" s="33"/>
+      <c r="CM5" s="33"/>
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="33"/>
+      <c r="CP5" s="33"/>
+      <c r="CQ5" s="33"/>
+      <c r="CR5" s="33"/>
+      <c r="CS5" s="33"/>
+      <c r="CT5" s="33">
         <v>2006</v>
       </c>
-      <c r="CU5" s="36"/>
-      <c r="CV5" s="36"/>
-      <c r="CW5" s="36"/>
-      <c r="CX5" s="36"/>
-      <c r="CY5" s="36"/>
-      <c r="CZ5" s="36"/>
-      <c r="DA5" s="36"/>
-      <c r="DB5" s="36"/>
-      <c r="DC5" s="36"/>
-      <c r="DD5" s="36"/>
-      <c r="DE5" s="36"/>
-      <c r="DF5" s="36">
+      <c r="CU5" s="33"/>
+      <c r="CV5" s="33"/>
+      <c r="CW5" s="33"/>
+      <c r="CX5" s="33"/>
+      <c r="CY5" s="33"/>
+      <c r="CZ5" s="33"/>
+      <c r="DA5" s="33"/>
+      <c r="DB5" s="33"/>
+      <c r="DC5" s="33"/>
+      <c r="DD5" s="33"/>
+      <c r="DE5" s="33"/>
+      <c r="DF5" s="33">
         <v>2007</v>
       </c>
-      <c r="DG5" s="36"/>
-      <c r="DH5" s="36"/>
-      <c r="DI5" s="36"/>
-      <c r="DJ5" s="36"/>
-      <c r="DK5" s="36"/>
-      <c r="DL5" s="36"/>
-      <c r="DM5" s="36"/>
-      <c r="DN5" s="36"/>
-      <c r="DO5" s="36"/>
-      <c r="DP5" s="36"/>
-      <c r="DQ5" s="36"/>
-      <c r="DR5" s="36">
+      <c r="DG5" s="33"/>
+      <c r="DH5" s="33"/>
+      <c r="DI5" s="33"/>
+      <c r="DJ5" s="33"/>
+      <c r="DK5" s="33"/>
+      <c r="DL5" s="33"/>
+      <c r="DM5" s="33"/>
+      <c r="DN5" s="33"/>
+      <c r="DO5" s="33"/>
+      <c r="DP5" s="33"/>
+      <c r="DQ5" s="33"/>
+      <c r="DR5" s="33">
         <v>2008</v>
       </c>
-      <c r="DS5" s="36"/>
-      <c r="DT5" s="36"/>
-      <c r="DU5" s="36"/>
-      <c r="DV5" s="36"/>
-      <c r="DW5" s="36"/>
-      <c r="DX5" s="36"/>
-      <c r="DY5" s="36"/>
-      <c r="DZ5" s="36"/>
-      <c r="EA5" s="36"/>
-      <c r="EB5" s="36"/>
-      <c r="EC5" s="36"/>
-      <c r="ED5" s="36">
+      <c r="DS5" s="33"/>
+      <c r="DT5" s="33"/>
+      <c r="DU5" s="33"/>
+      <c r="DV5" s="33"/>
+      <c r="DW5" s="33"/>
+      <c r="DX5" s="33"/>
+      <c r="DY5" s="33"/>
+      <c r="DZ5" s="33"/>
+      <c r="EA5" s="33"/>
+      <c r="EB5" s="33"/>
+      <c r="EC5" s="33"/>
+      <c r="ED5" s="33">
         <v>2009</v>
       </c>
-      <c r="EE5" s="36"/>
-      <c r="EF5" s="36"/>
-      <c r="EG5" s="36"/>
-      <c r="EH5" s="36"/>
-      <c r="EI5" s="36"/>
-      <c r="EJ5" s="36"/>
-      <c r="EK5" s="36"/>
-      <c r="EL5" s="36"/>
-      <c r="EM5" s="36"/>
-      <c r="EN5" s="36"/>
-      <c r="EO5" s="36"/>
-      <c r="EP5" s="36">
+      <c r="EE5" s="33"/>
+      <c r="EF5" s="33"/>
+      <c r="EG5" s="33"/>
+      <c r="EH5" s="33"/>
+      <c r="EI5" s="33"/>
+      <c r="EJ5" s="33"/>
+      <c r="EK5" s="33"/>
+      <c r="EL5" s="33"/>
+      <c r="EM5" s="33"/>
+      <c r="EN5" s="33"/>
+      <c r="EO5" s="33"/>
+      <c r="EP5" s="33">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="36"/>
-      <c r="ER5" s="36"/>
-      <c r="ES5" s="36"/>
-      <c r="ET5" s="36"/>
-      <c r="EU5" s="36"/>
-      <c r="EV5" s="36"/>
-      <c r="EW5" s="36"/>
-      <c r="EX5" s="36"/>
-      <c r="EY5" s="36"/>
-      <c r="EZ5" s="36"/>
-      <c r="FA5" s="36"/>
-      <c r="FB5" s="36">
+      <c r="EQ5" s="33"/>
+      <c r="ER5" s="33"/>
+      <c r="ES5" s="33"/>
+      <c r="ET5" s="33"/>
+      <c r="EU5" s="33"/>
+      <c r="EV5" s="33"/>
+      <c r="EW5" s="33"/>
+      <c r="EX5" s="33"/>
+      <c r="EY5" s="33"/>
+      <c r="EZ5" s="33"/>
+      <c r="FA5" s="33"/>
+      <c r="FB5" s="33">
         <v>2011</v>
       </c>
-      <c r="FC5" s="36"/>
-      <c r="FD5" s="36"/>
-      <c r="FE5" s="36"/>
-      <c r="FF5" s="36"/>
-      <c r="FG5" s="36"/>
-      <c r="FH5" s="36"/>
-      <c r="FI5" s="36"/>
-      <c r="FJ5" s="36"/>
-      <c r="FK5" s="36"/>
-      <c r="FL5" s="36"/>
-      <c r="FM5" s="36"/>
-      <c r="FN5" s="36">
+      <c r="FC5" s="33"/>
+      <c r="FD5" s="33"/>
+      <c r="FE5" s="33"/>
+      <c r="FF5" s="33"/>
+      <c r="FG5" s="33"/>
+      <c r="FH5" s="33"/>
+      <c r="FI5" s="33"/>
+      <c r="FJ5" s="33"/>
+      <c r="FK5" s="33"/>
+      <c r="FL5" s="33"/>
+      <c r="FM5" s="33"/>
+      <c r="FN5" s="33">
         <v>2012</v>
       </c>
-      <c r="FO5" s="36"/>
-      <c r="FP5" s="36"/>
-      <c r="FQ5" s="36"/>
-      <c r="FR5" s="36"/>
-      <c r="FS5" s="36"/>
-      <c r="FT5" s="36"/>
-      <c r="FU5" s="36"/>
-      <c r="FV5" s="36"/>
-      <c r="FW5" s="36"/>
-      <c r="FX5" s="36"/>
-      <c r="FY5" s="36"/>
-      <c r="FZ5" s="36">
+      <c r="FO5" s="33"/>
+      <c r="FP5" s="33"/>
+      <c r="FQ5" s="33"/>
+      <c r="FR5" s="33"/>
+      <c r="FS5" s="33"/>
+      <c r="FT5" s="33"/>
+      <c r="FU5" s="33"/>
+      <c r="FV5" s="33"/>
+      <c r="FW5" s="33"/>
+      <c r="FX5" s="33"/>
+      <c r="FY5" s="33"/>
+      <c r="FZ5" s="33">
         <v>2013</v>
       </c>
-      <c r="GA5" s="36"/>
-      <c r="GB5" s="36"/>
-      <c r="GC5" s="36"/>
-      <c r="GD5" s="36"/>
-      <c r="GE5" s="36"/>
-      <c r="GF5" s="36"/>
-      <c r="GG5" s="36"/>
-      <c r="GH5" s="36"/>
-      <c r="GI5" s="36"/>
-      <c r="GJ5" s="36"/>
-      <c r="GK5" s="36"/>
-      <c r="GL5" s="36">
+      <c r="GA5" s="33"/>
+      <c r="GB5" s="33"/>
+      <c r="GC5" s="33"/>
+      <c r="GD5" s="33"/>
+      <c r="GE5" s="33"/>
+      <c r="GF5" s="33"/>
+      <c r="GG5" s="33"/>
+      <c r="GH5" s="33"/>
+      <c r="GI5" s="33"/>
+      <c r="GJ5" s="33"/>
+      <c r="GK5" s="33"/>
+      <c r="GL5" s="33">
         <v>2014</v>
       </c>
-      <c r="GM5" s="36"/>
-      <c r="GN5" s="36"/>
-      <c r="GO5" s="36"/>
-      <c r="GP5" s="36"/>
-      <c r="GQ5" s="36"/>
-      <c r="GR5" s="36"/>
-      <c r="GS5" s="36"/>
-      <c r="GT5" s="36"/>
-      <c r="GU5" s="36"/>
-      <c r="GV5" s="36"/>
-      <c r="GW5" s="36"/>
-      <c r="GX5" s="36">
+      <c r="GM5" s="33"/>
+      <c r="GN5" s="33"/>
+      <c r="GO5" s="33"/>
+      <c r="GP5" s="33"/>
+      <c r="GQ5" s="33"/>
+      <c r="GR5" s="33"/>
+      <c r="GS5" s="33"/>
+      <c r="GT5" s="33"/>
+      <c r="GU5" s="33"/>
+      <c r="GV5" s="33"/>
+      <c r="GW5" s="33"/>
+      <c r="GX5" s="33">
         <v>2015</v>
       </c>
-      <c r="GY5" s="36"/>
-      <c r="GZ5" s="36"/>
-      <c r="HA5" s="36"/>
-      <c r="HB5" s="36"/>
-      <c r="HC5" s="36"/>
-      <c r="HD5" s="36"/>
-      <c r="HE5" s="36"/>
-      <c r="HF5" s="36"/>
-      <c r="HG5" s="36"/>
-      <c r="HH5" s="36"/>
-      <c r="HI5" s="36"/>
-      <c r="HJ5" s="36">
+      <c r="GY5" s="33"/>
+      <c r="GZ5" s="33"/>
+      <c r="HA5" s="33"/>
+      <c r="HB5" s="33"/>
+      <c r="HC5" s="33"/>
+      <c r="HD5" s="33"/>
+      <c r="HE5" s="33"/>
+      <c r="HF5" s="33"/>
+      <c r="HG5" s="33"/>
+      <c r="HH5" s="33"/>
+      <c r="HI5" s="33"/>
+      <c r="HJ5" s="33">
         <v>2016</v>
       </c>
-      <c r="HK5" s="36"/>
-      <c r="HL5" s="36"/>
-      <c r="HM5" s="36"/>
-      <c r="HN5" s="36"/>
-      <c r="HO5" s="36"/>
-      <c r="HP5" s="36"/>
-      <c r="HQ5" s="36"/>
-      <c r="HR5" s="36"/>
-      <c r="HS5" s="36"/>
-      <c r="HT5" s="36"/>
-      <c r="HU5" s="36"/>
-      <c r="HV5" s="36">
+      <c r="HK5" s="33"/>
+      <c r="HL5" s="33"/>
+      <c r="HM5" s="33"/>
+      <c r="HN5" s="33"/>
+      <c r="HO5" s="33"/>
+      <c r="HP5" s="33"/>
+      <c r="HQ5" s="33"/>
+      <c r="HR5" s="33"/>
+      <c r="HS5" s="33"/>
+      <c r="HT5" s="33"/>
+      <c r="HU5" s="33"/>
+      <c r="HV5" s="33">
         <v>2017</v>
       </c>
-      <c r="HW5" s="36"/>
-      <c r="HX5" s="36"/>
-      <c r="HY5" s="36"/>
-      <c r="HZ5" s="36"/>
-      <c r="IA5" s="36"/>
-      <c r="IB5" s="36"/>
-      <c r="IC5" s="36"/>
-      <c r="ID5" s="36"/>
-      <c r="IE5" s="36"/>
-      <c r="IF5" s="36"/>
-      <c r="IG5" s="36"/>
-      <c r="IH5" s="36">
+      <c r="HW5" s="33"/>
+      <c r="HX5" s="33"/>
+      <c r="HY5" s="33"/>
+      <c r="HZ5" s="33"/>
+      <c r="IA5" s="33"/>
+      <c r="IB5" s="33"/>
+      <c r="IC5" s="33"/>
+      <c r="ID5" s="33"/>
+      <c r="IE5" s="33"/>
+      <c r="IF5" s="33"/>
+      <c r="IG5" s="33"/>
+      <c r="IH5" s="33">
         <v>2018</v>
       </c>
-      <c r="II5" s="36"/>
-      <c r="IJ5" s="36"/>
-      <c r="IK5" s="36"/>
-      <c r="IL5" s="36"/>
-      <c r="IM5" s="36"/>
-      <c r="IN5" s="36"/>
-      <c r="IO5" s="36"/>
-      <c r="IP5" s="36"/>
-      <c r="IQ5" s="36"/>
-      <c r="IR5" s="36"/>
-      <c r="IS5" s="36"/>
-      <c r="IT5" s="36">
+      <c r="II5" s="33"/>
+      <c r="IJ5" s="33"/>
+      <c r="IK5" s="33"/>
+      <c r="IL5" s="33"/>
+      <c r="IM5" s="33"/>
+      <c r="IN5" s="33"/>
+      <c r="IO5" s="33"/>
+      <c r="IP5" s="33"/>
+      <c r="IQ5" s="33"/>
+      <c r="IR5" s="33"/>
+      <c r="IS5" s="33"/>
+      <c r="IT5" s="33">
         <v>2019</v>
       </c>
-      <c r="IU5" s="36"/>
-      <c r="IV5" s="36"/>
-      <c r="IW5" s="36"/>
-      <c r="IX5" s="36"/>
-      <c r="IY5" s="36"/>
-      <c r="IZ5" s="36"/>
-      <c r="JA5" s="36"/>
-      <c r="JB5" s="36"/>
-      <c r="JC5" s="36"/>
-      <c r="JD5" s="36"/>
-      <c r="JE5" s="36"/>
-      <c r="JF5" s="36">
+      <c r="IU5" s="33"/>
+      <c r="IV5" s="33"/>
+      <c r="IW5" s="33"/>
+      <c r="IX5" s="33"/>
+      <c r="IY5" s="33"/>
+      <c r="IZ5" s="33"/>
+      <c r="JA5" s="33"/>
+      <c r="JB5" s="33"/>
+      <c r="JC5" s="33"/>
+      <c r="JD5" s="33"/>
+      <c r="JE5" s="33"/>
+      <c r="JF5" s="33">
         <v>2020</v>
       </c>
-      <c r="JG5" s="36"/>
-      <c r="JH5" s="36"/>
-      <c r="JI5" s="36"/>
-      <c r="JJ5" s="36"/>
-      <c r="JK5" s="36"/>
-      <c r="JL5" s="36"/>
-      <c r="JM5" s="36"/>
-      <c r="JN5" s="36"/>
-      <c r="JO5" s="36"/>
-      <c r="JP5" s="36"/>
-      <c r="JQ5" s="36"/>
-      <c r="JR5" s="36">
+      <c r="JG5" s="33"/>
+      <c r="JH5" s="33"/>
+      <c r="JI5" s="33"/>
+      <c r="JJ5" s="33"/>
+      <c r="JK5" s="33"/>
+      <c r="JL5" s="33"/>
+      <c r="JM5" s="33"/>
+      <c r="JN5" s="33"/>
+      <c r="JO5" s="33"/>
+      <c r="JP5" s="33"/>
+      <c r="JQ5" s="33"/>
+      <c r="JR5" s="33">
         <v>2021</v>
       </c>
-      <c r="JS5" s="36"/>
-      <c r="JT5" s="36"/>
-      <c r="JU5" s="36"/>
-      <c r="JV5" s="36"/>
-      <c r="JW5" s="36"/>
-      <c r="JX5" s="36"/>
-      <c r="JY5" s="36"/>
-      <c r="JZ5" s="36"/>
-      <c r="KA5" s="36"/>
-      <c r="KB5" s="36"/>
-      <c r="KC5" s="37"/>
-      <c r="KD5" s="37">
+      <c r="JS5" s="33"/>
+      <c r="JT5" s="33"/>
+      <c r="JU5" s="33"/>
+      <c r="JV5" s="33"/>
+      <c r="JW5" s="33"/>
+      <c r="JX5" s="33"/>
+      <c r="JY5" s="33"/>
+      <c r="JZ5" s="33"/>
+      <c r="KA5" s="33"/>
+      <c r="KB5" s="33"/>
+      <c r="KC5" s="34"/>
+      <c r="KD5" s="34">
         <v>2022</v>
       </c>
-      <c r="KE5" s="38"/>
-      <c r="KF5" s="38"/>
-      <c r="KG5" s="38"/>
-      <c r="KH5" s="38"/>
-      <c r="KI5" s="38"/>
-      <c r="KJ5" s="38"/>
-      <c r="KK5" s="38"/>
-      <c r="KL5" s="38"/>
-      <c r="KM5" s="38"/>
-      <c r="KN5" s="38"/>
-      <c r="KO5" s="39"/>
-      <c r="KP5" s="37">
+      <c r="KE5" s="35"/>
+      <c r="KF5" s="35"/>
+      <c r="KG5" s="35"/>
+      <c r="KH5" s="35"/>
+      <c r="KI5" s="35"/>
+      <c r="KJ5" s="35"/>
+      <c r="KK5" s="35"/>
+      <c r="KL5" s="35"/>
+      <c r="KM5" s="35"/>
+      <c r="KN5" s="35"/>
+      <c r="KO5" s="36"/>
+      <c r="KP5" s="34">
         <v>2023</v>
       </c>
-      <c r="KQ5" s="38"/>
-      <c r="KR5" s="38"/>
-      <c r="KS5" s="38"/>
-      <c r="KT5" s="38"/>
-      <c r="KU5" s="38"/>
-      <c r="KV5" s="38"/>
-      <c r="KW5" s="38"/>
-      <c r="KX5" s="38"/>
-      <c r="KY5" s="38"/>
-      <c r="KZ5" s="38"/>
-      <c r="LA5" s="39"/>
-      <c r="LB5" s="42">
+      <c r="KQ5" s="35"/>
+      <c r="KR5" s="35"/>
+      <c r="KS5" s="35"/>
+      <c r="KT5" s="35"/>
+      <c r="KU5" s="35"/>
+      <c r="KV5" s="35"/>
+      <c r="KW5" s="35"/>
+      <c r="KX5" s="35"/>
+      <c r="KY5" s="35"/>
+      <c r="KZ5" s="35"/>
+      <c r="LA5" s="35"/>
+      <c r="LB5" s="34">
         <v>2024</v>
       </c>
-      <c r="LC5" s="43"/>
-      <c r="LD5" s="43"/>
-      <c r="LE5" s="43"/>
+      <c r="LC5" s="35"/>
+      <c r="LD5" s="35"/>
+      <c r="LE5" s="35"/>
+      <c r="LF5" s="36"/>
     </row>
-    <row r="6" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2142,89 +2143,92 @@
       <c r="KD6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="KE6" s="27" t="s">
+      <c r="KE6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="KF6" s="27" t="s">
+      <c r="KF6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="KG6" s="27" t="s">
+      <c r="KG6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="KH6" s="27" t="s">
+      <c r="KH6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="KI6" s="27" t="s">
+      <c r="KI6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="KJ6" s="27" t="s">
+      <c r="KJ6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="KK6" s="27" t="s">
+      <c r="KK6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="KL6" s="27" t="s">
+      <c r="KL6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="KM6" s="27" t="s">
+      <c r="KM6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="KN6" s="27" t="s">
+      <c r="KN6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="KO6" s="27" t="s">
+      <c r="KO6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="KP6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="KQ6" s="27" t="s">
+      <c r="KQ6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="KR6" s="27" t="s">
+      <c r="KR6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="KS6" s="27" t="s">
+      <c r="KS6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="KT6" s="27" t="s">
+      <c r="KT6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="KU6" s="27" t="s">
+      <c r="KU6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="KV6" s="27" t="s">
+      <c r="KV6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="KW6" s="27" t="s">
+      <c r="KW6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="KX6" s="27" t="s">
+      <c r="KX6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="KY6" s="27" t="s">
+      <c r="KY6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="KZ6" s="27" t="s">
+      <c r="KZ6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="LA6" s="27" t="s">
+      <c r="LA6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="LB6" s="23" t="s">
+      <c r="LB6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="LC6" s="24" t="s">
+      <c r="LC6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="LD6" s="41" t="s">
+      <c r="LD6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="LE6" s="41" t="s">
+      <c r="LE6" s="42" t="s">
         <v>14</v>
       </c>
+      <c r="LF6" s="43" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3092,92 +3096,95 @@
       <c r="KC7" s="3">
         <v>1110209</v>
       </c>
-      <c r="KD7" s="25">
+      <c r="KD7" s="24">
         <v>1117867</v>
       </c>
-      <c r="KE7" s="28">
+      <c r="KE7" s="27">
         <v>1125481</v>
       </c>
-      <c r="KF7" s="28">
+      <c r="KF7" s="27">
         <v>1131739</v>
       </c>
-      <c r="KG7" s="28">
+      <c r="KG7" s="27">
         <v>1129276</v>
       </c>
-      <c r="KH7" s="28">
+      <c r="KH7" s="27">
         <v>1129263</v>
       </c>
-      <c r="KI7" s="28">
+      <c r="KI7" s="27">
         <v>1131782</v>
       </c>
-      <c r="KJ7" s="28">
+      <c r="KJ7" s="27">
         <v>1131513</v>
       </c>
-      <c r="KK7" s="28">
+      <c r="KK7" s="27">
         <v>1138325</v>
       </c>
-      <c r="KL7" s="28">
+      <c r="KL7" s="27">
         <v>1147074</v>
       </c>
-      <c r="KM7" s="28">
+      <c r="KM7" s="27">
         <v>1160441</v>
       </c>
-      <c r="KN7" s="28">
+      <c r="KN7" s="27">
         <v>1164860</v>
       </c>
-      <c r="KO7" s="28">
+      <c r="KO7" s="27">
         <v>1148621</v>
       </c>
-      <c r="KP7" s="25">
+      <c r="KP7" s="24">
         <v>1161946</v>
       </c>
-      <c r="KQ7" s="28">
+      <c r="KQ7" s="27">
         <v>1169020</v>
       </c>
-      <c r="KR7" s="28">
+      <c r="KR7" s="27">
         <v>1171476</v>
       </c>
-      <c r="KS7" s="28">
+      <c r="KS7" s="27">
         <v>1169950</v>
       </c>
-      <c r="KT7" s="28">
+      <c r="KT7" s="27">
         <v>1169158</v>
       </c>
-      <c r="KU7" s="28">
+      <c r="KU7" s="27">
         <v>1171681</v>
       </c>
-      <c r="KV7" s="28">
+      <c r="KV7" s="27">
         <v>1171148</v>
       </c>
-      <c r="KW7" s="28">
+      <c r="KW7" s="27">
         <v>1174608</v>
       </c>
-      <c r="KX7" s="28">
+      <c r="KX7" s="27">
         <v>1178718</v>
       </c>
-      <c r="KY7" s="28">
+      <c r="KY7" s="27">
         <v>1185923</v>
       </c>
-      <c r="KZ7" s="28">
+      <c r="KZ7" s="27">
         <v>1192184</v>
       </c>
-      <c r="LA7" s="30">
+      <c r="LA7" s="29">
         <v>1174153</v>
       </c>
       <c r="LB7" s="15">
         <v>1184975</v>
       </c>
-      <c r="LC7" s="35">
+      <c r="LC7" s="37">
         <v>1189247</v>
       </c>
-      <c r="LD7" s="15">
+      <c r="LD7" s="3">
         <v>1187324</v>
       </c>
-      <c r="LE7" s="15">
+      <c r="LE7" s="3">
         <v>1190807</v>
       </c>
+      <c r="LF7" s="4">
+        <v>1186510</v>
+      </c>
     </row>
-    <row r="8" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4114,23 +4121,26 @@
       <c r="KZ8" s="5">
         <v>232359</v>
       </c>
-      <c r="LA8" s="31">
+      <c r="LA8" s="30">
         <v>231667</v>
       </c>
       <c r="LB8" s="16">
         <v>234497</v>
       </c>
-      <c r="LC8" s="33">
+      <c r="LC8" s="38">
         <v>236086</v>
       </c>
-      <c r="LD8" s="16">
+      <c r="LD8" s="30">
         <v>236468</v>
       </c>
-      <c r="LE8" s="16">
+      <c r="LE8" s="30">
         <v>237401</v>
       </c>
+      <c r="LF8" s="6">
+        <v>236997</v>
+      </c>
     </row>
-    <row r="9" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -5067,23 +5077,26 @@
       <c r="KZ9" s="5">
         <v>31039</v>
       </c>
-      <c r="LA9" s="31">
+      <c r="LA9" s="30">
         <v>29802</v>
       </c>
       <c r="LB9" s="16">
         <v>29931</v>
       </c>
-      <c r="LC9" s="33">
+      <c r="LC9" s="38">
         <v>30612</v>
       </c>
-      <c r="LD9" s="16">
+      <c r="LD9" s="30">
         <v>30319</v>
       </c>
-      <c r="LE9" s="16">
+      <c r="LE9" s="30">
         <v>30131</v>
       </c>
+      <c r="LF9" s="6">
+        <v>29587</v>
+      </c>
     </row>
-    <row r="10" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -6020,23 +6033,26 @@
       <c r="KZ10" s="5">
         <v>143301</v>
       </c>
-      <c r="LA10" s="31">
+      <c r="LA10" s="30">
         <v>139166</v>
       </c>
       <c r="LB10" s="16">
         <v>139767</v>
       </c>
-      <c r="LC10" s="33">
+      <c r="LC10" s="38">
         <v>140249</v>
       </c>
-      <c r="LD10" s="16">
+      <c r="LD10" s="30">
         <v>140091</v>
       </c>
-      <c r="LE10" s="16">
+      <c r="LE10" s="30">
         <v>140339</v>
       </c>
+      <c r="LF10" s="6">
+        <v>139687</v>
+      </c>
     </row>
-    <row r="11" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6973,23 +6989,26 @@
       <c r="KZ11" s="5">
         <v>183222</v>
       </c>
-      <c r="LA11" s="31">
+      <c r="LA11" s="30">
         <v>179608</v>
       </c>
       <c r="LB11" s="16">
         <v>179835</v>
       </c>
-      <c r="LC11" s="33">
+      <c r="LC11" s="38">
         <v>180050</v>
       </c>
-      <c r="LD11" s="16">
+      <c r="LD11" s="30">
         <v>179674</v>
       </c>
-      <c r="LE11" s="16">
+      <c r="LE11" s="30">
         <v>180228</v>
       </c>
+      <c r="LF11" s="6">
+        <v>179743</v>
+      </c>
     </row>
-    <row r="12" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7926,23 +7945,26 @@
       <c r="KZ12" s="5">
         <v>178651</v>
       </c>
-      <c r="LA12" s="31">
+      <c r="LA12" s="30">
         <v>175602</v>
       </c>
       <c r="LB12" s="16">
         <v>178699</v>
       </c>
-      <c r="LC12" s="33">
+      <c r="LC12" s="38">
         <v>178990</v>
       </c>
-      <c r="LD12" s="16">
+      <c r="LD12" s="30">
         <v>178372</v>
       </c>
-      <c r="LE12" s="16">
+      <c r="LE12" s="30">
         <v>179173</v>
       </c>
+      <c r="LF12" s="6">
+        <v>178504</v>
+      </c>
     </row>
-    <row r="13" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8879,23 +8901,26 @@
       <c r="KZ13" s="5">
         <v>157909</v>
       </c>
-      <c r="LA13" s="31">
+      <c r="LA13" s="30">
         <v>155781</v>
       </c>
       <c r="LB13" s="16">
         <v>157563</v>
       </c>
-      <c r="LC13" s="33">
+      <c r="LC13" s="38">
         <v>157602</v>
       </c>
-      <c r="LD13" s="16">
+      <c r="LD13" s="30">
         <v>157298</v>
       </c>
-      <c r="LE13" s="16">
+      <c r="LE13" s="30">
         <v>157778</v>
       </c>
+      <c r="LF13" s="6">
+        <v>157174</v>
+      </c>
     </row>
-    <row r="14" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9832,23 +9857,26 @@
       <c r="KZ14" s="5">
         <v>141661</v>
       </c>
-      <c r="LA14" s="31">
+      <c r="LA14" s="30">
         <v>139847</v>
       </c>
       <c r="LB14" s="16">
         <v>141223</v>
       </c>
-      <c r="LC14" s="33">
+      <c r="LC14" s="38">
         <v>141869</v>
       </c>
-      <c r="LD14" s="16">
+      <c r="LD14" s="30">
         <v>141513</v>
       </c>
-      <c r="LE14" s="16">
+      <c r="LE14" s="30">
         <v>142003</v>
       </c>
+      <c r="LF14" s="6">
+        <v>141560</v>
+      </c>
     </row>
-    <row r="15" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10785,23 +10813,26 @@
       <c r="KZ15" s="5">
         <v>124009</v>
       </c>
-      <c r="LA15" s="31">
+      <c r="LA15" s="30">
         <v>122654</v>
       </c>
       <c r="LB15" s="16">
         <v>123437</v>
       </c>
-      <c r="LC15" s="33">
+      <c r="LC15" s="38">
         <v>123766</v>
       </c>
-      <c r="LD15" s="16">
+      <c r="LD15" s="30">
         <v>123566</v>
       </c>
-      <c r="LE15" s="16">
+      <c r="LE15" s="30">
         <v>123728</v>
       </c>
+      <c r="LF15" s="6">
+        <v>123231</v>
+      </c>
     </row>
-    <row r="16" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11744,17 +11775,20 @@
       <c r="LB16" s="17">
         <v>23</v>
       </c>
-      <c r="LC16" s="34">
+      <c r="LC16" s="39">
         <v>23</v>
       </c>
-      <c r="LD16" s="17">
+      <c r="LD16" s="7">
         <v>23</v>
       </c>
-      <c r="LE16" s="17">
+      <c r="LE16" s="7">
         <v>26</v>
       </c>
+      <c r="LF16" s="8">
+        <v>27</v>
+      </c>
     </row>
-    <row r="17" spans="1:317" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12622,92 +12656,95 @@
       <c r="KC17" s="3">
         <v>739790</v>
       </c>
-      <c r="KD17" s="25">
+      <c r="KD17" s="24">
         <v>743292</v>
       </c>
-      <c r="KE17" s="28">
+      <c r="KE17" s="27">
         <v>749141</v>
       </c>
-      <c r="KF17" s="28">
+      <c r="KF17" s="27">
         <v>755037</v>
       </c>
-      <c r="KG17" s="28">
+      <c r="KG17" s="27">
         <v>755439</v>
       </c>
-      <c r="KH17" s="28">
+      <c r="KH17" s="27">
         <v>758969</v>
       </c>
-      <c r="KI17" s="28">
+      <c r="KI17" s="27">
         <v>764973</v>
       </c>
-      <c r="KJ17" s="28">
+      <c r="KJ17" s="27">
         <v>765004</v>
       </c>
-      <c r="KK17" s="28">
+      <c r="KK17" s="27">
         <v>772302</v>
       </c>
-      <c r="KL17" s="28">
+      <c r="KL17" s="27">
         <v>780573</v>
       </c>
-      <c r="KM17" s="28">
+      <c r="KM17" s="27">
         <v>790500</v>
       </c>
-      <c r="KN17" s="28">
+      <c r="KN17" s="27">
         <v>795650</v>
       </c>
-      <c r="KO17" s="28">
+      <c r="KO17" s="27">
         <v>784341</v>
       </c>
-      <c r="KP17" s="25">
+      <c r="KP17" s="24">
         <v>789310</v>
       </c>
-      <c r="KQ17" s="28">
+      <c r="KQ17" s="27">
         <v>795499</v>
       </c>
-      <c r="KR17" s="28">
+      <c r="KR17" s="27">
         <v>801239</v>
       </c>
-      <c r="KS17" s="28">
+      <c r="KS17" s="27">
         <v>803252</v>
       </c>
-      <c r="KT17" s="28">
+      <c r="KT17" s="27">
         <v>805407</v>
       </c>
-      <c r="KU17" s="28">
+      <c r="KU17" s="27">
         <v>809109</v>
       </c>
-      <c r="KV17" s="28">
+      <c r="KV17" s="27">
         <v>809998</v>
       </c>
-      <c r="KW17" s="28">
+      <c r="KW17" s="27">
         <v>814138</v>
       </c>
-      <c r="KX17" s="28">
+      <c r="KX17" s="27">
         <v>820642</v>
       </c>
-      <c r="KY17" s="28">
+      <c r="KY17" s="27">
         <v>827508</v>
       </c>
-      <c r="KZ17" s="28">
+      <c r="KZ17" s="27">
         <v>834751</v>
       </c>
-      <c r="LA17" s="30">
+      <c r="LA17" s="29">
         <v>821204</v>
       </c>
       <c r="LB17" s="15">
         <v>824878</v>
       </c>
-      <c r="LC17" s="35">
+      <c r="LC17" s="37">
         <v>828632</v>
       </c>
-      <c r="LD17" s="15">
+      <c r="LD17" s="3">
         <v>830302</v>
       </c>
-      <c r="LE17" s="15">
+      <c r="LE17" s="3">
         <v>832587</v>
       </c>
+      <c r="LF17" s="4">
+        <v>837088</v>
+      </c>
     </row>
-    <row r="18" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13644,23 +13681,26 @@
       <c r="KZ18" s="5">
         <v>147316</v>
       </c>
-      <c r="LA18" s="31">
+      <c r="LA18" s="30">
         <v>146536</v>
       </c>
       <c r="LB18" s="16">
         <v>148445</v>
       </c>
-      <c r="LC18" s="33">
+      <c r="LC18" s="38">
         <v>149478</v>
       </c>
-      <c r="LD18" s="16">
+      <c r="LD18" s="30">
         <v>150033</v>
       </c>
-      <c r="LE18" s="16">
+      <c r="LE18" s="30">
         <v>151078</v>
       </c>
+      <c r="LF18" s="6">
+        <v>152165</v>
+      </c>
     </row>
-    <row r="19" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14597,23 +14637,26 @@
       <c r="KZ19" s="5">
         <v>18930</v>
       </c>
-      <c r="LA19" s="31">
+      <c r="LA19" s="30">
         <v>18059</v>
       </c>
       <c r="LB19" s="16">
         <v>17671</v>
       </c>
-      <c r="LC19" s="33">
+      <c r="LC19" s="38">
         <v>18139</v>
       </c>
-      <c r="LD19" s="16">
+      <c r="LD19" s="30">
         <v>17950</v>
       </c>
-      <c r="LE19" s="16">
+      <c r="LE19" s="30">
         <v>17593</v>
       </c>
+      <c r="LF19" s="6">
+        <v>17651</v>
+      </c>
     </row>
-    <row r="20" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15550,23 +15593,26 @@
       <c r="KZ20" s="5">
         <v>101550</v>
       </c>
-      <c r="LA20" s="31">
+      <c r="LA20" s="30">
         <v>98427</v>
       </c>
       <c r="LB20" s="16">
         <v>97650</v>
       </c>
-      <c r="LC20" s="33">
+      <c r="LC20" s="38">
         <v>98059</v>
       </c>
-      <c r="LD20" s="16">
+      <c r="LD20" s="30">
         <v>98659</v>
       </c>
-      <c r="LE20" s="16">
+      <c r="LE20" s="30">
         <v>98761</v>
       </c>
+      <c r="LF20" s="6">
+        <v>99477</v>
+      </c>
     </row>
-    <row r="21" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16503,23 +16549,26 @@
       <c r="KZ21" s="5">
         <v>135357</v>
       </c>
-      <c r="LA21" s="31">
+      <c r="LA21" s="30">
         <v>132751</v>
       </c>
       <c r="LB21" s="16">
         <v>132435</v>
       </c>
-      <c r="LC21" s="33">
+      <c r="LC21" s="38">
         <v>132706</v>
       </c>
-      <c r="LD21" s="16">
+      <c r="LD21" s="30">
         <v>132914</v>
       </c>
-      <c r="LE21" s="16">
+      <c r="LE21" s="30">
         <v>133325</v>
       </c>
+      <c r="LF21" s="6">
+        <v>133868</v>
+      </c>
     </row>
-    <row r="22" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17456,23 +17505,26 @@
       <c r="KZ22" s="5">
         <v>126828</v>
       </c>
-      <c r="LA22" s="31">
+      <c r="LA22" s="30">
         <v>124740</v>
       </c>
       <c r="LB22" s="16">
         <v>125760</v>
       </c>
-      <c r="LC22" s="33">
+      <c r="LC22" s="38">
         <v>126102</v>
       </c>
-      <c r="LD22" s="16">
+      <c r="LD22" s="30">
         <v>126265</v>
       </c>
-      <c r="LE22" s="16">
+      <c r="LE22" s="30">
         <v>126714</v>
       </c>
+      <c r="LF22" s="6">
+        <v>127337</v>
+      </c>
     </row>
-    <row r="23" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18409,23 +18461,26 @@
       <c r="KZ23" s="5">
         <v>114123</v>
       </c>
-      <c r="LA23" s="31">
+      <c r="LA23" s="30">
         <v>112366</v>
       </c>
       <c r="LB23" s="16">
         <v>113324</v>
       </c>
-      <c r="LC23" s="33">
+      <c r="LC23" s="38">
         <v>113663</v>
       </c>
-      <c r="LD23" s="16">
+      <c r="LD23" s="30">
         <v>113849</v>
       </c>
-      <c r="LE23" s="16">
+      <c r="LE23" s="30">
         <v>114105</v>
       </c>
+      <c r="LF23" s="6">
+        <v>114498</v>
+      </c>
     </row>
-    <row r="24" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19362,23 +19417,26 @@
       <c r="KZ24" s="5">
         <v>102743</v>
       </c>
-      <c r="LA24" s="31">
+      <c r="LA24" s="30">
         <v>101585</v>
       </c>
       <c r="LB24" s="16">
         <v>102386</v>
       </c>
-      <c r="LC24" s="33">
+      <c r="LC24" s="38">
         <v>102776</v>
       </c>
-      <c r="LD24" s="16">
+      <c r="LD24" s="30">
         <v>102988</v>
       </c>
-      <c r="LE24" s="16">
+      <c r="LE24" s="30">
         <v>103281</v>
       </c>
+      <c r="LF24" s="6">
+        <v>103812</v>
+      </c>
     </row>
-    <row r="25" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20315,23 +20373,26 @@
       <c r="KZ25" s="5">
         <v>87899</v>
       </c>
-      <c r="LA25" s="31">
+      <c r="LA25" s="30">
         <v>86735</v>
       </c>
       <c r="LB25" s="16">
         <v>87202</v>
       </c>
-      <c r="LC25" s="33">
+      <c r="LC25" s="38">
         <v>87703</v>
       </c>
-      <c r="LD25" s="16">
+      <c r="LD25" s="30">
         <v>87638</v>
       </c>
-      <c r="LE25" s="16">
+      <c r="LE25" s="30">
         <v>87725</v>
       </c>
+      <c r="LF25" s="6">
+        <v>88275</v>
+      </c>
     </row>
-    <row r="26" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -21274,17 +21335,20 @@
       <c r="LB26" s="17">
         <v>5</v>
       </c>
-      <c r="LC26" s="34">
+      <c r="LC26" s="39">
         <v>6</v>
       </c>
-      <c r="LD26" s="17">
+      <c r="LD26" s="7">
         <v>6</v>
       </c>
-      <c r="LE26" s="17">
+      <c r="LE26" s="7">
         <v>5</v>
       </c>
+      <c r="LF26" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -22152,92 +22216,95 @@
       <c r="KC27" s="9">
         <v>1849999</v>
       </c>
-      <c r="KD27" s="26">
+      <c r="KD27" s="25">
         <v>1861159</v>
       </c>
-      <c r="KE27" s="29">
+      <c r="KE27" s="28">
         <v>1874622</v>
       </c>
-      <c r="KF27" s="29">
+      <c r="KF27" s="28">
         <v>1886776</v>
       </c>
-      <c r="KG27" s="29">
+      <c r="KG27" s="28">
         <v>1884715</v>
       </c>
-      <c r="KH27" s="29">
+      <c r="KH27" s="28">
         <v>1888232</v>
       </c>
-      <c r="KI27" s="29">
+      <c r="KI27" s="28">
         <v>1896755</v>
       </c>
-      <c r="KJ27" s="29">
+      <c r="KJ27" s="28">
         <v>1896517</v>
       </c>
-      <c r="KK27" s="29">
+      <c r="KK27" s="28">
         <v>1910627</v>
       </c>
-      <c r="KL27" s="29">
+      <c r="KL27" s="28">
         <v>1927647</v>
       </c>
-      <c r="KM27" s="29">
+      <c r="KM27" s="28">
         <v>1950941</v>
       </c>
-      <c r="KN27" s="29">
+      <c r="KN27" s="28">
         <v>1960510</v>
       </c>
-      <c r="KO27" s="29">
+      <c r="KO27" s="28">
         <v>1932962</v>
       </c>
-      <c r="KP27" s="26">
+      <c r="KP27" s="25">
         <v>1951256</v>
       </c>
-      <c r="KQ27" s="29">
+      <c r="KQ27" s="28">
         <v>1964519</v>
       </c>
-      <c r="KR27" s="29">
+      <c r="KR27" s="28">
         <v>1972715</v>
       </c>
-      <c r="KS27" s="29">
+      <c r="KS27" s="28">
         <v>1973202</v>
       </c>
-      <c r="KT27" s="29">
+      <c r="KT27" s="28">
         <v>1974565</v>
       </c>
-      <c r="KU27" s="29">
+      <c r="KU27" s="28">
         <v>1980790</v>
       </c>
-      <c r="KV27" s="29">
+      <c r="KV27" s="28">
         <v>1981146</v>
       </c>
-      <c r="KW27" s="29">
+      <c r="KW27" s="28">
         <v>1988746</v>
       </c>
-      <c r="KX27" s="29">
+      <c r="KX27" s="28">
         <v>1999360</v>
       </c>
-      <c r="KY27" s="29">
+      <c r="KY27" s="28">
         <v>2013431</v>
       </c>
-      <c r="KZ27" s="29">
+      <c r="KZ27" s="28">
         <v>2026935</v>
       </c>
-      <c r="LA27" s="32">
+      <c r="LA27" s="31">
         <v>1995357</v>
       </c>
       <c r="LB27" s="18">
         <v>2009853</v>
       </c>
-      <c r="LC27" s="10">
+      <c r="LC27" s="9">
         <v>2017879</v>
       </c>
-      <c r="LD27" s="18">
+      <c r="LD27" s="9">
         <v>2017626</v>
       </c>
-      <c r="LE27" s="18">
+      <c r="LE27" s="9">
         <v>2023394</v>
       </c>
+      <c r="LF27" s="10">
+        <v>2023598</v>
+      </c>
     </row>
-    <row r="28" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23458,23 +23525,26 @@
       <c r="KZ28" s="5">
         <v>379675</v>
       </c>
-      <c r="LA28" s="31">
+      <c r="LA28" s="30">
         <v>378203</v>
       </c>
       <c r="LB28" s="16">
         <v>382942</v>
       </c>
-      <c r="LC28" s="33">
+      <c r="LC28" s="38">
         <v>385564</v>
       </c>
-      <c r="LD28" s="16">
+      <c r="LD28" s="30">
         <v>386501</v>
       </c>
-      <c r="LE28" s="16">
+      <c r="LE28" s="30">
         <v>388479</v>
       </c>
+      <c r="LF28" s="6">
+        <v>389162</v>
+      </c>
     </row>
-    <row r="29" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24695,23 +24765,26 @@
       <c r="KZ29" s="5">
         <v>49969</v>
       </c>
-      <c r="LA29" s="31">
+      <c r="LA29" s="30">
         <v>47861</v>
       </c>
       <c r="LB29" s="16">
         <v>47602</v>
       </c>
-      <c r="LC29" s="33">
+      <c r="LC29" s="38">
         <v>48751</v>
       </c>
-      <c r="LD29" s="16">
+      <c r="LD29" s="30">
         <v>48269</v>
       </c>
-      <c r="LE29" s="16">
+      <c r="LE29" s="30">
         <v>47724</v>
       </c>
+      <c r="LF29" s="6">
+        <v>47238</v>
+      </c>
     </row>
-    <row r="30" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -25932,23 +26005,26 @@
       <c r="KZ30" s="5">
         <v>244851</v>
       </c>
-      <c r="LA30" s="31">
+      <c r="LA30" s="30">
         <v>237593</v>
       </c>
       <c r="LB30" s="16">
         <v>237417</v>
       </c>
-      <c r="LC30" s="33">
+      <c r="LC30" s="38">
         <v>238308</v>
       </c>
-      <c r="LD30" s="16">
+      <c r="LD30" s="30">
         <v>238750</v>
       </c>
-      <c r="LE30" s="16">
+      <c r="LE30" s="30">
         <v>239100</v>
       </c>
+      <c r="LF30" s="6">
+        <v>239164</v>
+      </c>
     </row>
-    <row r="31" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -27169,23 +27245,26 @@
       <c r="KZ31" s="5">
         <v>318579</v>
       </c>
-      <c r="LA31" s="31">
+      <c r="LA31" s="30">
         <v>312359</v>
       </c>
       <c r="LB31" s="16">
         <v>312270</v>
       </c>
-      <c r="LC31" s="33">
+      <c r="LC31" s="38">
         <v>312756</v>
       </c>
-      <c r="LD31" s="16">
+      <c r="LD31" s="30">
         <v>312588</v>
       </c>
-      <c r="LE31" s="16">
+      <c r="LE31" s="30">
         <v>313553</v>
       </c>
+      <c r="LF31" s="6">
+        <v>313611</v>
+      </c>
     </row>
-    <row r="32" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28406,23 +28485,26 @@
       <c r="KZ32" s="5">
         <v>305479</v>
       </c>
-      <c r="LA32" s="31">
+      <c r="LA32" s="30">
         <v>300342</v>
       </c>
       <c r="LB32" s="16">
         <v>304459</v>
       </c>
-      <c r="LC32" s="33">
+      <c r="LC32" s="38">
         <v>305092</v>
       </c>
-      <c r="LD32" s="16">
+      <c r="LD32" s="30">
         <v>304637</v>
       </c>
-      <c r="LE32" s="16">
+      <c r="LE32" s="30">
         <v>305887</v>
       </c>
+      <c r="LF32" s="6">
+        <v>305841</v>
+      </c>
     </row>
-    <row r="33" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29643,23 +29725,26 @@
       <c r="KZ33" s="5">
         <v>272032</v>
       </c>
-      <c r="LA33" s="31">
+      <c r="LA33" s="30">
         <v>268147</v>
       </c>
       <c r="LB33" s="16">
         <v>270887</v>
       </c>
-      <c r="LC33" s="33">
+      <c r="LC33" s="38">
         <v>271265</v>
       </c>
-      <c r="LD33" s="16">
+      <c r="LD33" s="30">
         <v>271147</v>
       </c>
-      <c r="LE33" s="16">
+      <c r="LE33" s="30">
         <v>271883</v>
       </c>
+      <c r="LF33" s="6">
+        <v>271672</v>
+      </c>
     </row>
-    <row r="34" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30880,23 +30965,26 @@
       <c r="KZ34" s="5">
         <v>244404</v>
       </c>
-      <c r="LA34" s="31">
+      <c r="LA34" s="30">
         <v>241432</v>
       </c>
       <c r="LB34" s="16">
         <v>243609</v>
       </c>
-      <c r="LC34" s="33">
+      <c r="LC34" s="38">
         <v>244645</v>
       </c>
-      <c r="LD34" s="16">
+      <c r="LD34" s="30">
         <v>244501</v>
       </c>
-      <c r="LE34" s="16">
+      <c r="LE34" s="30">
         <v>245284</v>
       </c>
+      <c r="LF34" s="6">
+        <v>245372</v>
+      </c>
     </row>
-    <row r="35" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -32117,23 +32205,26 @@
       <c r="KZ35" s="5">
         <v>211908</v>
       </c>
-      <c r="LA35" s="31">
+      <c r="LA35" s="30">
         <v>209389</v>
       </c>
       <c r="LB35" s="16">
         <v>210639</v>
       </c>
-      <c r="LC35" s="33">
+      <c r="LC35" s="38">
         <v>211469</v>
       </c>
-      <c r="LD35" s="16">
+      <c r="LD35" s="30">
         <v>211204</v>
       </c>
-      <c r="LE35" s="16">
+      <c r="LE35" s="30">
         <v>211453</v>
       </c>
+      <c r="LF35" s="6">
+        <v>211506</v>
+      </c>
     </row>
-    <row r="36" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -33360,17 +33451,20 @@
       <c r="LB36" s="17">
         <v>28</v>
       </c>
-      <c r="LC36" s="34">
+      <c r="LC36" s="39">
         <v>29</v>
       </c>
-      <c r="LD36" s="17">
+      <c r="LD36" s="7">
         <v>29</v>
       </c>
-      <c r="LE36" s="17">
+      <c r="LE36" s="7">
         <v>31</v>
       </c>
+      <c r="LF36" s="8">
+        <v>32</v>
+      </c>
     </row>
-    <row r="37" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:318" x14ac:dyDescent="0.25">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -33386,13 +33480,25 @@
       <c r="LB37" s="5"/>
       <c r="LC37" s="5"/>
     </row>
-    <row r="38" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:318" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="KP5:LA5"/>
+    <mergeCell ref="KD5:KO5"/>
+    <mergeCell ref="LB5:LF5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -33409,18 +33515,6 @@
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
     <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
-    <mergeCell ref="KP5:LA5"/>
-    <mergeCell ref="KD5:KO5"/>
-    <mergeCell ref="LB5:LE5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A460C82-0F74-4103-B97E-D0F5C66BB9F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4629E96-4701-406C-97D8-EE1699BA42CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="29">
   <si>
     <t>Hombre</t>
   </si>
@@ -131,7 +131,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - mayo 2024</t>
+    <t>Enero 1998 - junio 2024</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -419,11 +419,14 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,25 +437,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LF38"/>
+  <dimension ref="A1:LG38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KV1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KW1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -881,401 +875,402 @@
     <col min="316" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="LD3" s="2"/>
     </row>
-    <row r="4" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="4" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="38">
         <v>1998</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38">
         <v>1999</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33">
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38">
         <v>2000</v>
       </c>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33">
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38">
         <v>2001</v>
       </c>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33">
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38">
         <v>2002</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33">
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38">
         <v>2003</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33">
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="38">
         <v>2004</v>
       </c>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="33"/>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33"/>
-      <c r="CH5" s="33">
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="38"/>
+      <c r="BY5" s="38"/>
+      <c r="BZ5" s="38"/>
+      <c r="CA5" s="38"/>
+      <c r="CB5" s="38"/>
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="38"/>
+      <c r="CE5" s="38"/>
+      <c r="CF5" s="38"/>
+      <c r="CG5" s="38"/>
+      <c r="CH5" s="38">
         <v>2005</v>
       </c>
-      <c r="CI5" s="33"/>
-      <c r="CJ5" s="33"/>
-      <c r="CK5" s="33"/>
-      <c r="CL5" s="33"/>
-      <c r="CM5" s="33"/>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33"/>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="33"/>
-      <c r="CR5" s="33"/>
-      <c r="CS5" s="33"/>
-      <c r="CT5" s="33">
+      <c r="CI5" s="38"/>
+      <c r="CJ5" s="38"/>
+      <c r="CK5" s="38"/>
+      <c r="CL5" s="38"/>
+      <c r="CM5" s="38"/>
+      <c r="CN5" s="38"/>
+      <c r="CO5" s="38"/>
+      <c r="CP5" s="38"/>
+      <c r="CQ5" s="38"/>
+      <c r="CR5" s="38"/>
+      <c r="CS5" s="38"/>
+      <c r="CT5" s="38">
         <v>2006</v>
       </c>
-      <c r="CU5" s="33"/>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="33"/>
-      <c r="CX5" s="33"/>
-      <c r="CY5" s="33"/>
-      <c r="CZ5" s="33"/>
-      <c r="DA5" s="33"/>
-      <c r="DB5" s="33"/>
-      <c r="DC5" s="33"/>
-      <c r="DD5" s="33"/>
-      <c r="DE5" s="33"/>
-      <c r="DF5" s="33">
+      <c r="CU5" s="38"/>
+      <c r="CV5" s="38"/>
+      <c r="CW5" s="38"/>
+      <c r="CX5" s="38"/>
+      <c r="CY5" s="38"/>
+      <c r="CZ5" s="38"/>
+      <c r="DA5" s="38"/>
+      <c r="DB5" s="38"/>
+      <c r="DC5" s="38"/>
+      <c r="DD5" s="38"/>
+      <c r="DE5" s="38"/>
+      <c r="DF5" s="38">
         <v>2007</v>
       </c>
-      <c r="DG5" s="33"/>
-      <c r="DH5" s="33"/>
-      <c r="DI5" s="33"/>
-      <c r="DJ5" s="33"/>
-      <c r="DK5" s="33"/>
-      <c r="DL5" s="33"/>
-      <c r="DM5" s="33"/>
-      <c r="DN5" s="33"/>
-      <c r="DO5" s="33"/>
-      <c r="DP5" s="33"/>
-      <c r="DQ5" s="33"/>
-      <c r="DR5" s="33">
+      <c r="DG5" s="38"/>
+      <c r="DH5" s="38"/>
+      <c r="DI5" s="38"/>
+      <c r="DJ5" s="38"/>
+      <c r="DK5" s="38"/>
+      <c r="DL5" s="38"/>
+      <c r="DM5" s="38"/>
+      <c r="DN5" s="38"/>
+      <c r="DO5" s="38"/>
+      <c r="DP5" s="38"/>
+      <c r="DQ5" s="38"/>
+      <c r="DR5" s="38">
         <v>2008</v>
       </c>
-      <c r="DS5" s="33"/>
-      <c r="DT5" s="33"/>
-      <c r="DU5" s="33"/>
-      <c r="DV5" s="33"/>
-      <c r="DW5" s="33"/>
-      <c r="DX5" s="33"/>
-      <c r="DY5" s="33"/>
-      <c r="DZ5" s="33"/>
-      <c r="EA5" s="33"/>
-      <c r="EB5" s="33"/>
-      <c r="EC5" s="33"/>
-      <c r="ED5" s="33">
+      <c r="DS5" s="38"/>
+      <c r="DT5" s="38"/>
+      <c r="DU5" s="38"/>
+      <c r="DV5" s="38"/>
+      <c r="DW5" s="38"/>
+      <c r="DX5" s="38"/>
+      <c r="DY5" s="38"/>
+      <c r="DZ5" s="38"/>
+      <c r="EA5" s="38"/>
+      <c r="EB5" s="38"/>
+      <c r="EC5" s="38"/>
+      <c r="ED5" s="38">
         <v>2009</v>
       </c>
-      <c r="EE5" s="33"/>
-      <c r="EF5" s="33"/>
-      <c r="EG5" s="33"/>
-      <c r="EH5" s="33"/>
-      <c r="EI5" s="33"/>
-      <c r="EJ5" s="33"/>
-      <c r="EK5" s="33"/>
-      <c r="EL5" s="33"/>
-      <c r="EM5" s="33"/>
-      <c r="EN5" s="33"/>
-      <c r="EO5" s="33"/>
-      <c r="EP5" s="33">
+      <c r="EE5" s="38"/>
+      <c r="EF5" s="38"/>
+      <c r="EG5" s="38"/>
+      <c r="EH5" s="38"/>
+      <c r="EI5" s="38"/>
+      <c r="EJ5" s="38"/>
+      <c r="EK5" s="38"/>
+      <c r="EL5" s="38"/>
+      <c r="EM5" s="38"/>
+      <c r="EN5" s="38"/>
+      <c r="EO5" s="38"/>
+      <c r="EP5" s="38">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="33"/>
-      <c r="ER5" s="33"/>
-      <c r="ES5" s="33"/>
-      <c r="ET5" s="33"/>
-      <c r="EU5" s="33"/>
-      <c r="EV5" s="33"/>
-      <c r="EW5" s="33"/>
-      <c r="EX5" s="33"/>
-      <c r="EY5" s="33"/>
-      <c r="EZ5" s="33"/>
-      <c r="FA5" s="33"/>
-      <c r="FB5" s="33">
+      <c r="EQ5" s="38"/>
+      <c r="ER5" s="38"/>
+      <c r="ES5" s="38"/>
+      <c r="ET5" s="38"/>
+      <c r="EU5" s="38"/>
+      <c r="EV5" s="38"/>
+      <c r="EW5" s="38"/>
+      <c r="EX5" s="38"/>
+      <c r="EY5" s="38"/>
+      <c r="EZ5" s="38"/>
+      <c r="FA5" s="38"/>
+      <c r="FB5" s="38">
         <v>2011</v>
       </c>
-      <c r="FC5" s="33"/>
-      <c r="FD5" s="33"/>
-      <c r="FE5" s="33"/>
-      <c r="FF5" s="33"/>
-      <c r="FG5" s="33"/>
-      <c r="FH5" s="33"/>
-      <c r="FI5" s="33"/>
-      <c r="FJ5" s="33"/>
-      <c r="FK5" s="33"/>
-      <c r="FL5" s="33"/>
-      <c r="FM5" s="33"/>
-      <c r="FN5" s="33">
+      <c r="FC5" s="38"/>
+      <c r="FD5" s="38"/>
+      <c r="FE5" s="38"/>
+      <c r="FF5" s="38"/>
+      <c r="FG5" s="38"/>
+      <c r="FH5" s="38"/>
+      <c r="FI5" s="38"/>
+      <c r="FJ5" s="38"/>
+      <c r="FK5" s="38"/>
+      <c r="FL5" s="38"/>
+      <c r="FM5" s="38"/>
+      <c r="FN5" s="38">
         <v>2012</v>
       </c>
-      <c r="FO5" s="33"/>
-      <c r="FP5" s="33"/>
-      <c r="FQ5" s="33"/>
-      <c r="FR5" s="33"/>
-      <c r="FS5" s="33"/>
-      <c r="FT5" s="33"/>
-      <c r="FU5" s="33"/>
-      <c r="FV5" s="33"/>
-      <c r="FW5" s="33"/>
-      <c r="FX5" s="33"/>
-      <c r="FY5" s="33"/>
-      <c r="FZ5" s="33">
+      <c r="FO5" s="38"/>
+      <c r="FP5" s="38"/>
+      <c r="FQ5" s="38"/>
+      <c r="FR5" s="38"/>
+      <c r="FS5" s="38"/>
+      <c r="FT5" s="38"/>
+      <c r="FU5" s="38"/>
+      <c r="FV5" s="38"/>
+      <c r="FW5" s="38"/>
+      <c r="FX5" s="38"/>
+      <c r="FY5" s="38"/>
+      <c r="FZ5" s="38">
         <v>2013</v>
       </c>
-      <c r="GA5" s="33"/>
-      <c r="GB5" s="33"/>
-      <c r="GC5" s="33"/>
-      <c r="GD5" s="33"/>
-      <c r="GE5" s="33"/>
-      <c r="GF5" s="33"/>
-      <c r="GG5" s="33"/>
-      <c r="GH5" s="33"/>
-      <c r="GI5" s="33"/>
-      <c r="GJ5" s="33"/>
-      <c r="GK5" s="33"/>
-      <c r="GL5" s="33">
+      <c r="GA5" s="38"/>
+      <c r="GB5" s="38"/>
+      <c r="GC5" s="38"/>
+      <c r="GD5" s="38"/>
+      <c r="GE5" s="38"/>
+      <c r="GF5" s="38"/>
+      <c r="GG5" s="38"/>
+      <c r="GH5" s="38"/>
+      <c r="GI5" s="38"/>
+      <c r="GJ5" s="38"/>
+      <c r="GK5" s="38"/>
+      <c r="GL5" s="38">
         <v>2014</v>
       </c>
-      <c r="GM5" s="33"/>
-      <c r="GN5" s="33"/>
-      <c r="GO5" s="33"/>
-      <c r="GP5" s="33"/>
-      <c r="GQ5" s="33"/>
-      <c r="GR5" s="33"/>
-      <c r="GS5" s="33"/>
-      <c r="GT5" s="33"/>
-      <c r="GU5" s="33"/>
-      <c r="GV5" s="33"/>
-      <c r="GW5" s="33"/>
-      <c r="GX5" s="33">
+      <c r="GM5" s="38"/>
+      <c r="GN5" s="38"/>
+      <c r="GO5" s="38"/>
+      <c r="GP5" s="38"/>
+      <c r="GQ5" s="38"/>
+      <c r="GR5" s="38"/>
+      <c r="GS5" s="38"/>
+      <c r="GT5" s="38"/>
+      <c r="GU5" s="38"/>
+      <c r="GV5" s="38"/>
+      <c r="GW5" s="38"/>
+      <c r="GX5" s="38">
         <v>2015</v>
       </c>
-      <c r="GY5" s="33"/>
-      <c r="GZ5" s="33"/>
-      <c r="HA5" s="33"/>
-      <c r="HB5" s="33"/>
-      <c r="HC5" s="33"/>
-      <c r="HD5" s="33"/>
-      <c r="HE5" s="33"/>
-      <c r="HF5" s="33"/>
-      <c r="HG5" s="33"/>
-      <c r="HH5" s="33"/>
-      <c r="HI5" s="33"/>
-      <c r="HJ5" s="33">
+      <c r="GY5" s="38"/>
+      <c r="GZ5" s="38"/>
+      <c r="HA5" s="38"/>
+      <c r="HB5" s="38"/>
+      <c r="HC5" s="38"/>
+      <c r="HD5" s="38"/>
+      <c r="HE5" s="38"/>
+      <c r="HF5" s="38"/>
+      <c r="HG5" s="38"/>
+      <c r="HH5" s="38"/>
+      <c r="HI5" s="38"/>
+      <c r="HJ5" s="38">
         <v>2016</v>
       </c>
-      <c r="HK5" s="33"/>
-      <c r="HL5" s="33"/>
-      <c r="HM5" s="33"/>
-      <c r="HN5" s="33"/>
-      <c r="HO5" s="33"/>
-      <c r="HP5" s="33"/>
-      <c r="HQ5" s="33"/>
-      <c r="HR5" s="33"/>
-      <c r="HS5" s="33"/>
-      <c r="HT5" s="33"/>
-      <c r="HU5" s="33"/>
-      <c r="HV5" s="33">
+      <c r="HK5" s="38"/>
+      <c r="HL5" s="38"/>
+      <c r="HM5" s="38"/>
+      <c r="HN5" s="38"/>
+      <c r="HO5" s="38"/>
+      <c r="HP5" s="38"/>
+      <c r="HQ5" s="38"/>
+      <c r="HR5" s="38"/>
+      <c r="HS5" s="38"/>
+      <c r="HT5" s="38"/>
+      <c r="HU5" s="38"/>
+      <c r="HV5" s="38">
         <v>2017</v>
       </c>
-      <c r="HW5" s="33"/>
-      <c r="HX5" s="33"/>
-      <c r="HY5" s="33"/>
-      <c r="HZ5" s="33"/>
-      <c r="IA5" s="33"/>
-      <c r="IB5" s="33"/>
-      <c r="IC5" s="33"/>
-      <c r="ID5" s="33"/>
-      <c r="IE5" s="33"/>
-      <c r="IF5" s="33"/>
-      <c r="IG5" s="33"/>
-      <c r="IH5" s="33">
+      <c r="HW5" s="38"/>
+      <c r="HX5" s="38"/>
+      <c r="HY5" s="38"/>
+      <c r="HZ5" s="38"/>
+      <c r="IA5" s="38"/>
+      <c r="IB5" s="38"/>
+      <c r="IC5" s="38"/>
+      <c r="ID5" s="38"/>
+      <c r="IE5" s="38"/>
+      <c r="IF5" s="38"/>
+      <c r="IG5" s="38"/>
+      <c r="IH5" s="38">
         <v>2018</v>
       </c>
-      <c r="II5" s="33"/>
-      <c r="IJ5" s="33"/>
-      <c r="IK5" s="33"/>
-      <c r="IL5" s="33"/>
-      <c r="IM5" s="33"/>
-      <c r="IN5" s="33"/>
-      <c r="IO5" s="33"/>
-      <c r="IP5" s="33"/>
-      <c r="IQ5" s="33"/>
-      <c r="IR5" s="33"/>
-      <c r="IS5" s="33"/>
-      <c r="IT5" s="33">
+      <c r="II5" s="38"/>
+      <c r="IJ5" s="38"/>
+      <c r="IK5" s="38"/>
+      <c r="IL5" s="38"/>
+      <c r="IM5" s="38"/>
+      <c r="IN5" s="38"/>
+      <c r="IO5" s="38"/>
+      <c r="IP5" s="38"/>
+      <c r="IQ5" s="38"/>
+      <c r="IR5" s="38"/>
+      <c r="IS5" s="38"/>
+      <c r="IT5" s="38">
         <v>2019</v>
       </c>
-      <c r="IU5" s="33"/>
-      <c r="IV5" s="33"/>
-      <c r="IW5" s="33"/>
-      <c r="IX5" s="33"/>
-      <c r="IY5" s="33"/>
-      <c r="IZ5" s="33"/>
-      <c r="JA5" s="33"/>
-      <c r="JB5" s="33"/>
-      <c r="JC5" s="33"/>
-      <c r="JD5" s="33"/>
-      <c r="JE5" s="33"/>
-      <c r="JF5" s="33">
+      <c r="IU5" s="38"/>
+      <c r="IV5" s="38"/>
+      <c r="IW5" s="38"/>
+      <c r="IX5" s="38"/>
+      <c r="IY5" s="38"/>
+      <c r="IZ5" s="38"/>
+      <c r="JA5" s="38"/>
+      <c r="JB5" s="38"/>
+      <c r="JC5" s="38"/>
+      <c r="JD5" s="38"/>
+      <c r="JE5" s="38"/>
+      <c r="JF5" s="38">
         <v>2020</v>
       </c>
-      <c r="JG5" s="33"/>
-      <c r="JH5" s="33"/>
-      <c r="JI5" s="33"/>
-      <c r="JJ5" s="33"/>
-      <c r="JK5" s="33"/>
-      <c r="JL5" s="33"/>
-      <c r="JM5" s="33"/>
-      <c r="JN5" s="33"/>
-      <c r="JO5" s="33"/>
-      <c r="JP5" s="33"/>
-      <c r="JQ5" s="33"/>
-      <c r="JR5" s="33">
+      <c r="JG5" s="38"/>
+      <c r="JH5" s="38"/>
+      <c r="JI5" s="38"/>
+      <c r="JJ5" s="38"/>
+      <c r="JK5" s="38"/>
+      <c r="JL5" s="38"/>
+      <c r="JM5" s="38"/>
+      <c r="JN5" s="38"/>
+      <c r="JO5" s="38"/>
+      <c r="JP5" s="38"/>
+      <c r="JQ5" s="38"/>
+      <c r="JR5" s="38">
         <v>2021</v>
       </c>
-      <c r="JS5" s="33"/>
-      <c r="JT5" s="33"/>
-      <c r="JU5" s="33"/>
-      <c r="JV5" s="33"/>
-      <c r="JW5" s="33"/>
-      <c r="JX5" s="33"/>
-      <c r="JY5" s="33"/>
-      <c r="JZ5" s="33"/>
-      <c r="KA5" s="33"/>
-      <c r="KB5" s="33"/>
-      <c r="KC5" s="34"/>
-      <c r="KD5" s="34">
+      <c r="JS5" s="38"/>
+      <c r="JT5" s="38"/>
+      <c r="JU5" s="38"/>
+      <c r="JV5" s="38"/>
+      <c r="JW5" s="38"/>
+      <c r="JX5" s="38"/>
+      <c r="JY5" s="38"/>
+      <c r="JZ5" s="38"/>
+      <c r="KA5" s="38"/>
+      <c r="KB5" s="38"/>
+      <c r="KC5" s="35"/>
+      <c r="KD5" s="35">
         <v>2022</v>
       </c>
-      <c r="KE5" s="35"/>
-      <c r="KF5" s="35"/>
-      <c r="KG5" s="35"/>
-      <c r="KH5" s="35"/>
-      <c r="KI5" s="35"/>
-      <c r="KJ5" s="35"/>
-      <c r="KK5" s="35"/>
-      <c r="KL5" s="35"/>
-      <c r="KM5" s="35"/>
-      <c r="KN5" s="35"/>
-      <c r="KO5" s="36"/>
-      <c r="KP5" s="34">
+      <c r="KE5" s="36"/>
+      <c r="KF5" s="36"/>
+      <c r="KG5" s="36"/>
+      <c r="KH5" s="36"/>
+      <c r="KI5" s="36"/>
+      <c r="KJ5" s="36"/>
+      <c r="KK5" s="36"/>
+      <c r="KL5" s="36"/>
+      <c r="KM5" s="36"/>
+      <c r="KN5" s="36"/>
+      <c r="KO5" s="37"/>
+      <c r="KP5" s="35">
         <v>2023</v>
       </c>
-      <c r="KQ5" s="35"/>
-      <c r="KR5" s="35"/>
-      <c r="KS5" s="35"/>
-      <c r="KT5" s="35"/>
-      <c r="KU5" s="35"/>
-      <c r="KV5" s="35"/>
-      <c r="KW5" s="35"/>
-      <c r="KX5" s="35"/>
-      <c r="KY5" s="35"/>
-      <c r="KZ5" s="35"/>
-      <c r="LA5" s="35"/>
-      <c r="LB5" s="34">
+      <c r="KQ5" s="36"/>
+      <c r="KR5" s="36"/>
+      <c r="KS5" s="36"/>
+      <c r="KT5" s="36"/>
+      <c r="KU5" s="36"/>
+      <c r="KV5" s="36"/>
+      <c r="KW5" s="36"/>
+      <c r="KX5" s="36"/>
+      <c r="KY5" s="36"/>
+      <c r="KZ5" s="36"/>
+      <c r="LA5" s="36"/>
+      <c r="LB5" s="35">
         <v>2024</v>
       </c>
-      <c r="LC5" s="35"/>
-      <c r="LD5" s="35"/>
-      <c r="LE5" s="35"/>
+      <c r="LC5" s="36"/>
+      <c r="LD5" s="36"/>
+      <c r="LE5" s="36"/>
       <c r="LF5" s="36"/>
+      <c r="LG5" s="37"/>
     </row>
-    <row r="6" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+    <row r="6" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2212,23 +2207,26 @@
       <c r="LA6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="LB6" s="40" t="s">
+      <c r="LB6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="LC6" s="41" t="s">
+      <c r="LC6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="LD6" s="42" t="s">
+      <c r="LD6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="LE6" s="42" t="s">
+      <c r="LE6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="LF6" s="43" t="s">
+      <c r="LF6" s="40" t="s">
         <v>15</v>
       </c>
+      <c r="LG6" s="41" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3169,7 @@
       <c r="LB7" s="15">
         <v>1184975</v>
       </c>
-      <c r="LC7" s="37">
+      <c r="LC7" s="32">
         <v>1189247</v>
       </c>
       <c r="LD7" s="3">
@@ -3180,11 +3178,15 @@
       <c r="LE7" s="3">
         <v>1190807</v>
       </c>
-      <c r="LF7" s="4">
+      <c r="LF7" s="3">
         <v>1186510</v>
       </c>
+      <c r="LG7" s="4">
+        <f>SUM(LG8:LG16)</f>
+        <v>1185336</v>
+      </c>
     </row>
-    <row r="8" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4127,7 +4129,7 @@
       <c r="LB8" s="16">
         <v>234497</v>
       </c>
-      <c r="LC8" s="38">
+      <c r="LC8" s="33">
         <v>236086</v>
       </c>
       <c r="LD8" s="30">
@@ -4136,11 +4138,14 @@
       <c r="LE8" s="30">
         <v>237401</v>
       </c>
-      <c r="LF8" s="6">
+      <c r="LF8" s="30">
         <v>236997</v>
       </c>
+      <c r="LG8" s="6">
+        <v>237214</v>
+      </c>
     </row>
-    <row r="9" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -5083,7 +5088,7 @@
       <c r="LB9" s="16">
         <v>29931</v>
       </c>
-      <c r="LC9" s="38">
+      <c r="LC9" s="33">
         <v>30612</v>
       </c>
       <c r="LD9" s="30">
@@ -5092,11 +5097,14 @@
       <c r="LE9" s="30">
         <v>30131</v>
       </c>
-      <c r="LF9" s="6">
+      <c r="LF9" s="30">
         <v>29587</v>
       </c>
+      <c r="LG9" s="6">
+        <v>30031</v>
+      </c>
     </row>
-    <row r="10" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -6039,7 +6047,7 @@
       <c r="LB10" s="16">
         <v>139767</v>
       </c>
-      <c r="LC10" s="38">
+      <c r="LC10" s="33">
         <v>140249</v>
       </c>
       <c r="LD10" s="30">
@@ -6048,11 +6056,14 @@
       <c r="LE10" s="30">
         <v>140339</v>
       </c>
-      <c r="LF10" s="6">
+      <c r="LF10" s="30">
         <v>139687</v>
       </c>
+      <c r="LG10" s="6">
+        <v>140237</v>
+      </c>
     </row>
-    <row r="11" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -6995,7 +7006,7 @@
       <c r="LB11" s="16">
         <v>179835</v>
       </c>
-      <c r="LC11" s="38">
+      <c r="LC11" s="33">
         <v>180050</v>
       </c>
       <c r="LD11" s="30">
@@ -7004,11 +7015,14 @@
       <c r="LE11" s="30">
         <v>180228</v>
       </c>
-      <c r="LF11" s="6">
+      <c r="LF11" s="30">
         <v>179743</v>
       </c>
+      <c r="LG11" s="6">
+        <v>178903</v>
+      </c>
     </row>
-    <row r="12" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7951,7 +7965,7 @@
       <c r="LB12" s="16">
         <v>178699</v>
       </c>
-      <c r="LC12" s="38">
+      <c r="LC12" s="33">
         <v>178990</v>
       </c>
       <c r="LD12" s="30">
@@ -7960,11 +7974,14 @@
       <c r="LE12" s="30">
         <v>179173</v>
       </c>
-      <c r="LF12" s="6">
+      <c r="LF12" s="30">
         <v>178504</v>
       </c>
+      <c r="LG12" s="6">
+        <v>177730</v>
+      </c>
     </row>
-    <row r="13" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8907,7 +8924,7 @@
       <c r="LB13" s="16">
         <v>157563</v>
       </c>
-      <c r="LC13" s="38">
+      <c r="LC13" s="33">
         <v>157602</v>
       </c>
       <c r="LD13" s="30">
@@ -8916,11 +8933,14 @@
       <c r="LE13" s="30">
         <v>157778</v>
       </c>
-      <c r="LF13" s="6">
+      <c r="LF13" s="30">
         <v>157174</v>
       </c>
+      <c r="LG13" s="6">
+        <v>156752</v>
+      </c>
     </row>
-    <row r="14" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9863,7 +9883,7 @@
       <c r="LB14" s="16">
         <v>141223</v>
       </c>
-      <c r="LC14" s="38">
+      <c r="LC14" s="33">
         <v>141869</v>
       </c>
       <c r="LD14" s="30">
@@ -9872,11 +9892,14 @@
       <c r="LE14" s="30">
         <v>142003</v>
       </c>
-      <c r="LF14" s="6">
+      <c r="LF14" s="30">
         <v>141560</v>
       </c>
+      <c r="LG14" s="6">
+        <v>141308</v>
+      </c>
     </row>
-    <row r="15" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10819,7 +10842,7 @@
       <c r="LB15" s="16">
         <v>123437</v>
       </c>
-      <c r="LC15" s="38">
+      <c r="LC15" s="33">
         <v>123766</v>
       </c>
       <c r="LD15" s="30">
@@ -10828,11 +10851,14 @@
       <c r="LE15" s="30">
         <v>123728</v>
       </c>
-      <c r="LF15" s="6">
+      <c r="LF15" s="30">
         <v>123231</v>
       </c>
+      <c r="LG15" s="6">
+        <v>123140</v>
+      </c>
     </row>
-    <row r="16" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11775,7 +11801,7 @@
       <c r="LB16" s="17">
         <v>23</v>
       </c>
-      <c r="LC16" s="39">
+      <c r="LC16" s="34">
         <v>23</v>
       </c>
       <c r="LD16" s="7">
@@ -11784,11 +11810,14 @@
       <c r="LE16" s="7">
         <v>26</v>
       </c>
-      <c r="LF16" s="8">
+      <c r="LF16" s="7">
         <v>27</v>
       </c>
+      <c r="LG16" s="8">
+        <v>21</v>
+      </c>
     </row>
-    <row r="17" spans="1:318" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12731,7 +12760,7 @@
       <c r="LB17" s="15">
         <v>824878</v>
       </c>
-      <c r="LC17" s="37">
+      <c r="LC17" s="32">
         <v>828632</v>
       </c>
       <c r="LD17" s="3">
@@ -12740,11 +12769,15 @@
       <c r="LE17" s="3">
         <v>832587</v>
       </c>
-      <c r="LF17" s="4">
+      <c r="LF17" s="3">
         <v>837088</v>
       </c>
+      <c r="LG17" s="4">
+        <f>SUM(LG18:LG26)</f>
+        <v>837972</v>
+      </c>
     </row>
-    <row r="18" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13687,7 +13720,7 @@
       <c r="LB18" s="16">
         <v>148445</v>
       </c>
-      <c r="LC18" s="38">
+      <c r="LC18" s="33">
         <v>149478</v>
       </c>
       <c r="LD18" s="30">
@@ -13696,11 +13729,14 @@
       <c r="LE18" s="30">
         <v>151078</v>
       </c>
-      <c r="LF18" s="6">
+      <c r="LF18" s="30">
         <v>152165</v>
       </c>
+      <c r="LG18" s="6">
+        <v>152344</v>
+      </c>
     </row>
-    <row r="19" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14643,7 +14679,7 @@
       <c r="LB19" s="16">
         <v>17671</v>
       </c>
-      <c r="LC19" s="38">
+      <c r="LC19" s="33">
         <v>18139</v>
       </c>
       <c r="LD19" s="30">
@@ -14652,11 +14688,14 @@
       <c r="LE19" s="30">
         <v>17593</v>
       </c>
-      <c r="LF19" s="6">
+      <c r="LF19" s="30">
         <v>17651</v>
       </c>
+      <c r="LG19" s="6">
+        <v>18155</v>
+      </c>
     </row>
-    <row r="20" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15599,7 +15638,7 @@
       <c r="LB20" s="16">
         <v>97650</v>
       </c>
-      <c r="LC20" s="38">
+      <c r="LC20" s="33">
         <v>98059</v>
       </c>
       <c r="LD20" s="30">
@@ -15608,11 +15647,14 @@
       <c r="LE20" s="30">
         <v>98761</v>
       </c>
-      <c r="LF20" s="6">
+      <c r="LF20" s="30">
         <v>99477</v>
       </c>
+      <c r="LG20" s="6">
+        <v>100348</v>
+      </c>
     </row>
-    <row r="21" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16555,7 +16597,7 @@
       <c r="LB21" s="16">
         <v>132435</v>
       </c>
-      <c r="LC21" s="38">
+      <c r="LC21" s="33">
         <v>132706</v>
       </c>
       <c r="LD21" s="30">
@@ -16564,11 +16606,14 @@
       <c r="LE21" s="30">
         <v>133325</v>
       </c>
-      <c r="LF21" s="6">
+      <c r="LF21" s="30">
         <v>133868</v>
       </c>
+      <c r="LG21" s="6">
+        <v>133524</v>
+      </c>
     </row>
-    <row r="22" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17511,7 +17556,7 @@
       <c r="LB22" s="16">
         <v>125760</v>
       </c>
-      <c r="LC22" s="38">
+      <c r="LC22" s="33">
         <v>126102</v>
       </c>
       <c r="LD22" s="30">
@@ -17520,11 +17565,14 @@
       <c r="LE22" s="30">
         <v>126714</v>
       </c>
-      <c r="LF22" s="6">
+      <c r="LF22" s="30">
         <v>127337</v>
       </c>
+      <c r="LG22" s="6">
+        <v>127402</v>
+      </c>
     </row>
-    <row r="23" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18467,7 +18515,7 @@
       <c r="LB23" s="16">
         <v>113324</v>
       </c>
-      <c r="LC23" s="38">
+      <c r="LC23" s="33">
         <v>113663</v>
       </c>
       <c r="LD23" s="30">
@@ -18476,11 +18524,14 @@
       <c r="LE23" s="30">
         <v>114105</v>
       </c>
-      <c r="LF23" s="6">
+      <c r="LF23" s="30">
         <v>114498</v>
       </c>
+      <c r="LG23" s="6">
+        <v>114227</v>
+      </c>
     </row>
-    <row r="24" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19423,7 +19474,7 @@
       <c r="LB24" s="16">
         <v>102386</v>
       </c>
-      <c r="LC24" s="38">
+      <c r="LC24" s="33">
         <v>102776</v>
       </c>
       <c r="LD24" s="30">
@@ -19432,11 +19483,14 @@
       <c r="LE24" s="30">
         <v>103281</v>
       </c>
-      <c r="LF24" s="6">
+      <c r="LF24" s="30">
         <v>103812</v>
       </c>
+      <c r="LG24" s="6">
+        <v>103776</v>
+      </c>
     </row>
-    <row r="25" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20379,7 +20433,7 @@
       <c r="LB25" s="16">
         <v>87202</v>
       </c>
-      <c r="LC25" s="38">
+      <c r="LC25" s="33">
         <v>87703</v>
       </c>
       <c r="LD25" s="30">
@@ -20388,11 +20442,14 @@
       <c r="LE25" s="30">
         <v>87725</v>
       </c>
-      <c r="LF25" s="6">
+      <c r="LF25" s="30">
         <v>88275</v>
       </c>
+      <c r="LG25" s="6">
+        <v>88189</v>
+      </c>
     </row>
-    <row r="26" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -21335,7 +21392,7 @@
       <c r="LB26" s="17">
         <v>5</v>
       </c>
-      <c r="LC26" s="39">
+      <c r="LC26" s="34">
         <v>6</v>
       </c>
       <c r="LD26" s="7">
@@ -21344,11 +21401,14 @@
       <c r="LE26" s="7">
         <v>5</v>
       </c>
-      <c r="LF26" s="8">
+      <c r="LF26" s="7">
         <v>5</v>
       </c>
+      <c r="LG26" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -22300,11 +22360,15 @@
       <c r="LE27" s="9">
         <v>2023394</v>
       </c>
-      <c r="LF27" s="10">
+      <c r="LF27" s="9">
         <v>2023598</v>
       </c>
+      <c r="LG27" s="10">
+        <f>SUM(LG28:LG36)</f>
+        <v>2023308</v>
+      </c>
     </row>
-    <row r="28" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23531,7 +23595,7 @@
       <c r="LB28" s="16">
         <v>382942</v>
       </c>
-      <c r="LC28" s="38">
+      <c r="LC28" s="33">
         <v>385564</v>
       </c>
       <c r="LD28" s="30">
@@ -23540,11 +23604,14 @@
       <c r="LE28" s="30">
         <v>388479</v>
       </c>
-      <c r="LF28" s="6">
+      <c r="LF28" s="30">
         <v>389162</v>
       </c>
+      <c r="LG28" s="6">
+        <v>389558</v>
+      </c>
     </row>
-    <row r="29" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24771,7 +24838,7 @@
       <c r="LB29" s="16">
         <v>47602</v>
       </c>
-      <c r="LC29" s="38">
+      <c r="LC29" s="33">
         <v>48751</v>
       </c>
       <c r="LD29" s="30">
@@ -24780,11 +24847,14 @@
       <c r="LE29" s="30">
         <v>47724</v>
       </c>
-      <c r="LF29" s="6">
+      <c r="LF29" s="30">
         <v>47238</v>
       </c>
+      <c r="LG29" s="6">
+        <v>48186</v>
+      </c>
     </row>
-    <row r="30" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -26011,7 +26081,7 @@
       <c r="LB30" s="16">
         <v>237417</v>
       </c>
-      <c r="LC30" s="38">
+      <c r="LC30" s="33">
         <v>238308</v>
       </c>
       <c r="LD30" s="30">
@@ -26020,11 +26090,14 @@
       <c r="LE30" s="30">
         <v>239100</v>
       </c>
-      <c r="LF30" s="6">
+      <c r="LF30" s="30">
         <v>239164</v>
       </c>
+      <c r="LG30" s="6">
+        <v>240585</v>
+      </c>
     </row>
-    <row r="31" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -27251,7 +27324,7 @@
       <c r="LB31" s="16">
         <v>312270</v>
       </c>
-      <c r="LC31" s="38">
+      <c r="LC31" s="33">
         <v>312756</v>
       </c>
       <c r="LD31" s="30">
@@ -27260,11 +27333,14 @@
       <c r="LE31" s="30">
         <v>313553</v>
       </c>
-      <c r="LF31" s="6">
+      <c r="LF31" s="30">
         <v>313611</v>
       </c>
+      <c r="LG31" s="6">
+        <v>312427</v>
+      </c>
     </row>
-    <row r="32" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28491,7 +28567,7 @@
       <c r="LB32" s="16">
         <v>304459</v>
       </c>
-      <c r="LC32" s="38">
+      <c r="LC32" s="33">
         <v>305092</v>
       </c>
       <c r="LD32" s="30">
@@ -28500,11 +28576,14 @@
       <c r="LE32" s="30">
         <v>305887</v>
       </c>
-      <c r="LF32" s="6">
+      <c r="LF32" s="30">
         <v>305841</v>
       </c>
+      <c r="LG32" s="6">
+        <v>305132</v>
+      </c>
     </row>
-    <row r="33" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29731,7 +29810,7 @@
       <c r="LB33" s="16">
         <v>270887</v>
       </c>
-      <c r="LC33" s="38">
+      <c r="LC33" s="33">
         <v>271265</v>
       </c>
       <c r="LD33" s="30">
@@ -29740,11 +29819,14 @@
       <c r="LE33" s="30">
         <v>271883</v>
       </c>
-      <c r="LF33" s="6">
+      <c r="LF33" s="30">
         <v>271672</v>
       </c>
+      <c r="LG33" s="6">
+        <v>270979</v>
+      </c>
     </row>
-    <row r="34" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -30971,7 +31053,7 @@
       <c r="LB34" s="16">
         <v>243609</v>
       </c>
-      <c r="LC34" s="38">
+      <c r="LC34" s="33">
         <v>244645</v>
       </c>
       <c r="LD34" s="30">
@@ -30980,11 +31062,14 @@
       <c r="LE34" s="30">
         <v>245284</v>
       </c>
-      <c r="LF34" s="6">
+      <c r="LF34" s="30">
         <v>245372</v>
       </c>
+      <c r="LG34" s="6">
+        <v>245084</v>
+      </c>
     </row>
-    <row r="35" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -32211,7 +32296,7 @@
       <c r="LB35" s="16">
         <v>210639</v>
       </c>
-      <c r="LC35" s="38">
+      <c r="LC35" s="33">
         <v>211469</v>
       </c>
       <c r="LD35" s="30">
@@ -32220,11 +32305,14 @@
       <c r="LE35" s="30">
         <v>211453</v>
       </c>
-      <c r="LF35" s="6">
+      <c r="LF35" s="30">
         <v>211506</v>
       </c>
+      <c r="LG35" s="6">
+        <v>211329</v>
+      </c>
     </row>
-    <row r="36" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -33451,7 +33539,7 @@
       <c r="LB36" s="17">
         <v>28</v>
       </c>
-      <c r="LC36" s="39">
+      <c r="LC36" s="34">
         <v>29</v>
       </c>
       <c r="LD36" s="7">
@@ -33460,11 +33548,14 @@
       <c r="LE36" s="7">
         <v>31</v>
       </c>
-      <c r="LF36" s="8">
+      <c r="LF36" s="7">
         <v>32</v>
       </c>
+      <c r="LG36" s="8">
+        <v>28</v>
+      </c>
     </row>
-    <row r="37" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:319" x14ac:dyDescent="0.25">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -33480,25 +33571,13 @@
       <c r="LB37" s="5"/>
       <c r="LC37" s="5"/>
     </row>
-    <row r="38" spans="1:318" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:319" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="KP5:LA5"/>
-    <mergeCell ref="KD5:KO5"/>
-    <mergeCell ref="LB5:LF5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -33515,6 +33594,18 @@
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
     <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="KP5:LA5"/>
+    <mergeCell ref="KD5:KO5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
+    <mergeCell ref="LB5:LG5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4629E96-4701-406C-97D8-EE1699BA42CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CDF41C-4EE3-45B3-AC8F-57B47214319C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="30">
   <si>
     <t>Hombre</t>
   </si>
@@ -131,7 +131,10 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - junio 2024</t>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Enero 1998 - julio 2024</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -428,6 +431,18 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,16 +452,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LG38"/>
+  <dimension ref="A1:LH38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KW1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="KZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -875,25 +884,25 @@
     <col min="316" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="LD3" s="2"/>
     </row>
-    <row r="4" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="4" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="38">
@@ -1231,46 +1240,47 @@
       <c r="JZ5" s="38"/>
       <c r="KA5" s="38"/>
       <c r="KB5" s="38"/>
-      <c r="KC5" s="35"/>
-      <c r="KD5" s="35">
+      <c r="KC5" s="39"/>
+      <c r="KD5" s="39">
         <v>2022</v>
       </c>
-      <c r="KE5" s="36"/>
-      <c r="KF5" s="36"/>
-      <c r="KG5" s="36"/>
-      <c r="KH5" s="36"/>
-      <c r="KI5" s="36"/>
-      <c r="KJ5" s="36"/>
-      <c r="KK5" s="36"/>
-      <c r="KL5" s="36"/>
-      <c r="KM5" s="36"/>
-      <c r="KN5" s="36"/>
-      <c r="KO5" s="37"/>
-      <c r="KP5" s="35">
+      <c r="KE5" s="40"/>
+      <c r="KF5" s="40"/>
+      <c r="KG5" s="40"/>
+      <c r="KH5" s="40"/>
+      <c r="KI5" s="40"/>
+      <c r="KJ5" s="40"/>
+      <c r="KK5" s="40"/>
+      <c r="KL5" s="40"/>
+      <c r="KM5" s="40"/>
+      <c r="KN5" s="40"/>
+      <c r="KO5" s="41"/>
+      <c r="KP5" s="39">
         <v>2023</v>
       </c>
-      <c r="KQ5" s="36"/>
-      <c r="KR5" s="36"/>
-      <c r="KS5" s="36"/>
-      <c r="KT5" s="36"/>
-      <c r="KU5" s="36"/>
-      <c r="KV5" s="36"/>
-      <c r="KW5" s="36"/>
-      <c r="KX5" s="36"/>
-      <c r="KY5" s="36"/>
-      <c r="KZ5" s="36"/>
-      <c r="LA5" s="36"/>
-      <c r="LB5" s="35">
+      <c r="KQ5" s="40"/>
+      <c r="KR5" s="40"/>
+      <c r="KS5" s="40"/>
+      <c r="KT5" s="40"/>
+      <c r="KU5" s="40"/>
+      <c r="KV5" s="40"/>
+      <c r="KW5" s="40"/>
+      <c r="KX5" s="40"/>
+      <c r="KY5" s="40"/>
+      <c r="KZ5" s="40"/>
+      <c r="LA5" s="40"/>
+      <c r="LB5" s="42">
         <v>2024</v>
       </c>
-      <c r="LC5" s="36"/>
-      <c r="LD5" s="36"/>
-      <c r="LE5" s="36"/>
-      <c r="LF5" s="36"/>
-      <c r="LG5" s="37"/>
+      <c r="LC5" s="43"/>
+      <c r="LD5" s="43"/>
+      <c r="LE5" s="43"/>
+      <c r="LF5" s="43"/>
+      <c r="LG5" s="43"/>
+      <c r="LH5" s="43"/>
     </row>
-    <row r="6" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2213,20 +2223,23 @@
       <c r="LC6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="LD6" s="40" t="s">
+      <c r="LD6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="LE6" s="40" t="s">
+      <c r="LE6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="LF6" s="40" t="s">
+      <c r="LF6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="LG6" s="41" t="s">
+      <c r="LG6" s="35" t="s">
         <v>16</v>
       </c>
+      <c r="LH6" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3181,12 +3194,15 @@
       <c r="LF7" s="3">
         <v>1186510</v>
       </c>
-      <c r="LG7" s="4">
+      <c r="LG7" s="3">
         <f>SUM(LG8:LG16)</f>
         <v>1185336</v>
       </c>
+      <c r="LH7" s="4">
+        <v>1185192</v>
+      </c>
     </row>
-    <row r="8" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4141,11 +4157,14 @@
       <c r="LF8" s="30">
         <v>236997</v>
       </c>
-      <c r="LG8" s="6">
+      <c r="LG8" s="30">
         <v>237214</v>
       </c>
+      <c r="LH8" s="6">
+        <v>237495</v>
+      </c>
     </row>
-    <row r="9" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -5100,11 +5119,14 @@
       <c r="LF9" s="30">
         <v>29587</v>
       </c>
-      <c r="LG9" s="6">
+      <c r="LG9" s="30">
         <v>30031</v>
       </c>
+      <c r="LH9" s="6">
+        <v>30407</v>
+      </c>
     </row>
-    <row r="10" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -6059,11 +6081,14 @@
       <c r="LF10" s="30">
         <v>139687</v>
       </c>
-      <c r="LG10" s="6">
+      <c r="LG10" s="30">
         <v>140237</v>
       </c>
+      <c r="LH10" s="6">
+        <v>140256</v>
+      </c>
     </row>
-    <row r="11" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -7018,11 +7043,14 @@
       <c r="LF11" s="30">
         <v>179743</v>
       </c>
-      <c r="LG11" s="6">
+      <c r="LG11" s="30">
         <v>178903</v>
       </c>
+      <c r="LH11" s="6">
+        <v>179001</v>
+      </c>
     </row>
-    <row r="12" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -7977,11 +8005,14 @@
       <c r="LF12" s="30">
         <v>178504</v>
       </c>
-      <c r="LG12" s="6">
+      <c r="LG12" s="30">
         <v>177730</v>
       </c>
+      <c r="LH12" s="6">
+        <v>177538</v>
+      </c>
     </row>
-    <row r="13" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8936,11 +8967,14 @@
       <c r="LF13" s="30">
         <v>157174</v>
       </c>
-      <c r="LG13" s="6">
+      <c r="LG13" s="30">
         <v>156752</v>
       </c>
+      <c r="LH13" s="6">
+        <v>156458</v>
+      </c>
     </row>
-    <row r="14" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9895,11 +9929,14 @@
       <c r="LF14" s="30">
         <v>141560</v>
       </c>
-      <c r="LG14" s="6">
+      <c r="LG14" s="30">
         <v>141308</v>
       </c>
+      <c r="LH14" s="6">
+        <v>141245</v>
+      </c>
     </row>
-    <row r="15" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10854,11 +10891,14 @@
       <c r="LF15" s="30">
         <v>123231</v>
       </c>
-      <c r="LG15" s="6">
+      <c r="LG15" s="30">
         <v>123140</v>
       </c>
+      <c r="LH15" s="6">
+        <v>122763</v>
+      </c>
     </row>
-    <row r="16" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11813,11 +11853,14 @@
       <c r="LF16" s="7">
         <v>27</v>
       </c>
-      <c r="LG16" s="8">
+      <c r="LG16" s="7">
         <v>21</v>
       </c>
+      <c r="LH16" s="8">
+        <v>29</v>
+      </c>
     </row>
-    <row r="17" spans="1:319" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12772,12 +12815,15 @@
       <c r="LF17" s="3">
         <v>837088</v>
       </c>
-      <c r="LG17" s="4">
+      <c r="LG17" s="3">
         <f>SUM(LG18:LG26)</f>
         <v>837972</v>
       </c>
+      <c r="LH17" s="4">
+        <v>838286</v>
+      </c>
     </row>
-    <row r="18" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13732,11 +13778,14 @@
       <c r="LF18" s="30">
         <v>152165</v>
       </c>
-      <c r="LG18" s="6">
+      <c r="LG18" s="30">
         <v>152344</v>
       </c>
+      <c r="LH18" s="6">
+        <v>153104</v>
+      </c>
     </row>
-    <row r="19" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14691,11 +14740,14 @@
       <c r="LF19" s="30">
         <v>17651</v>
       </c>
-      <c r="LG19" s="6">
+      <c r="LG19" s="30">
         <v>18155</v>
       </c>
+      <c r="LH19" s="6">
+        <v>18271</v>
+      </c>
     </row>
-    <row r="20" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15650,11 +15702,14 @@
       <c r="LF20" s="30">
         <v>99477</v>
       </c>
-      <c r="LG20" s="6">
+      <c r="LG20" s="30">
         <v>100348</v>
       </c>
+      <c r="LH20" s="6">
+        <v>100133</v>
+      </c>
     </row>
-    <row r="21" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16609,11 +16664,14 @@
       <c r="LF21" s="30">
         <v>133868</v>
       </c>
-      <c r="LG21" s="6">
+      <c r="LG21" s="30">
         <v>133524</v>
       </c>
+      <c r="LH21" s="6">
+        <v>133442</v>
+      </c>
     </row>
-    <row r="22" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17568,11 +17626,14 @@
       <c r="LF22" s="30">
         <v>127337</v>
       </c>
-      <c r="LG22" s="6">
+      <c r="LG22" s="30">
         <v>127402</v>
       </c>
+      <c r="LH22" s="6">
+        <v>127308</v>
+      </c>
     </row>
-    <row r="23" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18527,11 +18588,14 @@
       <c r="LF23" s="30">
         <v>114498</v>
       </c>
-      <c r="LG23" s="6">
+      <c r="LG23" s="30">
         <v>114227</v>
       </c>
+      <c r="LH23" s="6">
+        <v>114157</v>
+      </c>
     </row>
-    <row r="24" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19486,11 +19550,14 @@
       <c r="LF24" s="30">
         <v>103812</v>
       </c>
-      <c r="LG24" s="6">
+      <c r="LG24" s="30">
         <v>103776</v>
       </c>
+      <c r="LH24" s="6">
+        <v>103799</v>
+      </c>
     </row>
-    <row r="25" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20445,11 +20512,14 @@
       <c r="LF25" s="30">
         <v>88275</v>
       </c>
-      <c r="LG25" s="6">
+      <c r="LG25" s="30">
         <v>88189</v>
       </c>
+      <c r="LH25" s="6">
+        <v>88064</v>
+      </c>
     </row>
-    <row r="26" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -21404,11 +21474,14 @@
       <c r="LF26" s="7">
         <v>5</v>
       </c>
-      <c r="LG26" s="8">
+      <c r="LG26" s="7">
         <v>7</v>
       </c>
+      <c r="LH26" s="8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -22363,12 +22436,15 @@
       <c r="LF27" s="9">
         <v>2023598</v>
       </c>
-      <c r="LG27" s="10">
+      <c r="LG27" s="9">
         <f>SUM(LG28:LG36)</f>
         <v>2023308</v>
       </c>
+      <c r="LH27" s="10">
+        <v>2023478</v>
+      </c>
     </row>
-    <row r="28" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23607,11 +23683,14 @@
       <c r="LF28" s="30">
         <v>389162</v>
       </c>
-      <c r="LG28" s="6">
+      <c r="LG28" s="30">
         <v>389558</v>
       </c>
+      <c r="LH28" s="6">
+        <v>390599</v>
+      </c>
     </row>
-    <row r="29" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24850,11 +24929,14 @@
       <c r="LF29" s="30">
         <v>47238</v>
       </c>
-      <c r="LG29" s="6">
+      <c r="LG29" s="30">
         <v>48186</v>
       </c>
+      <c r="LH29" s="6">
+        <v>48678</v>
+      </c>
     </row>
-    <row r="30" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -26093,11 +26175,14 @@
       <c r="LF30" s="30">
         <v>239164</v>
       </c>
-      <c r="LG30" s="6">
+      <c r="LG30" s="30">
         <v>240585</v>
       </c>
+      <c r="LH30" s="6">
+        <v>240389</v>
+      </c>
     </row>
-    <row r="31" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -27336,11 +27421,14 @@
       <c r="LF31" s="30">
         <v>313611</v>
       </c>
-      <c r="LG31" s="6">
+      <c r="LG31" s="30">
         <v>312427</v>
       </c>
+      <c r="LH31" s="6">
+        <v>312443</v>
+      </c>
     </row>
-    <row r="32" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28579,11 +28667,14 @@
       <c r="LF32" s="30">
         <v>305841</v>
       </c>
-      <c r="LG32" s="6">
+      <c r="LG32" s="30">
         <v>305132</v>
       </c>
+      <c r="LH32" s="6">
+        <v>304846</v>
+      </c>
     </row>
-    <row r="33" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29822,11 +29913,14 @@
       <c r="LF33" s="30">
         <v>271672</v>
       </c>
-      <c r="LG33" s="6">
+      <c r="LG33" s="30">
         <v>270979</v>
       </c>
+      <c r="LH33" s="6">
+        <v>270615</v>
+      </c>
     </row>
-    <row r="34" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -31065,11 +31159,14 @@
       <c r="LF34" s="30">
         <v>245372</v>
       </c>
-      <c r="LG34" s="6">
+      <c r="LG34" s="30">
         <v>245084</v>
       </c>
+      <c r="LH34" s="6">
+        <v>245044</v>
+      </c>
     </row>
-    <row r="35" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -32308,11 +32405,14 @@
       <c r="LF35" s="30">
         <v>211506</v>
       </c>
-      <c r="LG35" s="6">
+      <c r="LG35" s="30">
         <v>211329</v>
       </c>
+      <c r="LH35" s="6">
+        <v>210827</v>
+      </c>
     </row>
-    <row r="36" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -33551,11 +33651,14 @@
       <c r="LF36" s="7">
         <v>32</v>
       </c>
-      <c r="LG36" s="8">
+      <c r="LG36" s="7">
         <v>28</v>
       </c>
+      <c r="LH36" s="8">
+        <v>37</v>
+      </c>
     </row>
-    <row r="37" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:320" x14ac:dyDescent="0.25">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -33571,13 +33674,25 @@
       <c r="LB37" s="5"/>
       <c r="LC37" s="5"/>
     </row>
-    <row r="38" spans="1:319" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:320" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="LB5:LH5"/>
+    <mergeCell ref="KP5:LA5"/>
+    <mergeCell ref="KD5:KO5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -33594,18 +33709,6 @@
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
     <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="KP5:LA5"/>
-    <mergeCell ref="KD5:KO5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
-    <mergeCell ref="LB5:LG5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CDF41C-4EE3-45B3-AC8F-57B47214319C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB6F596-2B6D-43C4-97EE-A5AAB13F14C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="31">
   <si>
     <t>Hombre</t>
   </si>
@@ -134,7 +134,10 @@
     <t>Julio</t>
   </si>
   <si>
-    <t>Enero 1998 - julio 2024</t>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Enero 1998 - agosto 2024</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
     <xf numFmtId="3" fontId="1" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -452,11 +455,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,12 +741,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LH38"/>
+  <dimension ref="A1:LI38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,362 +887,362 @@
     <col min="316" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="LD3" s="2"/>
     </row>
-    <row r="4" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="4" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="42">
         <v>1998</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42">
         <v>1999</v>
       </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42">
         <v>2000</v>
       </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38">
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42">
         <v>2001</v>
       </c>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38">
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42">
         <v>2002</v>
       </c>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
-      <c r="BJ5" s="38">
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42">
         <v>2003</v>
       </c>
-      <c r="BK5" s="38"/>
-      <c r="BL5" s="38"/>
-      <c r="BM5" s="38"/>
-      <c r="BN5" s="38"/>
-      <c r="BO5" s="38"/>
-      <c r="BP5" s="38"/>
-      <c r="BQ5" s="38"/>
-      <c r="BR5" s="38"/>
-      <c r="BS5" s="38"/>
-      <c r="BT5" s="38"/>
-      <c r="BU5" s="38"/>
-      <c r="BV5" s="38">
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="42"/>
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="42"/>
+      <c r="BV5" s="42">
         <v>2004</v>
       </c>
-      <c r="BW5" s="38"/>
-      <c r="BX5" s="38"/>
-      <c r="BY5" s="38"/>
-      <c r="BZ5" s="38"/>
-      <c r="CA5" s="38"/>
-      <c r="CB5" s="38"/>
-      <c r="CC5" s="38"/>
-      <c r="CD5" s="38"/>
-      <c r="CE5" s="38"/>
-      <c r="CF5" s="38"/>
-      <c r="CG5" s="38"/>
-      <c r="CH5" s="38">
+      <c r="BW5" s="42"/>
+      <c r="BX5" s="42"/>
+      <c r="BY5" s="42"/>
+      <c r="BZ5" s="42"/>
+      <c r="CA5" s="42"/>
+      <c r="CB5" s="42"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42">
         <v>2005</v>
       </c>
-      <c r="CI5" s="38"/>
-      <c r="CJ5" s="38"/>
-      <c r="CK5" s="38"/>
-      <c r="CL5" s="38"/>
-      <c r="CM5" s="38"/>
-      <c r="CN5" s="38"/>
-      <c r="CO5" s="38"/>
-      <c r="CP5" s="38"/>
-      <c r="CQ5" s="38"/>
-      <c r="CR5" s="38"/>
-      <c r="CS5" s="38"/>
-      <c r="CT5" s="38">
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="42"/>
+      <c r="CM5" s="42"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="42"/>
+      <c r="CT5" s="42">
         <v>2006</v>
       </c>
-      <c r="CU5" s="38"/>
-      <c r="CV5" s="38"/>
-      <c r="CW5" s="38"/>
-      <c r="CX5" s="38"/>
-      <c r="CY5" s="38"/>
-      <c r="CZ5" s="38"/>
-      <c r="DA5" s="38"/>
-      <c r="DB5" s="38"/>
-      <c r="DC5" s="38"/>
-      <c r="DD5" s="38"/>
-      <c r="DE5" s="38"/>
-      <c r="DF5" s="38">
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
+      <c r="CW5" s="42"/>
+      <c r="CX5" s="42"/>
+      <c r="CY5" s="42"/>
+      <c r="CZ5" s="42"/>
+      <c r="DA5" s="42"/>
+      <c r="DB5" s="42"/>
+      <c r="DC5" s="42"/>
+      <c r="DD5" s="42"/>
+      <c r="DE5" s="42"/>
+      <c r="DF5" s="42">
         <v>2007</v>
       </c>
-      <c r="DG5" s="38"/>
-      <c r="DH5" s="38"/>
-      <c r="DI5" s="38"/>
-      <c r="DJ5" s="38"/>
-      <c r="DK5" s="38"/>
-      <c r="DL5" s="38"/>
-      <c r="DM5" s="38"/>
-      <c r="DN5" s="38"/>
-      <c r="DO5" s="38"/>
-      <c r="DP5" s="38"/>
-      <c r="DQ5" s="38"/>
-      <c r="DR5" s="38">
+      <c r="DG5" s="42"/>
+      <c r="DH5" s="42"/>
+      <c r="DI5" s="42"/>
+      <c r="DJ5" s="42"/>
+      <c r="DK5" s="42"/>
+      <c r="DL5" s="42"/>
+      <c r="DM5" s="42"/>
+      <c r="DN5" s="42"/>
+      <c r="DO5" s="42"/>
+      <c r="DP5" s="42"/>
+      <c r="DQ5" s="42"/>
+      <c r="DR5" s="42">
         <v>2008</v>
       </c>
-      <c r="DS5" s="38"/>
-      <c r="DT5" s="38"/>
-      <c r="DU5" s="38"/>
-      <c r="DV5" s="38"/>
-      <c r="DW5" s="38"/>
-      <c r="DX5" s="38"/>
-      <c r="DY5" s="38"/>
-      <c r="DZ5" s="38"/>
-      <c r="EA5" s="38"/>
-      <c r="EB5" s="38"/>
-      <c r="EC5" s="38"/>
-      <c r="ED5" s="38">
+      <c r="DS5" s="42"/>
+      <c r="DT5" s="42"/>
+      <c r="DU5" s="42"/>
+      <c r="DV5" s="42"/>
+      <c r="DW5" s="42"/>
+      <c r="DX5" s="42"/>
+      <c r="DY5" s="42"/>
+      <c r="DZ5" s="42"/>
+      <c r="EA5" s="42"/>
+      <c r="EB5" s="42"/>
+      <c r="EC5" s="42"/>
+      <c r="ED5" s="42">
         <v>2009</v>
       </c>
-      <c r="EE5" s="38"/>
-      <c r="EF5" s="38"/>
-      <c r="EG5" s="38"/>
-      <c r="EH5" s="38"/>
-      <c r="EI5" s="38"/>
-      <c r="EJ5" s="38"/>
-      <c r="EK5" s="38"/>
-      <c r="EL5" s="38"/>
-      <c r="EM5" s="38"/>
-      <c r="EN5" s="38"/>
-      <c r="EO5" s="38"/>
-      <c r="EP5" s="38">
+      <c r="EE5" s="42"/>
+      <c r="EF5" s="42"/>
+      <c r="EG5" s="42"/>
+      <c r="EH5" s="42"/>
+      <c r="EI5" s="42"/>
+      <c r="EJ5" s="42"/>
+      <c r="EK5" s="42"/>
+      <c r="EL5" s="42"/>
+      <c r="EM5" s="42"/>
+      <c r="EN5" s="42"/>
+      <c r="EO5" s="42"/>
+      <c r="EP5" s="42">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="38"/>
-      <c r="ER5" s="38"/>
-      <c r="ES5" s="38"/>
-      <c r="ET5" s="38"/>
-      <c r="EU5" s="38"/>
-      <c r="EV5" s="38"/>
-      <c r="EW5" s="38"/>
-      <c r="EX5" s="38"/>
-      <c r="EY5" s="38"/>
-      <c r="EZ5" s="38"/>
-      <c r="FA5" s="38"/>
-      <c r="FB5" s="38">
+      <c r="EQ5" s="42"/>
+      <c r="ER5" s="42"/>
+      <c r="ES5" s="42"/>
+      <c r="ET5" s="42"/>
+      <c r="EU5" s="42"/>
+      <c r="EV5" s="42"/>
+      <c r="EW5" s="42"/>
+      <c r="EX5" s="42"/>
+      <c r="EY5" s="42"/>
+      <c r="EZ5" s="42"/>
+      <c r="FA5" s="42"/>
+      <c r="FB5" s="42">
         <v>2011</v>
       </c>
-      <c r="FC5" s="38"/>
-      <c r="FD5" s="38"/>
-      <c r="FE5" s="38"/>
-      <c r="FF5" s="38"/>
-      <c r="FG5" s="38"/>
-      <c r="FH5" s="38"/>
-      <c r="FI5" s="38"/>
-      <c r="FJ5" s="38"/>
-      <c r="FK5" s="38"/>
-      <c r="FL5" s="38"/>
-      <c r="FM5" s="38"/>
-      <c r="FN5" s="38">
+      <c r="FC5" s="42"/>
+      <c r="FD5" s="42"/>
+      <c r="FE5" s="42"/>
+      <c r="FF5" s="42"/>
+      <c r="FG5" s="42"/>
+      <c r="FH5" s="42"/>
+      <c r="FI5" s="42"/>
+      <c r="FJ5" s="42"/>
+      <c r="FK5" s="42"/>
+      <c r="FL5" s="42"/>
+      <c r="FM5" s="42"/>
+      <c r="FN5" s="42">
         <v>2012</v>
       </c>
-      <c r="FO5" s="38"/>
-      <c r="FP5" s="38"/>
-      <c r="FQ5" s="38"/>
-      <c r="FR5" s="38"/>
-      <c r="FS5" s="38"/>
-      <c r="FT5" s="38"/>
-      <c r="FU5" s="38"/>
-      <c r="FV5" s="38"/>
-      <c r="FW5" s="38"/>
-      <c r="FX5" s="38"/>
-      <c r="FY5" s="38"/>
-      <c r="FZ5" s="38">
+      <c r="FO5" s="42"/>
+      <c r="FP5" s="42"/>
+      <c r="FQ5" s="42"/>
+      <c r="FR5" s="42"/>
+      <c r="FS5" s="42"/>
+      <c r="FT5" s="42"/>
+      <c r="FU5" s="42"/>
+      <c r="FV5" s="42"/>
+      <c r="FW5" s="42"/>
+      <c r="FX5" s="42"/>
+      <c r="FY5" s="42"/>
+      <c r="FZ5" s="42">
         <v>2013</v>
       </c>
-      <c r="GA5" s="38"/>
-      <c r="GB5" s="38"/>
-      <c r="GC5" s="38"/>
-      <c r="GD5" s="38"/>
-      <c r="GE5" s="38"/>
-      <c r="GF5" s="38"/>
-      <c r="GG5" s="38"/>
-      <c r="GH5" s="38"/>
-      <c r="GI5" s="38"/>
-      <c r="GJ5" s="38"/>
-      <c r="GK5" s="38"/>
-      <c r="GL5" s="38">
+      <c r="GA5" s="42"/>
+      <c r="GB5" s="42"/>
+      <c r="GC5" s="42"/>
+      <c r="GD5" s="42"/>
+      <c r="GE5" s="42"/>
+      <c r="GF5" s="42"/>
+      <c r="GG5" s="42"/>
+      <c r="GH5" s="42"/>
+      <c r="GI5" s="42"/>
+      <c r="GJ5" s="42"/>
+      <c r="GK5" s="42"/>
+      <c r="GL5" s="42">
         <v>2014</v>
       </c>
-      <c r="GM5" s="38"/>
-      <c r="GN5" s="38"/>
-      <c r="GO5" s="38"/>
-      <c r="GP5" s="38"/>
-      <c r="GQ5" s="38"/>
-      <c r="GR5" s="38"/>
-      <c r="GS5" s="38"/>
-      <c r="GT5" s="38"/>
-      <c r="GU5" s="38"/>
-      <c r="GV5" s="38"/>
-      <c r="GW5" s="38"/>
-      <c r="GX5" s="38">
+      <c r="GM5" s="42"/>
+      <c r="GN5" s="42"/>
+      <c r="GO5" s="42"/>
+      <c r="GP5" s="42"/>
+      <c r="GQ5" s="42"/>
+      <c r="GR5" s="42"/>
+      <c r="GS5" s="42"/>
+      <c r="GT5" s="42"/>
+      <c r="GU5" s="42"/>
+      <c r="GV5" s="42"/>
+      <c r="GW5" s="42"/>
+      <c r="GX5" s="42">
         <v>2015</v>
       </c>
-      <c r="GY5" s="38"/>
-      <c r="GZ5" s="38"/>
-      <c r="HA5" s="38"/>
-      <c r="HB5" s="38"/>
-      <c r="HC5" s="38"/>
-      <c r="HD5" s="38"/>
-      <c r="HE5" s="38"/>
-      <c r="HF5" s="38"/>
-      <c r="HG5" s="38"/>
-      <c r="HH5" s="38"/>
-      <c r="HI5" s="38"/>
-      <c r="HJ5" s="38">
+      <c r="GY5" s="42"/>
+      <c r="GZ5" s="42"/>
+      <c r="HA5" s="42"/>
+      <c r="HB5" s="42"/>
+      <c r="HC5" s="42"/>
+      <c r="HD5" s="42"/>
+      <c r="HE5" s="42"/>
+      <c r="HF5" s="42"/>
+      <c r="HG5" s="42"/>
+      <c r="HH5" s="42"/>
+      <c r="HI5" s="42"/>
+      <c r="HJ5" s="42">
         <v>2016</v>
       </c>
-      <c r="HK5" s="38"/>
-      <c r="HL5" s="38"/>
-      <c r="HM5" s="38"/>
-      <c r="HN5" s="38"/>
-      <c r="HO5" s="38"/>
-      <c r="HP5" s="38"/>
-      <c r="HQ5" s="38"/>
-      <c r="HR5" s="38"/>
-      <c r="HS5" s="38"/>
-      <c r="HT5" s="38"/>
-      <c r="HU5" s="38"/>
-      <c r="HV5" s="38">
+      <c r="HK5" s="42"/>
+      <c r="HL5" s="42"/>
+      <c r="HM5" s="42"/>
+      <c r="HN5" s="42"/>
+      <c r="HO5" s="42"/>
+      <c r="HP5" s="42"/>
+      <c r="HQ5" s="42"/>
+      <c r="HR5" s="42"/>
+      <c r="HS5" s="42"/>
+      <c r="HT5" s="42"/>
+      <c r="HU5" s="42"/>
+      <c r="HV5" s="42">
         <v>2017</v>
       </c>
-      <c r="HW5" s="38"/>
-      <c r="HX5" s="38"/>
-      <c r="HY5" s="38"/>
-      <c r="HZ5" s="38"/>
-      <c r="IA5" s="38"/>
-      <c r="IB5" s="38"/>
-      <c r="IC5" s="38"/>
-      <c r="ID5" s="38"/>
-      <c r="IE5" s="38"/>
-      <c r="IF5" s="38"/>
-      <c r="IG5" s="38"/>
-      <c r="IH5" s="38">
+      <c r="HW5" s="42"/>
+      <c r="HX5" s="42"/>
+      <c r="HY5" s="42"/>
+      <c r="HZ5" s="42"/>
+      <c r="IA5" s="42"/>
+      <c r="IB5" s="42"/>
+      <c r="IC5" s="42"/>
+      <c r="ID5" s="42"/>
+      <c r="IE5" s="42"/>
+      <c r="IF5" s="42"/>
+      <c r="IG5" s="42"/>
+      <c r="IH5" s="42">
         <v>2018</v>
       </c>
-      <c r="II5" s="38"/>
-      <c r="IJ5" s="38"/>
-      <c r="IK5" s="38"/>
-      <c r="IL5" s="38"/>
-      <c r="IM5" s="38"/>
-      <c r="IN5" s="38"/>
-      <c r="IO5" s="38"/>
-      <c r="IP5" s="38"/>
-      <c r="IQ5" s="38"/>
-      <c r="IR5" s="38"/>
-      <c r="IS5" s="38"/>
-      <c r="IT5" s="38">
+      <c r="II5" s="42"/>
+      <c r="IJ5" s="42"/>
+      <c r="IK5" s="42"/>
+      <c r="IL5" s="42"/>
+      <c r="IM5" s="42"/>
+      <c r="IN5" s="42"/>
+      <c r="IO5" s="42"/>
+      <c r="IP5" s="42"/>
+      <c r="IQ5" s="42"/>
+      <c r="IR5" s="42"/>
+      <c r="IS5" s="42"/>
+      <c r="IT5" s="42">
         <v>2019</v>
       </c>
-      <c r="IU5" s="38"/>
-      <c r="IV5" s="38"/>
-      <c r="IW5" s="38"/>
-      <c r="IX5" s="38"/>
-      <c r="IY5" s="38"/>
-      <c r="IZ5" s="38"/>
-      <c r="JA5" s="38"/>
-      <c r="JB5" s="38"/>
-      <c r="JC5" s="38"/>
-      <c r="JD5" s="38"/>
-      <c r="JE5" s="38"/>
-      <c r="JF5" s="38">
+      <c r="IU5" s="42"/>
+      <c r="IV5" s="42"/>
+      <c r="IW5" s="42"/>
+      <c r="IX5" s="42"/>
+      <c r="IY5" s="42"/>
+      <c r="IZ5" s="42"/>
+      <c r="JA5" s="42"/>
+      <c r="JB5" s="42"/>
+      <c r="JC5" s="42"/>
+      <c r="JD5" s="42"/>
+      <c r="JE5" s="42"/>
+      <c r="JF5" s="42">
         <v>2020</v>
       </c>
-      <c r="JG5" s="38"/>
-      <c r="JH5" s="38"/>
-      <c r="JI5" s="38"/>
-      <c r="JJ5" s="38"/>
-      <c r="JK5" s="38"/>
-      <c r="JL5" s="38"/>
-      <c r="JM5" s="38"/>
-      <c r="JN5" s="38"/>
-      <c r="JO5" s="38"/>
-      <c r="JP5" s="38"/>
-      <c r="JQ5" s="38"/>
-      <c r="JR5" s="38">
+      <c r="JG5" s="42"/>
+      <c r="JH5" s="42"/>
+      <c r="JI5" s="42"/>
+      <c r="JJ5" s="42"/>
+      <c r="JK5" s="42"/>
+      <c r="JL5" s="42"/>
+      <c r="JM5" s="42"/>
+      <c r="JN5" s="42"/>
+      <c r="JO5" s="42"/>
+      <c r="JP5" s="42"/>
+      <c r="JQ5" s="42"/>
+      <c r="JR5" s="42">
         <v>2021</v>
       </c>
-      <c r="JS5" s="38"/>
-      <c r="JT5" s="38"/>
-      <c r="JU5" s="38"/>
-      <c r="JV5" s="38"/>
-      <c r="JW5" s="38"/>
-      <c r="JX5" s="38"/>
-      <c r="JY5" s="38"/>
-      <c r="JZ5" s="38"/>
-      <c r="KA5" s="38"/>
-      <c r="KB5" s="38"/>
+      <c r="JS5" s="42"/>
+      <c r="JT5" s="42"/>
+      <c r="JU5" s="42"/>
+      <c r="JV5" s="42"/>
+      <c r="JW5" s="42"/>
+      <c r="JX5" s="42"/>
+      <c r="JY5" s="42"/>
+      <c r="JZ5" s="42"/>
+      <c r="KA5" s="42"/>
+      <c r="KB5" s="42"/>
       <c r="KC5" s="39"/>
       <c r="KD5" s="39">
         <v>2022</v>
@@ -1269,18 +1272,19 @@
       <c r="KY5" s="40"/>
       <c r="KZ5" s="40"/>
       <c r="LA5" s="40"/>
-      <c r="LB5" s="42">
+      <c r="LB5" s="37">
         <v>2024</v>
       </c>
-      <c r="LC5" s="43"/>
-      <c r="LD5" s="43"/>
-      <c r="LE5" s="43"/>
-      <c r="LF5" s="43"/>
-      <c r="LG5" s="43"/>
-      <c r="LH5" s="43"/>
+      <c r="LC5" s="38"/>
+      <c r="LD5" s="38"/>
+      <c r="LE5" s="38"/>
+      <c r="LF5" s="38"/>
+      <c r="LG5" s="38"/>
+      <c r="LH5" s="38"/>
+      <c r="LI5" s="38"/>
     </row>
-    <row r="6" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2235,11 +2239,14 @@
       <c r="LG6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="LH6" s="36" t="s">
+      <c r="LH6" s="35" t="s">
         <v>28</v>
       </c>
+      <c r="LI6" s="36" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3198,11 +3205,14 @@
         <f>SUM(LG8:LG16)</f>
         <v>1185336</v>
       </c>
-      <c r="LH7" s="4">
+      <c r="LH7" s="3">
         <v>1185192</v>
       </c>
+      <c r="LI7" s="4">
+        <v>1183738</v>
+      </c>
     </row>
-    <row r="8" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4160,11 +4170,14 @@
       <c r="LG8" s="30">
         <v>237214</v>
       </c>
-      <c r="LH8" s="6">
+      <c r="LH8" s="30">
         <v>237495</v>
       </c>
+      <c r="LI8" s="6">
+        <v>237382</v>
+      </c>
     </row>
-    <row r="9" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -5122,11 +5135,14 @@
       <c r="LG9" s="30">
         <v>30031</v>
       </c>
-      <c r="LH9" s="6">
+      <c r="LH9" s="30">
         <v>30407</v>
       </c>
+      <c r="LI9" s="6">
+        <v>29515</v>
+      </c>
     </row>
-    <row r="10" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -6084,11 +6100,14 @@
       <c r="LG10" s="30">
         <v>140237</v>
       </c>
-      <c r="LH10" s="6">
+      <c r="LH10" s="30">
         <v>140256</v>
       </c>
+      <c r="LI10" s="6">
+        <v>138432</v>
+      </c>
     </row>
-    <row r="11" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -7046,11 +7065,14 @@
       <c r="LG11" s="30">
         <v>178903</v>
       </c>
-      <c r="LH11" s="6">
+      <c r="LH11" s="30">
         <v>179001</v>
       </c>
+      <c r="LI11" s="6">
+        <v>179039</v>
+      </c>
     </row>
-    <row r="12" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -8008,11 +8030,14 @@
       <c r="LG12" s="30">
         <v>177730</v>
       </c>
-      <c r="LH12" s="6">
+      <c r="LH12" s="30">
         <v>177538</v>
       </c>
+      <c r="LI12" s="6">
+        <v>177862</v>
+      </c>
     </row>
-    <row r="13" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8970,11 +8995,14 @@
       <c r="LG13" s="30">
         <v>156752</v>
       </c>
-      <c r="LH13" s="6">
+      <c r="LH13" s="30">
         <v>156458</v>
       </c>
+      <c r="LI13" s="6">
+        <v>156809</v>
+      </c>
     </row>
-    <row r="14" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9932,11 +9960,14 @@
       <c r="LG14" s="30">
         <v>141308</v>
       </c>
-      <c r="LH14" s="6">
+      <c r="LH14" s="30">
         <v>141245</v>
       </c>
+      <c r="LI14" s="6">
+        <v>141585</v>
+      </c>
     </row>
-    <row r="15" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10894,11 +10925,14 @@
       <c r="LG15" s="30">
         <v>123140</v>
       </c>
-      <c r="LH15" s="6">
+      <c r="LH15" s="30">
         <v>122763</v>
       </c>
+      <c r="LI15" s="6">
+        <v>123093</v>
+      </c>
     </row>
-    <row r="16" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11856,11 +11890,14 @@
       <c r="LG16" s="7">
         <v>21</v>
       </c>
-      <c r="LH16" s="8">
+      <c r="LH16" s="7">
         <v>29</v>
       </c>
+      <c r="LI16" s="8">
+        <v>21</v>
+      </c>
     </row>
-    <row r="17" spans="1:320" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12819,11 +12856,14 @@
         <f>SUM(LG18:LG26)</f>
         <v>837972</v>
       </c>
-      <c r="LH17" s="4">
+      <c r="LH17" s="3">
         <v>838286</v>
       </c>
+      <c r="LI17" s="4">
+        <v>838157</v>
+      </c>
     </row>
-    <row r="18" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13781,11 +13821,14 @@
       <c r="LG18" s="30">
         <v>152344</v>
       </c>
-      <c r="LH18" s="6">
+      <c r="LH18" s="30">
         <v>153104</v>
       </c>
+      <c r="LI18" s="6">
+        <v>153073</v>
+      </c>
     </row>
-    <row r="19" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14743,11 +14786,14 @@
       <c r="LG19" s="30">
         <v>18155</v>
       </c>
-      <c r="LH19" s="6">
+      <c r="LH19" s="30">
         <v>18271</v>
       </c>
+      <c r="LI19" s="6">
+        <v>17552</v>
+      </c>
     </row>
-    <row r="20" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15705,11 +15751,14 @@
       <c r="LG20" s="30">
         <v>100348</v>
       </c>
-      <c r="LH20" s="6">
+      <c r="LH20" s="30">
         <v>100133</v>
       </c>
+      <c r="LI20" s="6">
+        <v>98737</v>
+      </c>
     </row>
-    <row r="21" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16667,11 +16716,14 @@
       <c r="LG21" s="30">
         <v>133524</v>
       </c>
-      <c r="LH21" s="6">
+      <c r="LH21" s="30">
         <v>133442</v>
       </c>
+      <c r="LI21" s="6">
+        <v>134008</v>
+      </c>
     </row>
-    <row r="22" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17629,11 +17681,14 @@
       <c r="LG22" s="30">
         <v>127402</v>
       </c>
-      <c r="LH22" s="6">
+      <c r="LH22" s="30">
         <v>127308</v>
       </c>
+      <c r="LI22" s="6">
+        <v>127660</v>
+      </c>
     </row>
-    <row r="23" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18591,11 +18646,14 @@
       <c r="LG23" s="30">
         <v>114227</v>
       </c>
-      <c r="LH23" s="6">
+      <c r="LH23" s="30">
         <v>114157</v>
       </c>
+      <c r="LI23" s="6">
+        <v>114510</v>
+      </c>
     </row>
-    <row r="24" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19553,11 +19611,14 @@
       <c r="LG24" s="30">
         <v>103776</v>
       </c>
-      <c r="LH24" s="6">
+      <c r="LH24" s="30">
         <v>103799</v>
       </c>
+      <c r="LI24" s="6">
+        <v>104170</v>
+      </c>
     </row>
-    <row r="25" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20515,11 +20576,14 @@
       <c r="LG25" s="30">
         <v>88189</v>
       </c>
-      <c r="LH25" s="6">
+      <c r="LH25" s="30">
         <v>88064</v>
       </c>
+      <c r="LI25" s="6">
+        <v>88439</v>
+      </c>
     </row>
-    <row r="26" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -21477,11 +21541,14 @@
       <c r="LG26" s="7">
         <v>7</v>
       </c>
-      <c r="LH26" s="8">
+      <c r="LH26" s="7">
         <v>8</v>
       </c>
+      <c r="LI26" s="8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -22440,11 +22507,14 @@
         <f>SUM(LG28:LG36)</f>
         <v>2023308</v>
       </c>
-      <c r="LH27" s="10">
+      <c r="LH27" s="9">
         <v>2023478</v>
       </c>
+      <c r="LI27" s="10">
+        <v>2021895</v>
+      </c>
     </row>
-    <row r="28" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23686,11 +23756,14 @@
       <c r="LG28" s="30">
         <v>389558</v>
       </c>
-      <c r="LH28" s="6">
+      <c r="LH28" s="30">
         <v>390599</v>
       </c>
+      <c r="LI28" s="6">
+        <v>390455</v>
+      </c>
     </row>
-    <row r="29" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -24932,11 +25005,14 @@
       <c r="LG29" s="30">
         <v>48186</v>
       </c>
-      <c r="LH29" s="6">
+      <c r="LH29" s="30">
         <v>48678</v>
       </c>
+      <c r="LI29" s="6">
+        <v>47067</v>
+      </c>
     </row>
-    <row r="30" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -26178,11 +26254,14 @@
       <c r="LG30" s="30">
         <v>240585</v>
       </c>
-      <c r="LH30" s="6">
+      <c r="LH30" s="30">
         <v>240389</v>
       </c>
+      <c r="LI30" s="6">
+        <v>237169</v>
+      </c>
     </row>
-    <row r="31" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -27424,11 +27503,14 @@
       <c r="LG31" s="30">
         <v>312427</v>
       </c>
-      <c r="LH31" s="6">
+      <c r="LH31" s="30">
         <v>312443</v>
       </c>
+      <c r="LI31" s="6">
+        <v>313047</v>
+      </c>
     </row>
-    <row r="32" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28670,11 +28752,14 @@
       <c r="LG32" s="30">
         <v>305132</v>
       </c>
-      <c r="LH32" s="6">
+      <c r="LH32" s="30">
         <v>304846</v>
       </c>
+      <c r="LI32" s="6">
+        <v>305522</v>
+      </c>
     </row>
-    <row r="33" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -29916,11 +30001,14 @@
       <c r="LG33" s="30">
         <v>270979</v>
       </c>
-      <c r="LH33" s="6">
+      <c r="LH33" s="30">
         <v>270615</v>
       </c>
+      <c r="LI33" s="6">
+        <v>271319</v>
+      </c>
     </row>
-    <row r="34" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -31162,11 +31250,14 @@
       <c r="LG34" s="30">
         <v>245084</v>
       </c>
-      <c r="LH34" s="6">
+      <c r="LH34" s="30">
         <v>245044</v>
       </c>
+      <c r="LI34" s="6">
+        <v>245755</v>
+      </c>
     </row>
-    <row r="35" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -32408,11 +32499,14 @@
       <c r="LG35" s="30">
         <v>211329</v>
       </c>
-      <c r="LH35" s="6">
+      <c r="LH35" s="30">
         <v>210827</v>
       </c>
+      <c r="LI35" s="6">
+        <v>211532</v>
+      </c>
     </row>
-    <row r="36" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -33654,11 +33748,14 @@
       <c r="LG36" s="7">
         <v>28</v>
       </c>
-      <c r="LH36" s="8">
+      <c r="LH36" s="7">
         <v>37</v>
       </c>
+      <c r="LI36" s="8">
+        <v>29</v>
+      </c>
     </row>
-    <row r="37" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:321" x14ac:dyDescent="0.25">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -33674,25 +33771,13 @@
       <c r="LB37" s="5"/>
       <c r="LC37" s="5"/>
     </row>
-    <row r="38" spans="1:320" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:321" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="LB5:LH5"/>
-    <mergeCell ref="KP5:LA5"/>
-    <mergeCell ref="KD5:KO5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -33709,6 +33794,18 @@
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
     <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="KP5:LA5"/>
+    <mergeCell ref="KD5:KO5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
+    <mergeCell ref="LB5:LI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB6F596-2B6D-43C4-97EE-A5AAB13F14C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C2671-1BDA-4EDF-9A51-FB297D1B2270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="32">
   <si>
     <t>Hombre</t>
   </si>
@@ -137,7 +137,10 @@
     <t>Agosto</t>
   </si>
   <si>
-    <t>Enero 1998 - agosto 2024</t>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Enero 1998 - septiembre 2024</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
     <xf numFmtId="3" fontId="1" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -455,11 +458,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,12 +744,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LI38"/>
+  <dimension ref="A1:LJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,362 +890,362 @@
     <col min="316" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="LD3" s="2"/>
     </row>
-    <row r="4" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="4" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="38">
         <v>1998</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38">
         <v>1999</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42">
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38">
         <v>2000</v>
       </c>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42">
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38">
         <v>2001</v>
       </c>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="42">
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38">
         <v>2002</v>
       </c>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="42"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42">
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38">
         <v>2003</v>
       </c>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="42"/>
-      <c r="BN5" s="42"/>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="42"/>
-      <c r="BQ5" s="42"/>
-      <c r="BR5" s="42"/>
-      <c r="BS5" s="42"/>
-      <c r="BT5" s="42"/>
-      <c r="BU5" s="42"/>
-      <c r="BV5" s="42">
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="38">
         <v>2004</v>
       </c>
-      <c r="BW5" s="42"/>
-      <c r="BX5" s="42"/>
-      <c r="BY5" s="42"/>
-      <c r="BZ5" s="42"/>
-      <c r="CA5" s="42"/>
-      <c r="CB5" s="42"/>
-      <c r="CC5" s="42"/>
-      <c r="CD5" s="42"/>
-      <c r="CE5" s="42"/>
-      <c r="CF5" s="42"/>
-      <c r="CG5" s="42"/>
-      <c r="CH5" s="42">
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="38"/>
+      <c r="BY5" s="38"/>
+      <c r="BZ5" s="38"/>
+      <c r="CA5" s="38"/>
+      <c r="CB5" s="38"/>
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="38"/>
+      <c r="CE5" s="38"/>
+      <c r="CF5" s="38"/>
+      <c r="CG5" s="38"/>
+      <c r="CH5" s="38">
         <v>2005</v>
       </c>
-      <c r="CI5" s="42"/>
-      <c r="CJ5" s="42"/>
-      <c r="CK5" s="42"/>
-      <c r="CL5" s="42"/>
-      <c r="CM5" s="42"/>
-      <c r="CN5" s="42"/>
-      <c r="CO5" s="42"/>
-      <c r="CP5" s="42"/>
-      <c r="CQ5" s="42"/>
-      <c r="CR5" s="42"/>
-      <c r="CS5" s="42"/>
-      <c r="CT5" s="42">
+      <c r="CI5" s="38"/>
+      <c r="CJ5" s="38"/>
+      <c r="CK5" s="38"/>
+      <c r="CL5" s="38"/>
+      <c r="CM5" s="38"/>
+      <c r="CN5" s="38"/>
+      <c r="CO5" s="38"/>
+      <c r="CP5" s="38"/>
+      <c r="CQ5" s="38"/>
+      <c r="CR5" s="38"/>
+      <c r="CS5" s="38"/>
+      <c r="CT5" s="38">
         <v>2006</v>
       </c>
-      <c r="CU5" s="42"/>
-      <c r="CV5" s="42"/>
-      <c r="CW5" s="42"/>
-      <c r="CX5" s="42"/>
-      <c r="CY5" s="42"/>
-      <c r="CZ5" s="42"/>
-      <c r="DA5" s="42"/>
-      <c r="DB5" s="42"/>
-      <c r="DC5" s="42"/>
-      <c r="DD5" s="42"/>
-      <c r="DE5" s="42"/>
-      <c r="DF5" s="42">
+      <c r="CU5" s="38"/>
+      <c r="CV5" s="38"/>
+      <c r="CW5" s="38"/>
+      <c r="CX5" s="38"/>
+      <c r="CY5" s="38"/>
+      <c r="CZ5" s="38"/>
+      <c r="DA5" s="38"/>
+      <c r="DB5" s="38"/>
+      <c r="DC5" s="38"/>
+      <c r="DD5" s="38"/>
+      <c r="DE5" s="38"/>
+      <c r="DF5" s="38">
         <v>2007</v>
       </c>
-      <c r="DG5" s="42"/>
-      <c r="DH5" s="42"/>
-      <c r="DI5" s="42"/>
-      <c r="DJ5" s="42"/>
-      <c r="DK5" s="42"/>
-      <c r="DL5" s="42"/>
-      <c r="DM5" s="42"/>
-      <c r="DN5" s="42"/>
-      <c r="DO5" s="42"/>
-      <c r="DP5" s="42"/>
-      <c r="DQ5" s="42"/>
-      <c r="DR5" s="42">
+      <c r="DG5" s="38"/>
+      <c r="DH5" s="38"/>
+      <c r="DI5" s="38"/>
+      <c r="DJ5" s="38"/>
+      <c r="DK5" s="38"/>
+      <c r="DL5" s="38"/>
+      <c r="DM5" s="38"/>
+      <c r="DN5" s="38"/>
+      <c r="DO5" s="38"/>
+      <c r="DP5" s="38"/>
+      <c r="DQ5" s="38"/>
+      <c r="DR5" s="38">
         <v>2008</v>
       </c>
-      <c r="DS5" s="42"/>
-      <c r="DT5" s="42"/>
-      <c r="DU5" s="42"/>
-      <c r="DV5" s="42"/>
-      <c r="DW5" s="42"/>
-      <c r="DX5" s="42"/>
-      <c r="DY5" s="42"/>
-      <c r="DZ5" s="42"/>
-      <c r="EA5" s="42"/>
-      <c r="EB5" s="42"/>
-      <c r="EC5" s="42"/>
-      <c r="ED5" s="42">
+      <c r="DS5" s="38"/>
+      <c r="DT5" s="38"/>
+      <c r="DU5" s="38"/>
+      <c r="DV5" s="38"/>
+      <c r="DW5" s="38"/>
+      <c r="DX5" s="38"/>
+      <c r="DY5" s="38"/>
+      <c r="DZ5" s="38"/>
+      <c r="EA5" s="38"/>
+      <c r="EB5" s="38"/>
+      <c r="EC5" s="38"/>
+      <c r="ED5" s="38">
         <v>2009</v>
       </c>
-      <c r="EE5" s="42"/>
-      <c r="EF5" s="42"/>
-      <c r="EG5" s="42"/>
-      <c r="EH5" s="42"/>
-      <c r="EI5" s="42"/>
-      <c r="EJ5" s="42"/>
-      <c r="EK5" s="42"/>
-      <c r="EL5" s="42"/>
-      <c r="EM5" s="42"/>
-      <c r="EN5" s="42"/>
-      <c r="EO5" s="42"/>
-      <c r="EP5" s="42">
+      <c r="EE5" s="38"/>
+      <c r="EF5" s="38"/>
+      <c r="EG5" s="38"/>
+      <c r="EH5" s="38"/>
+      <c r="EI5" s="38"/>
+      <c r="EJ5" s="38"/>
+      <c r="EK5" s="38"/>
+      <c r="EL5" s="38"/>
+      <c r="EM5" s="38"/>
+      <c r="EN5" s="38"/>
+      <c r="EO5" s="38"/>
+      <c r="EP5" s="38">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="42"/>
-      <c r="ER5" s="42"/>
-      <c r="ES5" s="42"/>
-      <c r="ET5" s="42"/>
-      <c r="EU5" s="42"/>
-      <c r="EV5" s="42"/>
-      <c r="EW5" s="42"/>
-      <c r="EX5" s="42"/>
-      <c r="EY5" s="42"/>
-      <c r="EZ5" s="42"/>
-      <c r="FA5" s="42"/>
-      <c r="FB5" s="42">
+      <c r="EQ5" s="38"/>
+      <c r="ER5" s="38"/>
+      <c r="ES5" s="38"/>
+      <c r="ET5" s="38"/>
+      <c r="EU5" s="38"/>
+      <c r="EV5" s="38"/>
+      <c r="EW5" s="38"/>
+      <c r="EX5" s="38"/>
+      <c r="EY5" s="38"/>
+      <c r="EZ5" s="38"/>
+      <c r="FA5" s="38"/>
+      <c r="FB5" s="38">
         <v>2011</v>
       </c>
-      <c r="FC5" s="42"/>
-      <c r="FD5" s="42"/>
-      <c r="FE5" s="42"/>
-      <c r="FF5" s="42"/>
-      <c r="FG5" s="42"/>
-      <c r="FH5" s="42"/>
-      <c r="FI5" s="42"/>
-      <c r="FJ5" s="42"/>
-      <c r="FK5" s="42"/>
-      <c r="FL5" s="42"/>
-      <c r="FM5" s="42"/>
-      <c r="FN5" s="42">
+      <c r="FC5" s="38"/>
+      <c r="FD5" s="38"/>
+      <c r="FE5" s="38"/>
+      <c r="FF5" s="38"/>
+      <c r="FG5" s="38"/>
+      <c r="FH5" s="38"/>
+      <c r="FI5" s="38"/>
+      <c r="FJ5" s="38"/>
+      <c r="FK5" s="38"/>
+      <c r="FL5" s="38"/>
+      <c r="FM5" s="38"/>
+      <c r="FN5" s="38">
         <v>2012</v>
       </c>
-      <c r="FO5" s="42"/>
-      <c r="FP5" s="42"/>
-      <c r="FQ5" s="42"/>
-      <c r="FR5" s="42"/>
-      <c r="FS5" s="42"/>
-      <c r="FT5" s="42"/>
-      <c r="FU5" s="42"/>
-      <c r="FV5" s="42"/>
-      <c r="FW5" s="42"/>
-      <c r="FX5" s="42"/>
-      <c r="FY5" s="42"/>
-      <c r="FZ5" s="42">
+      <c r="FO5" s="38"/>
+      <c r="FP5" s="38"/>
+      <c r="FQ5" s="38"/>
+      <c r="FR5" s="38"/>
+      <c r="FS5" s="38"/>
+      <c r="FT5" s="38"/>
+      <c r="FU5" s="38"/>
+      <c r="FV5" s="38"/>
+      <c r="FW5" s="38"/>
+      <c r="FX5" s="38"/>
+      <c r="FY5" s="38"/>
+      <c r="FZ5" s="38">
         <v>2013</v>
       </c>
-      <c r="GA5" s="42"/>
-      <c r="GB5" s="42"/>
-      <c r="GC5" s="42"/>
-      <c r="GD5" s="42"/>
-      <c r="GE5" s="42"/>
-      <c r="GF5" s="42"/>
-      <c r="GG5" s="42"/>
-      <c r="GH5" s="42"/>
-      <c r="GI5" s="42"/>
-      <c r="GJ5" s="42"/>
-      <c r="GK5" s="42"/>
-      <c r="GL5" s="42">
+      <c r="GA5" s="38"/>
+      <c r="GB5" s="38"/>
+      <c r="GC5" s="38"/>
+      <c r="GD5" s="38"/>
+      <c r="GE5" s="38"/>
+      <c r="GF5" s="38"/>
+      <c r="GG5" s="38"/>
+      <c r="GH5" s="38"/>
+      <c r="GI5" s="38"/>
+      <c r="GJ5" s="38"/>
+      <c r="GK5" s="38"/>
+      <c r="GL5" s="38">
         <v>2014</v>
       </c>
-      <c r="GM5" s="42"/>
-      <c r="GN5" s="42"/>
-      <c r="GO5" s="42"/>
-      <c r="GP5" s="42"/>
-      <c r="GQ5" s="42"/>
-      <c r="GR5" s="42"/>
-      <c r="GS5" s="42"/>
-      <c r="GT5" s="42"/>
-      <c r="GU5" s="42"/>
-      <c r="GV5" s="42"/>
-      <c r="GW5" s="42"/>
-      <c r="GX5" s="42">
+      <c r="GM5" s="38"/>
+      <c r="GN5" s="38"/>
+      <c r="GO5" s="38"/>
+      <c r="GP5" s="38"/>
+      <c r="GQ5" s="38"/>
+      <c r="GR5" s="38"/>
+      <c r="GS5" s="38"/>
+      <c r="GT5" s="38"/>
+      <c r="GU5" s="38"/>
+      <c r="GV5" s="38"/>
+      <c r="GW5" s="38"/>
+      <c r="GX5" s="38">
         <v>2015</v>
       </c>
-      <c r="GY5" s="42"/>
-      <c r="GZ5" s="42"/>
-      <c r="HA5" s="42"/>
-      <c r="HB5" s="42"/>
-      <c r="HC5" s="42"/>
-      <c r="HD5" s="42"/>
-      <c r="HE5" s="42"/>
-      <c r="HF5" s="42"/>
-      <c r="HG5" s="42"/>
-      <c r="HH5" s="42"/>
-      <c r="HI5" s="42"/>
-      <c r="HJ5" s="42">
+      <c r="GY5" s="38"/>
+      <c r="GZ5" s="38"/>
+      <c r="HA5" s="38"/>
+      <c r="HB5" s="38"/>
+      <c r="HC5" s="38"/>
+      <c r="HD5" s="38"/>
+      <c r="HE5" s="38"/>
+      <c r="HF5" s="38"/>
+      <c r="HG5" s="38"/>
+      <c r="HH5" s="38"/>
+      <c r="HI5" s="38"/>
+      <c r="HJ5" s="38">
         <v>2016</v>
       </c>
-      <c r="HK5" s="42"/>
-      <c r="HL5" s="42"/>
-      <c r="HM5" s="42"/>
-      <c r="HN5" s="42"/>
-      <c r="HO5" s="42"/>
-      <c r="HP5" s="42"/>
-      <c r="HQ5" s="42"/>
-      <c r="HR5" s="42"/>
-      <c r="HS5" s="42"/>
-      <c r="HT5" s="42"/>
-      <c r="HU5" s="42"/>
-      <c r="HV5" s="42">
+      <c r="HK5" s="38"/>
+      <c r="HL5" s="38"/>
+      <c r="HM5" s="38"/>
+      <c r="HN5" s="38"/>
+      <c r="HO5" s="38"/>
+      <c r="HP5" s="38"/>
+      <c r="HQ5" s="38"/>
+      <c r="HR5" s="38"/>
+      <c r="HS5" s="38"/>
+      <c r="HT5" s="38"/>
+      <c r="HU5" s="38"/>
+      <c r="HV5" s="38">
         <v>2017</v>
       </c>
-      <c r="HW5" s="42"/>
-      <c r="HX5" s="42"/>
-      <c r="HY5" s="42"/>
-      <c r="HZ5" s="42"/>
-      <c r="IA5" s="42"/>
-      <c r="IB5" s="42"/>
-      <c r="IC5" s="42"/>
-      <c r="ID5" s="42"/>
-      <c r="IE5" s="42"/>
-      <c r="IF5" s="42"/>
-      <c r="IG5" s="42"/>
-      <c r="IH5" s="42">
+      <c r="HW5" s="38"/>
+      <c r="HX5" s="38"/>
+      <c r="HY5" s="38"/>
+      <c r="HZ5" s="38"/>
+      <c r="IA5" s="38"/>
+      <c r="IB5" s="38"/>
+      <c r="IC5" s="38"/>
+      <c r="ID5" s="38"/>
+      <c r="IE5" s="38"/>
+      <c r="IF5" s="38"/>
+      <c r="IG5" s="38"/>
+      <c r="IH5" s="38">
         <v>2018</v>
       </c>
-      <c r="II5" s="42"/>
-      <c r="IJ5" s="42"/>
-      <c r="IK5" s="42"/>
-      <c r="IL5" s="42"/>
-      <c r="IM5" s="42"/>
-      <c r="IN5" s="42"/>
-      <c r="IO5" s="42"/>
-      <c r="IP5" s="42"/>
-      <c r="IQ5" s="42"/>
-      <c r="IR5" s="42"/>
-      <c r="IS5" s="42"/>
-      <c r="IT5" s="42">
+      <c r="II5" s="38"/>
+      <c r="IJ5" s="38"/>
+      <c r="IK5" s="38"/>
+      <c r="IL5" s="38"/>
+      <c r="IM5" s="38"/>
+      <c r="IN5" s="38"/>
+      <c r="IO5" s="38"/>
+      <c r="IP5" s="38"/>
+      <c r="IQ5" s="38"/>
+      <c r="IR5" s="38"/>
+      <c r="IS5" s="38"/>
+      <c r="IT5" s="38">
         <v>2019</v>
       </c>
-      <c r="IU5" s="42"/>
-      <c r="IV5" s="42"/>
-      <c r="IW5" s="42"/>
-      <c r="IX5" s="42"/>
-      <c r="IY5" s="42"/>
-      <c r="IZ5" s="42"/>
-      <c r="JA5" s="42"/>
-      <c r="JB5" s="42"/>
-      <c r="JC5" s="42"/>
-      <c r="JD5" s="42"/>
-      <c r="JE5" s="42"/>
-      <c r="JF5" s="42">
+      <c r="IU5" s="38"/>
+      <c r="IV5" s="38"/>
+      <c r="IW5" s="38"/>
+      <c r="IX5" s="38"/>
+      <c r="IY5" s="38"/>
+      <c r="IZ5" s="38"/>
+      <c r="JA5" s="38"/>
+      <c r="JB5" s="38"/>
+      <c r="JC5" s="38"/>
+      <c r="JD5" s="38"/>
+      <c r="JE5" s="38"/>
+      <c r="JF5" s="38">
         <v>2020</v>
       </c>
-      <c r="JG5" s="42"/>
-      <c r="JH5" s="42"/>
-      <c r="JI5" s="42"/>
-      <c r="JJ5" s="42"/>
-      <c r="JK5" s="42"/>
-      <c r="JL5" s="42"/>
-      <c r="JM5" s="42"/>
-      <c r="JN5" s="42"/>
-      <c r="JO5" s="42"/>
-      <c r="JP5" s="42"/>
-      <c r="JQ5" s="42"/>
-      <c r="JR5" s="42">
+      <c r="JG5" s="38"/>
+      <c r="JH5" s="38"/>
+      <c r="JI5" s="38"/>
+      <c r="JJ5" s="38"/>
+      <c r="JK5" s="38"/>
+      <c r="JL5" s="38"/>
+      <c r="JM5" s="38"/>
+      <c r="JN5" s="38"/>
+      <c r="JO5" s="38"/>
+      <c r="JP5" s="38"/>
+      <c r="JQ5" s="38"/>
+      <c r="JR5" s="38">
         <v>2021</v>
       </c>
-      <c r="JS5" s="42"/>
-      <c r="JT5" s="42"/>
-      <c r="JU5" s="42"/>
-      <c r="JV5" s="42"/>
-      <c r="JW5" s="42"/>
-      <c r="JX5" s="42"/>
-      <c r="JY5" s="42"/>
-      <c r="JZ5" s="42"/>
-      <c r="KA5" s="42"/>
-      <c r="KB5" s="42"/>
+      <c r="JS5" s="38"/>
+      <c r="JT5" s="38"/>
+      <c r="JU5" s="38"/>
+      <c r="JV5" s="38"/>
+      <c r="JW5" s="38"/>
+      <c r="JX5" s="38"/>
+      <c r="JY5" s="38"/>
+      <c r="JZ5" s="38"/>
+      <c r="KA5" s="38"/>
+      <c r="KB5" s="38"/>
       <c r="KC5" s="39"/>
       <c r="KD5" s="39">
         <v>2022</v>
@@ -1272,19 +1275,20 @@
       <c r="KY5" s="40"/>
       <c r="KZ5" s="40"/>
       <c r="LA5" s="40"/>
-      <c r="LB5" s="37">
+      <c r="LB5" s="42">
         <v>2024</v>
       </c>
-      <c r="LC5" s="38"/>
-      <c r="LD5" s="38"/>
-      <c r="LE5" s="38"/>
-      <c r="LF5" s="38"/>
-      <c r="LG5" s="38"/>
-      <c r="LH5" s="38"/>
-      <c r="LI5" s="38"/>
+      <c r="LC5" s="43"/>
+      <c r="LD5" s="43"/>
+      <c r="LE5" s="43"/>
+      <c r="LF5" s="43"/>
+      <c r="LG5" s="43"/>
+      <c r="LH5" s="43"/>
+      <c r="LI5" s="43"/>
+      <c r="LJ5" s="43"/>
     </row>
-    <row r="6" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2242,11 +2246,14 @@
       <c r="LH6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="LI6" s="36" t="s">
+      <c r="LI6" s="35" t="s">
         <v>29</v>
       </c>
+      <c r="LJ6" s="36" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3208,11 +3215,14 @@
       <c r="LH7" s="3">
         <v>1185192</v>
       </c>
-      <c r="LI7" s="4">
+      <c r="LI7" s="3">
         <v>1183738</v>
       </c>
+      <c r="LJ7" s="4">
+        <v>1188944</v>
+      </c>
     </row>
-    <row r="8" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4173,11 +4183,14 @@
       <c r="LH8" s="30">
         <v>237495</v>
       </c>
-      <c r="LI8" s="6">
+      <c r="LI8" s="30">
         <v>237382</v>
       </c>
+      <c r="LJ8" s="6">
+        <v>240027</v>
+      </c>
     </row>
-    <row r="9" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -5138,11 +5151,14 @@
       <c r="LH9" s="30">
         <v>30407</v>
       </c>
-      <c r="LI9" s="6">
+      <c r="LI9" s="30">
         <v>29515</v>
       </c>
+      <c r="LJ9" s="6">
+        <v>29643</v>
+      </c>
     </row>
-    <row r="10" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -6103,11 +6119,14 @@
       <c r="LH10" s="30">
         <v>140256</v>
       </c>
-      <c r="LI10" s="6">
+      <c r="LI10" s="30">
         <v>138432</v>
       </c>
+      <c r="LJ10" s="6">
+        <v>138576</v>
+      </c>
     </row>
-    <row r="11" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -7068,11 +7087,14 @@
       <c r="LH11" s="30">
         <v>179001</v>
       </c>
-      <c r="LI11" s="6">
+      <c r="LI11" s="30">
         <v>179039</v>
       </c>
+      <c r="LJ11" s="6">
+        <v>179528</v>
+      </c>
     </row>
-    <row r="12" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -8033,11 +8055,14 @@
       <c r="LH12" s="30">
         <v>177538</v>
       </c>
-      <c r="LI12" s="6">
+      <c r="LI12" s="30">
         <v>177862</v>
       </c>
+      <c r="LJ12" s="6">
+        <v>178405</v>
+      </c>
     </row>
-    <row r="13" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -8998,11 +9023,14 @@
       <c r="LH13" s="30">
         <v>156458</v>
       </c>
-      <c r="LI13" s="6">
+      <c r="LI13" s="30">
         <v>156809</v>
       </c>
+      <c r="LJ13" s="6">
+        <v>157139</v>
+      </c>
     </row>
-    <row r="14" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9963,11 +9991,14 @@
       <c r="LH14" s="30">
         <v>141245</v>
       </c>
-      <c r="LI14" s="6">
+      <c r="LI14" s="30">
         <v>141585</v>
       </c>
+      <c r="LJ14" s="6">
+        <v>142164</v>
+      </c>
     </row>
-    <row r="15" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10928,11 +10959,14 @@
       <c r="LH15" s="30">
         <v>122763</v>
       </c>
-      <c r="LI15" s="6">
+      <c r="LI15" s="30">
         <v>123093</v>
       </c>
+      <c r="LJ15" s="6">
+        <v>123446</v>
+      </c>
     </row>
-    <row r="16" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11893,11 +11927,14 @@
       <c r="LH16" s="7">
         <v>29</v>
       </c>
-      <c r="LI16" s="8">
+      <c r="LI16" s="7">
         <v>21</v>
       </c>
+      <c r="LJ16" s="8">
+        <v>16</v>
+      </c>
     </row>
-    <row r="17" spans="1:321" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12859,11 +12896,14 @@
       <c r="LH17" s="3">
         <v>838286</v>
       </c>
-      <c r="LI17" s="4">
+      <c r="LI17" s="3">
         <v>838157</v>
       </c>
+      <c r="LJ17" s="4">
+        <v>845849</v>
+      </c>
     </row>
-    <row r="18" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13824,11 +13864,14 @@
       <c r="LH18" s="30">
         <v>153104</v>
       </c>
-      <c r="LI18" s="6">
+      <c r="LI18" s="30">
         <v>153073</v>
       </c>
+      <c r="LJ18" s="6">
+        <v>155876</v>
+      </c>
     </row>
-    <row r="19" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14789,11 +14832,14 @@
       <c r="LH19" s="30">
         <v>18271</v>
       </c>
-      <c r="LI19" s="6">
+      <c r="LI19" s="30">
         <v>17552</v>
       </c>
+      <c r="LJ19" s="6">
+        <v>17703</v>
+      </c>
     </row>
-    <row r="20" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15754,11 +15800,14 @@
       <c r="LH20" s="30">
         <v>100133</v>
       </c>
-      <c r="LI20" s="6">
+      <c r="LI20" s="30">
         <v>98737</v>
       </c>
+      <c r="LJ20" s="6">
+        <v>99364</v>
+      </c>
     </row>
-    <row r="21" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16719,11 +16768,14 @@
       <c r="LH21" s="30">
         <v>133442</v>
       </c>
-      <c r="LI21" s="6">
+      <c r="LI21" s="30">
         <v>134008</v>
       </c>
+      <c r="LJ21" s="6">
+        <v>135177</v>
+      </c>
     </row>
-    <row r="22" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17684,11 +17736,14 @@
       <c r="LH22" s="30">
         <v>127308</v>
       </c>
-      <c r="LI22" s="6">
+      <c r="LI22" s="30">
         <v>127660</v>
       </c>
+      <c r="LJ22" s="6">
+        <v>128372</v>
+      </c>
     </row>
-    <row r="23" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18649,11 +18704,14 @@
       <c r="LH23" s="30">
         <v>114157</v>
       </c>
-      <c r="LI23" s="6">
+      <c r="LI23" s="30">
         <v>114510</v>
       </c>
+      <c r="LJ23" s="6">
+        <v>115239</v>
+      </c>
     </row>
-    <row r="24" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19614,11 +19672,14 @@
       <c r="LH24" s="30">
         <v>103799</v>
       </c>
-      <c r="LI24" s="6">
+      <c r="LI24" s="30">
         <v>104170</v>
       </c>
+      <c r="LJ24" s="6">
+        <v>105007</v>
+      </c>
     </row>
-    <row r="25" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20579,11 +20640,14 @@
       <c r="LH25" s="30">
         <v>88064</v>
       </c>
-      <c r="LI25" s="6">
+      <c r="LI25" s="30">
         <v>88439</v>
       </c>
+      <c r="LJ25" s="6">
+        <v>89104</v>
+      </c>
     </row>
-    <row r="26" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -21544,11 +21608,14 @@
       <c r="LH26" s="7">
         <v>8</v>
       </c>
-      <c r="LI26" s="8">
+      <c r="LI26" s="7">
         <v>8</v>
       </c>
+      <c r="LJ26" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -22510,11 +22577,14 @@
       <c r="LH27" s="9">
         <v>2023478</v>
       </c>
-      <c r="LI27" s="10">
+      <c r="LI27" s="9">
         <v>2021895</v>
       </c>
+      <c r="LJ27" s="10">
+        <v>2034793</v>
+      </c>
     </row>
-    <row r="28" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23759,11 +23829,14 @@
       <c r="LH28" s="30">
         <v>390599</v>
       </c>
-      <c r="LI28" s="6">
+      <c r="LI28" s="30">
         <v>390455</v>
       </c>
+      <c r="LJ28" s="6">
+        <v>395903</v>
+      </c>
     </row>
-    <row r="29" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -25008,11 +25081,14 @@
       <c r="LH29" s="30">
         <v>48678</v>
       </c>
-      <c r="LI29" s="6">
+      <c r="LI29" s="30">
         <v>47067</v>
       </c>
+      <c r="LJ29" s="6">
+        <v>47346</v>
+      </c>
     </row>
-    <row r="30" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -26257,11 +26333,14 @@
       <c r="LH30" s="30">
         <v>240389</v>
       </c>
-      <c r="LI30" s="6">
+      <c r="LI30" s="30">
         <v>237169</v>
       </c>
+      <c r="LJ30" s="6">
+        <v>237940</v>
+      </c>
     </row>
-    <row r="31" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -27506,11 +27585,14 @@
       <c r="LH31" s="30">
         <v>312443</v>
       </c>
-      <c r="LI31" s="6">
+      <c r="LI31" s="30">
         <v>313047</v>
       </c>
+      <c r="LJ31" s="6">
+        <v>314705</v>
+      </c>
     </row>
-    <row r="32" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28755,11 +28837,14 @@
       <c r="LH32" s="30">
         <v>304846</v>
       </c>
-      <c r="LI32" s="6">
+      <c r="LI32" s="30">
         <v>305522</v>
       </c>
+      <c r="LJ32" s="6">
+        <v>306777</v>
+      </c>
     </row>
-    <row r="33" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -30004,11 +30089,14 @@
       <c r="LH33" s="30">
         <v>270615</v>
       </c>
-      <c r="LI33" s="6">
+      <c r="LI33" s="30">
         <v>271319</v>
       </c>
+      <c r="LJ33" s="6">
+        <v>272378</v>
+      </c>
     </row>
-    <row r="34" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -31253,11 +31341,14 @@
       <c r="LH34" s="30">
         <v>245044</v>
       </c>
-      <c r="LI34" s="6">
+      <c r="LI34" s="30">
         <v>245755</v>
       </c>
+      <c r="LJ34" s="6">
+        <v>247171</v>
+      </c>
     </row>
-    <row r="35" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -32502,11 +32593,14 @@
       <c r="LH35" s="30">
         <v>210827</v>
       </c>
-      <c r="LI35" s="6">
+      <c r="LI35" s="30">
         <v>211532</v>
       </c>
+      <c r="LJ35" s="6">
+        <v>212550</v>
+      </c>
     </row>
-    <row r="36" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -33751,11 +33845,14 @@
       <c r="LH36" s="7">
         <v>37</v>
       </c>
-      <c r="LI36" s="8">
+      <c r="LI36" s="7">
         <v>29</v>
       </c>
+      <c r="LJ36" s="8">
+        <v>23</v>
+      </c>
     </row>
-    <row r="37" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:322" x14ac:dyDescent="0.25">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -33771,13 +33868,25 @@
       <c r="LB37" s="5"/>
       <c r="LC37" s="5"/>
     </row>
-    <row r="38" spans="1:321" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:322" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="LB5:LJ5"/>
+    <mergeCell ref="KP5:LA5"/>
+    <mergeCell ref="KD5:KO5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -33794,18 +33903,6 @@
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
     <mergeCell ref="AX5:BI5"/>
-    <mergeCell ref="KP5:LA5"/>
-    <mergeCell ref="KD5:KO5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
-    <mergeCell ref="LB5:LI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
+++ b/Tabluados_imss/ta_jalisco_sexo_edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C2671-1BDA-4EDF-9A51-FB297D1B2270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04E8A9F-BF96-46FA-BE62-3A43AF2A2153}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="33">
   <si>
     <t>Hombre</t>
   </si>
@@ -140,7 +140,10 @@
     <t>Septiembre</t>
   </si>
   <si>
-    <t>Enero 1998 - septiembre 2024</t>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Enero 1998 - octubre 2024</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
     <xf numFmtId="3" fontId="1" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,11 +461,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,12 +747,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LJ38"/>
+  <dimension ref="A1:LK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KZ1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="LC1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="LK27" sqref="LK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,362 +893,362 @@
     <col min="316" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="LD3" s="2"/>
     </row>
-    <row r="4" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="4" spans="1:323" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:323" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="42">
         <v>1998</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42">
         <v>1999</v>
       </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42">
         <v>2000</v>
       </c>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38">
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42">
         <v>2001</v>
       </c>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38">
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42">
         <v>2002</v>
       </c>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
-      <c r="BJ5" s="38">
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42">
         <v>2003</v>
       </c>
-      <c r="BK5" s="38"/>
-      <c r="BL5" s="38"/>
-      <c r="BM5" s="38"/>
-      <c r="BN5" s="38"/>
-      <c r="BO5" s="38"/>
-      <c r="BP5" s="38"/>
-      <c r="BQ5" s="38"/>
-      <c r="BR5" s="38"/>
-      <c r="BS5" s="38"/>
-      <c r="BT5" s="38"/>
-      <c r="BU5" s="38"/>
-      <c r="BV5" s="38">
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="42"/>
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="42"/>
+      <c r="BV5" s="42">
         <v>2004</v>
       </c>
-      <c r="BW5" s="38"/>
-      <c r="BX5" s="38"/>
-      <c r="BY5" s="38"/>
-      <c r="BZ5" s="38"/>
-      <c r="CA5" s="38"/>
-      <c r="CB5" s="38"/>
-      <c r="CC5" s="38"/>
-      <c r="CD5" s="38"/>
-      <c r="CE5" s="38"/>
-      <c r="CF5" s="38"/>
-      <c r="CG5" s="38"/>
-      <c r="CH5" s="38">
+      <c r="BW5" s="42"/>
+      <c r="BX5" s="42"/>
+      <c r="BY5" s="42"/>
+      <c r="BZ5" s="42"/>
+      <c r="CA5" s="42"/>
+      <c r="CB5" s="42"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42">
         <v>2005</v>
       </c>
-      <c r="CI5" s="38"/>
-      <c r="CJ5" s="38"/>
-      <c r="CK5" s="38"/>
-      <c r="CL5" s="38"/>
-      <c r="CM5" s="38"/>
-      <c r="CN5" s="38"/>
-      <c r="CO5" s="38"/>
-      <c r="CP5" s="38"/>
-      <c r="CQ5" s="38"/>
-      <c r="CR5" s="38"/>
-      <c r="CS5" s="38"/>
-      <c r="CT5" s="38">
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="42"/>
+      <c r="CM5" s="42"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="42"/>
+      <c r="CT5" s="42">
         <v>2006</v>
       </c>
-      <c r="CU5" s="38"/>
-      <c r="CV5" s="38"/>
-      <c r="CW5" s="38"/>
-      <c r="CX5" s="38"/>
-      <c r="CY5" s="38"/>
-      <c r="CZ5" s="38"/>
-      <c r="DA5" s="38"/>
-      <c r="DB5" s="38"/>
-      <c r="DC5" s="38"/>
-      <c r="DD5" s="38"/>
-      <c r="DE5" s="38"/>
-      <c r="DF5" s="38">
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
+      <c r="CW5" s="42"/>
+      <c r="CX5" s="42"/>
+      <c r="CY5" s="42"/>
+      <c r="CZ5" s="42"/>
+      <c r="DA5" s="42"/>
+      <c r="DB5" s="42"/>
+      <c r="DC5" s="42"/>
+      <c r="DD5" s="42"/>
+      <c r="DE5" s="42"/>
+      <c r="DF5" s="42">
         <v>2007</v>
       </c>
-      <c r="DG5" s="38"/>
-      <c r="DH5" s="38"/>
-      <c r="DI5" s="38"/>
-      <c r="DJ5" s="38"/>
-      <c r="DK5" s="38"/>
-      <c r="DL5" s="38"/>
-      <c r="DM5" s="38"/>
-      <c r="DN5" s="38"/>
-      <c r="DO5" s="38"/>
-      <c r="DP5" s="38"/>
-      <c r="DQ5" s="38"/>
-      <c r="DR5" s="38">
+      <c r="DG5" s="42"/>
+      <c r="DH5" s="42"/>
+      <c r="DI5" s="42"/>
+      <c r="DJ5" s="42"/>
+      <c r="DK5" s="42"/>
+      <c r="DL5" s="42"/>
+      <c r="DM5" s="42"/>
+      <c r="DN5" s="42"/>
+      <c r="DO5" s="42"/>
+      <c r="DP5" s="42"/>
+      <c r="DQ5" s="42"/>
+      <c r="DR5" s="42">
         <v>2008</v>
       </c>
-      <c r="DS5" s="38"/>
-      <c r="DT5" s="38"/>
-      <c r="DU5" s="38"/>
-      <c r="DV5" s="38"/>
-      <c r="DW5" s="38"/>
-      <c r="DX5" s="38"/>
-      <c r="DY5" s="38"/>
-      <c r="DZ5" s="38"/>
-      <c r="EA5" s="38"/>
-      <c r="EB5" s="38"/>
-      <c r="EC5" s="38"/>
-      <c r="ED5" s="38">
+      <c r="DS5" s="42"/>
+      <c r="DT5" s="42"/>
+      <c r="DU5" s="42"/>
+      <c r="DV5" s="42"/>
+      <c r="DW5" s="42"/>
+      <c r="DX5" s="42"/>
+      <c r="DY5" s="42"/>
+      <c r="DZ5" s="42"/>
+      <c r="EA5" s="42"/>
+      <c r="EB5" s="42"/>
+      <c r="EC5" s="42"/>
+      <c r="ED5" s="42">
         <v>2009</v>
       </c>
-      <c r="EE5" s="38"/>
-      <c r="EF5" s="38"/>
-      <c r="EG5" s="38"/>
-      <c r="EH5" s="38"/>
-      <c r="EI5" s="38"/>
-      <c r="EJ5" s="38"/>
-      <c r="EK5" s="38"/>
-      <c r="EL5" s="38"/>
-      <c r="EM5" s="38"/>
-      <c r="EN5" s="38"/>
-      <c r="EO5" s="38"/>
-      <c r="EP5" s="38">
+      <c r="EE5" s="42"/>
+      <c r="EF5" s="42"/>
+      <c r="EG5" s="42"/>
+      <c r="EH5" s="42"/>
+      <c r="EI5" s="42"/>
+      <c r="EJ5" s="42"/>
+      <c r="EK5" s="42"/>
+      <c r="EL5" s="42"/>
+      <c r="EM5" s="42"/>
+      <c r="EN5" s="42"/>
+      <c r="EO5" s="42"/>
+      <c r="EP5" s="42">
         <v>2010</v>
       </c>
-      <c r="EQ5" s="38"/>
-      <c r="ER5" s="38"/>
-      <c r="ES5" s="38"/>
-      <c r="ET5" s="38"/>
-      <c r="EU5" s="38"/>
-      <c r="EV5" s="38"/>
-      <c r="EW5" s="38"/>
-      <c r="EX5" s="38"/>
-      <c r="EY5" s="38"/>
-      <c r="EZ5" s="38"/>
-      <c r="FA5" s="38"/>
-      <c r="FB5" s="38">
+      <c r="EQ5" s="42"/>
+      <c r="ER5" s="42"/>
+      <c r="ES5" s="42"/>
+      <c r="ET5" s="42"/>
+      <c r="EU5" s="42"/>
+      <c r="EV5" s="42"/>
+      <c r="EW5" s="42"/>
+      <c r="EX5" s="42"/>
+      <c r="EY5" s="42"/>
+      <c r="EZ5" s="42"/>
+      <c r="FA5" s="42"/>
+      <c r="FB5" s="42">
         <v>2011</v>
       </c>
-      <c r="FC5" s="38"/>
-      <c r="FD5" s="38"/>
-      <c r="FE5" s="38"/>
-      <c r="FF5" s="38"/>
-      <c r="FG5" s="38"/>
-      <c r="FH5" s="38"/>
-      <c r="FI5" s="38"/>
-      <c r="FJ5" s="38"/>
-      <c r="FK5" s="38"/>
-      <c r="FL5" s="38"/>
-      <c r="FM5" s="38"/>
-      <c r="FN5" s="38">
+      <c r="FC5" s="42"/>
+      <c r="FD5" s="42"/>
+      <c r="FE5" s="42"/>
+      <c r="FF5" s="42"/>
+      <c r="FG5" s="42"/>
+      <c r="FH5" s="42"/>
+      <c r="FI5" s="42"/>
+      <c r="FJ5" s="42"/>
+      <c r="FK5" s="42"/>
+      <c r="FL5" s="42"/>
+      <c r="FM5" s="42"/>
+      <c r="FN5" s="42">
         <v>2012</v>
       </c>
-      <c r="FO5" s="38"/>
-      <c r="FP5" s="38"/>
-      <c r="FQ5" s="38"/>
-      <c r="FR5" s="38"/>
-      <c r="FS5" s="38"/>
-      <c r="FT5" s="38"/>
-      <c r="FU5" s="38"/>
-      <c r="FV5" s="38"/>
-      <c r="FW5" s="38"/>
-      <c r="FX5" s="38"/>
-      <c r="FY5" s="38"/>
-      <c r="FZ5" s="38">
+      <c r="FO5" s="42"/>
+      <c r="FP5" s="42"/>
+      <c r="FQ5" s="42"/>
+      <c r="FR5" s="42"/>
+      <c r="FS5" s="42"/>
+      <c r="FT5" s="42"/>
+      <c r="FU5" s="42"/>
+      <c r="FV5" s="42"/>
+      <c r="FW5" s="42"/>
+      <c r="FX5" s="42"/>
+      <c r="FY5" s="42"/>
+      <c r="FZ5" s="42">
         <v>2013</v>
       </c>
-      <c r="GA5" s="38"/>
-      <c r="GB5" s="38"/>
-      <c r="GC5" s="38"/>
-      <c r="GD5" s="38"/>
-      <c r="GE5" s="38"/>
-      <c r="GF5" s="38"/>
-      <c r="GG5" s="38"/>
-      <c r="GH5" s="38"/>
-      <c r="GI5" s="38"/>
-      <c r="GJ5" s="38"/>
-      <c r="GK5" s="38"/>
-      <c r="GL5" s="38">
+      <c r="GA5" s="42"/>
+      <c r="GB5" s="42"/>
+      <c r="GC5" s="42"/>
+      <c r="GD5" s="42"/>
+      <c r="GE5" s="42"/>
+      <c r="GF5" s="42"/>
+      <c r="GG5" s="42"/>
+      <c r="GH5" s="42"/>
+      <c r="GI5" s="42"/>
+      <c r="GJ5" s="42"/>
+      <c r="GK5" s="42"/>
+      <c r="GL5" s="42">
         <v>2014</v>
       </c>
-      <c r="GM5" s="38"/>
-      <c r="GN5" s="38"/>
-      <c r="GO5" s="38"/>
-      <c r="GP5" s="38"/>
-      <c r="GQ5" s="38"/>
-      <c r="GR5" s="38"/>
-      <c r="GS5" s="38"/>
-      <c r="GT5" s="38"/>
-      <c r="GU5" s="38"/>
-      <c r="GV5" s="38"/>
-      <c r="GW5" s="38"/>
-      <c r="GX5" s="38">
+      <c r="GM5" s="42"/>
+      <c r="GN5" s="42"/>
+      <c r="GO5" s="42"/>
+      <c r="GP5" s="42"/>
+      <c r="GQ5" s="42"/>
+      <c r="GR5" s="42"/>
+      <c r="GS5" s="42"/>
+      <c r="GT5" s="42"/>
+      <c r="GU5" s="42"/>
+      <c r="GV5" s="42"/>
+      <c r="GW5" s="42"/>
+      <c r="GX5" s="42">
         <v>2015</v>
       </c>
-      <c r="GY5" s="38"/>
-      <c r="GZ5" s="38"/>
-      <c r="HA5" s="38"/>
-      <c r="HB5" s="38"/>
-      <c r="HC5" s="38"/>
-      <c r="HD5" s="38"/>
-      <c r="HE5" s="38"/>
-      <c r="HF5" s="38"/>
-      <c r="HG5" s="38"/>
-      <c r="HH5" s="38"/>
-      <c r="HI5" s="38"/>
-      <c r="HJ5" s="38">
+      <c r="GY5" s="42"/>
+      <c r="GZ5" s="42"/>
+      <c r="HA5" s="42"/>
+      <c r="HB5" s="42"/>
+      <c r="HC5" s="42"/>
+      <c r="HD5" s="42"/>
+      <c r="HE5" s="42"/>
+      <c r="HF5" s="42"/>
+      <c r="HG5" s="42"/>
+      <c r="HH5" s="42"/>
+      <c r="HI5" s="42"/>
+      <c r="HJ5" s="42">
         <v>2016</v>
       </c>
-      <c r="HK5" s="38"/>
-      <c r="HL5" s="38"/>
-      <c r="HM5" s="38"/>
-      <c r="HN5" s="38"/>
-      <c r="HO5" s="38"/>
-      <c r="HP5" s="38"/>
-      <c r="HQ5" s="38"/>
-      <c r="HR5" s="38"/>
-      <c r="HS5" s="38"/>
-      <c r="HT5" s="38"/>
-      <c r="HU5" s="38"/>
-      <c r="HV5" s="38">
+      <c r="HK5" s="42"/>
+      <c r="HL5" s="42"/>
+      <c r="HM5" s="42"/>
+      <c r="HN5" s="42"/>
+      <c r="HO5" s="42"/>
+      <c r="HP5" s="42"/>
+      <c r="HQ5" s="42"/>
+      <c r="HR5" s="42"/>
+      <c r="HS5" s="42"/>
+      <c r="HT5" s="42"/>
+      <c r="HU5" s="42"/>
+      <c r="HV5" s="42">
         <v>2017</v>
       </c>
-      <c r="HW5" s="38"/>
-      <c r="HX5" s="38"/>
-      <c r="HY5" s="38"/>
-      <c r="HZ5" s="38"/>
-      <c r="IA5" s="38"/>
-      <c r="IB5" s="38"/>
-      <c r="IC5" s="38"/>
-      <c r="ID5" s="38"/>
-      <c r="IE5" s="38"/>
-      <c r="IF5" s="38"/>
-      <c r="IG5" s="38"/>
-      <c r="IH5" s="38">
+      <c r="HW5" s="42"/>
+      <c r="HX5" s="42"/>
+      <c r="HY5" s="42"/>
+      <c r="HZ5" s="42"/>
+      <c r="IA5" s="42"/>
+      <c r="IB5" s="42"/>
+      <c r="IC5" s="42"/>
+      <c r="ID5" s="42"/>
+      <c r="IE5" s="42"/>
+      <c r="IF5" s="42"/>
+      <c r="IG5" s="42"/>
+      <c r="IH5" s="42">
         <v>2018</v>
       </c>
-      <c r="II5" s="38"/>
-      <c r="IJ5" s="38"/>
-      <c r="IK5" s="38"/>
-      <c r="IL5" s="38"/>
-      <c r="IM5" s="38"/>
-      <c r="IN5" s="38"/>
-      <c r="IO5" s="38"/>
-      <c r="IP5" s="38"/>
-      <c r="IQ5" s="38"/>
-      <c r="IR5" s="38"/>
-      <c r="IS5" s="38"/>
-      <c r="IT5" s="38">
+      <c r="II5" s="42"/>
+      <c r="IJ5" s="42"/>
+      <c r="IK5" s="42"/>
+      <c r="IL5" s="42"/>
+      <c r="IM5" s="42"/>
+      <c r="IN5" s="42"/>
+      <c r="IO5" s="42"/>
+      <c r="IP5" s="42"/>
+      <c r="IQ5" s="42"/>
+      <c r="IR5" s="42"/>
+      <c r="IS5" s="42"/>
+      <c r="IT5" s="42">
         <v>2019</v>
       </c>
-      <c r="IU5" s="38"/>
-      <c r="IV5" s="38"/>
-      <c r="IW5" s="38"/>
-      <c r="IX5" s="38"/>
-      <c r="IY5" s="38"/>
-      <c r="IZ5" s="38"/>
-      <c r="JA5" s="38"/>
-      <c r="JB5" s="38"/>
-      <c r="JC5" s="38"/>
-      <c r="JD5" s="38"/>
-      <c r="JE5" s="38"/>
-      <c r="JF5" s="38">
+      <c r="IU5" s="42"/>
+      <c r="IV5" s="42"/>
+      <c r="IW5" s="42"/>
+      <c r="IX5" s="42"/>
+      <c r="IY5" s="42"/>
+      <c r="IZ5" s="42"/>
+      <c r="JA5" s="42"/>
+      <c r="JB5" s="42"/>
+      <c r="JC5" s="42"/>
+      <c r="JD5" s="42"/>
+      <c r="JE5" s="42"/>
+      <c r="JF5" s="42">
         <v>2020</v>
       </c>
-      <c r="JG5" s="38"/>
-      <c r="JH5" s="38"/>
-      <c r="JI5" s="38"/>
-      <c r="JJ5" s="38"/>
-      <c r="JK5" s="38"/>
-      <c r="JL5" s="38"/>
-      <c r="JM5" s="38"/>
-      <c r="JN5" s="38"/>
-      <c r="JO5" s="38"/>
-      <c r="JP5" s="38"/>
-      <c r="JQ5" s="38"/>
-      <c r="JR5" s="38">
+      <c r="JG5" s="42"/>
+      <c r="JH5" s="42"/>
+      <c r="JI5" s="42"/>
+      <c r="JJ5" s="42"/>
+      <c r="JK5" s="42"/>
+      <c r="JL5" s="42"/>
+      <c r="JM5" s="42"/>
+      <c r="JN5" s="42"/>
+      <c r="JO5" s="42"/>
+      <c r="JP5" s="42"/>
+      <c r="JQ5" s="42"/>
+      <c r="JR5" s="42">
         <v>2021</v>
       </c>
-      <c r="JS5" s="38"/>
-      <c r="JT5" s="38"/>
-      <c r="JU5" s="38"/>
-      <c r="JV5" s="38"/>
-      <c r="JW5" s="38"/>
-      <c r="JX5" s="38"/>
-      <c r="JY5" s="38"/>
-      <c r="JZ5" s="38"/>
-      <c r="KA5" s="38"/>
-      <c r="KB5" s="38"/>
+      <c r="JS5" s="42"/>
+      <c r="JT5" s="42"/>
+      <c r="JU5" s="42"/>
+      <c r="JV5" s="42"/>
+      <c r="JW5" s="42"/>
+      <c r="JX5" s="42"/>
+      <c r="JY5" s="42"/>
+      <c r="JZ5" s="42"/>
+      <c r="KA5" s="42"/>
+      <c r="KB5" s="42"/>
       <c r="KC5" s="39"/>
       <c r="KD5" s="39">
         <v>2022</v>
@@ -1275,20 +1278,21 @@
       <c r="KY5" s="40"/>
       <c r="KZ5" s="40"/>
       <c r="LA5" s="40"/>
-      <c r="LB5" s="42">
+      <c r="LB5" s="37">
         <v>2024</v>
       </c>
-      <c r="LC5" s="43"/>
-      <c r="LD5" s="43"/>
-      <c r="LE5" s="43"/>
-      <c r="LF5" s="43"/>
-      <c r="LG5" s="43"/>
-      <c r="LH5" s="43"/>
-      <c r="LI5" s="43"/>
-      <c r="LJ5" s="43"/>
+      <c r="LC5" s="38"/>
+      <c r="LD5" s="38"/>
+      <c r="LE5" s="38"/>
+      <c r="LF5" s="38"/>
+      <c r="LG5" s="38"/>
+      <c r="LH5" s="38"/>
+      <c r="LI5" s="38"/>
+      <c r="LJ5" s="38"/>
+      <c r="LK5" s="38"/>
     </row>
-    <row r="6" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:323" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
       <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2252,8 +2256,11 @@
       <c r="LJ6" s="36" t="s">
         <v>30</v>
       </c>
+      <c r="LK6" s="36" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:323" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -3221,8 +3228,11 @@
       <c r="LJ7" s="4">
         <v>1188944</v>
       </c>
+      <c r="LK7" s="4">
+        <v>1199365</v>
+      </c>
     </row>
-    <row r="8" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -4189,8 +4199,11 @@
       <c r="LJ8" s="6">
         <v>240027</v>
       </c>
+      <c r="LK8" s="6">
+        <v>242095</v>
+      </c>
     </row>
-    <row r="9" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -5157,8 +5170,11 @@
       <c r="LJ9" s="6">
         <v>29643</v>
       </c>
+      <c r="LK9" s="6">
+        <v>30252</v>
+      </c>
     </row>
-    <row r="10" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
@@ -6125,8 +6141,11 @@
       <c r="LJ10" s="6">
         <v>138576</v>
       </c>
+      <c r="LK10" s="6">
+        <v>140344</v>
+      </c>
     </row>
-    <row r="11" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -7093,8 +7112,11 @@
       <c r="LJ11" s="6">
         <v>179528</v>
       </c>
+      <c r="LK11" s="6">
+        <v>181306</v>
+      </c>
     </row>
-    <row r="12" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -8061,8 +8083,11 @@
       <c r="LJ12" s="6">
         <v>178405</v>
       </c>
+      <c r="LK12" s="6">
+        <v>180087</v>
+      </c>
     </row>
-    <row r="13" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -9029,8 +9054,11 @@
       <c r="LJ13" s="6">
         <v>157139</v>
       </c>
+      <c r="LK13" s="6">
+        <v>158095</v>
+      </c>
     </row>
-    <row r="14" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
@@ -9997,8 +10025,11 @@
       <c r="LJ14" s="6">
         <v>142164</v>
       </c>
+      <c r="LK14" s="6">
+        <v>143047</v>
+      </c>
     </row>
-    <row r="15" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -10965,8 +10996,11 @@
       <c r="LJ15" s="6">
         <v>123446</v>
       </c>
+      <c r="LK15" s="6">
+        <v>124119</v>
+      </c>
     </row>
-    <row r="16" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
@@ -11933,8 +11967,11 @@
       <c r="LJ16" s="8">
         <v>16</v>
       </c>
+      <c r="LK16" s="8">
+        <v>20</v>
+      </c>
     </row>
-    <row r="17" spans="1:322" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:323" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
@@ -12902,8 +12939,11 @@
       <c r="LJ17" s="4">
         <v>845849</v>
       </c>
+      <c r="LK17" s="4">
+        <v>855113</v>
+      </c>
     </row>
-    <row r="18" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -13870,8 +13910,11 @@
       <c r="LJ18" s="6">
         <v>155876</v>
       </c>
+      <c r="LK18" s="6">
+        <v>157756</v>
+      </c>
     </row>
-    <row r="19" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -14838,8 +14881,11 @@
       <c r="LJ19" s="6">
         <v>17703</v>
       </c>
+      <c r="LK19" s="6">
+        <v>18179</v>
+      </c>
     </row>
-    <row r="20" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
@@ -15806,8 +15852,11 @@
       <c r="LJ20" s="6">
         <v>99364</v>
       </c>
+      <c r="LK20" s="6">
+        <v>100924</v>
+      </c>
     </row>
-    <row r="21" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -16774,8 +16823,11 @@
       <c r="LJ21" s="6">
         <v>135177</v>
       </c>
+      <c r="LK21" s="6">
+        <v>136696</v>
+      </c>
     </row>
-    <row r="22" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -17742,8 +17794,11 @@
       <c r="LJ22" s="6">
         <v>128372</v>
       </c>
+      <c r="LK22" s="6">
+        <v>129764</v>
+      </c>
     </row>
-    <row r="23" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -18710,8 +18765,11 @@
       <c r="LJ23" s="6">
         <v>115239</v>
       </c>
+      <c r="LK23" s="6">
+        <v>116286</v>
+      </c>
     </row>
-    <row r="24" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -19678,8 +19736,11 @@
       <c r="LJ24" s="6">
         <v>105007</v>
       </c>
+      <c r="LK24" s="6">
+        <v>105734</v>
+      </c>
     </row>
-    <row r="25" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
@@ -20646,8 +20707,11 @@
       <c r="LJ25" s="6">
         <v>89104</v>
       </c>
+      <c r="LK25" s="6">
+        <v>89767</v>
+      </c>
     </row>
-    <row r="26" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -21614,8 +21678,11 @@
       <c r="LJ26" s="8">
         <v>7</v>
       </c>
+      <c r="LK26" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -22583,8 +22650,11 @@
       <c r="LJ27" s="10">
         <v>2034793</v>
       </c>
+      <c r="LK27" s="10">
+        <v>2054478</v>
+      </c>
     </row>
-    <row r="28" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -23835,8 +23905,11 @@
       <c r="LJ28" s="6">
         <v>395903</v>
       </c>
+      <c r="LK28" s="6">
+        <v>399851</v>
+      </c>
     </row>
-    <row r="29" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -25087,8 +25160,11 @@
       <c r="LJ29" s="6">
         <v>47346</v>
       </c>
+      <c r="LK29" s="6">
+        <v>48431</v>
+      </c>
     </row>
-    <row r="30" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -26339,8 +26415,11 @@
       <c r="LJ30" s="6">
         <v>237940</v>
       </c>
+      <c r="LK30" s="6">
+        <v>241268</v>
+      </c>
     </row>
-    <row r="31" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -27591,8 +27670,11 @@
       <c r="LJ31" s="6">
         <v>314705</v>
       </c>
+      <c r="LK31" s="6">
+        <v>318002</v>
+      </c>
     </row>
-    <row r="32" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>5</v>
       </c>
@@ -28843,8 +28925,11 @@
       <c r="LJ32" s="6">
         <v>306777</v>
       </c>
+      <c r="LK32" s="6">
+        <v>309851</v>
+      </c>
     </row>
-    <row r="33" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
@@ -30095,8 +30180,11 @@
       <c r="LJ33" s="6">
         <v>272378</v>
       </c>
+      <c r="LK33" s="6">
+        <v>274381</v>
+      </c>
     </row>
-    <row r="34" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -31347,8 +31435,11 @@
       <c r="LJ34" s="6">
         <v>247171</v>
       </c>
+      <c r="LK34" s="6">
+        <v>248781</v>
+      </c>
     </row>
-    <row r="35" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>8</v>
       </c>
@@ -32599,8 +32690,11 @@
       <c r="LJ35" s="6">
         <v>212550</v>
       </c>
+      <c r="LK35" s="6">
+        <v>213886</v>
+      </c>
     </row>
-    <row r="36" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -33851,8 +33945,11 @@
       <c r="LJ36" s="8">
         <v>23</v>
       </c>
+      <c r="LK36" s="8">
+        <v>27</v>
+      </c>
     </row>
-    <row r="37" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:323" x14ac:dyDescent="0.25">
       <c r="KC37" s="5"/>
       <c r="KQ37" s="5"/>
       <c r="KR37" s="5"/>
@@ -33868,25 +33965,14 @@
       <c r="LB37" s="5"/>
       <c r="LC37" s="5"/>
     </row>
-    <row r="38" spans="1:322" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:323" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="LB5:LJ5"/>
-    <mergeCell ref="KP5:LA5"/>
-    <mergeCell ref="KD5:KO5"/>
-    <mergeCell ref="BJ5:BU5"/>
-    <mergeCell ref="JF5:JQ5"/>
-    <mergeCell ref="JR5:KC5"/>
-    <mergeCell ref="EP5:FA5"/>
-    <mergeCell ref="FB5:FM5"/>
-    <mergeCell ref="FN5:FY5"/>
-    <mergeCell ref="FZ5:GK5"/>
-    <mergeCell ref="GL5:GW5"/>
-    <mergeCell ref="GX5:HI5"/>
+    <mergeCell ref="LB5:LK5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="HJ5:HU5"/>
     <mergeCell ref="HV5:IG5"/>
@@ -33903,6 +33989,17 @@
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AL5:AW5"/>
     <mergeCell ref="AX5:BI5"/>
+    <mergeCell ref="KP5:LA5"/>
+    <mergeCell ref="KD5:KO5"/>
+    <mergeCell ref="BJ5:BU5"/>
+    <mergeCell ref="JF5:JQ5"/>
+    <mergeCell ref="JR5:KC5"/>
+    <mergeCell ref="EP5:FA5"/>
+    <mergeCell ref="FB5:FM5"/>
+    <mergeCell ref="FN5:FY5"/>
+    <mergeCell ref="FZ5:GK5"/>
+    <mergeCell ref="GL5:GW5"/>
+    <mergeCell ref="GX5:HI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
